--- a/01_doc/proj_plan/餐厅订餐系统_项目计划.xlsx
+++ b/01_doc/proj_plan/餐厅订餐系统_项目计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="00_文档历史" sheetId="11" r:id="rId1"/>
@@ -349,7 +349,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="160">
   <si>
     <t>姓名</t>
   </si>
@@ -858,6 +858,45 @@
   </si>
   <si>
     <t>日期</t>
+  </si>
+  <si>
+    <t>问题描述</t>
+  </si>
+  <si>
+    <t>已经解决</t>
+  </si>
+  <si>
+    <t>以后解决</t>
+  </si>
+  <si>
+    <t>问题标题</t>
+  </si>
+  <si>
+    <t>提交人</t>
+  </si>
+  <si>
+    <t>提交日期</t>
+  </si>
+  <si>
+    <t>计划解决日期</t>
+  </si>
+  <si>
+    <t>问题分析人</t>
+  </si>
+  <si>
+    <t>关闭</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>正在解决</t>
+  </si>
+  <si>
+    <t>解决方法</t>
   </si>
 </sst>
 </file>
@@ -1196,7 +1235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1253,6 +1292,14 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1400,14 +1447,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2031,6 +2071,74 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2050,7 +2158,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2365,7 +2473,7 @@
       <c r="A2" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B2" s="89">
+      <c r="B2" s="40">
         <v>41962</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -2382,7 +2490,7 @@
       <c r="A3" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B3" s="89">
+      <c r="B3" s="40">
         <v>41963</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -2429,10 +2537,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2441,7 +2549,7 @@
     <col min="2" max="2" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>30</v>
       </c>
@@ -2449,7 +2557,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>31</v>
       </c>
@@ -2457,7 +2565,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>32</v>
       </c>
@@ -2465,7 +2573,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>33</v>
       </c>
@@ -2473,32 +2581,32 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
         <v>117</v>
       </c>
@@ -2511,8 +2619,11 @@
       <c r="E12" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
         <v>118</v>
       </c>
@@ -2525,8 +2636,11 @@
       <c r="E13" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
         <v>119</v>
       </c>
@@ -2536,13 +2650,19 @@
       <c r="C14" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>127</v>
       </c>
@@ -2660,700 +2780,700 @@
   <sheetData>
     <row r="1" spans="2:13" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="47"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="53"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="48"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="50"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="56"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="48"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="50"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="56"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="48"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="50"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="56"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="47"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="53"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="48"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="50"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="56"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="48"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="50"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="56"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="48"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="50"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="56"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="51"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="53"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="59"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="45"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="60" t="s">
         <v>132</v>
       </c>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="56"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="62"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="57"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="59"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="65"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="57"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="59"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="65"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="57"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="59"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="65"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="57"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="59"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="64"/>
+      <c r="M18" s="65"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="57"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="59"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="65"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="57"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="58"/>
-      <c r="L20" s="58"/>
-      <c r="M20" s="59"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="64"/>
+      <c r="M20" s="65"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="57"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="58"/>
-      <c r="L21" s="58"/>
-      <c r="M21" s="59"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="64"/>
+      <c r="L21" s="64"/>
+      <c r="M21" s="65"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="57"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="58"/>
-      <c r="M22" s="59"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="64"/>
+      <c r="M22" s="65"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="57"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="58"/>
-      <c r="L23" s="58"/>
-      <c r="M23" s="59"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="64"/>
+      <c r="L23" s="64"/>
+      <c r="M23" s="65"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B24" s="57"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="58"/>
-      <c r="L24" s="58"/>
-      <c r="M24" s="59"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="65"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="57"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="58"/>
-      <c r="L25" s="58"/>
-      <c r="M25" s="59"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="64"/>
+      <c r="L25" s="64"/>
+      <c r="M25" s="65"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="57"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="58"/>
-      <c r="M26" s="59"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="64"/>
+      <c r="L26" s="64"/>
+      <c r="M26" s="65"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="60"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="61"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="61"/>
-      <c r="L27" s="61"/>
-      <c r="M27" s="62"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="67"/>
+      <c r="L27" s="67"/>
+      <c r="M27" s="68"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="45" t="s">
+      <c r="B28" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="45"/>
-      <c r="M28" s="45"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="51"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="38"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="44"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="39"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="40"/>
-      <c r="L30" s="40"/>
-      <c r="M30" s="41"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="46"/>
+      <c r="M30" s="47"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="39"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="40"/>
-      <c r="L31" s="40"/>
-      <c r="M31" s="41"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="47"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="39"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="40"/>
-      <c r="L32" s="40"/>
-      <c r="M32" s="41"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="46"/>
+      <c r="M32" s="47"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" s="39"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="40"/>
-      <c r="K33" s="40"/>
-      <c r="L33" s="40"/>
-      <c r="M33" s="41"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="46"/>
+      <c r="M33" s="47"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B34" s="39"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="40"/>
-      <c r="K34" s="40"/>
-      <c r="L34" s="40"/>
-      <c r="M34" s="41"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="46"/>
+      <c r="L34" s="46"/>
+      <c r="M34" s="47"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="42"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="43"/>
-      <c r="L35" s="43"/>
-      <c r="M35" s="44"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="49"/>
+      <c r="M35" s="50"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B36" s="45" t="s">
+      <c r="B36" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="C36" s="45"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="45"/>
-      <c r="L36" s="45"/>
-      <c r="M36" s="45"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="51"/>
+      <c r="L36" s="51"/>
+      <c r="M36" s="51"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B37" s="54" t="s">
+      <c r="B37" s="60" t="s">
         <v>131</v>
       </c>
-      <c r="C37" s="63"/>
-      <c r="D37" s="63"/>
-      <c r="E37" s="63"/>
-      <c r="F37" s="63"/>
-      <c r="G37" s="63"/>
-      <c r="H37" s="63"/>
-      <c r="I37" s="63"/>
-      <c r="J37" s="63"/>
-      <c r="K37" s="63"/>
-      <c r="L37" s="63"/>
-      <c r="M37" s="64"/>
+      <c r="C37" s="69"/>
+      <c r="D37" s="69"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="69"/>
+      <c r="G37" s="69"/>
+      <c r="H37" s="69"/>
+      <c r="I37" s="69"/>
+      <c r="J37" s="69"/>
+      <c r="K37" s="69"/>
+      <c r="L37" s="69"/>
+      <c r="M37" s="70"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B38" s="65"/>
-      <c r="C38" s="66"/>
-      <c r="D38" s="66"/>
-      <c r="E38" s="66"/>
-      <c r="F38" s="66"/>
-      <c r="G38" s="66"/>
-      <c r="H38" s="66"/>
-      <c r="I38" s="66"/>
-      <c r="J38" s="66"/>
-      <c r="K38" s="66"/>
-      <c r="L38" s="66"/>
-      <c r="M38" s="67"/>
+      <c r="B38" s="71"/>
+      <c r="C38" s="72"/>
+      <c r="D38" s="72"/>
+      <c r="E38" s="72"/>
+      <c r="F38" s="72"/>
+      <c r="G38" s="72"/>
+      <c r="H38" s="72"/>
+      <c r="I38" s="72"/>
+      <c r="J38" s="72"/>
+      <c r="K38" s="72"/>
+      <c r="L38" s="72"/>
+      <c r="M38" s="73"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B39" s="65"/>
-      <c r="C39" s="66"/>
-      <c r="D39" s="66"/>
-      <c r="E39" s="66"/>
-      <c r="F39" s="66"/>
-      <c r="G39" s="66"/>
-      <c r="H39" s="66"/>
-      <c r="I39" s="66"/>
-      <c r="J39" s="66"/>
-      <c r="K39" s="66"/>
-      <c r="L39" s="66"/>
-      <c r="M39" s="67"/>
+      <c r="B39" s="71"/>
+      <c r="C39" s="72"/>
+      <c r="D39" s="72"/>
+      <c r="E39" s="72"/>
+      <c r="F39" s="72"/>
+      <c r="G39" s="72"/>
+      <c r="H39" s="72"/>
+      <c r="I39" s="72"/>
+      <c r="J39" s="72"/>
+      <c r="K39" s="72"/>
+      <c r="L39" s="72"/>
+      <c r="M39" s="73"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B40" s="65"/>
-      <c r="C40" s="66"/>
-      <c r="D40" s="66"/>
-      <c r="E40" s="66"/>
-      <c r="F40" s="66"/>
-      <c r="G40" s="66"/>
-      <c r="H40" s="66"/>
-      <c r="I40" s="66"/>
-      <c r="J40" s="66"/>
-      <c r="K40" s="66"/>
-      <c r="L40" s="66"/>
-      <c r="M40" s="67"/>
+      <c r="B40" s="71"/>
+      <c r="C40" s="72"/>
+      <c r="D40" s="72"/>
+      <c r="E40" s="72"/>
+      <c r="F40" s="72"/>
+      <c r="G40" s="72"/>
+      <c r="H40" s="72"/>
+      <c r="I40" s="72"/>
+      <c r="J40" s="72"/>
+      <c r="K40" s="72"/>
+      <c r="L40" s="72"/>
+      <c r="M40" s="73"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="68"/>
-      <c r="C41" s="69"/>
-      <c r="D41" s="69"/>
-      <c r="E41" s="69"/>
-      <c r="F41" s="69"/>
-      <c r="G41" s="69"/>
-      <c r="H41" s="69"/>
-      <c r="I41" s="69"/>
-      <c r="J41" s="69"/>
-      <c r="K41" s="69"/>
-      <c r="L41" s="69"/>
-      <c r="M41" s="70"/>
+      <c r="B41" s="74"/>
+      <c r="C41" s="75"/>
+      <c r="D41" s="75"/>
+      <c r="E41" s="75"/>
+      <c r="F41" s="75"/>
+      <c r="G41" s="75"/>
+      <c r="H41" s="75"/>
+      <c r="I41" s="75"/>
+      <c r="J41" s="75"/>
+      <c r="K41" s="75"/>
+      <c r="L41" s="75"/>
+      <c r="M41" s="76"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B42" s="45" t="s">
+      <c r="B42" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="45"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="45"/>
-      <c r="J42" s="45"/>
-      <c r="K42" s="45"/>
-      <c r="L42" s="45"/>
-      <c r="M42" s="45"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="51"/>
+      <c r="J42" s="51"/>
+      <c r="K42" s="51"/>
+      <c r="L42" s="51"/>
+      <c r="M42" s="51"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B43" s="36" t="s">
+      <c r="B43" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="C43" s="37"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="37"/>
-      <c r="J43" s="37"/>
-      <c r="K43" s="37"/>
-      <c r="L43" s="37"/>
-      <c r="M43" s="38"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="43"/>
+      <c r="K43" s="43"/>
+      <c r="L43" s="43"/>
+      <c r="M43" s="44"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B44" s="39"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="40"/>
-      <c r="F44" s="40"/>
-      <c r="G44" s="40"/>
-      <c r="H44" s="40"/>
-      <c r="I44" s="40"/>
-      <c r="J44" s="40"/>
-      <c r="K44" s="40"/>
-      <c r="L44" s="40"/>
-      <c r="M44" s="41"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="46"/>
+      <c r="H44" s="46"/>
+      <c r="I44" s="46"/>
+      <c r="J44" s="46"/>
+      <c r="K44" s="46"/>
+      <c r="L44" s="46"/>
+      <c r="M44" s="47"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B45" s="39"/>
-      <c r="C45" s="40"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="40"/>
-      <c r="F45" s="40"/>
-      <c r="G45" s="40"/>
-      <c r="H45" s="40"/>
-      <c r="I45" s="40"/>
-      <c r="J45" s="40"/>
-      <c r="K45" s="40"/>
-      <c r="L45" s="40"/>
-      <c r="M45" s="41"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="46"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="46"/>
+      <c r="H45" s="46"/>
+      <c r="I45" s="46"/>
+      <c r="J45" s="46"/>
+      <c r="K45" s="46"/>
+      <c r="L45" s="46"/>
+      <c r="M45" s="47"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="39"/>
-      <c r="C46" s="40"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="40"/>
-      <c r="F46" s="40"/>
-      <c r="G46" s="40"/>
-      <c r="H46" s="40"/>
-      <c r="I46" s="40"/>
-      <c r="J46" s="40"/>
-      <c r="K46" s="40"/>
-      <c r="L46" s="40"/>
-      <c r="M46" s="41"/>
+      <c r="B46" s="45"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="46"/>
+      <c r="F46" s="46"/>
+      <c r="G46" s="46"/>
+      <c r="H46" s="46"/>
+      <c r="I46" s="46"/>
+      <c r="J46" s="46"/>
+      <c r="K46" s="46"/>
+      <c r="L46" s="46"/>
+      <c r="M46" s="47"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B47" s="39"/>
-      <c r="C47" s="40"/>
-      <c r="D47" s="40"/>
-      <c r="E47" s="40"/>
-      <c r="F47" s="40"/>
-      <c r="G47" s="40"/>
-      <c r="H47" s="40"/>
-      <c r="I47" s="40"/>
-      <c r="J47" s="40"/>
-      <c r="K47" s="40"/>
-      <c r="L47" s="40"/>
-      <c r="M47" s="41"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="46"/>
+      <c r="H47" s="46"/>
+      <c r="I47" s="46"/>
+      <c r="J47" s="46"/>
+      <c r="K47" s="46"/>
+      <c r="L47" s="46"/>
+      <c r="M47" s="47"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B48" s="39"/>
-      <c r="C48" s="40"/>
-      <c r="D48" s="40"/>
-      <c r="E48" s="40"/>
-      <c r="F48" s="40"/>
-      <c r="G48" s="40"/>
-      <c r="H48" s="40"/>
-      <c r="I48" s="40"/>
-      <c r="J48" s="40"/>
-      <c r="K48" s="40"/>
-      <c r="L48" s="40"/>
-      <c r="M48" s="41"/>
+      <c r="B48" s="45"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="46"/>
+      <c r="I48" s="46"/>
+      <c r="J48" s="46"/>
+      <c r="K48" s="46"/>
+      <c r="L48" s="46"/>
+      <c r="M48" s="47"/>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B49" s="42"/>
-      <c r="C49" s="43"/>
-      <c r="D49" s="43"/>
-      <c r="E49" s="43"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="43"/>
-      <c r="H49" s="43"/>
-      <c r="I49" s="43"/>
-      <c r="J49" s="43"/>
-      <c r="K49" s="43"/>
-      <c r="L49" s="43"/>
-      <c r="M49" s="44"/>
+      <c r="B49" s="48"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="49"/>
+      <c r="I49" s="49"/>
+      <c r="J49" s="49"/>
+      <c r="K49" s="49"/>
+      <c r="L49" s="49"/>
+      <c r="M49" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -3379,7 +3499,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
@@ -3402,10 +3522,10 @@
   <sheetData>
     <row r="1" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
+      <c r="A2" s="78"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
       <c r="E2" s="12" t="s">
         <v>3</v>
       </c>
@@ -3420,10 +3540,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="71">
+      <c r="A3" s="77">
         <v>1</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="77" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="7">
@@ -3446,8 +3566,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="71"/>
-      <c r="B4" s="71"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="77"/>
       <c r="C4" s="7">
         <v>1.2</v>
       </c>
@@ -3468,8 +3588,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="71"/>
-      <c r="B5" s="71"/>
+      <c r="A5" s="77"/>
+      <c r="B5" s="77"/>
       <c r="C5" s="7">
         <v>1.3</v>
       </c>
@@ -3490,8 +3610,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="71"/>
-      <c r="B6" s="71"/>
+      <c r="A6" s="77"/>
+      <c r="B6" s="77"/>
       <c r="C6" s="7">
         <v>1.4</v>
       </c>
@@ -3512,10 +3632,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="73">
+      <c r="A7" s="79">
         <v>2</v>
       </c>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="77" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="7">
@@ -3538,8 +3658,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="74"/>
-      <c r="B8" s="71"/>
+      <c r="A8" s="80"/>
+      <c r="B8" s="77"/>
       <c r="C8" s="7">
         <v>2.2000000000000002</v>
       </c>
@@ -3560,8 +3680,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="75"/>
-      <c r="B9" s="71"/>
+      <c r="A9" s="81"/>
+      <c r="B9" s="77"/>
       <c r="C9" s="7">
         <v>2.2999999999999998</v>
       </c>
@@ -3582,10 +3702,10 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="71">
+      <c r="A10" s="77">
         <v>3</v>
       </c>
-      <c r="B10" s="71" t="s">
+      <c r="B10" s="77" t="s">
         <v>38</v>
       </c>
       <c r="C10" s="9">
@@ -3608,8 +3728,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="71"/>
-      <c r="B11" s="71"/>
+      <c r="A11" s="77"/>
+      <c r="B11" s="77"/>
       <c r="C11" s="9">
         <v>3.2</v>
       </c>
@@ -3630,8 +3750,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="71"/>
-      <c r="B12" s="71"/>
+      <c r="A12" s="77"/>
+      <c r="B12" s="77"/>
       <c r="C12" s="9">
         <v>3.3</v>
       </c>
@@ -3652,8 +3772,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="71"/>
-      <c r="B13" s="71"/>
+      <c r="A13" s="77"/>
+      <c r="B13" s="77"/>
       <c r="C13" s="9">
         <v>3.4</v>
       </c>
@@ -3674,8 +3794,8 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="71"/>
-      <c r="B14" s="71"/>
+      <c r="A14" s="77"/>
+      <c r="B14" s="77"/>
       <c r="C14" s="9">
         <v>3.5</v>
       </c>
@@ -3696,8 +3816,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="71"/>
-      <c r="B15" s="71"/>
+      <c r="A15" s="77"/>
+      <c r="B15" s="77"/>
       <c r="C15" s="9">
         <v>3.6</v>
       </c>
@@ -3718,8 +3838,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="71"/>
-      <c r="B16" s="71"/>
+      <c r="A16" s="77"/>
+      <c r="B16" s="77"/>
       <c r="C16" s="9">
         <v>3.7</v>
       </c>
@@ -3740,8 +3860,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="71"/>
-      <c r="B17" s="71"/>
+      <c r="A17" s="77"/>
+      <c r="B17" s="77"/>
       <c r="C17" s="9">
         <v>3.8</v>
       </c>
@@ -3762,8 +3882,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="71"/>
-      <c r="B18" s="71"/>
+      <c r="A18" s="77"/>
+      <c r="B18" s="77"/>
       <c r="C18" s="9">
         <v>3.9</v>
       </c>
@@ -3784,8 +3904,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="71"/>
-      <c r="B19" s="71"/>
+      <c r="A19" s="77"/>
+      <c r="B19" s="77"/>
       <c r="C19" s="9" t="s">
         <v>51</v>
       </c>
@@ -3806,8 +3926,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="71"/>
-      <c r="B20" s="71"/>
+      <c r="A20" s="77"/>
+      <c r="B20" s="77"/>
       <c r="C20" s="9">
         <v>3.11</v>
       </c>
@@ -3828,8 +3948,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="71"/>
-      <c r="B21" s="71"/>
+      <c r="A21" s="77"/>
+      <c r="B21" s="77"/>
       <c r="C21" s="9">
         <v>3.12</v>
       </c>
@@ -3850,8 +3970,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="71"/>
-      <c r="B22" s="71"/>
+      <c r="A22" s="77"/>
+      <c r="B22" s="77"/>
       <c r="C22" s="9" t="s">
         <v>52</v>
       </c>
@@ -3872,10 +3992,10 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="71">
+      <c r="A23" s="77">
         <v>4</v>
       </c>
-      <c r="B23" s="73" t="s">
+      <c r="B23" s="79" t="s">
         <v>53</v>
       </c>
       <c r="C23" s="7">
@@ -3898,8 +4018,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="71"/>
-      <c r="B24" s="74"/>
+      <c r="A24" s="77"/>
+      <c r="B24" s="80"/>
       <c r="C24" s="7">
         <v>4.2</v>
       </c>
@@ -3920,8 +4040,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="71"/>
-      <c r="B25" s="74"/>
+      <c r="A25" s="77"/>
+      <c r="B25" s="80"/>
       <c r="C25" s="7">
         <v>4.3</v>
       </c>
@@ -3942,8 +4062,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="71"/>
-      <c r="B26" s="74"/>
+      <c r="A26" s="77"/>
+      <c r="B26" s="80"/>
       <c r="C26" s="7">
         <v>4.4000000000000004</v>
       </c>
@@ -3964,8 +4084,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="71"/>
-      <c r="B27" s="74"/>
+      <c r="A27" s="77"/>
+      <c r="B27" s="80"/>
       <c r="C27" s="7">
         <v>4.5</v>
       </c>
@@ -3986,8 +4106,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="71"/>
-      <c r="B28" s="74"/>
+      <c r="A28" s="77"/>
+      <c r="B28" s="80"/>
       <c r="C28" s="7">
         <v>4.5999999999999996</v>
       </c>
@@ -4008,8 +4128,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="71"/>
-      <c r="B29" s="74"/>
+      <c r="A29" s="77"/>
+      <c r="B29" s="80"/>
       <c r="C29" s="7">
         <v>4.7</v>
       </c>
@@ -4030,8 +4150,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="71"/>
-      <c r="B30" s="74"/>
+      <c r="A30" s="77"/>
+      <c r="B30" s="80"/>
       <c r="C30" s="7">
         <v>4.8</v>
       </c>
@@ -4052,8 +4172,8 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="71"/>
-      <c r="B31" s="75"/>
+      <c r="A31" s="77"/>
+      <c r="B31" s="81"/>
       <c r="C31" s="7">
         <v>4.9000000000000004</v>
       </c>
@@ -4074,10 +4194,10 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="71">
+      <c r="A32" s="77">
         <v>5</v>
       </c>
-      <c r="B32" s="71" t="s">
+      <c r="B32" s="77" t="s">
         <v>63</v>
       </c>
       <c r="C32" s="7">
@@ -4100,8 +4220,8 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="71"/>
-      <c r="B33" s="71"/>
+      <c r="A33" s="77"/>
+      <c r="B33" s="77"/>
       <c r="C33" s="7">
         <v>5.2</v>
       </c>
@@ -4122,8 +4242,8 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="71"/>
-      <c r="B34" s="71"/>
+      <c r="A34" s="77"/>
+      <c r="B34" s="77"/>
       <c r="C34" s="7">
         <v>5.3</v>
       </c>
@@ -4144,8 +4264,8 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" s="71"/>
-      <c r="B35" s="71"/>
+      <c r="A35" s="77"/>
+      <c r="B35" s="77"/>
       <c r="C35" s="7">
         <v>5.4</v>
       </c>
@@ -4166,8 +4286,8 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A36" s="71"/>
-      <c r="B36" s="71"/>
+      <c r="A36" s="77"/>
+      <c r="B36" s="77"/>
       <c r="C36" s="7">
         <v>5.5</v>
       </c>
@@ -4188,8 +4308,8 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" s="71"/>
-      <c r="B37" s="71"/>
+      <c r="A37" s="77"/>
+      <c r="B37" s="77"/>
       <c r="C37" s="7">
         <v>5.6</v>
       </c>
@@ -4210,8 +4330,8 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A38" s="71"/>
-      <c r="B38" s="71"/>
+      <c r="A38" s="77"/>
+      <c r="B38" s="77"/>
       <c r="C38" s="7">
         <v>5.7</v>
       </c>
@@ -4232,8 +4352,8 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A39" s="71"/>
-      <c r="B39" s="71"/>
+      <c r="A39" s="77"/>
+      <c r="B39" s="77"/>
       <c r="C39" s="7">
         <v>5.8</v>
       </c>
@@ -4254,10 +4374,10 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A40" s="71">
+      <c r="A40" s="77">
         <v>6</v>
       </c>
-      <c r="B40" s="71" t="s">
+      <c r="B40" s="77" t="s">
         <v>72</v>
       </c>
       <c r="C40" s="7">
@@ -4280,8 +4400,8 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A41" s="71"/>
-      <c r="B41" s="71"/>
+      <c r="A41" s="77"/>
+      <c r="B41" s="77"/>
       <c r="C41" s="7">
         <v>6.2</v>
       </c>
@@ -4302,8 +4422,8 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A42" s="71"/>
-      <c r="B42" s="71"/>
+      <c r="A42" s="77"/>
+      <c r="B42" s="77"/>
       <c r="C42" s="7">
         <v>6.3</v>
       </c>
@@ -4324,8 +4444,8 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A43" s="71"/>
-      <c r="B43" s="71"/>
+      <c r="A43" s="77"/>
+      <c r="B43" s="77"/>
       <c r="C43" s="7">
         <v>6.4</v>
       </c>
@@ -4346,8 +4466,8 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A44" s="71"/>
-      <c r="B44" s="71"/>
+      <c r="A44" s="77"/>
+      <c r="B44" s="77"/>
       <c r="C44" s="7">
         <v>6.5</v>
       </c>
@@ -4368,8 +4488,8 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A45" s="71"/>
-      <c r="B45" s="71"/>
+      <c r="A45" s="77"/>
+      <c r="B45" s="77"/>
       <c r="C45" s="7">
         <v>6.6</v>
       </c>
@@ -4748,59 +4868,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="83"/>
-      <c r="B1" s="83"/>
-      <c r="C1" s="81" t="s">
+      <c r="A1" s="89"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="87" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="78" t="s">
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="84" t="s">
         <v>76</v>
       </c>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79"/>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79"/>
-      <c r="Z1" s="79"/>
-      <c r="AA1" s="79"/>
-      <c r="AB1" s="79"/>
-      <c r="AC1" s="79"/>
-      <c r="AD1" s="79"/>
-      <c r="AE1" s="79"/>
-      <c r="AF1" s="79"/>
-      <c r="AG1" s="79"/>
-      <c r="AH1" s="79"/>
-      <c r="AI1" s="79"/>
-      <c r="AJ1" s="79"/>
-      <c r="AK1" s="79"/>
-      <c r="AL1" s="79"/>
-      <c r="AM1" s="79"/>
-      <c r="AN1" s="79"/>
-      <c r="AO1" s="79"/>
-      <c r="AP1" s="79"/>
-      <c r="AQ1" s="79"/>
-      <c r="AR1" s="79"/>
-      <c r="AS1" s="80"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
+      <c r="W1" s="85"/>
+      <c r="X1" s="85"/>
+      <c r="Y1" s="85"/>
+      <c r="Z1" s="85"/>
+      <c r="AA1" s="85"/>
+      <c r="AB1" s="85"/>
+      <c r="AC1" s="85"/>
+      <c r="AD1" s="85"/>
+      <c r="AE1" s="85"/>
+      <c r="AF1" s="85"/>
+      <c r="AG1" s="85"/>
+      <c r="AH1" s="85"/>
+      <c r="AI1" s="85"/>
+      <c r="AJ1" s="85"/>
+      <c r="AK1" s="85"/>
+      <c r="AL1" s="85"/>
+      <c r="AM1" s="85"/>
+      <c r="AN1" s="85"/>
+      <c r="AO1" s="85"/>
+      <c r="AP1" s="85"/>
+      <c r="AQ1" s="85"/>
+      <c r="AR1" s="85"/>
+      <c r="AS1" s="86"/>
     </row>
     <row r="2" spans="1:59" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="90"/>
       <c r="C2" s="16">
         <v>18</v>
       </c>
@@ -4950,9 +5070,9 @@
       <c r="B3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
@@ -4993,7 +5113,7 @@
       <c r="AQ3" s="19"/>
       <c r="AR3" s="19"/>
       <c r="AS3" s="19"/>
-      <c r="BF3" s="85"/>
+      <c r="BF3" s="36"/>
       <c r="BG3" s="4" t="s">
         <v>134</v>
       </c>
@@ -5048,7 +5168,7 @@
       <c r="AQ4" s="19"/>
       <c r="AR4" s="19"/>
       <c r="AS4" s="19"/>
-      <c r="BF4" s="86"/>
+      <c r="BF4" s="37"/>
       <c r="BG4" s="4" t="s">
         <v>135</v>
       </c>
@@ -5103,7 +5223,7 @@
       <c r="AQ5" s="19"/>
       <c r="AR5" s="19"/>
       <c r="AS5" s="19"/>
-      <c r="BF5" s="87"/>
+      <c r="BF5" s="38"/>
       <c r="BG5" s="4" t="s">
         <v>136</v>
       </c>
@@ -5158,7 +5278,7 @@
       <c r="AQ6" s="19"/>
       <c r="AR6" s="19"/>
       <c r="AS6" s="19"/>
-      <c r="BF6" s="88"/>
+      <c r="BF6" s="39"/>
       <c r="BG6" s="4" t="s">
         <v>16</v>
       </c>
@@ -7420,7 +7540,7 @@
   <dimension ref="B1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B2" sqref="B2:I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -7439,28 +7559,28 @@
   <sheetData>
     <row r="1" spans="2:9" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="90" t="s">
+      <c r="C2" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="90" t="s">
+      <c r="D2" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="E2" s="90" t="s">
+      <c r="E2" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="F2" s="90" t="s">
+      <c r="F2" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="G2" s="90" t="s">
+      <c r="G2" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="H2" s="90" t="s">
+      <c r="H2" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="I2" s="90" t="s">
+      <c r="I2" s="41" t="s">
         <v>115</v>
       </c>
     </row>
@@ -7711,13 +7831,382 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="41.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" customWidth="1"/>
+    <col min="7" max="8" width="15.28515625" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" customWidth="1"/>
+    <col min="10" max="11" width="21.7109375" customWidth="1"/>
+    <col min="12" max="12" width="31.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="H1" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="I1" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="J1" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="K1" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="L1" s="41" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="91"/>
+    </row>
+    <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="91"/>
+    </row>
+    <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="91"/>
+    </row>
+    <row r="5" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="91"/>
+    </row>
+    <row r="6" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="34"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="91"/>
+    </row>
+    <row r="7" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="91"/>
+    </row>
+    <row r="8" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="91"/>
+    </row>
+    <row r="9" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="91"/>
+    </row>
+    <row r="10" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="91"/>
+    </row>
+    <row r="11" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="34"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="91"/>
+    </row>
+    <row r="12" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="34"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="91"/>
+    </row>
+    <row r="13" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="91"/>
+    </row>
+    <row r="14" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="34"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="91"/>
+    </row>
+    <row r="15" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="34"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="91"/>
+    </row>
+    <row r="16" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="91"/>
+    </row>
+    <row r="17" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="91"/>
+    </row>
+    <row r="18" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="91"/>
+    </row>
+    <row r="19" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="91"/>
+    </row>
+    <row r="20" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="91"/>
+    </row>
+    <row r="21" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="34"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="91"/>
+    </row>
+    <row r="22" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="34"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="91"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Lengend!$B$12:$B$14</xm:f>
+          </x14:formula1>
+          <xm:sqref>E1:E22</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Lengend!$A$7:$A$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>G1:G1048576 I2:J22</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Lengend!$G$12:$G$15</xm:f>
+          </x14:formula1>
+          <xm:sqref>F1:F1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -7737,236 +8226,236 @@
   <sheetData>
     <row r="1" spans="2:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="38"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="44"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B4" s="39"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="41"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="47"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B5" s="39"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="41"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="47"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B6" s="39"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="41"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="47"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B7" s="39"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="41"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="47"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B8" s="39"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="41"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="47"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B9" s="42"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="44"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="50"/>
     </row>
     <row r="10" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="38"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="44"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B12" s="39"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="41"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="47"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B13" s="39"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="41"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="47"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B14" s="39"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="41"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="47"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B15" s="39"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="41"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="47"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B16" s="39"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="41"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="47"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B17" s="42"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="44"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7995,232 +8484,232 @@
   <sheetData>
     <row r="1" spans="2:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="36"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="38"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="44"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B4" s="39"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="41"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="47"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B5" s="39"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="41"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="47"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B6" s="39"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="41"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="47"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B7" s="39"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="41"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="47"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B8" s="39"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="41"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="47"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B9" s="42"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="44"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="50"/>
     </row>
     <row r="10" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B11" s="36"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="38"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="44"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B12" s="39"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="41"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="47"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B13" s="39"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="41"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="47"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B14" s="39"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="41"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="47"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B15" s="39"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="41"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="47"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B16" s="39"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="41"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="47"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B17" s="42"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="44"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/01_doc/proj_plan/餐厅订餐系统_项目计划.xlsx
+++ b/01_doc/proj_plan/餐厅订餐系统_项目计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="00_文档历史" sheetId="11" r:id="rId1"/>
@@ -124,7 +124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E7" authorId="0" shapeId="0">
+    <comment ref="F7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -271,7 +271,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U18" authorId="0" shapeId="0">
+    <comment ref="V18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -295,7 +295,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U19" authorId="0" shapeId="0">
+    <comment ref="V19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -320,7 +320,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U20" authorId="0" shapeId="0">
+    <comment ref="V20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -349,7 +349,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="150">
   <si>
     <t>姓名</t>
   </si>
@@ -594,18 +594,12 @@
     <t>用户管理模块详细设计</t>
   </si>
   <si>
-    <t>菜单浏览模块详细设计</t>
-  </si>
-  <si>
     <t>用户管理模块测试用例</t>
   </si>
   <si>
     <t>用户管理模块实现</t>
   </si>
   <si>
-    <t>菜单浏览模块实现</t>
-  </si>
-  <si>
     <t>系统集成测试(一阶段)</t>
   </si>
   <si>
@@ -631,9 +625,6 @@
   </si>
   <si>
     <t>提交详细设计和测试文档</t>
-  </si>
-  <si>
-    <t>菜单浏览模块测试用例</t>
   </si>
   <si>
     <t>项目交付物打包(一阶段)</t>
@@ -765,6 +756,57 @@
     <t>因委托人与投资人会谈需求，项目分为两期实施。
 第一期交付需求文档，系统架构设计文档，系统详细设计文档（模块1，4，5），测试用例（模块1，4，5），编码规范，系统代码（模块1，4，5,模块5仅包括WEB端），实施部署指南（模块1，4，5）。
 第二期交付所有交付列表罗列内容完整版本</t>
+  </si>
+  <si>
+    <t>文档/架构/代码</t>
+  </si>
+  <si>
+    <t>计划</t>
+  </si>
+  <si>
+    <t>进行中</t>
+  </si>
+  <si>
+    <t>已完成</t>
+  </si>
+  <si>
+    <t>版本</t>
+  </si>
+  <si>
+    <t>编写人</t>
+  </si>
+  <si>
+    <t>评审人</t>
+  </si>
+  <si>
+    <t>标注</t>
+  </si>
+  <si>
+    <t>v0.1</t>
+  </si>
+  <si>
+    <t>Frank CHEN</t>
+  </si>
+  <si>
+    <t>初始化版本</t>
+  </si>
+  <si>
+    <t>v1.0</t>
+  </si>
+  <si>
+    <t>客户sign off项目计划</t>
+  </si>
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>v1.1</t>
+  </si>
+  <si>
+    <t>Peng CHEN</t>
+  </si>
+  <si>
+    <t>修改模块名称</t>
   </si>
   <si>
     <r>
@@ -810,54 +852,21 @@
       </rPr>
       <t>1. 用户管理
 2. 会员管理
-3. 菜单管理
-4. 菜单浏览（含Android)
+3. 菜品管理
+4. 菜品浏览（含Android)
 5. 点菜下单（含Android)
 6. 收银结帐（含Android)
 7. 流水管理</t>
     </r>
   </si>
   <si>
-    <t>文档/架构/代码</t>
-  </si>
-  <si>
-    <t>计划</t>
-  </si>
-  <si>
-    <t>进行中</t>
-  </si>
-  <si>
-    <t>已完成</t>
-  </si>
-  <si>
-    <t>版本</t>
-  </si>
-  <si>
-    <t>编写人</t>
-  </si>
-  <si>
-    <t>评审人</t>
-  </si>
-  <si>
-    <t>标注</t>
-  </si>
-  <si>
-    <t>v0.1</t>
-  </si>
-  <si>
-    <t>Frank CHEN</t>
-  </si>
-  <si>
-    <t>初始化版本</t>
-  </si>
-  <si>
-    <t>v1.0</t>
-  </si>
-  <si>
-    <t>客户sign off项目计划</t>
-  </si>
-  <si>
-    <t>日期</t>
+    <t>菜品浏览模块详细设计</t>
+  </si>
+  <si>
+    <t>菜品浏览模块测试用例</t>
+  </si>
+  <si>
+    <t>菜品浏览模块实现</t>
   </si>
 </sst>
 </file>
@@ -1196,7 +1205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1253,6 +1262,14 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1391,84 +1408,17 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="88">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="80">
     <dxf>
       <fill>
         <patternFill>
@@ -2332,7 +2282,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -2346,61 +2296,71 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B2" s="89">
+        <v>137</v>
+      </c>
+      <c r="B2" s="40">
         <v>41962</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B3" s="89">
+        <v>140</v>
+      </c>
+      <c r="B3" s="40">
         <v>41963</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="40">
+        <v>41963</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
@@ -2500,56 +2460,56 @@
     </row>
     <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" t="s">
         <v>117</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>120</v>
       </c>
-      <c r="C12" t="s">
-        <v>123</v>
-      </c>
       <c r="E12" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" t="s">
         <v>118</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>121</v>
       </c>
-      <c r="C13" t="s">
-        <v>124</v>
-      </c>
       <c r="E13" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" t="s">
         <v>119</v>
       </c>
-      <c r="B14" t="s">
-        <v>122</v>
-      </c>
       <c r="C14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2634,7 +2594,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E6" s="4"/>
     </row>
@@ -2648,8 +2608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:M2"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -2660,700 +2620,700 @@
   <sheetData>
     <row r="1" spans="2:13" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="47"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="53"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="48"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="50"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="56"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="48"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="50"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="56"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="48"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="50"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="56"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="47"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="53"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="48"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="50"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="56"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="48"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="50"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="56"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="48"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="50"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="56"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="51"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="53"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="59"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="45"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="54" t="s">
-        <v>132</v>
-      </c>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="56"/>
+      <c r="B14" s="60" t="s">
+        <v>146</v>
+      </c>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="62"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="57"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="59"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="65"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="57"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="59"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="65"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="57"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="59"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="65"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="57"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="59"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="64"/>
+      <c r="M18" s="65"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="57"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="59"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="65"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="57"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="58"/>
-      <c r="L20" s="58"/>
-      <c r="M20" s="59"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="64"/>
+      <c r="M20" s="65"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="57"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="58"/>
-      <c r="L21" s="58"/>
-      <c r="M21" s="59"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="64"/>
+      <c r="L21" s="64"/>
+      <c r="M21" s="65"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="57"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="58"/>
-      <c r="M22" s="59"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="64"/>
+      <c r="M22" s="65"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="57"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="58"/>
-      <c r="L23" s="58"/>
-      <c r="M23" s="59"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="64"/>
+      <c r="L23" s="64"/>
+      <c r="M23" s="65"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B24" s="57"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="58"/>
-      <c r="L24" s="58"/>
-      <c r="M24" s="59"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="65"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="57"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="58"/>
-      <c r="L25" s="58"/>
-      <c r="M25" s="59"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="64"/>
+      <c r="L25" s="64"/>
+      <c r="M25" s="65"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="57"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="58"/>
-      <c r="M26" s="59"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="64"/>
+      <c r="L26" s="64"/>
+      <c r="M26" s="65"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="60"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="61"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="61"/>
-      <c r="L27" s="61"/>
-      <c r="M27" s="62"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="67"/>
+      <c r="L27" s="67"/>
+      <c r="M27" s="68"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="45" t="s">
+      <c r="B28" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="45"/>
-      <c r="M28" s="45"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="51"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="38"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="44"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="39"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="40"/>
-      <c r="L30" s="40"/>
-      <c r="M30" s="41"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="46"/>
+      <c r="M30" s="47"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="39"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="40"/>
-      <c r="L31" s="40"/>
-      <c r="M31" s="41"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="47"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="39"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="40"/>
-      <c r="L32" s="40"/>
-      <c r="M32" s="41"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="46"/>
+      <c r="M32" s="47"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" s="39"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="40"/>
-      <c r="K33" s="40"/>
-      <c r="L33" s="40"/>
-      <c r="M33" s="41"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="46"/>
+      <c r="M33" s="47"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B34" s="39"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="40"/>
-      <c r="K34" s="40"/>
-      <c r="L34" s="40"/>
-      <c r="M34" s="41"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="46"/>
+      <c r="L34" s="46"/>
+      <c r="M34" s="47"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="42"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="43"/>
-      <c r="L35" s="43"/>
-      <c r="M35" s="44"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="49"/>
+      <c r="M35" s="50"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B36" s="45" t="s">
-        <v>102</v>
-      </c>
-      <c r="C36" s="45"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="45"/>
-      <c r="L36" s="45"/>
-      <c r="M36" s="45"/>
+      <c r="B36" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="51"/>
+      <c r="L36" s="51"/>
+      <c r="M36" s="51"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B37" s="54" t="s">
-        <v>131</v>
-      </c>
-      <c r="C37" s="63"/>
-      <c r="D37" s="63"/>
-      <c r="E37" s="63"/>
-      <c r="F37" s="63"/>
-      <c r="G37" s="63"/>
-      <c r="H37" s="63"/>
-      <c r="I37" s="63"/>
-      <c r="J37" s="63"/>
-      <c r="K37" s="63"/>
-      <c r="L37" s="63"/>
-      <c r="M37" s="64"/>
+      <c r="B37" s="60" t="s">
+        <v>128</v>
+      </c>
+      <c r="C37" s="69"/>
+      <c r="D37" s="69"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="69"/>
+      <c r="G37" s="69"/>
+      <c r="H37" s="69"/>
+      <c r="I37" s="69"/>
+      <c r="J37" s="69"/>
+      <c r="K37" s="69"/>
+      <c r="L37" s="69"/>
+      <c r="M37" s="70"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B38" s="65"/>
-      <c r="C38" s="66"/>
-      <c r="D38" s="66"/>
-      <c r="E38" s="66"/>
-      <c r="F38" s="66"/>
-      <c r="G38" s="66"/>
-      <c r="H38" s="66"/>
-      <c r="I38" s="66"/>
-      <c r="J38" s="66"/>
-      <c r="K38" s="66"/>
-      <c r="L38" s="66"/>
-      <c r="M38" s="67"/>
+      <c r="B38" s="71"/>
+      <c r="C38" s="72"/>
+      <c r="D38" s="72"/>
+      <c r="E38" s="72"/>
+      <c r="F38" s="72"/>
+      <c r="G38" s="72"/>
+      <c r="H38" s="72"/>
+      <c r="I38" s="72"/>
+      <c r="J38" s="72"/>
+      <c r="K38" s="72"/>
+      <c r="L38" s="72"/>
+      <c r="M38" s="73"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B39" s="65"/>
-      <c r="C39" s="66"/>
-      <c r="D39" s="66"/>
-      <c r="E39" s="66"/>
-      <c r="F39" s="66"/>
-      <c r="G39" s="66"/>
-      <c r="H39" s="66"/>
-      <c r="I39" s="66"/>
-      <c r="J39" s="66"/>
-      <c r="K39" s="66"/>
-      <c r="L39" s="66"/>
-      <c r="M39" s="67"/>
+      <c r="B39" s="71"/>
+      <c r="C39" s="72"/>
+      <c r="D39" s="72"/>
+      <c r="E39" s="72"/>
+      <c r="F39" s="72"/>
+      <c r="G39" s="72"/>
+      <c r="H39" s="72"/>
+      <c r="I39" s="72"/>
+      <c r="J39" s="72"/>
+      <c r="K39" s="72"/>
+      <c r="L39" s="72"/>
+      <c r="M39" s="73"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B40" s="65"/>
-      <c r="C40" s="66"/>
-      <c r="D40" s="66"/>
-      <c r="E40" s="66"/>
-      <c r="F40" s="66"/>
-      <c r="G40" s="66"/>
-      <c r="H40" s="66"/>
-      <c r="I40" s="66"/>
-      <c r="J40" s="66"/>
-      <c r="K40" s="66"/>
-      <c r="L40" s="66"/>
-      <c r="M40" s="67"/>
+      <c r="B40" s="71"/>
+      <c r="C40" s="72"/>
+      <c r="D40" s="72"/>
+      <c r="E40" s="72"/>
+      <c r="F40" s="72"/>
+      <c r="G40" s="72"/>
+      <c r="H40" s="72"/>
+      <c r="I40" s="72"/>
+      <c r="J40" s="72"/>
+      <c r="K40" s="72"/>
+      <c r="L40" s="72"/>
+      <c r="M40" s="73"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="68"/>
-      <c r="C41" s="69"/>
-      <c r="D41" s="69"/>
-      <c r="E41" s="69"/>
-      <c r="F41" s="69"/>
-      <c r="G41" s="69"/>
-      <c r="H41" s="69"/>
-      <c r="I41" s="69"/>
-      <c r="J41" s="69"/>
-      <c r="K41" s="69"/>
-      <c r="L41" s="69"/>
-      <c r="M41" s="70"/>
+      <c r="B41" s="74"/>
+      <c r="C41" s="75"/>
+      <c r="D41" s="75"/>
+      <c r="E41" s="75"/>
+      <c r="F41" s="75"/>
+      <c r="G41" s="75"/>
+      <c r="H41" s="75"/>
+      <c r="I41" s="75"/>
+      <c r="J41" s="75"/>
+      <c r="K41" s="75"/>
+      <c r="L41" s="75"/>
+      <c r="M41" s="76"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B42" s="45" t="s">
+      <c r="B42" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="45"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="45"/>
-      <c r="J42" s="45"/>
-      <c r="K42" s="45"/>
-      <c r="L42" s="45"/>
-      <c r="M42" s="45"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="51"/>
+      <c r="J42" s="51"/>
+      <c r="K42" s="51"/>
+      <c r="L42" s="51"/>
+      <c r="M42" s="51"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B43" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="C43" s="37"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="37"/>
-      <c r="J43" s="37"/>
-      <c r="K43" s="37"/>
-      <c r="L43" s="37"/>
-      <c r="M43" s="38"/>
+      <c r="B43" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="43"/>
+      <c r="K43" s="43"/>
+      <c r="L43" s="43"/>
+      <c r="M43" s="44"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B44" s="39"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="40"/>
-      <c r="F44" s="40"/>
-      <c r="G44" s="40"/>
-      <c r="H44" s="40"/>
-      <c r="I44" s="40"/>
-      <c r="J44" s="40"/>
-      <c r="K44" s="40"/>
-      <c r="L44" s="40"/>
-      <c r="M44" s="41"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="46"/>
+      <c r="H44" s="46"/>
+      <c r="I44" s="46"/>
+      <c r="J44" s="46"/>
+      <c r="K44" s="46"/>
+      <c r="L44" s="46"/>
+      <c r="M44" s="47"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B45" s="39"/>
-      <c r="C45" s="40"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="40"/>
-      <c r="F45" s="40"/>
-      <c r="G45" s="40"/>
-      <c r="H45" s="40"/>
-      <c r="I45" s="40"/>
-      <c r="J45" s="40"/>
-      <c r="K45" s="40"/>
-      <c r="L45" s="40"/>
-      <c r="M45" s="41"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="46"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="46"/>
+      <c r="H45" s="46"/>
+      <c r="I45" s="46"/>
+      <c r="J45" s="46"/>
+      <c r="K45" s="46"/>
+      <c r="L45" s="46"/>
+      <c r="M45" s="47"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="39"/>
-      <c r="C46" s="40"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="40"/>
-      <c r="F46" s="40"/>
-      <c r="G46" s="40"/>
-      <c r="H46" s="40"/>
-      <c r="I46" s="40"/>
-      <c r="J46" s="40"/>
-      <c r="K46" s="40"/>
-      <c r="L46" s="40"/>
-      <c r="M46" s="41"/>
+      <c r="B46" s="45"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="46"/>
+      <c r="F46" s="46"/>
+      <c r="G46" s="46"/>
+      <c r="H46" s="46"/>
+      <c r="I46" s="46"/>
+      <c r="J46" s="46"/>
+      <c r="K46" s="46"/>
+      <c r="L46" s="46"/>
+      <c r="M46" s="47"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B47" s="39"/>
-      <c r="C47" s="40"/>
-      <c r="D47" s="40"/>
-      <c r="E47" s="40"/>
-      <c r="F47" s="40"/>
-      <c r="G47" s="40"/>
-      <c r="H47" s="40"/>
-      <c r="I47" s="40"/>
-      <c r="J47" s="40"/>
-      <c r="K47" s="40"/>
-      <c r="L47" s="40"/>
-      <c r="M47" s="41"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="46"/>
+      <c r="H47" s="46"/>
+      <c r="I47" s="46"/>
+      <c r="J47" s="46"/>
+      <c r="K47" s="46"/>
+      <c r="L47" s="46"/>
+      <c r="M47" s="47"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B48" s="39"/>
-      <c r="C48" s="40"/>
-      <c r="D48" s="40"/>
-      <c r="E48" s="40"/>
-      <c r="F48" s="40"/>
-      <c r="G48" s="40"/>
-      <c r="H48" s="40"/>
-      <c r="I48" s="40"/>
-      <c r="J48" s="40"/>
-      <c r="K48" s="40"/>
-      <c r="L48" s="40"/>
-      <c r="M48" s="41"/>
+      <c r="B48" s="45"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="46"/>
+      <c r="I48" s="46"/>
+      <c r="J48" s="46"/>
+      <c r="K48" s="46"/>
+      <c r="L48" s="46"/>
+      <c r="M48" s="47"/>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B49" s="42"/>
-      <c r="C49" s="43"/>
-      <c r="D49" s="43"/>
-      <c r="E49" s="43"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="43"/>
-      <c r="H49" s="43"/>
-      <c r="I49" s="43"/>
-      <c r="J49" s="43"/>
-      <c r="K49" s="43"/>
-      <c r="L49" s="43"/>
-      <c r="M49" s="44"/>
+      <c r="B49" s="48"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="49"/>
+      <c r="I49" s="49"/>
+      <c r="J49" s="49"/>
+      <c r="K49" s="49"/>
+      <c r="L49" s="49"/>
+      <c r="M49" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -3377,11 +3337,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="C37" sqref="A37:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -3402,10 +3362,10 @@
   <sheetData>
     <row r="1" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
+      <c r="A2" s="78"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
       <c r="E2" s="12" t="s">
         <v>3</v>
       </c>
@@ -3420,10 +3380,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="71">
+      <c r="A3" s="77">
         <v>1</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="77" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="7">
@@ -3446,8 +3406,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="71"/>
-      <c r="B4" s="71"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="77"/>
       <c r="C4" s="7">
         <v>1.2</v>
       </c>
@@ -3468,8 +3428,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="71"/>
-      <c r="B5" s="71"/>
+      <c r="A5" s="77"/>
+      <c r="B5" s="77"/>
       <c r="C5" s="7">
         <v>1.3</v>
       </c>
@@ -3490,8 +3450,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="71"/>
-      <c r="B6" s="71"/>
+      <c r="A6" s="77"/>
+      <c r="B6" s="77"/>
       <c r="C6" s="7">
         <v>1.4</v>
       </c>
@@ -3512,10 +3472,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="73">
+      <c r="A7" s="79">
         <v>2</v>
       </c>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="77" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="7">
@@ -3538,8 +3498,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="74"/>
-      <c r="B8" s="71"/>
+      <c r="A8" s="80"/>
+      <c r="B8" s="77"/>
       <c r="C8" s="7">
         <v>2.2000000000000002</v>
       </c>
@@ -3560,8 +3520,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="75"/>
-      <c r="B9" s="71"/>
+      <c r="A9" s="81"/>
+      <c r="B9" s="77"/>
       <c r="C9" s="7">
         <v>2.2999999999999998</v>
       </c>
@@ -3582,10 +3542,10 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="71">
+      <c r="A10" s="77">
         <v>3</v>
       </c>
-      <c r="B10" s="71" t="s">
+      <c r="B10" s="77" t="s">
         <v>38</v>
       </c>
       <c r="C10" s="9">
@@ -3608,8 +3568,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="71"/>
-      <c r="B11" s="71"/>
+      <c r="A11" s="77"/>
+      <c r="B11" s="77"/>
       <c r="C11" s="9">
         <v>3.2</v>
       </c>
@@ -3630,8 +3590,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="71"/>
-      <c r="B12" s="71"/>
+      <c r="A12" s="77"/>
+      <c r="B12" s="77"/>
       <c r="C12" s="9">
         <v>3.3</v>
       </c>
@@ -3652,8 +3612,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="71"/>
-      <c r="B13" s="71"/>
+      <c r="A13" s="77"/>
+      <c r="B13" s="77"/>
       <c r="C13" s="9">
         <v>3.4</v>
       </c>
@@ -3674,8 +3634,8 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="71"/>
-      <c r="B14" s="71"/>
+      <c r="A14" s="77"/>
+      <c r="B14" s="77"/>
       <c r="C14" s="9">
         <v>3.5</v>
       </c>
@@ -3696,8 +3656,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="71"/>
-      <c r="B15" s="71"/>
+      <c r="A15" s="77"/>
+      <c r="B15" s="77"/>
       <c r="C15" s="9">
         <v>3.6</v>
       </c>
@@ -3718,8 +3678,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="71"/>
-      <c r="B16" s="71"/>
+      <c r="A16" s="77"/>
+      <c r="B16" s="77"/>
       <c r="C16" s="9">
         <v>3.7</v>
       </c>
@@ -3740,8 +3700,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="71"/>
-      <c r="B17" s="71"/>
+      <c r="A17" s="77"/>
+      <c r="B17" s="77"/>
       <c r="C17" s="9">
         <v>3.8</v>
       </c>
@@ -3762,8 +3722,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="71"/>
-      <c r="B18" s="71"/>
+      <c r="A18" s="77"/>
+      <c r="B18" s="77"/>
       <c r="C18" s="9">
         <v>3.9</v>
       </c>
@@ -3784,8 +3744,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="71"/>
-      <c r="B19" s="71"/>
+      <c r="A19" s="77"/>
+      <c r="B19" s="77"/>
       <c r="C19" s="9" t="s">
         <v>51</v>
       </c>
@@ -3806,8 +3766,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="71"/>
-      <c r="B20" s="71"/>
+      <c r="A20" s="77"/>
+      <c r="B20" s="77"/>
       <c r="C20" s="9">
         <v>3.11</v>
       </c>
@@ -3828,8 +3788,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="71"/>
-      <c r="B21" s="71"/>
+      <c r="A21" s="77"/>
+      <c r="B21" s="77"/>
       <c r="C21" s="9">
         <v>3.12</v>
       </c>
@@ -3850,39 +3810,39 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="71"/>
-      <c r="B22" s="71"/>
-      <c r="C22" s="9" t="s">
-        <v>52</v>
+      <c r="A22" s="77">
+        <v>4</v>
+      </c>
+      <c r="B22" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="7">
+        <v>4.0999999999999996</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>29</v>
       </c>
       <c r="F22" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="H22" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="71">
-        <v>4</v>
-      </c>
-      <c r="B23" s="73" t="s">
-        <v>53</v>
-      </c>
+      <c r="A23" s="77"/>
+      <c r="B23" s="80"/>
       <c r="C23" s="7">
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>29</v>
@@ -3898,13 +3858,13 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="71"/>
-      <c r="B24" s="74"/>
+      <c r="A24" s="77"/>
+      <c r="B24" s="80"/>
       <c r="C24" s="7">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>29</v>
@@ -3920,13 +3880,13 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="71"/>
-      <c r="B25" s="74"/>
+      <c r="A25" s="77"/>
+      <c r="B25" s="80"/>
       <c r="C25" s="7">
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>29</v>
@@ -3942,13 +3902,13 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="71"/>
-      <c r="B26" s="74"/>
+      <c r="A26" s="77"/>
+      <c r="B26" s="80"/>
       <c r="C26" s="7">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>29</v>
@@ -3964,13 +3924,13 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="71"/>
-      <c r="B27" s="74"/>
+      <c r="A27" s="77"/>
+      <c r="B27" s="80"/>
       <c r="C27" s="7">
-        <v>4.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>29</v>
@@ -3986,13 +3946,13 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="71"/>
-      <c r="B28" s="74"/>
+      <c r="A28" s="77"/>
+      <c r="B28" s="80"/>
       <c r="C28" s="7">
-        <v>4.5999999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>29</v>
@@ -4008,13 +3968,13 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="71"/>
-      <c r="B29" s="74"/>
+      <c r="A29" s="77"/>
+      <c r="B29" s="80"/>
       <c r="C29" s="7">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>29</v>
@@ -4030,13 +3990,17 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="71"/>
-      <c r="B30" s="74"/>
+      <c r="A30" s="77">
+        <v>5</v>
+      </c>
+      <c r="B30" s="77" t="s">
+        <v>63</v>
+      </c>
       <c r="C30" s="7">
-        <v>4.8</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>29</v>
@@ -4045,20 +4009,20 @@
         <v>27</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="71"/>
-      <c r="B31" s="75"/>
+      <c r="A31" s="77"/>
+      <c r="B31" s="77"/>
       <c r="C31" s="7">
-        <v>4.9000000000000004</v>
+        <v>5.2</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>29</v>
@@ -4067,24 +4031,20 @@
         <v>27</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="71">
-        <v>5</v>
-      </c>
-      <c r="B32" s="71" t="s">
-        <v>63</v>
-      </c>
+      <c r="A32" s="77"/>
+      <c r="B32" s="77"/>
       <c r="C32" s="7">
-        <v>5.0999999999999996</v>
+        <v>5.3</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>29</v>
@@ -4100,13 +4060,13 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="71"/>
-      <c r="B33" s="71"/>
+      <c r="A33" s="77"/>
+      <c r="B33" s="77"/>
       <c r="C33" s="7">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>29</v>
@@ -4115,20 +4075,20 @@
         <v>27</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H33" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="71"/>
-      <c r="B34" s="71"/>
+      <c r="A34" s="77"/>
+      <c r="B34" s="77"/>
       <c r="C34" s="7">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>29</v>
@@ -4137,20 +4097,20 @@
         <v>27</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H34" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" s="71"/>
-      <c r="B35" s="71"/>
+      <c r="A35" s="77"/>
+      <c r="B35" s="77"/>
       <c r="C35" s="7">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>29</v>
@@ -4166,13 +4126,13 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A36" s="71"/>
-      <c r="B36" s="71"/>
+      <c r="A36" s="77"/>
+      <c r="B36" s="77"/>
       <c r="C36" s="7">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E36" s="8" t="s">
         <v>29</v>
@@ -4188,308 +4148,214 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" s="71"/>
-      <c r="B37" s="71"/>
+      <c r="A37" s="77">
+        <v>6</v>
+      </c>
+      <c r="B37" s="77" t="s">
+        <v>72</v>
+      </c>
       <c r="C37" s="7">
-        <v>5.6</v>
+        <v>6.1</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="E37" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F37" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="G37" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>28</v>
       </c>
       <c r="H37" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A38" s="71"/>
-      <c r="B38" s="71"/>
+      <c r="A38" s="77"/>
+      <c r="B38" s="77"/>
       <c r="C38" s="7">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E38" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E38" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F38" s="8" t="s">
+      <c r="F38" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G38" s="8" t="s">
+      <c r="G38" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A39" s="77"/>
+      <c r="B39" s="77"/>
+      <c r="C39" s="7">
+        <v>6.3</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A40" s="77"/>
+      <c r="B40" s="77"/>
+      <c r="C40" s="7">
+        <v>6.4</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G40" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H38" s="8" t="s">
+      <c r="H40" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A41" s="77"/>
+      <c r="B41" s="77"/>
+      <c r="C41" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41" s="8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A39" s="71"/>
-      <c r="B39" s="71"/>
-      <c r="C39" s="7">
-        <v>5.8</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E39" s="8" t="s">
+      <c r="G41" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A42" s="77"/>
+      <c r="B42" s="77"/>
+      <c r="C42" s="7">
+        <v>6.6</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E42" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F39" s="8" t="s">
+      <c r="F42" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G39" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H39" s="8" t="s">
+      <c r="G42" s="8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A40" s="71">
-        <v>6</v>
-      </c>
-      <c r="B40" s="71" t="s">
-        <v>72</v>
-      </c>
-      <c r="C40" s="7">
-        <v>6.1</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A41" s="71"/>
-      <c r="B41" s="71"/>
-      <c r="C41" s="7">
-        <v>6.2</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G41" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H41" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A42" s="71"/>
-      <c r="B42" s="71"/>
-      <c r="C42" s="7">
-        <v>6.3</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H42" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A43" s="71"/>
-      <c r="B43" s="71"/>
-      <c r="C43" s="7">
-        <v>6.4</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H43" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A44" s="71"/>
-      <c r="B44" s="71"/>
-      <c r="C44" s="7">
-        <v>6.5</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H44" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A45" s="71"/>
-      <c r="B45" s="71"/>
-      <c r="C45" s="7">
-        <v>6.6</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H45" s="8" t="s">
+      <c r="H42" s="8" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="B40:B45"/>
-    <mergeCell ref="A23:A31"/>
+    <mergeCell ref="A37:A42"/>
+    <mergeCell ref="B37:B42"/>
+    <mergeCell ref="A22:A29"/>
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B23:B31"/>
-    <mergeCell ref="B32:B39"/>
-    <mergeCell ref="A32:A39"/>
+    <mergeCell ref="B22:B29"/>
+    <mergeCell ref="B30:B36"/>
+    <mergeCell ref="A30:A36"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B10:B22"/>
-    <mergeCell ref="A10:A22"/>
+    <mergeCell ref="B10:B21"/>
+    <mergeCell ref="A10:A21"/>
   </mergeCells>
-  <conditionalFormatting sqref="E3 E4:H22">
-    <cfRule type="cellIs" dxfId="87" priority="85" operator="equal">
+  <conditionalFormatting sqref="E3 E4:H36">
+    <cfRule type="cellIs" dxfId="79" priority="85" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="86" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="87" operator="equal">
       <formula>"R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="88" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="88" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="cellIs" dxfId="83" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="81" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="82" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="83" operator="equal">
       <formula>"R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="84" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="84" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E23:F39 F40 F43:F45">
-    <cfRule type="cellIs" dxfId="79" priority="77" operator="equal">
+  <conditionalFormatting sqref="F37 F40:F42">
+    <cfRule type="cellIs" dxfId="71" priority="77" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="78" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="79" operator="equal">
       <formula>"R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="80" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="80" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H3">
-    <cfRule type="cellIs" dxfId="75" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="73" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="74" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="75" operator="equal">
       <formula>"R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="76" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="76" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23:G39">
-    <cfRule type="cellIs" dxfId="71" priority="69" operator="equal">
-      <formula>"C"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="70" operator="equal">
-      <formula>"I"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="71" operator="equal">
-      <formula>"R"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="72" stopIfTrue="1" operator="equal">
-      <formula>"A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H23:H39">
-    <cfRule type="cellIs" dxfId="67" priority="65" operator="equal">
-      <formula>"C"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="66" operator="equal">
-      <formula>"I"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="67" operator="equal">
-      <formula>"R"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="68" stopIfTrue="1" operator="equal">
-      <formula>"A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G40">
+  <conditionalFormatting sqref="G37">
     <cfRule type="cellIs" dxfId="63" priority="61" operator="equal">
       <formula>"C"</formula>
     </cfRule>
@@ -4503,7 +4369,7 @@
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G43:G45">
+  <conditionalFormatting sqref="G40:G42">
     <cfRule type="cellIs" dxfId="59" priority="57" operator="equal">
       <formula>"C"</formula>
     </cfRule>
@@ -4517,7 +4383,7 @@
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H43:H45">
+  <conditionalFormatting sqref="H40:H42">
     <cfRule type="cellIs" dxfId="55" priority="53" operator="equal">
       <formula>"C"</formula>
     </cfRule>
@@ -4531,7 +4397,7 @@
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H40">
+  <conditionalFormatting sqref="H37">
     <cfRule type="cellIs" dxfId="51" priority="49" operator="equal">
       <formula>"C"</formula>
     </cfRule>
@@ -4545,7 +4411,7 @@
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
+  <conditionalFormatting sqref="E37">
     <cfRule type="cellIs" dxfId="47" priority="45" operator="equal">
       <formula>"C"</formula>
     </cfRule>
@@ -4559,7 +4425,7 @@
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
+  <conditionalFormatting sqref="E40">
     <cfRule type="cellIs" dxfId="43" priority="41" operator="equal">
       <formula>"C"</formula>
     </cfRule>
@@ -4573,7 +4439,7 @@
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
+  <conditionalFormatting sqref="E41">
     <cfRule type="cellIs" dxfId="39" priority="37" operator="equal">
       <formula>"C"</formula>
     </cfRule>
@@ -4587,7 +4453,7 @@
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
+  <conditionalFormatting sqref="E42">
     <cfRule type="cellIs" dxfId="35" priority="33" operator="equal">
       <formula>"C"</formula>
     </cfRule>
@@ -4601,7 +4467,7 @@
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F42">
+  <conditionalFormatting sqref="F39">
     <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
       <formula>"C"</formula>
     </cfRule>
@@ -4615,7 +4481,7 @@
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G42">
+  <conditionalFormatting sqref="G39">
     <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
       <formula>"C"</formula>
     </cfRule>
@@ -4629,7 +4495,7 @@
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H42">
+  <conditionalFormatting sqref="H39">
     <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
       <formula>"C"</formula>
     </cfRule>
@@ -4643,7 +4509,7 @@
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
+  <conditionalFormatting sqref="E39">
     <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
       <formula>"C"</formula>
     </cfRule>
@@ -4657,7 +4523,7 @@
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41">
+  <conditionalFormatting sqref="F38">
     <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
       <formula>"C"</formula>
     </cfRule>
@@ -4671,7 +4537,7 @@
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G41">
+  <conditionalFormatting sqref="G38">
     <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
       <formula>"C"</formula>
     </cfRule>
@@ -4685,7 +4551,7 @@
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H41">
+  <conditionalFormatting sqref="H38">
     <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"C"</formula>
     </cfRule>
@@ -4699,7 +4565,7 @@
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
+  <conditionalFormatting sqref="E38">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
@@ -4722,7 +4588,7 @@
           <x14:formula1>
             <xm:f>Lengend!$B$1:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>E3:H45</xm:sqref>
+          <xm:sqref>E3:H42</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4732,75 +4598,76 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BG50"/>
+  <dimension ref="A1:BH50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA6" sqref="AA6"/>
+      <selection pane="bottomLeft" activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
     <col min="2" max="2" width="29.28515625" style="2" customWidth="1"/>
-    <col min="3" max="57" width="3.7109375" style="2" customWidth="1"/>
-    <col min="58" max="16384" width="9.140625" style="2"/>
+    <col min="3" max="58" width="3.7109375" style="2" customWidth="1"/>
+    <col min="59" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="83"/>
-      <c r="B1" s="83"/>
-      <c r="C1" s="81" t="s">
+    <row r="1" spans="1:60" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="88"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="87" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="78" t="s">
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="84" t="s">
         <v>76</v>
       </c>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79"/>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79"/>
-      <c r="Z1" s="79"/>
-      <c r="AA1" s="79"/>
-      <c r="AB1" s="79"/>
-      <c r="AC1" s="79"/>
-      <c r="AD1" s="79"/>
-      <c r="AE1" s="79"/>
-      <c r="AF1" s="79"/>
-      <c r="AG1" s="79"/>
-      <c r="AH1" s="79"/>
-      <c r="AI1" s="79"/>
-      <c r="AJ1" s="79"/>
-      <c r="AK1" s="79"/>
-      <c r="AL1" s="79"/>
-      <c r="AM1" s="79"/>
-      <c r="AN1" s="79"/>
-      <c r="AO1" s="79"/>
-      <c r="AP1" s="79"/>
-      <c r="AQ1" s="79"/>
-      <c r="AR1" s="79"/>
-      <c r="AS1" s="80"/>
-    </row>
-    <row r="2" spans="1:59" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
+      <c r="W1" s="85"/>
+      <c r="X1" s="85"/>
+      <c r="Y1" s="85"/>
+      <c r="Z1" s="85"/>
+      <c r="AA1" s="85"/>
+      <c r="AB1" s="85"/>
+      <c r="AC1" s="85"/>
+      <c r="AD1" s="85"/>
+      <c r="AE1" s="85"/>
+      <c r="AF1" s="85"/>
+      <c r="AG1" s="85"/>
+      <c r="AH1" s="85"/>
+      <c r="AI1" s="85"/>
+      <c r="AJ1" s="85"/>
+      <c r="AK1" s="85"/>
+      <c r="AL1" s="85"/>
+      <c r="AM1" s="85"/>
+      <c r="AN1" s="85"/>
+      <c r="AO1" s="85"/>
+      <c r="AP1" s="85"/>
+      <c r="AQ1" s="85"/>
+      <c r="AR1" s="85"/>
+      <c r="AS1" s="85"/>
+      <c r="AT1" s="86"/>
+    </row>
+    <row r="2" spans="1:60" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
       <c r="C2" s="16">
         <v>18</v>
       </c>
@@ -4808,129 +4675,131 @@
         <v>19</v>
       </c>
       <c r="E2" s="16">
+        <v>20</v>
+      </c>
+      <c r="F2" s="16">
         <v>21</v>
       </c>
-      <c r="F2" s="16">
+      <c r="G2" s="16">
         <v>22</v>
       </c>
-      <c r="G2" s="16">
+      <c r="H2" s="16">
         <v>23</v>
       </c>
-      <c r="H2" s="16">
+      <c r="I2" s="16">
         <v>24</v>
       </c>
-      <c r="I2" s="16">
+      <c r="J2" s="16">
         <v>25</v>
       </c>
-      <c r="J2" s="16">
+      <c r="K2" s="16">
         <v>26</v>
       </c>
-      <c r="K2" s="16">
+      <c r="L2" s="16">
         <v>27</v>
       </c>
-      <c r="L2" s="16">
+      <c r="M2" s="16">
         <v>28</v>
       </c>
-      <c r="M2" s="16">
+      <c r="N2" s="16">
         <v>29</v>
       </c>
-      <c r="N2" s="16">
+      <c r="O2" s="16">
         <v>30</v>
       </c>
-      <c r="O2" s="16">
+      <c r="P2" s="16">
         <v>1</v>
       </c>
-      <c r="P2" s="16">
+      <c r="Q2" s="16">
         <v>2</v>
       </c>
-      <c r="Q2" s="16">
+      <c r="R2" s="16">
         <v>3</v>
       </c>
-      <c r="R2" s="16">
+      <c r="S2" s="16">
         <v>4</v>
       </c>
-      <c r="S2" s="16">
+      <c r="T2" s="16">
         <v>5</v>
       </c>
-      <c r="T2" s="16">
+      <c r="U2" s="16">
         <v>6</v>
       </c>
-      <c r="U2" s="16">
+      <c r="V2" s="16">
         <v>7</v>
       </c>
-      <c r="V2" s="16">
+      <c r="W2" s="16">
         <v>8</v>
       </c>
-      <c r="W2" s="16">
+      <c r="X2" s="16">
         <v>9</v>
       </c>
-      <c r="X2" s="16">
+      <c r="Y2" s="16">
         <v>10</v>
       </c>
-      <c r="Y2" s="16">
+      <c r="Z2" s="16">
         <v>11</v>
       </c>
-      <c r="Z2" s="16">
+      <c r="AA2" s="16">
         <v>12</v>
       </c>
-      <c r="AA2" s="16">
+      <c r="AB2" s="16">
         <v>13</v>
       </c>
-      <c r="AB2" s="16">
+      <c r="AC2" s="16">
         <v>14</v>
       </c>
-      <c r="AC2" s="16">
+      <c r="AD2" s="16">
         <v>15</v>
       </c>
-      <c r="AD2" s="16">
+      <c r="AE2" s="16">
         <v>16</v>
       </c>
-      <c r="AE2" s="16">
+      <c r="AF2" s="16">
         <v>17</v>
       </c>
-      <c r="AF2" s="16">
+      <c r="AG2" s="16">
         <v>18</v>
       </c>
-      <c r="AG2" s="16">
+      <c r="AH2" s="16">
         <v>19</v>
       </c>
-      <c r="AH2" s="16">
+      <c r="AI2" s="16">
         <v>20</v>
       </c>
-      <c r="AI2" s="16">
+      <c r="AJ2" s="16">
         <v>21</v>
       </c>
-      <c r="AJ2" s="16">
+      <c r="AK2" s="16">
         <v>22</v>
       </c>
-      <c r="AK2" s="16">
+      <c r="AL2" s="16">
         <v>23</v>
       </c>
-      <c r="AL2" s="16">
+      <c r="AM2" s="16">
         <v>24</v>
       </c>
-      <c r="AM2" s="16">
+      <c r="AN2" s="16">
         <v>25</v>
       </c>
-      <c r="AN2" s="16">
+      <c r="AO2" s="16">
         <v>26</v>
       </c>
-      <c r="AO2" s="16">
+      <c r="AP2" s="16">
         <v>27</v>
       </c>
-      <c r="AP2" s="16">
+      <c r="AQ2" s="16">
         <v>28</v>
       </c>
-      <c r="AQ2" s="16">
+      <c r="AR2" s="16">
         <v>29</v>
       </c>
-      <c r="AR2" s="16">
+      <c r="AS2" s="16">
         <v>30</v>
       </c>
-      <c r="AS2" s="16">
+      <c r="AT2" s="16">
         <v>31</v>
       </c>
-      <c r="AT2" s="15"/>
       <c r="AU2" s="15"/>
       <c r="AV2" s="15"/>
       <c r="AW2" s="15"/>
@@ -4942,17 +4811,18 @@
       <c r="BC2" s="15"/>
       <c r="BD2" s="15"/>
       <c r="BE2" s="15"/>
-    </row>
-    <row r="3" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="BF2" s="15"/>
+    </row>
+    <row r="3" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>1.1000000000000001</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
@@ -4993,12 +4863,13 @@
       <c r="AQ3" s="19"/>
       <c r="AR3" s="19"/>
       <c r="AS3" s="19"/>
-      <c r="BF3" s="85"/>
-      <c r="BG3" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="4" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AT3" s="19"/>
+      <c r="BG3" s="36"/>
+      <c r="BH3" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>1.2</v>
       </c>
@@ -5048,12 +4919,13 @@
       <c r="AQ4" s="19"/>
       <c r="AR4" s="19"/>
       <c r="AS4" s="19"/>
-      <c r="BF4" s="86"/>
-      <c r="BG4" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="5" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AT4" s="19"/>
+      <c r="BG4" s="37"/>
+      <c r="BH4" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>1.3</v>
       </c>
@@ -5103,12 +4975,13 @@
       <c r="AQ5" s="19"/>
       <c r="AR5" s="19"/>
       <c r="AS5" s="19"/>
-      <c r="BF5" s="87"/>
-      <c r="BG5" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AT5" s="19"/>
+      <c r="BG5" s="38"/>
+      <c r="BH5" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>1.4</v>
       </c>
@@ -5158,22 +5031,22 @@
       <c r="AQ6" s="19"/>
       <c r="AR6" s="19"/>
       <c r="AS6" s="19"/>
-      <c r="BF6" s="88"/>
-      <c r="BG6" s="4" t="s">
+      <c r="AT6" s="19"/>
+      <c r="BG6" s="39"/>
+      <c r="BH6" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:59" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:60" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B7" s="29" t="s">
         <v>26</v>
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="19"/>
+      <c r="F7" s="30"/>
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
@@ -5213,8 +5086,9 @@
       <c r="AQ7" s="19"/>
       <c r="AR7" s="19"/>
       <c r="AS7" s="19"/>
-    </row>
-    <row r="8" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AT7" s="19"/>
+    </row>
+    <row r="8" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>2.1</v>
       </c>
@@ -5264,8 +5138,9 @@
       <c r="AQ8" s="19"/>
       <c r="AR8" s="19"/>
       <c r="AS8" s="19"/>
-    </row>
-    <row r="9" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AT8" s="19"/>
+    </row>
+    <row r="9" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>2.2000000000000002</v>
       </c>
@@ -5315,21 +5190,21 @@
       <c r="AQ9" s="19"/>
       <c r="AR9" s="19"/>
       <c r="AS9" s="19"/>
-    </row>
-    <row r="10" spans="1:59" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="AT9" s="19"/>
+    </row>
+    <row r="10" spans="1:60" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A10" s="28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="19"/>
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="19"/>
+      <c r="I10" s="30"/>
       <c r="J10" s="19"/>
       <c r="K10" s="19"/>
       <c r="L10" s="19"/>
@@ -5366,8 +5241,9 @@
       <c r="AQ10" s="19"/>
       <c r="AR10" s="19"/>
       <c r="AS10" s="19"/>
-    </row>
-    <row r="11" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AT10" s="19"/>
+    </row>
+    <row r="11" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>2.2999999999999998</v>
       </c>
@@ -5417,8 +5293,9 @@
       <c r="AQ11" s="19"/>
       <c r="AR11" s="19"/>
       <c r="AS11" s="19"/>
-    </row>
-    <row r="12" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AT11" s="19"/>
+    </row>
+    <row r="12" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>3.1</v>
       </c>
@@ -5468,8 +5345,9 @@
       <c r="AQ12" s="19"/>
       <c r="AR12" s="19"/>
       <c r="AS12" s="19"/>
-    </row>
-    <row r="13" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AT12" s="19"/>
+    </row>
+    <row r="13" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>3.2</v>
       </c>
@@ -5519,8 +5397,9 @@
       <c r="AQ13" s="19"/>
       <c r="AR13" s="19"/>
       <c r="AS13" s="19"/>
-    </row>
-    <row r="14" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AT13" s="19"/>
+    </row>
+    <row r="14" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>3.3</v>
       </c>
@@ -5570,8 +5449,9 @@
       <c r="AQ14" s="19"/>
       <c r="AR14" s="19"/>
       <c r="AS14" s="19"/>
-    </row>
-    <row r="15" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AT14" s="19"/>
+    </row>
+    <row r="15" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>3.4</v>
       </c>
@@ -5621,8 +5501,9 @@
       <c r="AQ15" s="19"/>
       <c r="AR15" s="19"/>
       <c r="AS15" s="19"/>
-    </row>
-    <row r="16" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AT15" s="19"/>
+    </row>
+    <row r="16" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>3.5</v>
       </c>
@@ -5672,13 +5553,14 @@
       <c r="AQ16" s="19"/>
       <c r="AR16" s="19"/>
       <c r="AS16" s="19"/>
-    </row>
-    <row r="17" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AT16" s="19"/>
+    </row>
+    <row r="17" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="21"/>
@@ -5693,8 +5575,7 @@
       <c r="M17" s="19"/>
       <c r="N17" s="19"/>
       <c r="O17" s="19"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="19"/>
+      <c r="Q17" s="30"/>
       <c r="R17" s="19"/>
       <c r="S17" s="19"/>
       <c r="T17" s="19"/>
@@ -5723,8 +5604,9 @@
       <c r="AQ17" s="19"/>
       <c r="AR17" s="19"/>
       <c r="AS17" s="19"/>
-    </row>
-    <row r="18" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AT17" s="19"/>
+    </row>
+    <row r="18" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>3.6</v>
       </c>
@@ -5750,7 +5632,7 @@
       <c r="S18" s="19"/>
       <c r="T18" s="22"/>
       <c r="U18" s="22"/>
-      <c r="V18" s="19"/>
+      <c r="V18" s="22"/>
       <c r="W18" s="19"/>
       <c r="X18" s="19"/>
       <c r="Y18" s="19"/>
@@ -5774,13 +5656,14 @@
       <c r="AQ18" s="19"/>
       <c r="AR18" s="19"/>
       <c r="AS18" s="19"/>
-    </row>
-    <row r="19" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AT18" s="19"/>
+    </row>
+    <row r="19" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>3.7</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="11"/>
@@ -5801,7 +5684,7 @@
       <c r="S19" s="18"/>
       <c r="T19" s="23"/>
       <c r="U19" s="23"/>
-      <c r="V19" s="18"/>
+      <c r="V19" s="23"/>
       <c r="W19" s="18"/>
       <c r="X19" s="18"/>
       <c r="Y19" s="18"/>
@@ -5824,14 +5707,15 @@
       <c r="AP19" s="18"/>
       <c r="AQ19" s="18"/>
       <c r="AR19" s="18"/>
-      <c r="AS19" s="19"/>
-    </row>
-    <row r="20" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AS19" s="18"/>
+      <c r="AT19" s="19"/>
+    </row>
+    <row r="20" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>3.8</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C20" s="20"/>
       <c r="D20" s="21"/>
@@ -5852,7 +5736,7 @@
       <c r="S20" s="19"/>
       <c r="T20" s="22"/>
       <c r="U20" s="22"/>
-      <c r="V20" s="19"/>
+      <c r="V20" s="22"/>
       <c r="W20" s="19"/>
       <c r="X20" s="19"/>
       <c r="Y20" s="19"/>
@@ -5876,8 +5760,9 @@
       <c r="AQ20" s="19"/>
       <c r="AR20" s="19"/>
       <c r="AS20" s="19"/>
-    </row>
-    <row r="21" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AT20" s="19"/>
+    </row>
+    <row r="21" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="33">
         <v>3.9</v>
       </c>
@@ -5927,8 +5812,9 @@
       <c r="AQ21" s="19"/>
       <c r="AR21" s="19"/>
       <c r="AS21" s="19"/>
-    </row>
-    <row r="22" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AT21" s="19"/>
+    </row>
+    <row r="22" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
         <v>51</v>
       </c>
@@ -5978,8 +5864,9 @@
       <c r="AQ22" s="19"/>
       <c r="AR22" s="19"/>
       <c r="AS22" s="19"/>
-    </row>
-    <row r="23" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AT22" s="19"/>
+    </row>
+    <row r="23" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="33">
         <v>3.11</v>
       </c>
@@ -6029,8 +5916,9 @@
       <c r="AQ23" s="19"/>
       <c r="AR23" s="19"/>
       <c r="AS23" s="19"/>
-    </row>
-    <row r="24" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AT23" s="19"/>
+    </row>
+    <row r="24" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="33">
         <v>3.12</v>
       </c>
@@ -6080,8 +5968,9 @@
       <c r="AQ24" s="18"/>
       <c r="AR24" s="18"/>
       <c r="AS24" s="18"/>
-    </row>
-    <row r="25" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AT24" s="18"/>
+    </row>
+    <row r="25" spans="1:46" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
         <v>52</v>
       </c>
@@ -6131,8 +6020,9 @@
       <c r="AQ25" s="19"/>
       <c r="AR25" s="19"/>
       <c r="AS25" s="19"/>
-    </row>
-    <row r="26" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AT25" s="19"/>
+    </row>
+    <row r="26" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>4.0999999999999996</v>
       </c>
@@ -6182,13 +6072,14 @@
       <c r="AQ26" s="18"/>
       <c r="AR26" s="18"/>
       <c r="AS26" s="18"/>
-    </row>
-    <row r="27" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AT26" s="18"/>
+    </row>
+    <row r="27" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>4.2</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C27" s="20"/>
       <c r="D27" s="21"/>
@@ -6233,13 +6124,14 @@
       <c r="AQ27" s="19"/>
       <c r="AR27" s="19"/>
       <c r="AS27" s="19"/>
-    </row>
-    <row r="28" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AT27" s="19"/>
+    </row>
+    <row r="28" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>4.3</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="C28" s="20"/>
       <c r="D28" s="21"/>
@@ -6284,13 +6176,14 @@
       <c r="AQ28" s="19"/>
       <c r="AR28" s="19"/>
       <c r="AS28" s="19"/>
-    </row>
-    <row r="29" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AT28" s="19"/>
+    </row>
+    <row r="29" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
         <v>4.4000000000000004</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C29" s="20"/>
       <c r="D29" s="21"/>
@@ -6310,7 +6203,7 @@
       <c r="R29" s="19"/>
       <c r="S29" s="22"/>
       <c r="T29" s="22"/>
-      <c r="U29" s="19"/>
+      <c r="U29" s="22"/>
       <c r="V29" s="19"/>
       <c r="W29" s="19"/>
       <c r="X29" s="19"/>
@@ -6335,13 +6228,14 @@
       <c r="AQ29" s="19"/>
       <c r="AR29" s="19"/>
       <c r="AS29" s="19"/>
-    </row>
-    <row r="30" spans="1:45" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="AT29" s="19"/>
+    </row>
+    <row r="30" spans="1:46" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A30" s="28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C30" s="20"/>
       <c r="D30" s="21"/>
@@ -6362,8 +6256,8 @@
       <c r="S30" s="19"/>
       <c r="T30" s="19"/>
       <c r="U30" s="19"/>
-      <c r="V30" s="30"/>
-      <c r="W30" s="19"/>
+      <c r="V30" s="19"/>
+      <c r="W30" s="30"/>
       <c r="X30" s="19"/>
       <c r="Y30" s="19"/>
       <c r="Z30" s="19"/>
@@ -6386,8 +6280,9 @@
       <c r="AQ30" s="19"/>
       <c r="AR30" s="19"/>
       <c r="AS30" s="19"/>
-    </row>
-    <row r="31" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AT30" s="19"/>
+    </row>
+    <row r="31" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="31">
         <v>4.5</v>
       </c>
@@ -6437,8 +6332,9 @@
       <c r="AQ31" s="19"/>
       <c r="AR31" s="19"/>
       <c r="AS31" s="19"/>
-    </row>
-    <row r="32" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AT31" s="19"/>
+    </row>
+    <row r="32" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="31">
         <v>4.5999999999999996</v>
       </c>
@@ -6488,8 +6384,9 @@
       <c r="AQ32" s="19"/>
       <c r="AR32" s="19"/>
       <c r="AS32" s="19"/>
-    </row>
-    <row r="33" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AT32" s="19"/>
+    </row>
+    <row r="33" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="31">
         <v>4.7</v>
       </c>
@@ -6539,8 +6436,9 @@
       <c r="AQ33" s="19"/>
       <c r="AR33" s="19"/>
       <c r="AS33" s="19"/>
-    </row>
-    <row r="34" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AT33" s="19"/>
+    </row>
+    <row r="34" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="31">
         <v>4.8</v>
       </c>
@@ -6590,8 +6488,9 @@
       <c r="AQ34" s="19"/>
       <c r="AR34" s="19"/>
       <c r="AS34" s="19"/>
-    </row>
-    <row r="35" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AT34" s="19"/>
+    </row>
+    <row r="35" spans="1:46" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="31">
         <v>4.9000000000000004</v>
       </c>
@@ -6641,13 +6540,14 @@
       <c r="AQ35" s="19"/>
       <c r="AR35" s="19"/>
       <c r="AS35" s="19"/>
-    </row>
-    <row r="36" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AT35" s="19"/>
+    </row>
+    <row r="36" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
         <v>5.0999999999999996</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C36" s="20"/>
       <c r="D36" s="21"/>
@@ -6668,10 +6568,10 @@
       <c r="S36" s="19"/>
       <c r="T36" s="19"/>
       <c r="U36" s="19"/>
-      <c r="V36" s="22"/>
+      <c r="V36" s="19"/>
       <c r="W36" s="22"/>
       <c r="X36" s="22"/>
-      <c r="Y36" s="19"/>
+      <c r="Y36" s="22"/>
       <c r="Z36" s="19"/>
       <c r="AA36" s="19"/>
       <c r="AB36" s="19"/>
@@ -6692,13 +6592,14 @@
       <c r="AQ36" s="19"/>
       <c r="AR36" s="19"/>
       <c r="AS36" s="19"/>
-    </row>
-    <row r="37" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AT36" s="19"/>
+    </row>
+    <row r="37" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
         <v>5.2</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="C37" s="20"/>
       <c r="D37" s="21"/>
@@ -6719,10 +6620,10 @@
       <c r="S37" s="19"/>
       <c r="T37" s="19"/>
       <c r="U37" s="19"/>
-      <c r="V37" s="22"/>
+      <c r="V37" s="19"/>
       <c r="W37" s="22"/>
       <c r="X37" s="22"/>
-      <c r="Y37" s="19"/>
+      <c r="Y37" s="22"/>
       <c r="Z37" s="19"/>
       <c r="AA37" s="19"/>
       <c r="AB37" s="19"/>
@@ -6743,13 +6644,14 @@
       <c r="AQ37" s="19"/>
       <c r="AR37" s="19"/>
       <c r="AS37" s="19"/>
-    </row>
-    <row r="38" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AT37" s="19"/>
+    </row>
+    <row r="38" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="13">
         <v>5.3</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C38" s="20"/>
       <c r="D38" s="21"/>
@@ -6770,10 +6672,10 @@
       <c r="S38" s="19"/>
       <c r="T38" s="19"/>
       <c r="U38" s="19"/>
-      <c r="Y38" s="22"/>
+      <c r="V38" s="19"/>
       <c r="Z38" s="22"/>
       <c r="AA38" s="22"/>
-      <c r="AB38" s="19"/>
+      <c r="AB38" s="22"/>
       <c r="AC38" s="19"/>
       <c r="AD38" s="19"/>
       <c r="AE38" s="19"/>
@@ -6791,8 +6693,9 @@
       <c r="AQ38" s="19"/>
       <c r="AR38" s="19"/>
       <c r="AS38" s="19"/>
-    </row>
-    <row r="39" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AT38" s="19"/>
+    </row>
+    <row r="39" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
         <v>5.4</v>
       </c>
@@ -6842,8 +6745,9 @@
       <c r="AQ39" s="19"/>
       <c r="AR39" s="19"/>
       <c r="AS39" s="19"/>
-    </row>
-    <row r="40" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AT39" s="19"/>
+    </row>
+    <row r="40" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
         <v>5.5</v>
       </c>
@@ -6893,8 +6797,9 @@
       <c r="AQ40" s="19"/>
       <c r="AR40" s="19"/>
       <c r="AS40" s="19"/>
-    </row>
-    <row r="41" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AT40" s="19"/>
+    </row>
+    <row r="41" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="13">
         <v>5.6</v>
       </c>
@@ -6944,8 +6849,9 @@
       <c r="AQ41" s="19"/>
       <c r="AR41" s="19"/>
       <c r="AS41" s="19"/>
-    </row>
-    <row r="42" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AT41" s="19"/>
+    </row>
+    <row r="42" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="13">
         <v>5.7</v>
       </c>
@@ -6995,8 +6901,9 @@
       <c r="AQ42" s="19"/>
       <c r="AR42" s="19"/>
       <c r="AS42" s="19"/>
-    </row>
-    <row r="43" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AT42" s="19"/>
+    </row>
+    <row r="43" spans="1:46" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="13">
         <v>5.8</v>
       </c>
@@ -7046,13 +6953,14 @@
       <c r="AQ43" s="19"/>
       <c r="AR43" s="19"/>
       <c r="AS43" s="19"/>
-    </row>
-    <row r="44" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AT43" s="19"/>
+    </row>
+    <row r="44" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="13">
         <v>6.1</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C44" s="20"/>
       <c r="D44" s="21"/>
@@ -7079,9 +6987,9 @@
       <c r="Y44" s="19"/>
       <c r="Z44" s="19"/>
       <c r="AA44" s="19"/>
-      <c r="AB44" s="22"/>
+      <c r="AB44" s="19"/>
       <c r="AC44" s="22"/>
-      <c r="AD44" s="19"/>
+      <c r="AD44" s="22"/>
       <c r="AE44" s="19"/>
       <c r="AF44" s="19"/>
       <c r="AG44" s="19"/>
@@ -7097,13 +7005,14 @@
       <c r="AQ44" s="19"/>
       <c r="AR44" s="19"/>
       <c r="AS44" s="19"/>
-    </row>
-    <row r="45" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AT44" s="19"/>
+    </row>
+    <row r="45" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="13">
         <v>6.2</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C45" s="20"/>
       <c r="D45" s="21"/>
@@ -7132,8 +7041,8 @@
       <c r="AA45" s="19"/>
       <c r="AB45" s="19"/>
       <c r="AC45" s="19"/>
-      <c r="AD45" s="22"/>
-      <c r="AE45" s="19"/>
+      <c r="AD45" s="19"/>
+      <c r="AE45" s="22"/>
       <c r="AF45" s="19"/>
       <c r="AG45" s="19"/>
       <c r="AH45" s="19"/>
@@ -7148,13 +7057,14 @@
       <c r="AQ45" s="19"/>
       <c r="AR45" s="19"/>
       <c r="AS45" s="19"/>
-    </row>
-    <row r="46" spans="1:45" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="AT45" s="19"/>
+    </row>
+    <row r="46" spans="1:46" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A46" s="28" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C46" s="20"/>
       <c r="D46" s="21"/>
@@ -7177,12 +7087,12 @@
       <c r="U46" s="19"/>
       <c r="V46" s="19"/>
       <c r="W46" s="19"/>
-      <c r="X46" s="18"/>
-      <c r="AA46" s="19"/>
+      <c r="X46" s="19"/>
+      <c r="Y46" s="18"/>
       <c r="AB46" s="19"/>
       <c r="AC46" s="19"/>
-      <c r="AD46" s="30"/>
-      <c r="AE46" s="19"/>
+      <c r="AD46" s="19"/>
+      <c r="AE46" s="30"/>
       <c r="AF46" s="19"/>
       <c r="AG46" s="19"/>
       <c r="AH46" s="19"/>
@@ -7197,13 +7107,14 @@
       <c r="AQ46" s="19"/>
       <c r="AR46" s="19"/>
       <c r="AS46" s="19"/>
-    </row>
-    <row r="47" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AT46" s="19"/>
+    </row>
+    <row r="47" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="13">
         <v>6.3</v>
       </c>
       <c r="B47" s="32" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C47" s="20"/>
       <c r="D47" s="21"/>
@@ -7248,8 +7159,9 @@
       <c r="AQ47" s="19"/>
       <c r="AR47" s="19"/>
       <c r="AS47" s="19"/>
-    </row>
-    <row r="48" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AT47" s="19"/>
+    </row>
+    <row r="48" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="13">
         <v>6.4</v>
       </c>
@@ -7299,8 +7211,9 @@
       <c r="AQ48" s="19"/>
       <c r="AR48" s="19"/>
       <c r="AS48" s="19"/>
-    </row>
-    <row r="49" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AT48" s="19"/>
+    </row>
+    <row r="49" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="13">
         <v>6.5</v>
       </c>
@@ -7350,13 +7263,14 @@
       <c r="AQ49" s="19"/>
       <c r="AR49" s="19"/>
       <c r="AS49" s="19"/>
-    </row>
-    <row r="50" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AT49" s="19"/>
+    </row>
+    <row r="50" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="13">
         <v>6.6</v>
       </c>
       <c r="B50" s="32" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C50" s="20"/>
       <c r="D50" s="21"/>
@@ -7401,13 +7315,14 @@
       <c r="AQ50" s="19"/>
       <c r="AR50" s="19"/>
       <c r="AS50" s="19"/>
+      <c r="AT50" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="P1:AT1"/>
     <mergeCell ref="C3:E3"/>
-    <mergeCell ref="O1:AS1"/>
-    <mergeCell ref="C1:N1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7439,29 +7354,29 @@
   <sheetData>
     <row r="1" spans="2:9" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="90" t="s">
-        <v>116</v>
-      </c>
-      <c r="C2" s="90" t="s">
+      <c r="B2" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="G2" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="90" t="s">
-        <v>110</v>
-      </c>
-      <c r="E2" s="90" t="s">
+      <c r="H2" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="F2" s="90" t="s">
-        <v>113</v>
-      </c>
-      <c r="G2" s="90" t="s">
+      <c r="I2" s="41" t="s">
         <v>112</v>
-      </c>
-      <c r="H2" s="90" t="s">
-        <v>114</v>
-      </c>
-      <c r="I2" s="90" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
@@ -7737,236 +7652,236 @@
   <sheetData>
     <row r="1" spans="2:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B3" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="44"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B4" s="45"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="47"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B5" s="45"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="47"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B6" s="45"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="47"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B7" s="45"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="47"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B8" s="45"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="47"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B9" s="48"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="50"/>
+    </row>
+    <row r="10" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B11" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="38"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B4" s="39"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="41"/>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B5" s="39"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="41"/>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B6" s="39"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="41"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B7" s="39"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="41"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B8" s="39"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="41"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B9" s="42"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="44"/>
-    </row>
-    <row r="10" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="45" t="s">
-        <v>106</v>
-      </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B11" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="38"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="44"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B12" s="39"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="41"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="47"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B13" s="39"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="41"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="47"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B14" s="39"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="41"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="47"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B15" s="39"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="41"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="47"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B16" s="39"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="41"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="47"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B17" s="42"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="44"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7984,7 +7899,7 @@
   <dimension ref="B1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="B11" sqref="B11:M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -7995,232 +7910,232 @@
   <sheetData>
     <row r="1" spans="2:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="45" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
+      <c r="B2" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="36"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="38"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="44"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B4" s="39"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="41"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="47"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B5" s="39"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="41"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="47"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B6" s="39"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="41"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="47"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B7" s="39"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="41"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="47"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B8" s="39"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="41"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="47"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B9" s="42"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="44"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="50"/>
     </row>
     <row r="10" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
+      <c r="B10" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B11" s="36"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="38"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="44"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B12" s="39"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="41"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="47"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B13" s="39"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="41"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="47"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B14" s="39"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="41"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="47"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B15" s="39"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="41"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="47"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B16" s="39"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="41"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="47"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B17" s="42"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="44"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/01_doc/proj_plan/餐厅订餐系统_项目计划.xlsx
+++ b/01_doc/proj_plan/餐厅订餐系统_项目计划.xlsx
@@ -1244,8 +1244,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1390,12 +1388,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1405,15 +1397,23 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2315,7 +2315,7 @@
       <c r="A2" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B2" s="40">
+      <c r="B2" s="38">
         <v>41962</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -2332,7 +2332,7 @@
       <c r="A3" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="40">
+      <c r="B3" s="38">
         <v>41963</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -2349,7 +2349,7 @@
       <c r="A4" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B4" s="40">
+      <c r="B4" s="38">
         <v>41963</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -2459,7 +2459,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="33" t="s">
         <v>114</v>
       </c>
       <c r="B12" t="s">
@@ -2473,7 +2473,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="33" t="s">
         <v>115</v>
       </c>
       <c r="B13" t="s">
@@ -2487,7 +2487,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="33" t="s">
         <v>116</v>
       </c>
       <c r="B14" t="s">
@@ -2608,8 +2608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M49"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:M27"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -2620,700 +2620,700 @@
   <sheetData>
     <row r="1" spans="2:13" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="53"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="51"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="54"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="56"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="54"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="56"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="54"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="54"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="56"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="54"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="53"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="51"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="54"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="56"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="54"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="54"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="56"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="54"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="54"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="56"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="54"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="57"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="59"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="57"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="60" t="s">
+      <c r="B14" s="58" t="s">
         <v>146</v>
       </c>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="62"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="60"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="63"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="64"/>
-      <c r="M15" s="65"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="63"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="63"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="64"/>
-      <c r="K16" s="64"/>
-      <c r="L16" s="64"/>
-      <c r="M16" s="65"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="63"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="63"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="64"/>
-      <c r="M17" s="65"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="63"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="63"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="64"/>
-      <c r="K18" s="64"/>
-      <c r="L18" s="64"/>
-      <c r="M18" s="65"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="63"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="63"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="64"/>
-      <c r="M19" s="65"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="63"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="63"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="64"/>
-      <c r="K20" s="64"/>
-      <c r="L20" s="64"/>
-      <c r="M20" s="65"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="62"/>
+      <c r="M20" s="63"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="63"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="64"/>
-      <c r="K21" s="64"/>
-      <c r="L21" s="64"/>
-      <c r="M21" s="65"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="63"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="63"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="64"/>
-      <c r="L22" s="64"/>
-      <c r="M22" s="65"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="63"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="63"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="64"/>
-      <c r="K23" s="64"/>
-      <c r="L23" s="64"/>
-      <c r="M23" s="65"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="63"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B24" s="63"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="64"/>
-      <c r="K24" s="64"/>
-      <c r="L24" s="64"/>
-      <c r="M24" s="65"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="62"/>
+      <c r="M24" s="63"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="63"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="64"/>
-      <c r="K25" s="64"/>
-      <c r="L25" s="64"/>
-      <c r="M25" s="65"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="62"/>
+      <c r="M25" s="63"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="63"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="64"/>
-      <c r="K26" s="64"/>
-      <c r="L26" s="64"/>
-      <c r="M26" s="65"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="62"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="62"/>
+      <c r="M26" s="63"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="66"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
-      <c r="I27" s="67"/>
-      <c r="J27" s="67"/>
-      <c r="K27" s="67"/>
-      <c r="L27" s="67"/>
-      <c r="M27" s="68"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="65"/>
+      <c r="L27" s="65"/>
+      <c r="M27" s="66"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="51" t="s">
+      <c r="B28" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="51"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="51"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="49"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="42" t="s">
+      <c r="B29" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="43"/>
-      <c r="K29" s="43"/>
-      <c r="L29" s="43"/>
-      <c r="M29" s="44"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="42"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="45"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="46"/>
-      <c r="J30" s="46"/>
-      <c r="K30" s="46"/>
-      <c r="L30" s="46"/>
-      <c r="M30" s="47"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="44"/>
+      <c r="M30" s="45"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="45"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="46"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="47"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="44"/>
+      <c r="M31" s="45"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="45"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="46"/>
-      <c r="K32" s="46"/>
-      <c r="L32" s="46"/>
-      <c r="M32" s="47"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="44"/>
+      <c r="M32" s="45"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" s="45"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="46"/>
-      <c r="J33" s="46"/>
-      <c r="K33" s="46"/>
-      <c r="L33" s="46"/>
-      <c r="M33" s="47"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="44"/>
+      <c r="M33" s="45"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B34" s="45"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="46"/>
-      <c r="J34" s="46"/>
-      <c r="K34" s="46"/>
-      <c r="L34" s="46"/>
-      <c r="M34" s="47"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="45"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="48"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="49"/>
-      <c r="L35" s="49"/>
-      <c r="M35" s="50"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="47"/>
+      <c r="J35" s="47"/>
+      <c r="K35" s="47"/>
+      <c r="L35" s="47"/>
+      <c r="M35" s="48"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B36" s="51" t="s">
+      <c r="B36" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="51"/>
-      <c r="J36" s="51"/>
-      <c r="K36" s="51"/>
-      <c r="L36" s="51"/>
-      <c r="M36" s="51"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="49"/>
+      <c r="L36" s="49"/>
+      <c r="M36" s="49"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B37" s="60" t="s">
+      <c r="B37" s="58" t="s">
         <v>128</v>
       </c>
-      <c r="C37" s="69"/>
-      <c r="D37" s="69"/>
-      <c r="E37" s="69"/>
-      <c r="F37" s="69"/>
-      <c r="G37" s="69"/>
-      <c r="H37" s="69"/>
-      <c r="I37" s="69"/>
-      <c r="J37" s="69"/>
-      <c r="K37" s="69"/>
-      <c r="L37" s="69"/>
-      <c r="M37" s="70"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="67"/>
+      <c r="I37" s="67"/>
+      <c r="J37" s="67"/>
+      <c r="K37" s="67"/>
+      <c r="L37" s="67"/>
+      <c r="M37" s="68"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B38" s="71"/>
-      <c r="C38" s="72"/>
-      <c r="D38" s="72"/>
-      <c r="E38" s="72"/>
-      <c r="F38" s="72"/>
-      <c r="G38" s="72"/>
-      <c r="H38" s="72"/>
-      <c r="I38" s="72"/>
-      <c r="J38" s="72"/>
-      <c r="K38" s="72"/>
-      <c r="L38" s="72"/>
-      <c r="M38" s="73"/>
+      <c r="B38" s="69"/>
+      <c r="C38" s="70"/>
+      <c r="D38" s="70"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="70"/>
+      <c r="G38" s="70"/>
+      <c r="H38" s="70"/>
+      <c r="I38" s="70"/>
+      <c r="J38" s="70"/>
+      <c r="K38" s="70"/>
+      <c r="L38" s="70"/>
+      <c r="M38" s="71"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B39" s="71"/>
-      <c r="C39" s="72"/>
-      <c r="D39" s="72"/>
-      <c r="E39" s="72"/>
-      <c r="F39" s="72"/>
-      <c r="G39" s="72"/>
-      <c r="H39" s="72"/>
-      <c r="I39" s="72"/>
-      <c r="J39" s="72"/>
-      <c r="K39" s="72"/>
-      <c r="L39" s="72"/>
-      <c r="M39" s="73"/>
+      <c r="B39" s="69"/>
+      <c r="C39" s="70"/>
+      <c r="D39" s="70"/>
+      <c r="E39" s="70"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="70"/>
+      <c r="H39" s="70"/>
+      <c r="I39" s="70"/>
+      <c r="J39" s="70"/>
+      <c r="K39" s="70"/>
+      <c r="L39" s="70"/>
+      <c r="M39" s="71"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B40" s="71"/>
-      <c r="C40" s="72"/>
-      <c r="D40" s="72"/>
-      <c r="E40" s="72"/>
-      <c r="F40" s="72"/>
-      <c r="G40" s="72"/>
-      <c r="H40" s="72"/>
-      <c r="I40" s="72"/>
-      <c r="J40" s="72"/>
-      <c r="K40" s="72"/>
-      <c r="L40" s="72"/>
-      <c r="M40" s="73"/>
+      <c r="B40" s="69"/>
+      <c r="C40" s="70"/>
+      <c r="D40" s="70"/>
+      <c r="E40" s="70"/>
+      <c r="F40" s="70"/>
+      <c r="G40" s="70"/>
+      <c r="H40" s="70"/>
+      <c r="I40" s="70"/>
+      <c r="J40" s="70"/>
+      <c r="K40" s="70"/>
+      <c r="L40" s="70"/>
+      <c r="M40" s="71"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="74"/>
-      <c r="C41" s="75"/>
-      <c r="D41" s="75"/>
-      <c r="E41" s="75"/>
-      <c r="F41" s="75"/>
-      <c r="G41" s="75"/>
-      <c r="H41" s="75"/>
-      <c r="I41" s="75"/>
-      <c r="J41" s="75"/>
-      <c r="K41" s="75"/>
-      <c r="L41" s="75"/>
-      <c r="M41" s="76"/>
+      <c r="B41" s="72"/>
+      <c r="C41" s="73"/>
+      <c r="D41" s="73"/>
+      <c r="E41" s="73"/>
+      <c r="F41" s="73"/>
+      <c r="G41" s="73"/>
+      <c r="H41" s="73"/>
+      <c r="I41" s="73"/>
+      <c r="J41" s="73"/>
+      <c r="K41" s="73"/>
+      <c r="L41" s="73"/>
+      <c r="M41" s="74"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B42" s="51" t="s">
+      <c r="B42" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="51"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="51"/>
-      <c r="H42" s="51"/>
-      <c r="I42" s="51"/>
-      <c r="J42" s="51"/>
-      <c r="K42" s="51"/>
-      <c r="L42" s="51"/>
-      <c r="M42" s="51"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="49"/>
+      <c r="I42" s="49"/>
+      <c r="J42" s="49"/>
+      <c r="K42" s="49"/>
+      <c r="L42" s="49"/>
+      <c r="M42" s="49"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B43" s="42" t="s">
+      <c r="B43" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="C43" s="43"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="43"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="43"/>
-      <c r="H43" s="43"/>
-      <c r="I43" s="43"/>
-      <c r="J43" s="43"/>
-      <c r="K43" s="43"/>
-      <c r="L43" s="43"/>
-      <c r="M43" s="44"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="41"/>
+      <c r="K43" s="41"/>
+      <c r="L43" s="41"/>
+      <c r="M43" s="42"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B44" s="45"/>
-      <c r="C44" s="46"/>
-      <c r="D44" s="46"/>
-      <c r="E44" s="46"/>
-      <c r="F44" s="46"/>
-      <c r="G44" s="46"/>
-      <c r="H44" s="46"/>
-      <c r="I44" s="46"/>
-      <c r="J44" s="46"/>
-      <c r="K44" s="46"/>
-      <c r="L44" s="46"/>
-      <c r="M44" s="47"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="44"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="44"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="44"/>
+      <c r="J44" s="44"/>
+      <c r="K44" s="44"/>
+      <c r="L44" s="44"/>
+      <c r="M44" s="45"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B45" s="45"/>
-      <c r="C45" s="46"/>
-      <c r="D45" s="46"/>
-      <c r="E45" s="46"/>
-      <c r="F45" s="46"/>
-      <c r="G45" s="46"/>
-      <c r="H45" s="46"/>
-      <c r="I45" s="46"/>
-      <c r="J45" s="46"/>
-      <c r="K45" s="46"/>
-      <c r="L45" s="46"/>
-      <c r="M45" s="47"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="44"/>
+      <c r="H45" s="44"/>
+      <c r="I45" s="44"/>
+      <c r="J45" s="44"/>
+      <c r="K45" s="44"/>
+      <c r="L45" s="44"/>
+      <c r="M45" s="45"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="45"/>
-      <c r="C46" s="46"/>
-      <c r="D46" s="46"/>
-      <c r="E46" s="46"/>
-      <c r="F46" s="46"/>
-      <c r="G46" s="46"/>
-      <c r="H46" s="46"/>
-      <c r="I46" s="46"/>
-      <c r="J46" s="46"/>
-      <c r="K46" s="46"/>
-      <c r="L46" s="46"/>
-      <c r="M46" s="47"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="44"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="44"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="44"/>
+      <c r="K46" s="44"/>
+      <c r="L46" s="44"/>
+      <c r="M46" s="45"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B47" s="45"/>
-      <c r="C47" s="46"/>
-      <c r="D47" s="46"/>
-      <c r="E47" s="46"/>
-      <c r="F47" s="46"/>
-      <c r="G47" s="46"/>
-      <c r="H47" s="46"/>
-      <c r="I47" s="46"/>
-      <c r="J47" s="46"/>
-      <c r="K47" s="46"/>
-      <c r="L47" s="46"/>
-      <c r="M47" s="47"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="44"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="44"/>
+      <c r="K47" s="44"/>
+      <c r="L47" s="44"/>
+      <c r="M47" s="45"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B48" s="45"/>
-      <c r="C48" s="46"/>
-      <c r="D48" s="46"/>
-      <c r="E48" s="46"/>
-      <c r="F48" s="46"/>
-      <c r="G48" s="46"/>
-      <c r="H48" s="46"/>
-      <c r="I48" s="46"/>
-      <c r="J48" s="46"/>
-      <c r="K48" s="46"/>
-      <c r="L48" s="46"/>
-      <c r="M48" s="47"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="44"/>
+      <c r="E48" s="44"/>
+      <c r="F48" s="44"/>
+      <c r="G48" s="44"/>
+      <c r="H48" s="44"/>
+      <c r="I48" s="44"/>
+      <c r="J48" s="44"/>
+      <c r="K48" s="44"/>
+      <c r="L48" s="44"/>
+      <c r="M48" s="45"/>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B49" s="48"/>
-      <c r="C49" s="49"/>
-      <c r="D49" s="49"/>
-      <c r="E49" s="49"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="49"/>
-      <c r="H49" s="49"/>
-      <c r="I49" s="49"/>
-      <c r="J49" s="49"/>
-      <c r="K49" s="49"/>
-      <c r="L49" s="49"/>
-      <c r="M49" s="50"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="47"/>
+      <c r="D49" s="47"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="47"/>
+      <c r="H49" s="47"/>
+      <c r="I49" s="47"/>
+      <c r="J49" s="47"/>
+      <c r="K49" s="47"/>
+      <c r="L49" s="47"/>
+      <c r="M49" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -3362,10 +3362,10 @@
   <sheetData>
     <row r="1" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="78"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
+      <c r="A2" s="76"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
       <c r="E2" s="12" t="s">
         <v>3</v>
       </c>
@@ -3380,10 +3380,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="77">
+      <c r="A3" s="75">
         <v>1</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="75" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="7">
@@ -3406,8 +3406,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="77"/>
-      <c r="B4" s="77"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="75"/>
       <c r="C4" s="7">
         <v>1.2</v>
       </c>
@@ -3428,8 +3428,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="77"/>
-      <c r="B5" s="77"/>
+      <c r="A5" s="75"/>
+      <c r="B5" s="75"/>
       <c r="C5" s="7">
         <v>1.3</v>
       </c>
@@ -3450,8 +3450,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="77"/>
-      <c r="B6" s="77"/>
+      <c r="A6" s="75"/>
+      <c r="B6" s="75"/>
       <c r="C6" s="7">
         <v>1.4</v>
       </c>
@@ -3472,10 +3472,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="79">
+      <c r="A7" s="77">
         <v>2</v>
       </c>
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="75" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="7">
@@ -3498,8 +3498,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="80"/>
-      <c r="B8" s="77"/>
+      <c r="A8" s="78"/>
+      <c r="B8" s="75"/>
       <c r="C8" s="7">
         <v>2.2000000000000002</v>
       </c>
@@ -3520,8 +3520,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="81"/>
-      <c r="B9" s="77"/>
+      <c r="A9" s="79"/>
+      <c r="B9" s="75"/>
       <c r="C9" s="7">
         <v>2.2999999999999998</v>
       </c>
@@ -3542,10 +3542,10 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="77">
+      <c r="A10" s="75">
         <v>3</v>
       </c>
-      <c r="B10" s="77" t="s">
+      <c r="B10" s="75" t="s">
         <v>38</v>
       </c>
       <c r="C10" s="9">
@@ -3568,8 +3568,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="77"/>
-      <c r="B11" s="77"/>
+      <c r="A11" s="75"/>
+      <c r="B11" s="75"/>
       <c r="C11" s="9">
         <v>3.2</v>
       </c>
@@ -3590,8 +3590,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="77"/>
-      <c r="B12" s="77"/>
+      <c r="A12" s="75"/>
+      <c r="B12" s="75"/>
       <c r="C12" s="9">
         <v>3.3</v>
       </c>
@@ -3612,8 +3612,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="77"/>
-      <c r="B13" s="77"/>
+      <c r="A13" s="75"/>
+      <c r="B13" s="75"/>
       <c r="C13" s="9">
         <v>3.4</v>
       </c>
@@ -3634,8 +3634,8 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="77"/>
-      <c r="B14" s="77"/>
+      <c r="A14" s="75"/>
+      <c r="B14" s="75"/>
       <c r="C14" s="9">
         <v>3.5</v>
       </c>
@@ -3656,8 +3656,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="77"/>
-      <c r="B15" s="77"/>
+      <c r="A15" s="75"/>
+      <c r="B15" s="75"/>
       <c r="C15" s="9">
         <v>3.6</v>
       </c>
@@ -3678,8 +3678,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="77"/>
-      <c r="B16" s="77"/>
+      <c r="A16" s="75"/>
+      <c r="B16" s="75"/>
       <c r="C16" s="9">
         <v>3.7</v>
       </c>
@@ -3700,8 +3700,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="77"/>
-      <c r="B17" s="77"/>
+      <c r="A17" s="75"/>
+      <c r="B17" s="75"/>
       <c r="C17" s="9">
         <v>3.8</v>
       </c>
@@ -3722,8 +3722,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="77"/>
-      <c r="B18" s="77"/>
+      <c r="A18" s="75"/>
+      <c r="B18" s="75"/>
       <c r="C18" s="9">
         <v>3.9</v>
       </c>
@@ -3744,8 +3744,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="77"/>
-      <c r="B19" s="77"/>
+      <c r="A19" s="75"/>
+      <c r="B19" s="75"/>
       <c r="C19" s="9" t="s">
         <v>51</v>
       </c>
@@ -3766,8 +3766,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="77"/>
-      <c r="B20" s="77"/>
+      <c r="A20" s="75"/>
+      <c r="B20" s="75"/>
       <c r="C20" s="9">
         <v>3.11</v>
       </c>
@@ -3788,8 +3788,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="77"/>
-      <c r="B21" s="77"/>
+      <c r="A21" s="75"/>
+      <c r="B21" s="75"/>
       <c r="C21" s="9">
         <v>3.12</v>
       </c>
@@ -3810,10 +3810,10 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="77">
+      <c r="A22" s="75">
         <v>4</v>
       </c>
-      <c r="B22" s="79" t="s">
+      <c r="B22" s="77" t="s">
         <v>53</v>
       </c>
       <c r="C22" s="7">
@@ -3836,8 +3836,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="77"/>
-      <c r="B23" s="80"/>
+      <c r="A23" s="75"/>
+      <c r="B23" s="78"/>
       <c r="C23" s="7">
         <v>4.2</v>
       </c>
@@ -3858,8 +3858,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="77"/>
-      <c r="B24" s="80"/>
+      <c r="A24" s="75"/>
+      <c r="B24" s="78"/>
       <c r="C24" s="7">
         <v>4.3</v>
       </c>
@@ -3880,8 +3880,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="77"/>
-      <c r="B25" s="80"/>
+      <c r="A25" s="75"/>
+      <c r="B25" s="78"/>
       <c r="C25" s="7">
         <v>4.4000000000000004</v>
       </c>
@@ -3902,8 +3902,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="77"/>
-      <c r="B26" s="80"/>
+      <c r="A26" s="75"/>
+      <c r="B26" s="78"/>
       <c r="C26" s="7">
         <v>4.5</v>
       </c>
@@ -3924,8 +3924,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="77"/>
-      <c r="B27" s="80"/>
+      <c r="A27" s="75"/>
+      <c r="B27" s="78"/>
       <c r="C27" s="7">
         <v>4.5999999999999996</v>
       </c>
@@ -3946,8 +3946,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="77"/>
-      <c r="B28" s="80"/>
+      <c r="A28" s="75"/>
+      <c r="B28" s="78"/>
       <c r="C28" s="7">
         <v>4.7</v>
       </c>
@@ -3968,8 +3968,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="77"/>
-      <c r="B29" s="80"/>
+      <c r="A29" s="75"/>
+      <c r="B29" s="78"/>
       <c r="C29" s="7">
         <v>4.8</v>
       </c>
@@ -3990,10 +3990,10 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="77">
+      <c r="A30" s="75">
         <v>5</v>
       </c>
-      <c r="B30" s="77" t="s">
+      <c r="B30" s="75" t="s">
         <v>63</v>
       </c>
       <c r="C30" s="7">
@@ -4016,8 +4016,8 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="77"/>
-      <c r="B31" s="77"/>
+      <c r="A31" s="75"/>
+      <c r="B31" s="75"/>
       <c r="C31" s="7">
         <v>5.2</v>
       </c>
@@ -4038,8 +4038,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="77"/>
-      <c r="B32" s="77"/>
+      <c r="A32" s="75"/>
+      <c r="B32" s="75"/>
       <c r="C32" s="7">
         <v>5.3</v>
       </c>
@@ -4060,8 +4060,8 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="77"/>
-      <c r="B33" s="77"/>
+      <c r="A33" s="75"/>
+      <c r="B33" s="75"/>
       <c r="C33" s="7">
         <v>5.4</v>
       </c>
@@ -4082,8 +4082,8 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="77"/>
-      <c r="B34" s="77"/>
+      <c r="A34" s="75"/>
+      <c r="B34" s="75"/>
       <c r="C34" s="7">
         <v>5.5</v>
       </c>
@@ -4104,8 +4104,8 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" s="77"/>
-      <c r="B35" s="77"/>
+      <c r="A35" s="75"/>
+      <c r="B35" s="75"/>
       <c r="C35" s="7">
         <v>5.6</v>
       </c>
@@ -4126,8 +4126,8 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A36" s="77"/>
-      <c r="B36" s="77"/>
+      <c r="A36" s="75"/>
+      <c r="B36" s="75"/>
       <c r="C36" s="7">
         <v>5.7</v>
       </c>
@@ -4148,10 +4148,10 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" s="77">
+      <c r="A37" s="75">
         <v>6</v>
       </c>
-      <c r="B37" s="77" t="s">
+      <c r="B37" s="75" t="s">
         <v>72</v>
       </c>
       <c r="C37" s="7">
@@ -4174,8 +4174,8 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A38" s="77"/>
-      <c r="B38" s="77"/>
+      <c r="A38" s="75"/>
+      <c r="B38" s="75"/>
       <c r="C38" s="7">
         <v>6.2</v>
       </c>
@@ -4196,8 +4196,8 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A39" s="77"/>
-      <c r="B39" s="77"/>
+      <c r="A39" s="75"/>
+      <c r="B39" s="75"/>
       <c r="C39" s="7">
         <v>6.3</v>
       </c>
@@ -4218,8 +4218,8 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A40" s="77"/>
-      <c r="B40" s="77"/>
+      <c r="A40" s="75"/>
+      <c r="B40" s="75"/>
       <c r="C40" s="7">
         <v>6.4</v>
       </c>
@@ -4240,8 +4240,8 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A41" s="77"/>
-      <c r="B41" s="77"/>
+      <c r="A41" s="75"/>
+      <c r="B41" s="75"/>
       <c r="C41" s="7">
         <v>6.5</v>
       </c>
@@ -4262,8 +4262,8 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A42" s="77"/>
-      <c r="B42" s="77"/>
+      <c r="A42" s="75"/>
+      <c r="B42" s="75"/>
       <c r="C42" s="7">
         <v>6.6</v>
       </c>
@@ -4602,7 +4602,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F37" sqref="F37"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4614,60 +4614,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:60" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="88"/>
-      <c r="B1" s="88"/>
-      <c r="C1" s="87" t="s">
+      <c r="A1" s="83"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="84" t="s">
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
-      <c r="W1" s="85"/>
-      <c r="X1" s="85"/>
-      <c r="Y1" s="85"/>
-      <c r="Z1" s="85"/>
-      <c r="AA1" s="85"/>
-      <c r="AB1" s="85"/>
-      <c r="AC1" s="85"/>
-      <c r="AD1" s="85"/>
-      <c r="AE1" s="85"/>
-      <c r="AF1" s="85"/>
-      <c r="AG1" s="85"/>
-      <c r="AH1" s="85"/>
-      <c r="AI1" s="85"/>
-      <c r="AJ1" s="85"/>
-      <c r="AK1" s="85"/>
-      <c r="AL1" s="85"/>
-      <c r="AM1" s="85"/>
-      <c r="AN1" s="85"/>
-      <c r="AO1" s="85"/>
-      <c r="AP1" s="85"/>
-      <c r="AQ1" s="85"/>
-      <c r="AR1" s="85"/>
-      <c r="AS1" s="85"/>
-      <c r="AT1" s="86"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
+      <c r="X1" s="81"/>
+      <c r="Y1" s="81"/>
+      <c r="Z1" s="81"/>
+      <c r="AA1" s="81"/>
+      <c r="AB1" s="81"/>
+      <c r="AC1" s="81"/>
+      <c r="AD1" s="81"/>
+      <c r="AE1" s="81"/>
+      <c r="AF1" s="81"/>
+      <c r="AG1" s="81"/>
+      <c r="AH1" s="81"/>
+      <c r="AI1" s="81"/>
+      <c r="AJ1" s="81"/>
+      <c r="AK1" s="81"/>
+      <c r="AL1" s="81"/>
+      <c r="AM1" s="81"/>
+      <c r="AN1" s="81"/>
+      <c r="AO1" s="81"/>
+      <c r="AP1" s="81"/>
+      <c r="AQ1" s="81"/>
+      <c r="AR1" s="81"/>
+      <c r="AS1" s="81"/>
+      <c r="AT1" s="82"/>
     </row>
     <row r="2" spans="1:60" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
+      <c r="A2" s="84"/>
+      <c r="B2" s="84"/>
       <c r="C2" s="16">
         <v>18</v>
       </c>
@@ -4820,9 +4820,9 @@
       <c r="B3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
@@ -4864,7 +4864,7 @@
       <c r="AR3" s="19"/>
       <c r="AS3" s="19"/>
       <c r="AT3" s="19"/>
-      <c r="BG3" s="36"/>
+      <c r="BG3" s="34"/>
       <c r="BH3" s="4" t="s">
         <v>130</v>
       </c>
@@ -4877,7 +4877,7 @@
         <v>23</v>
       </c>
       <c r="C4" s="20"/>
-      <c r="D4" s="25"/>
+      <c r="D4" s="88"/>
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
       <c r="G4" s="19"/>
@@ -4920,7 +4920,7 @@
       <c r="AR4" s="19"/>
       <c r="AS4" s="19"/>
       <c r="AT4" s="19"/>
-      <c r="BG4" s="37"/>
+      <c r="BG4" s="35"/>
       <c r="BH4" s="4" t="s">
         <v>131</v>
       </c>
@@ -4932,7 +4932,7 @@
       <c r="B5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="26"/>
+      <c r="C5" s="24"/>
       <c r="D5" s="21"/>
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
@@ -4976,7 +4976,7 @@
       <c r="AR5" s="19"/>
       <c r="AS5" s="19"/>
       <c r="AT5" s="19"/>
-      <c r="BG5" s="38"/>
+      <c r="BG5" s="36"/>
       <c r="BH5" s="4" t="s">
         <v>132</v>
       </c>
@@ -4989,8 +4989,8 @@
         <v>25</v>
       </c>
       <c r="C6" s="20"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="22"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="89"/>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
@@ -5032,21 +5032,21 @@
       <c r="AR6" s="19"/>
       <c r="AS6" s="19"/>
       <c r="AT6" s="19"/>
-      <c r="BG6" s="39"/>
+      <c r="BG6" s="37"/>
       <c r="BH6" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:60" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="27" t="s">
         <v>26</v>
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
-      <c r="F7" s="30"/>
+      <c r="F7" s="28"/>
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
@@ -5193,10 +5193,10 @@
       <c r="AT9" s="19"/>
     </row>
     <row r="10" spans="1:60" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="27" t="s">
         <v>85</v>
       </c>
       <c r="C10" s="20"/>
@@ -5204,7 +5204,7 @@
       <c r="E10" s="19"/>
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
-      <c r="I10" s="30"/>
+      <c r="I10" s="28"/>
       <c r="J10" s="19"/>
       <c r="K10" s="19"/>
       <c r="L10" s="19"/>
@@ -5512,8 +5512,8 @@
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="21"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -5575,7 +5575,7 @@
       <c r="M17" s="19"/>
       <c r="N17" s="19"/>
       <c r="O17" s="19"/>
-      <c r="Q17" s="30"/>
+      <c r="Q17" s="28"/>
       <c r="R17" s="19"/>
       <c r="S17" s="19"/>
       <c r="T17" s="19"/>
@@ -5763,10 +5763,10 @@
       <c r="AT20" s="19"/>
     </row>
     <row r="21" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="33">
+      <c r="A21" s="31">
         <v>3.9</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="30" t="s">
         <v>46</v>
       </c>
       <c r="C21" s="20"/>
@@ -5815,10 +5815,10 @@
       <c r="AT21" s="19"/>
     </row>
     <row r="22" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="30" t="s">
         <v>47</v>
       </c>
       <c r="C22" s="20"/>
@@ -5867,10 +5867,10 @@
       <c r="AT22" s="19"/>
     </row>
     <row r="23" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="33">
+      <c r="A23" s="31">
         <v>3.11</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="30" t="s">
         <v>48</v>
       </c>
       <c r="C23" s="20"/>
@@ -5919,10 +5919,10 @@
       <c r="AT23" s="19"/>
     </row>
     <row r="24" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="33">
+      <c r="A24" s="31">
         <v>3.12</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="30" t="s">
         <v>49</v>
       </c>
       <c r="C24" s="17"/>
@@ -5971,10 +5971,10 @@
       <c r="AT24" s="18"/>
     </row>
     <row r="25" spans="1:46" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="33" t="s">
+      <c r="A25" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="30" t="s">
         <v>50</v>
       </c>
       <c r="C25" s="20"/>
@@ -6231,7 +6231,7 @@
       <c r="AT29" s="19"/>
     </row>
     <row r="30" spans="1:46" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A30" s="28" t="s">
+      <c r="A30" s="26" t="s">
         <v>88</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -6257,7 +6257,7 @@
       <c r="T30" s="19"/>
       <c r="U30" s="19"/>
       <c r="V30" s="19"/>
-      <c r="W30" s="30"/>
+      <c r="W30" s="28"/>
       <c r="X30" s="19"/>
       <c r="Y30" s="19"/>
       <c r="Z30" s="19"/>
@@ -6283,10 +6283,10 @@
       <c r="AT30" s="19"/>
     </row>
     <row r="31" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="31">
+      <c r="A31" s="29">
         <v>4.5</v>
       </c>
-      <c r="B31" s="32" t="s">
+      <c r="B31" s="30" t="s">
         <v>58</v>
       </c>
       <c r="C31" s="20"/>
@@ -6335,10 +6335,10 @@
       <c r="AT31" s="19"/>
     </row>
     <row r="32" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="31">
+      <c r="A32" s="29">
         <v>4.5999999999999996</v>
       </c>
-      <c r="B32" s="32" t="s">
+      <c r="B32" s="30" t="s">
         <v>59</v>
       </c>
       <c r="C32" s="20"/>
@@ -6387,10 +6387,10 @@
       <c r="AT32" s="19"/>
     </row>
     <row r="33" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="31">
+      <c r="A33" s="29">
         <v>4.7</v>
       </c>
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="30" t="s">
         <v>60</v>
       </c>
       <c r="C33" s="20"/>
@@ -6439,10 +6439,10 @@
       <c r="AT33" s="19"/>
     </row>
     <row r="34" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="31">
+      <c r="A34" s="29">
         <v>4.8</v>
       </c>
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="30" t="s">
         <v>61</v>
       </c>
       <c r="C34" s="20"/>
@@ -6491,10 +6491,10 @@
       <c r="AT34" s="19"/>
     </row>
     <row r="35" spans="1:46" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="31">
+      <c r="A35" s="29">
         <v>4.9000000000000004</v>
       </c>
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="30" t="s">
         <v>62</v>
       </c>
       <c r="C35" s="20"/>
@@ -6699,7 +6699,7 @@
       <c r="A39" s="13">
         <v>5.4</v>
       </c>
-      <c r="B39" s="32" t="s">
+      <c r="B39" s="30" t="s">
         <v>67</v>
       </c>
       <c r="C39" s="20"/>
@@ -6751,7 +6751,7 @@
       <c r="A40" s="13">
         <v>5.5</v>
       </c>
-      <c r="B40" s="32" t="s">
+      <c r="B40" s="30" t="s">
         <v>68</v>
       </c>
       <c r="C40" s="20"/>
@@ -6803,7 +6803,7 @@
       <c r="A41" s="13">
         <v>5.6</v>
       </c>
-      <c r="B41" s="32" t="s">
+      <c r="B41" s="30" t="s">
         <v>69</v>
       </c>
       <c r="C41" s="20"/>
@@ -6855,7 +6855,7 @@
       <c r="A42" s="13">
         <v>5.7</v>
       </c>
-      <c r="B42" s="32" t="s">
+      <c r="B42" s="30" t="s">
         <v>70</v>
       </c>
       <c r="C42" s="20"/>
@@ -6907,7 +6907,7 @@
       <c r="A43" s="13">
         <v>5.8</v>
       </c>
-      <c r="B43" s="32" t="s">
+      <c r="B43" s="30" t="s">
         <v>71</v>
       </c>
       <c r="C43" s="20"/>
@@ -7060,7 +7060,7 @@
       <c r="AT45" s="19"/>
     </row>
     <row r="46" spans="1:46" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A46" s="28" t="s">
+      <c r="A46" s="26" t="s">
         <v>92</v>
       </c>
       <c r="B46" s="3" t="s">
@@ -7092,7 +7092,7 @@
       <c r="AB46" s="19"/>
       <c r="AC46" s="19"/>
       <c r="AD46" s="19"/>
-      <c r="AE46" s="30"/>
+      <c r="AE46" s="28"/>
       <c r="AF46" s="19"/>
       <c r="AG46" s="19"/>
       <c r="AH46" s="19"/>
@@ -7113,7 +7113,7 @@
       <c r="A47" s="13">
         <v>6.3</v>
       </c>
-      <c r="B47" s="32" t="s">
+      <c r="B47" s="30" t="s">
         <v>82</v>
       </c>
       <c r="C47" s="20"/>
@@ -7165,7 +7165,7 @@
       <c r="A48" s="13">
         <v>6.4</v>
       </c>
-      <c r="B48" s="32" t="s">
+      <c r="B48" s="30" t="s">
         <v>73</v>
       </c>
       <c r="C48" s="20"/>
@@ -7217,7 +7217,7 @@
       <c r="A49" s="13">
         <v>6.5</v>
       </c>
-      <c r="B49" s="32" t="s">
+      <c r="B49" s="30" t="s">
         <v>74</v>
       </c>
       <c r="C49" s="20"/>
@@ -7269,7 +7269,7 @@
       <c r="A50" s="13">
         <v>6.6</v>
       </c>
-      <c r="B50" s="32" t="s">
+      <c r="B50" s="30" t="s">
         <v>91</v>
       </c>
       <c r="C50" s="20"/>
@@ -7354,240 +7354,240 @@
   <sheetData>
     <row r="1" spans="2:9" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="I2" s="39" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7652,236 +7652,236 @@
   <sheetData>
     <row r="1" spans="2:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="44"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="42"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B4" s="45"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="47"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="45"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B5" s="45"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="47"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="45"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B6" s="45"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="47"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="45"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B7" s="45"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="47"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="45"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B8" s="45"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="47"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="45"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B9" s="48"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="50"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="48"/>
     </row>
     <row r="10" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="44"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="42"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B12" s="45"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="47"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="45"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B13" s="45"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="47"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="45"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B14" s="45"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="47"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="45"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B15" s="45"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="47"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="45"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B16" s="45"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="47"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="45"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B17" s="48"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="50"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7910,232 +7910,232 @@
   <sheetData>
     <row r="1" spans="2:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="42"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="44"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="42"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B4" s="45"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="47"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="45"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B5" s="45"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="47"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="45"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B6" s="45"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="47"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="45"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B7" s="45"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="47"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="45"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B8" s="45"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="47"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="45"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B9" s="48"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="50"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="48"/>
     </row>
     <row r="10" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B11" s="42"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="44"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="42"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B12" s="45"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="47"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="45"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B13" s="45"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="47"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="45"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B14" s="45"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="47"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="45"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B15" s="45"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="47"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="45"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B16" s="45"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="47"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="45"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B17" s="48"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="50"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/01_doc/proj_plan/餐厅订餐系统_项目计划.xlsx
+++ b/01_doc/proj_plan/餐厅订餐系统_项目计划.xlsx
@@ -271,6 +271,54 @@
         </r>
       </text>
     </comment>
+    <comment ref="S14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Lin/Aaron</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R15" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Leon</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="V18" authorId="0" shapeId="0">
       <text>
         <r>
@@ -344,6 +392,102 @@
         </r>
       </text>
     </comment>
+    <comment ref="L26" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Annie</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P27" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Annie</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R28" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Annie</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T29" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Annie</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -678,13 +822,6 @@
 2. 项目成员使用微信和电邮作为沟通工具
 3. 每日下午5点进行项目日例会，沟通完成工作，计划工作和需要寻求的帮助
 4. 每周日下午9点30分进行项目周例会，沟通项目进度，风险和下一个里程碑交付事宜</t>
-  </si>
-  <si>
-    <t>1. 罗智负责对外与委托人进行沟通
-2. 罗智负责交付物提交委托人Git仓库
-3. 罗智负责按里程碑列表提交交付物
-4. 罗智参与委托人项目需求，技术，交付物评审沟通
-5. 罗智负责每周提交项目进度周报</t>
   </si>
   <si>
     <t>风险描述</t>
@@ -868,12 +1005,20 @@
   <si>
     <t>菜品浏览模块实现</t>
   </si>
+  <si>
+    <t>1. 罗智负责对外与委托人进行沟通
+2. 罗智负责交付物提交委托人Git仓库
+3. 罗智负责按里程碑列表提交交付物
+4. 罗智参与委托人项目需求，技术，交付物评审沟通
+5. 罗智负责每周提交项目进度周报
+6. 罗智负责每2-3天与委托人就项目进度，遇到的问题，需求澄清已经交付物反馈进行沟通，沟通时间暂定中午1点20分左右。</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -966,6 +1111,19 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1268,6 +1426,8 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1397,6 +1557,12 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1406,14 +1572,6 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2296,24 +2454,24 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B2" s="38">
         <v>41962</v>
@@ -2322,15 +2480,15 @@
         <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B3" s="38">
         <v>41963</v>
@@ -2339,15 +2497,15 @@
         <v>3</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B4" s="38">
         <v>41963</v>
@@ -2356,10 +2514,10 @@
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -2460,56 +2618,56 @@
     </row>
     <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2594,7 +2752,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E6" s="4"/>
     </row>
@@ -2620,700 +2778,700 @@
   <sheetData>
     <row r="1" spans="2:13" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="51"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="53"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="52"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="56"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="52"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="56"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="52"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="54"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="56"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="51"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="53"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="52"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="54"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="56"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="52"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="54"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="56"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="52"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="54"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="56"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="55"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="57"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="59"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="58" t="s">
-        <v>146</v>
-      </c>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="60"/>
+      <c r="B14" s="60" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="62"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="61"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="63"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="65"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="61"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="62"/>
-      <c r="M16" s="63"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="65"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="61"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="62"/>
-      <c r="M17" s="63"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="65"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="61"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="62"/>
-      <c r="M18" s="63"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="64"/>
+      <c r="M18" s="65"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="61"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="63"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="65"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="61"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="62"/>
-      <c r="M20" s="63"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="64"/>
+      <c r="M20" s="65"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="61"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="62"/>
-      <c r="K21" s="62"/>
-      <c r="L21" s="62"/>
-      <c r="M21" s="63"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="64"/>
+      <c r="L21" s="64"/>
+      <c r="M21" s="65"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="61"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="62"/>
-      <c r="L22" s="62"/>
-      <c r="M22" s="63"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="64"/>
+      <c r="M22" s="65"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="61"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="62"/>
-      <c r="L23" s="62"/>
-      <c r="M23" s="63"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="64"/>
+      <c r="L23" s="64"/>
+      <c r="M23" s="65"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B24" s="61"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="62"/>
-      <c r="K24" s="62"/>
-      <c r="L24" s="62"/>
-      <c r="M24" s="63"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="65"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="61"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="62"/>
-      <c r="J25" s="62"/>
-      <c r="K25" s="62"/>
-      <c r="L25" s="62"/>
-      <c r="M25" s="63"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="64"/>
+      <c r="L25" s="64"/>
+      <c r="M25" s="65"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="61"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="62"/>
-      <c r="J26" s="62"/>
-      <c r="K26" s="62"/>
-      <c r="L26" s="62"/>
-      <c r="M26" s="63"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="64"/>
+      <c r="L26" s="64"/>
+      <c r="M26" s="65"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="64"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="65"/>
-      <c r="L27" s="65"/>
-      <c r="M27" s="66"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="67"/>
+      <c r="L27" s="67"/>
+      <c r="M27" s="68"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="49"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="51"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="40" t="s">
+      <c r="B29" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="42"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="44"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="43"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="44"/>
-      <c r="L30" s="44"/>
-      <c r="M30" s="45"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="46"/>
+      <c r="M30" s="47"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="43"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="44"/>
-      <c r="L31" s="44"/>
-      <c r="M31" s="45"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="47"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="43"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="44"/>
-      <c r="L32" s="44"/>
-      <c r="M32" s="45"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="46"/>
+      <c r="M32" s="47"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" s="43"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="44"/>
-      <c r="K33" s="44"/>
-      <c r="L33" s="44"/>
-      <c r="M33" s="45"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="46"/>
+      <c r="M33" s="47"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B34" s="43"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="44"/>
-      <c r="K34" s="44"/>
-      <c r="L34" s="44"/>
-      <c r="M34" s="45"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="46"/>
+      <c r="L34" s="46"/>
+      <c r="M34" s="47"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="46"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
-      <c r="H35" s="47"/>
-      <c r="I35" s="47"/>
-      <c r="J35" s="47"/>
-      <c r="K35" s="47"/>
-      <c r="L35" s="47"/>
-      <c r="M35" s="48"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="49"/>
+      <c r="M35" s="50"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B36" s="49" t="s">
+      <c r="B36" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="49"/>
-      <c r="J36" s="49"/>
-      <c r="K36" s="49"/>
-      <c r="L36" s="49"/>
-      <c r="M36" s="49"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="51"/>
+      <c r="L36" s="51"/>
+      <c r="M36" s="51"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B37" s="58" t="s">
-        <v>128</v>
-      </c>
-      <c r="C37" s="67"/>
-      <c r="D37" s="67"/>
-      <c r="E37" s="67"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="67"/>
-      <c r="H37" s="67"/>
-      <c r="I37" s="67"/>
-      <c r="J37" s="67"/>
-      <c r="K37" s="67"/>
-      <c r="L37" s="67"/>
-      <c r="M37" s="68"/>
+      <c r="B37" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="C37" s="69"/>
+      <c r="D37" s="69"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="69"/>
+      <c r="G37" s="69"/>
+      <c r="H37" s="69"/>
+      <c r="I37" s="69"/>
+      <c r="J37" s="69"/>
+      <c r="K37" s="69"/>
+      <c r="L37" s="69"/>
+      <c r="M37" s="70"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B38" s="69"/>
-      <c r="C38" s="70"/>
-      <c r="D38" s="70"/>
-      <c r="E38" s="70"/>
-      <c r="F38" s="70"/>
-      <c r="G38" s="70"/>
-      <c r="H38" s="70"/>
-      <c r="I38" s="70"/>
-      <c r="J38" s="70"/>
-      <c r="K38" s="70"/>
-      <c r="L38" s="70"/>
-      <c r="M38" s="71"/>
+      <c r="B38" s="71"/>
+      <c r="C38" s="72"/>
+      <c r="D38" s="72"/>
+      <c r="E38" s="72"/>
+      <c r="F38" s="72"/>
+      <c r="G38" s="72"/>
+      <c r="H38" s="72"/>
+      <c r="I38" s="72"/>
+      <c r="J38" s="72"/>
+      <c r="K38" s="72"/>
+      <c r="L38" s="72"/>
+      <c r="M38" s="73"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B39" s="69"/>
-      <c r="C39" s="70"/>
-      <c r="D39" s="70"/>
-      <c r="E39" s="70"/>
-      <c r="F39" s="70"/>
-      <c r="G39" s="70"/>
-      <c r="H39" s="70"/>
-      <c r="I39" s="70"/>
-      <c r="J39" s="70"/>
-      <c r="K39" s="70"/>
-      <c r="L39" s="70"/>
-      <c r="M39" s="71"/>
+      <c r="B39" s="71"/>
+      <c r="C39" s="72"/>
+      <c r="D39" s="72"/>
+      <c r="E39" s="72"/>
+      <c r="F39" s="72"/>
+      <c r="G39" s="72"/>
+      <c r="H39" s="72"/>
+      <c r="I39" s="72"/>
+      <c r="J39" s="72"/>
+      <c r="K39" s="72"/>
+      <c r="L39" s="72"/>
+      <c r="M39" s="73"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B40" s="69"/>
-      <c r="C40" s="70"/>
-      <c r="D40" s="70"/>
-      <c r="E40" s="70"/>
-      <c r="F40" s="70"/>
-      <c r="G40" s="70"/>
-      <c r="H40" s="70"/>
-      <c r="I40" s="70"/>
-      <c r="J40" s="70"/>
-      <c r="K40" s="70"/>
-      <c r="L40" s="70"/>
-      <c r="M40" s="71"/>
+      <c r="B40" s="71"/>
+      <c r="C40" s="72"/>
+      <c r="D40" s="72"/>
+      <c r="E40" s="72"/>
+      <c r="F40" s="72"/>
+      <c r="G40" s="72"/>
+      <c r="H40" s="72"/>
+      <c r="I40" s="72"/>
+      <c r="J40" s="72"/>
+      <c r="K40" s="72"/>
+      <c r="L40" s="72"/>
+      <c r="M40" s="73"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="72"/>
-      <c r="C41" s="73"/>
-      <c r="D41" s="73"/>
-      <c r="E41" s="73"/>
-      <c r="F41" s="73"/>
-      <c r="G41" s="73"/>
-      <c r="H41" s="73"/>
-      <c r="I41" s="73"/>
-      <c r="J41" s="73"/>
-      <c r="K41" s="73"/>
-      <c r="L41" s="73"/>
-      <c r="M41" s="74"/>
+      <c r="B41" s="74"/>
+      <c r="C41" s="75"/>
+      <c r="D41" s="75"/>
+      <c r="E41" s="75"/>
+      <c r="F41" s="75"/>
+      <c r="G41" s="75"/>
+      <c r="H41" s="75"/>
+      <c r="I41" s="75"/>
+      <c r="J41" s="75"/>
+      <c r="K41" s="75"/>
+      <c r="L41" s="75"/>
+      <c r="M41" s="76"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B42" s="49" t="s">
+      <c r="B42" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="49"/>
-      <c r="I42" s="49"/>
-      <c r="J42" s="49"/>
-      <c r="K42" s="49"/>
-      <c r="L42" s="49"/>
-      <c r="M42" s="49"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="51"/>
+      <c r="J42" s="51"/>
+      <c r="K42" s="51"/>
+      <c r="L42" s="51"/>
+      <c r="M42" s="51"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B43" s="40" t="s">
+      <c r="B43" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="C43" s="41"/>
-      <c r="D43" s="41"/>
-      <c r="E43" s="41"/>
-      <c r="F43" s="41"/>
-      <c r="G43" s="41"/>
-      <c r="H43" s="41"/>
-      <c r="I43" s="41"/>
-      <c r="J43" s="41"/>
-      <c r="K43" s="41"/>
-      <c r="L43" s="41"/>
-      <c r="M43" s="42"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="43"/>
+      <c r="K43" s="43"/>
+      <c r="L43" s="43"/>
+      <c r="M43" s="44"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B44" s="43"/>
-      <c r="C44" s="44"/>
-      <c r="D44" s="44"/>
-      <c r="E44" s="44"/>
-      <c r="F44" s="44"/>
-      <c r="G44" s="44"/>
-      <c r="H44" s="44"/>
-      <c r="I44" s="44"/>
-      <c r="J44" s="44"/>
-      <c r="K44" s="44"/>
-      <c r="L44" s="44"/>
-      <c r="M44" s="45"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="46"/>
+      <c r="H44" s="46"/>
+      <c r="I44" s="46"/>
+      <c r="J44" s="46"/>
+      <c r="K44" s="46"/>
+      <c r="L44" s="46"/>
+      <c r="M44" s="47"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B45" s="43"/>
-      <c r="C45" s="44"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="44"/>
-      <c r="G45" s="44"/>
-      <c r="H45" s="44"/>
-      <c r="I45" s="44"/>
-      <c r="J45" s="44"/>
-      <c r="K45" s="44"/>
-      <c r="L45" s="44"/>
-      <c r="M45" s="45"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="46"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="46"/>
+      <c r="H45" s="46"/>
+      <c r="I45" s="46"/>
+      <c r="J45" s="46"/>
+      <c r="K45" s="46"/>
+      <c r="L45" s="46"/>
+      <c r="M45" s="47"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="43"/>
-      <c r="C46" s="44"/>
-      <c r="D46" s="44"/>
-      <c r="E46" s="44"/>
-      <c r="F46" s="44"/>
-      <c r="G46" s="44"/>
-      <c r="H46" s="44"/>
-      <c r="I46" s="44"/>
-      <c r="J46" s="44"/>
-      <c r="K46" s="44"/>
-      <c r="L46" s="44"/>
-      <c r="M46" s="45"/>
+      <c r="B46" s="45"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="46"/>
+      <c r="F46" s="46"/>
+      <c r="G46" s="46"/>
+      <c r="H46" s="46"/>
+      <c r="I46" s="46"/>
+      <c r="J46" s="46"/>
+      <c r="K46" s="46"/>
+      <c r="L46" s="46"/>
+      <c r="M46" s="47"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B47" s="43"/>
-      <c r="C47" s="44"/>
-      <c r="D47" s="44"/>
-      <c r="E47" s="44"/>
-      <c r="F47" s="44"/>
-      <c r="G47" s="44"/>
-      <c r="H47" s="44"/>
-      <c r="I47" s="44"/>
-      <c r="J47" s="44"/>
-      <c r="K47" s="44"/>
-      <c r="L47" s="44"/>
-      <c r="M47" s="45"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="46"/>
+      <c r="H47" s="46"/>
+      <c r="I47" s="46"/>
+      <c r="J47" s="46"/>
+      <c r="K47" s="46"/>
+      <c r="L47" s="46"/>
+      <c r="M47" s="47"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B48" s="43"/>
-      <c r="C48" s="44"/>
-      <c r="D48" s="44"/>
-      <c r="E48" s="44"/>
-      <c r="F48" s="44"/>
-      <c r="G48" s="44"/>
-      <c r="H48" s="44"/>
-      <c r="I48" s="44"/>
-      <c r="J48" s="44"/>
-      <c r="K48" s="44"/>
-      <c r="L48" s="44"/>
-      <c r="M48" s="45"/>
+      <c r="B48" s="45"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="46"/>
+      <c r="I48" s="46"/>
+      <c r="J48" s="46"/>
+      <c r="K48" s="46"/>
+      <c r="L48" s="46"/>
+      <c r="M48" s="47"/>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B49" s="46"/>
-      <c r="C49" s="47"/>
-      <c r="D49" s="47"/>
-      <c r="E49" s="47"/>
-      <c r="F49" s="47"/>
-      <c r="G49" s="47"/>
-      <c r="H49" s="47"/>
-      <c r="I49" s="47"/>
-      <c r="J49" s="47"/>
-      <c r="K49" s="47"/>
-      <c r="L49" s="47"/>
-      <c r="M49" s="48"/>
+      <c r="B49" s="48"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="49"/>
+      <c r="I49" s="49"/>
+      <c r="J49" s="49"/>
+      <c r="K49" s="49"/>
+      <c r="L49" s="49"/>
+      <c r="M49" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -3362,10 +3520,10 @@
   <sheetData>
     <row r="1" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="76"/>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
+      <c r="A2" s="78"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
       <c r="E2" s="12" t="s">
         <v>3</v>
       </c>
@@ -3380,10 +3538,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="75">
+      <c r="A3" s="77">
         <v>1</v>
       </c>
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="77" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="7">
@@ -3406,8 +3564,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="75"/>
-      <c r="B4" s="75"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="77"/>
       <c r="C4" s="7">
         <v>1.2</v>
       </c>
@@ -3428,8 +3586,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="75"/>
-      <c r="B5" s="75"/>
+      <c r="A5" s="77"/>
+      <c r="B5" s="77"/>
       <c r="C5" s="7">
         <v>1.3</v>
       </c>
@@ -3450,8 +3608,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="75"/>
-      <c r="B6" s="75"/>
+      <c r="A6" s="77"/>
+      <c r="B6" s="77"/>
       <c r="C6" s="7">
         <v>1.4</v>
       </c>
@@ -3472,10 +3630,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="77">
+      <c r="A7" s="79">
         <v>2</v>
       </c>
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="77" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="7">
@@ -3498,8 +3656,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="78"/>
-      <c r="B8" s="75"/>
+      <c r="A8" s="80"/>
+      <c r="B8" s="77"/>
       <c r="C8" s="7">
         <v>2.2000000000000002</v>
       </c>
@@ -3520,8 +3678,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="79"/>
-      <c r="B9" s="75"/>
+      <c r="A9" s="81"/>
+      <c r="B9" s="77"/>
       <c r="C9" s="7">
         <v>2.2999999999999998</v>
       </c>
@@ -3542,10 +3700,10 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="75">
+      <c r="A10" s="77">
         <v>3</v>
       </c>
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="77" t="s">
         <v>38</v>
       </c>
       <c r="C10" s="9">
@@ -3568,8 +3726,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="75"/>
-      <c r="B11" s="75"/>
+      <c r="A11" s="77"/>
+      <c r="B11" s="77"/>
       <c r="C11" s="9">
         <v>3.2</v>
       </c>
@@ -3590,8 +3748,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="75"/>
-      <c r="B12" s="75"/>
+      <c r="A12" s="77"/>
+      <c r="B12" s="77"/>
       <c r="C12" s="9">
         <v>3.3</v>
       </c>
@@ -3612,8 +3770,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="75"/>
-      <c r="B13" s="75"/>
+      <c r="A13" s="77"/>
+      <c r="B13" s="77"/>
       <c r="C13" s="9">
         <v>3.4</v>
       </c>
@@ -3634,8 +3792,8 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="75"/>
-      <c r="B14" s="75"/>
+      <c r="A14" s="77"/>
+      <c r="B14" s="77"/>
       <c r="C14" s="9">
         <v>3.5</v>
       </c>
@@ -3656,8 +3814,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="75"/>
-      <c r="B15" s="75"/>
+      <c r="A15" s="77"/>
+      <c r="B15" s="77"/>
       <c r="C15" s="9">
         <v>3.6</v>
       </c>
@@ -3678,8 +3836,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="75"/>
-      <c r="B16" s="75"/>
+      <c r="A16" s="77"/>
+      <c r="B16" s="77"/>
       <c r="C16" s="9">
         <v>3.7</v>
       </c>
@@ -3700,8 +3858,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="75"/>
-      <c r="B17" s="75"/>
+      <c r="A17" s="77"/>
+      <c r="B17" s="77"/>
       <c r="C17" s="9">
         <v>3.8</v>
       </c>
@@ -3722,8 +3880,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="75"/>
-      <c r="B18" s="75"/>
+      <c r="A18" s="77"/>
+      <c r="B18" s="77"/>
       <c r="C18" s="9">
         <v>3.9</v>
       </c>
@@ -3744,8 +3902,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="75"/>
-      <c r="B19" s="75"/>
+      <c r="A19" s="77"/>
+      <c r="B19" s="77"/>
       <c r="C19" s="9" t="s">
         <v>51</v>
       </c>
@@ -3766,8 +3924,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="75"/>
-      <c r="B20" s="75"/>
+      <c r="A20" s="77"/>
+      <c r="B20" s="77"/>
       <c r="C20" s="9">
         <v>3.11</v>
       </c>
@@ -3788,8 +3946,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="75"/>
-      <c r="B21" s="75"/>
+      <c r="A21" s="77"/>
+      <c r="B21" s="77"/>
       <c r="C21" s="9">
         <v>3.12</v>
       </c>
@@ -3810,10 +3968,10 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="75">
+      <c r="A22" s="77">
         <v>4</v>
       </c>
-      <c r="B22" s="77" t="s">
+      <c r="B22" s="79" t="s">
         <v>53</v>
       </c>
       <c r="C22" s="7">
@@ -3836,8 +3994,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="75"/>
-      <c r="B23" s="78"/>
+      <c r="A23" s="77"/>
+      <c r="B23" s="80"/>
       <c r="C23" s="7">
         <v>4.2</v>
       </c>
@@ -3858,8 +4016,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="75"/>
-      <c r="B24" s="78"/>
+      <c r="A24" s="77"/>
+      <c r="B24" s="80"/>
       <c r="C24" s="7">
         <v>4.3</v>
       </c>
@@ -3880,8 +4038,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="75"/>
-      <c r="B25" s="78"/>
+      <c r="A25" s="77"/>
+      <c r="B25" s="80"/>
       <c r="C25" s="7">
         <v>4.4000000000000004</v>
       </c>
@@ -3902,8 +4060,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="75"/>
-      <c r="B26" s="78"/>
+      <c r="A26" s="77"/>
+      <c r="B26" s="80"/>
       <c r="C26" s="7">
         <v>4.5</v>
       </c>
@@ -3924,8 +4082,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="75"/>
-      <c r="B27" s="78"/>
+      <c r="A27" s="77"/>
+      <c r="B27" s="80"/>
       <c r="C27" s="7">
         <v>4.5999999999999996</v>
       </c>
@@ -3946,8 +4104,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="75"/>
-      <c r="B28" s="78"/>
+      <c r="A28" s="77"/>
+      <c r="B28" s="80"/>
       <c r="C28" s="7">
         <v>4.7</v>
       </c>
@@ -3968,8 +4126,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="75"/>
-      <c r="B29" s="78"/>
+      <c r="A29" s="77"/>
+      <c r="B29" s="80"/>
       <c r="C29" s="7">
         <v>4.8</v>
       </c>
@@ -3990,10 +4148,10 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="75">
+      <c r="A30" s="77">
         <v>5</v>
       </c>
-      <c r="B30" s="75" t="s">
+      <c r="B30" s="77" t="s">
         <v>63</v>
       </c>
       <c r="C30" s="7">
@@ -4016,8 +4174,8 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="75"/>
-      <c r="B31" s="75"/>
+      <c r="A31" s="77"/>
+      <c r="B31" s="77"/>
       <c r="C31" s="7">
         <v>5.2</v>
       </c>
@@ -4038,8 +4196,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="75"/>
-      <c r="B32" s="75"/>
+      <c r="A32" s="77"/>
+      <c r="B32" s="77"/>
       <c r="C32" s="7">
         <v>5.3</v>
       </c>
@@ -4060,8 +4218,8 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="75"/>
-      <c r="B33" s="75"/>
+      <c r="A33" s="77"/>
+      <c r="B33" s="77"/>
       <c r="C33" s="7">
         <v>5.4</v>
       </c>
@@ -4082,8 +4240,8 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="75"/>
-      <c r="B34" s="75"/>
+      <c r="A34" s="77"/>
+      <c r="B34" s="77"/>
       <c r="C34" s="7">
         <v>5.5</v>
       </c>
@@ -4104,8 +4262,8 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" s="75"/>
-      <c r="B35" s="75"/>
+      <c r="A35" s="77"/>
+      <c r="B35" s="77"/>
       <c r="C35" s="7">
         <v>5.6</v>
       </c>
@@ -4126,8 +4284,8 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A36" s="75"/>
-      <c r="B36" s="75"/>
+      <c r="A36" s="77"/>
+      <c r="B36" s="77"/>
       <c r="C36" s="7">
         <v>5.7</v>
       </c>
@@ -4148,10 +4306,10 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" s="75">
+      <c r="A37" s="77">
         <v>6</v>
       </c>
-      <c r="B37" s="75" t="s">
+      <c r="B37" s="77" t="s">
         <v>72</v>
       </c>
       <c r="C37" s="7">
@@ -4174,8 +4332,8 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A38" s="75"/>
-      <c r="B38" s="75"/>
+      <c r="A38" s="77"/>
+      <c r="B38" s="77"/>
       <c r="C38" s="7">
         <v>6.2</v>
       </c>
@@ -4196,8 +4354,8 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A39" s="75"/>
-      <c r="B39" s="75"/>
+      <c r="A39" s="77"/>
+      <c r="B39" s="77"/>
       <c r="C39" s="7">
         <v>6.3</v>
       </c>
@@ -4218,8 +4376,8 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A40" s="75"/>
-      <c r="B40" s="75"/>
+      <c r="A40" s="77"/>
+      <c r="B40" s="77"/>
       <c r="C40" s="7">
         <v>6.4</v>
       </c>
@@ -4240,8 +4398,8 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A41" s="75"/>
-      <c r="B41" s="75"/>
+      <c r="A41" s="77"/>
+      <c r="B41" s="77"/>
       <c r="C41" s="7">
         <v>6.5</v>
       </c>
@@ -4262,8 +4420,8 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A42" s="75"/>
-      <c r="B42" s="75"/>
+      <c r="A42" s="77"/>
+      <c r="B42" s="77"/>
       <c r="C42" s="7">
         <v>6.6</v>
       </c>
@@ -4598,76 +4756,81 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BH50"/>
+  <dimension ref="A1:BF50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="AX15" sqref="AX15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
     <col min="2" max="2" width="29.28515625" style="2" customWidth="1"/>
-    <col min="3" max="58" width="3.7109375" style="2" customWidth="1"/>
+    <col min="3" max="46" width="3.7109375" style="2" customWidth="1"/>
+    <col min="47" max="47" width="11.28515625" style="2" customWidth="1"/>
+    <col min="48" max="48" width="9.85546875" style="2" customWidth="1"/>
+    <col min="49" max="58" width="3.7109375" style="2" customWidth="1"/>
     <col min="59" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="83"/>
-      <c r="B1" s="83"/>
-      <c r="C1" s="85" t="s">
+    <row r="1" spans="1:58" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="89" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="80" t="s">
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="82" t="s">
         <v>76</v>
       </c>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
-      <c r="W1" s="81"/>
-      <c r="X1" s="81"/>
-      <c r="Y1" s="81"/>
-      <c r="Z1" s="81"/>
-      <c r="AA1" s="81"/>
-      <c r="AB1" s="81"/>
-      <c r="AC1" s="81"/>
-      <c r="AD1" s="81"/>
-      <c r="AE1" s="81"/>
-      <c r="AF1" s="81"/>
-      <c r="AG1" s="81"/>
-      <c r="AH1" s="81"/>
-      <c r="AI1" s="81"/>
-      <c r="AJ1" s="81"/>
-      <c r="AK1" s="81"/>
-      <c r="AL1" s="81"/>
-      <c r="AM1" s="81"/>
-      <c r="AN1" s="81"/>
-      <c r="AO1" s="81"/>
-      <c r="AP1" s="81"/>
-      <c r="AQ1" s="81"/>
-      <c r="AR1" s="81"/>
-      <c r="AS1" s="81"/>
-      <c r="AT1" s="82"/>
-    </row>
-    <row r="2" spans="1:60" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
+      <c r="W1" s="83"/>
+      <c r="X1" s="83"/>
+      <c r="Y1" s="83"/>
+      <c r="Z1" s="83"/>
+      <c r="AA1" s="83"/>
+      <c r="AB1" s="83"/>
+      <c r="AC1" s="83"/>
+      <c r="AD1" s="83"/>
+      <c r="AE1" s="83"/>
+      <c r="AF1" s="83"/>
+      <c r="AG1" s="83"/>
+      <c r="AH1" s="83"/>
+      <c r="AI1" s="83"/>
+      <c r="AJ1" s="83"/>
+      <c r="AK1" s="83"/>
+      <c r="AL1" s="83"/>
+      <c r="AM1" s="83"/>
+      <c r="AN1" s="83"/>
+      <c r="AO1" s="83"/>
+      <c r="AP1" s="83"/>
+      <c r="AQ1" s="83"/>
+      <c r="AR1" s="83"/>
+      <c r="AS1" s="83"/>
+      <c r="AT1" s="84"/>
+    </row>
+    <row r="2" spans="1:58" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
       <c r="C2" s="16">
         <v>18</v>
       </c>
@@ -4813,16 +4976,16 @@
       <c r="BE2" s="15"/>
       <c r="BF2" s="15"/>
     </row>
-    <row r="3" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>1.1000000000000001</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
@@ -4864,12 +5027,12 @@
       <c r="AR3" s="19"/>
       <c r="AS3" s="19"/>
       <c r="AT3" s="19"/>
-      <c r="BG3" s="34"/>
-      <c r="BH3" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="4" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AU3" s="34"/>
+      <c r="AV3" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>1.2</v>
       </c>
@@ -4877,7 +5040,7 @@
         <v>23</v>
       </c>
       <c r="C4" s="20"/>
-      <c r="D4" s="88"/>
+      <c r="D4" s="40"/>
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
       <c r="G4" s="19"/>
@@ -4920,12 +5083,12 @@
       <c r="AR4" s="19"/>
       <c r="AS4" s="19"/>
       <c r="AT4" s="19"/>
-      <c r="BG4" s="35"/>
-      <c r="BH4" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AU4" s="35"/>
+      <c r="AV4" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>1.3</v>
       </c>
@@ -4976,12 +5139,12 @@
       <c r="AR5" s="19"/>
       <c r="AS5" s="19"/>
       <c r="AT5" s="19"/>
-      <c r="BG5" s="36"/>
-      <c r="BH5" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AU5" s="36"/>
+      <c r="AV5" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>1.4</v>
       </c>
@@ -4989,8 +5152,8 @@
         <v>25</v>
       </c>
       <c r="C6" s="20"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="89"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="41"/>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
@@ -5032,12 +5195,12 @@
       <c r="AR6" s="19"/>
       <c r="AS6" s="19"/>
       <c r="AT6" s="19"/>
-      <c r="BG6" s="37"/>
-      <c r="BH6" s="4" t="s">
+      <c r="AU6" s="37"/>
+      <c r="AV6" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:60" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:58" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="26" t="s">
         <v>83</v>
       </c>
@@ -5088,7 +5251,7 @@
       <c r="AS7" s="19"/>
       <c r="AT7" s="19"/>
     </row>
-    <row r="8" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>2.1</v>
       </c>
@@ -5098,8 +5261,8 @@
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="19"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
       <c r="J8" s="19"/>
@@ -5140,7 +5303,7 @@
       <c r="AS8" s="19"/>
       <c r="AT8" s="19"/>
     </row>
-    <row r="9" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>2.2000000000000002</v>
       </c>
@@ -5192,7 +5355,7 @@
       <c r="AS9" s="19"/>
       <c r="AT9" s="19"/>
     </row>
-    <row r="10" spans="1:60" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:58" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A10" s="26" t="s">
         <v>84</v>
       </c>
@@ -5243,7 +5406,7 @@
       <c r="AS10" s="19"/>
       <c r="AT10" s="19"/>
     </row>
-    <row r="11" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>2.2999999999999998</v>
       </c>
@@ -5295,7 +5458,7 @@
       <c r="AS11" s="19"/>
       <c r="AT11" s="19"/>
     </row>
-    <row r="12" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>3.1</v>
       </c>
@@ -5347,7 +5510,7 @@
       <c r="AS12" s="19"/>
       <c r="AT12" s="19"/>
     </row>
-    <row r="13" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>3.2</v>
       </c>
@@ -5399,7 +5562,7 @@
       <c r="AS13" s="19"/>
       <c r="AT13" s="19"/>
     </row>
-    <row r="14" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>3.3</v>
       </c>
@@ -5451,7 +5614,7 @@
       <c r="AS14" s="19"/>
       <c r="AT14" s="19"/>
     </row>
-    <row r="15" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>3.4</v>
       </c>
@@ -5503,7 +5666,7 @@
       <c r="AS15" s="19"/>
       <c r="AT15" s="19"/>
     </row>
-    <row r="16" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>3.5</v>
       </c>
@@ -5663,7 +5826,7 @@
         <v>3.7</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="11"/>
@@ -6131,7 +6294,7 @@
         <v>4.3</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C28" s="20"/>
       <c r="D28" s="21"/>
@@ -6599,7 +6762,7 @@
         <v>5.2</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C37" s="20"/>
       <c r="D37" s="21"/>
@@ -7355,28 +7518,28 @@
     <row r="1" spans="2:9" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:9" ht="37.5" x14ac:dyDescent="0.25">
       <c r="B2" s="39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C2" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="E2" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="F2" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="H2" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="G2" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="H2" s="39" t="s">
+      <c r="I2" s="39" t="s">
         <v>111</v>
-      </c>
-      <c r="I2" s="39" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
@@ -7638,10 +7801,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M17"/>
+  <dimension ref="B1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="B11" sqref="B11:M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -7652,243 +7815,313 @@
   <sheetData>
     <row r="1" spans="2:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="42"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="44"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B4" s="43"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="47"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B5" s="43"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="45"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="47"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B6" s="43"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="45"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="47"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B7" s="43"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="45"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="47"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B8" s="43"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="45"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="47"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B9" s="46"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="48"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="50"/>
     </row>
     <row r="10" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B11" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="42"/>
+      <c r="B11" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="44"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B12" s="43"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="45"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="47"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B13" s="43"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="45"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="47"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B14" s="43"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="45"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="47"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B15" s="43"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="45"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="47"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B16" s="43"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="45"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="47"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B17" s="46"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="48"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="47"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B18" s="45"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="47"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B19" s="45"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="47"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B20" s="45"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="47"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B21" s="45"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="47"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B22" s="48"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B3:M9"/>
     <mergeCell ref="B10:M10"/>
-    <mergeCell ref="B11:M17"/>
+    <mergeCell ref="B11:M22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7910,232 +8143,232 @@
   <sheetData>
     <row r="1" spans="2:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="40"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="44"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B4" s="43"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="47"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B5" s="43"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="45"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="47"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B6" s="43"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="45"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="47"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B7" s="43"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="45"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="47"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B8" s="43"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="45"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="47"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B9" s="46"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="48"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="50"/>
     </row>
     <row r="10" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B11" s="40"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="42"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="44"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B12" s="43"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="45"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="47"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B13" s="43"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="45"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="47"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B14" s="43"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="45"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="47"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B15" s="43"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="45"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="47"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B16" s="43"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="45"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="47"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B17" s="46"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="48"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/01_doc/proj_plan/餐厅订餐系统_项目计划.xlsx
+++ b/01_doc/proj_plan/餐厅订餐系统_项目计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="00_文档历史" sheetId="11" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="03_任务分解" sheetId="3" r:id="rId4"/>
     <sheet name="04_项目进度" sheetId="4" r:id="rId5"/>
     <sheet name="05_风险管理" sheetId="5" r:id="rId6"/>
-    <sheet name="06_问题日志" sheetId="6" r:id="rId7"/>
+    <sheet name="06_问题日志" sheetId="12" r:id="rId7"/>
     <sheet name="07_沟通计划" sheetId="10" r:id="rId8"/>
     <sheet name="08_验收条件" sheetId="8" r:id="rId9"/>
     <sheet name="Lengend" sheetId="9" r:id="rId10"/>
@@ -279,7 +279,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -288,7 +288,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Lin/Aaron</t>
@@ -303,7 +303,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -312,7 +312,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Leon</t>
@@ -400,7 +400,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -409,7 +409,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Annie</t>
@@ -424,7 +424,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -433,7 +433,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Annie</t>
@@ -448,7 +448,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -457,7 +457,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Annie</t>
@@ -472,7 +472,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -481,7 +481,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Annie</t>
@@ -493,7 +493,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="163">
   <si>
     <t>姓名</t>
   </si>
@@ -1013,12 +1013,51 @@
 5. 罗智负责每周提交项目进度周报
 6. 罗智负责每2-3天与委托人就项目进度，遇到的问题，需求澄清已经交付物反馈进行沟通，沟通时间暂定中午1点20分左右。</t>
   </si>
+  <si>
+    <t>正在解决</t>
+  </si>
+  <si>
+    <t>已经解决</t>
+  </si>
+  <si>
+    <t>以后解决</t>
+  </si>
+  <si>
+    <t>关闭</t>
+  </si>
+  <si>
+    <t>问题标题</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>问题描述</t>
+  </si>
+  <si>
+    <t>提交人</t>
+  </si>
+  <si>
+    <t>提交日期</t>
+  </si>
+  <si>
+    <t>问题分析人</t>
+  </si>
+  <si>
+    <t>计划解决日期</t>
+  </si>
+  <si>
+    <t>解决方法</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1111,19 +1150,6 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1363,7 +1389,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1572,6 +1598,7 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2139,6 +2166,74 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2158,7 +2253,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2547,10 +2642,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2559,7 +2654,7 @@
     <col min="2" max="2" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>30</v>
       </c>
@@ -2567,7 +2662,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>31</v>
       </c>
@@ -2575,7 +2670,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>32</v>
       </c>
@@ -2583,7 +2678,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>33</v>
       </c>
@@ -2591,32 +2686,32 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
         <v>113</v>
       </c>
@@ -2629,8 +2724,11 @@
       <c r="E12" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
         <v>114</v>
       </c>
@@ -2643,8 +2741,11 @@
       <c r="E13" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
         <v>115</v>
       </c>
@@ -2654,13 +2755,19 @@
       <c r="C14" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>123</v>
       </c>
@@ -4758,7 +4865,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -7789,13 +7896,388 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="41.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" customWidth="1"/>
+    <col min="7" max="8" width="15.28515625" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" customWidth="1"/>
+    <col min="10" max="11" width="21.7109375" customWidth="1"/>
+    <col min="12" max="12" width="31.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="H1" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="I1" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="J1" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="K1" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="L1" s="39" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="90"/>
+    </row>
+    <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="90"/>
+    </row>
+    <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="90"/>
+    </row>
+    <row r="5" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="90"/>
+    </row>
+    <row r="6" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="90"/>
+    </row>
+    <row r="7" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="90"/>
+    </row>
+    <row r="8" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="90"/>
+    </row>
+    <row r="9" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="90"/>
+    </row>
+    <row r="10" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="90"/>
+    </row>
+    <row r="11" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="90"/>
+    </row>
+    <row r="12" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="90"/>
+    </row>
+    <row r="13" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="32"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="90"/>
+    </row>
+    <row r="14" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="90"/>
+    </row>
+    <row r="15" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="90"/>
+    </row>
+    <row r="16" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="90"/>
+    </row>
+    <row r="17" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="90"/>
+    </row>
+    <row r="18" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="32"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="90"/>
+    </row>
+    <row r="19" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="90"/>
+    </row>
+    <row r="20" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="90"/>
+    </row>
+    <row r="21" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="32"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="90"/>
+    </row>
+    <row r="22" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="32"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="90"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Lengend!$G$12:$G$15</xm:f>
+          </x14:formula1>
+          <xm:sqref>F1:F1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[1]Lengend!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>J2:J22</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Lengend!$A$7:$A$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>I1:I1048576 G1:G1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Lengend!$B$12:$B$14</xm:f>
+          </x14:formula1>
+          <xm:sqref>E1:E1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 

--- a/01_doc/proj_plan/餐厅订餐系统_项目计划.xlsx
+++ b/01_doc/proj_plan/餐厅订餐系统_项目计划.xlsx
@@ -19,6 +19,7 @@
     <sheet name="Lengend" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="122211"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1454,6 +1455,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1598,7 +1600,6 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2645,7 +2646,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2885,700 +2886,700 @@
   <sheetData>
     <row r="1" spans="2:13" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="54"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="54"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="56"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="57"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="56"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="57"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="54"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="56"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="57"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="54"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="54"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="56"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="57"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="54"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="56"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="57"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="54"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="56"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="57"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="57"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="59"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="60"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="60" t="s">
+      <c r="B14" s="61" t="s">
         <v>145</v>
       </c>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="63"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="63"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="64"/>
-      <c r="M15" s="65"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="65"/>
+      <c r="M15" s="66"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="63"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="64"/>
-      <c r="K16" s="64"/>
-      <c r="L16" s="64"/>
-      <c r="M16" s="65"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="65"/>
+      <c r="M16" s="66"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="63"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="64"/>
-      <c r="M17" s="65"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="65"/>
+      <c r="M17" s="66"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="63"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="64"/>
-      <c r="K18" s="64"/>
-      <c r="L18" s="64"/>
-      <c r="M18" s="65"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="66"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="63"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="64"/>
-      <c r="M19" s="65"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="66"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="63"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="64"/>
-      <c r="K20" s="64"/>
-      <c r="L20" s="64"/>
-      <c r="M20" s="65"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="66"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="63"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="64"/>
-      <c r="K21" s="64"/>
-      <c r="L21" s="64"/>
-      <c r="M21" s="65"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="65"/>
+      <c r="M21" s="66"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="63"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="64"/>
-      <c r="L22" s="64"/>
-      <c r="M22" s="65"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="65"/>
+      <c r="M22" s="66"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="63"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="64"/>
-      <c r="K23" s="64"/>
-      <c r="L23" s="64"/>
-      <c r="M23" s="65"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B24" s="63"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="64"/>
-      <c r="K24" s="64"/>
-      <c r="L24" s="64"/>
-      <c r="M24" s="65"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="66"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="63"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="64"/>
-      <c r="K25" s="64"/>
-      <c r="L25" s="64"/>
-      <c r="M25" s="65"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="65"/>
+      <c r="L25" s="65"/>
+      <c r="M25" s="66"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="63"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="64"/>
-      <c r="K26" s="64"/>
-      <c r="L26" s="64"/>
-      <c r="M26" s="65"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="65"/>
+      <c r="L26" s="65"/>
+      <c r="M26" s="66"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="66"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
-      <c r="I27" s="67"/>
-      <c r="J27" s="67"/>
-      <c r="K27" s="67"/>
-      <c r="L27" s="67"/>
-      <c r="M27" s="68"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="68"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="68"/>
+      <c r="L27" s="68"/>
+      <c r="M27" s="69"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="51" t="s">
+      <c r="B28" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="51"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="51"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="52"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="42" t="s">
+      <c r="B29" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="43"/>
-      <c r="K29" s="43"/>
-      <c r="L29" s="43"/>
-      <c r="M29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="45"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="45"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="46"/>
-      <c r="J30" s="46"/>
-      <c r="K30" s="46"/>
-      <c r="L30" s="46"/>
-      <c r="M30" s="47"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="47"/>
+      <c r="M30" s="48"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="45"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="46"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="47"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="47"/>
+      <c r="M31" s="48"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="45"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="46"/>
-      <c r="K32" s="46"/>
-      <c r="L32" s="46"/>
-      <c r="M32" s="47"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="48"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" s="45"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="46"/>
-      <c r="J33" s="46"/>
-      <c r="K33" s="46"/>
-      <c r="L33" s="46"/>
-      <c r="M33" s="47"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="47"/>
+      <c r="L33" s="47"/>
+      <c r="M33" s="48"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B34" s="45"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="46"/>
-      <c r="J34" s="46"/>
-      <c r="K34" s="46"/>
-      <c r="L34" s="46"/>
-      <c r="M34" s="47"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="47"/>
+      <c r="M34" s="48"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="48"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="49"/>
-      <c r="L35" s="49"/>
-      <c r="M35" s="50"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="50"/>
+      <c r="M35" s="51"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B36" s="51" t="s">
+      <c r="B36" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="51"/>
-      <c r="J36" s="51"/>
-      <c r="K36" s="51"/>
-      <c r="L36" s="51"/>
-      <c r="M36" s="51"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="52"/>
+      <c r="J36" s="52"/>
+      <c r="K36" s="52"/>
+      <c r="L36" s="52"/>
+      <c r="M36" s="52"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B37" s="60" t="s">
+      <c r="B37" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="C37" s="69"/>
-      <c r="D37" s="69"/>
-      <c r="E37" s="69"/>
-      <c r="F37" s="69"/>
-      <c r="G37" s="69"/>
-      <c r="H37" s="69"/>
-      <c r="I37" s="69"/>
-      <c r="J37" s="69"/>
-      <c r="K37" s="69"/>
-      <c r="L37" s="69"/>
-      <c r="M37" s="70"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="70"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="70"/>
+      <c r="H37" s="70"/>
+      <c r="I37" s="70"/>
+      <c r="J37" s="70"/>
+      <c r="K37" s="70"/>
+      <c r="L37" s="70"/>
+      <c r="M37" s="71"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B38" s="71"/>
-      <c r="C38" s="72"/>
-      <c r="D38" s="72"/>
-      <c r="E38" s="72"/>
-      <c r="F38" s="72"/>
-      <c r="G38" s="72"/>
-      <c r="H38" s="72"/>
-      <c r="I38" s="72"/>
-      <c r="J38" s="72"/>
-      <c r="K38" s="72"/>
-      <c r="L38" s="72"/>
-      <c r="M38" s="73"/>
+      <c r="B38" s="72"/>
+      <c r="C38" s="73"/>
+      <c r="D38" s="73"/>
+      <c r="E38" s="73"/>
+      <c r="F38" s="73"/>
+      <c r="G38" s="73"/>
+      <c r="H38" s="73"/>
+      <c r="I38" s="73"/>
+      <c r="J38" s="73"/>
+      <c r="K38" s="73"/>
+      <c r="L38" s="73"/>
+      <c r="M38" s="74"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B39" s="71"/>
-      <c r="C39" s="72"/>
-      <c r="D39" s="72"/>
-      <c r="E39" s="72"/>
-      <c r="F39" s="72"/>
-      <c r="G39" s="72"/>
-      <c r="H39" s="72"/>
-      <c r="I39" s="72"/>
-      <c r="J39" s="72"/>
-      <c r="K39" s="72"/>
-      <c r="L39" s="72"/>
-      <c r="M39" s="73"/>
+      <c r="B39" s="72"/>
+      <c r="C39" s="73"/>
+      <c r="D39" s="73"/>
+      <c r="E39" s="73"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="73"/>
+      <c r="H39" s="73"/>
+      <c r="I39" s="73"/>
+      <c r="J39" s="73"/>
+      <c r="K39" s="73"/>
+      <c r="L39" s="73"/>
+      <c r="M39" s="74"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B40" s="71"/>
-      <c r="C40" s="72"/>
-      <c r="D40" s="72"/>
-      <c r="E40" s="72"/>
-      <c r="F40" s="72"/>
-      <c r="G40" s="72"/>
-      <c r="H40" s="72"/>
-      <c r="I40" s="72"/>
-      <c r="J40" s="72"/>
-      <c r="K40" s="72"/>
-      <c r="L40" s="72"/>
-      <c r="M40" s="73"/>
+      <c r="B40" s="72"/>
+      <c r="C40" s="73"/>
+      <c r="D40" s="73"/>
+      <c r="E40" s="73"/>
+      <c r="F40" s="73"/>
+      <c r="G40" s="73"/>
+      <c r="H40" s="73"/>
+      <c r="I40" s="73"/>
+      <c r="J40" s="73"/>
+      <c r="K40" s="73"/>
+      <c r="L40" s="73"/>
+      <c r="M40" s="74"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="74"/>
-      <c r="C41" s="75"/>
-      <c r="D41" s="75"/>
-      <c r="E41" s="75"/>
-      <c r="F41" s="75"/>
-      <c r="G41" s="75"/>
-      <c r="H41" s="75"/>
-      <c r="I41" s="75"/>
-      <c r="J41" s="75"/>
-      <c r="K41" s="75"/>
-      <c r="L41" s="75"/>
-      <c r="M41" s="76"/>
+      <c r="B41" s="75"/>
+      <c r="C41" s="76"/>
+      <c r="D41" s="76"/>
+      <c r="E41" s="76"/>
+      <c r="F41" s="76"/>
+      <c r="G41" s="76"/>
+      <c r="H41" s="76"/>
+      <c r="I41" s="76"/>
+      <c r="J41" s="76"/>
+      <c r="K41" s="76"/>
+      <c r="L41" s="76"/>
+      <c r="M41" s="77"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B42" s="51" t="s">
+      <c r="B42" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="51"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="51"/>
-      <c r="H42" s="51"/>
-      <c r="I42" s="51"/>
-      <c r="J42" s="51"/>
-      <c r="K42" s="51"/>
-      <c r="L42" s="51"/>
-      <c r="M42" s="51"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="52"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="52"/>
+      <c r="H42" s="52"/>
+      <c r="I42" s="52"/>
+      <c r="J42" s="52"/>
+      <c r="K42" s="52"/>
+      <c r="L42" s="52"/>
+      <c r="M42" s="52"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B43" s="42" t="s">
+      <c r="B43" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="C43" s="43"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="43"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="43"/>
-      <c r="H43" s="43"/>
-      <c r="I43" s="43"/>
-      <c r="J43" s="43"/>
-      <c r="K43" s="43"/>
-      <c r="L43" s="43"/>
-      <c r="M43" s="44"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="44"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="44"/>
+      <c r="J43" s="44"/>
+      <c r="K43" s="44"/>
+      <c r="L43" s="44"/>
+      <c r="M43" s="45"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B44" s="45"/>
-      <c r="C44" s="46"/>
-      <c r="D44" s="46"/>
-      <c r="E44" s="46"/>
-      <c r="F44" s="46"/>
-      <c r="G44" s="46"/>
-      <c r="H44" s="46"/>
-      <c r="I44" s="46"/>
-      <c r="J44" s="46"/>
-      <c r="K44" s="46"/>
-      <c r="L44" s="46"/>
-      <c r="M44" s="47"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="47"/>
+      <c r="J44" s="47"/>
+      <c r="K44" s="47"/>
+      <c r="L44" s="47"/>
+      <c r="M44" s="48"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B45" s="45"/>
-      <c r="C45" s="46"/>
-      <c r="D45" s="46"/>
-      <c r="E45" s="46"/>
-      <c r="F45" s="46"/>
-      <c r="G45" s="46"/>
-      <c r="H45" s="46"/>
-      <c r="I45" s="46"/>
-      <c r="J45" s="46"/>
-      <c r="K45" s="46"/>
-      <c r="L45" s="46"/>
-      <c r="M45" s="47"/>
+      <c r="B45" s="46"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="47"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="47"/>
+      <c r="J45" s="47"/>
+      <c r="K45" s="47"/>
+      <c r="L45" s="47"/>
+      <c r="M45" s="48"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="45"/>
-      <c r="C46" s="46"/>
-      <c r="D46" s="46"/>
-      <c r="E46" s="46"/>
-      <c r="F46" s="46"/>
-      <c r="G46" s="46"/>
-      <c r="H46" s="46"/>
-      <c r="I46" s="46"/>
-      <c r="J46" s="46"/>
-      <c r="K46" s="46"/>
-      <c r="L46" s="46"/>
-      <c r="M46" s="47"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="47"/>
+      <c r="D46" s="47"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="47"/>
+      <c r="H46" s="47"/>
+      <c r="I46" s="47"/>
+      <c r="J46" s="47"/>
+      <c r="K46" s="47"/>
+      <c r="L46" s="47"/>
+      <c r="M46" s="48"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B47" s="45"/>
-      <c r="C47" s="46"/>
-      <c r="D47" s="46"/>
-      <c r="E47" s="46"/>
-      <c r="F47" s="46"/>
-      <c r="G47" s="46"/>
-      <c r="H47" s="46"/>
-      <c r="I47" s="46"/>
-      <c r="J47" s="46"/>
-      <c r="K47" s="46"/>
-      <c r="L47" s="46"/>
-      <c r="M47" s="47"/>
+      <c r="B47" s="46"/>
+      <c r="C47" s="47"/>
+      <c r="D47" s="47"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="47"/>
+      <c r="I47" s="47"/>
+      <c r="J47" s="47"/>
+      <c r="K47" s="47"/>
+      <c r="L47" s="47"/>
+      <c r="M47" s="48"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B48" s="45"/>
-      <c r="C48" s="46"/>
-      <c r="D48" s="46"/>
-      <c r="E48" s="46"/>
-      <c r="F48" s="46"/>
-      <c r="G48" s="46"/>
-      <c r="H48" s="46"/>
-      <c r="I48" s="46"/>
-      <c r="J48" s="46"/>
-      <c r="K48" s="46"/>
-      <c r="L48" s="46"/>
-      <c r="M48" s="47"/>
+      <c r="B48" s="46"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="47"/>
+      <c r="I48" s="47"/>
+      <c r="J48" s="47"/>
+      <c r="K48" s="47"/>
+      <c r="L48" s="47"/>
+      <c r="M48" s="48"/>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B49" s="48"/>
-      <c r="C49" s="49"/>
-      <c r="D49" s="49"/>
-      <c r="E49" s="49"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="49"/>
-      <c r="H49" s="49"/>
-      <c r="I49" s="49"/>
-      <c r="J49" s="49"/>
-      <c r="K49" s="49"/>
-      <c r="L49" s="49"/>
-      <c r="M49" s="50"/>
+      <c r="B49" s="49"/>
+      <c r="C49" s="50"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="50"/>
+      <c r="H49" s="50"/>
+      <c r="I49" s="50"/>
+      <c r="J49" s="50"/>
+      <c r="K49" s="50"/>
+      <c r="L49" s="50"/>
+      <c r="M49" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -3627,10 +3628,10 @@
   <sheetData>
     <row r="1" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="78"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
+      <c r="A2" s="79"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
       <c r="E2" s="12" t="s">
         <v>3</v>
       </c>
@@ -3645,10 +3646,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="77">
+      <c r="A3" s="78">
         <v>1</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="78" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="7">
@@ -3671,8 +3672,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="77"/>
-      <c r="B4" s="77"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="78"/>
       <c r="C4" s="7">
         <v>1.2</v>
       </c>
@@ -3693,8 +3694,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="77"/>
-      <c r="B5" s="77"/>
+      <c r="A5" s="78"/>
+      <c r="B5" s="78"/>
       <c r="C5" s="7">
         <v>1.3</v>
       </c>
@@ -3715,8 +3716,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="77"/>
-      <c r="B6" s="77"/>
+      <c r="A6" s="78"/>
+      <c r="B6" s="78"/>
       <c r="C6" s="7">
         <v>1.4</v>
       </c>
@@ -3737,10 +3738,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="79">
+      <c r="A7" s="80">
         <v>2</v>
       </c>
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="78" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="7">
@@ -3763,8 +3764,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="80"/>
-      <c r="B8" s="77"/>
+      <c r="A8" s="81"/>
+      <c r="B8" s="78"/>
       <c r="C8" s="7">
         <v>2.2000000000000002</v>
       </c>
@@ -3785,8 +3786,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="81"/>
-      <c r="B9" s="77"/>
+      <c r="A9" s="82"/>
+      <c r="B9" s="78"/>
       <c r="C9" s="7">
         <v>2.2999999999999998</v>
       </c>
@@ -3807,10 +3808,10 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="77">
+      <c r="A10" s="78">
         <v>3</v>
       </c>
-      <c r="B10" s="77" t="s">
+      <c r="B10" s="78" t="s">
         <v>38</v>
       </c>
       <c r="C10" s="9">
@@ -3833,8 +3834,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="77"/>
-      <c r="B11" s="77"/>
+      <c r="A11" s="78"/>
+      <c r="B11" s="78"/>
       <c r="C11" s="9">
         <v>3.2</v>
       </c>
@@ -3855,8 +3856,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="77"/>
-      <c r="B12" s="77"/>
+      <c r="A12" s="78"/>
+      <c r="B12" s="78"/>
       <c r="C12" s="9">
         <v>3.3</v>
       </c>
@@ -3877,8 +3878,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="77"/>
-      <c r="B13" s="77"/>
+      <c r="A13" s="78"/>
+      <c r="B13" s="78"/>
       <c r="C13" s="9">
         <v>3.4</v>
       </c>
@@ -3899,8 +3900,8 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="77"/>
-      <c r="B14" s="77"/>
+      <c r="A14" s="78"/>
+      <c r="B14" s="78"/>
       <c r="C14" s="9">
         <v>3.5</v>
       </c>
@@ -3921,8 +3922,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="77"/>
-      <c r="B15" s="77"/>
+      <c r="A15" s="78"/>
+      <c r="B15" s="78"/>
       <c r="C15" s="9">
         <v>3.6</v>
       </c>
@@ -3943,8 +3944,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="77"/>
-      <c r="B16" s="77"/>
+      <c r="A16" s="78"/>
+      <c r="B16" s="78"/>
       <c r="C16" s="9">
         <v>3.7</v>
       </c>
@@ -3965,8 +3966,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="77"/>
-      <c r="B17" s="77"/>
+      <c r="A17" s="78"/>
+      <c r="B17" s="78"/>
       <c r="C17" s="9">
         <v>3.8</v>
       </c>
@@ -3987,8 +3988,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="77"/>
-      <c r="B18" s="77"/>
+      <c r="A18" s="78"/>
+      <c r="B18" s="78"/>
       <c r="C18" s="9">
         <v>3.9</v>
       </c>
@@ -4009,8 +4010,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="77"/>
-      <c r="B19" s="77"/>
+      <c r="A19" s="78"/>
+      <c r="B19" s="78"/>
       <c r="C19" s="9" t="s">
         <v>51</v>
       </c>
@@ -4031,8 +4032,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="77"/>
-      <c r="B20" s="77"/>
+      <c r="A20" s="78"/>
+      <c r="B20" s="78"/>
       <c r="C20" s="9">
         <v>3.11</v>
       </c>
@@ -4053,8 +4054,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="77"/>
-      <c r="B21" s="77"/>
+      <c r="A21" s="78"/>
+      <c r="B21" s="78"/>
       <c r="C21" s="9">
         <v>3.12</v>
       </c>
@@ -4075,10 +4076,10 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="77">
+      <c r="A22" s="78">
         <v>4</v>
       </c>
-      <c r="B22" s="79" t="s">
+      <c r="B22" s="80" t="s">
         <v>53</v>
       </c>
       <c r="C22" s="7">
@@ -4101,8 +4102,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="77"/>
-      <c r="B23" s="80"/>
+      <c r="A23" s="78"/>
+      <c r="B23" s="81"/>
       <c r="C23" s="7">
         <v>4.2</v>
       </c>
@@ -4123,8 +4124,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="77"/>
-      <c r="B24" s="80"/>
+      <c r="A24" s="78"/>
+      <c r="B24" s="81"/>
       <c r="C24" s="7">
         <v>4.3</v>
       </c>
@@ -4145,8 +4146,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="77"/>
-      <c r="B25" s="80"/>
+      <c r="A25" s="78"/>
+      <c r="B25" s="81"/>
       <c r="C25" s="7">
         <v>4.4000000000000004</v>
       </c>
@@ -4167,8 +4168,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="77"/>
-      <c r="B26" s="80"/>
+      <c r="A26" s="78"/>
+      <c r="B26" s="81"/>
       <c r="C26" s="7">
         <v>4.5</v>
       </c>
@@ -4189,8 +4190,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="77"/>
-      <c r="B27" s="80"/>
+      <c r="A27" s="78"/>
+      <c r="B27" s="81"/>
       <c r="C27" s="7">
         <v>4.5999999999999996</v>
       </c>
@@ -4211,8 +4212,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="77"/>
-      <c r="B28" s="80"/>
+      <c r="A28" s="78"/>
+      <c r="B28" s="81"/>
       <c r="C28" s="7">
         <v>4.7</v>
       </c>
@@ -4233,8 +4234,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="77"/>
-      <c r="B29" s="80"/>
+      <c r="A29" s="78"/>
+      <c r="B29" s="81"/>
       <c r="C29" s="7">
         <v>4.8</v>
       </c>
@@ -4255,10 +4256,10 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="77">
+      <c r="A30" s="78">
         <v>5</v>
       </c>
-      <c r="B30" s="77" t="s">
+      <c r="B30" s="78" t="s">
         <v>63</v>
       </c>
       <c r="C30" s="7">
@@ -4281,8 +4282,8 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="77"/>
-      <c r="B31" s="77"/>
+      <c r="A31" s="78"/>
+      <c r="B31" s="78"/>
       <c r="C31" s="7">
         <v>5.2</v>
       </c>
@@ -4303,8 +4304,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="77"/>
-      <c r="B32" s="77"/>
+      <c r="A32" s="78"/>
+      <c r="B32" s="78"/>
       <c r="C32" s="7">
         <v>5.3</v>
       </c>
@@ -4325,8 +4326,8 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="77"/>
-      <c r="B33" s="77"/>
+      <c r="A33" s="78"/>
+      <c r="B33" s="78"/>
       <c r="C33" s="7">
         <v>5.4</v>
       </c>
@@ -4347,8 +4348,8 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="77"/>
-      <c r="B34" s="77"/>
+      <c r="A34" s="78"/>
+      <c r="B34" s="78"/>
       <c r="C34" s="7">
         <v>5.5</v>
       </c>
@@ -4369,8 +4370,8 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" s="77"/>
-      <c r="B35" s="77"/>
+      <c r="A35" s="78"/>
+      <c r="B35" s="78"/>
       <c r="C35" s="7">
         <v>5.6</v>
       </c>
@@ -4391,8 +4392,8 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A36" s="77"/>
-      <c r="B36" s="77"/>
+      <c r="A36" s="78"/>
+      <c r="B36" s="78"/>
       <c r="C36" s="7">
         <v>5.7</v>
       </c>
@@ -4413,10 +4414,10 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" s="77">
+      <c r="A37" s="78">
         <v>6</v>
       </c>
-      <c r="B37" s="77" t="s">
+      <c r="B37" s="78" t="s">
         <v>72</v>
       </c>
       <c r="C37" s="7">
@@ -4439,8 +4440,8 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A38" s="77"/>
-      <c r="B38" s="77"/>
+      <c r="A38" s="78"/>
+      <c r="B38" s="78"/>
       <c r="C38" s="7">
         <v>6.2</v>
       </c>
@@ -4461,8 +4462,8 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A39" s="77"/>
-      <c r="B39" s="77"/>
+      <c r="A39" s="78"/>
+      <c r="B39" s="78"/>
       <c r="C39" s="7">
         <v>6.3</v>
       </c>
@@ -4483,8 +4484,8 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A40" s="77"/>
-      <c r="B40" s="77"/>
+      <c r="A40" s="78"/>
+      <c r="B40" s="78"/>
       <c r="C40" s="7">
         <v>6.4</v>
       </c>
@@ -4505,8 +4506,8 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A41" s="77"/>
-      <c r="B41" s="77"/>
+      <c r="A41" s="78"/>
+      <c r="B41" s="78"/>
       <c r="C41" s="7">
         <v>6.5</v>
       </c>
@@ -4527,8 +4528,8 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A42" s="77"/>
-      <c r="B42" s="77"/>
+      <c r="A42" s="78"/>
+      <c r="B42" s="78"/>
       <c r="C42" s="7">
         <v>6.6</v>
       </c>
@@ -4884,60 +4885,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="89" t="s">
+      <c r="A1" s="88"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="90" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="82" t="s">
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
-      <c r="W1" s="83"/>
-      <c r="X1" s="83"/>
-      <c r="Y1" s="83"/>
-      <c r="Z1" s="83"/>
-      <c r="AA1" s="83"/>
-      <c r="AB1" s="83"/>
-      <c r="AC1" s="83"/>
-      <c r="AD1" s="83"/>
-      <c r="AE1" s="83"/>
-      <c r="AF1" s="83"/>
-      <c r="AG1" s="83"/>
-      <c r="AH1" s="83"/>
-      <c r="AI1" s="83"/>
-      <c r="AJ1" s="83"/>
-      <c r="AK1" s="83"/>
-      <c r="AL1" s="83"/>
-      <c r="AM1" s="83"/>
-      <c r="AN1" s="83"/>
-      <c r="AO1" s="83"/>
-      <c r="AP1" s="83"/>
-      <c r="AQ1" s="83"/>
-      <c r="AR1" s="83"/>
-      <c r="AS1" s="83"/>
-      <c r="AT1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
+      <c r="W1" s="84"/>
+      <c r="X1" s="84"/>
+      <c r="Y1" s="84"/>
+      <c r="Z1" s="84"/>
+      <c r="AA1" s="84"/>
+      <c r="AB1" s="84"/>
+      <c r="AC1" s="84"/>
+      <c r="AD1" s="84"/>
+      <c r="AE1" s="84"/>
+      <c r="AF1" s="84"/>
+      <c r="AG1" s="84"/>
+      <c r="AH1" s="84"/>
+      <c r="AI1" s="84"/>
+      <c r="AJ1" s="84"/>
+      <c r="AK1" s="84"/>
+      <c r="AL1" s="84"/>
+      <c r="AM1" s="84"/>
+      <c r="AN1" s="84"/>
+      <c r="AO1" s="84"/>
+      <c r="AP1" s="84"/>
+      <c r="AQ1" s="84"/>
+      <c r="AR1" s="84"/>
+      <c r="AS1" s="84"/>
+      <c r="AT1" s="85"/>
     </row>
     <row r="2" spans="1:58" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="88"/>
-      <c r="B2" s="88"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
       <c r="C2" s="16">
         <v>18</v>
       </c>
@@ -5090,9 +5091,9 @@
       <c r="B3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
@@ -7899,7 +7900,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7964,7 +7965,7 @@
       <c r="I2" s="32"/>
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
-      <c r="L2" s="90"/>
+      <c r="L2" s="42"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="32"/>
@@ -7978,7 +7979,7 @@
       <c r="I3" s="32"/>
       <c r="J3" s="32"/>
       <c r="K3" s="32"/>
-      <c r="L3" s="90"/>
+      <c r="L3" s="42"/>
     </row>
     <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="32"/>
@@ -7992,7 +7993,7 @@
       <c r="I4" s="32"/>
       <c r="J4" s="32"/>
       <c r="K4" s="32"/>
-      <c r="L4" s="90"/>
+      <c r="L4" s="42"/>
     </row>
     <row r="5" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="32"/>
@@ -8006,7 +8007,7 @@
       <c r="I5" s="32"/>
       <c r="J5" s="32"/>
       <c r="K5" s="32"/>
-      <c r="L5" s="90"/>
+      <c r="L5" s="42"/>
     </row>
     <row r="6" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="32"/>
@@ -8020,7 +8021,7 @@
       <c r="I6" s="32"/>
       <c r="J6" s="32"/>
       <c r="K6" s="32"/>
-      <c r="L6" s="90"/>
+      <c r="L6" s="42"/>
     </row>
     <row r="7" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="32"/>
@@ -8034,7 +8035,7 @@
       <c r="I7" s="32"/>
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
-      <c r="L7" s="90"/>
+      <c r="L7" s="42"/>
     </row>
     <row r="8" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="32"/>
@@ -8048,7 +8049,7 @@
       <c r="I8" s="32"/>
       <c r="J8" s="32"/>
       <c r="K8" s="32"/>
-      <c r="L8" s="90"/>
+      <c r="L8" s="42"/>
     </row>
     <row r="9" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="32"/>
@@ -8062,7 +8063,7 @@
       <c r="I9" s="32"/>
       <c r="J9" s="32"/>
       <c r="K9" s="32"/>
-      <c r="L9" s="90"/>
+      <c r="L9" s="42"/>
     </row>
     <row r="10" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="32"/>
@@ -8076,7 +8077,7 @@
       <c r="I10" s="32"/>
       <c r="J10" s="32"/>
       <c r="K10" s="32"/>
-      <c r="L10" s="90"/>
+      <c r="L10" s="42"/>
     </row>
     <row r="11" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="32"/>
@@ -8090,7 +8091,7 @@
       <c r="I11" s="32"/>
       <c r="J11" s="32"/>
       <c r="K11" s="32"/>
-      <c r="L11" s="90"/>
+      <c r="L11" s="42"/>
     </row>
     <row r="12" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="32"/>
@@ -8104,7 +8105,7 @@
       <c r="I12" s="32"/>
       <c r="J12" s="32"/>
       <c r="K12" s="32"/>
-      <c r="L12" s="90"/>
+      <c r="L12" s="42"/>
     </row>
     <row r="13" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
@@ -8118,7 +8119,7 @@
       <c r="I13" s="32"/>
       <c r="J13" s="32"/>
       <c r="K13" s="32"/>
-      <c r="L13" s="90"/>
+      <c r="L13" s="42"/>
     </row>
     <row r="14" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A14" s="32"/>
@@ -8132,7 +8133,7 @@
       <c r="I14" s="32"/>
       <c r="J14" s="32"/>
       <c r="K14" s="32"/>
-      <c r="L14" s="90"/>
+      <c r="L14" s="42"/>
     </row>
     <row r="15" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
@@ -8146,7 +8147,7 @@
       <c r="I15" s="32"/>
       <c r="J15" s="32"/>
       <c r="K15" s="32"/>
-      <c r="L15" s="90"/>
+      <c r="L15" s="42"/>
     </row>
     <row r="16" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
@@ -8160,7 +8161,7 @@
       <c r="I16" s="32"/>
       <c r="J16" s="32"/>
       <c r="K16" s="32"/>
-      <c r="L16" s="90"/>
+      <c r="L16" s="42"/>
     </row>
     <row r="17" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A17" s="32"/>
@@ -8174,7 +8175,7 @@
       <c r="I17" s="32"/>
       <c r="J17" s="32"/>
       <c r="K17" s="32"/>
-      <c r="L17" s="90"/>
+      <c r="L17" s="42"/>
     </row>
     <row r="18" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A18" s="32"/>
@@ -8188,7 +8189,7 @@
       <c r="I18" s="32"/>
       <c r="J18" s="32"/>
       <c r="K18" s="32"/>
-      <c r="L18" s="90"/>
+      <c r="L18" s="42"/>
     </row>
     <row r="19" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A19" s="32"/>
@@ -8202,7 +8203,7 @@
       <c r="I19" s="32"/>
       <c r="J19" s="32"/>
       <c r="K19" s="32"/>
-      <c r="L19" s="90"/>
+      <c r="L19" s="42"/>
     </row>
     <row r="20" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A20" s="32"/>
@@ -8216,7 +8217,7 @@
       <c r="I20" s="32"/>
       <c r="J20" s="32"/>
       <c r="K20" s="32"/>
-      <c r="L20" s="90"/>
+      <c r="L20" s="42"/>
     </row>
     <row r="21" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A21" s="32"/>
@@ -8230,7 +8231,7 @@
       <c r="I21" s="32"/>
       <c r="J21" s="32"/>
       <c r="K21" s="32"/>
-      <c r="L21" s="90"/>
+      <c r="L21" s="42"/>
     </row>
     <row r="22" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
@@ -8244,13 +8245,19 @@
       <c r="I22" s="32"/>
       <c r="J22" s="32"/>
       <c r="K22" s="32"/>
-      <c r="L22" s="90"/>
+      <c r="L22" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Lengend!$B$12:$B$14</xm:f>
+          </x14:formula1>
+          <xm:sqref>E1:E1048576</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lengend!$G$12:$G$15</xm:f>
@@ -8259,21 +8266,9 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>[1]Lengend!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>J2:J22</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
             <xm:f>Lengend!$A$7:$A$10</xm:f>
           </x14:formula1>
-          <xm:sqref>I1:I1048576 G1:G1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Lengend!$B$12:$B$14</xm:f>
-          </x14:formula1>
-          <xm:sqref>E1:E1048576</xm:sqref>
+          <xm:sqref>G1:G1048576 I1:I1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8297,306 +8292,306 @@
   <sheetData>
     <row r="1" spans="2:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="45"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B4" s="45"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="47"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="48"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B5" s="45"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="47"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="48"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B6" s="45"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="47"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="48"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B7" s="45"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="47"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="48"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B8" s="45"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="47"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="48"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B9" s="48"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="50"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="51"/>
     </row>
     <row r="10" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="45"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B12" s="45"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="47"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="48"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B13" s="45"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="47"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="48"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B14" s="45"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="47"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="48"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B15" s="45"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="47"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="48"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B16" s="45"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="47"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="48"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B17" s="45"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="47"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="48"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B18" s="45"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="47"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="48"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B19" s="45"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="47"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="48"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B20" s="45"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="47"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="48"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B21" s="45"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="47"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="48"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B22" s="48"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="50"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -8625,232 +8620,232 @@
   <sheetData>
     <row r="1" spans="2:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="42"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="44"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="45"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B4" s="45"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="47"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="48"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B5" s="45"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="47"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="48"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B6" s="45"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="47"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="48"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B7" s="45"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="47"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="48"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B8" s="45"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="47"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="48"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B9" s="48"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="50"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="51"/>
     </row>
     <row r="10" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B11" s="42"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="44"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="45"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B12" s="45"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="47"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="48"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B13" s="45"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="47"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="48"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B14" s="45"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="47"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="48"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B15" s="45"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="47"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="48"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B16" s="45"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="47"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="48"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B17" s="48"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="50"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/01_doc/proj_plan/餐厅订餐系统_项目计划.xlsx
+++ b/01_doc/proj_plan/餐厅订餐系统_项目计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="00_文档历史" sheetId="11" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Lengend" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="122211"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -493,7 +494,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="164">
   <si>
     <t>姓名</t>
   </si>
@@ -1051,6 +1052,9 @@
   </si>
   <si>
     <t>备注</t>
+  </si>
+  <si>
+    <t>客户review文档周期过长？</t>
   </si>
 </sst>
 </file>
@@ -1454,6 +1458,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1598,7 +1603,6 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2166,74 +2170,6 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2253,7 +2189,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2873,7 +2809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M49"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B29" sqref="B29:M35"/>
     </sheetView>
   </sheetViews>
@@ -2885,700 +2821,700 @@
   <sheetData>
     <row r="1" spans="2:13" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="54"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="54"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="56"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="57"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="56"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="57"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="54"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="56"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="57"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="54"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="54"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="56"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="57"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="54"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="56"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="57"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="54"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="56"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="57"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="57"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="59"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="60"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="60" t="s">
+      <c r="B14" s="61" t="s">
         <v>145</v>
       </c>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="63"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="63"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="64"/>
-      <c r="M15" s="65"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="65"/>
+      <c r="M15" s="66"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="63"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="64"/>
-      <c r="K16" s="64"/>
-      <c r="L16" s="64"/>
-      <c r="M16" s="65"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="65"/>
+      <c r="M16" s="66"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="63"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="64"/>
-      <c r="M17" s="65"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="65"/>
+      <c r="M17" s="66"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="63"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="64"/>
-      <c r="K18" s="64"/>
-      <c r="L18" s="64"/>
-      <c r="M18" s="65"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="66"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="63"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="64"/>
-      <c r="M19" s="65"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="66"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="63"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="64"/>
-      <c r="K20" s="64"/>
-      <c r="L20" s="64"/>
-      <c r="M20" s="65"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="66"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="63"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="64"/>
-      <c r="K21" s="64"/>
-      <c r="L21" s="64"/>
-      <c r="M21" s="65"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="65"/>
+      <c r="M21" s="66"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="63"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="64"/>
-      <c r="L22" s="64"/>
-      <c r="M22" s="65"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="65"/>
+      <c r="M22" s="66"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="63"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="64"/>
-      <c r="K23" s="64"/>
-      <c r="L23" s="64"/>
-      <c r="M23" s="65"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B24" s="63"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="64"/>
-      <c r="K24" s="64"/>
-      <c r="L24" s="64"/>
-      <c r="M24" s="65"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="66"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="63"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="64"/>
-      <c r="K25" s="64"/>
-      <c r="L25" s="64"/>
-      <c r="M25" s="65"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="65"/>
+      <c r="L25" s="65"/>
+      <c r="M25" s="66"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="63"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="64"/>
-      <c r="K26" s="64"/>
-      <c r="L26" s="64"/>
-      <c r="M26" s="65"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="65"/>
+      <c r="L26" s="65"/>
+      <c r="M26" s="66"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="66"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
-      <c r="I27" s="67"/>
-      <c r="J27" s="67"/>
-      <c r="K27" s="67"/>
-      <c r="L27" s="67"/>
-      <c r="M27" s="68"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="68"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="68"/>
+      <c r="L27" s="68"/>
+      <c r="M27" s="69"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="51" t="s">
+      <c r="B28" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="51"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="51"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="52"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="42" t="s">
+      <c r="B29" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="43"/>
-      <c r="K29" s="43"/>
-      <c r="L29" s="43"/>
-      <c r="M29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="45"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="45"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="46"/>
-      <c r="J30" s="46"/>
-      <c r="K30" s="46"/>
-      <c r="L30" s="46"/>
-      <c r="M30" s="47"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="47"/>
+      <c r="M30" s="48"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="45"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="46"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="47"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="47"/>
+      <c r="M31" s="48"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="45"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="46"/>
-      <c r="K32" s="46"/>
-      <c r="L32" s="46"/>
-      <c r="M32" s="47"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="48"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" s="45"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="46"/>
-      <c r="J33" s="46"/>
-      <c r="K33" s="46"/>
-      <c r="L33" s="46"/>
-      <c r="M33" s="47"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="47"/>
+      <c r="L33" s="47"/>
+      <c r="M33" s="48"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B34" s="45"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="46"/>
-      <c r="J34" s="46"/>
-      <c r="K34" s="46"/>
-      <c r="L34" s="46"/>
-      <c r="M34" s="47"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="47"/>
+      <c r="M34" s="48"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="48"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="49"/>
-      <c r="L35" s="49"/>
-      <c r="M35" s="50"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="50"/>
+      <c r="M35" s="51"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B36" s="51" t="s">
+      <c r="B36" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="51"/>
-      <c r="J36" s="51"/>
-      <c r="K36" s="51"/>
-      <c r="L36" s="51"/>
-      <c r="M36" s="51"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="52"/>
+      <c r="J36" s="52"/>
+      <c r="K36" s="52"/>
+      <c r="L36" s="52"/>
+      <c r="M36" s="52"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B37" s="60" t="s">
+      <c r="B37" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="C37" s="69"/>
-      <c r="D37" s="69"/>
-      <c r="E37" s="69"/>
-      <c r="F37" s="69"/>
-      <c r="G37" s="69"/>
-      <c r="H37" s="69"/>
-      <c r="I37" s="69"/>
-      <c r="J37" s="69"/>
-      <c r="K37" s="69"/>
-      <c r="L37" s="69"/>
-      <c r="M37" s="70"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="70"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="70"/>
+      <c r="H37" s="70"/>
+      <c r="I37" s="70"/>
+      <c r="J37" s="70"/>
+      <c r="K37" s="70"/>
+      <c r="L37" s="70"/>
+      <c r="M37" s="71"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B38" s="71"/>
-      <c r="C38" s="72"/>
-      <c r="D38" s="72"/>
-      <c r="E38" s="72"/>
-      <c r="F38" s="72"/>
-      <c r="G38" s="72"/>
-      <c r="H38" s="72"/>
-      <c r="I38" s="72"/>
-      <c r="J38" s="72"/>
-      <c r="K38" s="72"/>
-      <c r="L38" s="72"/>
-      <c r="M38" s="73"/>
+      <c r="B38" s="72"/>
+      <c r="C38" s="73"/>
+      <c r="D38" s="73"/>
+      <c r="E38" s="73"/>
+      <c r="F38" s="73"/>
+      <c r="G38" s="73"/>
+      <c r="H38" s="73"/>
+      <c r="I38" s="73"/>
+      <c r="J38" s="73"/>
+      <c r="K38" s="73"/>
+      <c r="L38" s="73"/>
+      <c r="M38" s="74"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B39" s="71"/>
-      <c r="C39" s="72"/>
-      <c r="D39" s="72"/>
-      <c r="E39" s="72"/>
-      <c r="F39" s="72"/>
-      <c r="G39" s="72"/>
-      <c r="H39" s="72"/>
-      <c r="I39" s="72"/>
-      <c r="J39" s="72"/>
-      <c r="K39" s="72"/>
-      <c r="L39" s="72"/>
-      <c r="M39" s="73"/>
+      <c r="B39" s="72"/>
+      <c r="C39" s="73"/>
+      <c r="D39" s="73"/>
+      <c r="E39" s="73"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="73"/>
+      <c r="H39" s="73"/>
+      <c r="I39" s="73"/>
+      <c r="J39" s="73"/>
+      <c r="K39" s="73"/>
+      <c r="L39" s="73"/>
+      <c r="M39" s="74"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B40" s="71"/>
-      <c r="C40" s="72"/>
-      <c r="D40" s="72"/>
-      <c r="E40" s="72"/>
-      <c r="F40" s="72"/>
-      <c r="G40" s="72"/>
-      <c r="H40" s="72"/>
-      <c r="I40" s="72"/>
-      <c r="J40" s="72"/>
-      <c r="K40" s="72"/>
-      <c r="L40" s="72"/>
-      <c r="M40" s="73"/>
+      <c r="B40" s="72"/>
+      <c r="C40" s="73"/>
+      <c r="D40" s="73"/>
+      <c r="E40" s="73"/>
+      <c r="F40" s="73"/>
+      <c r="G40" s="73"/>
+      <c r="H40" s="73"/>
+      <c r="I40" s="73"/>
+      <c r="J40" s="73"/>
+      <c r="K40" s="73"/>
+      <c r="L40" s="73"/>
+      <c r="M40" s="74"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="74"/>
-      <c r="C41" s="75"/>
-      <c r="D41" s="75"/>
-      <c r="E41" s="75"/>
-      <c r="F41" s="75"/>
-      <c r="G41" s="75"/>
-      <c r="H41" s="75"/>
-      <c r="I41" s="75"/>
-      <c r="J41" s="75"/>
-      <c r="K41" s="75"/>
-      <c r="L41" s="75"/>
-      <c r="M41" s="76"/>
+      <c r="B41" s="75"/>
+      <c r="C41" s="76"/>
+      <c r="D41" s="76"/>
+      <c r="E41" s="76"/>
+      <c r="F41" s="76"/>
+      <c r="G41" s="76"/>
+      <c r="H41" s="76"/>
+      <c r="I41" s="76"/>
+      <c r="J41" s="76"/>
+      <c r="K41" s="76"/>
+      <c r="L41" s="76"/>
+      <c r="M41" s="77"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B42" s="51" t="s">
+      <c r="B42" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="51"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="51"/>
-      <c r="H42" s="51"/>
-      <c r="I42" s="51"/>
-      <c r="J42" s="51"/>
-      <c r="K42" s="51"/>
-      <c r="L42" s="51"/>
-      <c r="M42" s="51"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="52"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="52"/>
+      <c r="H42" s="52"/>
+      <c r="I42" s="52"/>
+      <c r="J42" s="52"/>
+      <c r="K42" s="52"/>
+      <c r="L42" s="52"/>
+      <c r="M42" s="52"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B43" s="42" t="s">
+      <c r="B43" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="C43" s="43"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="43"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="43"/>
-      <c r="H43" s="43"/>
-      <c r="I43" s="43"/>
-      <c r="J43" s="43"/>
-      <c r="K43" s="43"/>
-      <c r="L43" s="43"/>
-      <c r="M43" s="44"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="44"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="44"/>
+      <c r="J43" s="44"/>
+      <c r="K43" s="44"/>
+      <c r="L43" s="44"/>
+      <c r="M43" s="45"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B44" s="45"/>
-      <c r="C44" s="46"/>
-      <c r="D44" s="46"/>
-      <c r="E44" s="46"/>
-      <c r="F44" s="46"/>
-      <c r="G44" s="46"/>
-      <c r="H44" s="46"/>
-      <c r="I44" s="46"/>
-      <c r="J44" s="46"/>
-      <c r="K44" s="46"/>
-      <c r="L44" s="46"/>
-      <c r="M44" s="47"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="47"/>
+      <c r="J44" s="47"/>
+      <c r="K44" s="47"/>
+      <c r="L44" s="47"/>
+      <c r="M44" s="48"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B45" s="45"/>
-      <c r="C45" s="46"/>
-      <c r="D45" s="46"/>
-      <c r="E45" s="46"/>
-      <c r="F45" s="46"/>
-      <c r="G45" s="46"/>
-      <c r="H45" s="46"/>
-      <c r="I45" s="46"/>
-      <c r="J45" s="46"/>
-      <c r="K45" s="46"/>
-      <c r="L45" s="46"/>
-      <c r="M45" s="47"/>
+      <c r="B45" s="46"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="47"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="47"/>
+      <c r="J45" s="47"/>
+      <c r="K45" s="47"/>
+      <c r="L45" s="47"/>
+      <c r="M45" s="48"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="45"/>
-      <c r="C46" s="46"/>
-      <c r="D46" s="46"/>
-      <c r="E46" s="46"/>
-      <c r="F46" s="46"/>
-      <c r="G46" s="46"/>
-      <c r="H46" s="46"/>
-      <c r="I46" s="46"/>
-      <c r="J46" s="46"/>
-      <c r="K46" s="46"/>
-      <c r="L46" s="46"/>
-      <c r="M46" s="47"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="47"/>
+      <c r="D46" s="47"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="47"/>
+      <c r="H46" s="47"/>
+      <c r="I46" s="47"/>
+      <c r="J46" s="47"/>
+      <c r="K46" s="47"/>
+      <c r="L46" s="47"/>
+      <c r="M46" s="48"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B47" s="45"/>
-      <c r="C47" s="46"/>
-      <c r="D47" s="46"/>
-      <c r="E47" s="46"/>
-      <c r="F47" s="46"/>
-      <c r="G47" s="46"/>
-      <c r="H47" s="46"/>
-      <c r="I47" s="46"/>
-      <c r="J47" s="46"/>
-      <c r="K47" s="46"/>
-      <c r="L47" s="46"/>
-      <c r="M47" s="47"/>
+      <c r="B47" s="46"/>
+      <c r="C47" s="47"/>
+      <c r="D47" s="47"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="47"/>
+      <c r="I47" s="47"/>
+      <c r="J47" s="47"/>
+      <c r="K47" s="47"/>
+      <c r="L47" s="47"/>
+      <c r="M47" s="48"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B48" s="45"/>
-      <c r="C48" s="46"/>
-      <c r="D48" s="46"/>
-      <c r="E48" s="46"/>
-      <c r="F48" s="46"/>
-      <c r="G48" s="46"/>
-      <c r="H48" s="46"/>
-      <c r="I48" s="46"/>
-      <c r="J48" s="46"/>
-      <c r="K48" s="46"/>
-      <c r="L48" s="46"/>
-      <c r="M48" s="47"/>
+      <c r="B48" s="46"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="47"/>
+      <c r="I48" s="47"/>
+      <c r="J48" s="47"/>
+      <c r="K48" s="47"/>
+      <c r="L48" s="47"/>
+      <c r="M48" s="48"/>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B49" s="48"/>
-      <c r="C49" s="49"/>
-      <c r="D49" s="49"/>
-      <c r="E49" s="49"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="49"/>
-      <c r="H49" s="49"/>
-      <c r="I49" s="49"/>
-      <c r="J49" s="49"/>
-      <c r="K49" s="49"/>
-      <c r="L49" s="49"/>
-      <c r="M49" s="50"/>
+      <c r="B49" s="49"/>
+      <c r="C49" s="50"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="50"/>
+      <c r="H49" s="50"/>
+      <c r="I49" s="50"/>
+      <c r="J49" s="50"/>
+      <c r="K49" s="50"/>
+      <c r="L49" s="50"/>
+      <c r="M49" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -3627,10 +3563,10 @@
   <sheetData>
     <row r="1" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="78"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
+      <c r="A2" s="79"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
       <c r="E2" s="12" t="s">
         <v>3</v>
       </c>
@@ -3645,10 +3581,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="77">
+      <c r="A3" s="78">
         <v>1</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="78" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="7">
@@ -3671,8 +3607,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="77"/>
-      <c r="B4" s="77"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="78"/>
       <c r="C4" s="7">
         <v>1.2</v>
       </c>
@@ -3693,8 +3629,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="77"/>
-      <c r="B5" s="77"/>
+      <c r="A5" s="78"/>
+      <c r="B5" s="78"/>
       <c r="C5" s="7">
         <v>1.3</v>
       </c>
@@ -3715,8 +3651,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="77"/>
-      <c r="B6" s="77"/>
+      <c r="A6" s="78"/>
+      <c r="B6" s="78"/>
       <c r="C6" s="7">
         <v>1.4</v>
       </c>
@@ -3737,10 +3673,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="79">
+      <c r="A7" s="80">
         <v>2</v>
       </c>
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="78" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="7">
@@ -3763,8 +3699,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="80"/>
-      <c r="B8" s="77"/>
+      <c r="A8" s="81"/>
+      <c r="B8" s="78"/>
       <c r="C8" s="7">
         <v>2.2000000000000002</v>
       </c>
@@ -3785,8 +3721,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="81"/>
-      <c r="B9" s="77"/>
+      <c r="A9" s="82"/>
+      <c r="B9" s="78"/>
       <c r="C9" s="7">
         <v>2.2999999999999998</v>
       </c>
@@ -3807,10 +3743,10 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="77">
+      <c r="A10" s="78">
         <v>3</v>
       </c>
-      <c r="B10" s="77" t="s">
+      <c r="B10" s="78" t="s">
         <v>38</v>
       </c>
       <c r="C10" s="9">
@@ -3833,8 +3769,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="77"/>
-      <c r="B11" s="77"/>
+      <c r="A11" s="78"/>
+      <c r="B11" s="78"/>
       <c r="C11" s="9">
         <v>3.2</v>
       </c>
@@ -3855,8 +3791,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="77"/>
-      <c r="B12" s="77"/>
+      <c r="A12" s="78"/>
+      <c r="B12" s="78"/>
       <c r="C12" s="9">
         <v>3.3</v>
       </c>
@@ -3877,8 +3813,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="77"/>
-      <c r="B13" s="77"/>
+      <c r="A13" s="78"/>
+      <c r="B13" s="78"/>
       <c r="C13" s="9">
         <v>3.4</v>
       </c>
@@ -3899,8 +3835,8 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="77"/>
-      <c r="B14" s="77"/>
+      <c r="A14" s="78"/>
+      <c r="B14" s="78"/>
       <c r="C14" s="9">
         <v>3.5</v>
       </c>
@@ -3921,8 +3857,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="77"/>
-      <c r="B15" s="77"/>
+      <c r="A15" s="78"/>
+      <c r="B15" s="78"/>
       <c r="C15" s="9">
         <v>3.6</v>
       </c>
@@ -3943,8 +3879,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="77"/>
-      <c r="B16" s="77"/>
+      <c r="A16" s="78"/>
+      <c r="B16" s="78"/>
       <c r="C16" s="9">
         <v>3.7</v>
       </c>
@@ -3965,8 +3901,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="77"/>
-      <c r="B17" s="77"/>
+      <c r="A17" s="78"/>
+      <c r="B17" s="78"/>
       <c r="C17" s="9">
         <v>3.8</v>
       </c>
@@ -3987,8 +3923,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="77"/>
-      <c r="B18" s="77"/>
+      <c r="A18" s="78"/>
+      <c r="B18" s="78"/>
       <c r="C18" s="9">
         <v>3.9</v>
       </c>
@@ -4009,8 +3945,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="77"/>
-      <c r="B19" s="77"/>
+      <c r="A19" s="78"/>
+      <c r="B19" s="78"/>
       <c r="C19" s="9" t="s">
         <v>51</v>
       </c>
@@ -4031,8 +3967,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="77"/>
-      <c r="B20" s="77"/>
+      <c r="A20" s="78"/>
+      <c r="B20" s="78"/>
       <c r="C20" s="9">
         <v>3.11</v>
       </c>
@@ -4053,8 +3989,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="77"/>
-      <c r="B21" s="77"/>
+      <c r="A21" s="78"/>
+      <c r="B21" s="78"/>
       <c r="C21" s="9">
         <v>3.12</v>
       </c>
@@ -4075,10 +4011,10 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="77">
+      <c r="A22" s="78">
         <v>4</v>
       </c>
-      <c r="B22" s="79" t="s">
+      <c r="B22" s="80" t="s">
         <v>53</v>
       </c>
       <c r="C22" s="7">
@@ -4101,8 +4037,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="77"/>
-      <c r="B23" s="80"/>
+      <c r="A23" s="78"/>
+      <c r="B23" s="81"/>
       <c r="C23" s="7">
         <v>4.2</v>
       </c>
@@ -4123,8 +4059,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="77"/>
-      <c r="B24" s="80"/>
+      <c r="A24" s="78"/>
+      <c r="B24" s="81"/>
       <c r="C24" s="7">
         <v>4.3</v>
       </c>
@@ -4145,8 +4081,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="77"/>
-      <c r="B25" s="80"/>
+      <c r="A25" s="78"/>
+      <c r="B25" s="81"/>
       <c r="C25" s="7">
         <v>4.4000000000000004</v>
       </c>
@@ -4167,8 +4103,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="77"/>
-      <c r="B26" s="80"/>
+      <c r="A26" s="78"/>
+      <c r="B26" s="81"/>
       <c r="C26" s="7">
         <v>4.5</v>
       </c>
@@ -4189,8 +4125,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="77"/>
-      <c r="B27" s="80"/>
+      <c r="A27" s="78"/>
+      <c r="B27" s="81"/>
       <c r="C27" s="7">
         <v>4.5999999999999996</v>
       </c>
@@ -4211,8 +4147,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="77"/>
-      <c r="B28" s="80"/>
+      <c r="A28" s="78"/>
+      <c r="B28" s="81"/>
       <c r="C28" s="7">
         <v>4.7</v>
       </c>
@@ -4233,8 +4169,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="77"/>
-      <c r="B29" s="80"/>
+      <c r="A29" s="78"/>
+      <c r="B29" s="81"/>
       <c r="C29" s="7">
         <v>4.8</v>
       </c>
@@ -4255,10 +4191,10 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="77">
+      <c r="A30" s="78">
         <v>5</v>
       </c>
-      <c r="B30" s="77" t="s">
+      <c r="B30" s="78" t="s">
         <v>63</v>
       </c>
       <c r="C30" s="7">
@@ -4281,8 +4217,8 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="77"/>
-      <c r="B31" s="77"/>
+      <c r="A31" s="78"/>
+      <c r="B31" s="78"/>
       <c r="C31" s="7">
         <v>5.2</v>
       </c>
@@ -4303,8 +4239,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="77"/>
-      <c r="B32" s="77"/>
+      <c r="A32" s="78"/>
+      <c r="B32" s="78"/>
       <c r="C32" s="7">
         <v>5.3</v>
       </c>
@@ -4325,8 +4261,8 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="77"/>
-      <c r="B33" s="77"/>
+      <c r="A33" s="78"/>
+      <c r="B33" s="78"/>
       <c r="C33" s="7">
         <v>5.4</v>
       </c>
@@ -4347,8 +4283,8 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="77"/>
-      <c r="B34" s="77"/>
+      <c r="A34" s="78"/>
+      <c r="B34" s="78"/>
       <c r="C34" s="7">
         <v>5.5</v>
       </c>
@@ -4369,8 +4305,8 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" s="77"/>
-      <c r="B35" s="77"/>
+      <c r="A35" s="78"/>
+      <c r="B35" s="78"/>
       <c r="C35" s="7">
         <v>5.6</v>
       </c>
@@ -4391,8 +4327,8 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A36" s="77"/>
-      <c r="B36" s="77"/>
+      <c r="A36" s="78"/>
+      <c r="B36" s="78"/>
       <c r="C36" s="7">
         <v>5.7</v>
       </c>
@@ -4413,10 +4349,10 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" s="77">
+      <c r="A37" s="78">
         <v>6</v>
       </c>
-      <c r="B37" s="77" t="s">
+      <c r="B37" s="78" t="s">
         <v>72</v>
       </c>
       <c r="C37" s="7">
@@ -4439,8 +4375,8 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A38" s="77"/>
-      <c r="B38" s="77"/>
+      <c r="A38" s="78"/>
+      <c r="B38" s="78"/>
       <c r="C38" s="7">
         <v>6.2</v>
       </c>
@@ -4461,8 +4397,8 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A39" s="77"/>
-      <c r="B39" s="77"/>
+      <c r="A39" s="78"/>
+      <c r="B39" s="78"/>
       <c r="C39" s="7">
         <v>6.3</v>
       </c>
@@ -4483,8 +4419,8 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A40" s="77"/>
-      <c r="B40" s="77"/>
+      <c r="A40" s="78"/>
+      <c r="B40" s="78"/>
       <c r="C40" s="7">
         <v>6.4</v>
       </c>
@@ -4505,8 +4441,8 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A41" s="77"/>
-      <c r="B41" s="77"/>
+      <c r="A41" s="78"/>
+      <c r="B41" s="78"/>
       <c r="C41" s="7">
         <v>6.5</v>
       </c>
@@ -4527,8 +4463,8 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A42" s="77"/>
-      <c r="B42" s="77"/>
+      <c r="A42" s="78"/>
+      <c r="B42" s="78"/>
       <c r="C42" s="7">
         <v>6.6</v>
       </c>
@@ -4869,7 +4805,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AX15" sqref="AX15"/>
+      <selection pane="bottomRight" activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4884,60 +4820,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="89" t="s">
+      <c r="A1" s="88"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="90" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="82" t="s">
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
-      <c r="W1" s="83"/>
-      <c r="X1" s="83"/>
-      <c r="Y1" s="83"/>
-      <c r="Z1" s="83"/>
-      <c r="AA1" s="83"/>
-      <c r="AB1" s="83"/>
-      <c r="AC1" s="83"/>
-      <c r="AD1" s="83"/>
-      <c r="AE1" s="83"/>
-      <c r="AF1" s="83"/>
-      <c r="AG1" s="83"/>
-      <c r="AH1" s="83"/>
-      <c r="AI1" s="83"/>
-      <c r="AJ1" s="83"/>
-      <c r="AK1" s="83"/>
-      <c r="AL1" s="83"/>
-      <c r="AM1" s="83"/>
-      <c r="AN1" s="83"/>
-      <c r="AO1" s="83"/>
-      <c r="AP1" s="83"/>
-      <c r="AQ1" s="83"/>
-      <c r="AR1" s="83"/>
-      <c r="AS1" s="83"/>
-      <c r="AT1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
+      <c r="W1" s="84"/>
+      <c r="X1" s="84"/>
+      <c r="Y1" s="84"/>
+      <c r="Z1" s="84"/>
+      <c r="AA1" s="84"/>
+      <c r="AB1" s="84"/>
+      <c r="AC1" s="84"/>
+      <c r="AD1" s="84"/>
+      <c r="AE1" s="84"/>
+      <c r="AF1" s="84"/>
+      <c r="AG1" s="84"/>
+      <c r="AH1" s="84"/>
+      <c r="AI1" s="84"/>
+      <c r="AJ1" s="84"/>
+      <c r="AK1" s="84"/>
+      <c r="AL1" s="84"/>
+      <c r="AM1" s="84"/>
+      <c r="AN1" s="84"/>
+      <c r="AO1" s="84"/>
+      <c r="AP1" s="84"/>
+      <c r="AQ1" s="84"/>
+      <c r="AR1" s="84"/>
+      <c r="AS1" s="84"/>
+      <c r="AT1" s="85"/>
     </row>
     <row r="2" spans="1:58" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="88"/>
-      <c r="B2" s="88"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
       <c r="C2" s="16">
         <v>18</v>
       </c>
@@ -5090,9 +5026,9 @@
       <c r="B3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
@@ -5422,9 +5358,9 @@
       <c r="E9" s="19"/>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
       <c r="K9" s="19"/>
       <c r="L9" s="19"/>
       <c r="M9" s="19"/>
@@ -5782,8 +5718,8 @@
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="21"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -7604,8 +7540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -7650,10 +7586,18 @@
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
+      <c r="B3" s="32">
+        <v>1</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>118</v>
+      </c>
       <c r="F3" s="32"/>
       <c r="G3" s="32"/>
       <c r="H3" s="32"/>
@@ -7898,7 +7842,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
@@ -7964,7 +7908,7 @@
       <c r="I2" s="32"/>
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
-      <c r="L2" s="90"/>
+      <c r="L2" s="42"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="32"/>
@@ -7978,7 +7922,7 @@
       <c r="I3" s="32"/>
       <c r="J3" s="32"/>
       <c r="K3" s="32"/>
-      <c r="L3" s="90"/>
+      <c r="L3" s="42"/>
     </row>
     <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="32"/>
@@ -7992,7 +7936,7 @@
       <c r="I4" s="32"/>
       <c r="J4" s="32"/>
       <c r="K4" s="32"/>
-      <c r="L4" s="90"/>
+      <c r="L4" s="42"/>
     </row>
     <row r="5" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="32"/>
@@ -8006,7 +7950,7 @@
       <c r="I5" s="32"/>
       <c r="J5" s="32"/>
       <c r="K5" s="32"/>
-      <c r="L5" s="90"/>
+      <c r="L5" s="42"/>
     </row>
     <row r="6" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="32"/>
@@ -8020,7 +7964,7 @@
       <c r="I6" s="32"/>
       <c r="J6" s="32"/>
       <c r="K6" s="32"/>
-      <c r="L6" s="90"/>
+      <c r="L6" s="42"/>
     </row>
     <row r="7" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="32"/>
@@ -8034,7 +7978,7 @@
       <c r="I7" s="32"/>
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
-      <c r="L7" s="90"/>
+      <c r="L7" s="42"/>
     </row>
     <row r="8" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="32"/>
@@ -8048,7 +7992,7 @@
       <c r="I8" s="32"/>
       <c r="J8" s="32"/>
       <c r="K8" s="32"/>
-      <c r="L8" s="90"/>
+      <c r="L8" s="42"/>
     </row>
     <row r="9" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="32"/>
@@ -8062,7 +8006,7 @@
       <c r="I9" s="32"/>
       <c r="J9" s="32"/>
       <c r="K9" s="32"/>
-      <c r="L9" s="90"/>
+      <c r="L9" s="42"/>
     </row>
     <row r="10" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="32"/>
@@ -8076,7 +8020,7 @@
       <c r="I10" s="32"/>
       <c r="J10" s="32"/>
       <c r="K10" s="32"/>
-      <c r="L10" s="90"/>
+      <c r="L10" s="42"/>
     </row>
     <row r="11" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="32"/>
@@ -8090,7 +8034,7 @@
       <c r="I11" s="32"/>
       <c r="J11" s="32"/>
       <c r="K11" s="32"/>
-      <c r="L11" s="90"/>
+      <c r="L11" s="42"/>
     </row>
     <row r="12" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="32"/>
@@ -8104,7 +8048,7 @@
       <c r="I12" s="32"/>
       <c r="J12" s="32"/>
       <c r="K12" s="32"/>
-      <c r="L12" s="90"/>
+      <c r="L12" s="42"/>
     </row>
     <row r="13" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
@@ -8118,7 +8062,7 @@
       <c r="I13" s="32"/>
       <c r="J13" s="32"/>
       <c r="K13" s="32"/>
-      <c r="L13" s="90"/>
+      <c r="L13" s="42"/>
     </row>
     <row r="14" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A14" s="32"/>
@@ -8132,7 +8076,7 @@
       <c r="I14" s="32"/>
       <c r="J14" s="32"/>
       <c r="K14" s="32"/>
-      <c r="L14" s="90"/>
+      <c r="L14" s="42"/>
     </row>
     <row r="15" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
@@ -8146,7 +8090,7 @@
       <c r="I15" s="32"/>
       <c r="J15" s="32"/>
       <c r="K15" s="32"/>
-      <c r="L15" s="90"/>
+      <c r="L15" s="42"/>
     </row>
     <row r="16" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
@@ -8160,7 +8104,7 @@
       <c r="I16" s="32"/>
       <c r="J16" s="32"/>
       <c r="K16" s="32"/>
-      <c r="L16" s="90"/>
+      <c r="L16" s="42"/>
     </row>
     <row r="17" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A17" s="32"/>
@@ -8174,7 +8118,7 @@
       <c r="I17" s="32"/>
       <c r="J17" s="32"/>
       <c r="K17" s="32"/>
-      <c r="L17" s="90"/>
+      <c r="L17" s="42"/>
     </row>
     <row r="18" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A18" s="32"/>
@@ -8188,7 +8132,7 @@
       <c r="I18" s="32"/>
       <c r="J18" s="32"/>
       <c r="K18" s="32"/>
-      <c r="L18" s="90"/>
+      <c r="L18" s="42"/>
     </row>
     <row r="19" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A19" s="32"/>
@@ -8202,7 +8146,7 @@
       <c r="I19" s="32"/>
       <c r="J19" s="32"/>
       <c r="K19" s="32"/>
-      <c r="L19" s="90"/>
+      <c r="L19" s="42"/>
     </row>
     <row r="20" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A20" s="32"/>
@@ -8216,7 +8160,7 @@
       <c r="I20" s="32"/>
       <c r="J20" s="32"/>
       <c r="K20" s="32"/>
-      <c r="L20" s="90"/>
+      <c r="L20" s="42"/>
     </row>
     <row r="21" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A21" s="32"/>
@@ -8230,7 +8174,7 @@
       <c r="I21" s="32"/>
       <c r="J21" s="32"/>
       <c r="K21" s="32"/>
-      <c r="L21" s="90"/>
+      <c r="L21" s="42"/>
     </row>
     <row r="22" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
@@ -8244,40 +8188,10 @@
       <c r="I22" s="32"/>
       <c r="J22" s="32"/>
       <c r="K22" s="32"/>
-      <c r="L22" s="90"/>
+      <c r="L22" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Lengend!$G$12:$G$15</xm:f>
-          </x14:formula1>
-          <xm:sqref>F1:F1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[1]Lengend!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>J2:J22</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Lengend!$A$7:$A$10</xm:f>
-          </x14:formula1>
-          <xm:sqref>I1:I1048576 G1:G1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Lengend!$B$12:$B$14</xm:f>
-          </x14:formula1>
-          <xm:sqref>E1:E1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -8297,306 +8211,306 @@
   <sheetData>
     <row r="1" spans="2:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="45"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B4" s="45"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="47"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="48"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B5" s="45"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="47"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="48"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B6" s="45"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="47"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="48"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B7" s="45"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="47"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="48"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B8" s="45"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="47"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="48"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B9" s="48"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="50"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="51"/>
     </row>
     <row r="10" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="45"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B12" s="45"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="47"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="48"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B13" s="45"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="47"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="48"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B14" s="45"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="47"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="48"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B15" s="45"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="47"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="48"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B16" s="45"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="47"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="48"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B17" s="45"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="47"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="48"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B18" s="45"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="47"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="48"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B19" s="45"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="47"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="48"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B20" s="45"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="47"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="48"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B21" s="45"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="47"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="48"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B22" s="48"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="50"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -8625,232 +8539,232 @@
   <sheetData>
     <row r="1" spans="2:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="42"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="44"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="45"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B4" s="45"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="47"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="48"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B5" s="45"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="47"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="48"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B6" s="45"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="47"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="48"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B7" s="45"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="47"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="48"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B8" s="45"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="47"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="48"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B9" s="48"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="50"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="51"/>
     </row>
     <row r="10" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B11" s="42"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="44"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="45"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B12" s="45"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="47"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="48"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B13" s="45"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="47"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="48"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B14" s="45"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="47"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="48"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B15" s="45"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="47"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="48"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B16" s="45"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="47"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="48"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B17" s="48"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="50"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/01_doc/proj_plan/餐厅订餐系统_项目计划.xlsx
+++ b/01_doc/proj_plan/餐厅订餐系统_项目计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="00_文档历史" sheetId="11" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="Lengend" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1433,7 +1432,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1603,6 +1601,7 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2504,7 +2503,7 @@
       <c r="A2" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B2" s="38">
+      <c r="B2" s="37">
         <v>41962</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -2521,7 +2520,7 @@
       <c r="A3" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B3" s="38">
+      <c r="B3" s="37">
         <v>41963</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -2538,7 +2537,7 @@
       <c r="A4" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B4" s="38">
+      <c r="B4" s="37">
         <v>41963</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -2648,7 +2647,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="32" t="s">
         <v>113</v>
       </c>
       <c r="B12" t="s">
@@ -2665,7 +2664,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="32" t="s">
         <v>114</v>
       </c>
       <c r="B13" t="s">
@@ -2682,7 +2681,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="32" t="s">
         <v>115</v>
       </c>
       <c r="B14" t="s">
@@ -2821,700 +2820,700 @@
   <sheetData>
     <row r="1" spans="2:13" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="54"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="53"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="55"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="57"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="56"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="55"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="57"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="56"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="55"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="57"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="56"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="54"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="53"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="55"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="57"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="56"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="55"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="57"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="56"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="55"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="57"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="56"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="58"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="60"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="59"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="60" t="s">
         <v>145</v>
       </c>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="63"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="62"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="64"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="65"/>
-      <c r="M15" s="66"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="65"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="64"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="65"/>
-      <c r="L16" s="65"/>
-      <c r="M16" s="66"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="65"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="64"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="65"/>
-      <c r="M17" s="66"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="65"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="64"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="65"/>
-      <c r="M18" s="66"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="64"/>
+      <c r="M18" s="65"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="64"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="65"/>
-      <c r="M19" s="66"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="65"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="64"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="66"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="64"/>
+      <c r="M20" s="65"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="64"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="65"/>
-      <c r="L21" s="65"/>
-      <c r="M21" s="66"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="64"/>
+      <c r="L21" s="64"/>
+      <c r="M21" s="65"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="64"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="65"/>
-      <c r="M22" s="66"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="64"/>
+      <c r="M22" s="65"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="64"/>
+      <c r="L23" s="64"/>
+      <c r="M23" s="65"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B24" s="64"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="66"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="65"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="64"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="65"/>
-      <c r="M25" s="66"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="64"/>
+      <c r="L25" s="64"/>
+      <c r="M25" s="65"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="64"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="65"/>
-      <c r="M26" s="66"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="64"/>
+      <c r="L26" s="64"/>
+      <c r="M26" s="65"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="67"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="68"/>
-      <c r="I27" s="68"/>
-      <c r="J27" s="68"/>
-      <c r="K27" s="68"/>
-      <c r="L27" s="68"/>
-      <c r="M27" s="69"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="67"/>
+      <c r="L27" s="67"/>
+      <c r="M27" s="68"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="52" t="s">
+      <c r="B28" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="52"/>
-      <c r="M28" s="52"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="51"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="43" t="s">
+      <c r="B29" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="44"/>
-      <c r="M29" s="45"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="44"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="46"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="47"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="47"/>
-      <c r="M30" s="48"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="46"/>
+      <c r="M30" s="47"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="46"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
-      <c r="K31" s="47"/>
-      <c r="L31" s="47"/>
-      <c r="M31" s="48"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="47"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="46"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="47"/>
-      <c r="J32" s="47"/>
-      <c r="K32" s="47"/>
-      <c r="L32" s="47"/>
-      <c r="M32" s="48"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="46"/>
+      <c r="M32" s="47"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" s="46"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="47"/>
-      <c r="K33" s="47"/>
-      <c r="L33" s="47"/>
-      <c r="M33" s="48"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="46"/>
+      <c r="M33" s="47"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B34" s="46"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="47"/>
-      <c r="I34" s="47"/>
-      <c r="J34" s="47"/>
-      <c r="K34" s="47"/>
-      <c r="L34" s="47"/>
-      <c r="M34" s="48"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="46"/>
+      <c r="L34" s="46"/>
+      <c r="M34" s="47"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="49"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="50"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="50"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="50"/>
-      <c r="I35" s="50"/>
-      <c r="J35" s="50"/>
-      <c r="K35" s="50"/>
-      <c r="L35" s="50"/>
-      <c r="M35" s="51"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="49"/>
+      <c r="M35" s="50"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B36" s="52" t="s">
+      <c r="B36" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="52"/>
-      <c r="J36" s="52"/>
-      <c r="K36" s="52"/>
-      <c r="L36" s="52"/>
-      <c r="M36" s="52"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="51"/>
+      <c r="L36" s="51"/>
+      <c r="M36" s="51"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B37" s="61" t="s">
+      <c r="B37" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="C37" s="70"/>
-      <c r="D37" s="70"/>
-      <c r="E37" s="70"/>
-      <c r="F37" s="70"/>
-      <c r="G37" s="70"/>
-      <c r="H37" s="70"/>
-      <c r="I37" s="70"/>
-      <c r="J37" s="70"/>
-      <c r="K37" s="70"/>
-      <c r="L37" s="70"/>
-      <c r="M37" s="71"/>
+      <c r="C37" s="69"/>
+      <c r="D37" s="69"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="69"/>
+      <c r="G37" s="69"/>
+      <c r="H37" s="69"/>
+      <c r="I37" s="69"/>
+      <c r="J37" s="69"/>
+      <c r="K37" s="69"/>
+      <c r="L37" s="69"/>
+      <c r="M37" s="70"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B38" s="72"/>
-      <c r="C38" s="73"/>
-      <c r="D38" s="73"/>
-      <c r="E38" s="73"/>
-      <c r="F38" s="73"/>
-      <c r="G38" s="73"/>
-      <c r="H38" s="73"/>
-      <c r="I38" s="73"/>
-      <c r="J38" s="73"/>
-      <c r="K38" s="73"/>
-      <c r="L38" s="73"/>
-      <c r="M38" s="74"/>
+      <c r="B38" s="71"/>
+      <c r="C38" s="72"/>
+      <c r="D38" s="72"/>
+      <c r="E38" s="72"/>
+      <c r="F38" s="72"/>
+      <c r="G38" s="72"/>
+      <c r="H38" s="72"/>
+      <c r="I38" s="72"/>
+      <c r="J38" s="72"/>
+      <c r="K38" s="72"/>
+      <c r="L38" s="72"/>
+      <c r="M38" s="73"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B39" s="72"/>
-      <c r="C39" s="73"/>
-      <c r="D39" s="73"/>
-      <c r="E39" s="73"/>
-      <c r="F39" s="73"/>
-      <c r="G39" s="73"/>
-      <c r="H39" s="73"/>
-      <c r="I39" s="73"/>
-      <c r="J39" s="73"/>
-      <c r="K39" s="73"/>
-      <c r="L39" s="73"/>
-      <c r="M39" s="74"/>
+      <c r="B39" s="71"/>
+      <c r="C39" s="72"/>
+      <c r="D39" s="72"/>
+      <c r="E39" s="72"/>
+      <c r="F39" s="72"/>
+      <c r="G39" s="72"/>
+      <c r="H39" s="72"/>
+      <c r="I39" s="72"/>
+      <c r="J39" s="72"/>
+      <c r="K39" s="72"/>
+      <c r="L39" s="72"/>
+      <c r="M39" s="73"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B40" s="72"/>
-      <c r="C40" s="73"/>
-      <c r="D40" s="73"/>
-      <c r="E40" s="73"/>
-      <c r="F40" s="73"/>
-      <c r="G40" s="73"/>
-      <c r="H40" s="73"/>
-      <c r="I40" s="73"/>
-      <c r="J40" s="73"/>
-      <c r="K40" s="73"/>
-      <c r="L40" s="73"/>
-      <c r="M40" s="74"/>
+      <c r="B40" s="71"/>
+      <c r="C40" s="72"/>
+      <c r="D40" s="72"/>
+      <c r="E40" s="72"/>
+      <c r="F40" s="72"/>
+      <c r="G40" s="72"/>
+      <c r="H40" s="72"/>
+      <c r="I40" s="72"/>
+      <c r="J40" s="72"/>
+      <c r="K40" s="72"/>
+      <c r="L40" s="72"/>
+      <c r="M40" s="73"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="75"/>
-      <c r="C41" s="76"/>
-      <c r="D41" s="76"/>
-      <c r="E41" s="76"/>
-      <c r="F41" s="76"/>
-      <c r="G41" s="76"/>
-      <c r="H41" s="76"/>
-      <c r="I41" s="76"/>
-      <c r="J41" s="76"/>
-      <c r="K41" s="76"/>
-      <c r="L41" s="76"/>
-      <c r="M41" s="77"/>
+      <c r="B41" s="74"/>
+      <c r="C41" s="75"/>
+      <c r="D41" s="75"/>
+      <c r="E41" s="75"/>
+      <c r="F41" s="75"/>
+      <c r="G41" s="75"/>
+      <c r="H41" s="75"/>
+      <c r="I41" s="75"/>
+      <c r="J41" s="75"/>
+      <c r="K41" s="75"/>
+      <c r="L41" s="75"/>
+      <c r="M41" s="76"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B42" s="52" t="s">
+      <c r="B42" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="52"/>
-      <c r="D42" s="52"/>
-      <c r="E42" s="52"/>
-      <c r="F42" s="52"/>
-      <c r="G42" s="52"/>
-      <c r="H42" s="52"/>
-      <c r="I42" s="52"/>
-      <c r="J42" s="52"/>
-      <c r="K42" s="52"/>
-      <c r="L42" s="52"/>
-      <c r="M42" s="52"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="51"/>
+      <c r="J42" s="51"/>
+      <c r="K42" s="51"/>
+      <c r="L42" s="51"/>
+      <c r="M42" s="51"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B43" s="43" t="s">
+      <c r="B43" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="C43" s="44"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="44"/>
-      <c r="G43" s="44"/>
-      <c r="H43" s="44"/>
-      <c r="I43" s="44"/>
-      <c r="J43" s="44"/>
-      <c r="K43" s="44"/>
-      <c r="L43" s="44"/>
-      <c r="M43" s="45"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="43"/>
+      <c r="K43" s="43"/>
+      <c r="L43" s="43"/>
+      <c r="M43" s="44"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B44" s="46"/>
-      <c r="C44" s="47"/>
-      <c r="D44" s="47"/>
-      <c r="E44" s="47"/>
-      <c r="F44" s="47"/>
-      <c r="G44" s="47"/>
-      <c r="H44" s="47"/>
-      <c r="I44" s="47"/>
-      <c r="J44" s="47"/>
-      <c r="K44" s="47"/>
-      <c r="L44" s="47"/>
-      <c r="M44" s="48"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="46"/>
+      <c r="H44" s="46"/>
+      <c r="I44" s="46"/>
+      <c r="J44" s="46"/>
+      <c r="K44" s="46"/>
+      <c r="L44" s="46"/>
+      <c r="M44" s="47"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B45" s="46"/>
-      <c r="C45" s="47"/>
-      <c r="D45" s="47"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="47"/>
-      <c r="G45" s="47"/>
-      <c r="H45" s="47"/>
-      <c r="I45" s="47"/>
-      <c r="J45" s="47"/>
-      <c r="K45" s="47"/>
-      <c r="L45" s="47"/>
-      <c r="M45" s="48"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="46"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="46"/>
+      <c r="H45" s="46"/>
+      <c r="I45" s="46"/>
+      <c r="J45" s="46"/>
+      <c r="K45" s="46"/>
+      <c r="L45" s="46"/>
+      <c r="M45" s="47"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="46"/>
-      <c r="C46" s="47"/>
-      <c r="D46" s="47"/>
-      <c r="E46" s="47"/>
-      <c r="F46" s="47"/>
-      <c r="G46" s="47"/>
-      <c r="H46" s="47"/>
-      <c r="I46" s="47"/>
-      <c r="J46" s="47"/>
-      <c r="K46" s="47"/>
-      <c r="L46" s="47"/>
-      <c r="M46" s="48"/>
+      <c r="B46" s="45"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="46"/>
+      <c r="F46" s="46"/>
+      <c r="G46" s="46"/>
+      <c r="H46" s="46"/>
+      <c r="I46" s="46"/>
+      <c r="J46" s="46"/>
+      <c r="K46" s="46"/>
+      <c r="L46" s="46"/>
+      <c r="M46" s="47"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B47" s="46"/>
-      <c r="C47" s="47"/>
-      <c r="D47" s="47"/>
-      <c r="E47" s="47"/>
-      <c r="F47" s="47"/>
-      <c r="G47" s="47"/>
-      <c r="H47" s="47"/>
-      <c r="I47" s="47"/>
-      <c r="J47" s="47"/>
-      <c r="K47" s="47"/>
-      <c r="L47" s="47"/>
-      <c r="M47" s="48"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="46"/>
+      <c r="H47" s="46"/>
+      <c r="I47" s="46"/>
+      <c r="J47" s="46"/>
+      <c r="K47" s="46"/>
+      <c r="L47" s="46"/>
+      <c r="M47" s="47"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B48" s="46"/>
-      <c r="C48" s="47"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="47"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="47"/>
-      <c r="H48" s="47"/>
-      <c r="I48" s="47"/>
-      <c r="J48" s="47"/>
-      <c r="K48" s="47"/>
-      <c r="L48" s="47"/>
-      <c r="M48" s="48"/>
+      <c r="B48" s="45"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="46"/>
+      <c r="I48" s="46"/>
+      <c r="J48" s="46"/>
+      <c r="K48" s="46"/>
+      <c r="L48" s="46"/>
+      <c r="M48" s="47"/>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B49" s="49"/>
-      <c r="C49" s="50"/>
-      <c r="D49" s="50"/>
-      <c r="E49" s="50"/>
-      <c r="F49" s="50"/>
-      <c r="G49" s="50"/>
-      <c r="H49" s="50"/>
-      <c r="I49" s="50"/>
-      <c r="J49" s="50"/>
-      <c r="K49" s="50"/>
-      <c r="L49" s="50"/>
-      <c r="M49" s="51"/>
+      <c r="B49" s="48"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="49"/>
+      <c r="I49" s="49"/>
+      <c r="J49" s="49"/>
+      <c r="K49" s="49"/>
+      <c r="L49" s="49"/>
+      <c r="M49" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -3563,10 +3562,10 @@
   <sheetData>
     <row r="1" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="79"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
+      <c r="A2" s="78"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
       <c r="E2" s="12" t="s">
         <v>3</v>
       </c>
@@ -3581,10 +3580,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="78">
+      <c r="A3" s="77">
         <v>1</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="77" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="7">
@@ -3607,8 +3606,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="78"/>
-      <c r="B4" s="78"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="77"/>
       <c r="C4" s="7">
         <v>1.2</v>
       </c>
@@ -3629,8 +3628,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="78"/>
-      <c r="B5" s="78"/>
+      <c r="A5" s="77"/>
+      <c r="B5" s="77"/>
       <c r="C5" s="7">
         <v>1.3</v>
       </c>
@@ -3651,8 +3650,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="78"/>
-      <c r="B6" s="78"/>
+      <c r="A6" s="77"/>
+      <c r="B6" s="77"/>
       <c r="C6" s="7">
         <v>1.4</v>
       </c>
@@ -3673,10 +3672,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="80">
+      <c r="A7" s="79">
         <v>2</v>
       </c>
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="77" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="7">
@@ -3699,8 +3698,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="81"/>
-      <c r="B8" s="78"/>
+      <c r="A8" s="80"/>
+      <c r="B8" s="77"/>
       <c r="C8" s="7">
         <v>2.2000000000000002</v>
       </c>
@@ -3721,8 +3720,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="82"/>
-      <c r="B9" s="78"/>
+      <c r="A9" s="81"/>
+      <c r="B9" s="77"/>
       <c r="C9" s="7">
         <v>2.2999999999999998</v>
       </c>
@@ -3743,10 +3742,10 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="78">
+      <c r="A10" s="77">
         <v>3</v>
       </c>
-      <c r="B10" s="78" t="s">
+      <c r="B10" s="77" t="s">
         <v>38</v>
       </c>
       <c r="C10" s="9">
@@ -3769,8 +3768,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="78"/>
-      <c r="B11" s="78"/>
+      <c r="A11" s="77"/>
+      <c r="B11" s="77"/>
       <c r="C11" s="9">
         <v>3.2</v>
       </c>
@@ -3791,8 +3790,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="78"/>
-      <c r="B12" s="78"/>
+      <c r="A12" s="77"/>
+      <c r="B12" s="77"/>
       <c r="C12" s="9">
         <v>3.3</v>
       </c>
@@ -3813,8 +3812,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="78"/>
-      <c r="B13" s="78"/>
+      <c r="A13" s="77"/>
+      <c r="B13" s="77"/>
       <c r="C13" s="9">
         <v>3.4</v>
       </c>
@@ -3835,8 +3834,8 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="78"/>
-      <c r="B14" s="78"/>
+      <c r="A14" s="77"/>
+      <c r="B14" s="77"/>
       <c r="C14" s="9">
         <v>3.5</v>
       </c>
@@ -3857,8 +3856,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="78"/>
-      <c r="B15" s="78"/>
+      <c r="A15" s="77"/>
+      <c r="B15" s="77"/>
       <c r="C15" s="9">
         <v>3.6</v>
       </c>
@@ -3879,8 +3878,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="78"/>
-      <c r="B16" s="78"/>
+      <c r="A16" s="77"/>
+      <c r="B16" s="77"/>
       <c r="C16" s="9">
         <v>3.7</v>
       </c>
@@ -3901,8 +3900,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="78"/>
-      <c r="B17" s="78"/>
+      <c r="A17" s="77"/>
+      <c r="B17" s="77"/>
       <c r="C17" s="9">
         <v>3.8</v>
       </c>
@@ -3923,8 +3922,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="78"/>
-      <c r="B18" s="78"/>
+      <c r="A18" s="77"/>
+      <c r="B18" s="77"/>
       <c r="C18" s="9">
         <v>3.9</v>
       </c>
@@ -3945,8 +3944,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="78"/>
-      <c r="B19" s="78"/>
+      <c r="A19" s="77"/>
+      <c r="B19" s="77"/>
       <c r="C19" s="9" t="s">
         <v>51</v>
       </c>
@@ -3967,8 +3966,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="78"/>
-      <c r="B20" s="78"/>
+      <c r="A20" s="77"/>
+      <c r="B20" s="77"/>
       <c r="C20" s="9">
         <v>3.11</v>
       </c>
@@ -3989,8 +3988,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="78"/>
-      <c r="B21" s="78"/>
+      <c r="A21" s="77"/>
+      <c r="B21" s="77"/>
       <c r="C21" s="9">
         <v>3.12</v>
       </c>
@@ -4011,10 +4010,10 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="78">
+      <c r="A22" s="77">
         <v>4</v>
       </c>
-      <c r="B22" s="80" t="s">
+      <c r="B22" s="79" t="s">
         <v>53</v>
       </c>
       <c r="C22" s="7">
@@ -4037,8 +4036,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="78"/>
-      <c r="B23" s="81"/>
+      <c r="A23" s="77"/>
+      <c r="B23" s="80"/>
       <c r="C23" s="7">
         <v>4.2</v>
       </c>
@@ -4059,8 +4058,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="78"/>
-      <c r="B24" s="81"/>
+      <c r="A24" s="77"/>
+      <c r="B24" s="80"/>
       <c r="C24" s="7">
         <v>4.3</v>
       </c>
@@ -4081,8 +4080,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="78"/>
-      <c r="B25" s="81"/>
+      <c r="A25" s="77"/>
+      <c r="B25" s="80"/>
       <c r="C25" s="7">
         <v>4.4000000000000004</v>
       </c>
@@ -4103,8 +4102,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="78"/>
-      <c r="B26" s="81"/>
+      <c r="A26" s="77"/>
+      <c r="B26" s="80"/>
       <c r="C26" s="7">
         <v>4.5</v>
       </c>
@@ -4125,8 +4124,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="78"/>
-      <c r="B27" s="81"/>
+      <c r="A27" s="77"/>
+      <c r="B27" s="80"/>
       <c r="C27" s="7">
         <v>4.5999999999999996</v>
       </c>
@@ -4147,8 +4146,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="78"/>
-      <c r="B28" s="81"/>
+      <c r="A28" s="77"/>
+      <c r="B28" s="80"/>
       <c r="C28" s="7">
         <v>4.7</v>
       </c>
@@ -4169,8 +4168,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="78"/>
-      <c r="B29" s="81"/>
+      <c r="A29" s="77"/>
+      <c r="B29" s="80"/>
       <c r="C29" s="7">
         <v>4.8</v>
       </c>
@@ -4191,10 +4190,10 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="78">
+      <c r="A30" s="77">
         <v>5</v>
       </c>
-      <c r="B30" s="78" t="s">
+      <c r="B30" s="77" t="s">
         <v>63</v>
       </c>
       <c r="C30" s="7">
@@ -4217,8 +4216,8 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="78"/>
-      <c r="B31" s="78"/>
+      <c r="A31" s="77"/>
+      <c r="B31" s="77"/>
       <c r="C31" s="7">
         <v>5.2</v>
       </c>
@@ -4239,8 +4238,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="78"/>
-      <c r="B32" s="78"/>
+      <c r="A32" s="77"/>
+      <c r="B32" s="77"/>
       <c r="C32" s="7">
         <v>5.3</v>
       </c>
@@ -4261,8 +4260,8 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="78"/>
-      <c r="B33" s="78"/>
+      <c r="A33" s="77"/>
+      <c r="B33" s="77"/>
       <c r="C33" s="7">
         <v>5.4</v>
       </c>
@@ -4283,8 +4282,8 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="78"/>
-      <c r="B34" s="78"/>
+      <c r="A34" s="77"/>
+      <c r="B34" s="77"/>
       <c r="C34" s="7">
         <v>5.5</v>
       </c>
@@ -4305,8 +4304,8 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" s="78"/>
-      <c r="B35" s="78"/>
+      <c r="A35" s="77"/>
+      <c r="B35" s="77"/>
       <c r="C35" s="7">
         <v>5.6</v>
       </c>
@@ -4327,8 +4326,8 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A36" s="78"/>
-      <c r="B36" s="78"/>
+      <c r="A36" s="77"/>
+      <c r="B36" s="77"/>
       <c r="C36" s="7">
         <v>5.7</v>
       </c>
@@ -4349,10 +4348,10 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" s="78">
+      <c r="A37" s="77">
         <v>6</v>
       </c>
-      <c r="B37" s="78" t="s">
+      <c r="B37" s="77" t="s">
         <v>72</v>
       </c>
       <c r="C37" s="7">
@@ -4375,8 +4374,8 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A38" s="78"/>
-      <c r="B38" s="78"/>
+      <c r="A38" s="77"/>
+      <c r="B38" s="77"/>
       <c r="C38" s="7">
         <v>6.2</v>
       </c>
@@ -4397,8 +4396,8 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A39" s="78"/>
-      <c r="B39" s="78"/>
+      <c r="A39" s="77"/>
+      <c r="B39" s="77"/>
       <c r="C39" s="7">
         <v>6.3</v>
       </c>
@@ -4419,8 +4418,8 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A40" s="78"/>
-      <c r="B40" s="78"/>
+      <c r="A40" s="77"/>
+      <c r="B40" s="77"/>
       <c r="C40" s="7">
         <v>6.4</v>
       </c>
@@ -4441,8 +4440,8 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A41" s="78"/>
-      <c r="B41" s="78"/>
+      <c r="A41" s="77"/>
+      <c r="B41" s="77"/>
       <c r="C41" s="7">
         <v>6.5</v>
       </c>
@@ -4463,8 +4462,8 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A42" s="78"/>
-      <c r="B42" s="78"/>
+      <c r="A42" s="77"/>
+      <c r="B42" s="77"/>
       <c r="C42" s="7">
         <v>6.6</v>
       </c>
@@ -4801,11 +4800,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K26" sqref="K26"/>
+      <selection pane="bottomRight" activeCell="AE12" sqref="AE12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4820,60 +4819,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="88"/>
-      <c r="B1" s="88"/>
-      <c r="C1" s="90" t="s">
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="89" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="83" t="s">
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="82" t="s">
         <v>76</v>
       </c>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
-      <c r="W1" s="84"/>
-      <c r="X1" s="84"/>
-      <c r="Y1" s="84"/>
-      <c r="Z1" s="84"/>
-      <c r="AA1" s="84"/>
-      <c r="AB1" s="84"/>
-      <c r="AC1" s="84"/>
-      <c r="AD1" s="84"/>
-      <c r="AE1" s="84"/>
-      <c r="AF1" s="84"/>
-      <c r="AG1" s="84"/>
-      <c r="AH1" s="84"/>
-      <c r="AI1" s="84"/>
-      <c r="AJ1" s="84"/>
-      <c r="AK1" s="84"/>
-      <c r="AL1" s="84"/>
-      <c r="AM1" s="84"/>
-      <c r="AN1" s="84"/>
-      <c r="AO1" s="84"/>
-      <c r="AP1" s="84"/>
-      <c r="AQ1" s="84"/>
-      <c r="AR1" s="84"/>
-      <c r="AS1" s="84"/>
-      <c r="AT1" s="85"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
+      <c r="W1" s="83"/>
+      <c r="X1" s="83"/>
+      <c r="Y1" s="83"/>
+      <c r="Z1" s="83"/>
+      <c r="AA1" s="83"/>
+      <c r="AB1" s="83"/>
+      <c r="AC1" s="83"/>
+      <c r="AD1" s="83"/>
+      <c r="AE1" s="83"/>
+      <c r="AF1" s="83"/>
+      <c r="AG1" s="83"/>
+      <c r="AH1" s="83"/>
+      <c r="AI1" s="83"/>
+      <c r="AJ1" s="83"/>
+      <c r="AK1" s="83"/>
+      <c r="AL1" s="83"/>
+      <c r="AM1" s="83"/>
+      <c r="AN1" s="83"/>
+      <c r="AO1" s="83"/>
+      <c r="AP1" s="83"/>
+      <c r="AQ1" s="83"/>
+      <c r="AR1" s="83"/>
+      <c r="AS1" s="83"/>
+      <c r="AT1" s="84"/>
     </row>
     <row r="2" spans="1:58" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
       <c r="C2" s="16">
         <v>18</v>
       </c>
@@ -5026,9 +5025,9 @@
       <c r="B3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
@@ -5070,7 +5069,7 @@
       <c r="AR3" s="19"/>
       <c r="AS3" s="19"/>
       <c r="AT3" s="19"/>
-      <c r="AU3" s="34"/>
+      <c r="AU3" s="33"/>
       <c r="AV3" s="4" t="s">
         <v>129</v>
       </c>
@@ -5083,7 +5082,7 @@
         <v>23</v>
       </c>
       <c r="C4" s="20"/>
-      <c r="D4" s="40"/>
+      <c r="D4" s="39"/>
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
       <c r="G4" s="19"/>
@@ -5126,7 +5125,7 @@
       <c r="AR4" s="19"/>
       <c r="AS4" s="19"/>
       <c r="AT4" s="19"/>
-      <c r="AU4" s="35"/>
+      <c r="AU4" s="34"/>
       <c r="AV4" s="4" t="s">
         <v>130</v>
       </c>
@@ -5182,7 +5181,7 @@
       <c r="AR5" s="19"/>
       <c r="AS5" s="19"/>
       <c r="AT5" s="19"/>
-      <c r="AU5" s="36"/>
+      <c r="AU5" s="35"/>
       <c r="AV5" s="4" t="s">
         <v>131</v>
       </c>
@@ -5195,8 +5194,8 @@
         <v>25</v>
       </c>
       <c r="C6" s="20"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="41"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
@@ -5238,21 +5237,21 @@
       <c r="AR6" s="19"/>
       <c r="AS6" s="19"/>
       <c r="AT6" s="19"/>
-      <c r="AU6" s="37"/>
+      <c r="AU6" s="36"/>
       <c r="AV6" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:58" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="26" t="s">
         <v>26</v>
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
-      <c r="F7" s="28"/>
+      <c r="F7" s="27"/>
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
@@ -5304,8 +5303,8 @@
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="19"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
       <c r="J8" s="19"/>
@@ -5358,9 +5357,9 @@
       <c r="E9" s="19"/>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
       <c r="K9" s="19"/>
       <c r="L9" s="19"/>
       <c r="M9" s="19"/>
@@ -5399,10 +5398,10 @@
       <c r="AT9" s="19"/>
     </row>
     <row r="10" spans="1:58" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="26" t="s">
         <v>85</v>
       </c>
       <c r="C10" s="20"/>
@@ -5410,7 +5409,7 @@
       <c r="E10" s="19"/>
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
-      <c r="I10" s="28"/>
+      <c r="I10" s="27"/>
       <c r="J10" s="19"/>
       <c r="K10" s="19"/>
       <c r="L10" s="19"/>
@@ -5718,8 +5717,8 @@
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="21"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -5781,7 +5780,7 @@
       <c r="M17" s="19"/>
       <c r="N17" s="19"/>
       <c r="O17" s="19"/>
-      <c r="Q17" s="28"/>
+      <c r="Q17" s="27"/>
       <c r="R17" s="19"/>
       <c r="S17" s="19"/>
       <c r="T17" s="19"/>
@@ -5969,10 +5968,10 @@
       <c r="AT20" s="19"/>
     </row>
     <row r="21" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="31">
+      <c r="A21" s="30">
         <v>3.9</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="29" t="s">
         <v>46</v>
       </c>
       <c r="C21" s="20"/>
@@ -6021,10 +6020,10 @@
       <c r="AT21" s="19"/>
     </row>
     <row r="22" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="29" t="s">
         <v>47</v>
       </c>
       <c r="C22" s="20"/>
@@ -6073,10 +6072,10 @@
       <c r="AT22" s="19"/>
     </row>
     <row r="23" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="31">
+      <c r="A23" s="30">
         <v>3.11</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="29" t="s">
         <v>48</v>
       </c>
       <c r="C23" s="20"/>
@@ -6125,10 +6124,10 @@
       <c r="AT23" s="19"/>
     </row>
     <row r="24" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="31">
+      <c r="A24" s="30">
         <v>3.12</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="29" t="s">
         <v>49</v>
       </c>
       <c r="C24" s="17"/>
@@ -6177,10 +6176,10 @@
       <c r="AT24" s="18"/>
     </row>
     <row r="25" spans="1:46" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="29" t="s">
         <v>50</v>
       </c>
       <c r="C25" s="20"/>
@@ -6243,8 +6242,8 @@
       <c r="H26" s="18"/>
       <c r="I26" s="18"/>
       <c r="J26" s="18"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
+      <c r="K26" s="90"/>
+      <c r="L26" s="90"/>
       <c r="M26" s="18"/>
       <c r="N26" s="18"/>
       <c r="O26" s="18"/>
@@ -6437,7 +6436,7 @@
       <c r="AT29" s="19"/>
     </row>
     <row r="30" spans="1:46" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A30" s="26" t="s">
+      <c r="A30" s="25" t="s">
         <v>88</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -6463,7 +6462,7 @@
       <c r="T30" s="19"/>
       <c r="U30" s="19"/>
       <c r="V30" s="19"/>
-      <c r="W30" s="28"/>
+      <c r="W30" s="27"/>
       <c r="X30" s="19"/>
       <c r="Y30" s="19"/>
       <c r="Z30" s="19"/>
@@ -6489,10 +6488,10 @@
       <c r="AT30" s="19"/>
     </row>
     <row r="31" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="29">
+      <c r="A31" s="28">
         <v>4.5</v>
       </c>
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="29" t="s">
         <v>58</v>
       </c>
       <c r="C31" s="20"/>
@@ -6541,10 +6540,10 @@
       <c r="AT31" s="19"/>
     </row>
     <row r="32" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="29">
+      <c r="A32" s="28">
         <v>4.5999999999999996</v>
       </c>
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="29" t="s">
         <v>59</v>
       </c>
       <c r="C32" s="20"/>
@@ -6593,10 +6592,10 @@
       <c r="AT32" s="19"/>
     </row>
     <row r="33" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="29">
+      <c r="A33" s="28">
         <v>4.7</v>
       </c>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="29" t="s">
         <v>60</v>
       </c>
       <c r="C33" s="20"/>
@@ -6645,10 +6644,10 @@
       <c r="AT33" s="19"/>
     </row>
     <row r="34" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="29">
+      <c r="A34" s="28">
         <v>4.8</v>
       </c>
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="29" t="s">
         <v>61</v>
       </c>
       <c r="C34" s="20"/>
@@ -6697,10 +6696,10 @@
       <c r="AT34" s="19"/>
     </row>
     <row r="35" spans="1:46" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="29">
+      <c r="A35" s="28">
         <v>4.9000000000000004</v>
       </c>
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="29" t="s">
         <v>62</v>
       </c>
       <c r="C35" s="20"/>
@@ -6905,7 +6904,7 @@
       <c r="A39" s="13">
         <v>5.4</v>
       </c>
-      <c r="B39" s="30" t="s">
+      <c r="B39" s="29" t="s">
         <v>67</v>
       </c>
       <c r="C39" s="20"/>
@@ -6957,7 +6956,7 @@
       <c r="A40" s="13">
         <v>5.5</v>
       </c>
-      <c r="B40" s="30" t="s">
+      <c r="B40" s="29" t="s">
         <v>68</v>
       </c>
       <c r="C40" s="20"/>
@@ -7009,7 +7008,7 @@
       <c r="A41" s="13">
         <v>5.6</v>
       </c>
-      <c r="B41" s="30" t="s">
+      <c r="B41" s="29" t="s">
         <v>69</v>
       </c>
       <c r="C41" s="20"/>
@@ -7061,7 +7060,7 @@
       <c r="A42" s="13">
         <v>5.7</v>
       </c>
-      <c r="B42" s="30" t="s">
+      <c r="B42" s="29" t="s">
         <v>70</v>
       </c>
       <c r="C42" s="20"/>
@@ -7113,7 +7112,7 @@
       <c r="A43" s="13">
         <v>5.8</v>
       </c>
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="29" t="s">
         <v>71</v>
       </c>
       <c r="C43" s="20"/>
@@ -7266,7 +7265,7 @@
       <c r="AT45" s="19"/>
     </row>
     <row r="46" spans="1:46" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A46" s="26" t="s">
+      <c r="A46" s="25" t="s">
         <v>92</v>
       </c>
       <c r="B46" s="3" t="s">
@@ -7298,7 +7297,7 @@
       <c r="AB46" s="19"/>
       <c r="AC46" s="19"/>
       <c r="AD46" s="19"/>
-      <c r="AE46" s="28"/>
+      <c r="AE46" s="27"/>
       <c r="AF46" s="19"/>
       <c r="AG46" s="19"/>
       <c r="AH46" s="19"/>
@@ -7319,7 +7318,7 @@
       <c r="A47" s="13">
         <v>6.3</v>
       </c>
-      <c r="B47" s="30" t="s">
+      <c r="B47" s="29" t="s">
         <v>82</v>
       </c>
       <c r="C47" s="20"/>
@@ -7371,7 +7370,7 @@
       <c r="A48" s="13">
         <v>6.4</v>
       </c>
-      <c r="B48" s="30" t="s">
+      <c r="B48" s="29" t="s">
         <v>73</v>
       </c>
       <c r="C48" s="20"/>
@@ -7423,7 +7422,7 @@
       <c r="A49" s="13">
         <v>6.5</v>
       </c>
-      <c r="B49" s="30" t="s">
+      <c r="B49" s="29" t="s">
         <v>74</v>
       </c>
       <c r="C49" s="20"/>
@@ -7475,7 +7474,7 @@
       <c r="A50" s="13">
         <v>6.6</v>
       </c>
-      <c r="B50" s="30" t="s">
+      <c r="B50" s="29" t="s">
         <v>91</v>
       </c>
       <c r="C50" s="20"/>
@@ -7540,7 +7539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -7560,248 +7559,248 @@
   <sheetData>
     <row r="1" spans="2:9" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="G2" s="39" t="s">
+      <c r="G2" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="I2" s="39" t="s">
+      <c r="I2" s="38" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="32">
+      <c r="B3" s="31">
         <v>1</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7859,336 +7858,336 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="38" t="s">
         <v>158</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="J1" s="39" t="s">
+      <c r="J1" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="K1" s="39" t="s">
+      <c r="K1" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="L1" s="39" t="s">
+      <c r="L1" s="38" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="42"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="41"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="42"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="41"/>
     </row>
     <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="42"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="41"/>
     </row>
     <row r="5" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="42"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="41"/>
     </row>
     <row r="6" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="42"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="41"/>
     </row>
     <row r="7" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="42"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="41"/>
     </row>
     <row r="8" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="42"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="41"/>
     </row>
     <row r="9" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="42"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="41"/>
     </row>
     <row r="10" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="42"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="41"/>
     </row>
     <row r="11" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="42"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="41"/>
     </row>
     <row r="12" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="42"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="41"/>
     </row>
     <row r="13" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="42"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="41"/>
     </row>
     <row r="14" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="42"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="41"/>
     </row>
     <row r="15" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="42"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="41"/>
     </row>
     <row r="16" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="42"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="41"/>
     </row>
     <row r="17" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="42"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="41"/>
     </row>
     <row r="18" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="42"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="41"/>
     </row>
     <row r="19" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="42"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="41"/>
     </row>
     <row r="20" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="42"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="41"/>
     </row>
     <row r="21" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="42"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="41"/>
     </row>
     <row r="22" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="32"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="42"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8211,306 +8210,306 @@
   <sheetData>
     <row r="1" spans="2:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="45"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="44"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B4" s="46"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="48"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="47"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B5" s="46"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="48"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="47"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B6" s="46"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="48"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="47"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B7" s="46"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="48"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="47"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B8" s="46"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="48"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="47"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B9" s="49"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="51"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="50"/>
     </row>
     <row r="10" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="52"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="45"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="44"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B12" s="46"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="48"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="47"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B13" s="46"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="48"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="47"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B14" s="46"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="48"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="47"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B15" s="46"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="48"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="47"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B16" s="46"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="48"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="47"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B17" s="46"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="48"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="47"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B18" s="46"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="48"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="47"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B19" s="46"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="48"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="47"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B20" s="46"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="48"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="47"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B21" s="46"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="48"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="47"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B22" s="49"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="51"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -8539,232 +8538,232 @@
   <sheetData>
     <row r="1" spans="2:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="43"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="45"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="44"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B4" s="46"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="48"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="47"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B5" s="46"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="48"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="47"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B6" s="46"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="48"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="47"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B7" s="46"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="48"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="47"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B8" s="46"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="48"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="47"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B9" s="49"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="51"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="50"/>
     </row>
     <row r="10" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="52"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B11" s="43"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="45"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="44"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B12" s="46"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="48"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="47"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B13" s="46"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="48"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="47"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B14" s="46"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="48"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="47"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B15" s="46"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="48"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="47"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B16" s="46"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="48"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="47"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B17" s="49"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="51"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/01_doc/proj_plan/餐厅订餐系统_项目计划.xlsx
+++ b/01_doc/proj_plan/餐厅订餐系统_项目计划.xlsx
@@ -1392,7 +1392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1457,6 +1457,7 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1601,7 +1602,7 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2820,700 +2821,700 @@
   <sheetData>
     <row r="1" spans="2:13" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="54"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="54"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="56"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="57"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="56"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="57"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="54"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="56"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="57"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="54"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="54"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="56"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="57"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="54"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="56"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="57"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="54"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="56"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="57"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="57"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="59"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="60"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="60" t="s">
+      <c r="B14" s="61" t="s">
         <v>145</v>
       </c>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="63"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="63"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="64"/>
-      <c r="M15" s="65"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="65"/>
+      <c r="M15" s="66"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="63"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="64"/>
-      <c r="K16" s="64"/>
-      <c r="L16" s="64"/>
-      <c r="M16" s="65"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="65"/>
+      <c r="M16" s="66"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="63"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="64"/>
-      <c r="M17" s="65"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="65"/>
+      <c r="M17" s="66"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="63"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="64"/>
-      <c r="K18" s="64"/>
-      <c r="L18" s="64"/>
-      <c r="M18" s="65"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="66"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="63"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="64"/>
-      <c r="M19" s="65"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="66"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="63"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="64"/>
-      <c r="K20" s="64"/>
-      <c r="L20" s="64"/>
-      <c r="M20" s="65"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="66"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="63"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="64"/>
-      <c r="K21" s="64"/>
-      <c r="L21" s="64"/>
-      <c r="M21" s="65"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="65"/>
+      <c r="M21" s="66"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="63"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="64"/>
-      <c r="L22" s="64"/>
-      <c r="M22" s="65"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="65"/>
+      <c r="M22" s="66"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="63"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="64"/>
-      <c r="K23" s="64"/>
-      <c r="L23" s="64"/>
-      <c r="M23" s="65"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B24" s="63"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="64"/>
-      <c r="K24" s="64"/>
-      <c r="L24" s="64"/>
-      <c r="M24" s="65"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="66"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="63"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="64"/>
-      <c r="K25" s="64"/>
-      <c r="L25" s="64"/>
-      <c r="M25" s="65"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="65"/>
+      <c r="L25" s="65"/>
+      <c r="M25" s="66"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="63"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="64"/>
-      <c r="K26" s="64"/>
-      <c r="L26" s="64"/>
-      <c r="M26" s="65"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="65"/>
+      <c r="L26" s="65"/>
+      <c r="M26" s="66"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="66"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
-      <c r="I27" s="67"/>
-      <c r="J27" s="67"/>
-      <c r="K27" s="67"/>
-      <c r="L27" s="67"/>
-      <c r="M27" s="68"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="68"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="68"/>
+      <c r="L27" s="68"/>
+      <c r="M27" s="69"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="51" t="s">
+      <c r="B28" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="51"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="51"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="52"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="42" t="s">
+      <c r="B29" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="43"/>
-      <c r="K29" s="43"/>
-      <c r="L29" s="43"/>
-      <c r="M29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="45"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="45"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="46"/>
-      <c r="J30" s="46"/>
-      <c r="K30" s="46"/>
-      <c r="L30" s="46"/>
-      <c r="M30" s="47"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="47"/>
+      <c r="M30" s="48"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="45"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="46"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="47"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="47"/>
+      <c r="M31" s="48"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="45"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="46"/>
-      <c r="K32" s="46"/>
-      <c r="L32" s="46"/>
-      <c r="M32" s="47"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="48"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" s="45"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="46"/>
-      <c r="J33" s="46"/>
-      <c r="K33" s="46"/>
-      <c r="L33" s="46"/>
-      <c r="M33" s="47"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="47"/>
+      <c r="L33" s="47"/>
+      <c r="M33" s="48"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B34" s="45"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="46"/>
-      <c r="J34" s="46"/>
-      <c r="K34" s="46"/>
-      <c r="L34" s="46"/>
-      <c r="M34" s="47"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="47"/>
+      <c r="M34" s="48"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="48"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="49"/>
-      <c r="L35" s="49"/>
-      <c r="M35" s="50"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="50"/>
+      <c r="M35" s="51"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B36" s="51" t="s">
+      <c r="B36" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="51"/>
-      <c r="J36" s="51"/>
-      <c r="K36" s="51"/>
-      <c r="L36" s="51"/>
-      <c r="M36" s="51"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="52"/>
+      <c r="J36" s="52"/>
+      <c r="K36" s="52"/>
+      <c r="L36" s="52"/>
+      <c r="M36" s="52"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B37" s="60" t="s">
+      <c r="B37" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="C37" s="69"/>
-      <c r="D37" s="69"/>
-      <c r="E37" s="69"/>
-      <c r="F37" s="69"/>
-      <c r="G37" s="69"/>
-      <c r="H37" s="69"/>
-      <c r="I37" s="69"/>
-      <c r="J37" s="69"/>
-      <c r="K37" s="69"/>
-      <c r="L37" s="69"/>
-      <c r="M37" s="70"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="70"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="70"/>
+      <c r="H37" s="70"/>
+      <c r="I37" s="70"/>
+      <c r="J37" s="70"/>
+      <c r="K37" s="70"/>
+      <c r="L37" s="70"/>
+      <c r="M37" s="71"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B38" s="71"/>
-      <c r="C38" s="72"/>
-      <c r="D38" s="72"/>
-      <c r="E38" s="72"/>
-      <c r="F38" s="72"/>
-      <c r="G38" s="72"/>
-      <c r="H38" s="72"/>
-      <c r="I38" s="72"/>
-      <c r="J38" s="72"/>
-      <c r="K38" s="72"/>
-      <c r="L38" s="72"/>
-      <c r="M38" s="73"/>
+      <c r="B38" s="72"/>
+      <c r="C38" s="73"/>
+      <c r="D38" s="73"/>
+      <c r="E38" s="73"/>
+      <c r="F38" s="73"/>
+      <c r="G38" s="73"/>
+      <c r="H38" s="73"/>
+      <c r="I38" s="73"/>
+      <c r="J38" s="73"/>
+      <c r="K38" s="73"/>
+      <c r="L38" s="73"/>
+      <c r="M38" s="74"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B39" s="71"/>
-      <c r="C39" s="72"/>
-      <c r="D39" s="72"/>
-      <c r="E39" s="72"/>
-      <c r="F39" s="72"/>
-      <c r="G39" s="72"/>
-      <c r="H39" s="72"/>
-      <c r="I39" s="72"/>
-      <c r="J39" s="72"/>
-      <c r="K39" s="72"/>
-      <c r="L39" s="72"/>
-      <c r="M39" s="73"/>
+      <c r="B39" s="72"/>
+      <c r="C39" s="73"/>
+      <c r="D39" s="73"/>
+      <c r="E39" s="73"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="73"/>
+      <c r="H39" s="73"/>
+      <c r="I39" s="73"/>
+      <c r="J39" s="73"/>
+      <c r="K39" s="73"/>
+      <c r="L39" s="73"/>
+      <c r="M39" s="74"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B40" s="71"/>
-      <c r="C40" s="72"/>
-      <c r="D40" s="72"/>
-      <c r="E40" s="72"/>
-      <c r="F40" s="72"/>
-      <c r="G40" s="72"/>
-      <c r="H40" s="72"/>
-      <c r="I40" s="72"/>
-      <c r="J40" s="72"/>
-      <c r="K40" s="72"/>
-      <c r="L40" s="72"/>
-      <c r="M40" s="73"/>
+      <c r="B40" s="72"/>
+      <c r="C40" s="73"/>
+      <c r="D40" s="73"/>
+      <c r="E40" s="73"/>
+      <c r="F40" s="73"/>
+      <c r="G40" s="73"/>
+      <c r="H40" s="73"/>
+      <c r="I40" s="73"/>
+      <c r="J40" s="73"/>
+      <c r="K40" s="73"/>
+      <c r="L40" s="73"/>
+      <c r="M40" s="74"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="74"/>
-      <c r="C41" s="75"/>
-      <c r="D41" s="75"/>
-      <c r="E41" s="75"/>
-      <c r="F41" s="75"/>
-      <c r="G41" s="75"/>
-      <c r="H41" s="75"/>
-      <c r="I41" s="75"/>
-      <c r="J41" s="75"/>
-      <c r="K41" s="75"/>
-      <c r="L41" s="75"/>
-      <c r="M41" s="76"/>
+      <c r="B41" s="75"/>
+      <c r="C41" s="76"/>
+      <c r="D41" s="76"/>
+      <c r="E41" s="76"/>
+      <c r="F41" s="76"/>
+      <c r="G41" s="76"/>
+      <c r="H41" s="76"/>
+      <c r="I41" s="76"/>
+      <c r="J41" s="76"/>
+      <c r="K41" s="76"/>
+      <c r="L41" s="76"/>
+      <c r="M41" s="77"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B42" s="51" t="s">
+      <c r="B42" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="51"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="51"/>
-      <c r="H42" s="51"/>
-      <c r="I42" s="51"/>
-      <c r="J42" s="51"/>
-      <c r="K42" s="51"/>
-      <c r="L42" s="51"/>
-      <c r="M42" s="51"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="52"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="52"/>
+      <c r="H42" s="52"/>
+      <c r="I42" s="52"/>
+      <c r="J42" s="52"/>
+      <c r="K42" s="52"/>
+      <c r="L42" s="52"/>
+      <c r="M42" s="52"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B43" s="42" t="s">
+      <c r="B43" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="C43" s="43"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="43"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="43"/>
-      <c r="H43" s="43"/>
-      <c r="I43" s="43"/>
-      <c r="J43" s="43"/>
-      <c r="K43" s="43"/>
-      <c r="L43" s="43"/>
-      <c r="M43" s="44"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="44"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="44"/>
+      <c r="J43" s="44"/>
+      <c r="K43" s="44"/>
+      <c r="L43" s="44"/>
+      <c r="M43" s="45"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B44" s="45"/>
-      <c r="C44" s="46"/>
-      <c r="D44" s="46"/>
-      <c r="E44" s="46"/>
-      <c r="F44" s="46"/>
-      <c r="G44" s="46"/>
-      <c r="H44" s="46"/>
-      <c r="I44" s="46"/>
-      <c r="J44" s="46"/>
-      <c r="K44" s="46"/>
-      <c r="L44" s="46"/>
-      <c r="M44" s="47"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="47"/>
+      <c r="J44" s="47"/>
+      <c r="K44" s="47"/>
+      <c r="L44" s="47"/>
+      <c r="M44" s="48"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B45" s="45"/>
-      <c r="C45" s="46"/>
-      <c r="D45" s="46"/>
-      <c r="E45" s="46"/>
-      <c r="F45" s="46"/>
-      <c r="G45" s="46"/>
-      <c r="H45" s="46"/>
-      <c r="I45" s="46"/>
-      <c r="J45" s="46"/>
-      <c r="K45" s="46"/>
-      <c r="L45" s="46"/>
-      <c r="M45" s="47"/>
+      <c r="B45" s="46"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="47"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="47"/>
+      <c r="J45" s="47"/>
+      <c r="K45" s="47"/>
+      <c r="L45" s="47"/>
+      <c r="M45" s="48"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="45"/>
-      <c r="C46" s="46"/>
-      <c r="D46" s="46"/>
-      <c r="E46" s="46"/>
-      <c r="F46" s="46"/>
-      <c r="G46" s="46"/>
-      <c r="H46" s="46"/>
-      <c r="I46" s="46"/>
-      <c r="J46" s="46"/>
-      <c r="K46" s="46"/>
-      <c r="L46" s="46"/>
-      <c r="M46" s="47"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="47"/>
+      <c r="D46" s="47"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="47"/>
+      <c r="H46" s="47"/>
+      <c r="I46" s="47"/>
+      <c r="J46" s="47"/>
+      <c r="K46" s="47"/>
+      <c r="L46" s="47"/>
+      <c r="M46" s="48"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B47" s="45"/>
-      <c r="C47" s="46"/>
-      <c r="D47" s="46"/>
-      <c r="E47" s="46"/>
-      <c r="F47" s="46"/>
-      <c r="G47" s="46"/>
-      <c r="H47" s="46"/>
-      <c r="I47" s="46"/>
-      <c r="J47" s="46"/>
-      <c r="K47" s="46"/>
-      <c r="L47" s="46"/>
-      <c r="M47" s="47"/>
+      <c r="B47" s="46"/>
+      <c r="C47" s="47"/>
+      <c r="D47" s="47"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="47"/>
+      <c r="I47" s="47"/>
+      <c r="J47" s="47"/>
+      <c r="K47" s="47"/>
+      <c r="L47" s="47"/>
+      <c r="M47" s="48"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B48" s="45"/>
-      <c r="C48" s="46"/>
-      <c r="D48" s="46"/>
-      <c r="E48" s="46"/>
-      <c r="F48" s="46"/>
-      <c r="G48" s="46"/>
-      <c r="H48" s="46"/>
-      <c r="I48" s="46"/>
-      <c r="J48" s="46"/>
-      <c r="K48" s="46"/>
-      <c r="L48" s="46"/>
-      <c r="M48" s="47"/>
+      <c r="B48" s="46"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="47"/>
+      <c r="I48" s="47"/>
+      <c r="J48" s="47"/>
+      <c r="K48" s="47"/>
+      <c r="L48" s="47"/>
+      <c r="M48" s="48"/>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B49" s="48"/>
-      <c r="C49" s="49"/>
-      <c r="D49" s="49"/>
-      <c r="E49" s="49"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="49"/>
-      <c r="H49" s="49"/>
-      <c r="I49" s="49"/>
-      <c r="J49" s="49"/>
-      <c r="K49" s="49"/>
-      <c r="L49" s="49"/>
-      <c r="M49" s="50"/>
+      <c r="B49" s="49"/>
+      <c r="C49" s="50"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="50"/>
+      <c r="H49" s="50"/>
+      <c r="I49" s="50"/>
+      <c r="J49" s="50"/>
+      <c r="K49" s="50"/>
+      <c r="L49" s="50"/>
+      <c r="M49" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -3562,10 +3563,10 @@
   <sheetData>
     <row r="1" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="78"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
+      <c r="A2" s="79"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
       <c r="E2" s="12" t="s">
         <v>3</v>
       </c>
@@ -3580,10 +3581,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="77">
+      <c r="A3" s="78">
         <v>1</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="78" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="7">
@@ -3606,8 +3607,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="77"/>
-      <c r="B4" s="77"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="78"/>
       <c r="C4" s="7">
         <v>1.2</v>
       </c>
@@ -3628,8 +3629,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="77"/>
-      <c r="B5" s="77"/>
+      <c r="A5" s="78"/>
+      <c r="B5" s="78"/>
       <c r="C5" s="7">
         <v>1.3</v>
       </c>
@@ -3650,8 +3651,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="77"/>
-      <c r="B6" s="77"/>
+      <c r="A6" s="78"/>
+      <c r="B6" s="78"/>
       <c r="C6" s="7">
         <v>1.4</v>
       </c>
@@ -3672,10 +3673,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="79">
+      <c r="A7" s="80">
         <v>2</v>
       </c>
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="78" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="7">
@@ -3698,8 +3699,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="80"/>
-      <c r="B8" s="77"/>
+      <c r="A8" s="81"/>
+      <c r="B8" s="78"/>
       <c r="C8" s="7">
         <v>2.2000000000000002</v>
       </c>
@@ -3720,8 +3721,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="81"/>
-      <c r="B9" s="77"/>
+      <c r="A9" s="82"/>
+      <c r="B9" s="78"/>
       <c r="C9" s="7">
         <v>2.2999999999999998</v>
       </c>
@@ -3742,10 +3743,10 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="77">
+      <c r="A10" s="78">
         <v>3</v>
       </c>
-      <c r="B10" s="77" t="s">
+      <c r="B10" s="78" t="s">
         <v>38</v>
       </c>
       <c r="C10" s="9">
@@ -3768,8 +3769,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="77"/>
-      <c r="B11" s="77"/>
+      <c r="A11" s="78"/>
+      <c r="B11" s="78"/>
       <c r="C11" s="9">
         <v>3.2</v>
       </c>
@@ -3790,8 +3791,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="77"/>
-      <c r="B12" s="77"/>
+      <c r="A12" s="78"/>
+      <c r="B12" s="78"/>
       <c r="C12" s="9">
         <v>3.3</v>
       </c>
@@ -3812,8 +3813,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="77"/>
-      <c r="B13" s="77"/>
+      <c r="A13" s="78"/>
+      <c r="B13" s="78"/>
       <c r="C13" s="9">
         <v>3.4</v>
       </c>
@@ -3834,8 +3835,8 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="77"/>
-      <c r="B14" s="77"/>
+      <c r="A14" s="78"/>
+      <c r="B14" s="78"/>
       <c r="C14" s="9">
         <v>3.5</v>
       </c>
@@ -3856,8 +3857,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="77"/>
-      <c r="B15" s="77"/>
+      <c r="A15" s="78"/>
+      <c r="B15" s="78"/>
       <c r="C15" s="9">
         <v>3.6</v>
       </c>
@@ -3878,8 +3879,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="77"/>
-      <c r="B16" s="77"/>
+      <c r="A16" s="78"/>
+      <c r="B16" s="78"/>
       <c r="C16" s="9">
         <v>3.7</v>
       </c>
@@ -3900,8 +3901,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="77"/>
-      <c r="B17" s="77"/>
+      <c r="A17" s="78"/>
+      <c r="B17" s="78"/>
       <c r="C17" s="9">
         <v>3.8</v>
       </c>
@@ -3922,8 +3923,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="77"/>
-      <c r="B18" s="77"/>
+      <c r="A18" s="78"/>
+      <c r="B18" s="78"/>
       <c r="C18" s="9">
         <v>3.9</v>
       </c>
@@ -3944,8 +3945,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="77"/>
-      <c r="B19" s="77"/>
+      <c r="A19" s="78"/>
+      <c r="B19" s="78"/>
       <c r="C19" s="9" t="s">
         <v>51</v>
       </c>
@@ -3966,8 +3967,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="77"/>
-      <c r="B20" s="77"/>
+      <c r="A20" s="78"/>
+      <c r="B20" s="78"/>
       <c r="C20" s="9">
         <v>3.11</v>
       </c>
@@ -3988,8 +3989,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="77"/>
-      <c r="B21" s="77"/>
+      <c r="A21" s="78"/>
+      <c r="B21" s="78"/>
       <c r="C21" s="9">
         <v>3.12</v>
       </c>
@@ -4010,10 +4011,10 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="77">
+      <c r="A22" s="78">
         <v>4</v>
       </c>
-      <c r="B22" s="79" t="s">
+      <c r="B22" s="80" t="s">
         <v>53</v>
       </c>
       <c r="C22" s="7">
@@ -4036,8 +4037,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="77"/>
-      <c r="B23" s="80"/>
+      <c r="A23" s="78"/>
+      <c r="B23" s="81"/>
       <c r="C23" s="7">
         <v>4.2</v>
       </c>
@@ -4058,8 +4059,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="77"/>
-      <c r="B24" s="80"/>
+      <c r="A24" s="78"/>
+      <c r="B24" s="81"/>
       <c r="C24" s="7">
         <v>4.3</v>
       </c>
@@ -4080,8 +4081,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="77"/>
-      <c r="B25" s="80"/>
+      <c r="A25" s="78"/>
+      <c r="B25" s="81"/>
       <c r="C25" s="7">
         <v>4.4000000000000004</v>
       </c>
@@ -4102,8 +4103,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="77"/>
-      <c r="B26" s="80"/>
+      <c r="A26" s="78"/>
+      <c r="B26" s="81"/>
       <c r="C26" s="7">
         <v>4.5</v>
       </c>
@@ -4124,8 +4125,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="77"/>
-      <c r="B27" s="80"/>
+      <c r="A27" s="78"/>
+      <c r="B27" s="81"/>
       <c r="C27" s="7">
         <v>4.5999999999999996</v>
       </c>
@@ -4146,8 +4147,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="77"/>
-      <c r="B28" s="80"/>
+      <c r="A28" s="78"/>
+      <c r="B28" s="81"/>
       <c r="C28" s="7">
         <v>4.7</v>
       </c>
@@ -4168,8 +4169,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="77"/>
-      <c r="B29" s="80"/>
+      <c r="A29" s="78"/>
+      <c r="B29" s="81"/>
       <c r="C29" s="7">
         <v>4.8</v>
       </c>
@@ -4190,10 +4191,10 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="77">
+      <c r="A30" s="78">
         <v>5</v>
       </c>
-      <c r="B30" s="77" t="s">
+      <c r="B30" s="78" t="s">
         <v>63</v>
       </c>
       <c r="C30" s="7">
@@ -4216,8 +4217,8 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="77"/>
-      <c r="B31" s="77"/>
+      <c r="A31" s="78"/>
+      <c r="B31" s="78"/>
       <c r="C31" s="7">
         <v>5.2</v>
       </c>
@@ -4238,8 +4239,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="77"/>
-      <c r="B32" s="77"/>
+      <c r="A32" s="78"/>
+      <c r="B32" s="78"/>
       <c r="C32" s="7">
         <v>5.3</v>
       </c>
@@ -4260,8 +4261,8 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="77"/>
-      <c r="B33" s="77"/>
+      <c r="A33" s="78"/>
+      <c r="B33" s="78"/>
       <c r="C33" s="7">
         <v>5.4</v>
       </c>
@@ -4282,8 +4283,8 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="77"/>
-      <c r="B34" s="77"/>
+      <c r="A34" s="78"/>
+      <c r="B34" s="78"/>
       <c r="C34" s="7">
         <v>5.5</v>
       </c>
@@ -4304,8 +4305,8 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" s="77"/>
-      <c r="B35" s="77"/>
+      <c r="A35" s="78"/>
+      <c r="B35" s="78"/>
       <c r="C35" s="7">
         <v>5.6</v>
       </c>
@@ -4326,8 +4327,8 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A36" s="77"/>
-      <c r="B36" s="77"/>
+      <c r="A36" s="78"/>
+      <c r="B36" s="78"/>
       <c r="C36" s="7">
         <v>5.7</v>
       </c>
@@ -4348,10 +4349,10 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" s="77">
+      <c r="A37" s="78">
         <v>6</v>
       </c>
-      <c r="B37" s="77" t="s">
+      <c r="B37" s="78" t="s">
         <v>72</v>
       </c>
       <c r="C37" s="7">
@@ -4374,8 +4375,8 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A38" s="77"/>
-      <c r="B38" s="77"/>
+      <c r="A38" s="78"/>
+      <c r="B38" s="78"/>
       <c r="C38" s="7">
         <v>6.2</v>
       </c>
@@ -4396,8 +4397,8 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A39" s="77"/>
-      <c r="B39" s="77"/>
+      <c r="A39" s="78"/>
+      <c r="B39" s="78"/>
       <c r="C39" s="7">
         <v>6.3</v>
       </c>
@@ -4418,8 +4419,8 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A40" s="77"/>
-      <c r="B40" s="77"/>
+      <c r="A40" s="78"/>
+      <c r="B40" s="78"/>
       <c r="C40" s="7">
         <v>6.4</v>
       </c>
@@ -4440,8 +4441,8 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A41" s="77"/>
-      <c r="B41" s="77"/>
+      <c r="A41" s="78"/>
+      <c r="B41" s="78"/>
       <c r="C41" s="7">
         <v>6.5</v>
       </c>
@@ -4462,8 +4463,8 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A42" s="77"/>
-      <c r="B42" s="77"/>
+      <c r="A42" s="78"/>
+      <c r="B42" s="78"/>
       <c r="C42" s="7">
         <v>6.6</v>
       </c>
@@ -4804,7 +4805,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AE12" sqref="AE12"/>
+      <selection pane="bottomRight" activeCell="AH14" sqref="AH14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4819,60 +4820,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="89" t="s">
+      <c r="A1" s="88"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="90" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="82" t="s">
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
-      <c r="W1" s="83"/>
-      <c r="X1" s="83"/>
-      <c r="Y1" s="83"/>
-      <c r="Z1" s="83"/>
-      <c r="AA1" s="83"/>
-      <c r="AB1" s="83"/>
-      <c r="AC1" s="83"/>
-      <c r="AD1" s="83"/>
-      <c r="AE1" s="83"/>
-      <c r="AF1" s="83"/>
-      <c r="AG1" s="83"/>
-      <c r="AH1" s="83"/>
-      <c r="AI1" s="83"/>
-      <c r="AJ1" s="83"/>
-      <c r="AK1" s="83"/>
-      <c r="AL1" s="83"/>
-      <c r="AM1" s="83"/>
-      <c r="AN1" s="83"/>
-      <c r="AO1" s="83"/>
-      <c r="AP1" s="83"/>
-      <c r="AQ1" s="83"/>
-      <c r="AR1" s="83"/>
-      <c r="AS1" s="83"/>
-      <c r="AT1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
+      <c r="W1" s="84"/>
+      <c r="X1" s="84"/>
+      <c r="Y1" s="84"/>
+      <c r="Z1" s="84"/>
+      <c r="AA1" s="84"/>
+      <c r="AB1" s="84"/>
+      <c r="AC1" s="84"/>
+      <c r="AD1" s="84"/>
+      <c r="AE1" s="84"/>
+      <c r="AF1" s="84"/>
+      <c r="AG1" s="84"/>
+      <c r="AH1" s="84"/>
+      <c r="AI1" s="84"/>
+      <c r="AJ1" s="84"/>
+      <c r="AK1" s="84"/>
+      <c r="AL1" s="84"/>
+      <c r="AM1" s="84"/>
+      <c r="AN1" s="84"/>
+      <c r="AO1" s="84"/>
+      <c r="AP1" s="84"/>
+      <c r="AQ1" s="84"/>
+      <c r="AR1" s="84"/>
+      <c r="AS1" s="84"/>
+      <c r="AT1" s="85"/>
     </row>
     <row r="2" spans="1:58" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="88"/>
-      <c r="B2" s="88"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
       <c r="C2" s="16">
         <v>18</v>
       </c>
@@ -5025,9 +5026,9 @@
       <c r="B3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
@@ -5463,10 +5464,10 @@
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
       <c r="J11" s="19"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
+      <c r="K11" s="91"/>
+      <c r="L11" s="91"/>
+      <c r="M11" s="91"/>
+      <c r="N11" s="91"/>
       <c r="O11" s="19"/>
       <c r="P11" s="19"/>
       <c r="Q11" s="19"/>
@@ -5515,10 +5516,10 @@
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
       <c r="J12" s="19"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
+      <c r="K12" s="91"/>
+      <c r="L12" s="91"/>
+      <c r="M12" s="91"/>
+      <c r="N12" s="91"/>
       <c r="O12" s="19"/>
       <c r="P12" s="19"/>
       <c r="Q12" s="19"/>
@@ -6242,8 +6243,8 @@
       <c r="H26" s="18"/>
       <c r="I26" s="18"/>
       <c r="J26" s="18"/>
-      <c r="K26" s="90"/>
-      <c r="L26" s="90"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
       <c r="M26" s="18"/>
       <c r="N26" s="18"/>
       <c r="O26" s="18"/>
@@ -8210,306 +8211,306 @@
   <sheetData>
     <row r="1" spans="2:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="45"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B4" s="45"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="47"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="48"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B5" s="45"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="47"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="48"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B6" s="45"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="47"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="48"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B7" s="45"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="47"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="48"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B8" s="45"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="47"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="48"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B9" s="48"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="50"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="51"/>
     </row>
     <row r="10" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="45"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B12" s="45"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="47"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="48"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B13" s="45"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="47"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="48"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B14" s="45"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="47"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="48"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B15" s="45"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="47"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="48"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B16" s="45"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="47"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="48"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B17" s="45"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="47"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="48"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B18" s="45"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="47"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="48"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B19" s="45"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="47"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="48"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B20" s="45"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="47"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="48"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B21" s="45"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="47"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="48"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B22" s="48"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="50"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -8538,232 +8539,232 @@
   <sheetData>
     <row r="1" spans="2:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="42"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="44"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="45"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B4" s="45"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="47"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="48"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B5" s="45"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="47"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="48"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B6" s="45"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="47"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="48"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B7" s="45"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="47"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="48"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B8" s="45"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="47"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="48"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B9" s="48"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="50"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="51"/>
     </row>
     <row r="10" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B11" s="42"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="44"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="45"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B12" s="45"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="47"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="48"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B13" s="45"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="47"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="48"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B14" s="45"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="47"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="48"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B15" s="45"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="47"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="48"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B16" s="45"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="47"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="48"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B17" s="48"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="50"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/01_doc/proj_plan/餐厅订餐系统_项目计划.xlsx
+++ b/01_doc/proj_plan/餐厅订餐系统_项目计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="1170" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="00_文档历史" sheetId="11" r:id="rId1"/>
@@ -1458,6 +1458,7 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1602,7 +1603,6 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2821,700 +2821,700 @@
   <sheetData>
     <row r="1" spans="2:13" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="55"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="55"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="57"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="58"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="55"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="57"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="58"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="55"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="57"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="58"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="55"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="55"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="57"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="58"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="55"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="57"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="58"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="55"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="57"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="58"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="58"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="60"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="61"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="62" t="s">
         <v>145</v>
       </c>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="64"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="64"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="65"/>
-      <c r="M15" s="66"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="66"/>
+      <c r="M15" s="67"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="64"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="65"/>
-      <c r="L16" s="65"/>
-      <c r="M16" s="66"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="66"/>
+      <c r="M16" s="67"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="64"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="65"/>
-      <c r="M17" s="66"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="67"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="64"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="65"/>
-      <c r="M18" s="66"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="67"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="64"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="65"/>
-      <c r="M19" s="66"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="66"/>
+      <c r="M19" s="67"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="64"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="66"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="66"/>
+      <c r="M20" s="67"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="64"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="65"/>
-      <c r="L21" s="65"/>
-      <c r="M21" s="66"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="66"/>
+      <c r="M21" s="67"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="64"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="65"/>
-      <c r="M22" s="66"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="66"/>
+      <c r="M22" s="67"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="66"/>
+      <c r="M23" s="67"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B24" s="64"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="66"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="66"/>
+      <c r="L24" s="66"/>
+      <c r="M24" s="67"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="64"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="65"/>
-      <c r="M25" s="66"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="66"/>
+      <c r="M25" s="67"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="64"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="65"/>
-      <c r="M26" s="66"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="66"/>
+      <c r="K26" s="66"/>
+      <c r="L26" s="66"/>
+      <c r="M26" s="67"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="67"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="68"/>
-      <c r="I27" s="68"/>
-      <c r="J27" s="68"/>
-      <c r="K27" s="68"/>
-      <c r="L27" s="68"/>
-      <c r="M27" s="69"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="69"/>
+      <c r="J27" s="69"/>
+      <c r="K27" s="69"/>
+      <c r="L27" s="69"/>
+      <c r="M27" s="70"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="52" t="s">
+      <c r="B28" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="52"/>
-      <c r="M28" s="52"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="53"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="43" t="s">
+      <c r="B29" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="44"/>
-      <c r="M29" s="45"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="45"/>
+      <c r="M29" s="46"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="46"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="47"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="47"/>
-      <c r="M30" s="48"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="49"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="46"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
-      <c r="K31" s="47"/>
-      <c r="L31" s="47"/>
-      <c r="M31" s="48"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="48"/>
+      <c r="M31" s="49"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="46"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="47"/>
-      <c r="J32" s="47"/>
-      <c r="K32" s="47"/>
-      <c r="L32" s="47"/>
-      <c r="M32" s="48"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="48"/>
+      <c r="M32" s="49"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" s="46"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="47"/>
-      <c r="K33" s="47"/>
-      <c r="L33" s="47"/>
-      <c r="M33" s="48"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="48"/>
+      <c r="K33" s="48"/>
+      <c r="L33" s="48"/>
+      <c r="M33" s="49"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B34" s="46"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="47"/>
-      <c r="I34" s="47"/>
-      <c r="J34" s="47"/>
-      <c r="K34" s="47"/>
-      <c r="L34" s="47"/>
-      <c r="M34" s="48"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="48"/>
+      <c r="K34" s="48"/>
+      <c r="L34" s="48"/>
+      <c r="M34" s="49"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="49"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="50"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="50"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="50"/>
-      <c r="I35" s="50"/>
-      <c r="J35" s="50"/>
-      <c r="K35" s="50"/>
-      <c r="L35" s="50"/>
-      <c r="M35" s="51"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="51"/>
+      <c r="L35" s="51"/>
+      <c r="M35" s="52"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B36" s="52" t="s">
+      <c r="B36" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="52"/>
-      <c r="J36" s="52"/>
-      <c r="K36" s="52"/>
-      <c r="L36" s="52"/>
-      <c r="M36" s="52"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="53"/>
+      <c r="J36" s="53"/>
+      <c r="K36" s="53"/>
+      <c r="L36" s="53"/>
+      <c r="M36" s="53"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B37" s="61" t="s">
+      <c r="B37" s="62" t="s">
         <v>127</v>
       </c>
-      <c r="C37" s="70"/>
-      <c r="D37" s="70"/>
-      <c r="E37" s="70"/>
-      <c r="F37" s="70"/>
-      <c r="G37" s="70"/>
-      <c r="H37" s="70"/>
-      <c r="I37" s="70"/>
-      <c r="J37" s="70"/>
-      <c r="K37" s="70"/>
-      <c r="L37" s="70"/>
-      <c r="M37" s="71"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="71"/>
+      <c r="I37" s="71"/>
+      <c r="J37" s="71"/>
+      <c r="K37" s="71"/>
+      <c r="L37" s="71"/>
+      <c r="M37" s="72"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B38" s="72"/>
-      <c r="C38" s="73"/>
-      <c r="D38" s="73"/>
-      <c r="E38" s="73"/>
-      <c r="F38" s="73"/>
-      <c r="G38" s="73"/>
-      <c r="H38" s="73"/>
-      <c r="I38" s="73"/>
-      <c r="J38" s="73"/>
-      <c r="K38" s="73"/>
-      <c r="L38" s="73"/>
-      <c r="M38" s="74"/>
+      <c r="B38" s="73"/>
+      <c r="C38" s="74"/>
+      <c r="D38" s="74"/>
+      <c r="E38" s="74"/>
+      <c r="F38" s="74"/>
+      <c r="G38" s="74"/>
+      <c r="H38" s="74"/>
+      <c r="I38" s="74"/>
+      <c r="J38" s="74"/>
+      <c r="K38" s="74"/>
+      <c r="L38" s="74"/>
+      <c r="M38" s="75"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B39" s="72"/>
-      <c r="C39" s="73"/>
-      <c r="D39" s="73"/>
-      <c r="E39" s="73"/>
-      <c r="F39" s="73"/>
-      <c r="G39" s="73"/>
-      <c r="H39" s="73"/>
-      <c r="I39" s="73"/>
-      <c r="J39" s="73"/>
-      <c r="K39" s="73"/>
-      <c r="L39" s="73"/>
-      <c r="M39" s="74"/>
+      <c r="B39" s="73"/>
+      <c r="C39" s="74"/>
+      <c r="D39" s="74"/>
+      <c r="E39" s="74"/>
+      <c r="F39" s="74"/>
+      <c r="G39" s="74"/>
+      <c r="H39" s="74"/>
+      <c r="I39" s="74"/>
+      <c r="J39" s="74"/>
+      <c r="K39" s="74"/>
+      <c r="L39" s="74"/>
+      <c r="M39" s="75"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B40" s="72"/>
-      <c r="C40" s="73"/>
-      <c r="D40" s="73"/>
-      <c r="E40" s="73"/>
-      <c r="F40" s="73"/>
-      <c r="G40" s="73"/>
-      <c r="H40" s="73"/>
-      <c r="I40" s="73"/>
-      <c r="J40" s="73"/>
-      <c r="K40" s="73"/>
-      <c r="L40" s="73"/>
-      <c r="M40" s="74"/>
+      <c r="B40" s="73"/>
+      <c r="C40" s="74"/>
+      <c r="D40" s="74"/>
+      <c r="E40" s="74"/>
+      <c r="F40" s="74"/>
+      <c r="G40" s="74"/>
+      <c r="H40" s="74"/>
+      <c r="I40" s="74"/>
+      <c r="J40" s="74"/>
+      <c r="K40" s="74"/>
+      <c r="L40" s="74"/>
+      <c r="M40" s="75"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="75"/>
-      <c r="C41" s="76"/>
-      <c r="D41" s="76"/>
-      <c r="E41" s="76"/>
-      <c r="F41" s="76"/>
-      <c r="G41" s="76"/>
-      <c r="H41" s="76"/>
-      <c r="I41" s="76"/>
-      <c r="J41" s="76"/>
-      <c r="K41" s="76"/>
-      <c r="L41" s="76"/>
-      <c r="M41" s="77"/>
+      <c r="B41" s="76"/>
+      <c r="C41" s="77"/>
+      <c r="D41" s="77"/>
+      <c r="E41" s="77"/>
+      <c r="F41" s="77"/>
+      <c r="G41" s="77"/>
+      <c r="H41" s="77"/>
+      <c r="I41" s="77"/>
+      <c r="J41" s="77"/>
+      <c r="K41" s="77"/>
+      <c r="L41" s="77"/>
+      <c r="M41" s="78"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B42" s="52" t="s">
+      <c r="B42" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="52"/>
-      <c r="D42" s="52"/>
-      <c r="E42" s="52"/>
-      <c r="F42" s="52"/>
-      <c r="G42" s="52"/>
-      <c r="H42" s="52"/>
-      <c r="I42" s="52"/>
-      <c r="J42" s="52"/>
-      <c r="K42" s="52"/>
-      <c r="L42" s="52"/>
-      <c r="M42" s="52"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="53"/>
+      <c r="H42" s="53"/>
+      <c r="I42" s="53"/>
+      <c r="J42" s="53"/>
+      <c r="K42" s="53"/>
+      <c r="L42" s="53"/>
+      <c r="M42" s="53"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B43" s="43" t="s">
+      <c r="B43" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="C43" s="44"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="44"/>
-      <c r="G43" s="44"/>
-      <c r="H43" s="44"/>
-      <c r="I43" s="44"/>
-      <c r="J43" s="44"/>
-      <c r="K43" s="44"/>
-      <c r="L43" s="44"/>
-      <c r="M43" s="45"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="45"/>
+      <c r="E43" s="45"/>
+      <c r="F43" s="45"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="45"/>
+      <c r="I43" s="45"/>
+      <c r="J43" s="45"/>
+      <c r="K43" s="45"/>
+      <c r="L43" s="45"/>
+      <c r="M43" s="46"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B44" s="46"/>
-      <c r="C44" s="47"/>
-      <c r="D44" s="47"/>
-      <c r="E44" s="47"/>
-      <c r="F44" s="47"/>
-      <c r="G44" s="47"/>
-      <c r="H44" s="47"/>
-      <c r="I44" s="47"/>
-      <c r="J44" s="47"/>
-      <c r="K44" s="47"/>
-      <c r="L44" s="47"/>
-      <c r="M44" s="48"/>
+      <c r="B44" s="47"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="48"/>
+      <c r="H44" s="48"/>
+      <c r="I44" s="48"/>
+      <c r="J44" s="48"/>
+      <c r="K44" s="48"/>
+      <c r="L44" s="48"/>
+      <c r="M44" s="49"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B45" s="46"/>
-      <c r="C45" s="47"/>
-      <c r="D45" s="47"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="47"/>
-      <c r="G45" s="47"/>
-      <c r="H45" s="47"/>
-      <c r="I45" s="47"/>
-      <c r="J45" s="47"/>
-      <c r="K45" s="47"/>
-      <c r="L45" s="47"/>
-      <c r="M45" s="48"/>
+      <c r="B45" s="47"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="48"/>
+      <c r="H45" s="48"/>
+      <c r="I45" s="48"/>
+      <c r="J45" s="48"/>
+      <c r="K45" s="48"/>
+      <c r="L45" s="48"/>
+      <c r="M45" s="49"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="46"/>
-      <c r="C46" s="47"/>
-      <c r="D46" s="47"/>
-      <c r="E46" s="47"/>
-      <c r="F46" s="47"/>
-      <c r="G46" s="47"/>
-      <c r="H46" s="47"/>
-      <c r="I46" s="47"/>
-      <c r="J46" s="47"/>
-      <c r="K46" s="47"/>
-      <c r="L46" s="47"/>
-      <c r="M46" s="48"/>
+      <c r="B46" s="47"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="48"/>
+      <c r="H46" s="48"/>
+      <c r="I46" s="48"/>
+      <c r="J46" s="48"/>
+      <c r="K46" s="48"/>
+      <c r="L46" s="48"/>
+      <c r="M46" s="49"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B47" s="46"/>
-      <c r="C47" s="47"/>
-      <c r="D47" s="47"/>
-      <c r="E47" s="47"/>
-      <c r="F47" s="47"/>
-      <c r="G47" s="47"/>
-      <c r="H47" s="47"/>
-      <c r="I47" s="47"/>
-      <c r="J47" s="47"/>
-      <c r="K47" s="47"/>
-      <c r="L47" s="47"/>
-      <c r="M47" s="48"/>
+      <c r="B47" s="47"/>
+      <c r="C47" s="48"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="48"/>
+      <c r="H47" s="48"/>
+      <c r="I47" s="48"/>
+      <c r="J47" s="48"/>
+      <c r="K47" s="48"/>
+      <c r="L47" s="48"/>
+      <c r="M47" s="49"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B48" s="46"/>
-      <c r="C48" s="47"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="47"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="47"/>
-      <c r="H48" s="47"/>
-      <c r="I48" s="47"/>
-      <c r="J48" s="47"/>
-      <c r="K48" s="47"/>
-      <c r="L48" s="47"/>
-      <c r="M48" s="48"/>
+      <c r="B48" s="47"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="48"/>
+      <c r="H48" s="48"/>
+      <c r="I48" s="48"/>
+      <c r="J48" s="48"/>
+      <c r="K48" s="48"/>
+      <c r="L48" s="48"/>
+      <c r="M48" s="49"/>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B49" s="49"/>
-      <c r="C49" s="50"/>
-      <c r="D49" s="50"/>
-      <c r="E49" s="50"/>
-      <c r="F49" s="50"/>
-      <c r="G49" s="50"/>
-      <c r="H49" s="50"/>
-      <c r="I49" s="50"/>
-      <c r="J49" s="50"/>
-      <c r="K49" s="50"/>
-      <c r="L49" s="50"/>
-      <c r="M49" s="51"/>
+      <c r="B49" s="50"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="51"/>
+      <c r="E49" s="51"/>
+      <c r="F49" s="51"/>
+      <c r="G49" s="51"/>
+      <c r="H49" s="51"/>
+      <c r="I49" s="51"/>
+      <c r="J49" s="51"/>
+      <c r="K49" s="51"/>
+      <c r="L49" s="51"/>
+      <c r="M49" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -3563,10 +3563,10 @@
   <sheetData>
     <row r="1" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="79"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
+      <c r="A2" s="80"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
       <c r="E2" s="12" t="s">
         <v>3</v>
       </c>
@@ -3581,10 +3581,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="78">
+      <c r="A3" s="79">
         <v>1</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="79" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="7">
@@ -3607,8 +3607,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="78"/>
-      <c r="B4" s="78"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="79"/>
       <c r="C4" s="7">
         <v>1.2</v>
       </c>
@@ -3629,8 +3629,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="78"/>
-      <c r="B5" s="78"/>
+      <c r="A5" s="79"/>
+      <c r="B5" s="79"/>
       <c r="C5" s="7">
         <v>1.3</v>
       </c>
@@ -3651,8 +3651,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="78"/>
-      <c r="B6" s="78"/>
+      <c r="A6" s="79"/>
+      <c r="B6" s="79"/>
       <c r="C6" s="7">
         <v>1.4</v>
       </c>
@@ -3673,10 +3673,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="80">
+      <c r="A7" s="81">
         <v>2</v>
       </c>
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="79" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="7">
@@ -3699,8 +3699,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="81"/>
-      <c r="B8" s="78"/>
+      <c r="A8" s="82"/>
+      <c r="B8" s="79"/>
       <c r="C8" s="7">
         <v>2.2000000000000002</v>
       </c>
@@ -3721,8 +3721,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="82"/>
-      <c r="B9" s="78"/>
+      <c r="A9" s="83"/>
+      <c r="B9" s="79"/>
       <c r="C9" s="7">
         <v>2.2999999999999998</v>
       </c>
@@ -3743,10 +3743,10 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="78">
+      <c r="A10" s="79">
         <v>3</v>
       </c>
-      <c r="B10" s="78" t="s">
+      <c r="B10" s="79" t="s">
         <v>38</v>
       </c>
       <c r="C10" s="9">
@@ -3769,8 +3769,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="78"/>
-      <c r="B11" s="78"/>
+      <c r="A11" s="79"/>
+      <c r="B11" s="79"/>
       <c r="C11" s="9">
         <v>3.2</v>
       </c>
@@ -3791,8 +3791,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="78"/>
-      <c r="B12" s="78"/>
+      <c r="A12" s="79"/>
+      <c r="B12" s="79"/>
       <c r="C12" s="9">
         <v>3.3</v>
       </c>
@@ -3813,8 +3813,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="78"/>
-      <c r="B13" s="78"/>
+      <c r="A13" s="79"/>
+      <c r="B13" s="79"/>
       <c r="C13" s="9">
         <v>3.4</v>
       </c>
@@ -3835,8 +3835,8 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="78"/>
-      <c r="B14" s="78"/>
+      <c r="A14" s="79"/>
+      <c r="B14" s="79"/>
       <c r="C14" s="9">
         <v>3.5</v>
       </c>
@@ -3857,8 +3857,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="78"/>
-      <c r="B15" s="78"/>
+      <c r="A15" s="79"/>
+      <c r="B15" s="79"/>
       <c r="C15" s="9">
         <v>3.6</v>
       </c>
@@ -3879,8 +3879,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="78"/>
-      <c r="B16" s="78"/>
+      <c r="A16" s="79"/>
+      <c r="B16" s="79"/>
       <c r="C16" s="9">
         <v>3.7</v>
       </c>
@@ -3901,8 +3901,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="78"/>
-      <c r="B17" s="78"/>
+      <c r="A17" s="79"/>
+      <c r="B17" s="79"/>
       <c r="C17" s="9">
         <v>3.8</v>
       </c>
@@ -3923,8 +3923,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="78"/>
-      <c r="B18" s="78"/>
+      <c r="A18" s="79"/>
+      <c r="B18" s="79"/>
       <c r="C18" s="9">
         <v>3.9</v>
       </c>
@@ -3945,8 +3945,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="78"/>
-      <c r="B19" s="78"/>
+      <c r="A19" s="79"/>
+      <c r="B19" s="79"/>
       <c r="C19" s="9" t="s">
         <v>51</v>
       </c>
@@ -3967,8 +3967,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="78"/>
-      <c r="B20" s="78"/>
+      <c r="A20" s="79"/>
+      <c r="B20" s="79"/>
       <c r="C20" s="9">
         <v>3.11</v>
       </c>
@@ -3989,8 +3989,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="78"/>
-      <c r="B21" s="78"/>
+      <c r="A21" s="79"/>
+      <c r="B21" s="79"/>
       <c r="C21" s="9">
         <v>3.12</v>
       </c>
@@ -4011,10 +4011,10 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="78">
+      <c r="A22" s="79">
         <v>4</v>
       </c>
-      <c r="B22" s="80" t="s">
+      <c r="B22" s="81" t="s">
         <v>53</v>
       </c>
       <c r="C22" s="7">
@@ -4037,8 +4037,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="78"/>
-      <c r="B23" s="81"/>
+      <c r="A23" s="79"/>
+      <c r="B23" s="82"/>
       <c r="C23" s="7">
         <v>4.2</v>
       </c>
@@ -4059,8 +4059,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="78"/>
-      <c r="B24" s="81"/>
+      <c r="A24" s="79"/>
+      <c r="B24" s="82"/>
       <c r="C24" s="7">
         <v>4.3</v>
       </c>
@@ -4081,8 +4081,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="78"/>
-      <c r="B25" s="81"/>
+      <c r="A25" s="79"/>
+      <c r="B25" s="82"/>
       <c r="C25" s="7">
         <v>4.4000000000000004</v>
       </c>
@@ -4103,8 +4103,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="78"/>
-      <c r="B26" s="81"/>
+      <c r="A26" s="79"/>
+      <c r="B26" s="82"/>
       <c r="C26" s="7">
         <v>4.5</v>
       </c>
@@ -4125,8 +4125,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="78"/>
-      <c r="B27" s="81"/>
+      <c r="A27" s="79"/>
+      <c r="B27" s="82"/>
       <c r="C27" s="7">
         <v>4.5999999999999996</v>
       </c>
@@ -4147,8 +4147,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="78"/>
-      <c r="B28" s="81"/>
+      <c r="A28" s="79"/>
+      <c r="B28" s="82"/>
       <c r="C28" s="7">
         <v>4.7</v>
       </c>
@@ -4169,8 +4169,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="78"/>
-      <c r="B29" s="81"/>
+      <c r="A29" s="79"/>
+      <c r="B29" s="82"/>
       <c r="C29" s="7">
         <v>4.8</v>
       </c>
@@ -4191,10 +4191,10 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="78">
+      <c r="A30" s="79">
         <v>5</v>
       </c>
-      <c r="B30" s="78" t="s">
+      <c r="B30" s="79" t="s">
         <v>63</v>
       </c>
       <c r="C30" s="7">
@@ -4217,8 +4217,8 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="78"/>
-      <c r="B31" s="78"/>
+      <c r="A31" s="79"/>
+      <c r="B31" s="79"/>
       <c r="C31" s="7">
         <v>5.2</v>
       </c>
@@ -4239,8 +4239,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="78"/>
-      <c r="B32" s="78"/>
+      <c r="A32" s="79"/>
+      <c r="B32" s="79"/>
       <c r="C32" s="7">
         <v>5.3</v>
       </c>
@@ -4261,8 +4261,8 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="78"/>
-      <c r="B33" s="78"/>
+      <c r="A33" s="79"/>
+      <c r="B33" s="79"/>
       <c r="C33" s="7">
         <v>5.4</v>
       </c>
@@ -4283,8 +4283,8 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="78"/>
-      <c r="B34" s="78"/>
+      <c r="A34" s="79"/>
+      <c r="B34" s="79"/>
       <c r="C34" s="7">
         <v>5.5</v>
       </c>
@@ -4305,8 +4305,8 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" s="78"/>
-      <c r="B35" s="78"/>
+      <c r="A35" s="79"/>
+      <c r="B35" s="79"/>
       <c r="C35" s="7">
         <v>5.6</v>
       </c>
@@ -4327,8 +4327,8 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A36" s="78"/>
-      <c r="B36" s="78"/>
+      <c r="A36" s="79"/>
+      <c r="B36" s="79"/>
       <c r="C36" s="7">
         <v>5.7</v>
       </c>
@@ -4349,10 +4349,10 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" s="78">
+      <c r="A37" s="79">
         <v>6</v>
       </c>
-      <c r="B37" s="78" t="s">
+      <c r="B37" s="79" t="s">
         <v>72</v>
       </c>
       <c r="C37" s="7">
@@ -4375,8 +4375,8 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A38" s="78"/>
-      <c r="B38" s="78"/>
+      <c r="A38" s="79"/>
+      <c r="B38" s="79"/>
       <c r="C38" s="7">
         <v>6.2</v>
       </c>
@@ -4397,8 +4397,8 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A39" s="78"/>
-      <c r="B39" s="78"/>
+      <c r="A39" s="79"/>
+      <c r="B39" s="79"/>
       <c r="C39" s="7">
         <v>6.3</v>
       </c>
@@ -4419,8 +4419,8 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A40" s="78"/>
-      <c r="B40" s="78"/>
+      <c r="A40" s="79"/>
+      <c r="B40" s="79"/>
       <c r="C40" s="7">
         <v>6.4</v>
       </c>
@@ -4441,8 +4441,8 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A41" s="78"/>
-      <c r="B41" s="78"/>
+      <c r="A41" s="79"/>
+      <c r="B41" s="79"/>
       <c r="C41" s="7">
         <v>6.5</v>
       </c>
@@ -4463,8 +4463,8 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A42" s="78"/>
-      <c r="B42" s="78"/>
+      <c r="A42" s="79"/>
+      <c r="B42" s="79"/>
       <c r="C42" s="7">
         <v>6.6</v>
       </c>
@@ -4805,7 +4805,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AH14" sqref="AH14"/>
+      <selection pane="bottomRight" activeCell="Y8" sqref="Y8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4820,60 +4820,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="88"/>
-      <c r="B1" s="88"/>
-      <c r="C1" s="90" t="s">
+      <c r="A1" s="89"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="91" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="83" t="s">
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="84" t="s">
         <v>76</v>
       </c>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
-      <c r="W1" s="84"/>
-      <c r="X1" s="84"/>
-      <c r="Y1" s="84"/>
-      <c r="Z1" s="84"/>
-      <c r="AA1" s="84"/>
-      <c r="AB1" s="84"/>
-      <c r="AC1" s="84"/>
-      <c r="AD1" s="84"/>
-      <c r="AE1" s="84"/>
-      <c r="AF1" s="84"/>
-      <c r="AG1" s="84"/>
-      <c r="AH1" s="84"/>
-      <c r="AI1" s="84"/>
-      <c r="AJ1" s="84"/>
-      <c r="AK1" s="84"/>
-      <c r="AL1" s="84"/>
-      <c r="AM1" s="84"/>
-      <c r="AN1" s="84"/>
-      <c r="AO1" s="84"/>
-      <c r="AP1" s="84"/>
-      <c r="AQ1" s="84"/>
-      <c r="AR1" s="84"/>
-      <c r="AS1" s="84"/>
-      <c r="AT1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
+      <c r="W1" s="85"/>
+      <c r="X1" s="85"/>
+      <c r="Y1" s="85"/>
+      <c r="Z1" s="85"/>
+      <c r="AA1" s="85"/>
+      <c r="AB1" s="85"/>
+      <c r="AC1" s="85"/>
+      <c r="AD1" s="85"/>
+      <c r="AE1" s="85"/>
+      <c r="AF1" s="85"/>
+      <c r="AG1" s="85"/>
+      <c r="AH1" s="85"/>
+      <c r="AI1" s="85"/>
+      <c r="AJ1" s="85"/>
+      <c r="AK1" s="85"/>
+      <c r="AL1" s="85"/>
+      <c r="AM1" s="85"/>
+      <c r="AN1" s="85"/>
+      <c r="AO1" s="85"/>
+      <c r="AP1" s="85"/>
+      <c r="AQ1" s="85"/>
+      <c r="AR1" s="85"/>
+      <c r="AS1" s="85"/>
+      <c r="AT1" s="86"/>
     </row>
     <row r="2" spans="1:58" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="90"/>
       <c r="C2" s="16">
         <v>18</v>
       </c>
@@ -5026,9 +5026,9 @@
       <c r="B3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
@@ -5464,10 +5464,10 @@
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
       <c r="J11" s="19"/>
-      <c r="K11" s="91"/>
-      <c r="L11" s="91"/>
-      <c r="M11" s="91"/>
-      <c r="N11" s="91"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
       <c r="O11" s="19"/>
       <c r="P11" s="19"/>
       <c r="Q11" s="19"/>
@@ -5516,10 +5516,10 @@
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
       <c r="J12" s="19"/>
-      <c r="K12" s="91"/>
-      <c r="L12" s="91"/>
-      <c r="M12" s="91"/>
-      <c r="N12" s="91"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
       <c r="O12" s="19"/>
       <c r="P12" s="19"/>
       <c r="Q12" s="19"/>
@@ -5572,7 +5572,7 @@
       <c r="L13" s="19"/>
       <c r="M13" s="19"/>
       <c r="N13" s="19"/>
-      <c r="O13" s="22"/>
+      <c r="O13" s="40"/>
       <c r="P13" s="19"/>
       <c r="Q13" s="19"/>
       <c r="R13" s="19"/>
@@ -5625,10 +5625,10 @@
       <c r="M14" s="19"/>
       <c r="N14" s="19"/>
       <c r="O14" s="19"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="43"/>
+      <c r="R14" s="43"/>
+      <c r="S14" s="43"/>
       <c r="T14" s="19"/>
       <c r="U14" s="19"/>
       <c r="V14" s="19"/>
@@ -5677,9 +5677,9 @@
       <c r="M15" s="19"/>
       <c r="N15" s="19"/>
       <c r="O15" s="19"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="43"/>
+      <c r="R15" s="43"/>
       <c r="S15" s="19"/>
       <c r="T15" s="19"/>
       <c r="U15" s="19"/>
@@ -8211,306 +8211,306 @@
   <sheetData>
     <row r="1" spans="2:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="46"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B4" s="46"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="48"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="49"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B5" s="46"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="48"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="49"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B6" s="46"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="48"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="49"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B7" s="46"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="48"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="49"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B8" s="46"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="48"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="49"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B9" s="49"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="51"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="52"/>
     </row>
     <row r="10" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="52"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="46"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B12" s="46"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="48"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="49"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B13" s="46"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="48"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="49"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B14" s="46"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="48"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="49"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B15" s="46"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="48"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="49"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B16" s="46"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="48"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="49"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B17" s="46"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="48"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="49"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B18" s="46"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="48"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="49"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B19" s="46"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="48"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="49"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B20" s="46"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="48"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="49"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B21" s="46"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="48"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="49"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B22" s="49"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="51"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -8539,232 +8539,232 @@
   <sheetData>
     <row r="1" spans="2:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="43"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="45"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="46"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B4" s="46"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="48"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="49"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B5" s="46"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="48"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="49"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B6" s="46"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="48"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="49"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B7" s="46"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="48"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="49"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B8" s="46"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="48"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="49"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B9" s="49"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="51"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="52"/>
     </row>
     <row r="10" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="52"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B11" s="43"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="45"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="46"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B12" s="46"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="48"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="49"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B13" s="46"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="48"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="49"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B14" s="46"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="48"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="49"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B15" s="46"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="48"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="49"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B16" s="46"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="48"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="49"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B17" s="49"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="51"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/01_doc/proj_plan/餐厅订餐系统_项目计划.xlsx
+++ b/01_doc/proj_plan/餐厅订餐系统_项目计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="2100" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="00_文档历史" sheetId="11" r:id="rId1"/>
@@ -4802,10 +4802,10 @@
   <dimension ref="A1:BF50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Y8" sqref="Y8"/>
+      <selection pane="bottomRight" activeCell="W30" sqref="W30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6299,8 +6299,8 @@
       <c r="L27" s="19"/>
       <c r="M27" s="19"/>
       <c r="N27" s="19"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="22"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="40"/>
       <c r="Q27" s="19"/>
       <c r="R27" s="19"/>
       <c r="S27" s="19"/>
@@ -6353,8 +6353,8 @@
       <c r="N28" s="19"/>
       <c r="O28" s="19"/>
       <c r="P28" s="19"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="22"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="40"/>
       <c r="S28" s="19"/>
       <c r="T28" s="19"/>
       <c r="U28" s="19"/>
@@ -6407,9 +6407,9 @@
       <c r="P29" s="19"/>
       <c r="Q29" s="19"/>
       <c r="R29" s="19"/>
-      <c r="S29" s="22"/>
-      <c r="T29" s="22"/>
-      <c r="U29" s="22"/>
+      <c r="S29" s="40"/>
+      <c r="T29" s="40"/>
+      <c r="U29" s="40"/>
       <c r="V29" s="19"/>
       <c r="W29" s="19"/>
       <c r="X29" s="19"/>

--- a/01_doc/proj_plan/餐厅订餐系统_项目计划.xlsx
+++ b/01_doc/proj_plan/餐厅订餐系统_项目计划.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" showInkAnnotation="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="2100" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="00_文档历史" sheetId="11" r:id="rId1"/>
@@ -12,11 +12,12 @@
     <sheet name="02_项目边界" sheetId="2" r:id="rId3"/>
     <sheet name="03_任务分解" sheetId="3" r:id="rId4"/>
     <sheet name="04_项目进度" sheetId="4" r:id="rId5"/>
-    <sheet name="05_风险管理" sheetId="5" r:id="rId6"/>
-    <sheet name="06_问题日志" sheetId="12" r:id="rId7"/>
-    <sheet name="07_沟通计划" sheetId="10" r:id="rId8"/>
-    <sheet name="08_验收条件" sheetId="8" r:id="rId9"/>
-    <sheet name="Lengend" sheetId="9" r:id="rId10"/>
+    <sheet name="04_项目进度(二期)" sheetId="13" r:id="rId6"/>
+    <sheet name="05_风险管理" sheetId="5" r:id="rId7"/>
+    <sheet name="06_问题日志" sheetId="12" r:id="rId8"/>
+    <sheet name="07_沟通计划" sheetId="10" r:id="rId9"/>
+    <sheet name="08_验收条件" sheetId="8" r:id="rId10"/>
+    <sheet name="Lengend" sheetId="9" r:id="rId11"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -492,8 +493,524 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="E3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Aaron</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Aaron/Lin</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Lin</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Lin
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Aaron</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Aaron</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Annie</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Aaron</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Leon</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Aaron</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Annie</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Aaron</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z15" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Leon</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD16" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Aaron/Lin</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Annie</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AR18" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Aaron/Lin</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AT19" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Aaron/Lin</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AT20" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Annie</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BD21" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Lin
+Aaron will quit after 6 days</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BB22" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Aaron</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BB23" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Annie</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="189">
   <si>
     <t>姓名</t>
   </si>
@@ -630,15 +1147,6 @@
     <t>移动系统原型设计</t>
   </si>
   <si>
-    <t>模块1详细设计</t>
-  </si>
-  <si>
-    <t>模块2详细设计</t>
-  </si>
-  <si>
-    <t>模块3详细设计</t>
-  </si>
-  <si>
     <t>模块4详细设计</t>
   </si>
   <si>
@@ -666,15 +1174,6 @@
     <t>测试策略编制</t>
   </si>
   <si>
-    <t>模块1测试用例</t>
-  </si>
-  <si>
-    <t>模块2测试用例</t>
-  </si>
-  <si>
-    <t>模块3测试用例</t>
-  </si>
-  <si>
     <t>模块4测试用例</t>
   </si>
   <si>
@@ -691,15 +1190,6 @@
   </si>
   <si>
     <t>系统开发</t>
-  </si>
-  <si>
-    <t>模块1实现</t>
-  </si>
-  <si>
-    <t>模块2实现</t>
-  </si>
-  <si>
-    <t>模块3实现</t>
   </si>
   <si>
     <t>模块4实现</t>
@@ -944,6 +1434,116 @@
   </si>
   <si>
     <t>修改模块名称</t>
+  </si>
+  <si>
+    <t>菜品浏览模块详细设计</t>
+  </si>
+  <si>
+    <t>菜品浏览模块测试用例</t>
+  </si>
+  <si>
+    <t>菜品浏览模块实现</t>
+  </si>
+  <si>
+    <t>1. 罗智负责对外与委托人进行沟通
+2. 罗智负责交付物提交委托人Git仓库
+3. 罗智负责按里程碑列表提交交付物
+4. 罗智参与委托人项目需求，技术，交付物评审沟通
+5. 罗智负责每周提交项目进度周报
+6. 罗智负责每2-3天与委托人就项目进度，遇到的问题，需求澄清已经交付物反馈进行沟通，沟通时间暂定中午1点20分左右。</t>
+  </si>
+  <si>
+    <t>正在解决</t>
+  </si>
+  <si>
+    <t>已经解决</t>
+  </si>
+  <si>
+    <t>以后解决</t>
+  </si>
+  <si>
+    <t>关闭</t>
+  </si>
+  <si>
+    <t>问题标题</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>问题描述</t>
+  </si>
+  <si>
+    <t>提交人</t>
+  </si>
+  <si>
+    <t>提交日期</t>
+  </si>
+  <si>
+    <t>问题分析人</t>
+  </si>
+  <si>
+    <t>计划解决日期</t>
+  </si>
+  <si>
+    <t>解决方法</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>客户review文档周期过长？</t>
+  </si>
+  <si>
+    <t>代码优化</t>
+  </si>
+  <si>
+    <t>Hibernate架构重构</t>
+  </si>
+  <si>
+    <t>代码结构重构</t>
+  </si>
+  <si>
+    <t>Tiles模板</t>
+  </si>
+  <si>
+    <t>用户权限模块详细设计</t>
+  </si>
+  <si>
+    <t>用户权限模块测试用例</t>
+  </si>
+  <si>
+    <t>用户权限模块实现</t>
+  </si>
+  <si>
+    <t>移动点菜模块详细设计</t>
+  </si>
+  <si>
+    <t>移动点菜模块测试用例</t>
+  </si>
+  <si>
+    <t>移动点菜模块实现</t>
+  </si>
+  <si>
+    <t>菜单管理模块详细设计</t>
+  </si>
+  <si>
+    <t>菜单管理模块测试用例</t>
+  </si>
+  <si>
+    <t>菜单管理模块实现</t>
+  </si>
+  <si>
+    <t>会员管理模块详细设计</t>
+  </si>
+  <si>
+    <t>会员管理模块测试用例</t>
+  </si>
+  <si>
+    <t>会员管理模块实现</t>
+  </si>
+  <si>
+    <t>文档更新</t>
   </si>
   <si>
     <r>
@@ -990,77 +1590,67 @@
       <t>1. 用户管理
 2. 会员管理
 3. 菜品管理
-4. 菜品浏览（含Android)
-5. 点菜下单（含Android)
-6. 收银结帐（含Android)
-7. 流水管理</t>
+4. 点菜下单（含Android)
+5. 收银结帐（含Android)</t>
     </r>
   </si>
   <si>
-    <t>菜品浏览模块详细设计</t>
-  </si>
-  <si>
-    <t>菜品浏览模块测试用例</t>
-  </si>
-  <si>
-    <t>菜品浏览模块实现</t>
-  </si>
-  <si>
-    <t>1. 罗智负责对外与委托人进行沟通
-2. 罗智负责交付物提交委托人Git仓库
-3. 罗智负责按里程碑列表提交交付物
-4. 罗智参与委托人项目需求，技术，交付物评审沟通
-5. 罗智负责每周提交项目进度周报
-6. 罗智负责每2-3天与委托人就项目进度，遇到的问题，需求澄清已经交付物反馈进行沟通，沟通时间暂定中午1点20分左右。</t>
-  </si>
-  <si>
-    <t>正在解决</t>
-  </si>
-  <si>
-    <t>已经解决</t>
-  </si>
-  <si>
-    <t>以后解决</t>
-  </si>
-  <si>
-    <t>关闭</t>
-  </si>
-  <si>
-    <t>问题标题</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>问题描述</t>
-  </si>
-  <si>
-    <t>提交人</t>
-  </si>
-  <si>
-    <t>提交日期</t>
-  </si>
-  <si>
-    <t>问题分析人</t>
-  </si>
-  <si>
-    <t>计划解决日期</t>
-  </si>
-  <si>
-    <t>解决方法</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>客户review文档周期过长？</t>
+    <t>3月</t>
+  </si>
+  <si>
+    <t>4月</t>
+  </si>
+  <si>
+    <t>新UI</t>
+  </si>
+  <si>
+    <t>移动点菜-下单功能详细设计</t>
+  </si>
+  <si>
+    <t>移动点菜-下单功能测试用例</t>
+  </si>
+  <si>
+    <t>移动点菜-下单功能模块实现(WS)</t>
+  </si>
+  <si>
+    <t>移动点菜-下单功能模块实现(Android)</t>
+  </si>
+  <si>
+    <t>移动点菜-历史订单详细设计</t>
+  </si>
+  <si>
+    <t>移动点菜-历史订单测试用例</t>
+  </si>
+  <si>
+    <t>移动点菜-历史订单模块实现(WS)</t>
+  </si>
+  <si>
+    <t>移动点菜-历史订单模块实现(Android)</t>
+  </si>
+  <si>
+    <t>收银管理模块详细设计</t>
+  </si>
+  <si>
+    <t>收银管理模块测试用例</t>
+  </si>
+  <si>
+    <t>收银管理模块实现</t>
+  </si>
+  <si>
+    <t>任务分解WBS</t>
+  </si>
+  <si>
+    <t>工时(人时）</t>
+  </si>
+  <si>
+    <t>5月</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1153,6 +1743,27 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Symbol"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1392,7 +2003,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1459,6 +2070,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1603,11 +2223,593 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="80">
+  <dxfs count="160">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2485,24 +3687,24 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B2" s="37">
         <v>41962</v>
@@ -2511,15 +3713,15 @@
         <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B3" s="37">
         <v>41963</v>
@@ -2528,15 +3730,15 @@
         <v>3</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B4" s="37">
         <v>41963</v>
@@ -2545,10 +3747,10 @@
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -2578,6 +3780,260 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:M17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:M17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="1.28515625" style="5" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="49"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B4" s="50"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="52"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="52"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B6" s="50"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="52"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B7" s="50"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="52"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B8" s="50"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="52"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B9" s="53"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="55"/>
+    </row>
+    <row r="10" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B11" s="47"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="49"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B12" s="50"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="52"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B13" s="50"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="52"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B14" s="50"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="52"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B15" s="50"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="52"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B16" s="50"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="52"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B17" s="53"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="55"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M9"/>
+    <mergeCell ref="B10:M10"/>
+    <mergeCell ref="B11:M17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2649,68 +4105,68 @@
     </row>
     <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" t="s">
+        <v>110</v>
+      </c>
+      <c r="E12" t="s">
         <v>116</v>
       </c>
-      <c r="C12" t="s">
-        <v>119</v>
-      </c>
-      <c r="E12" t="s">
-        <v>125</v>
-      </c>
       <c r="G12" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E13" t="s">
         <v>117</v>
       </c>
-      <c r="C13" t="s">
-        <v>120</v>
-      </c>
-      <c r="E13" t="s">
-        <v>126</v>
-      </c>
       <c r="G13" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B14" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C14" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="G14" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="G15" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2795,7 +4251,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E6" s="4"/>
     </row>
@@ -2809,8 +4265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M49"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:M35"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -2821,700 +4277,700 @@
   <sheetData>
     <row r="1" spans="2:13" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="55"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="58"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="56"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="61"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="56"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="58"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="61"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="56"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="58"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="61"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="55"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="58"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="56"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="58"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="61"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="56"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="58"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="61"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="56"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="58"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="61"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="59"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="61"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="64"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="62" t="s">
-        <v>145</v>
-      </c>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="63"/>
-      <c r="M14" s="64"/>
+      <c r="B14" s="65" t="s">
+        <v>171</v>
+      </c>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="67"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="65"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="66"/>
-      <c r="M15" s="67"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="69"/>
+      <c r="M15" s="70"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="65"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="66"/>
-      <c r="L16" s="66"/>
-      <c r="M16" s="67"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="70"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="65"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="66"/>
-      <c r="M17" s="67"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="69"/>
+      <c r="M17" s="70"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="65"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="66"/>
-      <c r="M18" s="67"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="70"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="65"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="66"/>
-      <c r="M19" s="67"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="70"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="65"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="66"/>
-      <c r="M20" s="67"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="69"/>
+      <c r="M20" s="70"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="65"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="66"/>
-      <c r="M21" s="67"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="69"/>
+      <c r="L21" s="69"/>
+      <c r="M21" s="70"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="65"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="66"/>
-      <c r="L22" s="66"/>
-      <c r="M22" s="67"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="69"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="69"/>
+      <c r="M22" s="70"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="65"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="66"/>
-      <c r="M23" s="67"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="70"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B24" s="65"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="66"/>
-      <c r="L24" s="66"/>
-      <c r="M24" s="67"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="70"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="65"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="66"/>
-      <c r="M25" s="67"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="70"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="65"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="66"/>
-      <c r="J26" s="66"/>
-      <c r="K26" s="66"/>
-      <c r="L26" s="66"/>
-      <c r="M26" s="67"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
+      <c r="K26" s="69"/>
+      <c r="L26" s="69"/>
+      <c r="M26" s="70"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="68"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="69"/>
-      <c r="J27" s="69"/>
-      <c r="K27" s="69"/>
-      <c r="L27" s="69"/>
-      <c r="M27" s="70"/>
+      <c r="B27" s="71"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="72"/>
+      <c r="J27" s="72"/>
+      <c r="K27" s="72"/>
+      <c r="L27" s="72"/>
+      <c r="M27" s="73"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="53"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="53"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="56"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="44" t="s">
+      <c r="B29" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="45"/>
-      <c r="M29" s="46"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="48"/>
+      <c r="L29" s="48"/>
+      <c r="M29" s="49"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="47"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="48"/>
-      <c r="K30" s="48"/>
-      <c r="L30" s="48"/>
-      <c r="M30" s="49"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="51"/>
+      <c r="K30" s="51"/>
+      <c r="L30" s="51"/>
+      <c r="M30" s="52"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="47"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="48"/>
-      <c r="K31" s="48"/>
-      <c r="L31" s="48"/>
-      <c r="M31" s="49"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="51"/>
+      <c r="L31" s="51"/>
+      <c r="M31" s="52"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="47"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="48"/>
-      <c r="K32" s="48"/>
-      <c r="L32" s="48"/>
-      <c r="M32" s="49"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="51"/>
+      <c r="K32" s="51"/>
+      <c r="L32" s="51"/>
+      <c r="M32" s="52"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" s="47"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="48"/>
-      <c r="J33" s="48"/>
-      <c r="K33" s="48"/>
-      <c r="L33" s="48"/>
-      <c r="M33" s="49"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="51"/>
+      <c r="K33" s="51"/>
+      <c r="L33" s="51"/>
+      <c r="M33" s="52"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B34" s="47"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="48"/>
-      <c r="I34" s="48"/>
-      <c r="J34" s="48"/>
-      <c r="K34" s="48"/>
-      <c r="L34" s="48"/>
-      <c r="M34" s="49"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="51"/>
+      <c r="K34" s="51"/>
+      <c r="L34" s="51"/>
+      <c r="M34" s="52"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="50"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="51"/>
-      <c r="H35" s="51"/>
-      <c r="I35" s="51"/>
-      <c r="J35" s="51"/>
-      <c r="K35" s="51"/>
-      <c r="L35" s="51"/>
-      <c r="M35" s="52"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="54"/>
+      <c r="K35" s="54"/>
+      <c r="L35" s="54"/>
+      <c r="M35" s="55"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B36" s="53" t="s">
-        <v>99</v>
-      </c>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="53"/>
-      <c r="J36" s="53"/>
-      <c r="K36" s="53"/>
-      <c r="L36" s="53"/>
-      <c r="M36" s="53"/>
+      <c r="B36" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" s="56"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="56"/>
+      <c r="L36" s="56"/>
+      <c r="M36" s="56"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B37" s="62" t="s">
-        <v>127</v>
-      </c>
-      <c r="C37" s="71"/>
-      <c r="D37" s="71"/>
-      <c r="E37" s="71"/>
-      <c r="F37" s="71"/>
-      <c r="G37" s="71"/>
-      <c r="H37" s="71"/>
-      <c r="I37" s="71"/>
-      <c r="J37" s="71"/>
-      <c r="K37" s="71"/>
-      <c r="L37" s="71"/>
-      <c r="M37" s="72"/>
+      <c r="B37" s="65" t="s">
+        <v>118</v>
+      </c>
+      <c r="C37" s="74"/>
+      <c r="D37" s="74"/>
+      <c r="E37" s="74"/>
+      <c r="F37" s="74"/>
+      <c r="G37" s="74"/>
+      <c r="H37" s="74"/>
+      <c r="I37" s="74"/>
+      <c r="J37" s="74"/>
+      <c r="K37" s="74"/>
+      <c r="L37" s="74"/>
+      <c r="M37" s="75"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B38" s="73"/>
-      <c r="C38" s="74"/>
-      <c r="D38" s="74"/>
-      <c r="E38" s="74"/>
-      <c r="F38" s="74"/>
-      <c r="G38" s="74"/>
-      <c r="H38" s="74"/>
-      <c r="I38" s="74"/>
-      <c r="J38" s="74"/>
-      <c r="K38" s="74"/>
-      <c r="L38" s="74"/>
-      <c r="M38" s="75"/>
+      <c r="B38" s="76"/>
+      <c r="C38" s="77"/>
+      <c r="D38" s="77"/>
+      <c r="E38" s="77"/>
+      <c r="F38" s="77"/>
+      <c r="G38" s="77"/>
+      <c r="H38" s="77"/>
+      <c r="I38" s="77"/>
+      <c r="J38" s="77"/>
+      <c r="K38" s="77"/>
+      <c r="L38" s="77"/>
+      <c r="M38" s="78"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B39" s="73"/>
-      <c r="C39" s="74"/>
-      <c r="D39" s="74"/>
-      <c r="E39" s="74"/>
-      <c r="F39" s="74"/>
-      <c r="G39" s="74"/>
-      <c r="H39" s="74"/>
-      <c r="I39" s="74"/>
-      <c r="J39" s="74"/>
-      <c r="K39" s="74"/>
-      <c r="L39" s="74"/>
-      <c r="M39" s="75"/>
+      <c r="B39" s="76"/>
+      <c r="C39" s="77"/>
+      <c r="D39" s="77"/>
+      <c r="E39" s="77"/>
+      <c r="F39" s="77"/>
+      <c r="G39" s="77"/>
+      <c r="H39" s="77"/>
+      <c r="I39" s="77"/>
+      <c r="J39" s="77"/>
+      <c r="K39" s="77"/>
+      <c r="L39" s="77"/>
+      <c r="M39" s="78"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B40" s="73"/>
-      <c r="C40" s="74"/>
-      <c r="D40" s="74"/>
-      <c r="E40" s="74"/>
-      <c r="F40" s="74"/>
-      <c r="G40" s="74"/>
-      <c r="H40" s="74"/>
-      <c r="I40" s="74"/>
-      <c r="J40" s="74"/>
-      <c r="K40" s="74"/>
-      <c r="L40" s="74"/>
-      <c r="M40" s="75"/>
+      <c r="B40" s="76"/>
+      <c r="C40" s="77"/>
+      <c r="D40" s="77"/>
+      <c r="E40" s="77"/>
+      <c r="F40" s="77"/>
+      <c r="G40" s="77"/>
+      <c r="H40" s="77"/>
+      <c r="I40" s="77"/>
+      <c r="J40" s="77"/>
+      <c r="K40" s="77"/>
+      <c r="L40" s="77"/>
+      <c r="M40" s="78"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="76"/>
-      <c r="C41" s="77"/>
-      <c r="D41" s="77"/>
-      <c r="E41" s="77"/>
-      <c r="F41" s="77"/>
-      <c r="G41" s="77"/>
-      <c r="H41" s="77"/>
-      <c r="I41" s="77"/>
-      <c r="J41" s="77"/>
-      <c r="K41" s="77"/>
-      <c r="L41" s="77"/>
-      <c r="M41" s="78"/>
+      <c r="B41" s="79"/>
+      <c r="C41" s="80"/>
+      <c r="D41" s="80"/>
+      <c r="E41" s="80"/>
+      <c r="F41" s="80"/>
+      <c r="G41" s="80"/>
+      <c r="H41" s="80"/>
+      <c r="I41" s="80"/>
+      <c r="J41" s="80"/>
+      <c r="K41" s="80"/>
+      <c r="L41" s="80"/>
+      <c r="M41" s="81"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B42" s="53" t="s">
+      <c r="B42" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="53"/>
-      <c r="D42" s="53"/>
-      <c r="E42" s="53"/>
-      <c r="F42" s="53"/>
-      <c r="G42" s="53"/>
-      <c r="H42" s="53"/>
-      <c r="I42" s="53"/>
-      <c r="J42" s="53"/>
-      <c r="K42" s="53"/>
-      <c r="L42" s="53"/>
-      <c r="M42" s="53"/>
+      <c r="C42" s="56"/>
+      <c r="D42" s="56"/>
+      <c r="E42" s="56"/>
+      <c r="F42" s="56"/>
+      <c r="G42" s="56"/>
+      <c r="H42" s="56"/>
+      <c r="I42" s="56"/>
+      <c r="J42" s="56"/>
+      <c r="K42" s="56"/>
+      <c r="L42" s="56"/>
+      <c r="M42" s="56"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B43" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="C43" s="45"/>
-      <c r="D43" s="45"/>
-      <c r="E43" s="45"/>
-      <c r="F43" s="45"/>
-      <c r="G43" s="45"/>
-      <c r="H43" s="45"/>
-      <c r="I43" s="45"/>
-      <c r="J43" s="45"/>
-      <c r="K43" s="45"/>
-      <c r="L43" s="45"/>
-      <c r="M43" s="46"/>
+      <c r="B43" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" s="48"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="48"/>
+      <c r="H43" s="48"/>
+      <c r="I43" s="48"/>
+      <c r="J43" s="48"/>
+      <c r="K43" s="48"/>
+      <c r="L43" s="48"/>
+      <c r="M43" s="49"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B44" s="47"/>
-      <c r="C44" s="48"/>
-      <c r="D44" s="48"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="48"/>
-      <c r="H44" s="48"/>
-      <c r="I44" s="48"/>
-      <c r="J44" s="48"/>
-      <c r="K44" s="48"/>
-      <c r="L44" s="48"/>
-      <c r="M44" s="49"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="51"/>
+      <c r="H44" s="51"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="51"/>
+      <c r="K44" s="51"/>
+      <c r="L44" s="51"/>
+      <c r="M44" s="52"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B45" s="47"/>
-      <c r="C45" s="48"/>
-      <c r="D45" s="48"/>
-      <c r="E45" s="48"/>
-      <c r="F45" s="48"/>
-      <c r="G45" s="48"/>
-      <c r="H45" s="48"/>
-      <c r="I45" s="48"/>
-      <c r="J45" s="48"/>
-      <c r="K45" s="48"/>
-      <c r="L45" s="48"/>
-      <c r="M45" s="49"/>
+      <c r="B45" s="50"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="51"/>
+      <c r="F45" s="51"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="51"/>
+      <c r="I45" s="51"/>
+      <c r="J45" s="51"/>
+      <c r="K45" s="51"/>
+      <c r="L45" s="51"/>
+      <c r="M45" s="52"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="47"/>
-      <c r="C46" s="48"/>
-      <c r="D46" s="48"/>
-      <c r="E46" s="48"/>
-      <c r="F46" s="48"/>
-      <c r="G46" s="48"/>
-      <c r="H46" s="48"/>
-      <c r="I46" s="48"/>
-      <c r="J46" s="48"/>
-      <c r="K46" s="48"/>
-      <c r="L46" s="48"/>
-      <c r="M46" s="49"/>
+      <c r="B46" s="50"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="51"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="51"/>
+      <c r="H46" s="51"/>
+      <c r="I46" s="51"/>
+      <c r="J46" s="51"/>
+      <c r="K46" s="51"/>
+      <c r="L46" s="51"/>
+      <c r="M46" s="52"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B47" s="47"/>
-      <c r="C47" s="48"/>
-      <c r="D47" s="48"/>
-      <c r="E47" s="48"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="48"/>
-      <c r="H47" s="48"/>
-      <c r="I47" s="48"/>
-      <c r="J47" s="48"/>
-      <c r="K47" s="48"/>
-      <c r="L47" s="48"/>
-      <c r="M47" s="49"/>
+      <c r="B47" s="50"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="51"/>
+      <c r="G47" s="51"/>
+      <c r="H47" s="51"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="51"/>
+      <c r="K47" s="51"/>
+      <c r="L47" s="51"/>
+      <c r="M47" s="52"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B48" s="47"/>
-      <c r="C48" s="48"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="48"/>
-      <c r="I48" s="48"/>
-      <c r="J48" s="48"/>
-      <c r="K48" s="48"/>
-      <c r="L48" s="48"/>
-      <c r="M48" s="49"/>
+      <c r="B48" s="50"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="51"/>
+      <c r="H48" s="51"/>
+      <c r="I48" s="51"/>
+      <c r="J48" s="51"/>
+      <c r="K48" s="51"/>
+      <c r="L48" s="51"/>
+      <c r="M48" s="52"/>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B49" s="50"/>
-      <c r="C49" s="51"/>
-      <c r="D49" s="51"/>
-      <c r="E49" s="51"/>
-      <c r="F49" s="51"/>
-      <c r="G49" s="51"/>
-      <c r="H49" s="51"/>
-      <c r="I49" s="51"/>
-      <c r="J49" s="51"/>
-      <c r="K49" s="51"/>
-      <c r="L49" s="51"/>
-      <c r="M49" s="52"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="54"/>
+      <c r="H49" s="54"/>
+      <c r="I49" s="54"/>
+      <c r="J49" s="54"/>
+      <c r="K49" s="54"/>
+      <c r="L49" s="54"/>
+      <c r="M49" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -3538,11 +4994,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C37" sqref="A37:XFD37"/>
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C36" sqref="C36:D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -3563,10 +5019,10 @@
   <sheetData>
     <row r="1" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="80"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
       <c r="E2" s="12" t="s">
         <v>3</v>
       </c>
@@ -3581,10 +5037,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="79">
+      <c r="A3" s="82">
         <v>1</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="82" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="7">
@@ -3607,8 +5063,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="79"/>
-      <c r="B4" s="79"/>
+      <c r="A4" s="82"/>
+      <c r="B4" s="82"/>
       <c r="C4" s="7">
         <v>1.2</v>
       </c>
@@ -3629,8 +5085,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="79"/>
-      <c r="B5" s="79"/>
+      <c r="A5" s="82"/>
+      <c r="B5" s="82"/>
       <c r="C5" s="7">
         <v>1.3</v>
       </c>
@@ -3651,8 +5107,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="79"/>
-      <c r="B6" s="79"/>
+      <c r="A6" s="82"/>
+      <c r="B6" s="82"/>
       <c r="C6" s="7">
         <v>1.4</v>
       </c>
@@ -3673,10 +5129,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="81">
+      <c r="A7" s="84">
         <v>2</v>
       </c>
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="82" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="7">
@@ -3699,8 +5155,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="82"/>
-      <c r="B8" s="79"/>
+      <c r="A8" s="85"/>
+      <c r="B8" s="82"/>
       <c r="C8" s="7">
         <v>2.2000000000000002</v>
       </c>
@@ -3721,8 +5177,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="83"/>
-      <c r="B9" s="79"/>
+      <c r="A9" s="86"/>
+      <c r="B9" s="82"/>
       <c r="C9" s="7">
         <v>2.2999999999999998</v>
       </c>
@@ -3743,10 +5199,10 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="79">
+      <c r="A10" s="82">
         <v>3</v>
       </c>
-      <c r="B10" s="79" t="s">
+      <c r="B10" s="82" t="s">
         <v>38</v>
       </c>
       <c r="C10" s="9">
@@ -3769,8 +5225,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="79"/>
-      <c r="B11" s="79"/>
+      <c r="A11" s="82"/>
+      <c r="B11" s="82"/>
       <c r="C11" s="9">
         <v>3.2</v>
       </c>
@@ -3791,8 +5247,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="79"/>
-      <c r="B12" s="79"/>
+      <c r="A12" s="82"/>
+      <c r="B12" s="82"/>
       <c r="C12" s="9">
         <v>3.3</v>
       </c>
@@ -3813,8 +5269,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="79"/>
-      <c r="B13" s="79"/>
+      <c r="A13" s="82"/>
+      <c r="B13" s="82"/>
       <c r="C13" s="9">
         <v>3.4</v>
       </c>
@@ -3835,13 +5291,13 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="79"/>
-      <c r="B14" s="79"/>
+      <c r="A14" s="82"/>
+      <c r="B14" s="82"/>
       <c r="C14" s="9">
         <v>3.5</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>29</v>
@@ -3857,13 +5313,13 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="79"/>
-      <c r="B15" s="79"/>
+      <c r="A15" s="82"/>
+      <c r="B15" s="82"/>
       <c r="C15" s="9">
         <v>3.6</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>43</v>
+        <v>158</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>27</v>
@@ -3879,13 +5335,13 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="79"/>
-      <c r="B16" s="79"/>
+      <c r="A16" s="82"/>
+      <c r="B16" s="82"/>
       <c r="C16" s="9">
         <v>3.7</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>44</v>
+        <v>161</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>27</v>
@@ -3901,13 +5357,13 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="79"/>
-      <c r="B17" s="79"/>
+      <c r="A17" s="82"/>
+      <c r="B17" s="82"/>
       <c r="C17" s="9">
         <v>3.8</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>45</v>
+        <v>164</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>29</v>
@@ -3923,13 +5379,13 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="79"/>
-      <c r="B18" s="79"/>
+      <c r="A18" s="82"/>
+      <c r="B18" s="82"/>
       <c r="C18" s="9">
         <v>3.9</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>46</v>
+        <v>183</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>29</v>
@@ -3945,13 +5401,13 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="79"/>
-      <c r="B19" s="79"/>
+      <c r="A19" s="82"/>
+      <c r="B19" s="82"/>
       <c r="C19" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>29</v>
@@ -3967,61 +5423,61 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="79"/>
-      <c r="B20" s="79"/>
-      <c r="C20" s="9">
-        <v>3.11</v>
+      <c r="A20" s="82">
+        <v>4</v>
+      </c>
+      <c r="B20" s="84" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="7">
+        <v>4.0999999999999996</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>29</v>
       </c>
       <c r="F20" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="H20" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="79"/>
-      <c r="B21" s="79"/>
-      <c r="C21" s="9">
-        <v>3.12</v>
+      <c r="A21" s="82"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="7">
+        <v>4.2</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>49</v>
+        <v>159</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>29</v>
       </c>
       <c r="F21" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="H21" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="79">
-        <v>4</v>
-      </c>
-      <c r="B22" s="81" t="s">
-        <v>53</v>
-      </c>
+      <c r="A22" s="82"/>
+      <c r="B22" s="85"/>
       <c r="C22" s="7">
-        <v>4.0999999999999996</v>
+        <v>4.3</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>29</v>
@@ -4037,13 +5493,13 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="79"/>
-      <c r="B23" s="82"/>
+      <c r="A23" s="82"/>
+      <c r="B23" s="85"/>
       <c r="C23" s="7">
-        <v>4.2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>55</v>
+        <v>165</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>29</v>
@@ -4059,13 +5515,13 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="79"/>
-      <c r="B24" s="82"/>
+      <c r="A24" s="82"/>
+      <c r="B24" s="85"/>
       <c r="C24" s="7">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>56</v>
+        <v>184</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>29</v>
@@ -4081,13 +5537,13 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="79"/>
-      <c r="B25" s="82"/>
+      <c r="A25" s="82"/>
+      <c r="B25" s="85"/>
       <c r="C25" s="7">
-        <v>4.4000000000000004</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>57</v>
+        <v>168</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>29</v>
@@ -4103,13 +5559,17 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="79"/>
-      <c r="B26" s="82"/>
+      <c r="A26" s="82">
+        <v>5</v>
+      </c>
+      <c r="B26" s="82" t="s">
+        <v>57</v>
+      </c>
       <c r="C26" s="7">
-        <v>4.5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>58</v>
+        <v>160</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>29</v>
@@ -4118,20 +5578,20 @@
         <v>27</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="79"/>
+      <c r="A27" s="82"/>
       <c r="B27" s="82"/>
       <c r="C27" s="7">
-        <v>4.5999999999999996</v>
+        <v>5.2</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>59</v>
+        <v>163</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>29</v>
@@ -4140,20 +5600,20 @@
         <v>27</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="79"/>
+      <c r="A28" s="82"/>
       <c r="B28" s="82"/>
       <c r="C28" s="7">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>60</v>
+        <v>166</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>29</v>
@@ -4162,20 +5622,20 @@
         <v>27</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="79"/>
+      <c r="A29" s="82"/>
       <c r="B29" s="82"/>
       <c r="C29" s="7">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>61</v>
+        <v>185</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>29</v>
@@ -4187,21 +5647,17 @@
         <v>28</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="79">
-        <v>5</v>
-      </c>
-      <c r="B30" s="79" t="s">
-        <v>63</v>
-      </c>
+      <c r="A30" s="82"/>
+      <c r="B30" s="82"/>
       <c r="C30" s="7">
-        <v>5.0999999999999996</v>
+        <v>5.5</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>64</v>
+        <v>169</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>29</v>
@@ -4210,26 +5666,30 @@
         <v>27</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H30" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="79"/>
-      <c r="B31" s="79"/>
+      <c r="A31" s="82">
+        <v>6</v>
+      </c>
+      <c r="B31" s="82" t="s">
+        <v>63</v>
+      </c>
       <c r="C31" s="7">
-        <v>5.2</v>
+        <v>6.1</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E31" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="G31" s="8" t="s">
         <v>27</v>
@@ -4239,57 +5699,57 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="79"/>
-      <c r="B32" s="79"/>
+      <c r="A32" s="82"/>
+      <c r="B32" s="82"/>
       <c r="C32" s="7">
-        <v>5.3</v>
+        <v>6.2</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E32" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E32" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="F32" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G32" s="8" t="s">
+      <c r="G32" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H32" s="8" t="s">
+      <c r="H32" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="79"/>
-      <c r="B33" s="79"/>
+      <c r="A33" s="82"/>
+      <c r="B33" s="82"/>
       <c r="C33" s="7">
-        <v>5.4</v>
+        <v>6.3</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E33" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F33" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="G33" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G33" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H33" s="8" t="s">
+      <c r="H33" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="79"/>
-      <c r="B34" s="79"/>
+      <c r="A34" s="82"/>
+      <c r="B34" s="82"/>
       <c r="C34" s="7">
-        <v>5.5</v>
+        <v>6.4</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>29</v>
@@ -4301,17 +5761,17 @@
         <v>28</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" s="79"/>
-      <c r="B35" s="79"/>
+      <c r="A35" s="82"/>
+      <c r="B35" s="82"/>
       <c r="C35" s="7">
-        <v>5.6</v>
+        <v>6.5</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>29</v>
@@ -4323,17 +5783,17 @@
         <v>28</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A36" s="79"/>
-      <c r="B36" s="79"/>
+      <c r="A36" s="82"/>
+      <c r="B36" s="82"/>
       <c r="C36" s="7">
-        <v>5.7</v>
+        <v>6.6</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="E36" s="8" t="s">
         <v>29</v>
@@ -4342,329 +5802,589 @@
         <v>27</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H36" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" s="79">
-        <v>6</v>
-      </c>
-      <c r="B37" s="79" t="s">
-        <v>72</v>
+      <c r="A37" s="82">
+        <v>7</v>
+      </c>
+      <c r="B37" s="82" t="s">
+        <v>154</v>
       </c>
       <c r="C37" s="7">
-        <v>6.1</v>
+        <v>7.1</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E37" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="E37" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="G37" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="H37" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="F37" s="8" t="s">
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38" s="82"/>
+      <c r="B38" s="82"/>
+      <c r="C38" s="7">
+        <v>7.2</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E38" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="G37" s="8" t="s">
+      <c r="F38" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="G38" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="H38" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="H37" s="8" t="s">
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A39" s="82"/>
+      <c r="B39" s="82"/>
+      <c r="C39" s="7">
+        <v>7.3</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E39" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="G39" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="H39" s="44" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A38" s="79"/>
-      <c r="B38" s="79"/>
-      <c r="C38" s="7">
-        <v>6.2</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E38" s="10" t="s">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A40" s="82"/>
+      <c r="B40" s="82"/>
+      <c r="C40" s="7">
+        <v>7.4</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E40" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="F38" s="10" t="s">
+      <c r="F40" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="G40" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="H40" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="G38" s="10" t="s">
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A41" s="82"/>
+      <c r="B41" s="82"/>
+      <c r="C41" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E41" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="G41" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="H41" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="H38" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A39" s="79"/>
-      <c r="B39" s="79"/>
-      <c r="C39" s="7">
-        <v>6.3</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H39" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A40" s="79"/>
-      <c r="B40" s="79"/>
-      <c r="C40" s="7">
-        <v>6.4</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A41" s="79"/>
-      <c r="B41" s="79"/>
-      <c r="C41" s="7">
-        <v>6.5</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H41" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A42" s="79"/>
-      <c r="B42" s="79"/>
-      <c r="C42" s="7">
-        <v>6.6</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H42" s="8" t="s">
-        <v>27</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A37:A42"/>
-    <mergeCell ref="B37:B42"/>
-    <mergeCell ref="A22:A29"/>
+  <mergeCells count="15">
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B22:B29"/>
-    <mergeCell ref="B30:B36"/>
-    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="A26:A30"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B10:B21"/>
-    <mergeCell ref="A10:A21"/>
+    <mergeCell ref="B10:B19"/>
+    <mergeCell ref="A10:A19"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="A31:A36"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="A20:A25"/>
   </mergeCells>
-  <conditionalFormatting sqref="E3 E4:H36">
-    <cfRule type="cellIs" dxfId="79" priority="85" operator="equal">
+  <conditionalFormatting sqref="E3 E4:H30">
+    <cfRule type="cellIs" dxfId="159" priority="217" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="218" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="219" operator="equal">
       <formula>"R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="88" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="220" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="cellIs" dxfId="75" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="213" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="214" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="215" operator="equal">
       <formula>"R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="84" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="216" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F37 F40:F42">
-    <cfRule type="cellIs" dxfId="71" priority="77" operator="equal">
+  <conditionalFormatting sqref="F31 F34:F36">
+    <cfRule type="cellIs" dxfId="151" priority="209" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="210" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="211" operator="equal">
       <formula>"R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="80" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="212" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H3">
-    <cfRule type="cellIs" dxfId="67" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="205" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="206" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="207" operator="equal">
       <formula>"R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="76" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="208" stopIfTrue="1" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G31">
+    <cfRule type="cellIs" dxfId="143" priority="193" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="142" priority="194" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="141" priority="195" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="140" priority="196" stopIfTrue="1" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G34:G36">
+    <cfRule type="cellIs" dxfId="139" priority="189" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="190" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="137" priority="191" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="136" priority="192" stopIfTrue="1" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H34:H36">
+    <cfRule type="cellIs" dxfId="135" priority="185" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="134" priority="186" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="133" priority="187" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="132" priority="188" stopIfTrue="1" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31">
+    <cfRule type="cellIs" dxfId="131" priority="181" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="130" priority="182" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="129" priority="183" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="128" priority="184" stopIfTrue="1" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="cellIs" dxfId="127" priority="177" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="126" priority="178" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="125" priority="179" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="124" priority="180" stopIfTrue="1" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="123" priority="173" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="122" priority="174" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="121" priority="175" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="120" priority="176" stopIfTrue="1" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="cellIs" dxfId="119" priority="169" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="170" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="117" priority="171" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="116" priority="172" stopIfTrue="1" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="cellIs" dxfId="115" priority="165" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="166" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="113" priority="167" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="112" priority="168" stopIfTrue="1" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33">
+    <cfRule type="cellIs" dxfId="111" priority="161" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="110" priority="162" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="109" priority="163" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="108" priority="164" stopIfTrue="1" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G33">
+    <cfRule type="cellIs" dxfId="107" priority="157" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="158" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="105" priority="159" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="104" priority="160" stopIfTrue="1" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H33">
+    <cfRule type="cellIs" dxfId="103" priority="153" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="154" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="101" priority="155" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="156" stopIfTrue="1" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="cellIs" dxfId="99" priority="149" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="98" priority="150" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="97" priority="151" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="152" stopIfTrue="1" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32">
+    <cfRule type="cellIs" dxfId="95" priority="145" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="146" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="147" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="92" priority="148" stopIfTrue="1" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32">
+    <cfRule type="cellIs" dxfId="91" priority="141" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="142" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="89" priority="143" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="144" stopIfTrue="1" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32">
+    <cfRule type="cellIs" dxfId="87" priority="137" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="138" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="139" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="140" stopIfTrue="1" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="cellIs" dxfId="83" priority="133" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="134" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="135" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="136" stopIfTrue="1" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37">
+    <cfRule type="cellIs" dxfId="79" priority="129" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="130" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="77" priority="131" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="132" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G37">
-    <cfRule type="cellIs" dxfId="63" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="125" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="126" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="127" operator="equal">
       <formula>"R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="64" stopIfTrue="1" operator="equal">
-      <formula>"A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G40:G42">
-    <cfRule type="cellIs" dxfId="59" priority="57" operator="equal">
-      <formula>"C"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="58" operator="equal">
-      <formula>"I"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="59" operator="equal">
-      <formula>"R"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="60" stopIfTrue="1" operator="equal">
-      <formula>"A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H40:H42">
-    <cfRule type="cellIs" dxfId="55" priority="53" operator="equal">
-      <formula>"C"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="54" operator="equal">
-      <formula>"I"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="55" operator="equal">
-      <formula>"R"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="56" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="128" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="cellIs" dxfId="51" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="113" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="114" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="115" operator="equal">
       <formula>"R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="52" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="116" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="47" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="109" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="110" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="111" operator="equal">
       <formula>"R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="48" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="112" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="43" priority="41" operator="equal">
+  <conditionalFormatting sqref="F41">
+    <cfRule type="cellIs" dxfId="63" priority="45" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="46" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="47" operator="equal">
       <formula>"R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="44" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="48" stopIfTrue="1" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G41">
+    <cfRule type="cellIs" dxfId="59" priority="41" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="42" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="43" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="44" stopIfTrue="1" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H41">
+    <cfRule type="cellIs" dxfId="55" priority="37" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="38" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="39" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="40" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="39" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="33" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="34" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="35" operator="equal">
       <formula>"R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="40" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="36" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" dxfId="35" priority="33" operator="equal">
+  <conditionalFormatting sqref="F38">
+    <cfRule type="cellIs" dxfId="47" priority="61" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="62" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="63" operator="equal">
       <formula>"R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="64" stopIfTrue="1" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G38">
+    <cfRule type="cellIs" dxfId="43" priority="57" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="58" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="59" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="60" stopIfTrue="1" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H38">
+    <cfRule type="cellIs" dxfId="39" priority="53" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="54" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="55" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="56" stopIfTrue="1" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="cellIs" dxfId="35" priority="49" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="50" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="51" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="52" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4724,7 +6444,7 @@
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F38">
+  <conditionalFormatting sqref="F40">
     <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
       <formula>"C"</formula>
     </cfRule>
@@ -4738,7 +6458,7 @@
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G38">
+  <conditionalFormatting sqref="G40">
     <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
       <formula>"C"</formula>
     </cfRule>
@@ -4752,7 +6472,7 @@
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H38">
+  <conditionalFormatting sqref="H40">
     <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"C"</formula>
     </cfRule>
@@ -4766,7 +6486,7 @@
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
+  <conditionalFormatting sqref="E40">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
@@ -4789,7 +6509,7 @@
           <x14:formula1>
             <xm:f>Lengend!$B$1:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>E3:H42</xm:sqref>
+          <xm:sqref>E3:H41</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4801,7 +6521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -4820,60 +6540,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="89"/>
-      <c r="B1" s="89"/>
-      <c r="C1" s="91" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="84" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
-      <c r="W1" s="85"/>
-      <c r="X1" s="85"/>
-      <c r="Y1" s="85"/>
-      <c r="Z1" s="85"/>
-      <c r="AA1" s="85"/>
-      <c r="AB1" s="85"/>
-      <c r="AC1" s="85"/>
-      <c r="AD1" s="85"/>
-      <c r="AE1" s="85"/>
-      <c r="AF1" s="85"/>
-      <c r="AG1" s="85"/>
-      <c r="AH1" s="85"/>
-      <c r="AI1" s="85"/>
-      <c r="AJ1" s="85"/>
-      <c r="AK1" s="85"/>
-      <c r="AL1" s="85"/>
-      <c r="AM1" s="85"/>
-      <c r="AN1" s="85"/>
-      <c r="AO1" s="85"/>
-      <c r="AP1" s="85"/>
-      <c r="AQ1" s="85"/>
-      <c r="AR1" s="85"/>
-      <c r="AS1" s="85"/>
-      <c r="AT1" s="86"/>
+      <c r="A1" s="92"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="94" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="87" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
+      <c r="W1" s="88"/>
+      <c r="X1" s="88"/>
+      <c r="Y1" s="88"/>
+      <c r="Z1" s="88"/>
+      <c r="AA1" s="88"/>
+      <c r="AB1" s="88"/>
+      <c r="AC1" s="88"/>
+      <c r="AD1" s="88"/>
+      <c r="AE1" s="88"/>
+      <c r="AF1" s="88"/>
+      <c r="AG1" s="88"/>
+      <c r="AH1" s="88"/>
+      <c r="AI1" s="88"/>
+      <c r="AJ1" s="88"/>
+      <c r="AK1" s="88"/>
+      <c r="AL1" s="88"/>
+      <c r="AM1" s="88"/>
+      <c r="AN1" s="88"/>
+      <c r="AO1" s="88"/>
+      <c r="AP1" s="88"/>
+      <c r="AQ1" s="88"/>
+      <c r="AR1" s="88"/>
+      <c r="AS1" s="88"/>
+      <c r="AT1" s="89"/>
     </row>
     <row r="2" spans="1:58" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="90"/>
-      <c r="B2" s="90"/>
+      <c r="A2" s="93"/>
+      <c r="B2" s="93"/>
       <c r="C2" s="16">
         <v>18</v>
       </c>
@@ -5026,9 +6746,9 @@
       <c r="B3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
@@ -5072,7 +6792,7 @@
       <c r="AT3" s="19"/>
       <c r="AU3" s="33"/>
       <c r="AV3" s="4" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
@@ -5128,7 +6848,7 @@
       <c r="AT4" s="19"/>
       <c r="AU4" s="34"/>
       <c r="AV4" s="4" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
@@ -5184,7 +6904,7 @@
       <c r="AT5" s="19"/>
       <c r="AU5" s="35"/>
       <c r="AV5" s="4" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
@@ -5245,7 +6965,7 @@
     </row>
     <row r="7" spans="1:58" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="25" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B7" s="26" t="s">
         <v>26</v>
@@ -5400,10 +7120,10 @@
     </row>
     <row r="10" spans="1:58" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A10" s="25" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
@@ -5714,7 +7434,7 @@
         <v>3.5</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="21"/>
@@ -5763,10 +7483,10 @@
     </row>
     <row r="17" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="21"/>
@@ -5817,7 +7537,7 @@
         <v>3.6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="21"/>
@@ -5869,7 +7589,7 @@
         <v>3.7</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="11"/>
@@ -5921,7 +7641,7 @@
         <v>3.8</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C20" s="20"/>
       <c r="D20" s="21"/>
@@ -5973,7 +7693,7 @@
         <v>3.9</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="21"/>
@@ -6022,10 +7742,10 @@
     </row>
     <row r="22" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="30" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C22" s="20"/>
       <c r="D22" s="21"/>
@@ -6077,7 +7797,7 @@
         <v>3.11</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C23" s="20"/>
       <c r="D23" s="21"/>
@@ -6129,7 +7849,7 @@
         <v>3.12</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="11"/>
@@ -6178,10 +7898,10 @@
     </row>
     <row r="25" spans="1:46" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="30" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C25" s="20"/>
       <c r="D25" s="21"/>
@@ -6233,7 +7953,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="11"/>
@@ -6285,7 +8005,7 @@
         <v>4.2</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C27" s="20"/>
       <c r="D27" s="21"/>
@@ -6337,7 +8057,7 @@
         <v>4.3</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C28" s="20"/>
       <c r="D28" s="21"/>
@@ -6389,7 +8109,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C29" s="20"/>
       <c r="D29" s="21"/>
@@ -6438,10 +8158,10 @@
     </row>
     <row r="30" spans="1:46" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A30" s="25" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C30" s="20"/>
       <c r="D30" s="21"/>
@@ -6493,7 +8213,7 @@
         <v>4.5</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C31" s="20"/>
       <c r="D31" s="21"/>
@@ -6545,7 +8265,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C32" s="20"/>
       <c r="D32" s="21"/>
@@ -6597,7 +8317,7 @@
         <v>4.7</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C33" s="20"/>
       <c r="D33" s="21"/>
@@ -6649,7 +8369,7 @@
         <v>4.8</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C34" s="20"/>
       <c r="D34" s="21"/>
@@ -6701,7 +8421,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C35" s="20"/>
       <c r="D35" s="21"/>
@@ -6753,7 +8473,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C36" s="20"/>
       <c r="D36" s="21"/>
@@ -6805,7 +8525,7 @@
         <v>5.2</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C37" s="20"/>
       <c r="D37" s="21"/>
@@ -6857,7 +8577,7 @@
         <v>5.3</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C38" s="20"/>
       <c r="D38" s="21"/>
@@ -6906,7 +8626,7 @@
         <v>5.4</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C39" s="20"/>
       <c r="D39" s="21"/>
@@ -6958,7 +8678,7 @@
         <v>5.5</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C40" s="20"/>
       <c r="D40" s="21"/>
@@ -7010,7 +8730,7 @@
         <v>5.6</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C41" s="20"/>
       <c r="D41" s="21"/>
@@ -7062,7 +8782,7 @@
         <v>5.7</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C42" s="20"/>
       <c r="D42" s="21"/>
@@ -7114,7 +8834,7 @@
         <v>5.8</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C43" s="20"/>
       <c r="D43" s="21"/>
@@ -7166,7 +8886,7 @@
         <v>6.1</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C44" s="20"/>
       <c r="D44" s="21"/>
@@ -7218,7 +8938,7 @@
         <v>6.2</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C45" s="20"/>
       <c r="D45" s="21"/>
@@ -7267,10 +8987,10 @@
     </row>
     <row r="46" spans="1:46" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A46" s="25" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C46" s="20"/>
       <c r="D46" s="21"/>
@@ -7320,7 +9040,7 @@
         <v>6.3</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C47" s="20"/>
       <c r="D47" s="21"/>
@@ -7372,7 +9092,7 @@
         <v>6.4</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C48" s="20"/>
       <c r="D48" s="21"/>
@@ -7424,7 +9144,7 @@
         <v>6.5</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C49" s="20"/>
       <c r="D49" s="21"/>
@@ -7476,7 +9196,7 @@
         <v>6.6</v>
       </c>
       <c r="B50" s="29" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C50" s="20"/>
       <c r="D50" s="21"/>
@@ -7537,6 +9257,2218 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CD26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="40.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="2" customWidth="1"/>
+    <col min="4" max="70" width="3.7109375" style="2" customWidth="1"/>
+    <col min="71" max="71" width="11.28515625" style="2" customWidth="1"/>
+    <col min="72" max="72" width="9.85546875" style="2" customWidth="1"/>
+    <col min="73" max="82" width="3.7109375" style="2" customWidth="1"/>
+    <col min="83" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:82" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="95" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="96" t="s">
+        <v>187</v>
+      </c>
+      <c r="D1" s="103" t="s">
+        <v>172</v>
+      </c>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
+      <c r="U1" s="103"/>
+      <c r="V1" s="103"/>
+      <c r="W1" s="103"/>
+      <c r="X1" s="103"/>
+      <c r="Y1" s="103"/>
+      <c r="Z1" s="103"/>
+      <c r="AA1" s="104" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB1" s="104"/>
+      <c r="AC1" s="104"/>
+      <c r="AD1" s="104"/>
+      <c r="AE1" s="104"/>
+      <c r="AF1" s="104"/>
+      <c r="AG1" s="104"/>
+      <c r="AH1" s="104"/>
+      <c r="AI1" s="104"/>
+      <c r="AJ1" s="104"/>
+      <c r="AK1" s="104"/>
+      <c r="AL1" s="104"/>
+      <c r="AM1" s="104"/>
+      <c r="AN1" s="104"/>
+      <c r="AO1" s="104"/>
+      <c r="AP1" s="104"/>
+      <c r="AQ1" s="104"/>
+      <c r="AR1" s="104"/>
+      <c r="AS1" s="104"/>
+      <c r="AT1" s="104"/>
+      <c r="AU1" s="104"/>
+      <c r="AV1" s="104"/>
+      <c r="AW1" s="104"/>
+      <c r="AX1" s="104"/>
+      <c r="AY1" s="104"/>
+      <c r="AZ1" s="104"/>
+      <c r="BA1" s="104"/>
+      <c r="BB1" s="104"/>
+      <c r="BC1" s="104"/>
+      <c r="BD1" s="104"/>
+      <c r="BE1" s="104" t="s">
+        <v>188</v>
+      </c>
+      <c r="BF1" s="104"/>
+      <c r="BG1" s="104"/>
+      <c r="BH1" s="104"/>
+      <c r="BI1" s="104"/>
+      <c r="BJ1" s="104"/>
+      <c r="BK1" s="104"/>
+      <c r="BL1" s="104"/>
+      <c r="BM1" s="104"/>
+      <c r="BN1" s="104"/>
+      <c r="BO1" s="104"/>
+      <c r="BP1" s="104"/>
+      <c r="BQ1" s="104"/>
+      <c r="BR1" s="104"/>
+    </row>
+    <row r="2" spans="1:82" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="95"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="98">
+        <v>9</v>
+      </c>
+      <c r="E2" s="99">
+        <v>10</v>
+      </c>
+      <c r="F2" s="98">
+        <v>11</v>
+      </c>
+      <c r="G2" s="99">
+        <v>12</v>
+      </c>
+      <c r="H2" s="98">
+        <v>13</v>
+      </c>
+      <c r="I2" s="99">
+        <v>14</v>
+      </c>
+      <c r="J2" s="98">
+        <v>15</v>
+      </c>
+      <c r="K2" s="99">
+        <v>16</v>
+      </c>
+      <c r="L2" s="98">
+        <v>17</v>
+      </c>
+      <c r="M2" s="99">
+        <v>18</v>
+      </c>
+      <c r="N2" s="98">
+        <v>19</v>
+      </c>
+      <c r="O2" s="99">
+        <v>20</v>
+      </c>
+      <c r="P2" s="98">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="99">
+        <v>22</v>
+      </c>
+      <c r="R2" s="98">
+        <v>23</v>
+      </c>
+      <c r="S2" s="99">
+        <v>24</v>
+      </c>
+      <c r="T2" s="98">
+        <v>25</v>
+      </c>
+      <c r="U2" s="99">
+        <v>26</v>
+      </c>
+      <c r="V2" s="98">
+        <v>27</v>
+      </c>
+      <c r="W2" s="99">
+        <v>28</v>
+      </c>
+      <c r="X2" s="98">
+        <v>29</v>
+      </c>
+      <c r="Y2" s="99">
+        <v>30</v>
+      </c>
+      <c r="Z2" s="98">
+        <v>31</v>
+      </c>
+      <c r="AA2" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="16">
+        <v>2</v>
+      </c>
+      <c r="AC2" s="16">
+        <v>3</v>
+      </c>
+      <c r="AD2" s="16">
+        <v>4</v>
+      </c>
+      <c r="AE2" s="16">
+        <v>5</v>
+      </c>
+      <c r="AF2" s="16">
+        <v>6</v>
+      </c>
+      <c r="AG2" s="16">
+        <v>7</v>
+      </c>
+      <c r="AH2" s="16">
+        <v>8</v>
+      </c>
+      <c r="AI2" s="16">
+        <v>9</v>
+      </c>
+      <c r="AJ2" s="16">
+        <v>10</v>
+      </c>
+      <c r="AK2" s="16">
+        <v>11</v>
+      </c>
+      <c r="AL2" s="16">
+        <v>12</v>
+      </c>
+      <c r="AM2" s="16">
+        <v>13</v>
+      </c>
+      <c r="AN2" s="16">
+        <v>14</v>
+      </c>
+      <c r="AO2" s="16">
+        <v>15</v>
+      </c>
+      <c r="AP2" s="16">
+        <v>16</v>
+      </c>
+      <c r="AQ2" s="16">
+        <v>17</v>
+      </c>
+      <c r="AR2" s="16">
+        <v>18</v>
+      </c>
+      <c r="AS2" s="16">
+        <v>19</v>
+      </c>
+      <c r="AT2" s="16">
+        <v>20</v>
+      </c>
+      <c r="AU2" s="16">
+        <v>21</v>
+      </c>
+      <c r="AV2" s="16">
+        <v>22</v>
+      </c>
+      <c r="AW2" s="16">
+        <v>23</v>
+      </c>
+      <c r="AX2" s="16">
+        <v>24</v>
+      </c>
+      <c r="AY2" s="16">
+        <v>25</v>
+      </c>
+      <c r="AZ2" s="16">
+        <v>26</v>
+      </c>
+      <c r="BA2" s="16">
+        <v>27</v>
+      </c>
+      <c r="BB2" s="16">
+        <v>28</v>
+      </c>
+      <c r="BC2" s="16">
+        <v>29</v>
+      </c>
+      <c r="BD2" s="16">
+        <v>30</v>
+      </c>
+      <c r="BE2" s="16">
+        <v>1</v>
+      </c>
+      <c r="BF2" s="16">
+        <v>2</v>
+      </c>
+      <c r="BG2" s="16">
+        <v>3</v>
+      </c>
+      <c r="BH2" s="16">
+        <v>4</v>
+      </c>
+      <c r="BI2" s="16">
+        <v>5</v>
+      </c>
+      <c r="BJ2" s="16">
+        <v>6</v>
+      </c>
+      <c r="BK2" s="16">
+        <v>7</v>
+      </c>
+      <c r="BL2" s="16">
+        <v>8</v>
+      </c>
+      <c r="BM2" s="16">
+        <v>9</v>
+      </c>
+      <c r="BN2" s="16">
+        <v>10</v>
+      </c>
+      <c r="BO2" s="16">
+        <v>11</v>
+      </c>
+      <c r="BP2" s="16"/>
+      <c r="BQ2" s="16"/>
+      <c r="BR2" s="16"/>
+      <c r="BS2" s="15"/>
+      <c r="BT2" s="15"/>
+      <c r="BU2" s="15"/>
+      <c r="BV2" s="15"/>
+      <c r="BW2" s="15"/>
+      <c r="BX2" s="15"/>
+      <c r="BY2" s="15"/>
+      <c r="BZ2" s="15"/>
+      <c r="CA2" s="15"/>
+      <c r="CB2" s="15"/>
+      <c r="CC2" s="15"/>
+      <c r="CD2" s="15"/>
+    </row>
+    <row r="3" spans="1:82" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A3" s="7">
+        <v>7.1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="45">
+        <v>8</v>
+      </c>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
+      <c r="X3" s="19"/>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="19"/>
+      <c r="AA3" s="19"/>
+      <c r="AB3" s="19"/>
+      <c r="AC3" s="19"/>
+      <c r="AD3" s="19"/>
+      <c r="AE3" s="19"/>
+      <c r="AF3" s="19"/>
+      <c r="AG3" s="19"/>
+      <c r="AH3" s="19"/>
+      <c r="AI3" s="19"/>
+      <c r="AJ3" s="19"/>
+      <c r="AK3" s="19"/>
+      <c r="AL3" s="19"/>
+      <c r="AM3" s="19"/>
+      <c r="AN3" s="19"/>
+      <c r="AO3" s="19"/>
+      <c r="AP3" s="19"/>
+      <c r="AQ3" s="19"/>
+      <c r="AR3" s="19"/>
+      <c r="AS3" s="19"/>
+      <c r="AT3" s="19"/>
+      <c r="AU3" s="19"/>
+      <c r="AV3" s="19"/>
+      <c r="AW3" s="19"/>
+      <c r="AX3" s="19"/>
+      <c r="AY3" s="19"/>
+      <c r="AZ3" s="19"/>
+      <c r="BA3" s="19"/>
+      <c r="BB3" s="19"/>
+      <c r="BC3" s="19"/>
+      <c r="BD3" s="19"/>
+      <c r="BE3" s="19"/>
+      <c r="BF3" s="19"/>
+      <c r="BG3" s="19"/>
+      <c r="BH3" s="19"/>
+      <c r="BI3" s="19"/>
+      <c r="BJ3" s="19"/>
+      <c r="BK3" s="19"/>
+      <c r="BL3" s="19"/>
+      <c r="BM3" s="19"/>
+      <c r="BN3" s="19"/>
+      <c r="BO3" s="19"/>
+      <c r="BP3" s="19"/>
+      <c r="BQ3" s="19"/>
+      <c r="BR3" s="19"/>
+      <c r="BS3" s="33"/>
+      <c r="BT3" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:82" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A4" s="7">
+        <v>7.2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="45">
+        <v>4</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="102"/>
+      <c r="M4" s="102"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
+      <c r="X4" s="19"/>
+      <c r="Y4" s="19"/>
+      <c r="Z4" s="19"/>
+      <c r="AA4" s="19"/>
+      <c r="AB4" s="19"/>
+      <c r="AC4" s="19"/>
+      <c r="AD4" s="19"/>
+      <c r="AE4" s="19"/>
+      <c r="AF4" s="19"/>
+      <c r="AG4" s="19"/>
+      <c r="AH4" s="19"/>
+      <c r="AI4" s="19"/>
+      <c r="AJ4" s="19"/>
+      <c r="AK4" s="19"/>
+      <c r="AL4" s="19"/>
+      <c r="AM4" s="19"/>
+      <c r="AN4" s="19"/>
+      <c r="AO4" s="19"/>
+      <c r="AP4" s="19"/>
+      <c r="AQ4" s="19"/>
+      <c r="AR4" s="19"/>
+      <c r="AS4" s="19"/>
+      <c r="AT4" s="19"/>
+      <c r="AU4" s="19"/>
+      <c r="AV4" s="19"/>
+      <c r="AW4" s="19"/>
+      <c r="AX4" s="19"/>
+      <c r="AY4" s="19"/>
+      <c r="AZ4" s="19"/>
+      <c r="BA4" s="19"/>
+      <c r="BB4" s="19"/>
+      <c r="BC4" s="19"/>
+      <c r="BD4" s="19"/>
+      <c r="BE4" s="19"/>
+      <c r="BF4" s="19"/>
+      <c r="BG4" s="19"/>
+      <c r="BH4" s="19"/>
+      <c r="BI4" s="19"/>
+      <c r="BJ4" s="19"/>
+      <c r="BK4" s="19"/>
+      <c r="BL4" s="19"/>
+      <c r="BM4" s="19"/>
+      <c r="BN4" s="19"/>
+      <c r="BO4" s="19"/>
+      <c r="BP4" s="19"/>
+      <c r="BQ4" s="19"/>
+      <c r="BR4" s="19"/>
+      <c r="BS4" s="34"/>
+      <c r="BT4" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:82" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A5" s="7">
+        <v>7.3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="45">
+        <v>28</v>
+      </c>
+      <c r="D5" s="20"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="102"/>
+      <c r="O5" s="102"/>
+      <c r="P5" s="102"/>
+      <c r="Q5" s="102"/>
+      <c r="R5" s="102"/>
+      <c r="S5" s="102"/>
+      <c r="T5" s="102"/>
+      <c r="U5" s="102"/>
+      <c r="V5" s="102"/>
+      <c r="W5" s="102"/>
+      <c r="X5" s="102"/>
+      <c r="Y5" s="102"/>
+      <c r="Z5" s="102"/>
+      <c r="AA5" s="102"/>
+      <c r="AB5" s="19"/>
+      <c r="AC5" s="19"/>
+      <c r="AD5" s="19"/>
+      <c r="AE5" s="19"/>
+      <c r="AF5" s="19"/>
+      <c r="AG5" s="19"/>
+      <c r="AH5" s="19"/>
+      <c r="AI5" s="19"/>
+      <c r="AJ5" s="19"/>
+      <c r="AK5" s="19"/>
+      <c r="AL5" s="19"/>
+      <c r="AM5" s="19"/>
+      <c r="AN5" s="19"/>
+      <c r="AO5" s="19"/>
+      <c r="AP5" s="19"/>
+      <c r="AQ5" s="19"/>
+      <c r="AR5" s="19"/>
+      <c r="AS5" s="19"/>
+      <c r="AT5" s="19"/>
+      <c r="AU5" s="19"/>
+      <c r="AV5" s="19"/>
+      <c r="AW5" s="19"/>
+      <c r="AX5" s="19"/>
+      <c r="AY5" s="19"/>
+      <c r="AZ5" s="19"/>
+      <c r="BA5" s="19"/>
+      <c r="BB5" s="19"/>
+      <c r="BC5" s="19"/>
+      <c r="BD5" s="19"/>
+      <c r="BE5" s="19"/>
+      <c r="BF5" s="19"/>
+      <c r="BG5" s="19"/>
+      <c r="BH5" s="19"/>
+      <c r="BI5" s="19"/>
+      <c r="BJ5" s="19"/>
+      <c r="BK5" s="19"/>
+      <c r="BL5" s="19"/>
+      <c r="BM5" s="19"/>
+      <c r="BN5" s="19"/>
+      <c r="BO5" s="19"/>
+      <c r="BP5" s="19"/>
+      <c r="BQ5" s="19"/>
+      <c r="BR5" s="19"/>
+      <c r="BS5" s="35"/>
+      <c r="BT5" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:82" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A6" s="7">
+        <v>7.4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C6" s="45">
+        <v>56</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="100"/>
+      <c r="O6" s="100"/>
+      <c r="P6" s="100"/>
+      <c r="Q6" s="100"/>
+      <c r="R6" s="100"/>
+      <c r="S6" s="100"/>
+      <c r="T6" s="100"/>
+      <c r="U6" s="100"/>
+      <c r="V6" s="100"/>
+      <c r="W6" s="100"/>
+      <c r="X6" s="100"/>
+      <c r="Y6" s="100"/>
+      <c r="Z6" s="100"/>
+      <c r="AA6" s="100"/>
+      <c r="AB6" s="19"/>
+      <c r="AC6" s="19"/>
+      <c r="AD6" s="19"/>
+      <c r="AE6" s="19"/>
+      <c r="AF6" s="19"/>
+      <c r="AG6" s="19"/>
+      <c r="AH6" s="19"/>
+      <c r="AI6" s="19"/>
+      <c r="AJ6" s="19"/>
+      <c r="AK6" s="19"/>
+      <c r="AL6" s="19"/>
+      <c r="AM6" s="19"/>
+      <c r="AN6" s="19"/>
+      <c r="AO6" s="19"/>
+      <c r="AP6" s="19"/>
+      <c r="AQ6" s="19"/>
+      <c r="AR6" s="19"/>
+      <c r="AS6" s="19"/>
+      <c r="AT6" s="19"/>
+      <c r="AU6" s="19"/>
+      <c r="AV6" s="19"/>
+      <c r="AW6" s="19"/>
+      <c r="AX6" s="19"/>
+      <c r="AY6" s="19"/>
+      <c r="AZ6" s="19"/>
+      <c r="BA6" s="19"/>
+      <c r="BB6" s="19"/>
+      <c r="BC6" s="19"/>
+      <c r="BD6" s="19"/>
+      <c r="BE6" s="19"/>
+      <c r="BF6" s="19"/>
+      <c r="BG6" s="19"/>
+      <c r="BH6" s="19"/>
+      <c r="BI6" s="19"/>
+      <c r="BJ6" s="19"/>
+      <c r="BK6" s="19"/>
+      <c r="BL6" s="19"/>
+      <c r="BM6" s="19"/>
+      <c r="BN6" s="19"/>
+      <c r="BO6" s="19"/>
+      <c r="BP6" s="19"/>
+      <c r="BQ6" s="19"/>
+      <c r="BR6" s="19"/>
+      <c r="BS6" s="36"/>
+      <c r="BT6" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:82" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A7" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7" s="45">
+        <v>4</v>
+      </c>
+      <c r="D7" s="100"/>
+      <c r="E7" s="21"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="18"/>
+      <c r="Y7" s="18"/>
+      <c r="Z7" s="18"/>
+      <c r="AA7" s="18"/>
+      <c r="AB7" s="19"/>
+      <c r="AC7" s="19"/>
+      <c r="AD7" s="19"/>
+      <c r="AE7" s="19"/>
+      <c r="AF7" s="19"/>
+      <c r="AG7" s="19"/>
+      <c r="AH7" s="19"/>
+      <c r="AI7" s="19"/>
+      <c r="AJ7" s="19"/>
+      <c r="AK7" s="19"/>
+      <c r="AL7" s="19"/>
+      <c r="AM7" s="19"/>
+      <c r="AN7" s="19"/>
+      <c r="AO7" s="19"/>
+      <c r="AP7" s="19"/>
+      <c r="AQ7" s="19"/>
+      <c r="AR7" s="19"/>
+      <c r="AS7" s="19"/>
+      <c r="AT7" s="19"/>
+      <c r="AU7" s="19"/>
+      <c r="AV7" s="19"/>
+      <c r="AW7" s="19"/>
+      <c r="AX7" s="19"/>
+      <c r="AY7" s="19"/>
+      <c r="AZ7" s="19"/>
+      <c r="BA7" s="19"/>
+      <c r="BB7" s="19"/>
+      <c r="BC7" s="19"/>
+      <c r="BD7" s="19"/>
+      <c r="BE7" s="19"/>
+      <c r="BF7" s="19"/>
+      <c r="BG7" s="19"/>
+      <c r="BH7" s="19"/>
+      <c r="BI7" s="19"/>
+      <c r="BJ7" s="19"/>
+      <c r="BK7" s="19"/>
+      <c r="BL7" s="19"/>
+      <c r="BM7" s="19"/>
+      <c r="BN7" s="19"/>
+      <c r="BO7" s="19"/>
+      <c r="BP7" s="19"/>
+      <c r="BQ7" s="19"/>
+      <c r="BR7" s="19"/>
+    </row>
+    <row r="8" spans="1:82" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A8" s="9">
+        <v>3.7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C8" s="45">
+        <v>4</v>
+      </c>
+      <c r="D8" s="20"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="100"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="19"/>
+      <c r="X8" s="19"/>
+      <c r="Y8" s="19"/>
+      <c r="Z8" s="19"/>
+      <c r="AA8" s="19"/>
+      <c r="AB8" s="19"/>
+      <c r="AC8" s="19"/>
+      <c r="AD8" s="19"/>
+      <c r="AE8" s="19"/>
+      <c r="AF8" s="19"/>
+      <c r="AG8" s="19"/>
+      <c r="AH8" s="19"/>
+      <c r="AI8" s="19"/>
+      <c r="AJ8" s="19"/>
+      <c r="AK8" s="19"/>
+      <c r="AL8" s="19"/>
+      <c r="AM8" s="19"/>
+      <c r="AN8" s="19"/>
+      <c r="AO8" s="19"/>
+      <c r="AP8" s="19"/>
+      <c r="AQ8" s="19"/>
+      <c r="AR8" s="19"/>
+      <c r="AS8" s="19"/>
+      <c r="AT8" s="19"/>
+      <c r="AU8" s="19"/>
+      <c r="AV8" s="19"/>
+      <c r="AW8" s="19"/>
+      <c r="AX8" s="19"/>
+      <c r="AY8" s="19"/>
+      <c r="AZ8" s="19"/>
+      <c r="BA8" s="19"/>
+      <c r="BB8" s="19"/>
+      <c r="BC8" s="19"/>
+      <c r="BD8" s="19"/>
+      <c r="BE8" s="19"/>
+      <c r="BF8" s="19"/>
+      <c r="BG8" s="19"/>
+      <c r="BH8" s="19"/>
+      <c r="BI8" s="19"/>
+      <c r="BJ8" s="19"/>
+      <c r="BK8" s="19"/>
+      <c r="BL8" s="19"/>
+      <c r="BM8" s="19"/>
+      <c r="BN8" s="19"/>
+      <c r="BO8" s="19"/>
+      <c r="BP8" s="19"/>
+      <c r="BQ8" s="19"/>
+      <c r="BR8" s="19"/>
+    </row>
+    <row r="9" spans="1:82" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A9" s="7">
+        <v>4.3</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C9" s="45">
+        <v>4</v>
+      </c>
+      <c r="D9" s="20"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="100"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="19"/>
+      <c r="Z9" s="19"/>
+      <c r="AA9" s="19"/>
+      <c r="AB9" s="19"/>
+      <c r="AC9" s="19"/>
+      <c r="AD9" s="19"/>
+      <c r="AE9" s="19"/>
+      <c r="AF9" s="19"/>
+      <c r="AG9" s="19"/>
+      <c r="AH9" s="19"/>
+      <c r="AI9" s="19"/>
+      <c r="AJ9" s="19"/>
+      <c r="AK9" s="19"/>
+      <c r="AL9" s="19"/>
+      <c r="AM9" s="19"/>
+      <c r="AN9" s="19"/>
+      <c r="AO9" s="19"/>
+      <c r="AP9" s="19"/>
+      <c r="AQ9" s="19"/>
+      <c r="AR9" s="19"/>
+      <c r="AS9" s="19"/>
+      <c r="AT9" s="19"/>
+      <c r="AU9" s="19"/>
+      <c r="AV9" s="19"/>
+      <c r="AW9" s="19"/>
+      <c r="AX9" s="19"/>
+      <c r="AY9" s="19"/>
+      <c r="AZ9" s="19"/>
+      <c r="BA9" s="19"/>
+      <c r="BB9" s="19"/>
+      <c r="BC9" s="19"/>
+      <c r="BD9" s="19"/>
+      <c r="BE9" s="19"/>
+      <c r="BF9" s="19"/>
+      <c r="BG9" s="19"/>
+      <c r="BH9" s="19"/>
+      <c r="BI9" s="19"/>
+      <c r="BJ9" s="19"/>
+      <c r="BK9" s="19"/>
+      <c r="BL9" s="19"/>
+      <c r="BM9" s="19"/>
+      <c r="BN9" s="19"/>
+      <c r="BO9" s="19"/>
+      <c r="BP9" s="19"/>
+      <c r="BQ9" s="19"/>
+      <c r="BR9" s="19"/>
+    </row>
+    <row r="10" spans="1:82" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A10" s="7">
+        <v>5.2</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C10" s="45">
+        <v>12</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="100"/>
+      <c r="O10" s="100"/>
+      <c r="P10" s="100"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
+      <c r="X10" s="19"/>
+      <c r="Y10" s="19"/>
+      <c r="Z10" s="19"/>
+      <c r="AA10" s="19"/>
+      <c r="AB10" s="19"/>
+      <c r="AC10" s="19"/>
+      <c r="AD10" s="19"/>
+      <c r="AE10" s="19"/>
+      <c r="AF10" s="19"/>
+      <c r="AG10" s="19"/>
+      <c r="AH10" s="19"/>
+      <c r="AI10" s="19"/>
+      <c r="AJ10" s="19"/>
+      <c r="AK10" s="19"/>
+      <c r="AL10" s="19"/>
+      <c r="AM10" s="19"/>
+      <c r="AN10" s="19"/>
+      <c r="AO10" s="19"/>
+      <c r="AP10" s="19"/>
+      <c r="AQ10" s="19"/>
+      <c r="AR10" s="19"/>
+      <c r="AS10" s="19"/>
+      <c r="AT10" s="19"/>
+      <c r="AU10" s="19"/>
+      <c r="AV10" s="19"/>
+      <c r="AW10" s="19"/>
+      <c r="AX10" s="19"/>
+      <c r="AY10" s="19"/>
+      <c r="AZ10" s="19"/>
+      <c r="BA10" s="19"/>
+      <c r="BB10" s="19"/>
+      <c r="BC10" s="19"/>
+      <c r="BD10" s="19"/>
+      <c r="BE10" s="19"/>
+      <c r="BF10" s="19"/>
+      <c r="BG10" s="19"/>
+      <c r="BH10" s="19"/>
+      <c r="BI10" s="19"/>
+      <c r="BJ10" s="19"/>
+      <c r="BK10" s="19"/>
+      <c r="BL10" s="19"/>
+      <c r="BM10" s="19"/>
+      <c r="BN10" s="19"/>
+      <c r="BO10" s="19"/>
+      <c r="BP10" s="19"/>
+      <c r="BQ10" s="19"/>
+      <c r="BR10" s="19"/>
+    </row>
+    <row r="11" spans="1:82" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A11" s="7">
+        <v>5.2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C11" s="45">
+        <v>12</v>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="100"/>
+      <c r="R11" s="100"/>
+      <c r="S11" s="100"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="19"/>
+      <c r="Z11" s="19"/>
+      <c r="AA11" s="19"/>
+      <c r="AB11" s="19"/>
+      <c r="AC11" s="19"/>
+      <c r="AD11" s="19"/>
+      <c r="AE11" s="19"/>
+      <c r="AF11" s="19"/>
+      <c r="AG11" s="19"/>
+      <c r="AH11" s="19"/>
+      <c r="AI11" s="19"/>
+      <c r="AJ11" s="19"/>
+      <c r="AK11" s="19"/>
+      <c r="AL11" s="19"/>
+      <c r="AM11" s="19"/>
+      <c r="AN11" s="19"/>
+      <c r="AO11" s="19"/>
+      <c r="AP11" s="19"/>
+      <c r="AQ11" s="19"/>
+      <c r="AR11" s="19"/>
+      <c r="AS11" s="19"/>
+      <c r="AT11" s="19"/>
+      <c r="AU11" s="19"/>
+      <c r="AV11" s="19"/>
+      <c r="AW11" s="19"/>
+      <c r="AX11" s="19"/>
+      <c r="AY11" s="19"/>
+      <c r="AZ11" s="19"/>
+      <c r="BA11" s="19"/>
+      <c r="BB11" s="19"/>
+      <c r="BC11" s="19"/>
+      <c r="BD11" s="19"/>
+      <c r="BE11" s="19"/>
+      <c r="BF11" s="19"/>
+      <c r="BG11" s="19"/>
+      <c r="BH11" s="19"/>
+      <c r="BI11" s="19"/>
+      <c r="BJ11" s="19"/>
+      <c r="BK11" s="19"/>
+      <c r="BL11" s="19"/>
+      <c r="BM11" s="19"/>
+      <c r="BN11" s="19"/>
+      <c r="BO11" s="19"/>
+      <c r="BP11" s="19"/>
+      <c r="BQ11" s="19"/>
+      <c r="BR11" s="19"/>
+    </row>
+    <row r="12" spans="1:82" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A12" s="9">
+        <v>3.7</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C12" s="45">
+        <v>4</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="100"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="19"/>
+      <c r="Z12" s="19"/>
+      <c r="AA12" s="19"/>
+      <c r="AB12" s="19"/>
+      <c r="AC12" s="19"/>
+      <c r="AD12" s="19"/>
+      <c r="AE12" s="19"/>
+      <c r="AF12" s="19"/>
+      <c r="AG12" s="19"/>
+      <c r="AH12" s="19"/>
+      <c r="AI12" s="19"/>
+      <c r="AJ12" s="19"/>
+      <c r="AK12" s="19"/>
+      <c r="AL12" s="19"/>
+      <c r="AM12" s="19"/>
+      <c r="AN12" s="19"/>
+      <c r="AO12" s="19"/>
+      <c r="AP12" s="19"/>
+      <c r="AQ12" s="19"/>
+      <c r="AR12" s="19"/>
+      <c r="AS12" s="19"/>
+      <c r="AT12" s="19"/>
+      <c r="AU12" s="19"/>
+      <c r="AV12" s="19"/>
+      <c r="AW12" s="19"/>
+      <c r="AX12" s="19"/>
+      <c r="AY12" s="19"/>
+      <c r="AZ12" s="19"/>
+      <c r="BA12" s="19"/>
+      <c r="BB12" s="19"/>
+      <c r="BC12" s="19"/>
+      <c r="BD12" s="19"/>
+      <c r="BE12" s="19"/>
+      <c r="BF12" s="19"/>
+      <c r="BG12" s="19"/>
+      <c r="BH12" s="19"/>
+      <c r="BI12" s="19"/>
+      <c r="BJ12" s="19"/>
+      <c r="BK12" s="19"/>
+      <c r="BL12" s="19"/>
+      <c r="BM12" s="19"/>
+      <c r="BN12" s="19"/>
+      <c r="BO12" s="19"/>
+      <c r="BP12" s="19"/>
+      <c r="BQ12" s="19"/>
+      <c r="BR12" s="19"/>
+    </row>
+    <row r="13" spans="1:82" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A13" s="7">
+        <v>4.3</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C13" s="45">
+        <v>4</v>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="100"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="19"/>
+      <c r="X13" s="19"/>
+      <c r="Y13" s="19"/>
+      <c r="Z13" s="19"/>
+      <c r="AA13" s="19"/>
+      <c r="AB13" s="19"/>
+      <c r="AC13" s="19"/>
+      <c r="AD13" s="19"/>
+      <c r="AE13" s="19"/>
+      <c r="AF13" s="19"/>
+      <c r="AG13" s="19"/>
+      <c r="AH13" s="19"/>
+      <c r="AI13" s="19"/>
+      <c r="AJ13" s="19"/>
+      <c r="AK13" s="19"/>
+      <c r="AL13" s="19"/>
+      <c r="AM13" s="19"/>
+      <c r="AN13" s="19"/>
+      <c r="AO13" s="19"/>
+      <c r="AP13" s="19"/>
+      <c r="AQ13" s="19"/>
+      <c r="AR13" s="19"/>
+      <c r="AS13" s="19"/>
+      <c r="AT13" s="19"/>
+      <c r="AU13" s="19"/>
+      <c r="AV13" s="19"/>
+      <c r="AW13" s="19"/>
+      <c r="AX13" s="19"/>
+      <c r="AY13" s="19"/>
+      <c r="AZ13" s="19"/>
+      <c r="BA13" s="19"/>
+      <c r="BB13" s="19"/>
+      <c r="BC13" s="19"/>
+      <c r="BD13" s="19"/>
+      <c r="BE13" s="19"/>
+      <c r="BF13" s="19"/>
+      <c r="BG13" s="19"/>
+      <c r="BH13" s="19"/>
+      <c r="BI13" s="19"/>
+      <c r="BJ13" s="19"/>
+      <c r="BK13" s="19"/>
+      <c r="BL13" s="19"/>
+      <c r="BM13" s="19"/>
+      <c r="BN13" s="19"/>
+      <c r="BO13" s="19"/>
+      <c r="BP13" s="19"/>
+      <c r="BQ13" s="19"/>
+      <c r="BR13" s="19"/>
+    </row>
+    <row r="14" spans="1:82" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A14" s="7">
+        <v>5.2</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C14" s="45">
+        <v>12</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="100"/>
+      <c r="V14" s="100"/>
+      <c r="W14" s="100"/>
+      <c r="X14" s="19"/>
+      <c r="Y14" s="19"/>
+      <c r="Z14" s="19"/>
+      <c r="AA14" s="19"/>
+      <c r="AB14" s="19"/>
+      <c r="AC14" s="19"/>
+      <c r="AD14" s="19"/>
+      <c r="AE14" s="19"/>
+      <c r="AF14" s="19"/>
+      <c r="AG14" s="19"/>
+      <c r="AH14" s="19"/>
+      <c r="AI14" s="19"/>
+      <c r="AJ14" s="19"/>
+      <c r="AK14" s="19"/>
+      <c r="AL14" s="19"/>
+      <c r="AM14" s="19"/>
+      <c r="AN14" s="19"/>
+      <c r="AO14" s="19"/>
+      <c r="AP14" s="19"/>
+      <c r="AQ14" s="19"/>
+      <c r="AR14" s="19"/>
+      <c r="AS14" s="19"/>
+      <c r="AT14" s="19"/>
+      <c r="AU14" s="19"/>
+      <c r="AV14" s="19"/>
+      <c r="AW14" s="19"/>
+      <c r="AX14" s="19"/>
+      <c r="AY14" s="19"/>
+      <c r="AZ14" s="19"/>
+      <c r="BA14" s="19"/>
+      <c r="BB14" s="19"/>
+      <c r="BC14" s="19"/>
+      <c r="BD14" s="19"/>
+      <c r="BE14" s="19"/>
+      <c r="BF14" s="19"/>
+      <c r="BG14" s="19"/>
+      <c r="BH14" s="19"/>
+      <c r="BI14" s="19"/>
+      <c r="BJ14" s="19"/>
+      <c r="BK14" s="19"/>
+      <c r="BL14" s="19"/>
+      <c r="BM14" s="19"/>
+      <c r="BN14" s="19"/>
+      <c r="BO14" s="19"/>
+      <c r="BP14" s="19"/>
+      <c r="BQ14" s="19"/>
+      <c r="BR14" s="19"/>
+    </row>
+    <row r="15" spans="1:82" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A15" s="7">
+        <v>5.2</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C15" s="45">
+        <v>12</v>
+      </c>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="19"/>
+      <c r="W15" s="19"/>
+      <c r="X15" s="100"/>
+      <c r="Y15" s="100"/>
+      <c r="Z15" s="100"/>
+      <c r="AA15" s="19"/>
+      <c r="AB15" s="19"/>
+      <c r="AC15" s="19"/>
+      <c r="AD15" s="19"/>
+      <c r="AE15" s="19"/>
+      <c r="AF15" s="19"/>
+      <c r="AG15" s="19"/>
+      <c r="AH15" s="19"/>
+      <c r="AI15" s="19"/>
+      <c r="AJ15" s="19"/>
+      <c r="AK15" s="19"/>
+      <c r="AL15" s="19"/>
+      <c r="AM15" s="19"/>
+      <c r="AN15" s="19"/>
+      <c r="AO15" s="19"/>
+      <c r="AP15" s="19"/>
+      <c r="AQ15" s="19"/>
+      <c r="AR15" s="19"/>
+      <c r="AS15" s="19"/>
+      <c r="AT15" s="19"/>
+      <c r="AU15" s="19"/>
+      <c r="AV15" s="19"/>
+      <c r="AW15" s="19"/>
+      <c r="AX15" s="19"/>
+      <c r="AY15" s="19"/>
+      <c r="AZ15" s="19"/>
+      <c r="BA15" s="19"/>
+      <c r="BB15" s="19"/>
+      <c r="BC15" s="19"/>
+      <c r="BD15" s="19"/>
+      <c r="BE15" s="19"/>
+      <c r="BF15" s="19"/>
+      <c r="BG15" s="19"/>
+      <c r="BH15" s="19"/>
+      <c r="BI15" s="19"/>
+      <c r="BJ15" s="19"/>
+      <c r="BK15" s="19"/>
+      <c r="BL15" s="19"/>
+      <c r="BM15" s="19"/>
+      <c r="BN15" s="19"/>
+      <c r="BO15" s="19"/>
+      <c r="BP15" s="19"/>
+      <c r="BQ15" s="19"/>
+      <c r="BR15" s="19"/>
+    </row>
+    <row r="16" spans="1:82" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A16" s="9">
+        <v>3.8</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C16" s="45">
+        <v>12</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="19"/>
+      <c r="W16" s="19"/>
+      <c r="X16" s="19"/>
+      <c r="Y16" s="19"/>
+      <c r="Z16" s="19"/>
+      <c r="AA16" s="19"/>
+      <c r="AB16" s="100"/>
+      <c r="AC16" s="100"/>
+      <c r="AD16" s="100"/>
+      <c r="AE16" s="19"/>
+      <c r="AF16" s="19"/>
+      <c r="AG16" s="19"/>
+      <c r="AH16" s="19"/>
+      <c r="AI16" s="19"/>
+      <c r="AJ16" s="19"/>
+      <c r="AK16" s="19"/>
+      <c r="AL16" s="19"/>
+      <c r="AM16" s="19"/>
+      <c r="AN16" s="19"/>
+      <c r="AO16" s="19"/>
+      <c r="AP16" s="19"/>
+      <c r="AQ16" s="19"/>
+      <c r="AR16" s="19"/>
+      <c r="AS16" s="19"/>
+      <c r="AT16" s="19"/>
+      <c r="AU16" s="19"/>
+      <c r="AV16" s="19"/>
+      <c r="AW16" s="19"/>
+      <c r="AX16" s="19"/>
+      <c r="AY16" s="19"/>
+      <c r="AZ16" s="19"/>
+      <c r="BA16" s="19"/>
+      <c r="BB16" s="19"/>
+      <c r="BC16" s="19"/>
+      <c r="BD16" s="19"/>
+      <c r="BE16" s="19"/>
+      <c r="BF16" s="19"/>
+      <c r="BG16" s="19"/>
+      <c r="BH16" s="19"/>
+      <c r="BI16" s="19"/>
+      <c r="BJ16" s="19"/>
+      <c r="BK16" s="19"/>
+      <c r="BL16" s="19"/>
+      <c r="BM16" s="19"/>
+      <c r="BN16" s="19"/>
+      <c r="BO16" s="19"/>
+      <c r="BP16" s="19"/>
+      <c r="BQ16" s="19"/>
+      <c r="BR16" s="19"/>
+    </row>
+    <row r="17" spans="1:70" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A17" s="7">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C17" s="45">
+        <v>12</v>
+      </c>
+      <c r="D17" s="20"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="19"/>
+      <c r="W17" s="19"/>
+      <c r="X17" s="19"/>
+      <c r="Y17" s="19"/>
+      <c r="Z17" s="19"/>
+      <c r="AA17" s="19"/>
+      <c r="AB17" s="100"/>
+      <c r="AC17" s="100"/>
+      <c r="AD17" s="100"/>
+      <c r="AE17" s="19"/>
+      <c r="AF17" s="19"/>
+      <c r="AG17" s="19"/>
+      <c r="AH17" s="19"/>
+      <c r="AI17" s="19"/>
+      <c r="AJ17" s="19"/>
+      <c r="AK17" s="19"/>
+      <c r="AL17" s="19"/>
+      <c r="AM17" s="19"/>
+      <c r="AN17" s="19"/>
+      <c r="AO17" s="19"/>
+      <c r="AP17" s="19"/>
+      <c r="AQ17" s="19"/>
+      <c r="AR17" s="19"/>
+      <c r="AS17" s="19"/>
+      <c r="AT17" s="19"/>
+      <c r="AU17" s="19"/>
+      <c r="AV17" s="19"/>
+      <c r="AW17" s="19"/>
+      <c r="AX17" s="19"/>
+      <c r="AY17" s="19"/>
+      <c r="AZ17" s="19"/>
+      <c r="BA17" s="19"/>
+      <c r="BB17" s="19"/>
+      <c r="BC17" s="19"/>
+      <c r="BD17" s="19"/>
+      <c r="BE17" s="19"/>
+      <c r="BF17" s="19"/>
+      <c r="BG17" s="19"/>
+      <c r="BH17" s="19"/>
+      <c r="BI17" s="19"/>
+      <c r="BJ17" s="19"/>
+      <c r="BK17" s="19"/>
+      <c r="BL17" s="19"/>
+      <c r="BM17" s="19"/>
+      <c r="BN17" s="19"/>
+      <c r="BO17" s="19"/>
+      <c r="BP17" s="19"/>
+      <c r="BQ17" s="19"/>
+      <c r="BR17" s="19"/>
+    </row>
+    <row r="18" spans="1:70" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A18" s="7">
+        <v>5.3</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C18" s="45">
+        <v>112</v>
+      </c>
+      <c r="D18" s="20"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="19"/>
+      <c r="W18" s="19"/>
+      <c r="X18" s="19"/>
+      <c r="Y18" s="19"/>
+      <c r="Z18" s="19"/>
+      <c r="AA18" s="19"/>
+      <c r="AB18" s="19"/>
+      <c r="AC18" s="19"/>
+      <c r="AD18" s="19"/>
+      <c r="AE18" s="100"/>
+      <c r="AF18" s="100"/>
+      <c r="AG18" s="100"/>
+      <c r="AH18" s="100"/>
+      <c r="AI18" s="100"/>
+      <c r="AJ18" s="100"/>
+      <c r="AK18" s="100"/>
+      <c r="AL18" s="100"/>
+      <c r="AM18" s="100"/>
+      <c r="AN18" s="100"/>
+      <c r="AO18" s="100"/>
+      <c r="AP18" s="100"/>
+      <c r="AQ18" s="100"/>
+      <c r="AR18" s="100"/>
+      <c r="AS18" s="97"/>
+      <c r="AT18" s="19"/>
+      <c r="AU18" s="19"/>
+      <c r="AV18" s="19"/>
+      <c r="AW18" s="19"/>
+      <c r="AX18" s="19"/>
+      <c r="AY18" s="19"/>
+      <c r="AZ18" s="19"/>
+      <c r="BA18" s="19"/>
+      <c r="BB18" s="19"/>
+      <c r="BC18" s="19"/>
+      <c r="BD18" s="19"/>
+      <c r="BE18" s="19"/>
+      <c r="BF18" s="19"/>
+      <c r="BG18" s="19"/>
+      <c r="BH18" s="19"/>
+      <c r="BI18" s="19"/>
+      <c r="BJ18" s="19"/>
+      <c r="BK18" s="19"/>
+      <c r="BL18" s="19"/>
+      <c r="BM18" s="19"/>
+      <c r="BN18" s="19"/>
+      <c r="BO18" s="19"/>
+      <c r="BP18" s="19"/>
+      <c r="BQ18" s="19"/>
+      <c r="BR18" s="19"/>
+    </row>
+    <row r="19" spans="1:70" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A19" s="9">
+        <v>3.9</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C19" s="45">
+        <v>8</v>
+      </c>
+      <c r="D19" s="20"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="19"/>
+      <c r="X19" s="19"/>
+      <c r="Y19" s="19"/>
+      <c r="Z19" s="19"/>
+      <c r="AA19" s="19"/>
+      <c r="AB19" s="19"/>
+      <c r="AC19" s="19"/>
+      <c r="AD19" s="19"/>
+      <c r="AE19" s="19"/>
+      <c r="AF19" s="19"/>
+      <c r="AG19" s="19"/>
+      <c r="AH19" s="19"/>
+      <c r="AI19" s="19"/>
+      <c r="AJ19" s="19"/>
+      <c r="AK19" s="19"/>
+      <c r="AL19" s="19"/>
+      <c r="AM19" s="19"/>
+      <c r="AN19" s="19"/>
+      <c r="AO19" s="19"/>
+      <c r="AP19" s="19"/>
+      <c r="AQ19" s="19"/>
+      <c r="AR19" s="19"/>
+      <c r="AS19" s="100"/>
+      <c r="AT19" s="100"/>
+      <c r="AU19" s="19"/>
+      <c r="AV19" s="19"/>
+      <c r="AW19" s="19"/>
+      <c r="AX19" s="19"/>
+      <c r="AY19" s="19"/>
+      <c r="AZ19" s="19"/>
+      <c r="BA19" s="19"/>
+      <c r="BB19" s="19"/>
+      <c r="BC19" s="19"/>
+      <c r="BD19" s="19"/>
+      <c r="BE19" s="19"/>
+      <c r="BF19" s="19"/>
+      <c r="BG19" s="19"/>
+      <c r="BH19" s="19"/>
+      <c r="BI19" s="19"/>
+      <c r="BJ19" s="19"/>
+      <c r="BK19" s="19"/>
+      <c r="BL19" s="19"/>
+      <c r="BM19" s="19"/>
+      <c r="BN19" s="19"/>
+      <c r="BO19" s="19"/>
+      <c r="BP19" s="19"/>
+      <c r="BQ19" s="19"/>
+      <c r="BR19" s="19"/>
+    </row>
+    <row r="20" spans="1:70" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A20" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C20" s="45">
+        <v>8</v>
+      </c>
+      <c r="D20" s="20"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="19"/>
+      <c r="W20" s="19"/>
+      <c r="X20" s="19"/>
+      <c r="Y20" s="19"/>
+      <c r="Z20" s="19"/>
+      <c r="AA20" s="19"/>
+      <c r="AB20" s="19"/>
+      <c r="AC20" s="19"/>
+      <c r="AD20" s="19"/>
+      <c r="AE20" s="19"/>
+      <c r="AF20" s="19"/>
+      <c r="AG20" s="19"/>
+      <c r="AH20" s="19"/>
+      <c r="AI20" s="19"/>
+      <c r="AJ20" s="19"/>
+      <c r="AK20" s="19"/>
+      <c r="AL20" s="19"/>
+      <c r="AM20" s="19"/>
+      <c r="AN20" s="19"/>
+      <c r="AO20" s="19"/>
+      <c r="AP20" s="19"/>
+      <c r="AQ20" s="19"/>
+      <c r="AR20" s="19"/>
+      <c r="AS20" s="100"/>
+      <c r="AT20" s="100"/>
+      <c r="AU20" s="19"/>
+      <c r="AV20" s="19"/>
+      <c r="AW20" s="19"/>
+      <c r="AX20" s="19"/>
+      <c r="AY20" s="19"/>
+      <c r="AZ20" s="19"/>
+      <c r="BA20" s="19"/>
+      <c r="BB20" s="19"/>
+      <c r="BC20" s="19"/>
+      <c r="BD20" s="19"/>
+      <c r="BE20" s="19"/>
+      <c r="BF20" s="19"/>
+      <c r="BG20" s="19"/>
+      <c r="BH20" s="19"/>
+      <c r="BI20" s="19"/>
+      <c r="BJ20" s="19"/>
+      <c r="BK20" s="19"/>
+      <c r="BL20" s="19"/>
+      <c r="BM20" s="19"/>
+      <c r="BN20" s="19"/>
+      <c r="BO20" s="19"/>
+      <c r="BP20" s="19"/>
+      <c r="BQ20" s="19"/>
+      <c r="BR20" s="19"/>
+    </row>
+    <row r="21" spans="1:70" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A21" s="7">
+        <v>5.4</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C21" s="45">
+        <v>64</v>
+      </c>
+      <c r="D21" s="20"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="19"/>
+      <c r="W21" s="19"/>
+      <c r="X21" s="19"/>
+      <c r="Y21" s="19"/>
+      <c r="Z21" s="19"/>
+      <c r="AA21" s="19"/>
+      <c r="AB21" s="19"/>
+      <c r="AC21" s="19"/>
+      <c r="AD21" s="19"/>
+      <c r="AE21" s="19"/>
+      <c r="AF21" s="19"/>
+      <c r="AG21" s="19"/>
+      <c r="AH21" s="19"/>
+      <c r="AI21" s="19"/>
+      <c r="AJ21" s="19"/>
+      <c r="AK21" s="19"/>
+      <c r="AL21" s="19"/>
+      <c r="AM21" s="19"/>
+      <c r="AN21" s="19"/>
+      <c r="AO21" s="19"/>
+      <c r="AP21" s="19"/>
+      <c r="AQ21" s="19"/>
+      <c r="AR21" s="19"/>
+      <c r="AS21" s="19"/>
+      <c r="AT21" s="19"/>
+      <c r="AU21" s="100"/>
+      <c r="AV21" s="100"/>
+      <c r="AW21" s="100"/>
+      <c r="AX21" s="100"/>
+      <c r="AY21" s="100"/>
+      <c r="AZ21" s="100"/>
+      <c r="BA21" s="100"/>
+      <c r="BB21" s="100"/>
+      <c r="BC21" s="100"/>
+      <c r="BD21" s="100"/>
+      <c r="BE21" s="19"/>
+      <c r="BF21" s="19"/>
+      <c r="BG21" s="19"/>
+      <c r="BH21" s="19"/>
+      <c r="BI21" s="19"/>
+      <c r="BJ21" s="19"/>
+      <c r="BK21" s="19"/>
+      <c r="BL21" s="19"/>
+      <c r="BM21" s="19"/>
+      <c r="BN21" s="19"/>
+      <c r="BO21" s="19"/>
+      <c r="BP21" s="19"/>
+      <c r="BQ21" s="19"/>
+      <c r="BR21" s="19"/>
+    </row>
+    <row r="22" spans="1:70" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A22" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C22" s="45">
+        <v>8</v>
+      </c>
+      <c r="D22" s="20"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="19"/>
+      <c r="W22" s="19"/>
+      <c r="X22" s="19"/>
+      <c r="Y22" s="19"/>
+      <c r="Z22" s="19"/>
+      <c r="AA22" s="19"/>
+      <c r="AB22" s="19"/>
+      <c r="AC22" s="19"/>
+      <c r="AD22" s="19"/>
+      <c r="AE22" s="19"/>
+      <c r="AF22" s="19"/>
+      <c r="AG22" s="19"/>
+      <c r="AH22" s="19"/>
+      <c r="AI22" s="19"/>
+      <c r="AJ22" s="19"/>
+      <c r="AK22" s="19"/>
+      <c r="AL22" s="19"/>
+      <c r="AM22" s="19"/>
+      <c r="AN22" s="19"/>
+      <c r="AO22" s="19"/>
+      <c r="AP22" s="19"/>
+      <c r="AQ22" s="19"/>
+      <c r="AR22" s="19"/>
+      <c r="AS22" s="19"/>
+      <c r="AT22" s="19"/>
+      <c r="AU22" s="19"/>
+      <c r="AV22" s="19"/>
+      <c r="AW22" s="19"/>
+      <c r="AX22" s="19"/>
+      <c r="AY22" s="19"/>
+      <c r="AZ22" s="19"/>
+      <c r="BA22" s="100"/>
+      <c r="BB22" s="100"/>
+      <c r="BC22" s="19"/>
+      <c r="BD22" s="19"/>
+      <c r="BE22" s="19"/>
+      <c r="BF22" s="19"/>
+      <c r="BG22" s="19"/>
+      <c r="BH22" s="19"/>
+      <c r="BI22" s="19"/>
+      <c r="BJ22" s="19"/>
+      <c r="BK22" s="19"/>
+      <c r="BL22" s="19"/>
+      <c r="BM22" s="19"/>
+      <c r="BN22" s="19"/>
+      <c r="BO22" s="19"/>
+      <c r="BP22" s="19"/>
+      <c r="BQ22" s="19"/>
+      <c r="BR22" s="19"/>
+    </row>
+    <row r="23" spans="1:70" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A23" s="7">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C23" s="46">
+        <v>8</v>
+      </c>
+      <c r="D23" s="17"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="18"/>
+      <c r="U23" s="18"/>
+      <c r="V23" s="18"/>
+      <c r="W23" s="18"/>
+      <c r="X23" s="18"/>
+      <c r="Y23" s="18"/>
+      <c r="Z23" s="18"/>
+      <c r="AA23" s="18"/>
+      <c r="AB23" s="18"/>
+      <c r="AC23" s="18"/>
+      <c r="AD23" s="18"/>
+      <c r="AE23" s="18"/>
+      <c r="AF23" s="18"/>
+      <c r="AG23" s="18"/>
+      <c r="AH23" s="18"/>
+      <c r="AI23" s="18"/>
+      <c r="AJ23" s="18"/>
+      <c r="AK23" s="18"/>
+      <c r="AL23" s="18"/>
+      <c r="AM23" s="18"/>
+      <c r="AN23" s="18"/>
+      <c r="AO23" s="18"/>
+      <c r="AP23" s="18"/>
+      <c r="AQ23" s="18"/>
+      <c r="AR23" s="18"/>
+      <c r="AS23" s="18"/>
+      <c r="AT23" s="18"/>
+      <c r="AU23" s="18"/>
+      <c r="AV23" s="18"/>
+      <c r="AW23" s="18"/>
+      <c r="AX23" s="18"/>
+      <c r="AY23" s="18"/>
+      <c r="AZ23" s="18"/>
+      <c r="BA23" s="100"/>
+      <c r="BB23" s="100"/>
+      <c r="BC23" s="18"/>
+      <c r="BD23" s="18"/>
+      <c r="BE23" s="18"/>
+      <c r="BF23" s="18"/>
+      <c r="BG23" s="18"/>
+      <c r="BH23" s="18"/>
+      <c r="BI23" s="18"/>
+      <c r="BJ23" s="18"/>
+      <c r="BK23" s="18"/>
+      <c r="BL23" s="18"/>
+      <c r="BM23" s="18"/>
+      <c r="BN23" s="18"/>
+      <c r="BO23" s="18"/>
+      <c r="BP23" s="18"/>
+      <c r="BQ23" s="18"/>
+      <c r="BR23" s="19"/>
+    </row>
+    <row r="24" spans="1:70" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A24" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C24" s="45">
+        <v>72</v>
+      </c>
+      <c r="D24" s="20"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="19"/>
+      <c r="V24" s="19"/>
+      <c r="W24" s="19"/>
+      <c r="X24" s="19"/>
+      <c r="Y24" s="19"/>
+      <c r="Z24" s="19"/>
+      <c r="AA24" s="19"/>
+      <c r="AB24" s="19"/>
+      <c r="AC24" s="19"/>
+      <c r="AD24" s="19"/>
+      <c r="AE24" s="19"/>
+      <c r="AF24" s="19"/>
+      <c r="AG24" s="19"/>
+      <c r="AH24" s="19"/>
+      <c r="AI24" s="19"/>
+      <c r="AJ24" s="19"/>
+      <c r="AK24" s="19"/>
+      <c r="AL24" s="19"/>
+      <c r="AM24" s="19"/>
+      <c r="AN24" s="19"/>
+      <c r="AO24" s="19"/>
+      <c r="AP24" s="19"/>
+      <c r="AQ24" s="19"/>
+      <c r="AR24" s="19"/>
+      <c r="AS24" s="19"/>
+      <c r="AT24" s="19"/>
+      <c r="AU24" s="19"/>
+      <c r="AV24" s="19"/>
+      <c r="AW24" s="19"/>
+      <c r="AX24" s="19"/>
+      <c r="AY24" s="19"/>
+      <c r="AZ24" s="19"/>
+      <c r="BA24" s="19"/>
+      <c r="BB24" s="19"/>
+      <c r="BC24" s="100"/>
+      <c r="BD24" s="100"/>
+      <c r="BE24" s="100"/>
+      <c r="BF24" s="100"/>
+      <c r="BG24" s="100"/>
+      <c r="BJ24" s="19"/>
+      <c r="BK24" s="19"/>
+      <c r="BL24" s="19"/>
+      <c r="BM24" s="19"/>
+      <c r="BN24" s="19"/>
+      <c r="BO24" s="19"/>
+      <c r="BP24" s="19"/>
+      <c r="BQ24" s="19"/>
+      <c r="BR24" s="19"/>
+    </row>
+    <row r="25" spans="1:70" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A25" s="7">
+        <v>6.3</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="45">
+        <v>16</v>
+      </c>
+      <c r="D25" s="20"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
+      <c r="V25" s="19"/>
+      <c r="W25" s="19"/>
+      <c r="X25" s="19"/>
+      <c r="Y25" s="19"/>
+      <c r="Z25" s="19"/>
+      <c r="AA25" s="19"/>
+      <c r="AB25" s="19"/>
+      <c r="AC25" s="19"/>
+      <c r="AD25" s="19"/>
+      <c r="AE25" s="19"/>
+      <c r="AF25" s="19"/>
+      <c r="AG25" s="19"/>
+      <c r="AH25" s="19"/>
+      <c r="AI25" s="19"/>
+      <c r="AJ25" s="19"/>
+      <c r="AK25" s="19"/>
+      <c r="AL25" s="19"/>
+      <c r="AM25" s="19"/>
+      <c r="AN25" s="19"/>
+      <c r="AO25" s="19"/>
+      <c r="AP25" s="19"/>
+      <c r="AQ25" s="19"/>
+      <c r="AR25" s="19"/>
+      <c r="AS25" s="19"/>
+      <c r="AT25" s="19"/>
+      <c r="AU25" s="19"/>
+      <c r="AV25" s="19"/>
+      <c r="AW25" s="19"/>
+      <c r="AX25" s="19"/>
+      <c r="AY25" s="19"/>
+      <c r="AZ25" s="19"/>
+      <c r="BA25" s="19"/>
+      <c r="BB25" s="19"/>
+      <c r="BC25" s="19"/>
+      <c r="BD25" s="19"/>
+      <c r="BE25" s="19"/>
+      <c r="BF25" s="19"/>
+      <c r="BG25" s="19"/>
+      <c r="BH25" s="100"/>
+      <c r="BI25" s="100"/>
+      <c r="BJ25" s="100"/>
+      <c r="BK25" s="100"/>
+      <c r="BN25" s="102"/>
+      <c r="BO25" s="102"/>
+      <c r="BP25" s="102"/>
+      <c r="BQ25" s="102"/>
+      <c r="BR25" s="19"/>
+    </row>
+    <row r="26" spans="1:70" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A26" s="7">
+        <v>6.6</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="45">
+        <v>8</v>
+      </c>
+      <c r="D26" s="20"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
+      <c r="V26" s="19"/>
+      <c r="W26" s="19"/>
+      <c r="X26" s="19"/>
+      <c r="Y26" s="19"/>
+      <c r="Z26" s="19"/>
+      <c r="AA26" s="19"/>
+      <c r="AB26" s="19"/>
+      <c r="AC26" s="19"/>
+      <c r="AD26" s="19"/>
+      <c r="AE26" s="19"/>
+      <c r="AF26" s="19"/>
+      <c r="AG26" s="19"/>
+      <c r="AH26" s="19"/>
+      <c r="AI26" s="19"/>
+      <c r="AJ26" s="19"/>
+      <c r="AK26" s="19"/>
+      <c r="AL26" s="19"/>
+      <c r="AM26" s="19"/>
+      <c r="AN26" s="19"/>
+      <c r="AO26" s="19"/>
+      <c r="AP26" s="19"/>
+      <c r="AQ26" s="19"/>
+      <c r="AR26" s="19"/>
+      <c r="AS26" s="19"/>
+      <c r="AT26" s="19"/>
+      <c r="AU26" s="19"/>
+      <c r="AV26" s="19"/>
+      <c r="AW26" s="19"/>
+      <c r="AX26" s="19"/>
+      <c r="AY26" s="19"/>
+      <c r="AZ26" s="19"/>
+      <c r="BA26" s="19"/>
+      <c r="BB26" s="19"/>
+      <c r="BC26" s="19"/>
+      <c r="BD26" s="19"/>
+      <c r="BE26" s="19"/>
+      <c r="BF26" s="19"/>
+      <c r="BG26" s="19"/>
+      <c r="BH26" s="19"/>
+      <c r="BI26" s="19"/>
+      <c r="BJ26" s="19"/>
+      <c r="BK26" s="19"/>
+      <c r="BL26" s="100"/>
+      <c r="BM26" s="100"/>
+      <c r="BN26" s="19"/>
+      <c r="BO26" s="19"/>
+      <c r="BP26" s="19"/>
+      <c r="BQ26" s="19"/>
+      <c r="BR26" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="D1:Z1"/>
+    <mergeCell ref="AA1:BD1"/>
+    <mergeCell ref="BE1:BR1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I23"/>
   <sheetViews>
@@ -7561,28 +11493,28 @@
     <row r="1" spans="2:9" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:9" ht="37.5" x14ac:dyDescent="0.25">
       <c r="B2" s="38" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D2" s="38" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="E2" s="38" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F2" s="38" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="H2" s="38" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="I2" s="38" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
@@ -7590,13 +11522,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="F3" s="31"/>
       <c r="G3" s="31"/>
@@ -7838,7 +11770,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L22"/>
   <sheetViews>
@@ -7860,40 +11792,40 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F1" s="38" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="G1" s="38" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="H1" s="38" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="I1" s="38" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="J1" s="38" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="K1" s="38" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="L1" s="38" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
@@ -8195,7 +12127,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M22"/>
   <sheetViews>
@@ -8211,546 +12143,222 @@
   <sheetData>
     <row r="1" spans="2:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="53" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
+      <c r="B2" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="44" t="s">
-        <v>104</v>
-      </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="46"/>
+      <c r="B3" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="49"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="49"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="52"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B5" s="47"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="52"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B6" s="47"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="49"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="52"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B7" s="47"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="49"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="52"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B8" s="47"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="49"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="52"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B9" s="50"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="52"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="55"/>
     </row>
     <row r="10" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="53" t="s">
-        <v>103</v>
-      </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
+      <c r="B10" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B11" s="44" t="s">
-        <v>149</v>
-      </c>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="46"/>
+      <c r="B11" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="49"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B12" s="47"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="49"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="52"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B13" s="47"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="49"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="52"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B14" s="47"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="49"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="52"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B15" s="47"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="49"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="52"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B16" s="47"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="49"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B17" s="47"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="49"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B18" s="47"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="49"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B19" s="47"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="49"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B20" s="47"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="49"/>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B21" s="47"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="49"/>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B22" s="50"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="52"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:M9"/>
-    <mergeCell ref="B10:M10"/>
-    <mergeCell ref="B11:M22"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:M17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="1.28515625" style="5" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="53" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="44"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="46"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="49"/>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B5" s="47"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="49"/>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B6" s="47"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="49"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B7" s="47"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="49"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B8" s="47"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="49"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B9" s="50"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="52"/>
-    </row>
-    <row r="10" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="53" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B11" s="44"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="46"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B12" s="47"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="49"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B13" s="47"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="49"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B14" s="47"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="49"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B15" s="47"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="49"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B16" s="47"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="49"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="52"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B17" s="50"/>
@@ -8766,12 +12374,82 @@
       <c r="L17" s="51"/>
       <c r="M17" s="52"/>
     </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B18" s="50"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="52"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B19" s="50"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="52"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B20" s="50"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="52"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B21" s="50"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="52"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B22" s="53"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="55"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B3:M9"/>
     <mergeCell ref="B10:M10"/>
-    <mergeCell ref="B11:M17"/>
+    <mergeCell ref="B11:M22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/01_doc/proj_plan/餐厅订餐系统_项目计划.xlsx
+++ b/01_doc/proj_plan/餐厅订餐系统_项目计划.xlsx
@@ -2079,6 +2079,16 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2184,9 +2194,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2194,6 +2201,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2223,27 +2233,17 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3794,232 +3794,232 @@
   <sheetData>
     <row r="1" spans="2:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="47"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="49"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="55"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B4" s="50"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="52"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="58"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B5" s="50"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="52"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="58"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B6" s="50"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="52"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="58"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B7" s="50"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="52"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="58"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B8" s="50"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="52"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="58"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B9" s="53"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="55"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="61"/>
     </row>
     <row r="10" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="62"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B11" s="47"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="49"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="55"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B12" s="50"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="52"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="58"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B13" s="50"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="52"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="58"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B14" s="50"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="52"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="58"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B15" s="50"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="52"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="58"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B16" s="50"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="52"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="58"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B17" s="53"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="55"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4277,700 +4277,700 @@
   <sheetData>
     <row r="1" spans="2:13" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="58"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="64"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="59"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="61"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="67"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="59"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="61"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="67"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="59"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="61"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="67"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="58"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="64"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="59"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="61"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="67"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="59"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="61"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="67"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="59"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="61"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="67"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="62"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="63"/>
-      <c r="M12" s="64"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="70"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="56"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="62"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="65" t="s">
+      <c r="B14" s="71" t="s">
         <v>171</v>
       </c>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
-      <c r="M14" s="67"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="72"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="73"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="68"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="69"/>
-      <c r="M15" s="70"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="75"/>
+      <c r="K15" s="75"/>
+      <c r="L15" s="75"/>
+      <c r="M15" s="76"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="68"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="70"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="75"/>
+      <c r="K16" s="75"/>
+      <c r="L16" s="75"/>
+      <c r="M16" s="76"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="68"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="69"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="70"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="75"/>
+      <c r="K17" s="75"/>
+      <c r="L17" s="75"/>
+      <c r="M17" s="76"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="68"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="70"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="75"/>
+      <c r="K18" s="75"/>
+      <c r="L18" s="75"/>
+      <c r="M18" s="76"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="68"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="69"/>
-      <c r="L19" s="69"/>
-      <c r="M19" s="70"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="75"/>
+      <c r="K19" s="75"/>
+      <c r="L19" s="75"/>
+      <c r="M19" s="76"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="68"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="69"/>
-      <c r="L20" s="69"/>
-      <c r="M20" s="70"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="75"/>
+      <c r="L20" s="75"/>
+      <c r="M20" s="76"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="68"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="69"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="69"/>
-      <c r="L21" s="69"/>
-      <c r="M21" s="70"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="75"/>
+      <c r="L21" s="75"/>
+      <c r="M21" s="76"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="68"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="69"/>
-      <c r="J22" s="69"/>
-      <c r="K22" s="69"/>
-      <c r="L22" s="69"/>
-      <c r="M22" s="70"/>
+      <c r="B22" s="74"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="75"/>
+      <c r="J22" s="75"/>
+      <c r="K22" s="75"/>
+      <c r="L22" s="75"/>
+      <c r="M22" s="76"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="70"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="75"/>
+      <c r="K23" s="75"/>
+      <c r="L23" s="75"/>
+      <c r="M23" s="76"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B24" s="68"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="70"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="75"/>
+      <c r="J24" s="75"/>
+      <c r="K24" s="75"/>
+      <c r="L24" s="75"/>
+      <c r="M24" s="76"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="68"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="70"/>
+      <c r="B25" s="74"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="75"/>
+      <c r="J25" s="75"/>
+      <c r="K25" s="75"/>
+      <c r="L25" s="75"/>
+      <c r="M25" s="76"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="68"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="69"/>
-      <c r="M26" s="70"/>
+      <c r="B26" s="74"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="75"/>
+      <c r="J26" s="75"/>
+      <c r="K26" s="75"/>
+      <c r="L26" s="75"/>
+      <c r="M26" s="76"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="71"/>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="72"/>
-      <c r="J27" s="72"/>
-      <c r="K27" s="72"/>
-      <c r="L27" s="72"/>
-      <c r="M27" s="73"/>
+      <c r="B27" s="77"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="78"/>
+      <c r="I27" s="78"/>
+      <c r="J27" s="78"/>
+      <c r="K27" s="78"/>
+      <c r="L27" s="78"/>
+      <c r="M27" s="79"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="56" t="s">
+      <c r="B28" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="56"/>
-      <c r="L28" s="56"/>
-      <c r="M28" s="56"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="62"/>
+      <c r="J28" s="62"/>
+      <c r="K28" s="62"/>
+      <c r="L28" s="62"/>
+      <c r="M28" s="62"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="47" t="s">
+      <c r="B29" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="48"/>
-      <c r="K29" s="48"/>
-      <c r="L29" s="48"/>
-      <c r="M29" s="49"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="55"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="50"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="51"/>
-      <c r="K30" s="51"/>
-      <c r="L30" s="51"/>
-      <c r="M30" s="52"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="58"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="50"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="51"/>
-      <c r="K31" s="51"/>
-      <c r="L31" s="51"/>
-      <c r="M31" s="52"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="58"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="50"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="51"/>
-      <c r="J32" s="51"/>
-      <c r="K32" s="51"/>
-      <c r="L32" s="51"/>
-      <c r="M32" s="52"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="58"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" s="50"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="51"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="51"/>
-      <c r="J33" s="51"/>
-      <c r="K33" s="51"/>
-      <c r="L33" s="51"/>
-      <c r="M33" s="52"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="57"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="57"/>
+      <c r="M33" s="58"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B34" s="50"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="51"/>
-      <c r="I34" s="51"/>
-      <c r="J34" s="51"/>
-      <c r="K34" s="51"/>
-      <c r="L34" s="51"/>
-      <c r="M34" s="52"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="57"/>
+      <c r="M34" s="58"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="53"/>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="54"/>
-      <c r="H35" s="54"/>
-      <c r="I35" s="54"/>
-      <c r="J35" s="54"/>
-      <c r="K35" s="54"/>
-      <c r="L35" s="54"/>
-      <c r="M35" s="55"/>
+      <c r="B35" s="59"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="60"/>
+      <c r="J35" s="60"/>
+      <c r="K35" s="60"/>
+      <c r="L35" s="60"/>
+      <c r="M35" s="61"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B36" s="56" t="s">
+      <c r="B36" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="56"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="56"/>
-      <c r="H36" s="56"/>
-      <c r="I36" s="56"/>
-      <c r="J36" s="56"/>
-      <c r="K36" s="56"/>
-      <c r="L36" s="56"/>
-      <c r="M36" s="56"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="62"/>
+      <c r="H36" s="62"/>
+      <c r="I36" s="62"/>
+      <c r="J36" s="62"/>
+      <c r="K36" s="62"/>
+      <c r="L36" s="62"/>
+      <c r="M36" s="62"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B37" s="65" t="s">
+      <c r="B37" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="C37" s="74"/>
-      <c r="D37" s="74"/>
-      <c r="E37" s="74"/>
-      <c r="F37" s="74"/>
-      <c r="G37" s="74"/>
-      <c r="H37" s="74"/>
-      <c r="I37" s="74"/>
-      <c r="J37" s="74"/>
-      <c r="K37" s="74"/>
-      <c r="L37" s="74"/>
-      <c r="M37" s="75"/>
+      <c r="C37" s="80"/>
+      <c r="D37" s="80"/>
+      <c r="E37" s="80"/>
+      <c r="F37" s="80"/>
+      <c r="G37" s="80"/>
+      <c r="H37" s="80"/>
+      <c r="I37" s="80"/>
+      <c r="J37" s="80"/>
+      <c r="K37" s="80"/>
+      <c r="L37" s="80"/>
+      <c r="M37" s="81"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B38" s="76"/>
-      <c r="C38" s="77"/>
-      <c r="D38" s="77"/>
-      <c r="E38" s="77"/>
-      <c r="F38" s="77"/>
-      <c r="G38" s="77"/>
-      <c r="H38" s="77"/>
-      <c r="I38" s="77"/>
-      <c r="J38" s="77"/>
-      <c r="K38" s="77"/>
-      <c r="L38" s="77"/>
-      <c r="M38" s="78"/>
+      <c r="B38" s="82"/>
+      <c r="C38" s="83"/>
+      <c r="D38" s="83"/>
+      <c r="E38" s="83"/>
+      <c r="F38" s="83"/>
+      <c r="G38" s="83"/>
+      <c r="H38" s="83"/>
+      <c r="I38" s="83"/>
+      <c r="J38" s="83"/>
+      <c r="K38" s="83"/>
+      <c r="L38" s="83"/>
+      <c r="M38" s="84"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B39" s="76"/>
-      <c r="C39" s="77"/>
-      <c r="D39" s="77"/>
-      <c r="E39" s="77"/>
-      <c r="F39" s="77"/>
-      <c r="G39" s="77"/>
-      <c r="H39" s="77"/>
-      <c r="I39" s="77"/>
-      <c r="J39" s="77"/>
-      <c r="K39" s="77"/>
-      <c r="L39" s="77"/>
-      <c r="M39" s="78"/>
+      <c r="B39" s="82"/>
+      <c r="C39" s="83"/>
+      <c r="D39" s="83"/>
+      <c r="E39" s="83"/>
+      <c r="F39" s="83"/>
+      <c r="G39" s="83"/>
+      <c r="H39" s="83"/>
+      <c r="I39" s="83"/>
+      <c r="J39" s="83"/>
+      <c r="K39" s="83"/>
+      <c r="L39" s="83"/>
+      <c r="M39" s="84"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B40" s="76"/>
-      <c r="C40" s="77"/>
-      <c r="D40" s="77"/>
-      <c r="E40" s="77"/>
-      <c r="F40" s="77"/>
-      <c r="G40" s="77"/>
-      <c r="H40" s="77"/>
-      <c r="I40" s="77"/>
-      <c r="J40" s="77"/>
-      <c r="K40" s="77"/>
-      <c r="L40" s="77"/>
-      <c r="M40" s="78"/>
+      <c r="B40" s="82"/>
+      <c r="C40" s="83"/>
+      <c r="D40" s="83"/>
+      <c r="E40" s="83"/>
+      <c r="F40" s="83"/>
+      <c r="G40" s="83"/>
+      <c r="H40" s="83"/>
+      <c r="I40" s="83"/>
+      <c r="J40" s="83"/>
+      <c r="K40" s="83"/>
+      <c r="L40" s="83"/>
+      <c r="M40" s="84"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="79"/>
-      <c r="C41" s="80"/>
-      <c r="D41" s="80"/>
-      <c r="E41" s="80"/>
-      <c r="F41" s="80"/>
-      <c r="G41" s="80"/>
-      <c r="H41" s="80"/>
-      <c r="I41" s="80"/>
-      <c r="J41" s="80"/>
-      <c r="K41" s="80"/>
-      <c r="L41" s="80"/>
-      <c r="M41" s="81"/>
+      <c r="B41" s="85"/>
+      <c r="C41" s="86"/>
+      <c r="D41" s="86"/>
+      <c r="E41" s="86"/>
+      <c r="F41" s="86"/>
+      <c r="G41" s="86"/>
+      <c r="H41" s="86"/>
+      <c r="I41" s="86"/>
+      <c r="J41" s="86"/>
+      <c r="K41" s="86"/>
+      <c r="L41" s="86"/>
+      <c r="M41" s="87"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B42" s="56" t="s">
+      <c r="B42" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="56"/>
-      <c r="D42" s="56"/>
-      <c r="E42" s="56"/>
-      <c r="F42" s="56"/>
-      <c r="G42" s="56"/>
-      <c r="H42" s="56"/>
-      <c r="I42" s="56"/>
-      <c r="J42" s="56"/>
-      <c r="K42" s="56"/>
-      <c r="L42" s="56"/>
-      <c r="M42" s="56"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="62"/>
+      <c r="H42" s="62"/>
+      <c r="I42" s="62"/>
+      <c r="J42" s="62"/>
+      <c r="K42" s="62"/>
+      <c r="L42" s="62"/>
+      <c r="M42" s="62"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B43" s="47" t="s">
+      <c r="B43" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="C43" s="48"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="48"/>
-      <c r="H43" s="48"/>
-      <c r="I43" s="48"/>
-      <c r="J43" s="48"/>
-      <c r="K43" s="48"/>
-      <c r="L43" s="48"/>
-      <c r="M43" s="49"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="54"/>
+      <c r="G43" s="54"/>
+      <c r="H43" s="54"/>
+      <c r="I43" s="54"/>
+      <c r="J43" s="54"/>
+      <c r="K43" s="54"/>
+      <c r="L43" s="54"/>
+      <c r="M43" s="55"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B44" s="50"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="51"/>
-      <c r="E44" s="51"/>
-      <c r="F44" s="51"/>
-      <c r="G44" s="51"/>
-      <c r="H44" s="51"/>
-      <c r="I44" s="51"/>
-      <c r="J44" s="51"/>
-      <c r="K44" s="51"/>
-      <c r="L44" s="51"/>
-      <c r="M44" s="52"/>
+      <c r="B44" s="56"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="57"/>
+      <c r="H44" s="57"/>
+      <c r="I44" s="57"/>
+      <c r="J44" s="57"/>
+      <c r="K44" s="57"/>
+      <c r="L44" s="57"/>
+      <c r="M44" s="58"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B45" s="50"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="51"/>
-      <c r="F45" s="51"/>
-      <c r="G45" s="51"/>
-      <c r="H45" s="51"/>
-      <c r="I45" s="51"/>
-      <c r="J45" s="51"/>
-      <c r="K45" s="51"/>
-      <c r="L45" s="51"/>
-      <c r="M45" s="52"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="57"/>
+      <c r="G45" s="57"/>
+      <c r="H45" s="57"/>
+      <c r="I45" s="57"/>
+      <c r="J45" s="57"/>
+      <c r="K45" s="57"/>
+      <c r="L45" s="57"/>
+      <c r="M45" s="58"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="50"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="51"/>
-      <c r="E46" s="51"/>
-      <c r="F46" s="51"/>
-      <c r="G46" s="51"/>
-      <c r="H46" s="51"/>
-      <c r="I46" s="51"/>
-      <c r="J46" s="51"/>
-      <c r="K46" s="51"/>
-      <c r="L46" s="51"/>
-      <c r="M46" s="52"/>
+      <c r="B46" s="56"/>
+      <c r="C46" s="57"/>
+      <c r="D46" s="57"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="57"/>
+      <c r="G46" s="57"/>
+      <c r="H46" s="57"/>
+      <c r="I46" s="57"/>
+      <c r="J46" s="57"/>
+      <c r="K46" s="57"/>
+      <c r="L46" s="57"/>
+      <c r="M46" s="58"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B47" s="50"/>
-      <c r="C47" s="51"/>
-      <c r="D47" s="51"/>
-      <c r="E47" s="51"/>
-      <c r="F47" s="51"/>
-      <c r="G47" s="51"/>
-      <c r="H47" s="51"/>
-      <c r="I47" s="51"/>
-      <c r="J47" s="51"/>
-      <c r="K47" s="51"/>
-      <c r="L47" s="51"/>
-      <c r="M47" s="52"/>
+      <c r="B47" s="56"/>
+      <c r="C47" s="57"/>
+      <c r="D47" s="57"/>
+      <c r="E47" s="57"/>
+      <c r="F47" s="57"/>
+      <c r="G47" s="57"/>
+      <c r="H47" s="57"/>
+      <c r="I47" s="57"/>
+      <c r="J47" s="57"/>
+      <c r="K47" s="57"/>
+      <c r="L47" s="57"/>
+      <c r="M47" s="58"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B48" s="50"/>
-      <c r="C48" s="51"/>
-      <c r="D48" s="51"/>
-      <c r="E48" s="51"/>
-      <c r="F48" s="51"/>
-      <c r="G48" s="51"/>
-      <c r="H48" s="51"/>
-      <c r="I48" s="51"/>
-      <c r="J48" s="51"/>
-      <c r="K48" s="51"/>
-      <c r="L48" s="51"/>
-      <c r="M48" s="52"/>
+      <c r="B48" s="56"/>
+      <c r="C48" s="57"/>
+      <c r="D48" s="57"/>
+      <c r="E48" s="57"/>
+      <c r="F48" s="57"/>
+      <c r="G48" s="57"/>
+      <c r="H48" s="57"/>
+      <c r="I48" s="57"/>
+      <c r="J48" s="57"/>
+      <c r="K48" s="57"/>
+      <c r="L48" s="57"/>
+      <c r="M48" s="58"/>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B49" s="53"/>
-      <c r="C49" s="54"/>
-      <c r="D49" s="54"/>
-      <c r="E49" s="54"/>
-      <c r="F49" s="54"/>
-      <c r="G49" s="54"/>
-      <c r="H49" s="54"/>
-      <c r="I49" s="54"/>
-      <c r="J49" s="54"/>
-      <c r="K49" s="54"/>
-      <c r="L49" s="54"/>
-      <c r="M49" s="55"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="60"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="60"/>
+      <c r="G49" s="60"/>
+      <c r="H49" s="60"/>
+      <c r="I49" s="60"/>
+      <c r="J49" s="60"/>
+      <c r="K49" s="60"/>
+      <c r="L49" s="60"/>
+      <c r="M49" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -5019,10 +5019,10 @@
   <sheetData>
     <row r="1" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="83"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
       <c r="E2" s="12" t="s">
         <v>3</v>
       </c>
@@ -5037,10 +5037,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="82">
+      <c r="A3" s="91">
         <v>1</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="91" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="7">
@@ -5063,8 +5063,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="82"/>
-      <c r="B4" s="82"/>
+      <c r="A4" s="91"/>
+      <c r="B4" s="91"/>
       <c r="C4" s="7">
         <v>1.2</v>
       </c>
@@ -5085,8 +5085,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="82"/>
-      <c r="B5" s="82"/>
+      <c r="A5" s="91"/>
+      <c r="B5" s="91"/>
       <c r="C5" s="7">
         <v>1.3</v>
       </c>
@@ -5107,8 +5107,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="82"/>
-      <c r="B6" s="82"/>
+      <c r="A6" s="91"/>
+      <c r="B6" s="91"/>
       <c r="C6" s="7">
         <v>1.4</v>
       </c>
@@ -5129,10 +5129,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="84">
+      <c r="A7" s="89">
         <v>2</v>
       </c>
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="91" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="7">
@@ -5155,8 +5155,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="85"/>
-      <c r="B8" s="82"/>
+      <c r="A8" s="90"/>
+      <c r="B8" s="91"/>
       <c r="C8" s="7">
         <v>2.2000000000000002</v>
       </c>
@@ -5177,8 +5177,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="86"/>
-      <c r="B9" s="82"/>
+      <c r="A9" s="92"/>
+      <c r="B9" s="91"/>
       <c r="C9" s="7">
         <v>2.2999999999999998</v>
       </c>
@@ -5199,10 +5199,10 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="82">
+      <c r="A10" s="91">
         <v>3</v>
       </c>
-      <c r="B10" s="82" t="s">
+      <c r="B10" s="91" t="s">
         <v>38</v>
       </c>
       <c r="C10" s="9">
@@ -5225,8 +5225,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="82"/>
-      <c r="B11" s="82"/>
+      <c r="A11" s="91"/>
+      <c r="B11" s="91"/>
       <c r="C11" s="9">
         <v>3.2</v>
       </c>
@@ -5247,8 +5247,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="82"/>
-      <c r="B12" s="82"/>
+      <c r="A12" s="91"/>
+      <c r="B12" s="91"/>
       <c r="C12" s="9">
         <v>3.3</v>
       </c>
@@ -5269,8 +5269,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="82"/>
-      <c r="B13" s="82"/>
+      <c r="A13" s="91"/>
+      <c r="B13" s="91"/>
       <c r="C13" s="9">
         <v>3.4</v>
       </c>
@@ -5291,8 +5291,8 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="82"/>
-      <c r="B14" s="82"/>
+      <c r="A14" s="91"/>
+      <c r="B14" s="91"/>
       <c r="C14" s="9">
         <v>3.5</v>
       </c>
@@ -5313,8 +5313,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="82"/>
-      <c r="B15" s="82"/>
+      <c r="A15" s="91"/>
+      <c r="B15" s="91"/>
       <c r="C15" s="9">
         <v>3.6</v>
       </c>
@@ -5335,8 +5335,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="82"/>
-      <c r="B16" s="82"/>
+      <c r="A16" s="91"/>
+      <c r="B16" s="91"/>
       <c r="C16" s="9">
         <v>3.7</v>
       </c>
@@ -5357,8 +5357,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="82"/>
-      <c r="B17" s="82"/>
+      <c r="A17" s="91"/>
+      <c r="B17" s="91"/>
       <c r="C17" s="9">
         <v>3.8</v>
       </c>
@@ -5379,8 +5379,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="82"/>
-      <c r="B18" s="82"/>
+      <c r="A18" s="91"/>
+      <c r="B18" s="91"/>
       <c r="C18" s="9">
         <v>3.9</v>
       </c>
@@ -5401,8 +5401,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="82"/>
-      <c r="B19" s="82"/>
+      <c r="A19" s="91"/>
+      <c r="B19" s="91"/>
       <c r="C19" s="9" t="s">
         <v>48</v>
       </c>
@@ -5423,10 +5423,10 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="82">
+      <c r="A20" s="91">
         <v>4</v>
       </c>
-      <c r="B20" s="84" t="s">
+      <c r="B20" s="89" t="s">
         <v>50</v>
       </c>
       <c r="C20" s="7">
@@ -5449,8 +5449,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="82"/>
-      <c r="B21" s="85"/>
+      <c r="A21" s="91"/>
+      <c r="B21" s="90"/>
       <c r="C21" s="7">
         <v>4.2</v>
       </c>
@@ -5471,8 +5471,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="82"/>
-      <c r="B22" s="85"/>
+      <c r="A22" s="91"/>
+      <c r="B22" s="90"/>
       <c r="C22" s="7">
         <v>4.3</v>
       </c>
@@ -5493,8 +5493,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="82"/>
-      <c r="B23" s="85"/>
+      <c r="A23" s="91"/>
+      <c r="B23" s="90"/>
       <c r="C23" s="7">
         <v>4.4000000000000004</v>
       </c>
@@ -5515,8 +5515,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="82"/>
-      <c r="B24" s="85"/>
+      <c r="A24" s="91"/>
+      <c r="B24" s="90"/>
       <c r="C24" s="7">
         <v>4.5</v>
       </c>
@@ -5537,8 +5537,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="82"/>
-      <c r="B25" s="85"/>
+      <c r="A25" s="91"/>
+      <c r="B25" s="90"/>
       <c r="C25" s="7">
         <v>4.5999999999999996</v>
       </c>
@@ -5559,10 +5559,10 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="82">
+      <c r="A26" s="91">
         <v>5</v>
       </c>
-      <c r="B26" s="82" t="s">
+      <c r="B26" s="91" t="s">
         <v>57</v>
       </c>
       <c r="C26" s="7">
@@ -5585,8 +5585,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="82"/>
-      <c r="B27" s="82"/>
+      <c r="A27" s="91"/>
+      <c r="B27" s="91"/>
       <c r="C27" s="7">
         <v>5.2</v>
       </c>
@@ -5607,8 +5607,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="82"/>
-      <c r="B28" s="82"/>
+      <c r="A28" s="91"/>
+      <c r="B28" s="91"/>
       <c r="C28" s="7">
         <v>5.3</v>
       </c>
@@ -5629,8 +5629,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="82"/>
-      <c r="B29" s="82"/>
+      <c r="A29" s="91"/>
+      <c r="B29" s="91"/>
       <c r="C29" s="7">
         <v>5.4</v>
       </c>
@@ -5651,8 +5651,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="82"/>
-      <c r="B30" s="82"/>
+      <c r="A30" s="91"/>
+      <c r="B30" s="91"/>
       <c r="C30" s="7">
         <v>5.5</v>
       </c>
@@ -5673,10 +5673,10 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="82">
+      <c r="A31" s="91">
         <v>6</v>
       </c>
-      <c r="B31" s="82" t="s">
+      <c r="B31" s="91" t="s">
         <v>63</v>
       </c>
       <c r="C31" s="7">
@@ -5699,8 +5699,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="82"/>
-      <c r="B32" s="82"/>
+      <c r="A32" s="91"/>
+      <c r="B32" s="91"/>
       <c r="C32" s="7">
         <v>6.2</v>
       </c>
@@ -5721,8 +5721,8 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="82"/>
-      <c r="B33" s="82"/>
+      <c r="A33" s="91"/>
+      <c r="B33" s="91"/>
       <c r="C33" s="7">
         <v>6.3</v>
       </c>
@@ -5743,8 +5743,8 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="82"/>
-      <c r="B34" s="82"/>
+      <c r="A34" s="91"/>
+      <c r="B34" s="91"/>
       <c r="C34" s="7">
         <v>6.4</v>
       </c>
@@ -5765,8 +5765,8 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" s="82"/>
-      <c r="B35" s="82"/>
+      <c r="A35" s="91"/>
+      <c r="B35" s="91"/>
       <c r="C35" s="7">
         <v>6.5</v>
       </c>
@@ -5787,8 +5787,8 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A36" s="82"/>
-      <c r="B36" s="82"/>
+      <c r="A36" s="91"/>
+      <c r="B36" s="91"/>
       <c r="C36" s="7">
         <v>6.6</v>
       </c>
@@ -5809,10 +5809,10 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" s="82">
+      <c r="A37" s="91">
         <v>7</v>
       </c>
-      <c r="B37" s="82" t="s">
+      <c r="B37" s="91" t="s">
         <v>154</v>
       </c>
       <c r="C37" s="7">
@@ -5835,8 +5835,8 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A38" s="82"/>
-      <c r="B38" s="82"/>
+      <c r="A38" s="91"/>
+      <c r="B38" s="91"/>
       <c r="C38" s="7">
         <v>7.2</v>
       </c>
@@ -5857,8 +5857,8 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A39" s="82"/>
-      <c r="B39" s="82"/>
+      <c r="A39" s="91"/>
+      <c r="B39" s="91"/>
       <c r="C39" s="7">
         <v>7.3</v>
       </c>
@@ -5879,8 +5879,8 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A40" s="82"/>
-      <c r="B40" s="82"/>
+      <c r="A40" s="91"/>
+      <c r="B40" s="91"/>
       <c r="C40" s="7">
         <v>7.4</v>
       </c>
@@ -5901,8 +5901,8 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A41" s="82"/>
-      <c r="B41" s="82"/>
+      <c r="A41" s="91"/>
+      <c r="B41" s="91"/>
       <c r="C41" s="7">
         <v>7.5</v>
       </c>
@@ -5924,6 +5924,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="A31:A36"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="A20:A25"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="B20:B25"/>
     <mergeCell ref="B26:B30"/>
@@ -5934,11 +5939,6 @@
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="B10:B19"/>
     <mergeCell ref="A10:A19"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="A31:A36"/>
-    <mergeCell ref="B31:B36"/>
-    <mergeCell ref="A20:A25"/>
   </mergeCells>
   <conditionalFormatting sqref="E3 E4:H30">
     <cfRule type="cellIs" dxfId="159" priority="217" operator="equal">
@@ -6540,60 +6540,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="92"/>
-      <c r="B1" s="92"/>
-      <c r="C1" s="94" t="s">
+      <c r="A1" s="98"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="100" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="87" t="s">
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="93" t="s">
         <v>67</v>
       </c>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
-      <c r="W1" s="88"/>
-      <c r="X1" s="88"/>
-      <c r="Y1" s="88"/>
-      <c r="Z1" s="88"/>
-      <c r="AA1" s="88"/>
-      <c r="AB1" s="88"/>
-      <c r="AC1" s="88"/>
-      <c r="AD1" s="88"/>
-      <c r="AE1" s="88"/>
-      <c r="AF1" s="88"/>
-      <c r="AG1" s="88"/>
-      <c r="AH1" s="88"/>
-      <c r="AI1" s="88"/>
-      <c r="AJ1" s="88"/>
-      <c r="AK1" s="88"/>
-      <c r="AL1" s="88"/>
-      <c r="AM1" s="88"/>
-      <c r="AN1" s="88"/>
-      <c r="AO1" s="88"/>
-      <c r="AP1" s="88"/>
-      <c r="AQ1" s="88"/>
-      <c r="AR1" s="88"/>
-      <c r="AS1" s="88"/>
-      <c r="AT1" s="89"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="94"/>
+      <c r="S1" s="94"/>
+      <c r="T1" s="94"/>
+      <c r="U1" s="94"/>
+      <c r="V1" s="94"/>
+      <c r="W1" s="94"/>
+      <c r="X1" s="94"/>
+      <c r="Y1" s="94"/>
+      <c r="Z1" s="94"/>
+      <c r="AA1" s="94"/>
+      <c r="AB1" s="94"/>
+      <c r="AC1" s="94"/>
+      <c r="AD1" s="94"/>
+      <c r="AE1" s="94"/>
+      <c r="AF1" s="94"/>
+      <c r="AG1" s="94"/>
+      <c r="AH1" s="94"/>
+      <c r="AI1" s="94"/>
+      <c r="AJ1" s="94"/>
+      <c r="AK1" s="94"/>
+      <c r="AL1" s="94"/>
+      <c r="AM1" s="94"/>
+      <c r="AN1" s="94"/>
+      <c r="AO1" s="94"/>
+      <c r="AP1" s="94"/>
+      <c r="AQ1" s="94"/>
+      <c r="AR1" s="94"/>
+      <c r="AS1" s="94"/>
+      <c r="AT1" s="95"/>
     </row>
     <row r="2" spans="1:58" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="93"/>
-      <c r="B2" s="93"/>
+      <c r="A2" s="99"/>
+      <c r="B2" s="99"/>
       <c r="C2" s="16">
         <v>18</v>
       </c>
@@ -6746,9 +6746,9 @@
       <c r="B3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="90"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
@@ -9264,7 +9264,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
+      <selection pane="bottomRight" activeCell="BM2" sqref="BM2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9280,158 +9280,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:82" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="103" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="96" t="s">
+      <c r="B1" s="103"/>
+      <c r="C1" s="104" t="s">
         <v>187</v>
       </c>
-      <c r="D1" s="103" t="s">
+      <c r="D1" s="101" t="s">
         <v>172</v>
       </c>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="103"/>
-      <c r="P1" s="103"/>
-      <c r="Q1" s="103"/>
-      <c r="R1" s="103"/>
-      <c r="S1" s="103"/>
-      <c r="T1" s="103"/>
-      <c r="U1" s="103"/>
-      <c r="V1" s="103"/>
-      <c r="W1" s="103"/>
-      <c r="X1" s="103"/>
-      <c r="Y1" s="103"/>
-      <c r="Z1" s="103"/>
-      <c r="AA1" s="104" t="s">
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="101"/>
+      <c r="O1" s="101"/>
+      <c r="P1" s="101"/>
+      <c r="Q1" s="101"/>
+      <c r="R1" s="101"/>
+      <c r="S1" s="101"/>
+      <c r="T1" s="101"/>
+      <c r="U1" s="101"/>
+      <c r="V1" s="101"/>
+      <c r="W1" s="101"/>
+      <c r="X1" s="101"/>
+      <c r="Y1" s="101"/>
+      <c r="Z1" s="101"/>
+      <c r="AA1" s="102" t="s">
         <v>173</v>
       </c>
-      <c r="AB1" s="104"/>
-      <c r="AC1" s="104"/>
-      <c r="AD1" s="104"/>
-      <c r="AE1" s="104"/>
-      <c r="AF1" s="104"/>
-      <c r="AG1" s="104"/>
-      <c r="AH1" s="104"/>
-      <c r="AI1" s="104"/>
-      <c r="AJ1" s="104"/>
-      <c r="AK1" s="104"/>
-      <c r="AL1" s="104"/>
-      <c r="AM1" s="104"/>
-      <c r="AN1" s="104"/>
-      <c r="AO1" s="104"/>
-      <c r="AP1" s="104"/>
-      <c r="AQ1" s="104"/>
-      <c r="AR1" s="104"/>
-      <c r="AS1" s="104"/>
-      <c r="AT1" s="104"/>
-      <c r="AU1" s="104"/>
-      <c r="AV1" s="104"/>
-      <c r="AW1" s="104"/>
-      <c r="AX1" s="104"/>
-      <c r="AY1" s="104"/>
-      <c r="AZ1" s="104"/>
-      <c r="BA1" s="104"/>
-      <c r="BB1" s="104"/>
-      <c r="BC1" s="104"/>
-      <c r="BD1" s="104"/>
-      <c r="BE1" s="104" t="s">
+      <c r="AB1" s="102"/>
+      <c r="AC1" s="102"/>
+      <c r="AD1" s="102"/>
+      <c r="AE1" s="102"/>
+      <c r="AF1" s="102"/>
+      <c r="AG1" s="102"/>
+      <c r="AH1" s="102"/>
+      <c r="AI1" s="102"/>
+      <c r="AJ1" s="102"/>
+      <c r="AK1" s="102"/>
+      <c r="AL1" s="102"/>
+      <c r="AM1" s="102"/>
+      <c r="AN1" s="102"/>
+      <c r="AO1" s="102"/>
+      <c r="AP1" s="102"/>
+      <c r="AQ1" s="102"/>
+      <c r="AR1" s="102"/>
+      <c r="AS1" s="102"/>
+      <c r="AT1" s="102"/>
+      <c r="AU1" s="102"/>
+      <c r="AV1" s="102"/>
+      <c r="AW1" s="102"/>
+      <c r="AX1" s="102"/>
+      <c r="AY1" s="102"/>
+      <c r="AZ1" s="102"/>
+      <c r="BA1" s="102"/>
+      <c r="BB1" s="102"/>
+      <c r="BC1" s="102"/>
+      <c r="BD1" s="102"/>
+      <c r="BE1" s="102" t="s">
         <v>188</v>
       </c>
-      <c r="BF1" s="104"/>
-      <c r="BG1" s="104"/>
-      <c r="BH1" s="104"/>
-      <c r="BI1" s="104"/>
-      <c r="BJ1" s="104"/>
-      <c r="BK1" s="104"/>
-      <c r="BL1" s="104"/>
-      <c r="BM1" s="104"/>
-      <c r="BN1" s="104"/>
-      <c r="BO1" s="104"/>
-      <c r="BP1" s="104"/>
-      <c r="BQ1" s="104"/>
-      <c r="BR1" s="104"/>
+      <c r="BF1" s="102"/>
+      <c r="BG1" s="102"/>
+      <c r="BH1" s="102"/>
+      <c r="BI1" s="102"/>
+      <c r="BJ1" s="102"/>
+      <c r="BK1" s="102"/>
+      <c r="BL1" s="102"/>
+      <c r="BM1" s="102"/>
+      <c r="BN1" s="102"/>
+      <c r="BO1" s="102"/>
+      <c r="BP1" s="102"/>
+      <c r="BQ1" s="102"/>
+      <c r="BR1" s="102"/>
     </row>
     <row r="2" spans="1:82" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="95"/>
-      <c r="B2" s="95"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="98">
+      <c r="A2" s="103"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="48">
         <v>9</v>
       </c>
-      <c r="E2" s="99">
+      <c r="E2" s="49">
         <v>10</v>
       </c>
-      <c r="F2" s="98">
+      <c r="F2" s="48">
         <v>11</v>
       </c>
-      <c r="G2" s="99">
+      <c r="G2" s="49">
         <v>12</v>
       </c>
-      <c r="H2" s="98">
+      <c r="H2" s="48">
         <v>13</v>
       </c>
-      <c r="I2" s="99">
+      <c r="I2" s="49">
         <v>14</v>
       </c>
-      <c r="J2" s="98">
+      <c r="J2" s="48">
         <v>15</v>
       </c>
-      <c r="K2" s="99">
+      <c r="K2" s="49">
         <v>16</v>
       </c>
-      <c r="L2" s="98">
+      <c r="L2" s="48">
         <v>17</v>
       </c>
-      <c r="M2" s="99">
+      <c r="M2" s="49">
         <v>18</v>
       </c>
-      <c r="N2" s="98">
+      <c r="N2" s="48">
         <v>19</v>
       </c>
-      <c r="O2" s="99">
+      <c r="O2" s="49">
         <v>20</v>
       </c>
-      <c r="P2" s="98">
+      <c r="P2" s="48">
         <v>21</v>
       </c>
-      <c r="Q2" s="99">
+      <c r="Q2" s="49">
         <v>22</v>
       </c>
-      <c r="R2" s="98">
+      <c r="R2" s="48">
         <v>23</v>
       </c>
-      <c r="S2" s="99">
+      <c r="S2" s="49">
         <v>24</v>
       </c>
-      <c r="T2" s="98">
+      <c r="T2" s="48">
         <v>25</v>
       </c>
-      <c r="U2" s="99">
+      <c r="U2" s="49">
         <v>26</v>
       </c>
-      <c r="V2" s="98">
+      <c r="V2" s="48">
         <v>27</v>
       </c>
-      <c r="W2" s="99">
+      <c r="W2" s="49">
         <v>28</v>
       </c>
-      <c r="X2" s="98">
+      <c r="X2" s="48">
         <v>29</v>
       </c>
-      <c r="Y2" s="99">
+      <c r="Y2" s="49">
         <v>30</v>
       </c>
-      <c r="Z2" s="98">
+      <c r="Z2" s="48">
         <v>31</v>
       </c>
       <c r="AA2" s="16">
@@ -9583,9 +9583,9 @@
       <c r="C3" s="45">
         <v>8</v>
       </c>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="101"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="51"/>
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
       <c r="I3" s="19"/>
@@ -9667,14 +9667,14 @@
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="11"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="102"/>
-      <c r="K4" s="102"/>
-      <c r="L4" s="102"/>
-      <c r="M4" s="102"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
       <c r="N4" s="19"/>
       <c r="O4" s="19"/>
       <c r="P4" s="19"/>
@@ -9750,27 +9750,27 @@
       <c r="D5" s="20"/>
       <c r="E5" s="21"/>
       <c r="F5" s="18"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="100"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="102"/>
-      <c r="O5" s="102"/>
-      <c r="P5" s="102"/>
-      <c r="Q5" s="102"/>
-      <c r="R5" s="102"/>
-      <c r="S5" s="102"/>
-      <c r="T5" s="102"/>
-      <c r="U5" s="102"/>
-      <c r="V5" s="102"/>
-      <c r="W5" s="102"/>
-      <c r="X5" s="102"/>
-      <c r="Y5" s="102"/>
-      <c r="Z5" s="102"/>
-      <c r="AA5" s="102"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="52"/>
+      <c r="R5" s="52"/>
+      <c r="S5" s="52"/>
+      <c r="T5" s="52"/>
+      <c r="U5" s="52"/>
+      <c r="V5" s="52"/>
+      <c r="W5" s="52"/>
+      <c r="X5" s="52"/>
+      <c r="Y5" s="52"/>
+      <c r="Z5" s="52"/>
+      <c r="AA5" s="52"/>
       <c r="AB5" s="19"/>
       <c r="AC5" s="19"/>
       <c r="AD5" s="19"/>
@@ -9839,20 +9839,20 @@
       <c r="K6" s="18"/>
       <c r="L6" s="18"/>
       <c r="M6" s="18"/>
-      <c r="N6" s="100"/>
-      <c r="O6" s="100"/>
-      <c r="P6" s="100"/>
-      <c r="Q6" s="100"/>
-      <c r="R6" s="100"/>
-      <c r="S6" s="100"/>
-      <c r="T6" s="100"/>
-      <c r="U6" s="100"/>
-      <c r="V6" s="100"/>
-      <c r="W6" s="100"/>
-      <c r="X6" s="100"/>
-      <c r="Y6" s="100"/>
-      <c r="Z6" s="100"/>
-      <c r="AA6" s="100"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="50"/>
+      <c r="U6" s="50"/>
+      <c r="V6" s="50"/>
+      <c r="W6" s="50"/>
+      <c r="X6" s="50"/>
+      <c r="Y6" s="50"/>
+      <c r="Z6" s="50"/>
+      <c r="AA6" s="50"/>
       <c r="AB6" s="19"/>
       <c r="AC6" s="19"/>
       <c r="AD6" s="19"/>
@@ -9911,7 +9911,7 @@
       <c r="C7" s="45">
         <v>4</v>
       </c>
-      <c r="D7" s="100"/>
+      <c r="D7" s="50"/>
       <c r="E7" s="21"/>
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
@@ -9998,7 +9998,7 @@
       <c r="K8" s="19"/>
       <c r="L8" s="19"/>
       <c r="M8" s="19"/>
-      <c r="N8" s="100"/>
+      <c r="N8" s="50"/>
       <c r="O8" s="19"/>
       <c r="P8" s="19"/>
       <c r="Q8" s="19"/>
@@ -10076,7 +10076,7 @@
       <c r="K9" s="19"/>
       <c r="L9" s="19"/>
       <c r="M9" s="19"/>
-      <c r="N9" s="100"/>
+      <c r="N9" s="50"/>
       <c r="O9" s="19"/>
       <c r="P9" s="19"/>
       <c r="Q9" s="19"/>
@@ -10153,9 +10153,9 @@
       <c r="K10" s="19"/>
       <c r="L10" s="19"/>
       <c r="M10" s="19"/>
-      <c r="N10" s="100"/>
-      <c r="O10" s="100"/>
-      <c r="P10" s="100"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50"/>
       <c r="Q10" s="19"/>
       <c r="R10" s="19"/>
       <c r="S10" s="19"/>
@@ -10234,9 +10234,9 @@
       <c r="N11" s="19"/>
       <c r="O11" s="19"/>
       <c r="P11" s="19"/>
-      <c r="Q11" s="100"/>
-      <c r="R11" s="100"/>
-      <c r="S11" s="100"/>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="50"/>
+      <c r="S11" s="50"/>
       <c r="T11" s="19"/>
       <c r="U11" s="19"/>
       <c r="V11" s="19"/>
@@ -10315,7 +10315,7 @@
       <c r="Q12" s="19"/>
       <c r="R12" s="19"/>
       <c r="S12" s="19"/>
-      <c r="T12" s="100"/>
+      <c r="T12" s="50"/>
       <c r="U12" s="19"/>
       <c r="V12" s="19"/>
       <c r="W12" s="19"/>
@@ -10393,7 +10393,7 @@
       <c r="Q13" s="19"/>
       <c r="R13" s="19"/>
       <c r="S13" s="19"/>
-      <c r="T13" s="100"/>
+      <c r="T13" s="50"/>
       <c r="U13" s="19"/>
       <c r="V13" s="19"/>
       <c r="W13" s="19"/>
@@ -10472,9 +10472,9 @@
       <c r="R14" s="19"/>
       <c r="S14" s="19"/>
       <c r="T14" s="19"/>
-      <c r="U14" s="100"/>
-      <c r="V14" s="100"/>
-      <c r="W14" s="100"/>
+      <c r="U14" s="50"/>
+      <c r="V14" s="50"/>
+      <c r="W14" s="50"/>
       <c r="X14" s="19"/>
       <c r="Y14" s="19"/>
       <c r="Z14" s="19"/>
@@ -10553,9 +10553,9 @@
       <c r="U15" s="19"/>
       <c r="V15" s="19"/>
       <c r="W15" s="19"/>
-      <c r="X15" s="100"/>
-      <c r="Y15" s="100"/>
-      <c r="Z15" s="100"/>
+      <c r="X15" s="50"/>
+      <c r="Y15" s="50"/>
+      <c r="Z15" s="50"/>
       <c r="AA15" s="19"/>
       <c r="AB15" s="19"/>
       <c r="AC15" s="19"/>
@@ -10635,9 +10635,9 @@
       <c r="Y16" s="19"/>
       <c r="Z16" s="19"/>
       <c r="AA16" s="19"/>
-      <c r="AB16" s="100"/>
-      <c r="AC16" s="100"/>
-      <c r="AD16" s="100"/>
+      <c r="AB16" s="50"/>
+      <c r="AC16" s="50"/>
+      <c r="AD16" s="50"/>
       <c r="AE16" s="19"/>
       <c r="AF16" s="19"/>
       <c r="AG16" s="19"/>
@@ -10713,9 +10713,9 @@
       <c r="Y17" s="19"/>
       <c r="Z17" s="19"/>
       <c r="AA17" s="19"/>
-      <c r="AB17" s="100"/>
-      <c r="AC17" s="100"/>
-      <c r="AD17" s="100"/>
+      <c r="AB17" s="50"/>
+      <c r="AC17" s="50"/>
+      <c r="AD17" s="50"/>
       <c r="AE17" s="19"/>
       <c r="AF17" s="19"/>
       <c r="AG17" s="19"/>
@@ -10794,21 +10794,21 @@
       <c r="AB18" s="19"/>
       <c r="AC18" s="19"/>
       <c r="AD18" s="19"/>
-      <c r="AE18" s="100"/>
-      <c r="AF18" s="100"/>
-      <c r="AG18" s="100"/>
-      <c r="AH18" s="100"/>
-      <c r="AI18" s="100"/>
-      <c r="AJ18" s="100"/>
-      <c r="AK18" s="100"/>
-      <c r="AL18" s="100"/>
-      <c r="AM18" s="100"/>
-      <c r="AN18" s="100"/>
-      <c r="AO18" s="100"/>
-      <c r="AP18" s="100"/>
-      <c r="AQ18" s="100"/>
-      <c r="AR18" s="100"/>
-      <c r="AS18" s="97"/>
+      <c r="AE18" s="50"/>
+      <c r="AF18" s="50"/>
+      <c r="AG18" s="50"/>
+      <c r="AH18" s="50"/>
+      <c r="AI18" s="50"/>
+      <c r="AJ18" s="50"/>
+      <c r="AK18" s="50"/>
+      <c r="AL18" s="50"/>
+      <c r="AM18" s="50"/>
+      <c r="AN18" s="50"/>
+      <c r="AO18" s="50"/>
+      <c r="AP18" s="50"/>
+      <c r="AQ18" s="50"/>
+      <c r="AR18" s="50"/>
+      <c r="AS18" s="47"/>
       <c r="AT18" s="19"/>
       <c r="AU18" s="19"/>
       <c r="AV18" s="19"/>
@@ -10886,8 +10886,8 @@
       <c r="AP19" s="19"/>
       <c r="AQ19" s="19"/>
       <c r="AR19" s="19"/>
-      <c r="AS19" s="100"/>
-      <c r="AT19" s="100"/>
+      <c r="AS19" s="50"/>
+      <c r="AT19" s="50"/>
       <c r="AU19" s="19"/>
       <c r="AV19" s="19"/>
       <c r="AW19" s="19"/>
@@ -10964,8 +10964,8 @@
       <c r="AP20" s="19"/>
       <c r="AQ20" s="19"/>
       <c r="AR20" s="19"/>
-      <c r="AS20" s="100"/>
-      <c r="AT20" s="100"/>
+      <c r="AS20" s="50"/>
+      <c r="AT20" s="50"/>
       <c r="AU20" s="19"/>
       <c r="AV20" s="19"/>
       <c r="AW20" s="19"/>
@@ -11043,16 +11043,16 @@
       <c r="AR21" s="19"/>
       <c r="AS21" s="19"/>
       <c r="AT21" s="19"/>
-      <c r="AU21" s="100"/>
-      <c r="AV21" s="100"/>
-      <c r="AW21" s="100"/>
-      <c r="AX21" s="100"/>
-      <c r="AY21" s="100"/>
-      <c r="AZ21" s="100"/>
-      <c r="BA21" s="100"/>
-      <c r="BB21" s="100"/>
-      <c r="BC21" s="100"/>
-      <c r="BD21" s="100"/>
+      <c r="AU21" s="50"/>
+      <c r="AV21" s="50"/>
+      <c r="AW21" s="50"/>
+      <c r="AX21" s="50"/>
+      <c r="AY21" s="50"/>
+      <c r="AZ21" s="50"/>
+      <c r="BA21" s="50"/>
+      <c r="BB21" s="50"/>
+      <c r="BC21" s="50"/>
+      <c r="BD21" s="50"/>
       <c r="BE21" s="19"/>
       <c r="BF21" s="19"/>
       <c r="BG21" s="19"/>
@@ -11127,8 +11127,8 @@
       <c r="AX22" s="19"/>
       <c r="AY22" s="19"/>
       <c r="AZ22" s="19"/>
-      <c r="BA22" s="100"/>
-      <c r="BB22" s="100"/>
+      <c r="BA22" s="50"/>
+      <c r="BB22" s="50"/>
       <c r="BC22" s="19"/>
       <c r="BD22" s="19"/>
       <c r="BE22" s="19"/>
@@ -11205,8 +11205,8 @@
       <c r="AX23" s="18"/>
       <c r="AY23" s="18"/>
       <c r="AZ23" s="18"/>
-      <c r="BA23" s="100"/>
-      <c r="BB23" s="100"/>
+      <c r="BA23" s="50"/>
+      <c r="BB23" s="50"/>
       <c r="BC23" s="18"/>
       <c r="BD23" s="18"/>
       <c r="BE23" s="18"/>
@@ -11285,11 +11285,11 @@
       <c r="AZ24" s="19"/>
       <c r="BA24" s="19"/>
       <c r="BB24" s="19"/>
-      <c r="BC24" s="100"/>
-      <c r="BD24" s="100"/>
-      <c r="BE24" s="100"/>
-      <c r="BF24" s="100"/>
-      <c r="BG24" s="100"/>
+      <c r="BC24" s="50"/>
+      <c r="BD24" s="50"/>
+      <c r="BE24" s="50"/>
+      <c r="BF24" s="50"/>
+      <c r="BG24" s="50"/>
       <c r="BJ24" s="19"/>
       <c r="BK24" s="19"/>
       <c r="BL24" s="19"/>
@@ -11366,14 +11366,14 @@
       <c r="BE25" s="19"/>
       <c r="BF25" s="19"/>
       <c r="BG25" s="19"/>
-      <c r="BH25" s="100"/>
-      <c r="BI25" s="100"/>
-      <c r="BJ25" s="100"/>
-      <c r="BK25" s="100"/>
-      <c r="BN25" s="102"/>
-      <c r="BO25" s="102"/>
-      <c r="BP25" s="102"/>
-      <c r="BQ25" s="102"/>
+      <c r="BH25" s="50"/>
+      <c r="BI25" s="50"/>
+      <c r="BJ25" s="50"/>
+      <c r="BK25" s="50"/>
+      <c r="BN25" s="52"/>
+      <c r="BO25" s="52"/>
+      <c r="BP25" s="52"/>
+      <c r="BQ25" s="52"/>
       <c r="BR25" s="19"/>
     </row>
     <row r="26" spans="1:70" ht="15.75" x14ac:dyDescent="0.15">
@@ -11446,8 +11446,8 @@
       <c r="BI26" s="19"/>
       <c r="BJ26" s="19"/>
       <c r="BK26" s="19"/>
-      <c r="BL26" s="100"/>
-      <c r="BM26" s="100"/>
+      <c r="BL26" s="50"/>
+      <c r="BM26" s="50"/>
       <c r="BN26" s="19"/>
       <c r="BO26" s="19"/>
       <c r="BP26" s="19"/>
@@ -12143,306 +12143,306 @@
   <sheetData>
     <row r="1" spans="2:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="49"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="55"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B4" s="50"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="52"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="58"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B5" s="50"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="52"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="58"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B6" s="50"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="52"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="58"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B7" s="50"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="52"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="58"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B8" s="50"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="52"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="58"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B9" s="53"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="55"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="61"/>
     </row>
     <row r="10" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="62"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="53" t="s">
         <v>139</v>
       </c>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="49"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="55"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B12" s="50"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="52"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="58"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B13" s="50"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="52"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="58"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B14" s="50"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="52"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="58"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B15" s="50"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="52"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="58"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B16" s="50"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="52"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="58"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B17" s="50"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="52"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="58"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B18" s="50"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="52"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="58"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B19" s="50"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="52"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="58"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B20" s="50"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="52"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="58"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B21" s="50"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="52"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="58"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B22" s="53"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="54"/>
-      <c r="M22" s="55"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/01_doc/proj_plan/餐厅订餐系统_项目计划.xlsx
+++ b/01_doc/proj_plan/餐厅订餐系统_项目计划.xlsx
@@ -19,7 +19,7 @@
     <sheet name="08_验收条件" sheetId="8" r:id="rId10"/>
     <sheet name="Lengend" sheetId="9" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -507,7 +507,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -516,7 +516,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Aaron</t>
@@ -531,7 +531,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -540,7 +540,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Aaron/Lin</t>
@@ -555,7 +555,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -564,7 +564,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Lin</t>
@@ -579,7 +579,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -588,7 +588,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Lin
@@ -604,7 +604,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -613,7 +613,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Aaron</t>
@@ -628,7 +628,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -637,7 +637,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Aaron</t>
@@ -652,7 +652,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -661,7 +661,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Annie</t>
@@ -676,7 +676,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -685,7 +685,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Aaron</t>
@@ -700,7 +700,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -709,7 +709,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Leon</t>
@@ -724,7 +724,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -733,7 +733,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Aaron</t>
@@ -748,7 +748,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -757,7 +757,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Annie</t>
@@ -772,7 +772,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -781,7 +781,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Aaron</t>
@@ -796,7 +796,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -805,7 +805,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Leon</t>
@@ -820,7 +820,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -829,7 +829,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Aaron/Lin</t>
@@ -844,7 +844,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -853,7 +853,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Annie</t>
@@ -868,7 +868,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -877,7 +877,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Aaron/Lin</t>
@@ -892,7 +892,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -901,7 +901,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Aaron/Lin</t>
@@ -916,7 +916,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -925,7 +925,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Annie</t>
@@ -940,7 +940,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -949,7 +949,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Lin
@@ -965,7 +965,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -974,7 +974,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Aaron</t>
@@ -989,7 +989,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -998,7 +998,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Annie</t>
@@ -1650,7 +1650,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="d"/>
+  </numFmts>
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1751,19 +1754,6 @@
       <name val="Symbol"/>
       <family val="1"/>
       <charset val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="10">
@@ -2003,7 +1993,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2079,6 +2069,10 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2184,9 +2178,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2194,6 +2185,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2229,20 +2223,23 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="9" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="167" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3794,232 +3791,232 @@
   <sheetData>
     <row r="1" spans="2:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="47"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="49"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="53"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B4" s="50"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="52"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="56"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B5" s="50"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="52"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="56"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B6" s="50"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="52"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="56"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B7" s="50"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="52"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="56"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B8" s="50"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="52"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="56"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B9" s="53"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="55"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="59"/>
     </row>
     <row r="10" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="60"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B11" s="47"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="49"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="53"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B12" s="50"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="52"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="56"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B13" s="50"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="52"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="56"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B14" s="50"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="52"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="56"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B15" s="50"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="52"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="56"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B16" s="50"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="52"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="56"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B17" s="53"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="55"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4277,700 +4274,700 @@
   <sheetData>
     <row r="1" spans="2:13" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="58"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="62"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="59"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="61"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="65"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="59"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="61"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="65"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="59"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="61"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="65"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="60"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="58"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="62"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="59"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="61"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="65"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="59"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="61"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="65"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="59"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="61"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="65"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="62"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="63"/>
-      <c r="M12" s="64"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="68"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="56"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="60"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="65" t="s">
+      <c r="B14" s="69" t="s">
         <v>171</v>
       </c>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
-      <c r="M14" s="67"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="71"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="68"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="69"/>
-      <c r="M15" s="70"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="73"/>
+      <c r="L15" s="73"/>
+      <c r="M15" s="74"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="68"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="70"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="73"/>
+      <c r="L16" s="73"/>
+      <c r="M16" s="74"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="68"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="69"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="70"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="73"/>
+      <c r="L17" s="73"/>
+      <c r="M17" s="74"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="68"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="70"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="73"/>
+      <c r="L18" s="73"/>
+      <c r="M18" s="74"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="68"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="69"/>
-      <c r="L19" s="69"/>
-      <c r="M19" s="70"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="73"/>
+      <c r="L19" s="73"/>
+      <c r="M19" s="74"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="68"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="69"/>
-      <c r="L20" s="69"/>
-      <c r="M20" s="70"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="73"/>
+      <c r="J20" s="73"/>
+      <c r="K20" s="73"/>
+      <c r="L20" s="73"/>
+      <c r="M20" s="74"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="68"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="69"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="69"/>
-      <c r="L21" s="69"/>
-      <c r="M21" s="70"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="73"/>
+      <c r="J21" s="73"/>
+      <c r="K21" s="73"/>
+      <c r="L21" s="73"/>
+      <c r="M21" s="74"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="68"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="69"/>
-      <c r="J22" s="69"/>
-      <c r="K22" s="69"/>
-      <c r="L22" s="69"/>
-      <c r="M22" s="70"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="73"/>
+      <c r="J22" s="73"/>
+      <c r="K22" s="73"/>
+      <c r="L22" s="73"/>
+      <c r="M22" s="74"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="70"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="73"/>
+      <c r="I23" s="73"/>
+      <c r="J23" s="73"/>
+      <c r="K23" s="73"/>
+      <c r="L23" s="73"/>
+      <c r="M23" s="74"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B24" s="68"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="70"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="73"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="73"/>
+      <c r="L24" s="73"/>
+      <c r="M24" s="74"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="68"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="70"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="74"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="68"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="69"/>
-      <c r="M26" s="70"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="73"/>
+      <c r="L26" s="73"/>
+      <c r="M26" s="74"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="71"/>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="72"/>
-      <c r="J27" s="72"/>
-      <c r="K27" s="72"/>
-      <c r="L27" s="72"/>
-      <c r="M27" s="73"/>
+      <c r="B27" s="75"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="76"/>
+      <c r="J27" s="76"/>
+      <c r="K27" s="76"/>
+      <c r="L27" s="76"/>
+      <c r="M27" s="77"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="56" t="s">
+      <c r="B28" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="56"/>
-      <c r="L28" s="56"/>
-      <c r="M28" s="56"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="60"/>
+      <c r="K28" s="60"/>
+      <c r="L28" s="60"/>
+      <c r="M28" s="60"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="47" t="s">
+      <c r="B29" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="48"/>
-      <c r="K29" s="48"/>
-      <c r="L29" s="48"/>
-      <c r="M29" s="49"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="53"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="50"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="51"/>
-      <c r="K30" s="51"/>
-      <c r="L30" s="51"/>
-      <c r="M30" s="52"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="55"/>
+      <c r="M30" s="56"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="50"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="51"/>
-      <c r="K31" s="51"/>
-      <c r="L31" s="51"/>
-      <c r="M31" s="52"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="56"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="50"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="51"/>
-      <c r="J32" s="51"/>
-      <c r="K32" s="51"/>
-      <c r="L32" s="51"/>
-      <c r="M32" s="52"/>
+      <c r="B32" s="54"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="55"/>
+      <c r="K32" s="55"/>
+      <c r="L32" s="55"/>
+      <c r="M32" s="56"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" s="50"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="51"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="51"/>
-      <c r="J33" s="51"/>
-      <c r="K33" s="51"/>
-      <c r="L33" s="51"/>
-      <c r="M33" s="52"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="55"/>
+      <c r="K33" s="55"/>
+      <c r="L33" s="55"/>
+      <c r="M33" s="56"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B34" s="50"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="51"/>
-      <c r="I34" s="51"/>
-      <c r="J34" s="51"/>
-      <c r="K34" s="51"/>
-      <c r="L34" s="51"/>
-      <c r="M34" s="52"/>
+      <c r="B34" s="54"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="55"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="55"/>
+      <c r="K34" s="55"/>
+      <c r="L34" s="55"/>
+      <c r="M34" s="56"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="53"/>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="54"/>
-      <c r="H35" s="54"/>
-      <c r="I35" s="54"/>
-      <c r="J35" s="54"/>
-      <c r="K35" s="54"/>
-      <c r="L35" s="54"/>
-      <c r="M35" s="55"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="58"/>
+      <c r="I35" s="58"/>
+      <c r="J35" s="58"/>
+      <c r="K35" s="58"/>
+      <c r="L35" s="58"/>
+      <c r="M35" s="59"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B36" s="56" t="s">
+      <c r="B36" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="56"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="56"/>
-      <c r="H36" s="56"/>
-      <c r="I36" s="56"/>
-      <c r="J36" s="56"/>
-      <c r="K36" s="56"/>
-      <c r="L36" s="56"/>
-      <c r="M36" s="56"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
+      <c r="I36" s="60"/>
+      <c r="J36" s="60"/>
+      <c r="K36" s="60"/>
+      <c r="L36" s="60"/>
+      <c r="M36" s="60"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B37" s="65" t="s">
+      <c r="B37" s="69" t="s">
         <v>118</v>
       </c>
-      <c r="C37" s="74"/>
-      <c r="D37" s="74"/>
-      <c r="E37" s="74"/>
-      <c r="F37" s="74"/>
-      <c r="G37" s="74"/>
-      <c r="H37" s="74"/>
-      <c r="I37" s="74"/>
-      <c r="J37" s="74"/>
-      <c r="K37" s="74"/>
-      <c r="L37" s="74"/>
-      <c r="M37" s="75"/>
+      <c r="C37" s="78"/>
+      <c r="D37" s="78"/>
+      <c r="E37" s="78"/>
+      <c r="F37" s="78"/>
+      <c r="G37" s="78"/>
+      <c r="H37" s="78"/>
+      <c r="I37" s="78"/>
+      <c r="J37" s="78"/>
+      <c r="K37" s="78"/>
+      <c r="L37" s="78"/>
+      <c r="M37" s="79"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B38" s="76"/>
-      <c r="C38" s="77"/>
-      <c r="D38" s="77"/>
-      <c r="E38" s="77"/>
-      <c r="F38" s="77"/>
-      <c r="G38" s="77"/>
-      <c r="H38" s="77"/>
-      <c r="I38" s="77"/>
-      <c r="J38" s="77"/>
-      <c r="K38" s="77"/>
-      <c r="L38" s="77"/>
-      <c r="M38" s="78"/>
+      <c r="B38" s="80"/>
+      <c r="C38" s="81"/>
+      <c r="D38" s="81"/>
+      <c r="E38" s="81"/>
+      <c r="F38" s="81"/>
+      <c r="G38" s="81"/>
+      <c r="H38" s="81"/>
+      <c r="I38" s="81"/>
+      <c r="J38" s="81"/>
+      <c r="K38" s="81"/>
+      <c r="L38" s="81"/>
+      <c r="M38" s="82"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B39" s="76"/>
-      <c r="C39" s="77"/>
-      <c r="D39" s="77"/>
-      <c r="E39" s="77"/>
-      <c r="F39" s="77"/>
-      <c r="G39" s="77"/>
-      <c r="H39" s="77"/>
-      <c r="I39" s="77"/>
-      <c r="J39" s="77"/>
-      <c r="K39" s="77"/>
-      <c r="L39" s="77"/>
-      <c r="M39" s="78"/>
+      <c r="B39" s="80"/>
+      <c r="C39" s="81"/>
+      <c r="D39" s="81"/>
+      <c r="E39" s="81"/>
+      <c r="F39" s="81"/>
+      <c r="G39" s="81"/>
+      <c r="H39" s="81"/>
+      <c r="I39" s="81"/>
+      <c r="J39" s="81"/>
+      <c r="K39" s="81"/>
+      <c r="L39" s="81"/>
+      <c r="M39" s="82"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B40" s="76"/>
-      <c r="C40" s="77"/>
-      <c r="D40" s="77"/>
-      <c r="E40" s="77"/>
-      <c r="F40" s="77"/>
-      <c r="G40" s="77"/>
-      <c r="H40" s="77"/>
-      <c r="I40" s="77"/>
-      <c r="J40" s="77"/>
-      <c r="K40" s="77"/>
-      <c r="L40" s="77"/>
-      <c r="M40" s="78"/>
+      <c r="B40" s="80"/>
+      <c r="C40" s="81"/>
+      <c r="D40" s="81"/>
+      <c r="E40" s="81"/>
+      <c r="F40" s="81"/>
+      <c r="G40" s="81"/>
+      <c r="H40" s="81"/>
+      <c r="I40" s="81"/>
+      <c r="J40" s="81"/>
+      <c r="K40" s="81"/>
+      <c r="L40" s="81"/>
+      <c r="M40" s="82"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="79"/>
-      <c r="C41" s="80"/>
-      <c r="D41" s="80"/>
-      <c r="E41" s="80"/>
-      <c r="F41" s="80"/>
-      <c r="G41" s="80"/>
-      <c r="H41" s="80"/>
-      <c r="I41" s="80"/>
-      <c r="J41" s="80"/>
-      <c r="K41" s="80"/>
-      <c r="L41" s="80"/>
-      <c r="M41" s="81"/>
+      <c r="B41" s="83"/>
+      <c r="C41" s="84"/>
+      <c r="D41" s="84"/>
+      <c r="E41" s="84"/>
+      <c r="F41" s="84"/>
+      <c r="G41" s="84"/>
+      <c r="H41" s="84"/>
+      <c r="I41" s="84"/>
+      <c r="J41" s="84"/>
+      <c r="K41" s="84"/>
+      <c r="L41" s="84"/>
+      <c r="M41" s="85"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B42" s="56" t="s">
+      <c r="B42" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="56"/>
-      <c r="D42" s="56"/>
-      <c r="E42" s="56"/>
-      <c r="F42" s="56"/>
-      <c r="G42" s="56"/>
-      <c r="H42" s="56"/>
-      <c r="I42" s="56"/>
-      <c r="J42" s="56"/>
-      <c r="K42" s="56"/>
-      <c r="L42" s="56"/>
-      <c r="M42" s="56"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="60"/>
+      <c r="G42" s="60"/>
+      <c r="H42" s="60"/>
+      <c r="I42" s="60"/>
+      <c r="J42" s="60"/>
+      <c r="K42" s="60"/>
+      <c r="L42" s="60"/>
+      <c r="M42" s="60"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B43" s="47" t="s">
+      <c r="B43" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="C43" s="48"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="48"/>
-      <c r="H43" s="48"/>
-      <c r="I43" s="48"/>
-      <c r="J43" s="48"/>
-      <c r="K43" s="48"/>
-      <c r="L43" s="48"/>
-      <c r="M43" s="49"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="52"/>
+      <c r="J43" s="52"/>
+      <c r="K43" s="52"/>
+      <c r="L43" s="52"/>
+      <c r="M43" s="53"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B44" s="50"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="51"/>
-      <c r="E44" s="51"/>
-      <c r="F44" s="51"/>
-      <c r="G44" s="51"/>
-      <c r="H44" s="51"/>
-      <c r="I44" s="51"/>
-      <c r="J44" s="51"/>
-      <c r="K44" s="51"/>
-      <c r="L44" s="51"/>
-      <c r="M44" s="52"/>
+      <c r="B44" s="54"/>
+      <c r="C44" s="55"/>
+      <c r="D44" s="55"/>
+      <c r="E44" s="55"/>
+      <c r="F44" s="55"/>
+      <c r="G44" s="55"/>
+      <c r="H44" s="55"/>
+      <c r="I44" s="55"/>
+      <c r="J44" s="55"/>
+      <c r="K44" s="55"/>
+      <c r="L44" s="55"/>
+      <c r="M44" s="56"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B45" s="50"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="51"/>
-      <c r="F45" s="51"/>
-      <c r="G45" s="51"/>
-      <c r="H45" s="51"/>
-      <c r="I45" s="51"/>
-      <c r="J45" s="51"/>
-      <c r="K45" s="51"/>
-      <c r="L45" s="51"/>
-      <c r="M45" s="52"/>
+      <c r="B45" s="54"/>
+      <c r="C45" s="55"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="55"/>
+      <c r="G45" s="55"/>
+      <c r="H45" s="55"/>
+      <c r="I45" s="55"/>
+      <c r="J45" s="55"/>
+      <c r="K45" s="55"/>
+      <c r="L45" s="55"/>
+      <c r="M45" s="56"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="50"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="51"/>
-      <c r="E46" s="51"/>
-      <c r="F46" s="51"/>
-      <c r="G46" s="51"/>
-      <c r="H46" s="51"/>
-      <c r="I46" s="51"/>
-      <c r="J46" s="51"/>
-      <c r="K46" s="51"/>
-      <c r="L46" s="51"/>
-      <c r="M46" s="52"/>
+      <c r="B46" s="54"/>
+      <c r="C46" s="55"/>
+      <c r="D46" s="55"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="55"/>
+      <c r="G46" s="55"/>
+      <c r="H46" s="55"/>
+      <c r="I46" s="55"/>
+      <c r="J46" s="55"/>
+      <c r="K46" s="55"/>
+      <c r="L46" s="55"/>
+      <c r="M46" s="56"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B47" s="50"/>
-      <c r="C47" s="51"/>
-      <c r="D47" s="51"/>
-      <c r="E47" s="51"/>
-      <c r="F47" s="51"/>
-      <c r="G47" s="51"/>
-      <c r="H47" s="51"/>
-      <c r="I47" s="51"/>
-      <c r="J47" s="51"/>
-      <c r="K47" s="51"/>
-      <c r="L47" s="51"/>
-      <c r="M47" s="52"/>
+      <c r="B47" s="54"/>
+      <c r="C47" s="55"/>
+      <c r="D47" s="55"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="55"/>
+      <c r="H47" s="55"/>
+      <c r="I47" s="55"/>
+      <c r="J47" s="55"/>
+      <c r="K47" s="55"/>
+      <c r="L47" s="55"/>
+      <c r="M47" s="56"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B48" s="50"/>
-      <c r="C48" s="51"/>
-      <c r="D48" s="51"/>
-      <c r="E48" s="51"/>
-      <c r="F48" s="51"/>
-      <c r="G48" s="51"/>
-      <c r="H48" s="51"/>
-      <c r="I48" s="51"/>
-      <c r="J48" s="51"/>
-      <c r="K48" s="51"/>
-      <c r="L48" s="51"/>
-      <c r="M48" s="52"/>
+      <c r="B48" s="54"/>
+      <c r="C48" s="55"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="55"/>
+      <c r="G48" s="55"/>
+      <c r="H48" s="55"/>
+      <c r="I48" s="55"/>
+      <c r="J48" s="55"/>
+      <c r="K48" s="55"/>
+      <c r="L48" s="55"/>
+      <c r="M48" s="56"/>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B49" s="53"/>
-      <c r="C49" s="54"/>
-      <c r="D49" s="54"/>
-      <c r="E49" s="54"/>
-      <c r="F49" s="54"/>
-      <c r="G49" s="54"/>
-      <c r="H49" s="54"/>
-      <c r="I49" s="54"/>
-      <c r="J49" s="54"/>
-      <c r="K49" s="54"/>
-      <c r="L49" s="54"/>
-      <c r="M49" s="55"/>
+      <c r="B49" s="57"/>
+      <c r="C49" s="58"/>
+      <c r="D49" s="58"/>
+      <c r="E49" s="58"/>
+      <c r="F49" s="58"/>
+      <c r="G49" s="58"/>
+      <c r="H49" s="58"/>
+      <c r="I49" s="58"/>
+      <c r="J49" s="58"/>
+      <c r="K49" s="58"/>
+      <c r="L49" s="58"/>
+      <c r="M49" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -5019,10 +5016,10 @@
   <sheetData>
     <row r="1" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="83"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
       <c r="E2" s="12" t="s">
         <v>3</v>
       </c>
@@ -5037,10 +5034,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="82">
+      <c r="A3" s="89">
         <v>1</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="89" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="7">
@@ -5063,8 +5060,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="82"/>
-      <c r="B4" s="82"/>
+      <c r="A4" s="89"/>
+      <c r="B4" s="89"/>
       <c r="C4" s="7">
         <v>1.2</v>
       </c>
@@ -5085,8 +5082,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="82"/>
-      <c r="B5" s="82"/>
+      <c r="A5" s="89"/>
+      <c r="B5" s="89"/>
       <c r="C5" s="7">
         <v>1.3</v>
       </c>
@@ -5107,8 +5104,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="82"/>
-      <c r="B6" s="82"/>
+      <c r="A6" s="89"/>
+      <c r="B6" s="89"/>
       <c r="C6" s="7">
         <v>1.4</v>
       </c>
@@ -5129,10 +5126,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="84">
+      <c r="A7" s="87">
         <v>2</v>
       </c>
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="89" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="7">
@@ -5155,8 +5152,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="85"/>
-      <c r="B8" s="82"/>
+      <c r="A8" s="88"/>
+      <c r="B8" s="89"/>
       <c r="C8" s="7">
         <v>2.2000000000000002</v>
       </c>
@@ -5177,8 +5174,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="86"/>
-      <c r="B9" s="82"/>
+      <c r="A9" s="90"/>
+      <c r="B9" s="89"/>
       <c r="C9" s="7">
         <v>2.2999999999999998</v>
       </c>
@@ -5199,10 +5196,10 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="82">
+      <c r="A10" s="89">
         <v>3</v>
       </c>
-      <c r="B10" s="82" t="s">
+      <c r="B10" s="89" t="s">
         <v>38</v>
       </c>
       <c r="C10" s="9">
@@ -5225,8 +5222,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="82"/>
-      <c r="B11" s="82"/>
+      <c r="A11" s="89"/>
+      <c r="B11" s="89"/>
       <c r="C11" s="9">
         <v>3.2</v>
       </c>
@@ -5247,8 +5244,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="82"/>
-      <c r="B12" s="82"/>
+      <c r="A12" s="89"/>
+      <c r="B12" s="89"/>
       <c r="C12" s="9">
         <v>3.3</v>
       </c>
@@ -5269,8 +5266,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="82"/>
-      <c r="B13" s="82"/>
+      <c r="A13" s="89"/>
+      <c r="B13" s="89"/>
       <c r="C13" s="9">
         <v>3.4</v>
       </c>
@@ -5291,8 +5288,8 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="82"/>
-      <c r="B14" s="82"/>
+      <c r="A14" s="89"/>
+      <c r="B14" s="89"/>
       <c r="C14" s="9">
         <v>3.5</v>
       </c>
@@ -5313,8 +5310,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="82"/>
-      <c r="B15" s="82"/>
+      <c r="A15" s="89"/>
+      <c r="B15" s="89"/>
       <c r="C15" s="9">
         <v>3.6</v>
       </c>
@@ -5335,8 +5332,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="82"/>
-      <c r="B16" s="82"/>
+      <c r="A16" s="89"/>
+      <c r="B16" s="89"/>
       <c r="C16" s="9">
         <v>3.7</v>
       </c>
@@ -5357,8 +5354,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="82"/>
-      <c r="B17" s="82"/>
+      <c r="A17" s="89"/>
+      <c r="B17" s="89"/>
       <c r="C17" s="9">
         <v>3.8</v>
       </c>
@@ -5379,8 +5376,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="82"/>
-      <c r="B18" s="82"/>
+      <c r="A18" s="89"/>
+      <c r="B18" s="89"/>
       <c r="C18" s="9">
         <v>3.9</v>
       </c>
@@ -5401,8 +5398,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="82"/>
-      <c r="B19" s="82"/>
+      <c r="A19" s="89"/>
+      <c r="B19" s="89"/>
       <c r="C19" s="9" t="s">
         <v>48</v>
       </c>
@@ -5423,10 +5420,10 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="82">
+      <c r="A20" s="89">
         <v>4</v>
       </c>
-      <c r="B20" s="84" t="s">
+      <c r="B20" s="87" t="s">
         <v>50</v>
       </c>
       <c r="C20" s="7">
@@ -5449,8 +5446,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="82"/>
-      <c r="B21" s="85"/>
+      <c r="A21" s="89"/>
+      <c r="B21" s="88"/>
       <c r="C21" s="7">
         <v>4.2</v>
       </c>
@@ -5471,8 +5468,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="82"/>
-      <c r="B22" s="85"/>
+      <c r="A22" s="89"/>
+      <c r="B22" s="88"/>
       <c r="C22" s="7">
         <v>4.3</v>
       </c>
@@ -5493,8 +5490,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="82"/>
-      <c r="B23" s="85"/>
+      <c r="A23" s="89"/>
+      <c r="B23" s="88"/>
       <c r="C23" s="7">
         <v>4.4000000000000004</v>
       </c>
@@ -5515,8 +5512,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="82"/>
-      <c r="B24" s="85"/>
+      <c r="A24" s="89"/>
+      <c r="B24" s="88"/>
       <c r="C24" s="7">
         <v>4.5</v>
       </c>
@@ -5537,8 +5534,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="82"/>
-      <c r="B25" s="85"/>
+      <c r="A25" s="89"/>
+      <c r="B25" s="88"/>
       <c r="C25" s="7">
         <v>4.5999999999999996</v>
       </c>
@@ -5559,10 +5556,10 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="82">
+      <c r="A26" s="89">
         <v>5</v>
       </c>
-      <c r="B26" s="82" t="s">
+      <c r="B26" s="89" t="s">
         <v>57</v>
       </c>
       <c r="C26" s="7">
@@ -5585,8 +5582,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="82"/>
-      <c r="B27" s="82"/>
+      <c r="A27" s="89"/>
+      <c r="B27" s="89"/>
       <c r="C27" s="7">
         <v>5.2</v>
       </c>
@@ -5607,8 +5604,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="82"/>
-      <c r="B28" s="82"/>
+      <c r="A28" s="89"/>
+      <c r="B28" s="89"/>
       <c r="C28" s="7">
         <v>5.3</v>
       </c>
@@ -5629,8 +5626,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="82"/>
-      <c r="B29" s="82"/>
+      <c r="A29" s="89"/>
+      <c r="B29" s="89"/>
       <c r="C29" s="7">
         <v>5.4</v>
       </c>
@@ -5651,8 +5648,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="82"/>
-      <c r="B30" s="82"/>
+      <c r="A30" s="89"/>
+      <c r="B30" s="89"/>
       <c r="C30" s="7">
         <v>5.5</v>
       </c>
@@ -5673,10 +5670,10 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="82">
+      <c r="A31" s="89">
         <v>6</v>
       </c>
-      <c r="B31" s="82" t="s">
+      <c r="B31" s="89" t="s">
         <v>63</v>
       </c>
       <c r="C31" s="7">
@@ -5699,8 +5696,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="82"/>
-      <c r="B32" s="82"/>
+      <c r="A32" s="89"/>
+      <c r="B32" s="89"/>
       <c r="C32" s="7">
         <v>6.2</v>
       </c>
@@ -5721,8 +5718,8 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="82"/>
-      <c r="B33" s="82"/>
+      <c r="A33" s="89"/>
+      <c r="B33" s="89"/>
       <c r="C33" s="7">
         <v>6.3</v>
       </c>
@@ -5743,8 +5740,8 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="82"/>
-      <c r="B34" s="82"/>
+      <c r="A34" s="89"/>
+      <c r="B34" s="89"/>
       <c r="C34" s="7">
         <v>6.4</v>
       </c>
@@ -5765,8 +5762,8 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" s="82"/>
-      <c r="B35" s="82"/>
+      <c r="A35" s="89"/>
+      <c r="B35" s="89"/>
       <c r="C35" s="7">
         <v>6.5</v>
       </c>
@@ -5787,8 +5784,8 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A36" s="82"/>
-      <c r="B36" s="82"/>
+      <c r="A36" s="89"/>
+      <c r="B36" s="89"/>
       <c r="C36" s="7">
         <v>6.6</v>
       </c>
@@ -5809,10 +5806,10 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" s="82">
+      <c r="A37" s="89">
         <v>7</v>
       </c>
-      <c r="B37" s="82" t="s">
+      <c r="B37" s="89" t="s">
         <v>154</v>
       </c>
       <c r="C37" s="7">
@@ -5835,8 +5832,8 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A38" s="82"/>
-      <c r="B38" s="82"/>
+      <c r="A38" s="89"/>
+      <c r="B38" s="89"/>
       <c r="C38" s="7">
         <v>7.2</v>
       </c>
@@ -5857,8 +5854,8 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A39" s="82"/>
-      <c r="B39" s="82"/>
+      <c r="A39" s="89"/>
+      <c r="B39" s="89"/>
       <c r="C39" s="7">
         <v>7.3</v>
       </c>
@@ -5879,8 +5876,8 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A40" s="82"/>
-      <c r="B40" s="82"/>
+      <c r="A40" s="89"/>
+      <c r="B40" s="89"/>
       <c r="C40" s="7">
         <v>7.4</v>
       </c>
@@ -5901,8 +5898,8 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A41" s="82"/>
-      <c r="B41" s="82"/>
+      <c r="A41" s="89"/>
+      <c r="B41" s="89"/>
       <c r="C41" s="7">
         <v>7.5</v>
       </c>
@@ -5924,6 +5921,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="A31:A36"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="A20:A25"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="B20:B25"/>
     <mergeCell ref="B26:B30"/>
@@ -5934,11 +5936,6 @@
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="B10:B19"/>
     <mergeCell ref="A10:A19"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="A31:A36"/>
-    <mergeCell ref="B31:B36"/>
-    <mergeCell ref="A20:A25"/>
   </mergeCells>
   <conditionalFormatting sqref="E3 E4:H30">
     <cfRule type="cellIs" dxfId="159" priority="217" operator="equal">
@@ -6540,60 +6537,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="92"/>
-      <c r="B1" s="92"/>
-      <c r="C1" s="94" t="s">
+      <c r="A1" s="96"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="87" t="s">
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="91" t="s">
         <v>67</v>
       </c>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
-      <c r="W1" s="88"/>
-      <c r="X1" s="88"/>
-      <c r="Y1" s="88"/>
-      <c r="Z1" s="88"/>
-      <c r="AA1" s="88"/>
-      <c r="AB1" s="88"/>
-      <c r="AC1" s="88"/>
-      <c r="AD1" s="88"/>
-      <c r="AE1" s="88"/>
-      <c r="AF1" s="88"/>
-      <c r="AG1" s="88"/>
-      <c r="AH1" s="88"/>
-      <c r="AI1" s="88"/>
-      <c r="AJ1" s="88"/>
-      <c r="AK1" s="88"/>
-      <c r="AL1" s="88"/>
-      <c r="AM1" s="88"/>
-      <c r="AN1" s="88"/>
-      <c r="AO1" s="88"/>
-      <c r="AP1" s="88"/>
-      <c r="AQ1" s="88"/>
-      <c r="AR1" s="88"/>
-      <c r="AS1" s="88"/>
-      <c r="AT1" s="89"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
+      <c r="W1" s="92"/>
+      <c r="X1" s="92"/>
+      <c r="Y1" s="92"/>
+      <c r="Z1" s="92"/>
+      <c r="AA1" s="92"/>
+      <c r="AB1" s="92"/>
+      <c r="AC1" s="92"/>
+      <c r="AD1" s="92"/>
+      <c r="AE1" s="92"/>
+      <c r="AF1" s="92"/>
+      <c r="AG1" s="92"/>
+      <c r="AH1" s="92"/>
+      <c r="AI1" s="92"/>
+      <c r="AJ1" s="92"/>
+      <c r="AK1" s="92"/>
+      <c r="AL1" s="92"/>
+      <c r="AM1" s="92"/>
+      <c r="AN1" s="92"/>
+      <c r="AO1" s="92"/>
+      <c r="AP1" s="92"/>
+      <c r="AQ1" s="92"/>
+      <c r="AR1" s="92"/>
+      <c r="AS1" s="92"/>
+      <c r="AT1" s="93"/>
     </row>
     <row r="2" spans="1:58" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="93"/>
-      <c r="B2" s="93"/>
+      <c r="A2" s="97"/>
+      <c r="B2" s="97"/>
       <c r="C2" s="16">
         <v>18</v>
       </c>
@@ -6746,9 +6743,9 @@
       <c r="B3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="90"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
@@ -9258,13 +9255,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CD26"/>
+  <dimension ref="A1:CB26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9272,308 +9269,363 @@
     <col min="1" max="1" width="9.140625" style="2"/>
     <col min="2" max="2" width="40.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" style="2" customWidth="1"/>
-    <col min="4" max="70" width="3.7109375" style="2" customWidth="1"/>
-    <col min="71" max="71" width="11.28515625" style="2" customWidth="1"/>
-    <col min="72" max="72" width="9.85546875" style="2" customWidth="1"/>
-    <col min="73" max="82" width="3.7109375" style="2" customWidth="1"/>
-    <col min="83" max="16384" width="9.140625" style="2"/>
+    <col min="4" max="4" width="4.140625" style="2" customWidth="1"/>
+    <col min="5" max="12" width="3.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="68" width="3.7109375" style="2" customWidth="1"/>
+    <col min="69" max="69" width="11.28515625" style="2" customWidth="1"/>
+    <col min="70" max="70" width="9.85546875" style="2" customWidth="1"/>
+    <col min="71" max="80" width="3.7109375" style="2" customWidth="1"/>
+    <col min="81" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:82" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="95" t="s">
+    <row r="1" spans="1:80" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="99" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="96" t="s">
+      <c r="B1" s="99"/>
+      <c r="C1" s="100" t="s">
         <v>187</v>
       </c>
-      <c r="D1" s="103" t="s">
+      <c r="D1" s="91" t="s">
         <v>172</v>
       </c>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="103"/>
-      <c r="P1" s="103"/>
-      <c r="Q1" s="103"/>
-      <c r="R1" s="103"/>
-      <c r="S1" s="103"/>
-      <c r="T1" s="103"/>
-      <c r="U1" s="103"/>
-      <c r="V1" s="103"/>
-      <c r="W1" s="103"/>
-      <c r="X1" s="103"/>
-      <c r="Y1" s="103"/>
-      <c r="Z1" s="103"/>
-      <c r="AA1" s="104" t="s">
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
+      <c r="W1" s="92"/>
+      <c r="X1" s="92"/>
+      <c r="Y1" s="92"/>
+      <c r="Z1" s="93"/>
+      <c r="AA1" s="105" t="s">
         <v>173</v>
       </c>
-      <c r="AB1" s="104"/>
-      <c r="AC1" s="104"/>
-      <c r="AD1" s="104"/>
-      <c r="AE1" s="104"/>
-      <c r="AF1" s="104"/>
-      <c r="AG1" s="104"/>
-      <c r="AH1" s="104"/>
-      <c r="AI1" s="104"/>
-      <c r="AJ1" s="104"/>
-      <c r="AK1" s="104"/>
-      <c r="AL1" s="104"/>
-      <c r="AM1" s="104"/>
-      <c r="AN1" s="104"/>
-      <c r="AO1" s="104"/>
-      <c r="AP1" s="104"/>
-      <c r="AQ1" s="104"/>
-      <c r="AR1" s="104"/>
-      <c r="AS1" s="104"/>
-      <c r="AT1" s="104"/>
-      <c r="AU1" s="104"/>
-      <c r="AV1" s="104"/>
-      <c r="AW1" s="104"/>
-      <c r="AX1" s="104"/>
-      <c r="AY1" s="104"/>
-      <c r="AZ1" s="104"/>
-      <c r="BA1" s="104"/>
-      <c r="BB1" s="104"/>
-      <c r="BC1" s="104"/>
-      <c r="BD1" s="104"/>
-      <c r="BE1" s="104" t="s">
+      <c r="AB1" s="106"/>
+      <c r="AC1" s="106"/>
+      <c r="AD1" s="106"/>
+      <c r="AE1" s="106"/>
+      <c r="AF1" s="106"/>
+      <c r="AG1" s="106"/>
+      <c r="AH1" s="106"/>
+      <c r="AI1" s="106"/>
+      <c r="AJ1" s="106"/>
+      <c r="AK1" s="106"/>
+      <c r="AL1" s="106"/>
+      <c r="AM1" s="106"/>
+      <c r="AN1" s="106"/>
+      <c r="AO1" s="106"/>
+      <c r="AP1" s="106"/>
+      <c r="AQ1" s="106"/>
+      <c r="AR1" s="106"/>
+      <c r="AS1" s="106"/>
+      <c r="AT1" s="106"/>
+      <c r="AU1" s="106"/>
+      <c r="AV1" s="106"/>
+      <c r="AW1" s="106"/>
+      <c r="AX1" s="106"/>
+      <c r="AY1" s="106"/>
+      <c r="AZ1" s="106"/>
+      <c r="BA1" s="106"/>
+      <c r="BB1" s="106"/>
+      <c r="BC1" s="106"/>
+      <c r="BD1" s="107"/>
+      <c r="BE1" s="105" t="s">
         <v>188</v>
       </c>
-      <c r="BF1" s="104"/>
-      <c r="BG1" s="104"/>
-      <c r="BH1" s="104"/>
-      <c r="BI1" s="104"/>
-      <c r="BJ1" s="104"/>
-      <c r="BK1" s="104"/>
-      <c r="BL1" s="104"/>
-      <c r="BM1" s="104"/>
-      <c r="BN1" s="104"/>
-      <c r="BO1" s="104"/>
-      <c r="BP1" s="104"/>
-      <c r="BQ1" s="104"/>
-      <c r="BR1" s="104"/>
-    </row>
-    <row r="2" spans="1:82" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="95"/>
-      <c r="B2" s="95"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="98">
-        <v>9</v>
-      </c>
-      <c r="E2" s="99">
-        <v>10</v>
-      </c>
-      <c r="F2" s="98">
-        <v>11</v>
-      </c>
-      <c r="G2" s="99">
-        <v>12</v>
-      </c>
-      <c r="H2" s="98">
-        <v>13</v>
-      </c>
-      <c r="I2" s="99">
-        <v>14</v>
-      </c>
-      <c r="J2" s="98">
-        <v>15</v>
-      </c>
-      <c r="K2" s="99">
-        <v>16</v>
-      </c>
-      <c r="L2" s="98">
-        <v>17</v>
-      </c>
-      <c r="M2" s="99">
-        <v>18</v>
-      </c>
-      <c r="N2" s="98">
-        <v>19</v>
-      </c>
-      <c r="O2" s="99">
-        <v>20</v>
-      </c>
-      <c r="P2" s="98">
-        <v>21</v>
-      </c>
-      <c r="Q2" s="99">
-        <v>22</v>
-      </c>
-      <c r="R2" s="98">
-        <v>23</v>
-      </c>
-      <c r="S2" s="99">
-        <v>24</v>
-      </c>
-      <c r="T2" s="98">
-        <v>25</v>
-      </c>
-      <c r="U2" s="99">
-        <v>26</v>
-      </c>
-      <c r="V2" s="98">
-        <v>27</v>
-      </c>
-      <c r="W2" s="99">
-        <v>28</v>
-      </c>
-      <c r="X2" s="98">
-        <v>29</v>
-      </c>
-      <c r="Y2" s="99">
-        <v>30</v>
-      </c>
-      <c r="Z2" s="98">
-        <v>31</v>
-      </c>
-      <c r="AA2" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB2" s="16">
-        <v>2</v>
-      </c>
-      <c r="AC2" s="16">
-        <v>3</v>
-      </c>
-      <c r="AD2" s="16">
-        <v>4</v>
-      </c>
-      <c r="AE2" s="16">
-        <v>5</v>
-      </c>
-      <c r="AF2" s="16">
-        <v>6</v>
-      </c>
-      <c r="AG2" s="16">
-        <v>7</v>
-      </c>
-      <c r="AH2" s="16">
-        <v>8</v>
-      </c>
-      <c r="AI2" s="16">
-        <v>9</v>
-      </c>
-      <c r="AJ2" s="16">
-        <v>10</v>
-      </c>
-      <c r="AK2" s="16">
-        <v>11</v>
-      </c>
-      <c r="AL2" s="16">
-        <v>12</v>
-      </c>
-      <c r="AM2" s="16">
-        <v>13</v>
-      </c>
-      <c r="AN2" s="16">
-        <v>14</v>
-      </c>
-      <c r="AO2" s="16">
-        <v>15</v>
-      </c>
-      <c r="AP2" s="16">
-        <v>16</v>
-      </c>
-      <c r="AQ2" s="16">
-        <v>17</v>
-      </c>
-      <c r="AR2" s="16">
-        <v>18</v>
-      </c>
-      <c r="AS2" s="16">
-        <v>19</v>
-      </c>
-      <c r="AT2" s="16">
-        <v>20</v>
-      </c>
-      <c r="AU2" s="16">
-        <v>21</v>
-      </c>
-      <c r="AV2" s="16">
-        <v>22</v>
-      </c>
-      <c r="AW2" s="16">
-        <v>23</v>
-      </c>
-      <c r="AX2" s="16">
-        <v>24</v>
-      </c>
-      <c r="AY2" s="16">
-        <v>25</v>
-      </c>
-      <c r="AZ2" s="16">
-        <v>26</v>
-      </c>
-      <c r="BA2" s="16">
-        <v>27</v>
-      </c>
-      <c r="BB2" s="16">
-        <v>28</v>
-      </c>
-      <c r="BC2" s="16">
-        <v>29</v>
-      </c>
-      <c r="BD2" s="16">
-        <v>30</v>
-      </c>
-      <c r="BE2" s="16">
-        <v>1</v>
-      </c>
-      <c r="BF2" s="16">
-        <v>2</v>
-      </c>
-      <c r="BG2" s="16">
-        <v>3</v>
-      </c>
-      <c r="BH2" s="16">
-        <v>4</v>
-      </c>
-      <c r="BI2" s="16">
-        <v>5</v>
-      </c>
-      <c r="BJ2" s="16">
-        <v>6</v>
-      </c>
-      <c r="BK2" s="16">
-        <v>7</v>
-      </c>
-      <c r="BL2" s="16">
-        <v>8</v>
-      </c>
-      <c r="BM2" s="16">
-        <v>9</v>
-      </c>
-      <c r="BN2" s="16">
-        <v>10</v>
-      </c>
-      <c r="BO2" s="16">
-        <v>11</v>
-      </c>
-      <c r="BP2" s="16"/>
-      <c r="BQ2" s="16"/>
-      <c r="BR2" s="16"/>
-      <c r="BS2" s="15"/>
-      <c r="BT2" s="15"/>
-      <c r="BU2" s="15"/>
-      <c r="BV2" s="15"/>
-      <c r="BW2" s="15"/>
-      <c r="BX2" s="15"/>
-      <c r="BY2" s="15"/>
-      <c r="BZ2" s="15"/>
-      <c r="CA2" s="15"/>
-      <c r="CB2" s="15"/>
-      <c r="CC2" s="15"/>
-      <c r="CD2" s="15"/>
-    </row>
-    <row r="3" spans="1:82" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="BF1" s="106"/>
+      <c r="BG1" s="106"/>
+      <c r="BH1" s="106"/>
+      <c r="BI1" s="106"/>
+      <c r="BJ1" s="106"/>
+      <c r="BK1" s="106"/>
+      <c r="BL1" s="106"/>
+      <c r="BM1" s="106"/>
+      <c r="BN1" s="106"/>
+      <c r="BO1" s="106"/>
+      <c r="BP1" s="107"/>
+    </row>
+    <row r="2" spans="1:80" s="104" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="99"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="101">
+        <v>41707</v>
+      </c>
+      <c r="E2" s="101">
+        <f>DATE(YEAR(D2),MONTH(D2),DAY(D2)+1)</f>
+        <v>41708</v>
+      </c>
+      <c r="F2" s="101">
+        <f t="shared" ref="F2:BM2" si="0">DATE(YEAR(E2),MONTH(E2),DAY(E2)+1)</f>
+        <v>41709</v>
+      </c>
+      <c r="G2" s="101">
+        <f t="shared" si="0"/>
+        <v>41710</v>
+      </c>
+      <c r="H2" s="101">
+        <f t="shared" si="0"/>
+        <v>41711</v>
+      </c>
+      <c r="I2" s="101">
+        <f t="shared" si="0"/>
+        <v>41712</v>
+      </c>
+      <c r="J2" s="101">
+        <f t="shared" si="0"/>
+        <v>41713</v>
+      </c>
+      <c r="K2" s="101">
+        <f t="shared" si="0"/>
+        <v>41714</v>
+      </c>
+      <c r="L2" s="101">
+        <f t="shared" si="0"/>
+        <v>41715</v>
+      </c>
+      <c r="M2" s="101">
+        <f t="shared" si="0"/>
+        <v>41716</v>
+      </c>
+      <c r="N2" s="101">
+        <f t="shared" si="0"/>
+        <v>41717</v>
+      </c>
+      <c r="O2" s="101">
+        <f t="shared" si="0"/>
+        <v>41718</v>
+      </c>
+      <c r="P2" s="101">
+        <f t="shared" si="0"/>
+        <v>41719</v>
+      </c>
+      <c r="Q2" s="101">
+        <f t="shared" si="0"/>
+        <v>41720</v>
+      </c>
+      <c r="R2" s="101">
+        <f t="shared" si="0"/>
+        <v>41721</v>
+      </c>
+      <c r="S2" s="101">
+        <f t="shared" si="0"/>
+        <v>41722</v>
+      </c>
+      <c r="T2" s="101">
+        <f t="shared" si="0"/>
+        <v>41723</v>
+      </c>
+      <c r="U2" s="101">
+        <f t="shared" si="0"/>
+        <v>41724</v>
+      </c>
+      <c r="V2" s="101">
+        <f t="shared" si="0"/>
+        <v>41725</v>
+      </c>
+      <c r="W2" s="101">
+        <f t="shared" si="0"/>
+        <v>41726</v>
+      </c>
+      <c r="X2" s="101">
+        <f t="shared" si="0"/>
+        <v>41727</v>
+      </c>
+      <c r="Y2" s="101">
+        <f t="shared" si="0"/>
+        <v>41728</v>
+      </c>
+      <c r="Z2" s="101">
+        <f t="shared" si="0"/>
+        <v>41729</v>
+      </c>
+      <c r="AA2" s="101">
+        <f t="shared" si="0"/>
+        <v>41730</v>
+      </c>
+      <c r="AB2" s="101">
+        <f t="shared" si="0"/>
+        <v>41731</v>
+      </c>
+      <c r="AC2" s="101">
+        <f t="shared" si="0"/>
+        <v>41732</v>
+      </c>
+      <c r="AD2" s="101">
+        <f t="shared" si="0"/>
+        <v>41733</v>
+      </c>
+      <c r="AE2" s="101">
+        <f t="shared" si="0"/>
+        <v>41734</v>
+      </c>
+      <c r="AF2" s="101">
+        <f t="shared" si="0"/>
+        <v>41735</v>
+      </c>
+      <c r="AG2" s="101">
+        <f t="shared" si="0"/>
+        <v>41736</v>
+      </c>
+      <c r="AH2" s="101">
+        <f t="shared" si="0"/>
+        <v>41737</v>
+      </c>
+      <c r="AI2" s="101">
+        <f t="shared" si="0"/>
+        <v>41738</v>
+      </c>
+      <c r="AJ2" s="101">
+        <f t="shared" si="0"/>
+        <v>41739</v>
+      </c>
+      <c r="AK2" s="101">
+        <f t="shared" si="0"/>
+        <v>41740</v>
+      </c>
+      <c r="AL2" s="101">
+        <f t="shared" si="0"/>
+        <v>41741</v>
+      </c>
+      <c r="AM2" s="101">
+        <f t="shared" si="0"/>
+        <v>41742</v>
+      </c>
+      <c r="AN2" s="101">
+        <f t="shared" si="0"/>
+        <v>41743</v>
+      </c>
+      <c r="AO2" s="101">
+        <f t="shared" si="0"/>
+        <v>41744</v>
+      </c>
+      <c r="AP2" s="101">
+        <f t="shared" si="0"/>
+        <v>41745</v>
+      </c>
+      <c r="AQ2" s="101">
+        <f t="shared" si="0"/>
+        <v>41746</v>
+      </c>
+      <c r="AR2" s="101">
+        <f t="shared" si="0"/>
+        <v>41747</v>
+      </c>
+      <c r="AS2" s="101">
+        <f t="shared" si="0"/>
+        <v>41748</v>
+      </c>
+      <c r="AT2" s="101">
+        <f t="shared" si="0"/>
+        <v>41749</v>
+      </c>
+      <c r="AU2" s="101">
+        <f t="shared" si="0"/>
+        <v>41750</v>
+      </c>
+      <c r="AV2" s="101">
+        <f t="shared" si="0"/>
+        <v>41751</v>
+      </c>
+      <c r="AW2" s="101">
+        <f t="shared" si="0"/>
+        <v>41752</v>
+      </c>
+      <c r="AX2" s="101">
+        <f t="shared" si="0"/>
+        <v>41753</v>
+      </c>
+      <c r="AY2" s="101">
+        <f t="shared" si="0"/>
+        <v>41754</v>
+      </c>
+      <c r="AZ2" s="101">
+        <f t="shared" si="0"/>
+        <v>41755</v>
+      </c>
+      <c r="BA2" s="101">
+        <f t="shared" si="0"/>
+        <v>41756</v>
+      </c>
+      <c r="BB2" s="101">
+        <f t="shared" si="0"/>
+        <v>41757</v>
+      </c>
+      <c r="BC2" s="101">
+        <f t="shared" si="0"/>
+        <v>41758</v>
+      </c>
+      <c r="BD2" s="101">
+        <f t="shared" si="0"/>
+        <v>41759</v>
+      </c>
+      <c r="BE2" s="101">
+        <f t="shared" si="0"/>
+        <v>41760</v>
+      </c>
+      <c r="BF2" s="101">
+        <f t="shared" si="0"/>
+        <v>41761</v>
+      </c>
+      <c r="BG2" s="101">
+        <f t="shared" si="0"/>
+        <v>41762</v>
+      </c>
+      <c r="BH2" s="101">
+        <f t="shared" si="0"/>
+        <v>41763</v>
+      </c>
+      <c r="BI2" s="101">
+        <f t="shared" si="0"/>
+        <v>41764</v>
+      </c>
+      <c r="BJ2" s="101">
+        <f t="shared" si="0"/>
+        <v>41765</v>
+      </c>
+      <c r="BK2" s="101">
+        <f t="shared" si="0"/>
+        <v>41766</v>
+      </c>
+      <c r="BL2" s="101">
+        <f t="shared" si="0"/>
+        <v>41767</v>
+      </c>
+      <c r="BM2" s="101">
+        <f t="shared" si="0"/>
+        <v>41768</v>
+      </c>
+      <c r="BN2" s="102"/>
+      <c r="BO2" s="102"/>
+      <c r="BP2" s="102"/>
+      <c r="BQ2" s="103"/>
+      <c r="BR2" s="103"/>
+      <c r="BS2" s="103"/>
+      <c r="BT2" s="103"/>
+      <c r="BU2" s="103"/>
+      <c r="BV2" s="103"/>
+      <c r="BW2" s="103"/>
+      <c r="BX2" s="103"/>
+      <c r="BY2" s="103"/>
+      <c r="BZ2" s="103"/>
+      <c r="CA2" s="103"/>
+      <c r="CB2" s="103"/>
+    </row>
+    <row r="3" spans="1:80" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A3" s="7">
         <v>7.1</v>
       </c>
@@ -9583,9 +9635,9 @@
       <c r="C3" s="45">
         <v>8</v>
       </c>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="101"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="49"/>
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
       <c r="I3" s="19"/>
@@ -9648,14 +9700,12 @@
       <c r="BN3" s="19"/>
       <c r="BO3" s="19"/>
       <c r="BP3" s="19"/>
-      <c r="BQ3" s="19"/>
-      <c r="BR3" s="19"/>
-      <c r="BS3" s="33"/>
-      <c r="BT3" s="4" t="s">
+      <c r="BQ3" s="33"/>
+      <c r="BR3" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:82" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:80" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>7.2</v>
       </c>
@@ -9667,14 +9717,14 @@
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="11"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="102"/>
-      <c r="K4" s="102"/>
-      <c r="L4" s="102"/>
-      <c r="M4" s="102"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
       <c r="N4" s="19"/>
       <c r="O4" s="19"/>
       <c r="P4" s="19"/>
@@ -9730,14 +9780,12 @@
       <c r="BN4" s="19"/>
       <c r="BO4" s="19"/>
       <c r="BP4" s="19"/>
-      <c r="BQ4" s="19"/>
-      <c r="BR4" s="19"/>
-      <c r="BS4" s="34"/>
-      <c r="BT4" s="4" t="s">
+      <c r="BQ4" s="34"/>
+      <c r="BR4" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:82" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:80" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
         <v>7.3</v>
       </c>
@@ -9750,27 +9798,27 @@
       <c r="D5" s="20"/>
       <c r="E5" s="21"/>
       <c r="F5" s="18"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="100"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="102"/>
-      <c r="O5" s="102"/>
-      <c r="P5" s="102"/>
-      <c r="Q5" s="102"/>
-      <c r="R5" s="102"/>
-      <c r="S5" s="102"/>
-      <c r="T5" s="102"/>
-      <c r="U5" s="102"/>
-      <c r="V5" s="102"/>
-      <c r="W5" s="102"/>
-      <c r="X5" s="102"/>
-      <c r="Y5" s="102"/>
-      <c r="Z5" s="102"/>
-      <c r="AA5" s="102"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="50"/>
+      <c r="R5" s="50"/>
+      <c r="S5" s="50"/>
+      <c r="T5" s="50"/>
+      <c r="U5" s="50"/>
+      <c r="V5" s="50"/>
+      <c r="W5" s="50"/>
+      <c r="X5" s="50"/>
+      <c r="Y5" s="50"/>
+      <c r="Z5" s="50"/>
+      <c r="AA5" s="50"/>
       <c r="AB5" s="19"/>
       <c r="AC5" s="19"/>
       <c r="AD5" s="19"/>
@@ -9812,14 +9860,12 @@
       <c r="BN5" s="19"/>
       <c r="BO5" s="19"/>
       <c r="BP5" s="19"/>
-      <c r="BQ5" s="19"/>
-      <c r="BR5" s="19"/>
-      <c r="BS5" s="35"/>
-      <c r="BT5" s="4" t="s">
+      <c r="BQ5" s="35"/>
+      <c r="BR5" s="4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:82" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:80" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
         <v>7.4</v>
       </c>
@@ -9839,20 +9885,20 @@
       <c r="K6" s="18"/>
       <c r="L6" s="18"/>
       <c r="M6" s="18"/>
-      <c r="N6" s="100"/>
-      <c r="O6" s="100"/>
-      <c r="P6" s="100"/>
-      <c r="Q6" s="100"/>
-      <c r="R6" s="100"/>
-      <c r="S6" s="100"/>
-      <c r="T6" s="100"/>
-      <c r="U6" s="100"/>
-      <c r="V6" s="100"/>
-      <c r="W6" s="100"/>
-      <c r="X6" s="100"/>
-      <c r="Y6" s="100"/>
-      <c r="Z6" s="100"/>
-      <c r="AA6" s="100"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="48"/>
+      <c r="R6" s="48"/>
+      <c r="S6" s="48"/>
+      <c r="T6" s="48"/>
+      <c r="U6" s="48"/>
+      <c r="V6" s="48"/>
+      <c r="W6" s="48"/>
+      <c r="X6" s="48"/>
+      <c r="Y6" s="48"/>
+      <c r="Z6" s="48"/>
+      <c r="AA6" s="48"/>
       <c r="AB6" s="19"/>
       <c r="AC6" s="19"/>
       <c r="AD6" s="19"/>
@@ -9894,14 +9940,12 @@
       <c r="BN6" s="19"/>
       <c r="BO6" s="19"/>
       <c r="BP6" s="19"/>
-      <c r="BQ6" s="19"/>
-      <c r="BR6" s="19"/>
-      <c r="BS6" s="36"/>
-      <c r="BT6" s="4" t="s">
+      <c r="BQ6" s="36"/>
+      <c r="BR6" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:82" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:80" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
         <v>7.5</v>
       </c>
@@ -9911,7 +9955,7 @@
       <c r="C7" s="45">
         <v>4</v>
       </c>
-      <c r="D7" s="100"/>
+      <c r="D7" s="48"/>
       <c r="E7" s="21"/>
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
@@ -9975,10 +10019,8 @@
       <c r="BN7" s="19"/>
       <c r="BO7" s="19"/>
       <c r="BP7" s="19"/>
-      <c r="BQ7" s="19"/>
-      <c r="BR7" s="19"/>
-    </row>
-    <row r="8" spans="1:82" ht="15.75" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:80" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
         <v>3.7</v>
       </c>
@@ -9998,7 +10040,7 @@
       <c r="K8" s="19"/>
       <c r="L8" s="19"/>
       <c r="M8" s="19"/>
-      <c r="N8" s="100"/>
+      <c r="N8" s="48"/>
       <c r="O8" s="19"/>
       <c r="P8" s="19"/>
       <c r="Q8" s="19"/>
@@ -10053,10 +10095,8 @@
       <c r="BN8" s="19"/>
       <c r="BO8" s="19"/>
       <c r="BP8" s="19"/>
-      <c r="BQ8" s="19"/>
-      <c r="BR8" s="19"/>
-    </row>
-    <row r="9" spans="1:82" ht="15.75" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:80" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>4.3</v>
       </c>
@@ -10076,7 +10116,7 @@
       <c r="K9" s="19"/>
       <c r="L9" s="19"/>
       <c r="M9" s="19"/>
-      <c r="N9" s="100"/>
+      <c r="N9" s="48"/>
       <c r="O9" s="19"/>
       <c r="P9" s="19"/>
       <c r="Q9" s="19"/>
@@ -10131,10 +10171,8 @@
       <c r="BN9" s="19"/>
       <c r="BO9" s="19"/>
       <c r="BP9" s="19"/>
-      <c r="BQ9" s="19"/>
-      <c r="BR9" s="19"/>
-    </row>
-    <row r="10" spans="1:82" ht="15.75" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:80" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
         <v>5.2</v>
       </c>
@@ -10153,9 +10191,9 @@
       <c r="K10" s="19"/>
       <c r="L10" s="19"/>
       <c r="M10" s="19"/>
-      <c r="N10" s="100"/>
-      <c r="O10" s="100"/>
-      <c r="P10" s="100"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="48"/>
       <c r="Q10" s="19"/>
       <c r="R10" s="19"/>
       <c r="S10" s="19"/>
@@ -10208,10 +10246,8 @@
       <c r="BN10" s="19"/>
       <c r="BO10" s="19"/>
       <c r="BP10" s="19"/>
-      <c r="BQ10" s="19"/>
-      <c r="BR10" s="19"/>
-    </row>
-    <row r="11" spans="1:82" ht="15.75" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:80" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
         <v>5.2</v>
       </c>
@@ -10234,9 +10270,9 @@
       <c r="N11" s="19"/>
       <c r="O11" s="19"/>
       <c r="P11" s="19"/>
-      <c r="Q11" s="100"/>
-      <c r="R11" s="100"/>
-      <c r="S11" s="100"/>
+      <c r="Q11" s="48"/>
+      <c r="R11" s="48"/>
+      <c r="S11" s="48"/>
       <c r="T11" s="19"/>
       <c r="U11" s="19"/>
       <c r="V11" s="19"/>
@@ -10286,10 +10322,8 @@
       <c r="BN11" s="19"/>
       <c r="BO11" s="19"/>
       <c r="BP11" s="19"/>
-      <c r="BQ11" s="19"/>
-      <c r="BR11" s="19"/>
-    </row>
-    <row r="12" spans="1:82" ht="15.75" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:80" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A12" s="9">
         <v>3.7</v>
       </c>
@@ -10315,7 +10349,7 @@
       <c r="Q12" s="19"/>
       <c r="R12" s="19"/>
       <c r="S12" s="19"/>
-      <c r="T12" s="100"/>
+      <c r="T12" s="48"/>
       <c r="U12" s="19"/>
       <c r="V12" s="19"/>
       <c r="W12" s="19"/>
@@ -10364,10 +10398,8 @@
       <c r="BN12" s="19"/>
       <c r="BO12" s="19"/>
       <c r="BP12" s="19"/>
-      <c r="BQ12" s="19"/>
-      <c r="BR12" s="19"/>
-    </row>
-    <row r="13" spans="1:82" ht="15.75" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:80" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
         <v>4.3</v>
       </c>
@@ -10393,7 +10425,7 @@
       <c r="Q13" s="19"/>
       <c r="R13" s="19"/>
       <c r="S13" s="19"/>
-      <c r="T13" s="100"/>
+      <c r="T13" s="48"/>
       <c r="U13" s="19"/>
       <c r="V13" s="19"/>
       <c r="W13" s="19"/>
@@ -10442,10 +10474,8 @@
       <c r="BN13" s="19"/>
       <c r="BO13" s="19"/>
       <c r="BP13" s="19"/>
-      <c r="BQ13" s="19"/>
-      <c r="BR13" s="19"/>
-    </row>
-    <row r="14" spans="1:82" ht="15.75" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:80" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
         <v>5.2</v>
       </c>
@@ -10472,9 +10502,9 @@
       <c r="R14" s="19"/>
       <c r="S14" s="19"/>
       <c r="T14" s="19"/>
-      <c r="U14" s="100"/>
-      <c r="V14" s="100"/>
-      <c r="W14" s="100"/>
+      <c r="U14" s="48"/>
+      <c r="V14" s="48"/>
+      <c r="W14" s="48"/>
       <c r="X14" s="19"/>
       <c r="Y14" s="19"/>
       <c r="Z14" s="19"/>
@@ -10520,10 +10550,8 @@
       <c r="BN14" s="19"/>
       <c r="BO14" s="19"/>
       <c r="BP14" s="19"/>
-      <c r="BQ14" s="19"/>
-      <c r="BR14" s="19"/>
-    </row>
-    <row r="15" spans="1:82" ht="15.75" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:80" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
         <v>5.2</v>
       </c>
@@ -10553,9 +10581,9 @@
       <c r="U15" s="19"/>
       <c r="V15" s="19"/>
       <c r="W15" s="19"/>
-      <c r="X15" s="100"/>
-      <c r="Y15" s="100"/>
-      <c r="Z15" s="100"/>
+      <c r="X15" s="48"/>
+      <c r="Y15" s="48"/>
+      <c r="Z15" s="48"/>
       <c r="AA15" s="19"/>
       <c r="AB15" s="19"/>
       <c r="AC15" s="19"/>
@@ -10598,10 +10626,8 @@
       <c r="BN15" s="19"/>
       <c r="BO15" s="19"/>
       <c r="BP15" s="19"/>
-      <c r="BQ15" s="19"/>
-      <c r="BR15" s="19"/>
-    </row>
-    <row r="16" spans="1:82" ht="15.75" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:80" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A16" s="9">
         <v>3.8</v>
       </c>
@@ -10635,9 +10661,9 @@
       <c r="Y16" s="19"/>
       <c r="Z16" s="19"/>
       <c r="AA16" s="19"/>
-      <c r="AB16" s="100"/>
-      <c r="AC16" s="100"/>
-      <c r="AD16" s="100"/>
+      <c r="AB16" s="48"/>
+      <c r="AC16" s="48"/>
+      <c r="AD16" s="48"/>
       <c r="AE16" s="19"/>
       <c r="AF16" s="19"/>
       <c r="AG16" s="19"/>
@@ -10676,10 +10702,8 @@
       <c r="BN16" s="19"/>
       <c r="BO16" s="19"/>
       <c r="BP16" s="19"/>
-      <c r="BQ16" s="19"/>
-      <c r="BR16" s="19"/>
-    </row>
-    <row r="17" spans="1:70" ht="15.75" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:68" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A17" s="7">
         <v>4.4000000000000004</v>
       </c>
@@ -10713,9 +10737,9 @@
       <c r="Y17" s="19"/>
       <c r="Z17" s="19"/>
       <c r="AA17" s="19"/>
-      <c r="AB17" s="100"/>
-      <c r="AC17" s="100"/>
-      <c r="AD17" s="100"/>
+      <c r="AB17" s="48"/>
+      <c r="AC17" s="48"/>
+      <c r="AD17" s="48"/>
       <c r="AE17" s="19"/>
       <c r="AF17" s="19"/>
       <c r="AG17" s="19"/>
@@ -10754,10 +10778,8 @@
       <c r="BN17" s="19"/>
       <c r="BO17" s="19"/>
       <c r="BP17" s="19"/>
-      <c r="BQ17" s="19"/>
-      <c r="BR17" s="19"/>
-    </row>
-    <row r="18" spans="1:70" ht="15.75" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:68" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A18" s="7">
         <v>5.3</v>
       </c>
@@ -10794,21 +10816,21 @@
       <c r="AB18" s="19"/>
       <c r="AC18" s="19"/>
       <c r="AD18" s="19"/>
-      <c r="AE18" s="100"/>
-      <c r="AF18" s="100"/>
-      <c r="AG18" s="100"/>
-      <c r="AH18" s="100"/>
-      <c r="AI18" s="100"/>
-      <c r="AJ18" s="100"/>
-      <c r="AK18" s="100"/>
-      <c r="AL18" s="100"/>
-      <c r="AM18" s="100"/>
-      <c r="AN18" s="100"/>
-      <c r="AO18" s="100"/>
-      <c r="AP18" s="100"/>
-      <c r="AQ18" s="100"/>
-      <c r="AR18" s="100"/>
-      <c r="AS18" s="97"/>
+      <c r="AE18" s="48"/>
+      <c r="AF18" s="48"/>
+      <c r="AG18" s="48"/>
+      <c r="AH18" s="48"/>
+      <c r="AI18" s="48"/>
+      <c r="AJ18" s="48"/>
+      <c r="AK18" s="48"/>
+      <c r="AL18" s="48"/>
+      <c r="AM18" s="48"/>
+      <c r="AN18" s="48"/>
+      <c r="AO18" s="48"/>
+      <c r="AP18" s="48"/>
+      <c r="AQ18" s="48"/>
+      <c r="AR18" s="48"/>
+      <c r="AS18" s="47"/>
       <c r="AT18" s="19"/>
       <c r="AU18" s="19"/>
       <c r="AV18" s="19"/>
@@ -10832,10 +10854,8 @@
       <c r="BN18" s="19"/>
       <c r="BO18" s="19"/>
       <c r="BP18" s="19"/>
-      <c r="BQ18" s="19"/>
-      <c r="BR18" s="19"/>
-    </row>
-    <row r="19" spans="1:70" ht="15.75" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:68" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A19" s="9">
         <v>3.9</v>
       </c>
@@ -10886,8 +10906,8 @@
       <c r="AP19" s="19"/>
       <c r="AQ19" s="19"/>
       <c r="AR19" s="19"/>
-      <c r="AS19" s="100"/>
-      <c r="AT19" s="100"/>
+      <c r="AS19" s="48"/>
+      <c r="AT19" s="48"/>
       <c r="AU19" s="19"/>
       <c r="AV19" s="19"/>
       <c r="AW19" s="19"/>
@@ -10910,10 +10930,8 @@
       <c r="BN19" s="19"/>
       <c r="BO19" s="19"/>
       <c r="BP19" s="19"/>
-      <c r="BQ19" s="19"/>
-      <c r="BR19" s="19"/>
-    </row>
-    <row r="20" spans="1:70" ht="15.75" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:68" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A20" s="7">
         <v>4.5</v>
       </c>
@@ -10964,8 +10982,8 @@
       <c r="AP20" s="19"/>
       <c r="AQ20" s="19"/>
       <c r="AR20" s="19"/>
-      <c r="AS20" s="100"/>
-      <c r="AT20" s="100"/>
+      <c r="AS20" s="48"/>
+      <c r="AT20" s="48"/>
       <c r="AU20" s="19"/>
       <c r="AV20" s="19"/>
       <c r="AW20" s="19"/>
@@ -10988,10 +11006,8 @@
       <c r="BN20" s="19"/>
       <c r="BO20" s="19"/>
       <c r="BP20" s="19"/>
-      <c r="BQ20" s="19"/>
-      <c r="BR20" s="19"/>
-    </row>
-    <row r="21" spans="1:70" ht="15.75" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:68" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A21" s="7">
         <v>5.4</v>
       </c>
@@ -11043,16 +11059,16 @@
       <c r="AR21" s="19"/>
       <c r="AS21" s="19"/>
       <c r="AT21" s="19"/>
-      <c r="AU21" s="100"/>
-      <c r="AV21" s="100"/>
-      <c r="AW21" s="100"/>
-      <c r="AX21" s="100"/>
-      <c r="AY21" s="100"/>
-      <c r="AZ21" s="100"/>
-      <c r="BA21" s="100"/>
-      <c r="BB21" s="100"/>
-      <c r="BC21" s="100"/>
-      <c r="BD21" s="100"/>
+      <c r="AU21" s="48"/>
+      <c r="AV21" s="48"/>
+      <c r="AW21" s="48"/>
+      <c r="AX21" s="48"/>
+      <c r="AY21" s="48"/>
+      <c r="AZ21" s="48"/>
+      <c r="BA21" s="48"/>
+      <c r="BB21" s="48"/>
+      <c r="BC21" s="48"/>
+      <c r="BD21" s="48"/>
       <c r="BE21" s="19"/>
       <c r="BF21" s="19"/>
       <c r="BG21" s="19"/>
@@ -11065,10 +11081,8 @@
       <c r="BN21" s="19"/>
       <c r="BO21" s="19"/>
       <c r="BP21" s="19"/>
-      <c r="BQ21" s="19"/>
-      <c r="BR21" s="19"/>
-    </row>
-    <row r="22" spans="1:70" ht="15.75" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:68" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A22" s="9" t="s">
         <v>48</v>
       </c>
@@ -11127,8 +11141,8 @@
       <c r="AX22" s="19"/>
       <c r="AY22" s="19"/>
       <c r="AZ22" s="19"/>
-      <c r="BA22" s="100"/>
-      <c r="BB22" s="100"/>
+      <c r="BA22" s="48"/>
+      <c r="BB22" s="48"/>
       <c r="BC22" s="19"/>
       <c r="BD22" s="19"/>
       <c r="BE22" s="19"/>
@@ -11143,10 +11157,8 @@
       <c r="BN22" s="19"/>
       <c r="BO22" s="19"/>
       <c r="BP22" s="19"/>
-      <c r="BQ22" s="19"/>
-      <c r="BR22" s="19"/>
-    </row>
-    <row r="23" spans="1:70" ht="15.75" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:68" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A23" s="7">
         <v>4.5999999999999996</v>
       </c>
@@ -11205,8 +11217,8 @@
       <c r="AX23" s="18"/>
       <c r="AY23" s="18"/>
       <c r="AZ23" s="18"/>
-      <c r="BA23" s="100"/>
-      <c r="BB23" s="100"/>
+      <c r="BA23" s="48"/>
+      <c r="BB23" s="48"/>
       <c r="BC23" s="18"/>
       <c r="BD23" s="18"/>
       <c r="BE23" s="18"/>
@@ -11220,11 +11232,9 @@
       <c r="BM23" s="18"/>
       <c r="BN23" s="18"/>
       <c r="BO23" s="18"/>
-      <c r="BP23" s="18"/>
-      <c r="BQ23" s="18"/>
-      <c r="BR23" s="19"/>
-    </row>
-    <row r="24" spans="1:70" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="BP23" s="19"/>
+    </row>
+    <row r="24" spans="1:68" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A24" s="7">
         <v>5.5</v>
       </c>
@@ -11285,11 +11295,11 @@
       <c r="AZ24" s="19"/>
       <c r="BA24" s="19"/>
       <c r="BB24" s="19"/>
-      <c r="BC24" s="100"/>
-      <c r="BD24" s="100"/>
-      <c r="BE24" s="100"/>
-      <c r="BF24" s="100"/>
-      <c r="BG24" s="100"/>
+      <c r="BC24" s="48"/>
+      <c r="BD24" s="48"/>
+      <c r="BE24" s="48"/>
+      <c r="BF24" s="48"/>
+      <c r="BG24" s="48"/>
       <c r="BJ24" s="19"/>
       <c r="BK24" s="19"/>
       <c r="BL24" s="19"/>
@@ -11297,10 +11307,8 @@
       <c r="BN24" s="19"/>
       <c r="BO24" s="19"/>
       <c r="BP24" s="19"/>
-      <c r="BQ24" s="19"/>
-      <c r="BR24" s="19"/>
-    </row>
-    <row r="25" spans="1:70" ht="15.75" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:68" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A25" s="7">
         <v>6.3</v>
       </c>
@@ -11366,17 +11374,15 @@
       <c r="BE25" s="19"/>
       <c r="BF25" s="19"/>
       <c r="BG25" s="19"/>
-      <c r="BH25" s="100"/>
-      <c r="BI25" s="100"/>
-      <c r="BJ25" s="100"/>
-      <c r="BK25" s="100"/>
-      <c r="BN25" s="102"/>
-      <c r="BO25" s="102"/>
-      <c r="BP25" s="102"/>
-      <c r="BQ25" s="102"/>
-      <c r="BR25" s="19"/>
-    </row>
-    <row r="26" spans="1:70" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="BH25" s="48"/>
+      <c r="BI25" s="48"/>
+      <c r="BJ25" s="48"/>
+      <c r="BK25" s="48"/>
+      <c r="BN25" s="50"/>
+      <c r="BO25" s="50"/>
+      <c r="BP25" s="19"/>
+    </row>
+    <row r="26" spans="1:68" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A26" s="7">
         <v>6.6</v>
       </c>
@@ -11446,21 +11452,19 @@
       <c r="BI26" s="19"/>
       <c r="BJ26" s="19"/>
       <c r="BK26" s="19"/>
-      <c r="BL26" s="100"/>
-      <c r="BM26" s="100"/>
+      <c r="BL26" s="48"/>
+      <c r="BM26" s="48"/>
       <c r="BN26" s="19"/>
       <c r="BO26" s="19"/>
       <c r="BP26" s="19"/>
-      <c r="BQ26" s="19"/>
-      <c r="BR26" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="D1:Z1"/>
     <mergeCell ref="AA1:BD1"/>
-    <mergeCell ref="BE1:BR1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:C2"/>
+    <mergeCell ref="BE1:BP1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12143,306 +12147,306 @@
   <sheetData>
     <row r="1" spans="2:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="49"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="53"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B4" s="50"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="52"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="56"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B5" s="50"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="52"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="56"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B6" s="50"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="52"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="56"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B7" s="50"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="52"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="56"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B8" s="50"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="52"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="56"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B9" s="53"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="55"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="59"/>
     </row>
     <row r="10" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="60"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="49"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="53"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B12" s="50"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="52"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="56"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B13" s="50"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="52"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="56"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B14" s="50"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="52"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="56"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B15" s="50"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="52"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="56"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B16" s="50"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="52"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="56"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B17" s="50"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="52"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="56"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B18" s="50"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="52"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="56"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B19" s="50"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="52"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="56"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B20" s="50"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="52"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="56"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B21" s="50"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="52"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="56"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B22" s="53"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="54"/>
-      <c r="M22" s="55"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/01_doc/proj_plan/餐厅订餐系统_项目计划.xlsx
+++ b/01_doc/proj_plan/餐厅订餐系统_项目计划.xlsx
@@ -19,7 +19,7 @@
     <sheet name="08_验收条件" sheetId="8" r:id="rId10"/>
     <sheet name="Lengend" sheetId="9" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -507,7 +507,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -516,7 +516,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Aaron</t>
@@ -531,7 +531,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -540,7 +540,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Aaron/Lin</t>
@@ -555,7 +555,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -564,7 +564,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Lin</t>
@@ -579,7 +579,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -588,7 +588,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Lin
@@ -604,7 +604,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -613,7 +613,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Aaron</t>
@@ -628,7 +628,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -637,7 +637,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Aaron</t>
@@ -652,7 +652,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -661,7 +661,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Annie</t>
@@ -676,7 +676,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -685,7 +685,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Aaron</t>
@@ -700,7 +700,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -709,7 +709,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Leon</t>
@@ -724,7 +724,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -733,7 +733,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Aaron</t>
@@ -748,7 +748,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -757,7 +757,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Annie</t>
@@ -772,7 +772,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -781,7 +781,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Aaron</t>
@@ -796,7 +796,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -805,7 +805,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Leon</t>
@@ -820,7 +820,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -829,7 +829,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Aaron/Lin</t>
@@ -844,7 +844,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -853,7 +853,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Annie</t>
@@ -868,7 +868,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -877,7 +877,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Aaron/Lin</t>
@@ -892,7 +892,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -901,7 +901,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Aaron/Lin</t>
@@ -916,7 +916,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -925,7 +925,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Annie</t>
@@ -940,7 +940,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -949,7 +949,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Lin
@@ -965,7 +965,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -974,7 +974,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Aaron</t>
@@ -989,7 +989,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -998,7 +998,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Annie</t>
@@ -1650,7 +1650,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d"/>
+  </numFmts>
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1751,19 +1754,6 @@
       <name val="Symbol"/>
       <family val="1"/>
       <charset val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="10">
@@ -2003,7 +1993,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2079,6 +2069,10 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2184,9 +2178,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2194,6 +2185,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2223,28 +2217,31 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3794,232 +3791,232 @@
   <sheetData>
     <row r="1" spans="2:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="47"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="49"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="53"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B4" s="50"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="52"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="56"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B5" s="50"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="52"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="56"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B6" s="50"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="52"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="56"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B7" s="50"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="52"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="56"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B8" s="50"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="52"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="56"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B9" s="53"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="55"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="59"/>
     </row>
     <row r="10" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="60"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B11" s="47"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="49"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="53"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B12" s="50"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="52"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="56"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B13" s="50"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="52"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="56"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B14" s="50"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="52"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="56"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B15" s="50"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="52"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="56"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B16" s="50"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="52"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="56"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B17" s="53"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="55"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4277,700 +4274,700 @@
   <sheetData>
     <row r="1" spans="2:13" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="58"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="62"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="59"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="61"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="65"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="59"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="61"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="65"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="59"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="61"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="65"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="60"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="58"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="62"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="59"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="61"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="65"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="59"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="61"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="65"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="59"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="61"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="65"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="62"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="63"/>
-      <c r="M12" s="64"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="68"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="56"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="60"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="65" t="s">
+      <c r="B14" s="69" t="s">
         <v>171</v>
       </c>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
-      <c r="M14" s="67"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="71"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="68"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="69"/>
-      <c r="M15" s="70"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="73"/>
+      <c r="L15" s="73"/>
+      <c r="M15" s="74"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="68"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="70"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="73"/>
+      <c r="L16" s="73"/>
+      <c r="M16" s="74"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="68"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="69"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="70"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="73"/>
+      <c r="L17" s="73"/>
+      <c r="M17" s="74"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="68"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="70"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="73"/>
+      <c r="L18" s="73"/>
+      <c r="M18" s="74"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="68"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="69"/>
-      <c r="L19" s="69"/>
-      <c r="M19" s="70"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="73"/>
+      <c r="L19" s="73"/>
+      <c r="M19" s="74"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="68"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="69"/>
-      <c r="L20" s="69"/>
-      <c r="M20" s="70"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="73"/>
+      <c r="J20" s="73"/>
+      <c r="K20" s="73"/>
+      <c r="L20" s="73"/>
+      <c r="M20" s="74"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="68"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="69"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="69"/>
-      <c r="L21" s="69"/>
-      <c r="M21" s="70"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="73"/>
+      <c r="J21" s="73"/>
+      <c r="K21" s="73"/>
+      <c r="L21" s="73"/>
+      <c r="M21" s="74"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="68"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="69"/>
-      <c r="J22" s="69"/>
-      <c r="K22" s="69"/>
-      <c r="L22" s="69"/>
-      <c r="M22" s="70"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="73"/>
+      <c r="J22" s="73"/>
+      <c r="K22" s="73"/>
+      <c r="L22" s="73"/>
+      <c r="M22" s="74"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="70"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="73"/>
+      <c r="I23" s="73"/>
+      <c r="J23" s="73"/>
+      <c r="K23" s="73"/>
+      <c r="L23" s="73"/>
+      <c r="M23" s="74"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B24" s="68"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="70"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="73"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="73"/>
+      <c r="L24" s="73"/>
+      <c r="M24" s="74"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="68"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="70"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="74"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="68"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="69"/>
-      <c r="M26" s="70"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="73"/>
+      <c r="L26" s="73"/>
+      <c r="M26" s="74"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="71"/>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="72"/>
-      <c r="J27" s="72"/>
-      <c r="K27" s="72"/>
-      <c r="L27" s="72"/>
-      <c r="M27" s="73"/>
+      <c r="B27" s="75"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="76"/>
+      <c r="J27" s="76"/>
+      <c r="K27" s="76"/>
+      <c r="L27" s="76"/>
+      <c r="M27" s="77"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="56" t="s">
+      <c r="B28" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="56"/>
-      <c r="L28" s="56"/>
-      <c r="M28" s="56"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="60"/>
+      <c r="K28" s="60"/>
+      <c r="L28" s="60"/>
+      <c r="M28" s="60"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="47" t="s">
+      <c r="B29" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="48"/>
-      <c r="K29" s="48"/>
-      <c r="L29" s="48"/>
-      <c r="M29" s="49"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="53"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="50"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="51"/>
-      <c r="K30" s="51"/>
-      <c r="L30" s="51"/>
-      <c r="M30" s="52"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="55"/>
+      <c r="M30" s="56"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="50"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="51"/>
-      <c r="K31" s="51"/>
-      <c r="L31" s="51"/>
-      <c r="M31" s="52"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="56"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="50"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="51"/>
-      <c r="J32" s="51"/>
-      <c r="K32" s="51"/>
-      <c r="L32" s="51"/>
-      <c r="M32" s="52"/>
+      <c r="B32" s="54"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="55"/>
+      <c r="K32" s="55"/>
+      <c r="L32" s="55"/>
+      <c r="M32" s="56"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" s="50"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="51"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="51"/>
-      <c r="J33" s="51"/>
-      <c r="K33" s="51"/>
-      <c r="L33" s="51"/>
-      <c r="M33" s="52"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="55"/>
+      <c r="K33" s="55"/>
+      <c r="L33" s="55"/>
+      <c r="M33" s="56"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B34" s="50"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="51"/>
-      <c r="I34" s="51"/>
-      <c r="J34" s="51"/>
-      <c r="K34" s="51"/>
-      <c r="L34" s="51"/>
-      <c r="M34" s="52"/>
+      <c r="B34" s="54"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="55"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="55"/>
+      <c r="K34" s="55"/>
+      <c r="L34" s="55"/>
+      <c r="M34" s="56"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="53"/>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="54"/>
-      <c r="H35" s="54"/>
-      <c r="I35" s="54"/>
-      <c r="J35" s="54"/>
-      <c r="K35" s="54"/>
-      <c r="L35" s="54"/>
-      <c r="M35" s="55"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="58"/>
+      <c r="I35" s="58"/>
+      <c r="J35" s="58"/>
+      <c r="K35" s="58"/>
+      <c r="L35" s="58"/>
+      <c r="M35" s="59"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B36" s="56" t="s">
+      <c r="B36" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="56"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="56"/>
-      <c r="H36" s="56"/>
-      <c r="I36" s="56"/>
-      <c r="J36" s="56"/>
-      <c r="K36" s="56"/>
-      <c r="L36" s="56"/>
-      <c r="M36" s="56"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
+      <c r="I36" s="60"/>
+      <c r="J36" s="60"/>
+      <c r="K36" s="60"/>
+      <c r="L36" s="60"/>
+      <c r="M36" s="60"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B37" s="65" t="s">
+      <c r="B37" s="69" t="s">
         <v>118</v>
       </c>
-      <c r="C37" s="74"/>
-      <c r="D37" s="74"/>
-      <c r="E37" s="74"/>
-      <c r="F37" s="74"/>
-      <c r="G37" s="74"/>
-      <c r="H37" s="74"/>
-      <c r="I37" s="74"/>
-      <c r="J37" s="74"/>
-      <c r="K37" s="74"/>
-      <c r="L37" s="74"/>
-      <c r="M37" s="75"/>
+      <c r="C37" s="78"/>
+      <c r="D37" s="78"/>
+      <c r="E37" s="78"/>
+      <c r="F37" s="78"/>
+      <c r="G37" s="78"/>
+      <c r="H37" s="78"/>
+      <c r="I37" s="78"/>
+      <c r="J37" s="78"/>
+      <c r="K37" s="78"/>
+      <c r="L37" s="78"/>
+      <c r="M37" s="79"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B38" s="76"/>
-      <c r="C38" s="77"/>
-      <c r="D38" s="77"/>
-      <c r="E38" s="77"/>
-      <c r="F38" s="77"/>
-      <c r="G38" s="77"/>
-      <c r="H38" s="77"/>
-      <c r="I38" s="77"/>
-      <c r="J38" s="77"/>
-      <c r="K38" s="77"/>
-      <c r="L38" s="77"/>
-      <c r="M38" s="78"/>
+      <c r="B38" s="80"/>
+      <c r="C38" s="81"/>
+      <c r="D38" s="81"/>
+      <c r="E38" s="81"/>
+      <c r="F38" s="81"/>
+      <c r="G38" s="81"/>
+      <c r="H38" s="81"/>
+      <c r="I38" s="81"/>
+      <c r="J38" s="81"/>
+      <c r="K38" s="81"/>
+      <c r="L38" s="81"/>
+      <c r="M38" s="82"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B39" s="76"/>
-      <c r="C39" s="77"/>
-      <c r="D39" s="77"/>
-      <c r="E39" s="77"/>
-      <c r="F39" s="77"/>
-      <c r="G39" s="77"/>
-      <c r="H39" s="77"/>
-      <c r="I39" s="77"/>
-      <c r="J39" s="77"/>
-      <c r="K39" s="77"/>
-      <c r="L39" s="77"/>
-      <c r="M39" s="78"/>
+      <c r="B39" s="80"/>
+      <c r="C39" s="81"/>
+      <c r="D39" s="81"/>
+      <c r="E39" s="81"/>
+      <c r="F39" s="81"/>
+      <c r="G39" s="81"/>
+      <c r="H39" s="81"/>
+      <c r="I39" s="81"/>
+      <c r="J39" s="81"/>
+      <c r="K39" s="81"/>
+      <c r="L39" s="81"/>
+      <c r="M39" s="82"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B40" s="76"/>
-      <c r="C40" s="77"/>
-      <c r="D40" s="77"/>
-      <c r="E40" s="77"/>
-      <c r="F40" s="77"/>
-      <c r="G40" s="77"/>
-      <c r="H40" s="77"/>
-      <c r="I40" s="77"/>
-      <c r="J40" s="77"/>
-      <c r="K40" s="77"/>
-      <c r="L40" s="77"/>
-      <c r="M40" s="78"/>
+      <c r="B40" s="80"/>
+      <c r="C40" s="81"/>
+      <c r="D40" s="81"/>
+      <c r="E40" s="81"/>
+      <c r="F40" s="81"/>
+      <c r="G40" s="81"/>
+      <c r="H40" s="81"/>
+      <c r="I40" s="81"/>
+      <c r="J40" s="81"/>
+      <c r="K40" s="81"/>
+      <c r="L40" s="81"/>
+      <c r="M40" s="82"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="79"/>
-      <c r="C41" s="80"/>
-      <c r="D41" s="80"/>
-      <c r="E41" s="80"/>
-      <c r="F41" s="80"/>
-      <c r="G41" s="80"/>
-      <c r="H41" s="80"/>
-      <c r="I41" s="80"/>
-      <c r="J41" s="80"/>
-      <c r="K41" s="80"/>
-      <c r="L41" s="80"/>
-      <c r="M41" s="81"/>
+      <c r="B41" s="83"/>
+      <c r="C41" s="84"/>
+      <c r="D41" s="84"/>
+      <c r="E41" s="84"/>
+      <c r="F41" s="84"/>
+      <c r="G41" s="84"/>
+      <c r="H41" s="84"/>
+      <c r="I41" s="84"/>
+      <c r="J41" s="84"/>
+      <c r="K41" s="84"/>
+      <c r="L41" s="84"/>
+      <c r="M41" s="85"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B42" s="56" t="s">
+      <c r="B42" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="56"/>
-      <c r="D42" s="56"/>
-      <c r="E42" s="56"/>
-      <c r="F42" s="56"/>
-      <c r="G42" s="56"/>
-      <c r="H42" s="56"/>
-      <c r="I42" s="56"/>
-      <c r="J42" s="56"/>
-      <c r="K42" s="56"/>
-      <c r="L42" s="56"/>
-      <c r="M42" s="56"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="60"/>
+      <c r="G42" s="60"/>
+      <c r="H42" s="60"/>
+      <c r="I42" s="60"/>
+      <c r="J42" s="60"/>
+      <c r="K42" s="60"/>
+      <c r="L42" s="60"/>
+      <c r="M42" s="60"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B43" s="47" t="s">
+      <c r="B43" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="C43" s="48"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="48"/>
-      <c r="H43" s="48"/>
-      <c r="I43" s="48"/>
-      <c r="J43" s="48"/>
-      <c r="K43" s="48"/>
-      <c r="L43" s="48"/>
-      <c r="M43" s="49"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="52"/>
+      <c r="J43" s="52"/>
+      <c r="K43" s="52"/>
+      <c r="L43" s="52"/>
+      <c r="M43" s="53"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B44" s="50"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="51"/>
-      <c r="E44" s="51"/>
-      <c r="F44" s="51"/>
-      <c r="G44" s="51"/>
-      <c r="H44" s="51"/>
-      <c r="I44" s="51"/>
-      <c r="J44" s="51"/>
-      <c r="K44" s="51"/>
-      <c r="L44" s="51"/>
-      <c r="M44" s="52"/>
+      <c r="B44" s="54"/>
+      <c r="C44" s="55"/>
+      <c r="D44" s="55"/>
+      <c r="E44" s="55"/>
+      <c r="F44" s="55"/>
+      <c r="G44" s="55"/>
+      <c r="H44" s="55"/>
+      <c r="I44" s="55"/>
+      <c r="J44" s="55"/>
+      <c r="K44" s="55"/>
+      <c r="L44" s="55"/>
+      <c r="M44" s="56"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B45" s="50"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="51"/>
-      <c r="F45" s="51"/>
-      <c r="G45" s="51"/>
-      <c r="H45" s="51"/>
-      <c r="I45" s="51"/>
-      <c r="J45" s="51"/>
-      <c r="K45" s="51"/>
-      <c r="L45" s="51"/>
-      <c r="M45" s="52"/>
+      <c r="B45" s="54"/>
+      <c r="C45" s="55"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="55"/>
+      <c r="G45" s="55"/>
+      <c r="H45" s="55"/>
+      <c r="I45" s="55"/>
+      <c r="J45" s="55"/>
+      <c r="K45" s="55"/>
+      <c r="L45" s="55"/>
+      <c r="M45" s="56"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="50"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="51"/>
-      <c r="E46" s="51"/>
-      <c r="F46" s="51"/>
-      <c r="G46" s="51"/>
-      <c r="H46" s="51"/>
-      <c r="I46" s="51"/>
-      <c r="J46" s="51"/>
-      <c r="K46" s="51"/>
-      <c r="L46" s="51"/>
-      <c r="M46" s="52"/>
+      <c r="B46" s="54"/>
+      <c r="C46" s="55"/>
+      <c r="D46" s="55"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="55"/>
+      <c r="G46" s="55"/>
+      <c r="H46" s="55"/>
+      <c r="I46" s="55"/>
+      <c r="J46" s="55"/>
+      <c r="K46" s="55"/>
+      <c r="L46" s="55"/>
+      <c r="M46" s="56"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B47" s="50"/>
-      <c r="C47" s="51"/>
-      <c r="D47" s="51"/>
-      <c r="E47" s="51"/>
-      <c r="F47" s="51"/>
-      <c r="G47" s="51"/>
-      <c r="H47" s="51"/>
-      <c r="I47" s="51"/>
-      <c r="J47" s="51"/>
-      <c r="K47" s="51"/>
-      <c r="L47" s="51"/>
-      <c r="M47" s="52"/>
+      <c r="B47" s="54"/>
+      <c r="C47" s="55"/>
+      <c r="D47" s="55"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="55"/>
+      <c r="H47" s="55"/>
+      <c r="I47" s="55"/>
+      <c r="J47" s="55"/>
+      <c r="K47" s="55"/>
+      <c r="L47" s="55"/>
+      <c r="M47" s="56"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B48" s="50"/>
-      <c r="C48" s="51"/>
-      <c r="D48" s="51"/>
-      <c r="E48" s="51"/>
-      <c r="F48" s="51"/>
-      <c r="G48" s="51"/>
-      <c r="H48" s="51"/>
-      <c r="I48" s="51"/>
-      <c r="J48" s="51"/>
-      <c r="K48" s="51"/>
-      <c r="L48" s="51"/>
-      <c r="M48" s="52"/>
+      <c r="B48" s="54"/>
+      <c r="C48" s="55"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="55"/>
+      <c r="G48" s="55"/>
+      <c r="H48" s="55"/>
+      <c r="I48" s="55"/>
+      <c r="J48" s="55"/>
+      <c r="K48" s="55"/>
+      <c r="L48" s="55"/>
+      <c r="M48" s="56"/>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B49" s="53"/>
-      <c r="C49" s="54"/>
-      <c r="D49" s="54"/>
-      <c r="E49" s="54"/>
-      <c r="F49" s="54"/>
-      <c r="G49" s="54"/>
-      <c r="H49" s="54"/>
-      <c r="I49" s="54"/>
-      <c r="J49" s="54"/>
-      <c r="K49" s="54"/>
-      <c r="L49" s="54"/>
-      <c r="M49" s="55"/>
+      <c r="B49" s="57"/>
+      <c r="C49" s="58"/>
+      <c r="D49" s="58"/>
+      <c r="E49" s="58"/>
+      <c r="F49" s="58"/>
+      <c r="G49" s="58"/>
+      <c r="H49" s="58"/>
+      <c r="I49" s="58"/>
+      <c r="J49" s="58"/>
+      <c r="K49" s="58"/>
+      <c r="L49" s="58"/>
+      <c r="M49" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -5019,10 +5016,10 @@
   <sheetData>
     <row r="1" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="83"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
       <c r="E2" s="12" t="s">
         <v>3</v>
       </c>
@@ -5037,10 +5034,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="82">
+      <c r="A3" s="89">
         <v>1</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="89" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="7">
@@ -5063,8 +5060,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="82"/>
-      <c r="B4" s="82"/>
+      <c r="A4" s="89"/>
+      <c r="B4" s="89"/>
       <c r="C4" s="7">
         <v>1.2</v>
       </c>
@@ -5085,8 +5082,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="82"/>
-      <c r="B5" s="82"/>
+      <c r="A5" s="89"/>
+      <c r="B5" s="89"/>
       <c r="C5" s="7">
         <v>1.3</v>
       </c>
@@ -5107,8 +5104,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="82"/>
-      <c r="B6" s="82"/>
+      <c r="A6" s="89"/>
+      <c r="B6" s="89"/>
       <c r="C6" s="7">
         <v>1.4</v>
       </c>
@@ -5129,10 +5126,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="84">
+      <c r="A7" s="87">
         <v>2</v>
       </c>
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="89" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="7">
@@ -5155,8 +5152,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="85"/>
-      <c r="B8" s="82"/>
+      <c r="A8" s="88"/>
+      <c r="B8" s="89"/>
       <c r="C8" s="7">
         <v>2.2000000000000002</v>
       </c>
@@ -5177,8 +5174,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="86"/>
-      <c r="B9" s="82"/>
+      <c r="A9" s="90"/>
+      <c r="B9" s="89"/>
       <c r="C9" s="7">
         <v>2.2999999999999998</v>
       </c>
@@ -5199,10 +5196,10 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="82">
+      <c r="A10" s="89">
         <v>3</v>
       </c>
-      <c r="B10" s="82" t="s">
+      <c r="B10" s="89" t="s">
         <v>38</v>
       </c>
       <c r="C10" s="9">
@@ -5225,8 +5222,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="82"/>
-      <c r="B11" s="82"/>
+      <c r="A11" s="89"/>
+      <c r="B11" s="89"/>
       <c r="C11" s="9">
         <v>3.2</v>
       </c>
@@ -5247,8 +5244,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="82"/>
-      <c r="B12" s="82"/>
+      <c r="A12" s="89"/>
+      <c r="B12" s="89"/>
       <c r="C12" s="9">
         <v>3.3</v>
       </c>
@@ -5269,8 +5266,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="82"/>
-      <c r="B13" s="82"/>
+      <c r="A13" s="89"/>
+      <c r="B13" s="89"/>
       <c r="C13" s="9">
         <v>3.4</v>
       </c>
@@ -5291,8 +5288,8 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="82"/>
-      <c r="B14" s="82"/>
+      <c r="A14" s="89"/>
+      <c r="B14" s="89"/>
       <c r="C14" s="9">
         <v>3.5</v>
       </c>
@@ -5313,8 +5310,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="82"/>
-      <c r="B15" s="82"/>
+      <c r="A15" s="89"/>
+      <c r="B15" s="89"/>
       <c r="C15" s="9">
         <v>3.6</v>
       </c>
@@ -5335,8 +5332,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="82"/>
-      <c r="B16" s="82"/>
+      <c r="A16" s="89"/>
+      <c r="B16" s="89"/>
       <c r="C16" s="9">
         <v>3.7</v>
       </c>
@@ -5357,8 +5354,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="82"/>
-      <c r="B17" s="82"/>
+      <c r="A17" s="89"/>
+      <c r="B17" s="89"/>
       <c r="C17" s="9">
         <v>3.8</v>
       </c>
@@ -5379,8 +5376,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="82"/>
-      <c r="B18" s="82"/>
+      <c r="A18" s="89"/>
+      <c r="B18" s="89"/>
       <c r="C18" s="9">
         <v>3.9</v>
       </c>
@@ -5401,8 +5398,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="82"/>
-      <c r="B19" s="82"/>
+      <c r="A19" s="89"/>
+      <c r="B19" s="89"/>
       <c r="C19" s="9" t="s">
         <v>48</v>
       </c>
@@ -5423,10 +5420,10 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="82">
+      <c r="A20" s="89">
         <v>4</v>
       </c>
-      <c r="B20" s="84" t="s">
+      <c r="B20" s="87" t="s">
         <v>50</v>
       </c>
       <c r="C20" s="7">
@@ -5449,8 +5446,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="82"/>
-      <c r="B21" s="85"/>
+      <c r="A21" s="89"/>
+      <c r="B21" s="88"/>
       <c r="C21" s="7">
         <v>4.2</v>
       </c>
@@ -5471,8 +5468,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="82"/>
-      <c r="B22" s="85"/>
+      <c r="A22" s="89"/>
+      <c r="B22" s="88"/>
       <c r="C22" s="7">
         <v>4.3</v>
       </c>
@@ -5493,8 +5490,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="82"/>
-      <c r="B23" s="85"/>
+      <c r="A23" s="89"/>
+      <c r="B23" s="88"/>
       <c r="C23" s="7">
         <v>4.4000000000000004</v>
       </c>
@@ -5515,8 +5512,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="82"/>
-      <c r="B24" s="85"/>
+      <c r="A24" s="89"/>
+      <c r="B24" s="88"/>
       <c r="C24" s="7">
         <v>4.5</v>
       </c>
@@ -5537,8 +5534,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="82"/>
-      <c r="B25" s="85"/>
+      <c r="A25" s="89"/>
+      <c r="B25" s="88"/>
       <c r="C25" s="7">
         <v>4.5999999999999996</v>
       </c>
@@ -5559,10 +5556,10 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="82">
+      <c r="A26" s="89">
         <v>5</v>
       </c>
-      <c r="B26" s="82" t="s">
+      <c r="B26" s="89" t="s">
         <v>57</v>
       </c>
       <c r="C26" s="7">
@@ -5585,8 +5582,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="82"/>
-      <c r="B27" s="82"/>
+      <c r="A27" s="89"/>
+      <c r="B27" s="89"/>
       <c r="C27" s="7">
         <v>5.2</v>
       </c>
@@ -5607,8 +5604,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="82"/>
-      <c r="B28" s="82"/>
+      <c r="A28" s="89"/>
+      <c r="B28" s="89"/>
       <c r="C28" s="7">
         <v>5.3</v>
       </c>
@@ -5629,8 +5626,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="82"/>
-      <c r="B29" s="82"/>
+      <c r="A29" s="89"/>
+      <c r="B29" s="89"/>
       <c r="C29" s="7">
         <v>5.4</v>
       </c>
@@ -5651,8 +5648,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="82"/>
-      <c r="B30" s="82"/>
+      <c r="A30" s="89"/>
+      <c r="B30" s="89"/>
       <c r="C30" s="7">
         <v>5.5</v>
       </c>
@@ -5673,10 +5670,10 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="82">
+      <c r="A31" s="89">
         <v>6</v>
       </c>
-      <c r="B31" s="82" t="s">
+      <c r="B31" s="89" t="s">
         <v>63</v>
       </c>
       <c r="C31" s="7">
@@ -5699,8 +5696,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="82"/>
-      <c r="B32" s="82"/>
+      <c r="A32" s="89"/>
+      <c r="B32" s="89"/>
       <c r="C32" s="7">
         <v>6.2</v>
       </c>
@@ -5721,8 +5718,8 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="82"/>
-      <c r="B33" s="82"/>
+      <c r="A33" s="89"/>
+      <c r="B33" s="89"/>
       <c r="C33" s="7">
         <v>6.3</v>
       </c>
@@ -5743,8 +5740,8 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="82"/>
-      <c r="B34" s="82"/>
+      <c r="A34" s="89"/>
+      <c r="B34" s="89"/>
       <c r="C34" s="7">
         <v>6.4</v>
       </c>
@@ -5765,8 +5762,8 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" s="82"/>
-      <c r="B35" s="82"/>
+      <c r="A35" s="89"/>
+      <c r="B35" s="89"/>
       <c r="C35" s="7">
         <v>6.5</v>
       </c>
@@ -5787,8 +5784,8 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A36" s="82"/>
-      <c r="B36" s="82"/>
+      <c r="A36" s="89"/>
+      <c r="B36" s="89"/>
       <c r="C36" s="7">
         <v>6.6</v>
       </c>
@@ -5809,10 +5806,10 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" s="82">
+      <c r="A37" s="89">
         <v>7</v>
       </c>
-      <c r="B37" s="82" t="s">
+      <c r="B37" s="89" t="s">
         <v>154</v>
       </c>
       <c r="C37" s="7">
@@ -5835,8 +5832,8 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A38" s="82"/>
-      <c r="B38" s="82"/>
+      <c r="A38" s="89"/>
+      <c r="B38" s="89"/>
       <c r="C38" s="7">
         <v>7.2</v>
       </c>
@@ -5857,8 +5854,8 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A39" s="82"/>
-      <c r="B39" s="82"/>
+      <c r="A39" s="89"/>
+      <c r="B39" s="89"/>
       <c r="C39" s="7">
         <v>7.3</v>
       </c>
@@ -5879,8 +5876,8 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A40" s="82"/>
-      <c r="B40" s="82"/>
+      <c r="A40" s="89"/>
+      <c r="B40" s="89"/>
       <c r="C40" s="7">
         <v>7.4</v>
       </c>
@@ -5901,8 +5898,8 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A41" s="82"/>
-      <c r="B41" s="82"/>
+      <c r="A41" s="89"/>
+      <c r="B41" s="89"/>
       <c r="C41" s="7">
         <v>7.5</v>
       </c>
@@ -5924,6 +5921,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="A31:A36"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="A20:A25"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="B20:B25"/>
     <mergeCell ref="B26:B30"/>
@@ -5934,11 +5936,6 @@
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="B10:B19"/>
     <mergeCell ref="A10:A19"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="A31:A36"/>
-    <mergeCell ref="B31:B36"/>
-    <mergeCell ref="A20:A25"/>
   </mergeCells>
   <conditionalFormatting sqref="E3 E4:H30">
     <cfRule type="cellIs" dxfId="159" priority="217" operator="equal">
@@ -6540,60 +6537,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="92"/>
-      <c r="B1" s="92"/>
-      <c r="C1" s="94" t="s">
+      <c r="A1" s="96"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="87" t="s">
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="91" t="s">
         <v>67</v>
       </c>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
-      <c r="W1" s="88"/>
-      <c r="X1" s="88"/>
-      <c r="Y1" s="88"/>
-      <c r="Z1" s="88"/>
-      <c r="AA1" s="88"/>
-      <c r="AB1" s="88"/>
-      <c r="AC1" s="88"/>
-      <c r="AD1" s="88"/>
-      <c r="AE1" s="88"/>
-      <c r="AF1" s="88"/>
-      <c r="AG1" s="88"/>
-      <c r="AH1" s="88"/>
-      <c r="AI1" s="88"/>
-      <c r="AJ1" s="88"/>
-      <c r="AK1" s="88"/>
-      <c r="AL1" s="88"/>
-      <c r="AM1" s="88"/>
-      <c r="AN1" s="88"/>
-      <c r="AO1" s="88"/>
-      <c r="AP1" s="88"/>
-      <c r="AQ1" s="88"/>
-      <c r="AR1" s="88"/>
-      <c r="AS1" s="88"/>
-      <c r="AT1" s="89"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
+      <c r="W1" s="92"/>
+      <c r="X1" s="92"/>
+      <c r="Y1" s="92"/>
+      <c r="Z1" s="92"/>
+      <c r="AA1" s="92"/>
+      <c r="AB1" s="92"/>
+      <c r="AC1" s="92"/>
+      <c r="AD1" s="92"/>
+      <c r="AE1" s="92"/>
+      <c r="AF1" s="92"/>
+      <c r="AG1" s="92"/>
+      <c r="AH1" s="92"/>
+      <c r="AI1" s="92"/>
+      <c r="AJ1" s="92"/>
+      <c r="AK1" s="92"/>
+      <c r="AL1" s="92"/>
+      <c r="AM1" s="92"/>
+      <c r="AN1" s="92"/>
+      <c r="AO1" s="92"/>
+      <c r="AP1" s="92"/>
+      <c r="AQ1" s="92"/>
+      <c r="AR1" s="92"/>
+      <c r="AS1" s="92"/>
+      <c r="AT1" s="93"/>
     </row>
     <row r="2" spans="1:58" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="93"/>
-      <c r="B2" s="93"/>
+      <c r="A2" s="97"/>
+      <c r="B2" s="97"/>
       <c r="C2" s="16">
         <v>18</v>
       </c>
@@ -6746,9 +6743,9 @@
       <c r="B3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="90"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
@@ -9264,7 +9261,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
+      <selection pane="bottomRight" activeCell="AE23" sqref="AE23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9280,298 +9277,361 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:82" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="101" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="96" t="s">
+      <c r="B1" s="101"/>
+      <c r="C1" s="102" t="s">
         <v>187</v>
       </c>
-      <c r="D1" s="103" t="s">
+      <c r="D1" s="99" t="s">
         <v>172</v>
       </c>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="103"/>
-      <c r="P1" s="103"/>
-      <c r="Q1" s="103"/>
-      <c r="R1" s="103"/>
-      <c r="S1" s="103"/>
-      <c r="T1" s="103"/>
-      <c r="U1" s="103"/>
-      <c r="V1" s="103"/>
-      <c r="W1" s="103"/>
-      <c r="X1" s="103"/>
-      <c r="Y1" s="103"/>
-      <c r="Z1" s="103"/>
-      <c r="AA1" s="104" t="s">
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99"/>
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
+      <c r="X1" s="99"/>
+      <c r="Y1" s="99"/>
+      <c r="Z1" s="99"/>
+      <c r="AA1" s="100" t="s">
         <v>173</v>
       </c>
-      <c r="AB1" s="104"/>
-      <c r="AC1" s="104"/>
-      <c r="AD1" s="104"/>
-      <c r="AE1" s="104"/>
-      <c r="AF1" s="104"/>
-      <c r="AG1" s="104"/>
-      <c r="AH1" s="104"/>
-      <c r="AI1" s="104"/>
-      <c r="AJ1" s="104"/>
-      <c r="AK1" s="104"/>
-      <c r="AL1" s="104"/>
-      <c r="AM1" s="104"/>
-      <c r="AN1" s="104"/>
-      <c r="AO1" s="104"/>
-      <c r="AP1" s="104"/>
-      <c r="AQ1" s="104"/>
-      <c r="AR1" s="104"/>
-      <c r="AS1" s="104"/>
-      <c r="AT1" s="104"/>
-      <c r="AU1" s="104"/>
-      <c r="AV1" s="104"/>
-      <c r="AW1" s="104"/>
-      <c r="AX1" s="104"/>
-      <c r="AY1" s="104"/>
-      <c r="AZ1" s="104"/>
-      <c r="BA1" s="104"/>
-      <c r="BB1" s="104"/>
-      <c r="BC1" s="104"/>
-      <c r="BD1" s="104"/>
-      <c r="BE1" s="104" t="s">
+      <c r="AB1" s="100"/>
+      <c r="AC1" s="100"/>
+      <c r="AD1" s="100"/>
+      <c r="AE1" s="100"/>
+      <c r="AF1" s="100"/>
+      <c r="AG1" s="100"/>
+      <c r="AH1" s="100"/>
+      <c r="AI1" s="100"/>
+      <c r="AJ1" s="100"/>
+      <c r="AK1" s="100"/>
+      <c r="AL1" s="100"/>
+      <c r="AM1" s="100"/>
+      <c r="AN1" s="100"/>
+      <c r="AO1" s="100"/>
+      <c r="AP1" s="100"/>
+      <c r="AQ1" s="100"/>
+      <c r="AR1" s="100"/>
+      <c r="AS1" s="100"/>
+      <c r="AT1" s="100"/>
+      <c r="AU1" s="100"/>
+      <c r="AV1" s="100"/>
+      <c r="AW1" s="100"/>
+      <c r="AX1" s="100"/>
+      <c r="AY1" s="100"/>
+      <c r="AZ1" s="100"/>
+      <c r="BA1" s="100"/>
+      <c r="BB1" s="100"/>
+      <c r="BC1" s="100"/>
+      <c r="BD1" s="100"/>
+      <c r="BE1" s="100" t="s">
         <v>188</v>
       </c>
-      <c r="BF1" s="104"/>
-      <c r="BG1" s="104"/>
-      <c r="BH1" s="104"/>
-      <c r="BI1" s="104"/>
-      <c r="BJ1" s="104"/>
-      <c r="BK1" s="104"/>
-      <c r="BL1" s="104"/>
-      <c r="BM1" s="104"/>
-      <c r="BN1" s="104"/>
-      <c r="BO1" s="104"/>
-      <c r="BP1" s="104"/>
-      <c r="BQ1" s="104"/>
-      <c r="BR1" s="104"/>
-    </row>
-    <row r="2" spans="1:82" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="95"/>
-      <c r="B2" s="95"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="98">
-        <v>9</v>
-      </c>
-      <c r="E2" s="99">
-        <v>10</v>
-      </c>
-      <c r="F2" s="98">
-        <v>11</v>
-      </c>
-      <c r="G2" s="99">
-        <v>12</v>
-      </c>
-      <c r="H2" s="98">
-        <v>13</v>
-      </c>
-      <c r="I2" s="99">
-        <v>14</v>
-      </c>
-      <c r="J2" s="98">
-        <v>15</v>
-      </c>
-      <c r="K2" s="99">
-        <v>16</v>
-      </c>
-      <c r="L2" s="98">
-        <v>17</v>
-      </c>
-      <c r="M2" s="99">
-        <v>18</v>
-      </c>
-      <c r="N2" s="98">
-        <v>19</v>
-      </c>
-      <c r="O2" s="99">
-        <v>20</v>
-      </c>
-      <c r="P2" s="98">
-        <v>21</v>
-      </c>
-      <c r="Q2" s="99">
-        <v>22</v>
-      </c>
-      <c r="R2" s="98">
-        <v>23</v>
-      </c>
-      <c r="S2" s="99">
-        <v>24</v>
-      </c>
-      <c r="T2" s="98">
-        <v>25</v>
-      </c>
-      <c r="U2" s="99">
-        <v>26</v>
-      </c>
-      <c r="V2" s="98">
-        <v>27</v>
-      </c>
-      <c r="W2" s="99">
-        <v>28</v>
-      </c>
-      <c r="X2" s="98">
-        <v>29</v>
-      </c>
-      <c r="Y2" s="99">
-        <v>30</v>
-      </c>
-      <c r="Z2" s="98">
-        <v>31</v>
-      </c>
-      <c r="AA2" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB2" s="16">
-        <v>2</v>
-      </c>
-      <c r="AC2" s="16">
-        <v>3</v>
-      </c>
-      <c r="AD2" s="16">
-        <v>4</v>
-      </c>
-      <c r="AE2" s="16">
-        <v>5</v>
-      </c>
-      <c r="AF2" s="16">
-        <v>6</v>
-      </c>
-      <c r="AG2" s="16">
-        <v>7</v>
-      </c>
-      <c r="AH2" s="16">
-        <v>8</v>
-      </c>
-      <c r="AI2" s="16">
-        <v>9</v>
-      </c>
-      <c r="AJ2" s="16">
-        <v>10</v>
-      </c>
-      <c r="AK2" s="16">
-        <v>11</v>
-      </c>
-      <c r="AL2" s="16">
-        <v>12</v>
-      </c>
-      <c r="AM2" s="16">
-        <v>13</v>
-      </c>
-      <c r="AN2" s="16">
-        <v>14</v>
-      </c>
-      <c r="AO2" s="16">
-        <v>15</v>
-      </c>
-      <c r="AP2" s="16">
-        <v>16</v>
-      </c>
-      <c r="AQ2" s="16">
-        <v>17</v>
-      </c>
-      <c r="AR2" s="16">
-        <v>18</v>
-      </c>
-      <c r="AS2" s="16">
-        <v>19</v>
-      </c>
-      <c r="AT2" s="16">
-        <v>20</v>
-      </c>
-      <c r="AU2" s="16">
-        <v>21</v>
-      </c>
-      <c r="AV2" s="16">
-        <v>22</v>
-      </c>
-      <c r="AW2" s="16">
-        <v>23</v>
-      </c>
-      <c r="AX2" s="16">
-        <v>24</v>
-      </c>
-      <c r="AY2" s="16">
-        <v>25</v>
-      </c>
-      <c r="AZ2" s="16">
-        <v>26</v>
-      </c>
-      <c r="BA2" s="16">
-        <v>27</v>
-      </c>
-      <c r="BB2" s="16">
-        <v>28</v>
-      </c>
-      <c r="BC2" s="16">
-        <v>29</v>
-      </c>
-      <c r="BD2" s="16">
-        <v>30</v>
-      </c>
-      <c r="BE2" s="16">
-        <v>1</v>
-      </c>
-      <c r="BF2" s="16">
-        <v>2</v>
-      </c>
-      <c r="BG2" s="16">
-        <v>3</v>
-      </c>
-      <c r="BH2" s="16">
-        <v>4</v>
-      </c>
-      <c r="BI2" s="16">
-        <v>5</v>
-      </c>
-      <c r="BJ2" s="16">
-        <v>6</v>
-      </c>
-      <c r="BK2" s="16">
-        <v>7</v>
-      </c>
-      <c r="BL2" s="16">
-        <v>8</v>
-      </c>
-      <c r="BM2" s="16">
-        <v>9</v>
-      </c>
-      <c r="BN2" s="16">
-        <v>10</v>
-      </c>
-      <c r="BO2" s="16">
-        <v>11</v>
-      </c>
-      <c r="BP2" s="16"/>
-      <c r="BQ2" s="16"/>
-      <c r="BR2" s="16"/>
-      <c r="BS2" s="15"/>
-      <c r="BT2" s="15"/>
-      <c r="BU2" s="15"/>
-      <c r="BV2" s="15"/>
-      <c r="BW2" s="15"/>
-      <c r="BX2" s="15"/>
-      <c r="BY2" s="15"/>
-      <c r="BZ2" s="15"/>
-      <c r="CA2" s="15"/>
-      <c r="CB2" s="15"/>
-      <c r="CC2" s="15"/>
-      <c r="CD2" s="15"/>
+      <c r="BF1" s="100"/>
+      <c r="BG1" s="100"/>
+      <c r="BH1" s="100"/>
+      <c r="BI1" s="100"/>
+      <c r="BJ1" s="100"/>
+      <c r="BK1" s="100"/>
+      <c r="BL1" s="100"/>
+      <c r="BM1" s="100"/>
+      <c r="BN1" s="100"/>
+      <c r="BO1" s="100"/>
+      <c r="BP1" s="100"/>
+      <c r="BQ1" s="100"/>
+      <c r="BR1" s="100"/>
+    </row>
+    <row r="2" spans="1:82" s="107" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="101"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="103">
+        <v>41707</v>
+      </c>
+      <c r="E2" s="104">
+        <f>DATE(YEAR(D2),MONTH(D2),DAY(D2)+1)</f>
+        <v>41708</v>
+      </c>
+      <c r="F2" s="104">
+        <f t="shared" ref="F2:BO2" si="0">DATE(YEAR(E2),MONTH(E2),DAY(E2)+1)</f>
+        <v>41709</v>
+      </c>
+      <c r="G2" s="104">
+        <f t="shared" si="0"/>
+        <v>41710</v>
+      </c>
+      <c r="H2" s="104">
+        <f t="shared" si="0"/>
+        <v>41711</v>
+      </c>
+      <c r="I2" s="104">
+        <f t="shared" si="0"/>
+        <v>41712</v>
+      </c>
+      <c r="J2" s="104">
+        <f t="shared" si="0"/>
+        <v>41713</v>
+      </c>
+      <c r="K2" s="104">
+        <f t="shared" si="0"/>
+        <v>41714</v>
+      </c>
+      <c r="L2" s="104">
+        <f t="shared" si="0"/>
+        <v>41715</v>
+      </c>
+      <c r="M2" s="104">
+        <f t="shared" si="0"/>
+        <v>41716</v>
+      </c>
+      <c r="N2" s="104">
+        <f t="shared" si="0"/>
+        <v>41717</v>
+      </c>
+      <c r="O2" s="104">
+        <f t="shared" si="0"/>
+        <v>41718</v>
+      </c>
+      <c r="P2" s="104">
+        <f t="shared" si="0"/>
+        <v>41719</v>
+      </c>
+      <c r="Q2" s="104">
+        <f t="shared" si="0"/>
+        <v>41720</v>
+      </c>
+      <c r="R2" s="104">
+        <f t="shared" si="0"/>
+        <v>41721</v>
+      </c>
+      <c r="S2" s="104">
+        <f t="shared" si="0"/>
+        <v>41722</v>
+      </c>
+      <c r="T2" s="104">
+        <f t="shared" si="0"/>
+        <v>41723</v>
+      </c>
+      <c r="U2" s="104">
+        <f t="shared" si="0"/>
+        <v>41724</v>
+      </c>
+      <c r="V2" s="104">
+        <f t="shared" si="0"/>
+        <v>41725</v>
+      </c>
+      <c r="W2" s="104">
+        <f t="shared" si="0"/>
+        <v>41726</v>
+      </c>
+      <c r="X2" s="104">
+        <f t="shared" si="0"/>
+        <v>41727</v>
+      </c>
+      <c r="Y2" s="104">
+        <f t="shared" si="0"/>
+        <v>41728</v>
+      </c>
+      <c r="Z2" s="104">
+        <f t="shared" si="0"/>
+        <v>41729</v>
+      </c>
+      <c r="AA2" s="104">
+        <f t="shared" si="0"/>
+        <v>41730</v>
+      </c>
+      <c r="AB2" s="104">
+        <f t="shared" si="0"/>
+        <v>41731</v>
+      </c>
+      <c r="AC2" s="104">
+        <f t="shared" si="0"/>
+        <v>41732</v>
+      </c>
+      <c r="AD2" s="104">
+        <f t="shared" si="0"/>
+        <v>41733</v>
+      </c>
+      <c r="AE2" s="104">
+        <f t="shared" si="0"/>
+        <v>41734</v>
+      </c>
+      <c r="AF2" s="104">
+        <f t="shared" si="0"/>
+        <v>41735</v>
+      </c>
+      <c r="AG2" s="104">
+        <f t="shared" si="0"/>
+        <v>41736</v>
+      </c>
+      <c r="AH2" s="104">
+        <f t="shared" si="0"/>
+        <v>41737</v>
+      </c>
+      <c r="AI2" s="104">
+        <f t="shared" si="0"/>
+        <v>41738</v>
+      </c>
+      <c r="AJ2" s="104">
+        <f t="shared" si="0"/>
+        <v>41739</v>
+      </c>
+      <c r="AK2" s="104">
+        <f t="shared" si="0"/>
+        <v>41740</v>
+      </c>
+      <c r="AL2" s="104">
+        <f t="shared" si="0"/>
+        <v>41741</v>
+      </c>
+      <c r="AM2" s="104">
+        <f t="shared" si="0"/>
+        <v>41742</v>
+      </c>
+      <c r="AN2" s="104">
+        <f t="shared" si="0"/>
+        <v>41743</v>
+      </c>
+      <c r="AO2" s="104">
+        <f t="shared" si="0"/>
+        <v>41744</v>
+      </c>
+      <c r="AP2" s="104">
+        <f t="shared" si="0"/>
+        <v>41745</v>
+      </c>
+      <c r="AQ2" s="104">
+        <f t="shared" si="0"/>
+        <v>41746</v>
+      </c>
+      <c r="AR2" s="104">
+        <f t="shared" si="0"/>
+        <v>41747</v>
+      </c>
+      <c r="AS2" s="104">
+        <f t="shared" si="0"/>
+        <v>41748</v>
+      </c>
+      <c r="AT2" s="104">
+        <f t="shared" si="0"/>
+        <v>41749</v>
+      </c>
+      <c r="AU2" s="104">
+        <f t="shared" si="0"/>
+        <v>41750</v>
+      </c>
+      <c r="AV2" s="104">
+        <f t="shared" si="0"/>
+        <v>41751</v>
+      </c>
+      <c r="AW2" s="104">
+        <f t="shared" si="0"/>
+        <v>41752</v>
+      </c>
+      <c r="AX2" s="104">
+        <f t="shared" si="0"/>
+        <v>41753</v>
+      </c>
+      <c r="AY2" s="104">
+        <f t="shared" si="0"/>
+        <v>41754</v>
+      </c>
+      <c r="AZ2" s="104">
+        <f t="shared" si="0"/>
+        <v>41755</v>
+      </c>
+      <c r="BA2" s="104">
+        <f t="shared" si="0"/>
+        <v>41756</v>
+      </c>
+      <c r="BB2" s="104">
+        <f t="shared" si="0"/>
+        <v>41757</v>
+      </c>
+      <c r="BC2" s="104">
+        <f t="shared" si="0"/>
+        <v>41758</v>
+      </c>
+      <c r="BD2" s="104">
+        <f t="shared" si="0"/>
+        <v>41759</v>
+      </c>
+      <c r="BE2" s="104">
+        <f t="shared" si="0"/>
+        <v>41760</v>
+      </c>
+      <c r="BF2" s="104">
+        <f t="shared" si="0"/>
+        <v>41761</v>
+      </c>
+      <c r="BG2" s="104">
+        <f t="shared" si="0"/>
+        <v>41762</v>
+      </c>
+      <c r="BH2" s="104">
+        <f t="shared" si="0"/>
+        <v>41763</v>
+      </c>
+      <c r="BI2" s="104">
+        <f t="shared" si="0"/>
+        <v>41764</v>
+      </c>
+      <c r="BJ2" s="104">
+        <f t="shared" si="0"/>
+        <v>41765</v>
+      </c>
+      <c r="BK2" s="104">
+        <f t="shared" si="0"/>
+        <v>41766</v>
+      </c>
+      <c r="BL2" s="104">
+        <f t="shared" si="0"/>
+        <v>41767</v>
+      </c>
+      <c r="BM2" s="104">
+        <f t="shared" si="0"/>
+        <v>41768</v>
+      </c>
+      <c r="BN2" s="104">
+        <f t="shared" si="0"/>
+        <v>41769</v>
+      </c>
+      <c r="BO2" s="104">
+        <f t="shared" si="0"/>
+        <v>41770</v>
+      </c>
+      <c r="BP2" s="105"/>
+      <c r="BQ2" s="105"/>
+      <c r="BR2" s="105"/>
+      <c r="BS2" s="106"/>
+      <c r="BT2" s="106"/>
+      <c r="BU2" s="106"/>
+      <c r="BV2" s="106"/>
+      <c r="BW2" s="106"/>
+      <c r="BX2" s="106"/>
+      <c r="BY2" s="106"/>
+      <c r="BZ2" s="106"/>
+      <c r="CA2" s="106"/>
+      <c r="CB2" s="106"/>
+      <c r="CC2" s="106"/>
+      <c r="CD2" s="106"/>
     </row>
     <row r="3" spans="1:82" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A3" s="7">
@@ -9583,9 +9643,9 @@
       <c r="C3" s="45">
         <v>8</v>
       </c>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="101"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="49"/>
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
       <c r="I3" s="19"/>
@@ -9667,14 +9727,14 @@
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="11"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="102"/>
-      <c r="K4" s="102"/>
-      <c r="L4" s="102"/>
-      <c r="M4" s="102"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
       <c r="N4" s="19"/>
       <c r="O4" s="19"/>
       <c r="P4" s="19"/>
@@ -9750,27 +9810,27 @@
       <c r="D5" s="20"/>
       <c r="E5" s="21"/>
       <c r="F5" s="18"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="100"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="102"/>
-      <c r="O5" s="102"/>
-      <c r="P5" s="102"/>
-      <c r="Q5" s="102"/>
-      <c r="R5" s="102"/>
-      <c r="S5" s="102"/>
-      <c r="T5" s="102"/>
-      <c r="U5" s="102"/>
-      <c r="V5" s="102"/>
-      <c r="W5" s="102"/>
-      <c r="X5" s="102"/>
-      <c r="Y5" s="102"/>
-      <c r="Z5" s="102"/>
-      <c r="AA5" s="102"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="50"/>
+      <c r="R5" s="50"/>
+      <c r="S5" s="50"/>
+      <c r="T5" s="50"/>
+      <c r="U5" s="50"/>
+      <c r="V5" s="50"/>
+      <c r="W5" s="50"/>
+      <c r="X5" s="50"/>
+      <c r="Y5" s="50"/>
+      <c r="Z5" s="50"/>
+      <c r="AA5" s="50"/>
       <c r="AB5" s="19"/>
       <c r="AC5" s="19"/>
       <c r="AD5" s="19"/>
@@ -9839,20 +9899,20 @@
       <c r="K6" s="18"/>
       <c r="L6" s="18"/>
       <c r="M6" s="18"/>
-      <c r="N6" s="100"/>
-      <c r="O6" s="100"/>
-      <c r="P6" s="100"/>
-      <c r="Q6" s="100"/>
-      <c r="R6" s="100"/>
-      <c r="S6" s="100"/>
-      <c r="T6" s="100"/>
-      <c r="U6" s="100"/>
-      <c r="V6" s="100"/>
-      <c r="W6" s="100"/>
-      <c r="X6" s="100"/>
-      <c r="Y6" s="100"/>
-      <c r="Z6" s="100"/>
-      <c r="AA6" s="100"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="48"/>
+      <c r="R6" s="48"/>
+      <c r="S6" s="48"/>
+      <c r="T6" s="48"/>
+      <c r="U6" s="48"/>
+      <c r="V6" s="48"/>
+      <c r="W6" s="48"/>
+      <c r="X6" s="48"/>
+      <c r="Y6" s="48"/>
+      <c r="Z6" s="48"/>
+      <c r="AA6" s="48"/>
       <c r="AB6" s="19"/>
       <c r="AC6" s="19"/>
       <c r="AD6" s="19"/>
@@ -9911,7 +9971,7 @@
       <c r="C7" s="45">
         <v>4</v>
       </c>
-      <c r="D7" s="100"/>
+      <c r="D7" s="48"/>
       <c r="E7" s="21"/>
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
@@ -9998,7 +10058,7 @@
       <c r="K8" s="19"/>
       <c r="L8" s="19"/>
       <c r="M8" s="19"/>
-      <c r="N8" s="100"/>
+      <c r="N8" s="48"/>
       <c r="O8" s="19"/>
       <c r="P8" s="19"/>
       <c r="Q8" s="19"/>
@@ -10076,7 +10136,7 @@
       <c r="K9" s="19"/>
       <c r="L9" s="19"/>
       <c r="M9" s="19"/>
-      <c r="N9" s="100"/>
+      <c r="N9" s="48"/>
       <c r="O9" s="19"/>
       <c r="P9" s="19"/>
       <c r="Q9" s="19"/>
@@ -10153,9 +10213,9 @@
       <c r="K10" s="19"/>
       <c r="L10" s="19"/>
       <c r="M10" s="19"/>
-      <c r="N10" s="100"/>
-      <c r="O10" s="100"/>
-      <c r="P10" s="100"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="48"/>
       <c r="Q10" s="19"/>
       <c r="R10" s="19"/>
       <c r="S10" s="19"/>
@@ -10234,9 +10294,9 @@
       <c r="N11" s="19"/>
       <c r="O11" s="19"/>
       <c r="P11" s="19"/>
-      <c r="Q11" s="100"/>
-      <c r="R11" s="100"/>
-      <c r="S11" s="100"/>
+      <c r="Q11" s="48"/>
+      <c r="R11" s="48"/>
+      <c r="S11" s="48"/>
       <c r="T11" s="19"/>
       <c r="U11" s="19"/>
       <c r="V11" s="19"/>
@@ -10315,7 +10375,7 @@
       <c r="Q12" s="19"/>
       <c r="R12" s="19"/>
       <c r="S12" s="19"/>
-      <c r="T12" s="100"/>
+      <c r="T12" s="48"/>
       <c r="U12" s="19"/>
       <c r="V12" s="19"/>
       <c r="W12" s="19"/>
@@ -10393,7 +10453,7 @@
       <c r="Q13" s="19"/>
       <c r="R13" s="19"/>
       <c r="S13" s="19"/>
-      <c r="T13" s="100"/>
+      <c r="T13" s="48"/>
       <c r="U13" s="19"/>
       <c r="V13" s="19"/>
       <c r="W13" s="19"/>
@@ -10472,9 +10532,9 @@
       <c r="R14" s="19"/>
       <c r="S14" s="19"/>
       <c r="T14" s="19"/>
-      <c r="U14" s="100"/>
-      <c r="V14" s="100"/>
-      <c r="W14" s="100"/>
+      <c r="U14" s="48"/>
+      <c r="V14" s="48"/>
+      <c r="W14" s="48"/>
       <c r="X14" s="19"/>
       <c r="Y14" s="19"/>
       <c r="Z14" s="19"/>
@@ -10553,9 +10613,9 @@
       <c r="U15" s="19"/>
       <c r="V15" s="19"/>
       <c r="W15" s="19"/>
-      <c r="X15" s="100"/>
-      <c r="Y15" s="100"/>
-      <c r="Z15" s="100"/>
+      <c r="X15" s="48"/>
+      <c r="Y15" s="48"/>
+      <c r="Z15" s="48"/>
       <c r="AA15" s="19"/>
       <c r="AB15" s="19"/>
       <c r="AC15" s="19"/>
@@ -10635,9 +10695,9 @@
       <c r="Y16" s="19"/>
       <c r="Z16" s="19"/>
       <c r="AA16" s="19"/>
-      <c r="AB16" s="100"/>
-      <c r="AC16" s="100"/>
-      <c r="AD16" s="100"/>
+      <c r="AB16" s="48"/>
+      <c r="AC16" s="48"/>
+      <c r="AD16" s="48"/>
       <c r="AE16" s="19"/>
       <c r="AF16" s="19"/>
       <c r="AG16" s="19"/>
@@ -10713,9 +10773,9 @@
       <c r="Y17" s="19"/>
       <c r="Z17" s="19"/>
       <c r="AA17" s="19"/>
-      <c r="AB17" s="100"/>
-      <c r="AC17" s="100"/>
-      <c r="AD17" s="100"/>
+      <c r="AB17" s="48"/>
+      <c r="AC17" s="48"/>
+      <c r="AD17" s="48"/>
       <c r="AE17" s="19"/>
       <c r="AF17" s="19"/>
       <c r="AG17" s="19"/>
@@ -10794,21 +10854,21 @@
       <c r="AB18" s="19"/>
       <c r="AC18" s="19"/>
       <c r="AD18" s="19"/>
-      <c r="AE18" s="100"/>
-      <c r="AF18" s="100"/>
-      <c r="AG18" s="100"/>
-      <c r="AH18" s="100"/>
-      <c r="AI18" s="100"/>
-      <c r="AJ18" s="100"/>
-      <c r="AK18" s="100"/>
-      <c r="AL18" s="100"/>
-      <c r="AM18" s="100"/>
-      <c r="AN18" s="100"/>
-      <c r="AO18" s="100"/>
-      <c r="AP18" s="100"/>
-      <c r="AQ18" s="100"/>
-      <c r="AR18" s="100"/>
-      <c r="AS18" s="97"/>
+      <c r="AE18" s="48"/>
+      <c r="AF18" s="48"/>
+      <c r="AG18" s="48"/>
+      <c r="AH18" s="48"/>
+      <c r="AI18" s="48"/>
+      <c r="AJ18" s="48"/>
+      <c r="AK18" s="48"/>
+      <c r="AL18" s="48"/>
+      <c r="AM18" s="48"/>
+      <c r="AN18" s="48"/>
+      <c r="AO18" s="48"/>
+      <c r="AP18" s="48"/>
+      <c r="AQ18" s="48"/>
+      <c r="AR18" s="48"/>
+      <c r="AS18" s="47"/>
       <c r="AT18" s="19"/>
       <c r="AU18" s="19"/>
       <c r="AV18" s="19"/>
@@ -10886,8 +10946,8 @@
       <c r="AP19" s="19"/>
       <c r="AQ19" s="19"/>
       <c r="AR19" s="19"/>
-      <c r="AS19" s="100"/>
-      <c r="AT19" s="100"/>
+      <c r="AS19" s="48"/>
+      <c r="AT19" s="48"/>
       <c r="AU19" s="19"/>
       <c r="AV19" s="19"/>
       <c r="AW19" s="19"/>
@@ -10964,8 +11024,8 @@
       <c r="AP20" s="19"/>
       <c r="AQ20" s="19"/>
       <c r="AR20" s="19"/>
-      <c r="AS20" s="100"/>
-      <c r="AT20" s="100"/>
+      <c r="AS20" s="48"/>
+      <c r="AT20" s="48"/>
       <c r="AU20" s="19"/>
       <c r="AV20" s="19"/>
       <c r="AW20" s="19"/>
@@ -11043,16 +11103,16 @@
       <c r="AR21" s="19"/>
       <c r="AS21" s="19"/>
       <c r="AT21" s="19"/>
-      <c r="AU21" s="100"/>
-      <c r="AV21" s="100"/>
-      <c r="AW21" s="100"/>
-      <c r="AX21" s="100"/>
-      <c r="AY21" s="100"/>
-      <c r="AZ21" s="100"/>
-      <c r="BA21" s="100"/>
-      <c r="BB21" s="100"/>
-      <c r="BC21" s="100"/>
-      <c r="BD21" s="100"/>
+      <c r="AU21" s="48"/>
+      <c r="AV21" s="48"/>
+      <c r="AW21" s="48"/>
+      <c r="AX21" s="48"/>
+      <c r="AY21" s="48"/>
+      <c r="AZ21" s="48"/>
+      <c r="BA21" s="48"/>
+      <c r="BB21" s="48"/>
+      <c r="BC21" s="48"/>
+      <c r="BD21" s="48"/>
       <c r="BE21" s="19"/>
       <c r="BF21" s="19"/>
       <c r="BG21" s="19"/>
@@ -11127,8 +11187,8 @@
       <c r="AX22" s="19"/>
       <c r="AY22" s="19"/>
       <c r="AZ22" s="19"/>
-      <c r="BA22" s="100"/>
-      <c r="BB22" s="100"/>
+      <c r="BA22" s="48"/>
+      <c r="BB22" s="48"/>
       <c r="BC22" s="19"/>
       <c r="BD22" s="19"/>
       <c r="BE22" s="19"/>
@@ -11205,8 +11265,8 @@
       <c r="AX23" s="18"/>
       <c r="AY23" s="18"/>
       <c r="AZ23" s="18"/>
-      <c r="BA23" s="100"/>
-      <c r="BB23" s="100"/>
+      <c r="BA23" s="48"/>
+      <c r="BB23" s="48"/>
       <c r="BC23" s="18"/>
       <c r="BD23" s="18"/>
       <c r="BE23" s="18"/>
@@ -11285,11 +11345,11 @@
       <c r="AZ24" s="19"/>
       <c r="BA24" s="19"/>
       <c r="BB24" s="19"/>
-      <c r="BC24" s="100"/>
-      <c r="BD24" s="100"/>
-      <c r="BE24" s="100"/>
-      <c r="BF24" s="100"/>
-      <c r="BG24" s="100"/>
+      <c r="BC24" s="48"/>
+      <c r="BD24" s="48"/>
+      <c r="BE24" s="48"/>
+      <c r="BF24" s="48"/>
+      <c r="BG24" s="48"/>
       <c r="BJ24" s="19"/>
       <c r="BK24" s="19"/>
       <c r="BL24" s="19"/>
@@ -11366,14 +11426,14 @@
       <c r="BE25" s="19"/>
       <c r="BF25" s="19"/>
       <c r="BG25" s="19"/>
-      <c r="BH25" s="100"/>
-      <c r="BI25" s="100"/>
-      <c r="BJ25" s="100"/>
-      <c r="BK25" s="100"/>
-      <c r="BN25" s="102"/>
-      <c r="BO25" s="102"/>
-      <c r="BP25" s="102"/>
-      <c r="BQ25" s="102"/>
+      <c r="BH25" s="48"/>
+      <c r="BI25" s="48"/>
+      <c r="BJ25" s="48"/>
+      <c r="BK25" s="48"/>
+      <c r="BN25" s="50"/>
+      <c r="BO25" s="50"/>
+      <c r="BP25" s="50"/>
+      <c r="BQ25" s="50"/>
       <c r="BR25" s="19"/>
     </row>
     <row r="26" spans="1:70" ht="15.75" x14ac:dyDescent="0.15">
@@ -11446,8 +11506,8 @@
       <c r="BI26" s="19"/>
       <c r="BJ26" s="19"/>
       <c r="BK26" s="19"/>
-      <c r="BL26" s="100"/>
-      <c r="BM26" s="100"/>
+      <c r="BL26" s="48"/>
+      <c r="BM26" s="48"/>
       <c r="BN26" s="19"/>
       <c r="BO26" s="19"/>
       <c r="BP26" s="19"/>
@@ -12143,306 +12203,306 @@
   <sheetData>
     <row r="1" spans="2:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="49"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="53"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B4" s="50"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="52"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="56"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B5" s="50"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="52"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="56"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B6" s="50"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="52"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="56"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B7" s="50"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="52"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="56"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B8" s="50"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="52"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="56"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B9" s="53"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="55"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="59"/>
     </row>
     <row r="10" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="60"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="49"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="53"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B12" s="50"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="52"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="56"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B13" s="50"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="52"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="56"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B14" s="50"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="52"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="56"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B15" s="50"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="52"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="56"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B16" s="50"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="52"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="56"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B17" s="50"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="52"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="56"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B18" s="50"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="52"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="56"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B19" s="50"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="52"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="56"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B20" s="50"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="52"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="56"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B21" s="50"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="52"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="56"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B22" s="53"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="54"/>
-      <c r="M22" s="55"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/01_doc/proj_plan/餐厅订餐系统_项目计划.xlsx
+++ b/01_doc/proj_plan/餐厅订餐系统_项目计划.xlsx
@@ -1756,7 +1756,7 @@
       <charset val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1808,6 +1808,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1993,7 +1999,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2073,6 +2079,19 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2178,6 +2197,9 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2185,9 +2207,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2229,19 +2248,7 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3791,232 +3798,232 @@
   <sheetData>
     <row r="1" spans="2:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="53"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="58"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B4" s="54"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="56"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="61"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="56"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="61"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B6" s="54"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="56"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="61"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B7" s="54"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="56"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="61"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B8" s="54"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="56"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="61"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B9" s="57"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="59"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="64"/>
     </row>
     <row r="10" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="60"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="65"/>
+      <c r="M10" s="65"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B11" s="51"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="53"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="58"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B12" s="54"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="56"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="61"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B13" s="54"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="56"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="61"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B14" s="54"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="56"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="61"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B15" s="54"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="55"/>
-      <c r="M15" s="56"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="60"/>
+      <c r="M15" s="61"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B16" s="54"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="56"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="61"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B17" s="57"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="59"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4274,700 +4281,700 @@
   <sheetData>
     <row r="1" spans="2:13" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="62"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="67"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="63"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="65"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="70"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="63"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="65"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="70"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="63"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="65"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="70"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="60"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="65"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="62"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="67"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="63"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="64"/>
-      <c r="M9" s="65"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="70"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="63"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="65"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="70"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="63"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="64"/>
-      <c r="M11" s="65"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="70"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="66"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="68"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="73"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="60" t="s">
+      <c r="B13" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60"/>
-      <c r="L13" s="60"/>
-      <c r="M13" s="60"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="65"/>
+      <c r="L13" s="65"/>
+      <c r="M13" s="65"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="74" t="s">
         <v>171</v>
       </c>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
-      <c r="K14" s="70"/>
-      <c r="L14" s="70"/>
-      <c r="M14" s="71"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="75"/>
+      <c r="K14" s="75"/>
+      <c r="L14" s="75"/>
+      <c r="M14" s="76"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="72"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="73"/>
-      <c r="I15" s="73"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="73"/>
-      <c r="L15" s="73"/>
-      <c r="M15" s="74"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="78"/>
+      <c r="K15" s="78"/>
+      <c r="L15" s="78"/>
+      <c r="M15" s="79"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="72"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="73"/>
-      <c r="J16" s="73"/>
-      <c r="K16" s="73"/>
-      <c r="L16" s="73"/>
-      <c r="M16" s="74"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="78"/>
+      <c r="K16" s="78"/>
+      <c r="L16" s="78"/>
+      <c r="M16" s="79"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="72"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="73"/>
-      <c r="L17" s="73"/>
-      <c r="M17" s="74"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="78"/>
+      <c r="K17" s="78"/>
+      <c r="L17" s="78"/>
+      <c r="M17" s="79"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="72"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="73"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="73"/>
-      <c r="L18" s="73"/>
-      <c r="M18" s="74"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="78"/>
+      <c r="L18" s="78"/>
+      <c r="M18" s="79"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="72"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="73"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="73"/>
-      <c r="L19" s="73"/>
-      <c r="M19" s="74"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="78"/>
+      <c r="J19" s="78"/>
+      <c r="K19" s="78"/>
+      <c r="L19" s="78"/>
+      <c r="M19" s="79"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="72"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="73"/>
-      <c r="K20" s="73"/>
-      <c r="L20" s="73"/>
-      <c r="M20" s="74"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="78"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="78"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="79"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="72"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="73"/>
-      <c r="I21" s="73"/>
-      <c r="J21" s="73"/>
-      <c r="K21" s="73"/>
-      <c r="L21" s="73"/>
-      <c r="M21" s="74"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="78"/>
+      <c r="I21" s="78"/>
+      <c r="J21" s="78"/>
+      <c r="K21" s="78"/>
+      <c r="L21" s="78"/>
+      <c r="M21" s="79"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="72"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="73"/>
-      <c r="J22" s="73"/>
-      <c r="K22" s="73"/>
-      <c r="L22" s="73"/>
-      <c r="M22" s="74"/>
+      <c r="B22" s="77"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="78"/>
+      <c r="I22" s="78"/>
+      <c r="J22" s="78"/>
+      <c r="K22" s="78"/>
+      <c r="L22" s="78"/>
+      <c r="M22" s="79"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="72"/>
-      <c r="C23" s="73"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="73"/>
-      <c r="I23" s="73"/>
-      <c r="J23" s="73"/>
-      <c r="K23" s="73"/>
-      <c r="L23" s="73"/>
-      <c r="M23" s="74"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="78"/>
+      <c r="I23" s="78"/>
+      <c r="J23" s="78"/>
+      <c r="K23" s="78"/>
+      <c r="L23" s="78"/>
+      <c r="M23" s="79"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B24" s="72"/>
-      <c r="C24" s="73"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="73"/>
-      <c r="L24" s="73"/>
-      <c r="M24" s="74"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="78"/>
+      <c r="J24" s="78"/>
+      <c r="K24" s="78"/>
+      <c r="L24" s="78"/>
+      <c r="M24" s="79"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="74"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="78"/>
+      <c r="I25" s="78"/>
+      <c r="J25" s="78"/>
+      <c r="K25" s="78"/>
+      <c r="L25" s="78"/>
+      <c r="M25" s="79"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="72"/>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="73"/>
-      <c r="L26" s="73"/>
-      <c r="M26" s="74"/>
+      <c r="B26" s="77"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="78"/>
+      <c r="J26" s="78"/>
+      <c r="K26" s="78"/>
+      <c r="L26" s="78"/>
+      <c r="M26" s="79"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="75"/>
-      <c r="C27" s="76"/>
-      <c r="D27" s="76"/>
-      <c r="E27" s="76"/>
-      <c r="F27" s="76"/>
-      <c r="G27" s="76"/>
-      <c r="H27" s="76"/>
-      <c r="I27" s="76"/>
-      <c r="J27" s="76"/>
-      <c r="K27" s="76"/>
-      <c r="L27" s="76"/>
-      <c r="M27" s="77"/>
+      <c r="B27" s="80"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="81"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="81"/>
+      <c r="J27" s="81"/>
+      <c r="K27" s="81"/>
+      <c r="L27" s="81"/>
+      <c r="M27" s="82"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="60" t="s">
+      <c r="B28" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="60"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="60"/>
-      <c r="K28" s="60"/>
-      <c r="L28" s="60"/>
-      <c r="M28" s="60"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="65"/>
+      <c r="K28" s="65"/>
+      <c r="L28" s="65"/>
+      <c r="M28" s="65"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="51" t="s">
+      <c r="B29" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="52"/>
-      <c r="M29" s="53"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="57"/>
+      <c r="L29" s="57"/>
+      <c r="M29" s="58"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="54"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="55"/>
-      <c r="K30" s="55"/>
-      <c r="L30" s="55"/>
-      <c r="M30" s="56"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="60"/>
+      <c r="J30" s="60"/>
+      <c r="K30" s="60"/>
+      <c r="L30" s="60"/>
+      <c r="M30" s="61"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="54"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="55"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="55"/>
-      <c r="M31" s="56"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="60"/>
+      <c r="J31" s="60"/>
+      <c r="K31" s="60"/>
+      <c r="L31" s="60"/>
+      <c r="M31" s="61"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="54"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="55"/>
-      <c r="K32" s="55"/>
-      <c r="L32" s="55"/>
-      <c r="M32" s="56"/>
+      <c r="B32" s="59"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="60"/>
+      <c r="K32" s="60"/>
+      <c r="L32" s="60"/>
+      <c r="M32" s="61"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" s="54"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="55"/>
-      <c r="K33" s="55"/>
-      <c r="L33" s="55"/>
-      <c r="M33" s="56"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="60"/>
+      <c r="J33" s="60"/>
+      <c r="K33" s="60"/>
+      <c r="L33" s="60"/>
+      <c r="M33" s="61"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B34" s="54"/>
-      <c r="C34" s="55"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="55"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="55"/>
-      <c r="I34" s="55"/>
-      <c r="J34" s="55"/>
-      <c r="K34" s="55"/>
-      <c r="L34" s="55"/>
-      <c r="M34" s="56"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="60"/>
+      <c r="K34" s="60"/>
+      <c r="L34" s="60"/>
+      <c r="M34" s="61"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="57"/>
-      <c r="C35" s="58"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="58"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="58"/>
-      <c r="I35" s="58"/>
-      <c r="J35" s="58"/>
-      <c r="K35" s="58"/>
-      <c r="L35" s="58"/>
-      <c r="M35" s="59"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="63"/>
+      <c r="J35" s="63"/>
+      <c r="K35" s="63"/>
+      <c r="L35" s="63"/>
+      <c r="M35" s="64"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B36" s="60" t="s">
+      <c r="B36" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="60"/>
-      <c r="D36" s="60"/>
-      <c r="E36" s="60"/>
-      <c r="F36" s="60"/>
-      <c r="G36" s="60"/>
-      <c r="H36" s="60"/>
-      <c r="I36" s="60"/>
-      <c r="J36" s="60"/>
-      <c r="K36" s="60"/>
-      <c r="L36" s="60"/>
-      <c r="M36" s="60"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="65"/>
+      <c r="H36" s="65"/>
+      <c r="I36" s="65"/>
+      <c r="J36" s="65"/>
+      <c r="K36" s="65"/>
+      <c r="L36" s="65"/>
+      <c r="M36" s="65"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B37" s="69" t="s">
+      <c r="B37" s="74" t="s">
         <v>118</v>
       </c>
-      <c r="C37" s="78"/>
-      <c r="D37" s="78"/>
-      <c r="E37" s="78"/>
-      <c r="F37" s="78"/>
-      <c r="G37" s="78"/>
-      <c r="H37" s="78"/>
-      <c r="I37" s="78"/>
-      <c r="J37" s="78"/>
-      <c r="K37" s="78"/>
-      <c r="L37" s="78"/>
-      <c r="M37" s="79"/>
+      <c r="C37" s="83"/>
+      <c r="D37" s="83"/>
+      <c r="E37" s="83"/>
+      <c r="F37" s="83"/>
+      <c r="G37" s="83"/>
+      <c r="H37" s="83"/>
+      <c r="I37" s="83"/>
+      <c r="J37" s="83"/>
+      <c r="K37" s="83"/>
+      <c r="L37" s="83"/>
+      <c r="M37" s="84"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B38" s="80"/>
-      <c r="C38" s="81"/>
-      <c r="D38" s="81"/>
-      <c r="E38" s="81"/>
-      <c r="F38" s="81"/>
-      <c r="G38" s="81"/>
-      <c r="H38" s="81"/>
-      <c r="I38" s="81"/>
-      <c r="J38" s="81"/>
-      <c r="K38" s="81"/>
-      <c r="L38" s="81"/>
-      <c r="M38" s="82"/>
+      <c r="B38" s="85"/>
+      <c r="C38" s="86"/>
+      <c r="D38" s="86"/>
+      <c r="E38" s="86"/>
+      <c r="F38" s="86"/>
+      <c r="G38" s="86"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="86"/>
+      <c r="J38" s="86"/>
+      <c r="K38" s="86"/>
+      <c r="L38" s="86"/>
+      <c r="M38" s="87"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B39" s="80"/>
-      <c r="C39" s="81"/>
-      <c r="D39" s="81"/>
-      <c r="E39" s="81"/>
-      <c r="F39" s="81"/>
-      <c r="G39" s="81"/>
-      <c r="H39" s="81"/>
-      <c r="I39" s="81"/>
-      <c r="J39" s="81"/>
-      <c r="K39" s="81"/>
-      <c r="L39" s="81"/>
-      <c r="M39" s="82"/>
+      <c r="B39" s="85"/>
+      <c r="C39" s="86"/>
+      <c r="D39" s="86"/>
+      <c r="E39" s="86"/>
+      <c r="F39" s="86"/>
+      <c r="G39" s="86"/>
+      <c r="H39" s="86"/>
+      <c r="I39" s="86"/>
+      <c r="J39" s="86"/>
+      <c r="K39" s="86"/>
+      <c r="L39" s="86"/>
+      <c r="M39" s="87"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B40" s="80"/>
-      <c r="C40" s="81"/>
-      <c r="D40" s="81"/>
-      <c r="E40" s="81"/>
-      <c r="F40" s="81"/>
-      <c r="G40" s="81"/>
-      <c r="H40" s="81"/>
-      <c r="I40" s="81"/>
-      <c r="J40" s="81"/>
-      <c r="K40" s="81"/>
-      <c r="L40" s="81"/>
-      <c r="M40" s="82"/>
+      <c r="B40" s="85"/>
+      <c r="C40" s="86"/>
+      <c r="D40" s="86"/>
+      <c r="E40" s="86"/>
+      <c r="F40" s="86"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="86"/>
+      <c r="I40" s="86"/>
+      <c r="J40" s="86"/>
+      <c r="K40" s="86"/>
+      <c r="L40" s="86"/>
+      <c r="M40" s="87"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="83"/>
-      <c r="C41" s="84"/>
-      <c r="D41" s="84"/>
-      <c r="E41" s="84"/>
-      <c r="F41" s="84"/>
-      <c r="G41" s="84"/>
-      <c r="H41" s="84"/>
-      <c r="I41" s="84"/>
-      <c r="J41" s="84"/>
-      <c r="K41" s="84"/>
-      <c r="L41" s="84"/>
-      <c r="M41" s="85"/>
+      <c r="B41" s="88"/>
+      <c r="C41" s="89"/>
+      <c r="D41" s="89"/>
+      <c r="E41" s="89"/>
+      <c r="F41" s="89"/>
+      <c r="G41" s="89"/>
+      <c r="H41" s="89"/>
+      <c r="I41" s="89"/>
+      <c r="J41" s="89"/>
+      <c r="K41" s="89"/>
+      <c r="L41" s="89"/>
+      <c r="M41" s="90"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B42" s="60" t="s">
+      <c r="B42" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="60"/>
-      <c r="D42" s="60"/>
-      <c r="E42" s="60"/>
-      <c r="F42" s="60"/>
-      <c r="G42" s="60"/>
-      <c r="H42" s="60"/>
-      <c r="I42" s="60"/>
-      <c r="J42" s="60"/>
-      <c r="K42" s="60"/>
-      <c r="L42" s="60"/>
-      <c r="M42" s="60"/>
+      <c r="C42" s="65"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="65"/>
+      <c r="F42" s="65"/>
+      <c r="G42" s="65"/>
+      <c r="H42" s="65"/>
+      <c r="I42" s="65"/>
+      <c r="J42" s="65"/>
+      <c r="K42" s="65"/>
+      <c r="L42" s="65"/>
+      <c r="M42" s="65"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B43" s="51" t="s">
+      <c r="B43" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="C43" s="52"/>
-      <c r="D43" s="52"/>
-      <c r="E43" s="52"/>
-      <c r="F43" s="52"/>
-      <c r="G43" s="52"/>
-      <c r="H43" s="52"/>
-      <c r="I43" s="52"/>
-      <c r="J43" s="52"/>
-      <c r="K43" s="52"/>
-      <c r="L43" s="52"/>
-      <c r="M43" s="53"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="57"/>
+      <c r="H43" s="57"/>
+      <c r="I43" s="57"/>
+      <c r="J43" s="57"/>
+      <c r="K43" s="57"/>
+      <c r="L43" s="57"/>
+      <c r="M43" s="58"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B44" s="54"/>
-      <c r="C44" s="55"/>
-      <c r="D44" s="55"/>
-      <c r="E44" s="55"/>
-      <c r="F44" s="55"/>
-      <c r="G44" s="55"/>
-      <c r="H44" s="55"/>
-      <c r="I44" s="55"/>
-      <c r="J44" s="55"/>
-      <c r="K44" s="55"/>
-      <c r="L44" s="55"/>
-      <c r="M44" s="56"/>
+      <c r="B44" s="59"/>
+      <c r="C44" s="60"/>
+      <c r="D44" s="60"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="60"/>
+      <c r="G44" s="60"/>
+      <c r="H44" s="60"/>
+      <c r="I44" s="60"/>
+      <c r="J44" s="60"/>
+      <c r="K44" s="60"/>
+      <c r="L44" s="60"/>
+      <c r="M44" s="61"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B45" s="54"/>
-      <c r="C45" s="55"/>
-      <c r="D45" s="55"/>
-      <c r="E45" s="55"/>
-      <c r="F45" s="55"/>
-      <c r="G45" s="55"/>
-      <c r="H45" s="55"/>
-      <c r="I45" s="55"/>
-      <c r="J45" s="55"/>
-      <c r="K45" s="55"/>
-      <c r="L45" s="55"/>
-      <c r="M45" s="56"/>
+      <c r="B45" s="59"/>
+      <c r="C45" s="60"/>
+      <c r="D45" s="60"/>
+      <c r="E45" s="60"/>
+      <c r="F45" s="60"/>
+      <c r="G45" s="60"/>
+      <c r="H45" s="60"/>
+      <c r="I45" s="60"/>
+      <c r="J45" s="60"/>
+      <c r="K45" s="60"/>
+      <c r="L45" s="60"/>
+      <c r="M45" s="61"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="54"/>
-      <c r="C46" s="55"/>
-      <c r="D46" s="55"/>
-      <c r="E46" s="55"/>
-      <c r="F46" s="55"/>
-      <c r="G46" s="55"/>
-      <c r="H46" s="55"/>
-      <c r="I46" s="55"/>
-      <c r="J46" s="55"/>
-      <c r="K46" s="55"/>
-      <c r="L46" s="55"/>
-      <c r="M46" s="56"/>
+      <c r="B46" s="59"/>
+      <c r="C46" s="60"/>
+      <c r="D46" s="60"/>
+      <c r="E46" s="60"/>
+      <c r="F46" s="60"/>
+      <c r="G46" s="60"/>
+      <c r="H46" s="60"/>
+      <c r="I46" s="60"/>
+      <c r="J46" s="60"/>
+      <c r="K46" s="60"/>
+      <c r="L46" s="60"/>
+      <c r="M46" s="61"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B47" s="54"/>
-      <c r="C47" s="55"/>
-      <c r="D47" s="55"/>
-      <c r="E47" s="55"/>
-      <c r="F47" s="55"/>
-      <c r="G47" s="55"/>
-      <c r="H47" s="55"/>
-      <c r="I47" s="55"/>
-      <c r="J47" s="55"/>
-      <c r="K47" s="55"/>
-      <c r="L47" s="55"/>
-      <c r="M47" s="56"/>
+      <c r="B47" s="59"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="60"/>
+      <c r="H47" s="60"/>
+      <c r="I47" s="60"/>
+      <c r="J47" s="60"/>
+      <c r="K47" s="60"/>
+      <c r="L47" s="60"/>
+      <c r="M47" s="61"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B48" s="54"/>
-      <c r="C48" s="55"/>
-      <c r="D48" s="55"/>
-      <c r="E48" s="55"/>
-      <c r="F48" s="55"/>
-      <c r="G48" s="55"/>
-      <c r="H48" s="55"/>
-      <c r="I48" s="55"/>
-      <c r="J48" s="55"/>
-      <c r="K48" s="55"/>
-      <c r="L48" s="55"/>
-      <c r="M48" s="56"/>
+      <c r="B48" s="59"/>
+      <c r="C48" s="60"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="60"/>
+      <c r="G48" s="60"/>
+      <c r="H48" s="60"/>
+      <c r="I48" s="60"/>
+      <c r="J48" s="60"/>
+      <c r="K48" s="60"/>
+      <c r="L48" s="60"/>
+      <c r="M48" s="61"/>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B49" s="57"/>
-      <c r="C49" s="58"/>
-      <c r="D49" s="58"/>
-      <c r="E49" s="58"/>
-      <c r="F49" s="58"/>
-      <c r="G49" s="58"/>
-      <c r="H49" s="58"/>
-      <c r="I49" s="58"/>
-      <c r="J49" s="58"/>
-      <c r="K49" s="58"/>
-      <c r="L49" s="58"/>
-      <c r="M49" s="59"/>
+      <c r="B49" s="62"/>
+      <c r="C49" s="63"/>
+      <c r="D49" s="63"/>
+      <c r="E49" s="63"/>
+      <c r="F49" s="63"/>
+      <c r="G49" s="63"/>
+      <c r="H49" s="63"/>
+      <c r="I49" s="63"/>
+      <c r="J49" s="63"/>
+      <c r="K49" s="63"/>
+      <c r="L49" s="63"/>
+      <c r="M49" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -5016,10 +5023,10 @@
   <sheetData>
     <row r="1" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="86"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
+      <c r="A2" s="92"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
       <c r="E2" s="12" t="s">
         <v>3</v>
       </c>
@@ -5034,10 +5041,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="89">
+      <c r="A3" s="91">
         <v>1</v>
       </c>
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="91" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="7">
@@ -5060,8 +5067,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="89"/>
-      <c r="B4" s="89"/>
+      <c r="A4" s="91"/>
+      <c r="B4" s="91"/>
       <c r="C4" s="7">
         <v>1.2</v>
       </c>
@@ -5082,8 +5089,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="89"/>
-      <c r="B5" s="89"/>
+      <c r="A5" s="91"/>
+      <c r="B5" s="91"/>
       <c r="C5" s="7">
         <v>1.3</v>
       </c>
@@ -5104,8 +5111,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="89"/>
-      <c r="B6" s="89"/>
+      <c r="A6" s="91"/>
+      <c r="B6" s="91"/>
       <c r="C6" s="7">
         <v>1.4</v>
       </c>
@@ -5126,10 +5133,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="87">
+      <c r="A7" s="93">
         <v>2</v>
       </c>
-      <c r="B7" s="89" t="s">
+      <c r="B7" s="91" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="7">
@@ -5152,8 +5159,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="88"/>
-      <c r="B8" s="89"/>
+      <c r="A8" s="94"/>
+      <c r="B8" s="91"/>
       <c r="C8" s="7">
         <v>2.2000000000000002</v>
       </c>
@@ -5174,8 +5181,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="90"/>
-      <c r="B9" s="89"/>
+      <c r="A9" s="95"/>
+      <c r="B9" s="91"/>
       <c r="C9" s="7">
         <v>2.2999999999999998</v>
       </c>
@@ -5196,10 +5203,10 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="89">
+      <c r="A10" s="91">
         <v>3</v>
       </c>
-      <c r="B10" s="89" t="s">
+      <c r="B10" s="91" t="s">
         <v>38</v>
       </c>
       <c r="C10" s="9">
@@ -5222,8 +5229,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="89"/>
-      <c r="B11" s="89"/>
+      <c r="A11" s="91"/>
+      <c r="B11" s="91"/>
       <c r="C11" s="9">
         <v>3.2</v>
       </c>
@@ -5244,8 +5251,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="89"/>
-      <c r="B12" s="89"/>
+      <c r="A12" s="91"/>
+      <c r="B12" s="91"/>
       <c r="C12" s="9">
         <v>3.3</v>
       </c>
@@ -5266,8 +5273,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="89"/>
-      <c r="B13" s="89"/>
+      <c r="A13" s="91"/>
+      <c r="B13" s="91"/>
       <c r="C13" s="9">
         <v>3.4</v>
       </c>
@@ -5288,8 +5295,8 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="89"/>
-      <c r="B14" s="89"/>
+      <c r="A14" s="91"/>
+      <c r="B14" s="91"/>
       <c r="C14" s="9">
         <v>3.5</v>
       </c>
@@ -5310,8 +5317,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="89"/>
-      <c r="B15" s="89"/>
+      <c r="A15" s="91"/>
+      <c r="B15" s="91"/>
       <c r="C15" s="9">
         <v>3.6</v>
       </c>
@@ -5332,8 +5339,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="89"/>
-      <c r="B16" s="89"/>
+      <c r="A16" s="91"/>
+      <c r="B16" s="91"/>
       <c r="C16" s="9">
         <v>3.7</v>
       </c>
@@ -5354,8 +5361,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="89"/>
-      <c r="B17" s="89"/>
+      <c r="A17" s="91"/>
+      <c r="B17" s="91"/>
       <c r="C17" s="9">
         <v>3.8</v>
       </c>
@@ -5376,8 +5383,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="89"/>
-      <c r="B18" s="89"/>
+      <c r="A18" s="91"/>
+      <c r="B18" s="91"/>
       <c r="C18" s="9">
         <v>3.9</v>
       </c>
@@ -5398,8 +5405,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="89"/>
-      <c r="B19" s="89"/>
+      <c r="A19" s="91"/>
+      <c r="B19" s="91"/>
       <c r="C19" s="9" t="s">
         <v>48</v>
       </c>
@@ -5420,10 +5427,10 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="89">
+      <c r="A20" s="91">
         <v>4</v>
       </c>
-      <c r="B20" s="87" t="s">
+      <c r="B20" s="93" t="s">
         <v>50</v>
       </c>
       <c r="C20" s="7">
@@ -5446,8 +5453,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="89"/>
-      <c r="B21" s="88"/>
+      <c r="A21" s="91"/>
+      <c r="B21" s="94"/>
       <c r="C21" s="7">
         <v>4.2</v>
       </c>
@@ -5468,8 +5475,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="89"/>
-      <c r="B22" s="88"/>
+      <c r="A22" s="91"/>
+      <c r="B22" s="94"/>
       <c r="C22" s="7">
         <v>4.3</v>
       </c>
@@ -5490,8 +5497,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="89"/>
-      <c r="B23" s="88"/>
+      <c r="A23" s="91"/>
+      <c r="B23" s="94"/>
       <c r="C23" s="7">
         <v>4.4000000000000004</v>
       </c>
@@ -5512,8 +5519,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="89"/>
-      <c r="B24" s="88"/>
+      <c r="A24" s="91"/>
+      <c r="B24" s="94"/>
       <c r="C24" s="7">
         <v>4.5</v>
       </c>
@@ -5534,8 +5541,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="89"/>
-      <c r="B25" s="88"/>
+      <c r="A25" s="91"/>
+      <c r="B25" s="94"/>
       <c r="C25" s="7">
         <v>4.5999999999999996</v>
       </c>
@@ -5556,10 +5563,10 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="89">
+      <c r="A26" s="91">
         <v>5</v>
       </c>
-      <c r="B26" s="89" t="s">
+      <c r="B26" s="91" t="s">
         <v>57</v>
       </c>
       <c r="C26" s="7">
@@ -5582,8 +5589,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="89"/>
-      <c r="B27" s="89"/>
+      <c r="A27" s="91"/>
+      <c r="B27" s="91"/>
       <c r="C27" s="7">
         <v>5.2</v>
       </c>
@@ -5604,8 +5611,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="89"/>
-      <c r="B28" s="89"/>
+      <c r="A28" s="91"/>
+      <c r="B28" s="91"/>
       <c r="C28" s="7">
         <v>5.3</v>
       </c>
@@ -5626,8 +5633,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="89"/>
-      <c r="B29" s="89"/>
+      <c r="A29" s="91"/>
+      <c r="B29" s="91"/>
       <c r="C29" s="7">
         <v>5.4</v>
       </c>
@@ -5648,8 +5655,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="89"/>
-      <c r="B30" s="89"/>
+      <c r="A30" s="91"/>
+      <c r="B30" s="91"/>
       <c r="C30" s="7">
         <v>5.5</v>
       </c>
@@ -5670,10 +5677,10 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="89">
+      <c r="A31" s="91">
         <v>6</v>
       </c>
-      <c r="B31" s="89" t="s">
+      <c r="B31" s="91" t="s">
         <v>63</v>
       </c>
       <c r="C31" s="7">
@@ -5696,8 +5703,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="89"/>
-      <c r="B32" s="89"/>
+      <c r="A32" s="91"/>
+      <c r="B32" s="91"/>
       <c r="C32" s="7">
         <v>6.2</v>
       </c>
@@ -5718,8 +5725,8 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="89"/>
-      <c r="B33" s="89"/>
+      <c r="A33" s="91"/>
+      <c r="B33" s="91"/>
       <c r="C33" s="7">
         <v>6.3</v>
       </c>
@@ -5740,8 +5747,8 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="89"/>
-      <c r="B34" s="89"/>
+      <c r="A34" s="91"/>
+      <c r="B34" s="91"/>
       <c r="C34" s="7">
         <v>6.4</v>
       </c>
@@ -5762,8 +5769,8 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" s="89"/>
-      <c r="B35" s="89"/>
+      <c r="A35" s="91"/>
+      <c r="B35" s="91"/>
       <c r="C35" s="7">
         <v>6.5</v>
       </c>
@@ -5784,8 +5791,8 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A36" s="89"/>
-      <c r="B36" s="89"/>
+      <c r="A36" s="91"/>
+      <c r="B36" s="91"/>
       <c r="C36" s="7">
         <v>6.6</v>
       </c>
@@ -5806,10 +5813,10 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" s="89">
+      <c r="A37" s="91">
         <v>7</v>
       </c>
-      <c r="B37" s="89" t="s">
+      <c r="B37" s="91" t="s">
         <v>154</v>
       </c>
       <c r="C37" s="7">
@@ -5832,8 +5839,8 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A38" s="89"/>
-      <c r="B38" s="89"/>
+      <c r="A38" s="91"/>
+      <c r="B38" s="91"/>
       <c r="C38" s="7">
         <v>7.2</v>
       </c>
@@ -5854,8 +5861,8 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A39" s="89"/>
-      <c r="B39" s="89"/>
+      <c r="A39" s="91"/>
+      <c r="B39" s="91"/>
       <c r="C39" s="7">
         <v>7.3</v>
       </c>
@@ -5876,8 +5883,8 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A40" s="89"/>
-      <c r="B40" s="89"/>
+      <c r="A40" s="91"/>
+      <c r="B40" s="91"/>
       <c r="C40" s="7">
         <v>7.4</v>
       </c>
@@ -5898,8 +5905,8 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A41" s="89"/>
-      <c r="B41" s="89"/>
+      <c r="A41" s="91"/>
+      <c r="B41" s="91"/>
       <c r="C41" s="7">
         <v>7.5</v>
       </c>
@@ -5921,11 +5928,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="A31:A36"/>
-    <mergeCell ref="B31:B36"/>
-    <mergeCell ref="A20:A25"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="B20:B25"/>
     <mergeCell ref="B26:B30"/>
@@ -5936,6 +5938,11 @@
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="B10:B19"/>
     <mergeCell ref="A10:A19"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="A31:A36"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="A20:A25"/>
   </mergeCells>
   <conditionalFormatting sqref="E3 E4:H30">
     <cfRule type="cellIs" dxfId="159" priority="217" operator="equal">
@@ -6537,60 +6544,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="96"/>
-      <c r="B1" s="96"/>
-      <c r="C1" s="98" t="s">
+      <c r="A1" s="101"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="103" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="91" t="s">
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="96" t="s">
         <v>67</v>
       </c>
-      <c r="Q1" s="92"/>
-      <c r="R1" s="92"/>
-      <c r="S1" s="92"/>
-      <c r="T1" s="92"/>
-      <c r="U1" s="92"/>
-      <c r="V1" s="92"/>
-      <c r="W1" s="92"/>
-      <c r="X1" s="92"/>
-      <c r="Y1" s="92"/>
-      <c r="Z1" s="92"/>
-      <c r="AA1" s="92"/>
-      <c r="AB1" s="92"/>
-      <c r="AC1" s="92"/>
-      <c r="AD1" s="92"/>
-      <c r="AE1" s="92"/>
-      <c r="AF1" s="92"/>
-      <c r="AG1" s="92"/>
-      <c r="AH1" s="92"/>
-      <c r="AI1" s="92"/>
-      <c r="AJ1" s="92"/>
-      <c r="AK1" s="92"/>
-      <c r="AL1" s="92"/>
-      <c r="AM1" s="92"/>
-      <c r="AN1" s="92"/>
-      <c r="AO1" s="92"/>
-      <c r="AP1" s="92"/>
-      <c r="AQ1" s="92"/>
-      <c r="AR1" s="92"/>
-      <c r="AS1" s="92"/>
-      <c r="AT1" s="93"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
+      <c r="W1" s="97"/>
+      <c r="X1" s="97"/>
+      <c r="Y1" s="97"/>
+      <c r="Z1" s="97"/>
+      <c r="AA1" s="97"/>
+      <c r="AB1" s="97"/>
+      <c r="AC1" s="97"/>
+      <c r="AD1" s="97"/>
+      <c r="AE1" s="97"/>
+      <c r="AF1" s="97"/>
+      <c r="AG1" s="97"/>
+      <c r="AH1" s="97"/>
+      <c r="AI1" s="97"/>
+      <c r="AJ1" s="97"/>
+      <c r="AK1" s="97"/>
+      <c r="AL1" s="97"/>
+      <c r="AM1" s="97"/>
+      <c r="AN1" s="97"/>
+      <c r="AO1" s="97"/>
+      <c r="AP1" s="97"/>
+      <c r="AQ1" s="97"/>
+      <c r="AR1" s="97"/>
+      <c r="AS1" s="97"/>
+      <c r="AT1" s="98"/>
     </row>
     <row r="2" spans="1:58" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
+      <c r="A2" s="102"/>
+      <c r="B2" s="102"/>
       <c r="C2" s="16">
         <v>18</v>
       </c>
@@ -6743,9 +6750,9 @@
       <c r="B3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="94"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
@@ -9261,7 +9268,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AE23" sqref="AE23"/>
+      <selection pane="bottomRight" activeCell="N10" sqref="N10:P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9277,361 +9284,361 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:82" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="106" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="102" t="s">
+      <c r="B1" s="106"/>
+      <c r="C1" s="107" t="s">
         <v>187</v>
       </c>
-      <c r="D1" s="99" t="s">
+      <c r="D1" s="104" t="s">
         <v>172</v>
       </c>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
-      <c r="X1" s="99"/>
-      <c r="Y1" s="99"/>
-      <c r="Z1" s="99"/>
-      <c r="AA1" s="100" t="s">
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104"/>
+      <c r="X1" s="104"/>
+      <c r="Y1" s="104"/>
+      <c r="Z1" s="104"/>
+      <c r="AA1" s="105" t="s">
         <v>173</v>
       </c>
-      <c r="AB1" s="100"/>
-      <c r="AC1" s="100"/>
-      <c r="AD1" s="100"/>
-      <c r="AE1" s="100"/>
-      <c r="AF1" s="100"/>
-      <c r="AG1" s="100"/>
-      <c r="AH1" s="100"/>
-      <c r="AI1" s="100"/>
-      <c r="AJ1" s="100"/>
-      <c r="AK1" s="100"/>
-      <c r="AL1" s="100"/>
-      <c r="AM1" s="100"/>
-      <c r="AN1" s="100"/>
-      <c r="AO1" s="100"/>
-      <c r="AP1" s="100"/>
-      <c r="AQ1" s="100"/>
-      <c r="AR1" s="100"/>
-      <c r="AS1" s="100"/>
-      <c r="AT1" s="100"/>
-      <c r="AU1" s="100"/>
-      <c r="AV1" s="100"/>
-      <c r="AW1" s="100"/>
-      <c r="AX1" s="100"/>
-      <c r="AY1" s="100"/>
-      <c r="AZ1" s="100"/>
-      <c r="BA1" s="100"/>
-      <c r="BB1" s="100"/>
-      <c r="BC1" s="100"/>
-      <c r="BD1" s="100"/>
-      <c r="BE1" s="100" t="s">
+      <c r="AB1" s="105"/>
+      <c r="AC1" s="105"/>
+      <c r="AD1" s="105"/>
+      <c r="AE1" s="105"/>
+      <c r="AF1" s="105"/>
+      <c r="AG1" s="105"/>
+      <c r="AH1" s="105"/>
+      <c r="AI1" s="105"/>
+      <c r="AJ1" s="105"/>
+      <c r="AK1" s="105"/>
+      <c r="AL1" s="105"/>
+      <c r="AM1" s="105"/>
+      <c r="AN1" s="105"/>
+      <c r="AO1" s="105"/>
+      <c r="AP1" s="105"/>
+      <c r="AQ1" s="105"/>
+      <c r="AR1" s="105"/>
+      <c r="AS1" s="105"/>
+      <c r="AT1" s="105"/>
+      <c r="AU1" s="105"/>
+      <c r="AV1" s="105"/>
+      <c r="AW1" s="105"/>
+      <c r="AX1" s="105"/>
+      <c r="AY1" s="105"/>
+      <c r="AZ1" s="105"/>
+      <c r="BA1" s="105"/>
+      <c r="BB1" s="105"/>
+      <c r="BC1" s="105"/>
+      <c r="BD1" s="105"/>
+      <c r="BE1" s="105" t="s">
         <v>188</v>
       </c>
-      <c r="BF1" s="100"/>
-      <c r="BG1" s="100"/>
-      <c r="BH1" s="100"/>
-      <c r="BI1" s="100"/>
-      <c r="BJ1" s="100"/>
-      <c r="BK1" s="100"/>
-      <c r="BL1" s="100"/>
-      <c r="BM1" s="100"/>
-      <c r="BN1" s="100"/>
-      <c r="BO1" s="100"/>
-      <c r="BP1" s="100"/>
-      <c r="BQ1" s="100"/>
-      <c r="BR1" s="100"/>
-    </row>
-    <row r="2" spans="1:82" s="107" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="101"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="103">
+      <c r="BF1" s="105"/>
+      <c r="BG1" s="105"/>
+      <c r="BH1" s="105"/>
+      <c r="BI1" s="105"/>
+      <c r="BJ1" s="105"/>
+      <c r="BK1" s="105"/>
+      <c r="BL1" s="105"/>
+      <c r="BM1" s="105"/>
+      <c r="BN1" s="105"/>
+      <c r="BO1" s="105"/>
+      <c r="BP1" s="105"/>
+      <c r="BQ1" s="105"/>
+      <c r="BR1" s="105"/>
+    </row>
+    <row r="2" spans="1:82" s="55" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="106"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="51">
         <v>41707</v>
       </c>
-      <c r="E2" s="104">
+      <c r="E2" s="52">
         <f>DATE(YEAR(D2),MONTH(D2),DAY(D2)+1)</f>
         <v>41708</v>
       </c>
-      <c r="F2" s="104">
+      <c r="F2" s="52">
         <f t="shared" ref="F2:BO2" si="0">DATE(YEAR(E2),MONTH(E2),DAY(E2)+1)</f>
         <v>41709</v>
       </c>
-      <c r="G2" s="104">
+      <c r="G2" s="52">
         <f t="shared" si="0"/>
         <v>41710</v>
       </c>
-      <c r="H2" s="104">
+      <c r="H2" s="52">
         <f t="shared" si="0"/>
         <v>41711</v>
       </c>
-      <c r="I2" s="104">
+      <c r="I2" s="52">
         <f t="shared" si="0"/>
         <v>41712</v>
       </c>
-      <c r="J2" s="104">
+      <c r="J2" s="52">
         <f t="shared" si="0"/>
         <v>41713</v>
       </c>
-      <c r="K2" s="104">
+      <c r="K2" s="52">
         <f t="shared" si="0"/>
         <v>41714</v>
       </c>
-      <c r="L2" s="104">
+      <c r="L2" s="52">
         <f t="shared" si="0"/>
         <v>41715</v>
       </c>
-      <c r="M2" s="104">
+      <c r="M2" s="52">
         <f t="shared" si="0"/>
         <v>41716</v>
       </c>
-      <c r="N2" s="104">
+      <c r="N2" s="52">
         <f t="shared" si="0"/>
         <v>41717</v>
       </c>
-      <c r="O2" s="104">
+      <c r="O2" s="52">
         <f t="shared" si="0"/>
         <v>41718</v>
       </c>
-      <c r="P2" s="104">
+      <c r="P2" s="52">
         <f t="shared" si="0"/>
         <v>41719</v>
       </c>
-      <c r="Q2" s="104">
+      <c r="Q2" s="52">
         <f t="shared" si="0"/>
         <v>41720</v>
       </c>
-      <c r="R2" s="104">
+      <c r="R2" s="52">
         <f t="shared" si="0"/>
         <v>41721</v>
       </c>
-      <c r="S2" s="104">
+      <c r="S2" s="52">
         <f t="shared" si="0"/>
         <v>41722</v>
       </c>
-      <c r="T2" s="104">
+      <c r="T2" s="52">
         <f t="shared" si="0"/>
         <v>41723</v>
       </c>
-      <c r="U2" s="104">
+      <c r="U2" s="52">
         <f t="shared" si="0"/>
         <v>41724</v>
       </c>
-      <c r="V2" s="104">
+      <c r="V2" s="52">
         <f t="shared" si="0"/>
         <v>41725</v>
       </c>
-      <c r="W2" s="104">
+      <c r="W2" s="52">
         <f t="shared" si="0"/>
         <v>41726</v>
       </c>
-      <c r="X2" s="104">
+      <c r="X2" s="52">
         <f t="shared" si="0"/>
         <v>41727</v>
       </c>
-      <c r="Y2" s="104">
+      <c r="Y2" s="52">
         <f t="shared" si="0"/>
         <v>41728</v>
       </c>
-      <c r="Z2" s="104">
+      <c r="Z2" s="52">
         <f t="shared" si="0"/>
         <v>41729</v>
       </c>
-      <c r="AA2" s="104">
+      <c r="AA2" s="52">
         <f t="shared" si="0"/>
         <v>41730</v>
       </c>
-      <c r="AB2" s="104">
+      <c r="AB2" s="52">
         <f t="shared" si="0"/>
         <v>41731</v>
       </c>
-      <c r="AC2" s="104">
+      <c r="AC2" s="52">
         <f t="shared" si="0"/>
         <v>41732</v>
       </c>
-      <c r="AD2" s="104">
+      <c r="AD2" s="52">
         <f t="shared" si="0"/>
         <v>41733</v>
       </c>
-      <c r="AE2" s="104">
+      <c r="AE2" s="52">
         <f t="shared" si="0"/>
         <v>41734</v>
       </c>
-      <c r="AF2" s="104">
+      <c r="AF2" s="52">
         <f t="shared" si="0"/>
         <v>41735</v>
       </c>
-      <c r="AG2" s="104">
+      <c r="AG2" s="52">
         <f t="shared" si="0"/>
         <v>41736</v>
       </c>
-      <c r="AH2" s="104">
+      <c r="AH2" s="52">
         <f t="shared" si="0"/>
         <v>41737</v>
       </c>
-      <c r="AI2" s="104">
+      <c r="AI2" s="52">
         <f t="shared" si="0"/>
         <v>41738</v>
       </c>
-      <c r="AJ2" s="104">
+      <c r="AJ2" s="52">
         <f t="shared" si="0"/>
         <v>41739</v>
       </c>
-      <c r="AK2" s="104">
+      <c r="AK2" s="52">
         <f t="shared" si="0"/>
         <v>41740</v>
       </c>
-      <c r="AL2" s="104">
+      <c r="AL2" s="52">
         <f t="shared" si="0"/>
         <v>41741</v>
       </c>
-      <c r="AM2" s="104">
+      <c r="AM2" s="52">
         <f t="shared" si="0"/>
         <v>41742</v>
       </c>
-      <c r="AN2" s="104">
+      <c r="AN2" s="52">
         <f t="shared" si="0"/>
         <v>41743</v>
       </c>
-      <c r="AO2" s="104">
+      <c r="AO2" s="52">
         <f t="shared" si="0"/>
         <v>41744</v>
       </c>
-      <c r="AP2" s="104">
+      <c r="AP2" s="52">
         <f t="shared" si="0"/>
         <v>41745</v>
       </c>
-      <c r="AQ2" s="104">
+      <c r="AQ2" s="52">
         <f t="shared" si="0"/>
         <v>41746</v>
       </c>
-      <c r="AR2" s="104">
+      <c r="AR2" s="52">
         <f t="shared" si="0"/>
         <v>41747</v>
       </c>
-      <c r="AS2" s="104">
+      <c r="AS2" s="52">
         <f t="shared" si="0"/>
         <v>41748</v>
       </c>
-      <c r="AT2" s="104">
+      <c r="AT2" s="52">
         <f t="shared" si="0"/>
         <v>41749</v>
       </c>
-      <c r="AU2" s="104">
+      <c r="AU2" s="52">
         <f t="shared" si="0"/>
         <v>41750</v>
       </c>
-      <c r="AV2" s="104">
+      <c r="AV2" s="52">
         <f t="shared" si="0"/>
         <v>41751</v>
       </c>
-      <c r="AW2" s="104">
+      <c r="AW2" s="52">
         <f t="shared" si="0"/>
         <v>41752</v>
       </c>
-      <c r="AX2" s="104">
+      <c r="AX2" s="52">
         <f t="shared" si="0"/>
         <v>41753</v>
       </c>
-      <c r="AY2" s="104">
+      <c r="AY2" s="52">
         <f t="shared" si="0"/>
         <v>41754</v>
       </c>
-      <c r="AZ2" s="104">
+      <c r="AZ2" s="52">
         <f t="shared" si="0"/>
         <v>41755</v>
       </c>
-      <c r="BA2" s="104">
+      <c r="BA2" s="52">
         <f t="shared" si="0"/>
         <v>41756</v>
       </c>
-      <c r="BB2" s="104">
+      <c r="BB2" s="52">
         <f t="shared" si="0"/>
         <v>41757</v>
       </c>
-      <c r="BC2" s="104">
+      <c r="BC2" s="52">
         <f t="shared" si="0"/>
         <v>41758</v>
       </c>
-      <c r="BD2" s="104">
+      <c r="BD2" s="52">
         <f t="shared" si="0"/>
         <v>41759</v>
       </c>
-      <c r="BE2" s="104">
+      <c r="BE2" s="52">
         <f t="shared" si="0"/>
         <v>41760</v>
       </c>
-      <c r="BF2" s="104">
+      <c r="BF2" s="52">
         <f t="shared" si="0"/>
         <v>41761</v>
       </c>
-      <c r="BG2" s="104">
+      <c r="BG2" s="52">
         <f t="shared" si="0"/>
         <v>41762</v>
       </c>
-      <c r="BH2" s="104">
+      <c r="BH2" s="52">
         <f t="shared" si="0"/>
         <v>41763</v>
       </c>
-      <c r="BI2" s="104">
+      <c r="BI2" s="52">
         <f t="shared" si="0"/>
         <v>41764</v>
       </c>
-      <c r="BJ2" s="104">
+      <c r="BJ2" s="52">
         <f t="shared" si="0"/>
         <v>41765</v>
       </c>
-      <c r="BK2" s="104">
+      <c r="BK2" s="52">
         <f t="shared" si="0"/>
         <v>41766</v>
       </c>
-      <c r="BL2" s="104">
+      <c r="BL2" s="52">
         <f t="shared" si="0"/>
         <v>41767</v>
       </c>
-      <c r="BM2" s="104">
+      <c r="BM2" s="52">
         <f t="shared" si="0"/>
         <v>41768</v>
       </c>
-      <c r="BN2" s="104">
+      <c r="BN2" s="52">
         <f t="shared" si="0"/>
         <v>41769</v>
       </c>
-      <c r="BO2" s="104">
+      <c r="BO2" s="52">
         <f t="shared" si="0"/>
         <v>41770</v>
       </c>
-      <c r="BP2" s="105"/>
-      <c r="BQ2" s="105"/>
-      <c r="BR2" s="105"/>
-      <c r="BS2" s="106"/>
-      <c r="BT2" s="106"/>
-      <c r="BU2" s="106"/>
-      <c r="BV2" s="106"/>
-      <c r="BW2" s="106"/>
-      <c r="BX2" s="106"/>
-      <c r="BY2" s="106"/>
-      <c r="BZ2" s="106"/>
-      <c r="CA2" s="106"/>
-      <c r="CB2" s="106"/>
-      <c r="CC2" s="106"/>
-      <c r="CD2" s="106"/>
+      <c r="BP2" s="53"/>
+      <c r="BQ2" s="53"/>
+      <c r="BR2" s="53"/>
+      <c r="BS2" s="54"/>
+      <c r="BT2" s="54"/>
+      <c r="BU2" s="54"/>
+      <c r="BV2" s="54"/>
+      <c r="BW2" s="54"/>
+      <c r="BX2" s="54"/>
+      <c r="BY2" s="54"/>
+      <c r="BZ2" s="54"/>
+      <c r="CA2" s="54"/>
+      <c r="CB2" s="54"/>
+      <c r="CC2" s="54"/>
+      <c r="CD2" s="54"/>
     </row>
     <row r="3" spans="1:82" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A3" s="7">
@@ -9971,7 +9978,7 @@
       <c r="C7" s="45">
         <v>4</v>
       </c>
-      <c r="D7" s="48"/>
+      <c r="D7" s="108"/>
       <c r="E7" s="21"/>
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
@@ -10213,9 +10220,9 @@
       <c r="K10" s="19"/>
       <c r="L10" s="19"/>
       <c r="M10" s="19"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="48"/>
+      <c r="N10" s="108"/>
+      <c r="O10" s="108"/>
+      <c r="P10" s="108"/>
       <c r="Q10" s="19"/>
       <c r="R10" s="19"/>
       <c r="S10" s="19"/>
@@ -12203,306 +12210,306 @@
   <sheetData>
     <row r="1" spans="2:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="53"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="58"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B4" s="54"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="56"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="61"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="56"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="61"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B6" s="54"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="56"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="61"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B7" s="54"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="56"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="61"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B8" s="54"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="56"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="61"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B9" s="57"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="59"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="64"/>
     </row>
     <row r="10" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="60"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="65"/>
+      <c r="M10" s="65"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="56" t="s">
         <v>139</v>
       </c>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="53"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="58"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B12" s="54"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="56"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="61"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B13" s="54"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="56"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="61"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B14" s="54"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="56"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="61"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B15" s="54"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="55"/>
-      <c r="M15" s="56"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="60"/>
+      <c r="M15" s="61"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B16" s="54"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="56"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="61"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B17" s="54"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="56"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="61"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B18" s="54"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="55"/>
-      <c r="M18" s="56"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="61"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B19" s="54"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="56"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="61"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B20" s="54"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="56"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="61"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B21" s="54"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="55"/>
-      <c r="L21" s="55"/>
-      <c r="M21" s="56"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="60"/>
+      <c r="M21" s="61"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B22" s="57"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="58"/>
-      <c r="M22" s="59"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="63"/>
+      <c r="M22" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/01_doc/proj_plan/餐厅订餐系统_项目计划.xlsx
+++ b/01_doc/proj_plan/餐厅订餐系统_项目计划.xlsx
@@ -547,31 +547,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M5" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Lin</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N6" authorId="0" shapeId="0">
+    <comment ref="K6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -620,7 +596,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N8" authorId="0" shapeId="0">
+    <comment ref="E8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -644,7 +620,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N9" authorId="0" shapeId="0">
+    <comment ref="E9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -668,7 +644,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P10" authorId="0" shapeId="0">
+    <comment ref="G10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -692,7 +668,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q11" authorId="0" shapeId="0">
+    <comment ref="H11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -716,7 +692,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T12" authorId="0" shapeId="0">
+    <comment ref="K12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -740,7 +716,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T13" authorId="0" shapeId="0">
+    <comment ref="K13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -764,7 +740,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W14" authorId="0" shapeId="0">
+    <comment ref="N14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -788,7 +764,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z15" authorId="0" shapeId="0">
+    <comment ref="Q15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -812,7 +788,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD16" authorId="0" shapeId="0">
+    <comment ref="J16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -836,7 +812,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD17" authorId="0" shapeId="0">
+    <comment ref="M17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -860,7 +836,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AR18" authorId="0" shapeId="0">
+    <comment ref="X18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -884,7 +860,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AT19" authorId="0" shapeId="0">
+    <comment ref="Z19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -908,7 +884,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AT20" authorId="0" shapeId="0">
+    <comment ref="Z20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -932,7 +908,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BD21" authorId="0" shapeId="0">
+    <comment ref="AJ21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -957,7 +933,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BB22" authorId="0" shapeId="0">
+    <comment ref="AH22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -981,7 +957,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BB23" authorId="0" shapeId="0">
+    <comment ref="AH23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1999,7 +1975,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2092,6 +2068,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2248,7 +2225,8 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3798,232 +3776,232 @@
   <sheetData>
     <row r="1" spans="2:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="56"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="58"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="59"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B4" s="59"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="61"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="62"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B5" s="59"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="61"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="62"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B6" s="59"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="61"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="62"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B7" s="59"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="61"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="62"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B8" s="59"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="61"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="62"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B9" s="62"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
-      <c r="L9" s="63"/>
-      <c r="M9" s="64"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="65"/>
     </row>
     <row r="10" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="65"/>
-      <c r="M10" s="65"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B11" s="56"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="58"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="59"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B12" s="59"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="61"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="62"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B13" s="59"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60"/>
-      <c r="L13" s="60"/>
-      <c r="M13" s="61"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="62"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B14" s="59"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="61"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="62"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B15" s="59"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="60"/>
-      <c r="M15" s="61"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="62"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B16" s="59"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="61"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="62"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B17" s="62"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="64"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4281,700 +4259,700 @@
   <sheetData>
     <row r="1" spans="2:13" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="68"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="68"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="70"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="71"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="68"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="70"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="71"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="68"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="70"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="71"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="65"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="68"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="68"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="70"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="71"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="68"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="70"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="71"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="68"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="69"/>
-      <c r="L11" s="69"/>
-      <c r="M11" s="70"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="71"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="71"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="72"/>
-      <c r="K12" s="72"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="73"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="73"/>
+      <c r="L12" s="73"/>
+      <c r="M12" s="74"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="65" t="s">
+      <c r="B13" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="65"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="65"/>
-      <c r="L13" s="65"/>
-      <c r="M13" s="65"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="66"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="74" t="s">
+      <c r="B14" s="75" t="s">
         <v>171</v>
       </c>
-      <c r="C14" s="75"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="75"/>
-      <c r="K14" s="75"/>
-      <c r="L14" s="75"/>
-      <c r="M14" s="76"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="76"/>
+      <c r="L14" s="76"/>
+      <c r="M14" s="77"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="77"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="78"/>
-      <c r="I15" s="78"/>
-      <c r="J15" s="78"/>
-      <c r="K15" s="78"/>
-      <c r="L15" s="78"/>
-      <c r="M15" s="79"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="79"/>
+      <c r="K15" s="79"/>
+      <c r="L15" s="79"/>
+      <c r="M15" s="80"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="77"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="78"/>
-      <c r="H16" s="78"/>
-      <c r="I16" s="78"/>
-      <c r="J16" s="78"/>
-      <c r="K16" s="78"/>
-      <c r="L16" s="78"/>
-      <c r="M16" s="79"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="79"/>
+      <c r="L16" s="79"/>
+      <c r="M16" s="80"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="77"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="78"/>
-      <c r="I17" s="78"/>
-      <c r="J17" s="78"/>
-      <c r="K17" s="78"/>
-      <c r="L17" s="78"/>
-      <c r="M17" s="79"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="79"/>
+      <c r="L17" s="79"/>
+      <c r="M17" s="80"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="77"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="78"/>
-      <c r="I18" s="78"/>
-      <c r="J18" s="78"/>
-      <c r="K18" s="78"/>
-      <c r="L18" s="78"/>
-      <c r="M18" s="79"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="79"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="80"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="77"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="78"/>
-      <c r="I19" s="78"/>
-      <c r="J19" s="78"/>
-      <c r="K19" s="78"/>
-      <c r="L19" s="78"/>
-      <c r="M19" s="79"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="79"/>
+      <c r="K19" s="79"/>
+      <c r="L19" s="79"/>
+      <c r="M19" s="80"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="77"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="78"/>
-      <c r="J20" s="78"/>
-      <c r="K20" s="78"/>
-      <c r="L20" s="78"/>
-      <c r="M20" s="79"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="79"/>
+      <c r="J20" s="79"/>
+      <c r="K20" s="79"/>
+      <c r="L20" s="79"/>
+      <c r="M20" s="80"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="77"/>
-      <c r="C21" s="78"/>
-      <c r="D21" s="78"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="78"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="78"/>
-      <c r="K21" s="78"/>
-      <c r="L21" s="78"/>
-      <c r="M21" s="79"/>
+      <c r="B21" s="78"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="79"/>
+      <c r="K21" s="79"/>
+      <c r="L21" s="79"/>
+      <c r="M21" s="80"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="77"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="78"/>
-      <c r="I22" s="78"/>
-      <c r="J22" s="78"/>
-      <c r="K22" s="78"/>
-      <c r="L22" s="78"/>
-      <c r="M22" s="79"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="79"/>
+      <c r="J22" s="79"/>
+      <c r="K22" s="79"/>
+      <c r="L22" s="79"/>
+      <c r="M22" s="80"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="77"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="78"/>
-      <c r="I23" s="78"/>
-      <c r="J23" s="78"/>
-      <c r="K23" s="78"/>
-      <c r="L23" s="78"/>
-      <c r="M23" s="79"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="79"/>
+      <c r="I23" s="79"/>
+      <c r="J23" s="79"/>
+      <c r="K23" s="79"/>
+      <c r="L23" s="79"/>
+      <c r="M23" s="80"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B24" s="77"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="78"/>
-      <c r="I24" s="78"/>
-      <c r="J24" s="78"/>
-      <c r="K24" s="78"/>
-      <c r="L24" s="78"/>
-      <c r="M24" s="79"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="79"/>
+      <c r="J24" s="79"/>
+      <c r="K24" s="79"/>
+      <c r="L24" s="79"/>
+      <c r="M24" s="80"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="77"/>
-      <c r="C25" s="78"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="78"/>
-      <c r="F25" s="78"/>
-      <c r="G25" s="78"/>
-      <c r="H25" s="78"/>
-      <c r="I25" s="78"/>
-      <c r="J25" s="78"/>
-      <c r="K25" s="78"/>
-      <c r="L25" s="78"/>
-      <c r="M25" s="79"/>
+      <c r="B25" s="78"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="79"/>
+      <c r="I25" s="79"/>
+      <c r="J25" s="79"/>
+      <c r="K25" s="79"/>
+      <c r="L25" s="79"/>
+      <c r="M25" s="80"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="77"/>
-      <c r="C26" s="78"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="78"/>
-      <c r="I26" s="78"/>
-      <c r="J26" s="78"/>
-      <c r="K26" s="78"/>
-      <c r="L26" s="78"/>
-      <c r="M26" s="79"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="79"/>
+      <c r="I26" s="79"/>
+      <c r="J26" s="79"/>
+      <c r="K26" s="79"/>
+      <c r="L26" s="79"/>
+      <c r="M26" s="80"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="80"/>
-      <c r="C27" s="81"/>
-      <c r="D27" s="81"/>
-      <c r="E27" s="81"/>
-      <c r="F27" s="81"/>
-      <c r="G27" s="81"/>
-      <c r="H27" s="81"/>
-      <c r="I27" s="81"/>
-      <c r="J27" s="81"/>
-      <c r="K27" s="81"/>
-      <c r="L27" s="81"/>
-      <c r="M27" s="82"/>
+      <c r="B27" s="81"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="82"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="82"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="82"/>
+      <c r="I27" s="82"/>
+      <c r="J27" s="82"/>
+      <c r="K27" s="82"/>
+      <c r="L27" s="82"/>
+      <c r="M27" s="83"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="65" t="s">
+      <c r="B28" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="65"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="65"/>
-      <c r="K28" s="65"/>
-      <c r="L28" s="65"/>
-      <c r="M28" s="65"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="66"/>
+      <c r="J28" s="66"/>
+      <c r="K28" s="66"/>
+      <c r="L28" s="66"/>
+      <c r="M28" s="66"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="56" t="s">
+      <c r="B29" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="57"/>
-      <c r="K29" s="57"/>
-      <c r="L29" s="57"/>
-      <c r="M29" s="58"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="58"/>
+      <c r="M29" s="59"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="59"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="60"/>
-      <c r="H30" s="60"/>
-      <c r="I30" s="60"/>
-      <c r="J30" s="60"/>
-      <c r="K30" s="60"/>
-      <c r="L30" s="60"/>
-      <c r="M30" s="61"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="61"/>
+      <c r="J30" s="61"/>
+      <c r="K30" s="61"/>
+      <c r="L30" s="61"/>
+      <c r="M30" s="62"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="59"/>
-      <c r="C31" s="60"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="60"/>
-      <c r="G31" s="60"/>
-      <c r="H31" s="60"/>
-      <c r="I31" s="60"/>
-      <c r="J31" s="60"/>
-      <c r="K31" s="60"/>
-      <c r="L31" s="60"/>
-      <c r="M31" s="61"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="61"/>
+      <c r="J31" s="61"/>
+      <c r="K31" s="61"/>
+      <c r="L31" s="61"/>
+      <c r="M31" s="62"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="59"/>
-      <c r="C32" s="60"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="60"/>
-      <c r="H32" s="60"/>
-      <c r="I32" s="60"/>
-      <c r="J32" s="60"/>
-      <c r="K32" s="60"/>
-      <c r="L32" s="60"/>
-      <c r="M32" s="61"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="61"/>
+      <c r="M32" s="62"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" s="59"/>
-      <c r="C33" s="60"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="60"/>
-      <c r="G33" s="60"/>
-      <c r="H33" s="60"/>
-      <c r="I33" s="60"/>
-      <c r="J33" s="60"/>
-      <c r="K33" s="60"/>
-      <c r="L33" s="60"/>
-      <c r="M33" s="61"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="61"/>
+      <c r="J33" s="61"/>
+      <c r="K33" s="61"/>
+      <c r="L33" s="61"/>
+      <c r="M33" s="62"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B34" s="59"/>
-      <c r="C34" s="60"/>
-      <c r="D34" s="60"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="60"/>
-      <c r="G34" s="60"/>
-      <c r="H34" s="60"/>
-      <c r="I34" s="60"/>
-      <c r="J34" s="60"/>
-      <c r="K34" s="60"/>
-      <c r="L34" s="60"/>
-      <c r="M34" s="61"/>
+      <c r="B34" s="60"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="61"/>
+      <c r="J34" s="61"/>
+      <c r="K34" s="61"/>
+      <c r="L34" s="61"/>
+      <c r="M34" s="62"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="62"/>
-      <c r="C35" s="63"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="63"/>
-      <c r="F35" s="63"/>
-      <c r="G35" s="63"/>
-      <c r="H35" s="63"/>
-      <c r="I35" s="63"/>
-      <c r="J35" s="63"/>
-      <c r="K35" s="63"/>
-      <c r="L35" s="63"/>
-      <c r="M35" s="64"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="64"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="64"/>
+      <c r="K35" s="64"/>
+      <c r="L35" s="64"/>
+      <c r="M35" s="65"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B36" s="65" t="s">
+      <c r="B36" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="65"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="65"/>
-      <c r="F36" s="65"/>
-      <c r="G36" s="65"/>
-      <c r="H36" s="65"/>
-      <c r="I36" s="65"/>
-      <c r="J36" s="65"/>
-      <c r="K36" s="65"/>
-      <c r="L36" s="65"/>
-      <c r="M36" s="65"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="66"/>
+      <c r="I36" s="66"/>
+      <c r="J36" s="66"/>
+      <c r="K36" s="66"/>
+      <c r="L36" s="66"/>
+      <c r="M36" s="66"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B37" s="74" t="s">
+      <c r="B37" s="75" t="s">
         <v>118</v>
       </c>
-      <c r="C37" s="83"/>
-      <c r="D37" s="83"/>
-      <c r="E37" s="83"/>
-      <c r="F37" s="83"/>
-      <c r="G37" s="83"/>
-      <c r="H37" s="83"/>
-      <c r="I37" s="83"/>
-      <c r="J37" s="83"/>
-      <c r="K37" s="83"/>
-      <c r="L37" s="83"/>
-      <c r="M37" s="84"/>
+      <c r="C37" s="84"/>
+      <c r="D37" s="84"/>
+      <c r="E37" s="84"/>
+      <c r="F37" s="84"/>
+      <c r="G37" s="84"/>
+      <c r="H37" s="84"/>
+      <c r="I37" s="84"/>
+      <c r="J37" s="84"/>
+      <c r="K37" s="84"/>
+      <c r="L37" s="84"/>
+      <c r="M37" s="85"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B38" s="85"/>
-      <c r="C38" s="86"/>
-      <c r="D38" s="86"/>
-      <c r="E38" s="86"/>
-      <c r="F38" s="86"/>
-      <c r="G38" s="86"/>
-      <c r="H38" s="86"/>
-      <c r="I38" s="86"/>
-      <c r="J38" s="86"/>
-      <c r="K38" s="86"/>
-      <c r="L38" s="86"/>
-      <c r="M38" s="87"/>
+      <c r="B38" s="86"/>
+      <c r="C38" s="87"/>
+      <c r="D38" s="87"/>
+      <c r="E38" s="87"/>
+      <c r="F38" s="87"/>
+      <c r="G38" s="87"/>
+      <c r="H38" s="87"/>
+      <c r="I38" s="87"/>
+      <c r="J38" s="87"/>
+      <c r="K38" s="87"/>
+      <c r="L38" s="87"/>
+      <c r="M38" s="88"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B39" s="85"/>
-      <c r="C39" s="86"/>
-      <c r="D39" s="86"/>
-      <c r="E39" s="86"/>
-      <c r="F39" s="86"/>
-      <c r="G39" s="86"/>
-      <c r="H39" s="86"/>
-      <c r="I39" s="86"/>
-      <c r="J39" s="86"/>
-      <c r="K39" s="86"/>
-      <c r="L39" s="86"/>
-      <c r="M39" s="87"/>
+      <c r="B39" s="86"/>
+      <c r="C39" s="87"/>
+      <c r="D39" s="87"/>
+      <c r="E39" s="87"/>
+      <c r="F39" s="87"/>
+      <c r="G39" s="87"/>
+      <c r="H39" s="87"/>
+      <c r="I39" s="87"/>
+      <c r="J39" s="87"/>
+      <c r="K39" s="87"/>
+      <c r="L39" s="87"/>
+      <c r="M39" s="88"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B40" s="85"/>
-      <c r="C40" s="86"/>
-      <c r="D40" s="86"/>
-      <c r="E40" s="86"/>
-      <c r="F40" s="86"/>
-      <c r="G40" s="86"/>
-      <c r="H40" s="86"/>
-      <c r="I40" s="86"/>
-      <c r="J40" s="86"/>
-      <c r="K40" s="86"/>
-      <c r="L40" s="86"/>
-      <c r="M40" s="87"/>
+      <c r="B40" s="86"/>
+      <c r="C40" s="87"/>
+      <c r="D40" s="87"/>
+      <c r="E40" s="87"/>
+      <c r="F40" s="87"/>
+      <c r="G40" s="87"/>
+      <c r="H40" s="87"/>
+      <c r="I40" s="87"/>
+      <c r="J40" s="87"/>
+      <c r="K40" s="87"/>
+      <c r="L40" s="87"/>
+      <c r="M40" s="88"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="88"/>
-      <c r="C41" s="89"/>
-      <c r="D41" s="89"/>
-      <c r="E41" s="89"/>
-      <c r="F41" s="89"/>
-      <c r="G41" s="89"/>
-      <c r="H41" s="89"/>
-      <c r="I41" s="89"/>
-      <c r="J41" s="89"/>
-      <c r="K41" s="89"/>
-      <c r="L41" s="89"/>
-      <c r="M41" s="90"/>
+      <c r="B41" s="89"/>
+      <c r="C41" s="90"/>
+      <c r="D41" s="90"/>
+      <c r="E41" s="90"/>
+      <c r="F41" s="90"/>
+      <c r="G41" s="90"/>
+      <c r="H41" s="90"/>
+      <c r="I41" s="90"/>
+      <c r="J41" s="90"/>
+      <c r="K41" s="90"/>
+      <c r="L41" s="90"/>
+      <c r="M41" s="91"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B42" s="65" t="s">
+      <c r="B42" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="65"/>
-      <c r="D42" s="65"/>
-      <c r="E42" s="65"/>
-      <c r="F42" s="65"/>
-      <c r="G42" s="65"/>
-      <c r="H42" s="65"/>
-      <c r="I42" s="65"/>
-      <c r="J42" s="65"/>
-      <c r="K42" s="65"/>
-      <c r="L42" s="65"/>
-      <c r="M42" s="65"/>
+      <c r="C42" s="66"/>
+      <c r="D42" s="66"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="66"/>
+      <c r="H42" s="66"/>
+      <c r="I42" s="66"/>
+      <c r="J42" s="66"/>
+      <c r="K42" s="66"/>
+      <c r="L42" s="66"/>
+      <c r="M42" s="66"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B43" s="56" t="s">
+      <c r="B43" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="C43" s="57"/>
-      <c r="D43" s="57"/>
-      <c r="E43" s="57"/>
-      <c r="F43" s="57"/>
-      <c r="G43" s="57"/>
-      <c r="H43" s="57"/>
-      <c r="I43" s="57"/>
-      <c r="J43" s="57"/>
-      <c r="K43" s="57"/>
-      <c r="L43" s="57"/>
-      <c r="M43" s="58"/>
+      <c r="C43" s="58"/>
+      <c r="D43" s="58"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="58"/>
+      <c r="H43" s="58"/>
+      <c r="I43" s="58"/>
+      <c r="J43" s="58"/>
+      <c r="K43" s="58"/>
+      <c r="L43" s="58"/>
+      <c r="M43" s="59"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B44" s="59"/>
-      <c r="C44" s="60"/>
-      <c r="D44" s="60"/>
-      <c r="E44" s="60"/>
-      <c r="F44" s="60"/>
-      <c r="G44" s="60"/>
-      <c r="H44" s="60"/>
-      <c r="I44" s="60"/>
-      <c r="J44" s="60"/>
-      <c r="K44" s="60"/>
-      <c r="L44" s="60"/>
-      <c r="M44" s="61"/>
+      <c r="B44" s="60"/>
+      <c r="C44" s="61"/>
+      <c r="D44" s="61"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="61"/>
+      <c r="G44" s="61"/>
+      <c r="H44" s="61"/>
+      <c r="I44" s="61"/>
+      <c r="J44" s="61"/>
+      <c r="K44" s="61"/>
+      <c r="L44" s="61"/>
+      <c r="M44" s="62"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B45" s="59"/>
-      <c r="C45" s="60"/>
-      <c r="D45" s="60"/>
-      <c r="E45" s="60"/>
-      <c r="F45" s="60"/>
-      <c r="G45" s="60"/>
-      <c r="H45" s="60"/>
-      <c r="I45" s="60"/>
-      <c r="J45" s="60"/>
-      <c r="K45" s="60"/>
-      <c r="L45" s="60"/>
-      <c r="M45" s="61"/>
+      <c r="B45" s="60"/>
+      <c r="C45" s="61"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="61"/>
+      <c r="F45" s="61"/>
+      <c r="G45" s="61"/>
+      <c r="H45" s="61"/>
+      <c r="I45" s="61"/>
+      <c r="J45" s="61"/>
+      <c r="K45" s="61"/>
+      <c r="L45" s="61"/>
+      <c r="M45" s="62"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="59"/>
-      <c r="C46" s="60"/>
-      <c r="D46" s="60"/>
-      <c r="E46" s="60"/>
-      <c r="F46" s="60"/>
-      <c r="G46" s="60"/>
-      <c r="H46" s="60"/>
-      <c r="I46" s="60"/>
-      <c r="J46" s="60"/>
-      <c r="K46" s="60"/>
-      <c r="L46" s="60"/>
-      <c r="M46" s="61"/>
+      <c r="B46" s="60"/>
+      <c r="C46" s="61"/>
+      <c r="D46" s="61"/>
+      <c r="E46" s="61"/>
+      <c r="F46" s="61"/>
+      <c r="G46" s="61"/>
+      <c r="H46" s="61"/>
+      <c r="I46" s="61"/>
+      <c r="J46" s="61"/>
+      <c r="K46" s="61"/>
+      <c r="L46" s="61"/>
+      <c r="M46" s="62"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B47" s="59"/>
-      <c r="C47" s="60"/>
-      <c r="D47" s="60"/>
-      <c r="E47" s="60"/>
-      <c r="F47" s="60"/>
-      <c r="G47" s="60"/>
-      <c r="H47" s="60"/>
-      <c r="I47" s="60"/>
-      <c r="J47" s="60"/>
-      <c r="K47" s="60"/>
-      <c r="L47" s="60"/>
-      <c r="M47" s="61"/>
+      <c r="B47" s="60"/>
+      <c r="C47" s="61"/>
+      <c r="D47" s="61"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="61"/>
+      <c r="G47" s="61"/>
+      <c r="H47" s="61"/>
+      <c r="I47" s="61"/>
+      <c r="J47" s="61"/>
+      <c r="K47" s="61"/>
+      <c r="L47" s="61"/>
+      <c r="M47" s="62"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B48" s="59"/>
-      <c r="C48" s="60"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="60"/>
-      <c r="G48" s="60"/>
-      <c r="H48" s="60"/>
-      <c r="I48" s="60"/>
-      <c r="J48" s="60"/>
-      <c r="K48" s="60"/>
-      <c r="L48" s="60"/>
-      <c r="M48" s="61"/>
+      <c r="B48" s="60"/>
+      <c r="C48" s="61"/>
+      <c r="D48" s="61"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="61"/>
+      <c r="G48" s="61"/>
+      <c r="H48" s="61"/>
+      <c r="I48" s="61"/>
+      <c r="J48" s="61"/>
+      <c r="K48" s="61"/>
+      <c r="L48" s="61"/>
+      <c r="M48" s="62"/>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B49" s="62"/>
-      <c r="C49" s="63"/>
-      <c r="D49" s="63"/>
-      <c r="E49" s="63"/>
-      <c r="F49" s="63"/>
-      <c r="G49" s="63"/>
-      <c r="H49" s="63"/>
-      <c r="I49" s="63"/>
-      <c r="J49" s="63"/>
-      <c r="K49" s="63"/>
-      <c r="L49" s="63"/>
-      <c r="M49" s="64"/>
+      <c r="B49" s="63"/>
+      <c r="C49" s="64"/>
+      <c r="D49" s="64"/>
+      <c r="E49" s="64"/>
+      <c r="F49" s="64"/>
+      <c r="G49" s="64"/>
+      <c r="H49" s="64"/>
+      <c r="I49" s="64"/>
+      <c r="J49" s="64"/>
+      <c r="K49" s="64"/>
+      <c r="L49" s="64"/>
+      <c r="M49" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -5023,10 +5001,10 @@
   <sheetData>
     <row r="1" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="92"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
+      <c r="A2" s="93"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
       <c r="E2" s="12" t="s">
         <v>3</v>
       </c>
@@ -5041,10 +5019,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="91">
+      <c r="A3" s="92">
         <v>1</v>
       </c>
-      <c r="B3" s="91" t="s">
+      <c r="B3" s="92" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="7">
@@ -5067,8 +5045,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="91"/>
-      <c r="B4" s="91"/>
+      <c r="A4" s="92"/>
+      <c r="B4" s="92"/>
       <c r="C4" s="7">
         <v>1.2</v>
       </c>
@@ -5089,8 +5067,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="91"/>
-      <c r="B5" s="91"/>
+      <c r="A5" s="92"/>
+      <c r="B5" s="92"/>
       <c r="C5" s="7">
         <v>1.3</v>
       </c>
@@ -5111,8 +5089,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="91"/>
-      <c r="B6" s="91"/>
+      <c r="A6" s="92"/>
+      <c r="B6" s="92"/>
       <c r="C6" s="7">
         <v>1.4</v>
       </c>
@@ -5133,10 +5111,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="93">
+      <c r="A7" s="94">
         <v>2</v>
       </c>
-      <c r="B7" s="91" t="s">
+      <c r="B7" s="92" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="7">
@@ -5159,8 +5137,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="94"/>
-      <c r="B8" s="91"/>
+      <c r="A8" s="95"/>
+      <c r="B8" s="92"/>
       <c r="C8" s="7">
         <v>2.2000000000000002</v>
       </c>
@@ -5181,8 +5159,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="95"/>
-      <c r="B9" s="91"/>
+      <c r="A9" s="96"/>
+      <c r="B9" s="92"/>
       <c r="C9" s="7">
         <v>2.2999999999999998</v>
       </c>
@@ -5203,10 +5181,10 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="91">
+      <c r="A10" s="92">
         <v>3</v>
       </c>
-      <c r="B10" s="91" t="s">
+      <c r="B10" s="92" t="s">
         <v>38</v>
       </c>
       <c r="C10" s="9">
@@ -5229,8 +5207,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="91"/>
-      <c r="B11" s="91"/>
+      <c r="A11" s="92"/>
+      <c r="B11" s="92"/>
       <c r="C11" s="9">
         <v>3.2</v>
       </c>
@@ -5251,8 +5229,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="91"/>
-      <c r="B12" s="91"/>
+      <c r="A12" s="92"/>
+      <c r="B12" s="92"/>
       <c r="C12" s="9">
         <v>3.3</v>
       </c>
@@ -5273,8 +5251,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="91"/>
-      <c r="B13" s="91"/>
+      <c r="A13" s="92"/>
+      <c r="B13" s="92"/>
       <c r="C13" s="9">
         <v>3.4</v>
       </c>
@@ -5295,8 +5273,8 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="91"/>
-      <c r="B14" s="91"/>
+      <c r="A14" s="92"/>
+      <c r="B14" s="92"/>
       <c r="C14" s="9">
         <v>3.5</v>
       </c>
@@ -5317,8 +5295,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="91"/>
-      <c r="B15" s="91"/>
+      <c r="A15" s="92"/>
+      <c r="B15" s="92"/>
       <c r="C15" s="9">
         <v>3.6</v>
       </c>
@@ -5339,8 +5317,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="91"/>
-      <c r="B16" s="91"/>
+      <c r="A16" s="92"/>
+      <c r="B16" s="92"/>
       <c r="C16" s="9">
         <v>3.7</v>
       </c>
@@ -5361,8 +5339,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="91"/>
-      <c r="B17" s="91"/>
+      <c r="A17" s="92"/>
+      <c r="B17" s="92"/>
       <c r="C17" s="9">
         <v>3.8</v>
       </c>
@@ -5383,8 +5361,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="91"/>
-      <c r="B18" s="91"/>
+      <c r="A18" s="92"/>
+      <c r="B18" s="92"/>
       <c r="C18" s="9">
         <v>3.9</v>
       </c>
@@ -5405,8 +5383,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="91"/>
-      <c r="B19" s="91"/>
+      <c r="A19" s="92"/>
+      <c r="B19" s="92"/>
       <c r="C19" s="9" t="s">
         <v>48</v>
       </c>
@@ -5427,10 +5405,10 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="91">
+      <c r="A20" s="92">
         <v>4</v>
       </c>
-      <c r="B20" s="93" t="s">
+      <c r="B20" s="94" t="s">
         <v>50</v>
       </c>
       <c r="C20" s="7">
@@ -5453,8 +5431,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="91"/>
-      <c r="B21" s="94"/>
+      <c r="A21" s="92"/>
+      <c r="B21" s="95"/>
       <c r="C21" s="7">
         <v>4.2</v>
       </c>
@@ -5475,8 +5453,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="91"/>
-      <c r="B22" s="94"/>
+      <c r="A22" s="92"/>
+      <c r="B22" s="95"/>
       <c r="C22" s="7">
         <v>4.3</v>
       </c>
@@ -5497,8 +5475,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="91"/>
-      <c r="B23" s="94"/>
+      <c r="A23" s="92"/>
+      <c r="B23" s="95"/>
       <c r="C23" s="7">
         <v>4.4000000000000004</v>
       </c>
@@ -5519,8 +5497,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="91"/>
-      <c r="B24" s="94"/>
+      <c r="A24" s="92"/>
+      <c r="B24" s="95"/>
       <c r="C24" s="7">
         <v>4.5</v>
       </c>
@@ -5541,8 +5519,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="91"/>
-      <c r="B25" s="94"/>
+      <c r="A25" s="92"/>
+      <c r="B25" s="95"/>
       <c r="C25" s="7">
         <v>4.5999999999999996</v>
       </c>
@@ -5563,10 +5541,10 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="91">
+      <c r="A26" s="92">
         <v>5</v>
       </c>
-      <c r="B26" s="91" t="s">
+      <c r="B26" s="92" t="s">
         <v>57</v>
       </c>
       <c r="C26" s="7">
@@ -5589,8 +5567,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="91"/>
-      <c r="B27" s="91"/>
+      <c r="A27" s="92"/>
+      <c r="B27" s="92"/>
       <c r="C27" s="7">
         <v>5.2</v>
       </c>
@@ -5611,8 +5589,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="91"/>
-      <c r="B28" s="91"/>
+      <c r="A28" s="92"/>
+      <c r="B28" s="92"/>
       <c r="C28" s="7">
         <v>5.3</v>
       </c>
@@ -5633,8 +5611,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="91"/>
-      <c r="B29" s="91"/>
+      <c r="A29" s="92"/>
+      <c r="B29" s="92"/>
       <c r="C29" s="7">
         <v>5.4</v>
       </c>
@@ -5655,8 +5633,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="91"/>
-      <c r="B30" s="91"/>
+      <c r="A30" s="92"/>
+      <c r="B30" s="92"/>
       <c r="C30" s="7">
         <v>5.5</v>
       </c>
@@ -5677,10 +5655,10 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="91">
+      <c r="A31" s="92">
         <v>6</v>
       </c>
-      <c r="B31" s="91" t="s">
+      <c r="B31" s="92" t="s">
         <v>63</v>
       </c>
       <c r="C31" s="7">
@@ -5703,8 +5681,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="91"/>
-      <c r="B32" s="91"/>
+      <c r="A32" s="92"/>
+      <c r="B32" s="92"/>
       <c r="C32" s="7">
         <v>6.2</v>
       </c>
@@ -5725,8 +5703,8 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="91"/>
-      <c r="B33" s="91"/>
+      <c r="A33" s="92"/>
+      <c r="B33" s="92"/>
       <c r="C33" s="7">
         <v>6.3</v>
       </c>
@@ -5747,8 +5725,8 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="91"/>
-      <c r="B34" s="91"/>
+      <c r="A34" s="92"/>
+      <c r="B34" s="92"/>
       <c r="C34" s="7">
         <v>6.4</v>
       </c>
@@ -5769,8 +5747,8 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" s="91"/>
-      <c r="B35" s="91"/>
+      <c r="A35" s="92"/>
+      <c r="B35" s="92"/>
       <c r="C35" s="7">
         <v>6.5</v>
       </c>
@@ -5791,8 +5769,8 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A36" s="91"/>
-      <c r="B36" s="91"/>
+      <c r="A36" s="92"/>
+      <c r="B36" s="92"/>
       <c r="C36" s="7">
         <v>6.6</v>
       </c>
@@ -5813,10 +5791,10 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" s="91">
+      <c r="A37" s="92">
         <v>7</v>
       </c>
-      <c r="B37" s="91" t="s">
+      <c r="B37" s="92" t="s">
         <v>154</v>
       </c>
       <c r="C37" s="7">
@@ -5839,8 +5817,8 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A38" s="91"/>
-      <c r="B38" s="91"/>
+      <c r="A38" s="92"/>
+      <c r="B38" s="92"/>
       <c r="C38" s="7">
         <v>7.2</v>
       </c>
@@ -5861,8 +5839,8 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A39" s="91"/>
-      <c r="B39" s="91"/>
+      <c r="A39" s="92"/>
+      <c r="B39" s="92"/>
       <c r="C39" s="7">
         <v>7.3</v>
       </c>
@@ -5883,8 +5861,8 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A40" s="91"/>
-      <c r="B40" s="91"/>
+      <c r="A40" s="92"/>
+      <c r="B40" s="92"/>
       <c r="C40" s="7">
         <v>7.4</v>
       </c>
@@ -5905,8 +5883,8 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A41" s="91"/>
-      <c r="B41" s="91"/>
+      <c r="A41" s="92"/>
+      <c r="B41" s="92"/>
       <c r="C41" s="7">
         <v>7.5</v>
       </c>
@@ -6544,60 +6522,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="101"/>
-      <c r="B1" s="101"/>
-      <c r="C1" s="103" t="s">
+      <c r="A1" s="102"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="104" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="103"/>
-      <c r="P1" s="96" t="s">
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
-      <c r="U1" s="97"/>
-      <c r="V1" s="97"/>
-      <c r="W1" s="97"/>
-      <c r="X1" s="97"/>
-      <c r="Y1" s="97"/>
-      <c r="Z1" s="97"/>
-      <c r="AA1" s="97"/>
-      <c r="AB1" s="97"/>
-      <c r="AC1" s="97"/>
-      <c r="AD1" s="97"/>
-      <c r="AE1" s="97"/>
-      <c r="AF1" s="97"/>
-      <c r="AG1" s="97"/>
-      <c r="AH1" s="97"/>
-      <c r="AI1" s="97"/>
-      <c r="AJ1" s="97"/>
-      <c r="AK1" s="97"/>
-      <c r="AL1" s="97"/>
-      <c r="AM1" s="97"/>
-      <c r="AN1" s="97"/>
-      <c r="AO1" s="97"/>
-      <c r="AP1" s="97"/>
-      <c r="AQ1" s="97"/>
-      <c r="AR1" s="97"/>
-      <c r="AS1" s="97"/>
-      <c r="AT1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
+      <c r="U1" s="98"/>
+      <c r="V1" s="98"/>
+      <c r="W1" s="98"/>
+      <c r="X1" s="98"/>
+      <c r="Y1" s="98"/>
+      <c r="Z1" s="98"/>
+      <c r="AA1" s="98"/>
+      <c r="AB1" s="98"/>
+      <c r="AC1" s="98"/>
+      <c r="AD1" s="98"/>
+      <c r="AE1" s="98"/>
+      <c r="AF1" s="98"/>
+      <c r="AG1" s="98"/>
+      <c r="AH1" s="98"/>
+      <c r="AI1" s="98"/>
+      <c r="AJ1" s="98"/>
+      <c r="AK1" s="98"/>
+      <c r="AL1" s="98"/>
+      <c r="AM1" s="98"/>
+      <c r="AN1" s="98"/>
+      <c r="AO1" s="98"/>
+      <c r="AP1" s="98"/>
+      <c r="AQ1" s="98"/>
+      <c r="AR1" s="98"/>
+      <c r="AS1" s="98"/>
+      <c r="AT1" s="99"/>
     </row>
     <row r="2" spans="1:58" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="102"/>
-      <c r="B2" s="102"/>
+      <c r="A2" s="103"/>
+      <c r="B2" s="103"/>
       <c r="C2" s="16">
         <v>18</v>
       </c>
@@ -6750,9 +6728,9 @@
       <c r="B3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="99"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
@@ -9265,10 +9243,10 @@
   <dimension ref="A1:CD26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N10" sqref="N10:P10"/>
+      <selection pane="bottomRight" activeCell="U29" sqref="U29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9284,91 +9262,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:82" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="107" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="107" t="s">
+      <c r="B1" s="107"/>
+      <c r="C1" s="108" t="s">
         <v>187</v>
       </c>
-      <c r="D1" s="104" t="s">
+      <c r="D1" s="105" t="s">
         <v>172</v>
       </c>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="104"/>
-      <c r="S1" s="104"/>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="104"/>
-      <c r="X1" s="104"/>
-      <c r="Y1" s="104"/>
-      <c r="Z1" s="104"/>
-      <c r="AA1" s="105" t="s">
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
+      <c r="U1" s="105"/>
+      <c r="V1" s="105"/>
+      <c r="W1" s="105"/>
+      <c r="X1" s="105"/>
+      <c r="Y1" s="105"/>
+      <c r="Z1" s="105"/>
+      <c r="AA1" s="106" t="s">
         <v>173</v>
       </c>
-      <c r="AB1" s="105"/>
-      <c r="AC1" s="105"/>
-      <c r="AD1" s="105"/>
-      <c r="AE1" s="105"/>
-      <c r="AF1" s="105"/>
-      <c r="AG1" s="105"/>
-      <c r="AH1" s="105"/>
-      <c r="AI1" s="105"/>
-      <c r="AJ1" s="105"/>
-      <c r="AK1" s="105"/>
-      <c r="AL1" s="105"/>
-      <c r="AM1" s="105"/>
-      <c r="AN1" s="105"/>
-      <c r="AO1" s="105"/>
-      <c r="AP1" s="105"/>
-      <c r="AQ1" s="105"/>
-      <c r="AR1" s="105"/>
-      <c r="AS1" s="105"/>
-      <c r="AT1" s="105"/>
-      <c r="AU1" s="105"/>
-      <c r="AV1" s="105"/>
-      <c r="AW1" s="105"/>
-      <c r="AX1" s="105"/>
-      <c r="AY1" s="105"/>
-      <c r="AZ1" s="105"/>
-      <c r="BA1" s="105"/>
-      <c r="BB1" s="105"/>
-      <c r="BC1" s="105"/>
-      <c r="BD1" s="105"/>
-      <c r="BE1" s="105" t="s">
+      <c r="AB1" s="106"/>
+      <c r="AC1" s="106"/>
+      <c r="AD1" s="106"/>
+      <c r="AE1" s="106"/>
+      <c r="AF1" s="106"/>
+      <c r="AG1" s="106"/>
+      <c r="AH1" s="106"/>
+      <c r="AI1" s="106"/>
+      <c r="AJ1" s="106"/>
+      <c r="AK1" s="106"/>
+      <c r="AL1" s="106"/>
+      <c r="AM1" s="106"/>
+      <c r="AN1" s="106"/>
+      <c r="AO1" s="106"/>
+      <c r="AP1" s="106"/>
+      <c r="AQ1" s="106"/>
+      <c r="AR1" s="106"/>
+      <c r="AS1" s="106"/>
+      <c r="AT1" s="106"/>
+      <c r="AU1" s="106"/>
+      <c r="AV1" s="106"/>
+      <c r="AW1" s="106"/>
+      <c r="AX1" s="106"/>
+      <c r="AY1" s="106"/>
+      <c r="AZ1" s="106"/>
+      <c r="BA1" s="106"/>
+      <c r="BB1" s="106"/>
+      <c r="BC1" s="106"/>
+      <c r="BD1" s="106"/>
+      <c r="BE1" s="106" t="s">
         <v>188</v>
       </c>
-      <c r="BF1" s="105"/>
-      <c r="BG1" s="105"/>
-      <c r="BH1" s="105"/>
-      <c r="BI1" s="105"/>
-      <c r="BJ1" s="105"/>
-      <c r="BK1" s="105"/>
-      <c r="BL1" s="105"/>
-      <c r="BM1" s="105"/>
-      <c r="BN1" s="105"/>
-      <c r="BO1" s="105"/>
-      <c r="BP1" s="105"/>
-      <c r="BQ1" s="105"/>
-      <c r="BR1" s="105"/>
+      <c r="BF1" s="106"/>
+      <c r="BG1" s="106"/>
+      <c r="BH1" s="106"/>
+      <c r="BI1" s="106"/>
+      <c r="BJ1" s="106"/>
+      <c r="BK1" s="106"/>
+      <c r="BL1" s="106"/>
+      <c r="BM1" s="106"/>
+      <c r="BN1" s="106"/>
+      <c r="BO1" s="106"/>
+      <c r="BP1" s="106"/>
+      <c r="BQ1" s="106"/>
+      <c r="BR1" s="106"/>
     </row>
     <row r="2" spans="1:82" s="55" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="106"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="107"/>
+      <c r="A2" s="107"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="108"/>
       <c r="D2" s="51">
         <v>41707</v>
       </c>
@@ -9650,8 +9628,8 @@
       <c r="C3" s="45">
         <v>8</v>
       </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
       <c r="F3" s="49"/>
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
@@ -9709,9 +9687,6 @@
       <c r="BH3" s="19"/>
       <c r="BI3" s="19"/>
       <c r="BJ3" s="19"/>
-      <c r="BK3" s="19"/>
-      <c r="BL3" s="19"/>
-      <c r="BM3" s="19"/>
       <c r="BN3" s="19"/>
       <c r="BO3" s="19"/>
       <c r="BP3" s="19"/>
@@ -9734,14 +9709,14 @@
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="11"/>
-      <c r="F4" s="48"/>
+      <c r="F4" s="56"/>
       <c r="G4" s="50"/>
       <c r="H4" s="50"/>
       <c r="I4" s="50"/>
       <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
       <c r="N4" s="19"/>
       <c r="O4" s="19"/>
       <c r="P4" s="19"/>
@@ -9784,16 +9759,6 @@
       <c r="BA4" s="19"/>
       <c r="BB4" s="19"/>
       <c r="BC4" s="19"/>
-      <c r="BD4" s="19"/>
-      <c r="BE4" s="19"/>
-      <c r="BF4" s="19"/>
-      <c r="BG4" s="19"/>
-      <c r="BH4" s="19"/>
-      <c r="BI4" s="19"/>
-      <c r="BJ4" s="19"/>
-      <c r="BK4" s="19"/>
-      <c r="BL4" s="19"/>
-      <c r="BM4" s="19"/>
       <c r="BN4" s="19"/>
       <c r="BO4" s="19"/>
       <c r="BP4" s="19"/>
@@ -9817,27 +9782,27 @@
       <c r="D5" s="20"/>
       <c r="E5" s="21"/>
       <c r="F5" s="18"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
       <c r="N5" s="50"/>
       <c r="O5" s="50"/>
       <c r="P5" s="50"/>
       <c r="Q5" s="50"/>
-      <c r="R5" s="50"/>
-      <c r="S5" s="50"/>
-      <c r="T5" s="50"/>
-      <c r="U5" s="50"/>
-      <c r="V5" s="50"/>
-      <c r="W5" s="50"/>
-      <c r="X5" s="50"/>
-      <c r="Y5" s="50"/>
-      <c r="Z5" s="50"/>
-      <c r="AA5" s="50"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="19"/>
       <c r="AB5" s="19"/>
       <c r="AC5" s="19"/>
       <c r="AD5" s="19"/>
@@ -9866,16 +9831,6 @@
       <c r="BA5" s="19"/>
       <c r="BB5" s="19"/>
       <c r="BC5" s="19"/>
-      <c r="BD5" s="19"/>
-      <c r="BE5" s="19"/>
-      <c r="BF5" s="19"/>
-      <c r="BG5" s="19"/>
-      <c r="BH5" s="19"/>
-      <c r="BI5" s="19"/>
-      <c r="BJ5" s="19"/>
-      <c r="BK5" s="19"/>
-      <c r="BL5" s="19"/>
-      <c r="BM5" s="19"/>
       <c r="BN5" s="19"/>
       <c r="BO5" s="19"/>
       <c r="BP5" s="19"/>
@@ -9899,27 +9854,27 @@
       <c r="D6" s="20"/>
       <c r="E6" s="21"/>
       <c r="F6" s="19"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
       <c r="N6" s="48"/>
       <c r="O6" s="48"/>
       <c r="P6" s="48"/>
       <c r="Q6" s="48"/>
-      <c r="R6" s="48"/>
-      <c r="S6" s="48"/>
-      <c r="T6" s="48"/>
-      <c r="U6" s="48"/>
-      <c r="V6" s="48"/>
-      <c r="W6" s="48"/>
-      <c r="X6" s="48"/>
-      <c r="Y6" s="48"/>
-      <c r="Z6" s="48"/>
-      <c r="AA6" s="48"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="19"/>
+      <c r="AA6" s="19"/>
       <c r="AB6" s="19"/>
       <c r="AC6" s="19"/>
       <c r="AD6" s="19"/>
@@ -9938,26 +9893,6 @@
       <c r="AQ6" s="19"/>
       <c r="AR6" s="19"/>
       <c r="AS6" s="19"/>
-      <c r="AT6" s="19"/>
-      <c r="AU6" s="19"/>
-      <c r="AV6" s="19"/>
-      <c r="AW6" s="19"/>
-      <c r="AX6" s="19"/>
-      <c r="AY6" s="19"/>
-      <c r="AZ6" s="19"/>
-      <c r="BA6" s="19"/>
-      <c r="BB6" s="19"/>
-      <c r="BC6" s="19"/>
-      <c r="BD6" s="19"/>
-      <c r="BE6" s="19"/>
-      <c r="BF6" s="19"/>
-      <c r="BG6" s="19"/>
-      <c r="BH6" s="19"/>
-      <c r="BI6" s="19"/>
-      <c r="BJ6" s="19"/>
-      <c r="BK6" s="19"/>
-      <c r="BL6" s="19"/>
-      <c r="BM6" s="19"/>
       <c r="BN6" s="19"/>
       <c r="BO6" s="19"/>
       <c r="BP6" s="19"/>
@@ -9978,29 +9913,30 @@
       <c r="C7" s="45">
         <v>4</v>
       </c>
-      <c r="D7" s="108"/>
+      <c r="D7" s="56"/>
       <c r="E7" s="21"/>
+      <c r="F7" s="109"/>
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
       <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
       <c r="N7" s="18"/>
       <c r="O7" s="18"/>
       <c r="P7" s="18"/>
       <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="18"/>
-      <c r="V7" s="18"/>
-      <c r="W7" s="18"/>
-      <c r="X7" s="18"/>
-      <c r="Y7" s="18"/>
-      <c r="Z7" s="18"/>
-      <c r="AA7" s="18"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="19"/>
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="19"/>
       <c r="AB7" s="19"/>
       <c r="AC7" s="19"/>
       <c r="AD7" s="19"/>
@@ -10019,26 +9955,6 @@
       <c r="AQ7" s="19"/>
       <c r="AR7" s="19"/>
       <c r="AS7" s="19"/>
-      <c r="AT7" s="19"/>
-      <c r="AU7" s="19"/>
-      <c r="AV7" s="19"/>
-      <c r="AW7" s="19"/>
-      <c r="AX7" s="19"/>
-      <c r="AY7" s="19"/>
-      <c r="AZ7" s="19"/>
-      <c r="BA7" s="19"/>
-      <c r="BB7" s="19"/>
-      <c r="BC7" s="19"/>
-      <c r="BD7" s="19"/>
-      <c r="BE7" s="19"/>
-      <c r="BF7" s="19"/>
-      <c r="BG7" s="19"/>
-      <c r="BH7" s="19"/>
-      <c r="BI7" s="19"/>
-      <c r="BJ7" s="19"/>
-      <c r="BK7" s="19"/>
-      <c r="BL7" s="19"/>
-      <c r="BM7" s="19"/>
       <c r="BN7" s="19"/>
       <c r="BO7" s="19"/>
       <c r="BP7" s="19"/>
@@ -10056,16 +9972,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="20"/>
-      <c r="E8" s="21"/>
+      <c r="E8" s="56"/>
       <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
+      <c r="G8" s="109"/>
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
       <c r="J8" s="19"/>
       <c r="K8" s="19"/>
       <c r="L8" s="19"/>
       <c r="M8" s="19"/>
-      <c r="N8" s="48"/>
+      <c r="N8" s="19"/>
       <c r="O8" s="19"/>
       <c r="P8" s="19"/>
       <c r="Q8" s="19"/>
@@ -10097,26 +10013,6 @@
       <c r="AQ8" s="19"/>
       <c r="AR8" s="19"/>
       <c r="AS8" s="19"/>
-      <c r="AT8" s="19"/>
-      <c r="AU8" s="19"/>
-      <c r="AV8" s="19"/>
-      <c r="AW8" s="19"/>
-      <c r="AX8" s="19"/>
-      <c r="AY8" s="19"/>
-      <c r="AZ8" s="19"/>
-      <c r="BA8" s="19"/>
-      <c r="BB8" s="19"/>
-      <c r="BC8" s="19"/>
-      <c r="BD8" s="19"/>
-      <c r="BE8" s="19"/>
-      <c r="BF8" s="19"/>
-      <c r="BG8" s="19"/>
-      <c r="BH8" s="19"/>
-      <c r="BI8" s="19"/>
-      <c r="BJ8" s="19"/>
-      <c r="BK8" s="19"/>
-      <c r="BL8" s="19"/>
-      <c r="BM8" s="19"/>
       <c r="BN8" s="19"/>
       <c r="BO8" s="19"/>
       <c r="BP8" s="19"/>
@@ -10134,16 +10030,16 @@
         <v>4</v>
       </c>
       <c r="D9" s="20"/>
-      <c r="E9" s="21"/>
+      <c r="E9" s="56"/>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
+      <c r="H9" s="18"/>
       <c r="I9" s="19"/>
       <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
+      <c r="K9" s="18"/>
       <c r="L9" s="19"/>
       <c r="M9" s="19"/>
-      <c r="N9" s="48"/>
+      <c r="N9" s="19"/>
       <c r="O9" s="19"/>
       <c r="P9" s="19"/>
       <c r="Q9" s="19"/>
@@ -10175,26 +10071,6 @@
       <c r="AQ9" s="19"/>
       <c r="AR9" s="19"/>
       <c r="AS9" s="19"/>
-      <c r="AT9" s="19"/>
-      <c r="AU9" s="19"/>
-      <c r="AV9" s="19"/>
-      <c r="AW9" s="19"/>
-      <c r="AX9" s="19"/>
-      <c r="AY9" s="19"/>
-      <c r="AZ9" s="19"/>
-      <c r="BA9" s="19"/>
-      <c r="BB9" s="19"/>
-      <c r="BC9" s="19"/>
-      <c r="BD9" s="19"/>
-      <c r="BE9" s="19"/>
-      <c r="BF9" s="19"/>
-      <c r="BG9" s="19"/>
-      <c r="BH9" s="19"/>
-      <c r="BI9" s="19"/>
-      <c r="BJ9" s="19"/>
-      <c r="BK9" s="19"/>
-      <c r="BL9" s="19"/>
-      <c r="BM9" s="19"/>
       <c r="BN9" s="19"/>
       <c r="BO9" s="19"/>
       <c r="BP9" s="19"/>
@@ -10213,17 +10089,18 @@
       </c>
       <c r="D10" s="20"/>
       <c r="E10" s="21"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="19"/>
       <c r="J10" s="19"/>
       <c r="K10" s="19"/>
       <c r="L10" s="19"/>
       <c r="M10" s="19"/>
-      <c r="N10" s="108"/>
-      <c r="O10" s="108"/>
-      <c r="P10" s="108"/>
-      <c r="Q10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
       <c r="R10" s="19"/>
       <c r="S10" s="19"/>
       <c r="T10" s="19"/>
@@ -10252,26 +10129,6 @@
       <c r="AQ10" s="19"/>
       <c r="AR10" s="19"/>
       <c r="AS10" s="19"/>
-      <c r="AT10" s="19"/>
-      <c r="AU10" s="19"/>
-      <c r="AV10" s="19"/>
-      <c r="AW10" s="19"/>
-      <c r="AX10" s="19"/>
-      <c r="AY10" s="19"/>
-      <c r="AZ10" s="19"/>
-      <c r="BA10" s="19"/>
-      <c r="BB10" s="19"/>
-      <c r="BC10" s="19"/>
-      <c r="BD10" s="19"/>
-      <c r="BE10" s="19"/>
-      <c r="BF10" s="19"/>
-      <c r="BG10" s="19"/>
-      <c r="BH10" s="19"/>
-      <c r="BI10" s="19"/>
-      <c r="BJ10" s="19"/>
-      <c r="BK10" s="19"/>
-      <c r="BL10" s="19"/>
-      <c r="BM10" s="19"/>
       <c r="BN10" s="19"/>
       <c r="BO10" s="19"/>
       <c r="BP10" s="19"/>
@@ -10292,18 +10149,18 @@
       <c r="E11" s="21"/>
       <c r="F11" s="19"/>
       <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="48"/>
-      <c r="S11" s="48"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="110"/>
+      <c r="K11" s="109"/>
+      <c r="L11" s="109"/>
+      <c r="M11" s="109"/>
+      <c r="N11" s="109"/>
+      <c r="O11" s="109"/>
+      <c r="P11" s="109"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
       <c r="T11" s="19"/>
       <c r="U11" s="19"/>
       <c r="V11" s="19"/>
@@ -10330,26 +10187,6 @@
       <c r="AQ11" s="19"/>
       <c r="AR11" s="19"/>
       <c r="AS11" s="19"/>
-      <c r="AT11" s="19"/>
-      <c r="AU11" s="19"/>
-      <c r="AV11" s="19"/>
-      <c r="AW11" s="19"/>
-      <c r="AX11" s="19"/>
-      <c r="AY11" s="19"/>
-      <c r="AZ11" s="19"/>
-      <c r="BA11" s="19"/>
-      <c r="BB11" s="19"/>
-      <c r="BC11" s="19"/>
-      <c r="BD11" s="19"/>
-      <c r="BE11" s="19"/>
-      <c r="BF11" s="19"/>
-      <c r="BG11" s="19"/>
-      <c r="BH11" s="19"/>
-      <c r="BI11" s="19"/>
-      <c r="BJ11" s="19"/>
-      <c r="BK11" s="19"/>
-      <c r="BL11" s="19"/>
-      <c r="BM11" s="19"/>
       <c r="BN11" s="19"/>
       <c r="BO11" s="19"/>
       <c r="BP11" s="19"/>
@@ -10373,7 +10210,7 @@
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
       <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
+      <c r="K12" s="48"/>
       <c r="L12" s="19"/>
       <c r="M12" s="19"/>
       <c r="N12" s="19"/>
@@ -10382,7 +10219,7 @@
       <c r="Q12" s="19"/>
       <c r="R12" s="19"/>
       <c r="S12" s="19"/>
-      <c r="T12" s="48"/>
+      <c r="T12" s="19"/>
       <c r="U12" s="19"/>
       <c r="V12" s="19"/>
       <c r="W12" s="19"/>
@@ -10408,26 +10245,6 @@
       <c r="AQ12" s="19"/>
       <c r="AR12" s="19"/>
       <c r="AS12" s="19"/>
-      <c r="AT12" s="19"/>
-      <c r="AU12" s="19"/>
-      <c r="AV12" s="19"/>
-      <c r="AW12" s="19"/>
-      <c r="AX12" s="19"/>
-      <c r="AY12" s="19"/>
-      <c r="AZ12" s="19"/>
-      <c r="BA12" s="19"/>
-      <c r="BB12" s="19"/>
-      <c r="BC12" s="19"/>
-      <c r="BD12" s="19"/>
-      <c r="BE12" s="19"/>
-      <c r="BF12" s="19"/>
-      <c r="BG12" s="19"/>
-      <c r="BH12" s="19"/>
-      <c r="BI12" s="19"/>
-      <c r="BJ12" s="19"/>
-      <c r="BK12" s="19"/>
-      <c r="BL12" s="19"/>
-      <c r="BM12" s="19"/>
       <c r="BN12" s="19"/>
       <c r="BO12" s="19"/>
       <c r="BP12" s="19"/>
@@ -10451,16 +10268,16 @@
       <c r="H13" s="19"/>
       <c r="I13" s="19"/>
       <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
+      <c r="K13" s="48"/>
       <c r="L13" s="19"/>
       <c r="M13" s="19"/>
       <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="109"/>
+      <c r="R13" s="18"/>
       <c r="S13" s="19"/>
-      <c r="T13" s="48"/>
+      <c r="T13" s="19"/>
       <c r="U13" s="19"/>
       <c r="V13" s="19"/>
       <c r="W13" s="19"/>
@@ -10486,26 +10303,6 @@
       <c r="AQ13" s="19"/>
       <c r="AR13" s="19"/>
       <c r="AS13" s="19"/>
-      <c r="AT13" s="19"/>
-      <c r="AU13" s="19"/>
-      <c r="AV13" s="19"/>
-      <c r="AW13" s="19"/>
-      <c r="AX13" s="19"/>
-      <c r="AY13" s="19"/>
-      <c r="AZ13" s="19"/>
-      <c r="BA13" s="19"/>
-      <c r="BB13" s="19"/>
-      <c r="BC13" s="19"/>
-      <c r="BD13" s="19"/>
-      <c r="BE13" s="19"/>
-      <c r="BF13" s="19"/>
-      <c r="BG13" s="19"/>
-      <c r="BH13" s="19"/>
-      <c r="BI13" s="19"/>
-      <c r="BJ13" s="19"/>
-      <c r="BK13" s="19"/>
-      <c r="BL13" s="19"/>
-      <c r="BM13" s="19"/>
       <c r="BN13" s="19"/>
       <c r="BO13" s="19"/>
       <c r="BP13" s="19"/>
@@ -10530,18 +10327,18 @@
       <c r="I14" s="19"/>
       <c r="J14" s="19"/>
       <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="48"/>
       <c r="O14" s="19"/>
       <c r="P14" s="19"/>
       <c r="Q14" s="19"/>
       <c r="R14" s="19"/>
       <c r="S14" s="19"/>
       <c r="T14" s="19"/>
-      <c r="U14" s="48"/>
-      <c r="V14" s="48"/>
-      <c r="W14" s="48"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="19"/>
       <c r="X14" s="19"/>
       <c r="Y14" s="19"/>
       <c r="Z14" s="19"/>
@@ -10564,26 +10361,6 @@
       <c r="AQ14" s="19"/>
       <c r="AR14" s="19"/>
       <c r="AS14" s="19"/>
-      <c r="AT14" s="19"/>
-      <c r="AU14" s="19"/>
-      <c r="AV14" s="19"/>
-      <c r="AW14" s="19"/>
-      <c r="AX14" s="19"/>
-      <c r="AY14" s="19"/>
-      <c r="AZ14" s="19"/>
-      <c r="BA14" s="19"/>
-      <c r="BB14" s="19"/>
-      <c r="BC14" s="19"/>
-      <c r="BD14" s="19"/>
-      <c r="BE14" s="19"/>
-      <c r="BF14" s="19"/>
-      <c r="BG14" s="19"/>
-      <c r="BH14" s="19"/>
-      <c r="BI14" s="19"/>
-      <c r="BJ14" s="19"/>
-      <c r="BK14" s="19"/>
-      <c r="BL14" s="19"/>
-      <c r="BM14" s="19"/>
       <c r="BN14" s="19"/>
       <c r="BO14" s="19"/>
       <c r="BP14" s="19"/>
@@ -10611,18 +10388,18 @@
       <c r="L15" s="19"/>
       <c r="M15" s="19"/>
       <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
+      <c r="O15" s="48"/>
+      <c r="P15" s="48"/>
+      <c r="Q15" s="48"/>
       <c r="R15" s="19"/>
       <c r="S15" s="19"/>
       <c r="T15" s="19"/>
       <c r="U15" s="19"/>
       <c r="V15" s="19"/>
       <c r="W15" s="19"/>
-      <c r="X15" s="48"/>
-      <c r="Y15" s="48"/>
-      <c r="Z15" s="48"/>
+      <c r="X15" s="19"/>
+      <c r="Y15" s="19"/>
+      <c r="Z15" s="19"/>
       <c r="AA15" s="19"/>
       <c r="AB15" s="19"/>
       <c r="AC15" s="19"/>
@@ -10642,26 +10419,6 @@
       <c r="AQ15" s="19"/>
       <c r="AR15" s="19"/>
       <c r="AS15" s="19"/>
-      <c r="AT15" s="19"/>
-      <c r="AU15" s="19"/>
-      <c r="AV15" s="19"/>
-      <c r="AW15" s="19"/>
-      <c r="AX15" s="19"/>
-      <c r="AY15" s="19"/>
-      <c r="AZ15" s="19"/>
-      <c r="BA15" s="19"/>
-      <c r="BB15" s="19"/>
-      <c r="BC15" s="19"/>
-      <c r="BD15" s="19"/>
-      <c r="BE15" s="19"/>
-      <c r="BF15" s="19"/>
-      <c r="BG15" s="19"/>
-      <c r="BH15" s="19"/>
-      <c r="BI15" s="19"/>
-      <c r="BJ15" s="19"/>
-      <c r="BK15" s="19"/>
-      <c r="BL15" s="19"/>
-      <c r="BM15" s="19"/>
       <c r="BN15" s="19"/>
       <c r="BO15" s="19"/>
       <c r="BP15" s="19"/>
@@ -10682,9 +10439,9 @@
       <c r="E16" s="21"/>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
       <c r="K16" s="19"/>
       <c r="L16" s="19"/>
       <c r="M16" s="19"/>
@@ -10702,9 +10459,9 @@
       <c r="Y16" s="19"/>
       <c r="Z16" s="19"/>
       <c r="AA16" s="19"/>
-      <c r="AB16" s="48"/>
-      <c r="AC16" s="48"/>
-      <c r="AD16" s="48"/>
+      <c r="AB16" s="19"/>
+      <c r="AC16" s="19"/>
+      <c r="AD16" s="19"/>
       <c r="AE16" s="19"/>
       <c r="AF16" s="19"/>
       <c r="AG16" s="19"/>
@@ -10720,26 +10477,6 @@
       <c r="AQ16" s="19"/>
       <c r="AR16" s="19"/>
       <c r="AS16" s="19"/>
-      <c r="AT16" s="19"/>
-      <c r="AU16" s="19"/>
-      <c r="AV16" s="19"/>
-      <c r="AW16" s="19"/>
-      <c r="AX16" s="19"/>
-      <c r="AY16" s="19"/>
-      <c r="AZ16" s="19"/>
-      <c r="BA16" s="19"/>
-      <c r="BB16" s="19"/>
-      <c r="BC16" s="19"/>
-      <c r="BD16" s="19"/>
-      <c r="BE16" s="19"/>
-      <c r="BF16" s="19"/>
-      <c r="BG16" s="19"/>
-      <c r="BH16" s="19"/>
-      <c r="BI16" s="19"/>
-      <c r="BJ16" s="19"/>
-      <c r="BK16" s="19"/>
-      <c r="BL16" s="19"/>
-      <c r="BM16" s="19"/>
       <c r="BN16" s="19"/>
       <c r="BO16" s="19"/>
       <c r="BP16" s="19"/>
@@ -10763,26 +10500,26 @@
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="48"/>
       <c r="N17" s="19"/>
       <c r="O17" s="19"/>
       <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="19"/>
-      <c r="U17" s="19"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="109"/>
+      <c r="S17" s="109"/>
+      <c r="T17" s="109"/>
+      <c r="U17" s="18"/>
       <c r="V17" s="19"/>
       <c r="W17" s="19"/>
       <c r="X17" s="19"/>
       <c r="Y17" s="19"/>
       <c r="Z17" s="19"/>
       <c r="AA17" s="19"/>
-      <c r="AB17" s="48"/>
-      <c r="AC17" s="48"/>
-      <c r="AD17" s="48"/>
+      <c r="AB17" s="19"/>
+      <c r="AC17" s="19"/>
+      <c r="AD17" s="19"/>
       <c r="AE17" s="19"/>
       <c r="AF17" s="19"/>
       <c r="AG17" s="19"/>
@@ -10798,26 +10535,6 @@
       <c r="AQ17" s="19"/>
       <c r="AR17" s="19"/>
       <c r="AS17" s="19"/>
-      <c r="AT17" s="19"/>
-      <c r="AU17" s="19"/>
-      <c r="AV17" s="19"/>
-      <c r="AW17" s="19"/>
-      <c r="AX17" s="19"/>
-      <c r="AY17" s="19"/>
-      <c r="AZ17" s="19"/>
-      <c r="BA17" s="19"/>
-      <c r="BB17" s="19"/>
-      <c r="BC17" s="19"/>
-      <c r="BD17" s="19"/>
-      <c r="BE17" s="19"/>
-      <c r="BF17" s="19"/>
-      <c r="BG17" s="19"/>
-      <c r="BH17" s="19"/>
-      <c r="BI17" s="19"/>
-      <c r="BJ17" s="19"/>
-      <c r="BK17" s="19"/>
-      <c r="BL17" s="19"/>
-      <c r="BM17" s="19"/>
       <c r="BN17" s="19"/>
       <c r="BO17" s="19"/>
       <c r="BP17" s="19"/>
@@ -10841,61 +10558,41 @@
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
       <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="19"/>
-      <c r="V18" s="19"/>
-      <c r="W18" s="19"/>
-      <c r="X18" s="19"/>
-      <c r="Y18" s="19"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="48"/>
+      <c r="R18" s="48"/>
+      <c r="S18" s="48"/>
+      <c r="T18" s="48"/>
+      <c r="U18" s="48"/>
+      <c r="V18" s="48"/>
+      <c r="W18" s="48"/>
+      <c r="X18" s="48"/>
+      <c r="Y18" s="47"/>
       <c r="Z18" s="19"/>
       <c r="AA18" s="19"/>
       <c r="AB18" s="19"/>
       <c r="AC18" s="19"/>
       <c r="AD18" s="19"/>
-      <c r="AE18" s="48"/>
-      <c r="AF18" s="48"/>
-      <c r="AG18" s="48"/>
-      <c r="AH18" s="48"/>
-      <c r="AI18" s="48"/>
-      <c r="AJ18" s="48"/>
-      <c r="AK18" s="48"/>
-      <c r="AL18" s="48"/>
-      <c r="AM18" s="48"/>
-      <c r="AN18" s="48"/>
-      <c r="AO18" s="48"/>
-      <c r="AP18" s="48"/>
-      <c r="AQ18" s="48"/>
-      <c r="AR18" s="48"/>
-      <c r="AS18" s="47"/>
-      <c r="AT18" s="19"/>
-      <c r="AU18" s="19"/>
-      <c r="AV18" s="19"/>
-      <c r="AW18" s="19"/>
-      <c r="AX18" s="19"/>
-      <c r="AY18" s="19"/>
-      <c r="AZ18" s="19"/>
-      <c r="BA18" s="19"/>
-      <c r="BB18" s="19"/>
-      <c r="BC18" s="19"/>
-      <c r="BD18" s="19"/>
-      <c r="BE18" s="19"/>
-      <c r="BF18" s="19"/>
-      <c r="BG18" s="19"/>
-      <c r="BH18" s="19"/>
-      <c r="BI18" s="19"/>
-      <c r="BJ18" s="19"/>
-      <c r="BK18" s="19"/>
-      <c r="BL18" s="19"/>
-      <c r="BM18" s="19"/>
+      <c r="AE18" s="19"/>
+      <c r="AF18" s="19"/>
+      <c r="AG18" s="19"/>
+      <c r="AH18" s="19"/>
+      <c r="AI18" s="19"/>
+      <c r="AJ18" s="19"/>
+      <c r="AK18" s="19"/>
+      <c r="AL18" s="19"/>
+      <c r="AM18" s="19"/>
+      <c r="AN18" s="19"/>
+      <c r="AO18" s="19"/>
+      <c r="AP18" s="19"/>
+      <c r="AQ18" s="19"/>
+      <c r="AR18" s="19"/>
+      <c r="AS18" s="19"/>
       <c r="BN18" s="19"/>
       <c r="BO18" s="19"/>
       <c r="BP18" s="19"/>
@@ -10933,8 +10630,8 @@
       <c r="V19" s="19"/>
       <c r="W19" s="19"/>
       <c r="X19" s="19"/>
-      <c r="Y19" s="19"/>
-      <c r="Z19" s="19"/>
+      <c r="Y19" s="48"/>
+      <c r="Z19" s="48"/>
       <c r="AA19" s="19"/>
       <c r="AB19" s="19"/>
       <c r="AC19" s="19"/>
@@ -10953,27 +10650,7 @@
       <c r="AP19" s="19"/>
       <c r="AQ19" s="19"/>
       <c r="AR19" s="19"/>
-      <c r="AS19" s="48"/>
-      <c r="AT19" s="48"/>
-      <c r="AU19" s="19"/>
-      <c r="AV19" s="19"/>
-      <c r="AW19" s="19"/>
-      <c r="AX19" s="19"/>
-      <c r="AY19" s="19"/>
-      <c r="AZ19" s="19"/>
-      <c r="BA19" s="19"/>
-      <c r="BB19" s="19"/>
-      <c r="BC19" s="19"/>
-      <c r="BD19" s="19"/>
-      <c r="BE19" s="19"/>
-      <c r="BF19" s="19"/>
-      <c r="BG19" s="19"/>
-      <c r="BH19" s="19"/>
-      <c r="BI19" s="19"/>
-      <c r="BJ19" s="19"/>
-      <c r="BK19" s="19"/>
-      <c r="BL19" s="19"/>
-      <c r="BM19" s="19"/>
+      <c r="AS19" s="19"/>
       <c r="BN19" s="19"/>
       <c r="BO19" s="19"/>
       <c r="BP19" s="19"/>
@@ -11011,8 +10688,8 @@
       <c r="V20" s="19"/>
       <c r="W20" s="19"/>
       <c r="X20" s="19"/>
-      <c r="Y20" s="19"/>
-      <c r="Z20" s="19"/>
+      <c r="Y20" s="48"/>
+      <c r="Z20" s="48"/>
       <c r="AA20" s="19"/>
       <c r="AB20" s="19"/>
       <c r="AC20" s="19"/>
@@ -11031,27 +10708,7 @@
       <c r="AP20" s="19"/>
       <c r="AQ20" s="19"/>
       <c r="AR20" s="19"/>
-      <c r="AS20" s="48"/>
-      <c r="AT20" s="48"/>
-      <c r="AU20" s="19"/>
-      <c r="AV20" s="19"/>
-      <c r="AW20" s="19"/>
-      <c r="AX20" s="19"/>
-      <c r="AY20" s="19"/>
-      <c r="AZ20" s="19"/>
-      <c r="BA20" s="19"/>
-      <c r="BB20" s="19"/>
-      <c r="BC20" s="19"/>
-      <c r="BD20" s="19"/>
-      <c r="BE20" s="19"/>
-      <c r="BF20" s="19"/>
-      <c r="BG20" s="19"/>
-      <c r="BH20" s="19"/>
-      <c r="BI20" s="19"/>
-      <c r="BJ20" s="19"/>
-      <c r="BK20" s="19"/>
-      <c r="BL20" s="19"/>
-      <c r="BM20" s="19"/>
+      <c r="AS20" s="19"/>
       <c r="BN20" s="19"/>
       <c r="BO20" s="19"/>
       <c r="BP20" s="19"/>
@@ -11078,9 +10735,10 @@
       <c r="K21" s="19"/>
       <c r="L21" s="19"/>
       <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
+      <c r="N21" s="109"/>
       <c r="O21" s="19"/>
       <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
       <c r="R21" s="19"/>
       <c r="S21" s="19"/>
       <c r="T21" s="19"/>
@@ -11090,16 +10748,16 @@
       <c r="X21" s="19"/>
       <c r="Y21" s="19"/>
       <c r="Z21" s="19"/>
-      <c r="AA21" s="19"/>
-      <c r="AB21" s="19"/>
-      <c r="AC21" s="19"/>
-      <c r="AD21" s="19"/>
-      <c r="AE21" s="19"/>
-      <c r="AF21" s="19"/>
-      <c r="AG21" s="19"/>
-      <c r="AH21" s="19"/>
-      <c r="AI21" s="19"/>
-      <c r="AJ21" s="19"/>
+      <c r="AA21" s="48"/>
+      <c r="AB21" s="48"/>
+      <c r="AC21" s="48"/>
+      <c r="AD21" s="48"/>
+      <c r="AE21" s="48"/>
+      <c r="AF21" s="48"/>
+      <c r="AG21" s="48"/>
+      <c r="AH21" s="48"/>
+      <c r="AI21" s="48"/>
+      <c r="AJ21" s="48"/>
       <c r="AK21" s="19"/>
       <c r="AL21" s="19"/>
       <c r="AM21" s="19"/>
@@ -11109,26 +10767,6 @@
       <c r="AQ21" s="19"/>
       <c r="AR21" s="19"/>
       <c r="AS21" s="19"/>
-      <c r="AT21" s="19"/>
-      <c r="AU21" s="48"/>
-      <c r="AV21" s="48"/>
-      <c r="AW21" s="48"/>
-      <c r="AX21" s="48"/>
-      <c r="AY21" s="48"/>
-      <c r="AZ21" s="48"/>
-      <c r="BA21" s="48"/>
-      <c r="BB21" s="48"/>
-      <c r="BC21" s="48"/>
-      <c r="BD21" s="48"/>
-      <c r="BE21" s="19"/>
-      <c r="BF21" s="19"/>
-      <c r="BG21" s="19"/>
-      <c r="BH21" s="19"/>
-      <c r="BI21" s="19"/>
-      <c r="BJ21" s="19"/>
-      <c r="BK21" s="19"/>
-      <c r="BL21" s="19"/>
-      <c r="BM21" s="19"/>
       <c r="BN21" s="19"/>
       <c r="BO21" s="19"/>
       <c r="BP21" s="19"/>
@@ -11174,8 +10812,8 @@
       <c r="AD22" s="19"/>
       <c r="AE22" s="19"/>
       <c r="AF22" s="19"/>
-      <c r="AG22" s="19"/>
-      <c r="AH22" s="19"/>
+      <c r="AG22" s="48"/>
+      <c r="AH22" s="48"/>
       <c r="AI22" s="19"/>
       <c r="AJ22" s="19"/>
       <c r="AK22" s="19"/>
@@ -11187,26 +10825,6 @@
       <c r="AQ22" s="19"/>
       <c r="AR22" s="19"/>
       <c r="AS22" s="19"/>
-      <c r="AT22" s="19"/>
-      <c r="AU22" s="19"/>
-      <c r="AV22" s="19"/>
-      <c r="AW22" s="19"/>
-      <c r="AX22" s="19"/>
-      <c r="AY22" s="19"/>
-      <c r="AZ22" s="19"/>
-      <c r="BA22" s="48"/>
-      <c r="BB22" s="48"/>
-      <c r="BC22" s="19"/>
-      <c r="BD22" s="19"/>
-      <c r="BE22" s="19"/>
-      <c r="BF22" s="19"/>
-      <c r="BG22" s="19"/>
-      <c r="BH22" s="19"/>
-      <c r="BI22" s="19"/>
-      <c r="BJ22" s="19"/>
-      <c r="BK22" s="19"/>
-      <c r="BL22" s="19"/>
-      <c r="BM22" s="19"/>
       <c r="BN22" s="19"/>
       <c r="BO22" s="19"/>
       <c r="BP22" s="19"/>
@@ -11252,8 +10870,8 @@
       <c r="AD23" s="18"/>
       <c r="AE23" s="18"/>
       <c r="AF23" s="18"/>
-      <c r="AG23" s="18"/>
-      <c r="AH23" s="18"/>
+      <c r="AG23" s="48"/>
+      <c r="AH23" s="48"/>
       <c r="AI23" s="18"/>
       <c r="AJ23" s="18"/>
       <c r="AK23" s="18"/>
@@ -11265,26 +10883,6 @@
       <c r="AQ23" s="18"/>
       <c r="AR23" s="18"/>
       <c r="AS23" s="18"/>
-      <c r="AT23" s="18"/>
-      <c r="AU23" s="18"/>
-      <c r="AV23" s="18"/>
-      <c r="AW23" s="18"/>
-      <c r="AX23" s="18"/>
-      <c r="AY23" s="18"/>
-      <c r="AZ23" s="18"/>
-      <c r="BA23" s="48"/>
-      <c r="BB23" s="48"/>
-      <c r="BC23" s="18"/>
-      <c r="BD23" s="18"/>
-      <c r="BE23" s="18"/>
-      <c r="BF23" s="18"/>
-      <c r="BG23" s="18"/>
-      <c r="BH23" s="18"/>
-      <c r="BI23" s="18"/>
-      <c r="BJ23" s="18"/>
-      <c r="BK23" s="18"/>
-      <c r="BL23" s="18"/>
-      <c r="BM23" s="18"/>
       <c r="BN23" s="18"/>
       <c r="BO23" s="18"/>
       <c r="BP23" s="18"/>
@@ -11332,35 +10930,17 @@
       <c r="AF24" s="19"/>
       <c r="AG24" s="19"/>
       <c r="AH24" s="19"/>
-      <c r="AI24" s="19"/>
-      <c r="AJ24" s="19"/>
-      <c r="AK24" s="19"/>
-      <c r="AL24" s="19"/>
-      <c r="AM24" s="19"/>
-      <c r="AN24" s="19"/>
-      <c r="AO24" s="19"/>
+      <c r="AI24" s="48"/>
+      <c r="AJ24" s="48"/>
+      <c r="AK24" s="48"/>
+      <c r="AL24" s="48"/>
+      <c r="AM24" s="48"/>
+      <c r="AN24" s="109"/>
+      <c r="AO24" s="109"/>
       <c r="AP24" s="19"/>
       <c r="AQ24" s="19"/>
       <c r="AR24" s="19"/>
       <c r="AS24" s="19"/>
-      <c r="AT24" s="19"/>
-      <c r="AU24" s="19"/>
-      <c r="AV24" s="19"/>
-      <c r="AW24" s="19"/>
-      <c r="AX24" s="19"/>
-      <c r="AY24" s="19"/>
-      <c r="AZ24" s="19"/>
-      <c r="BA24" s="19"/>
-      <c r="BB24" s="19"/>
-      <c r="BC24" s="48"/>
-      <c r="BD24" s="48"/>
-      <c r="BE24" s="48"/>
-      <c r="BF24" s="48"/>
-      <c r="BG24" s="48"/>
-      <c r="BJ24" s="19"/>
-      <c r="BK24" s="19"/>
-      <c r="BL24" s="19"/>
-      <c r="BM24" s="19"/>
       <c r="BN24" s="19"/>
       <c r="BO24" s="19"/>
       <c r="BP24" s="19"/>
@@ -11413,30 +10993,12 @@
       <c r="AK25" s="19"/>
       <c r="AL25" s="19"/>
       <c r="AM25" s="19"/>
-      <c r="AN25" s="19"/>
-      <c r="AO25" s="19"/>
-      <c r="AP25" s="19"/>
-      <c r="AQ25" s="19"/>
-      <c r="AR25" s="19"/>
-      <c r="AS25" s="19"/>
-      <c r="AT25" s="19"/>
-      <c r="AU25" s="19"/>
-      <c r="AV25" s="19"/>
-      <c r="AW25" s="19"/>
-      <c r="AX25" s="19"/>
-      <c r="AY25" s="19"/>
-      <c r="AZ25" s="19"/>
-      <c r="BA25" s="19"/>
-      <c r="BB25" s="19"/>
-      <c r="BC25" s="19"/>
-      <c r="BD25" s="19"/>
-      <c r="BE25" s="19"/>
-      <c r="BF25" s="19"/>
-      <c r="BG25" s="19"/>
-      <c r="BH25" s="48"/>
-      <c r="BI25" s="48"/>
-      <c r="BJ25" s="48"/>
-      <c r="BK25" s="48"/>
+      <c r="AN25" s="48"/>
+      <c r="AO25" s="48"/>
+      <c r="AP25" s="48"/>
+      <c r="AQ25" s="48"/>
+      <c r="AR25" s="109"/>
+      <c r="AS25" s="109"/>
       <c r="BN25" s="50"/>
       <c r="BO25" s="50"/>
       <c r="BP25" s="50"/>
@@ -11493,28 +11055,8 @@
       <c r="AO26" s="19"/>
       <c r="AP26" s="19"/>
       <c r="AQ26" s="19"/>
-      <c r="AR26" s="19"/>
-      <c r="AS26" s="19"/>
-      <c r="AT26" s="19"/>
-      <c r="AU26" s="19"/>
-      <c r="AV26" s="19"/>
-      <c r="AW26" s="19"/>
-      <c r="AX26" s="19"/>
-      <c r="AY26" s="19"/>
-      <c r="AZ26" s="19"/>
-      <c r="BA26" s="19"/>
-      <c r="BB26" s="19"/>
-      <c r="BC26" s="19"/>
-      <c r="BD26" s="19"/>
-      <c r="BE26" s="19"/>
-      <c r="BF26" s="19"/>
-      <c r="BG26" s="19"/>
-      <c r="BH26" s="19"/>
-      <c r="BI26" s="19"/>
-      <c r="BJ26" s="19"/>
-      <c r="BK26" s="19"/>
-      <c r="BL26" s="48"/>
-      <c r="BM26" s="48"/>
+      <c r="AR26" s="48"/>
+      <c r="AS26" s="48"/>
       <c r="BN26" s="19"/>
       <c r="BO26" s="19"/>
       <c r="BP26" s="19"/>
@@ -12210,306 +11752,306 @@
   <sheetData>
     <row r="1" spans="2:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="59"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B4" s="59"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="61"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="62"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B5" s="59"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="61"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="62"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B6" s="59"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="61"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="62"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B7" s="59"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="61"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="62"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B8" s="59"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="61"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="62"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B9" s="62"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
-      <c r="L9" s="63"/>
-      <c r="M9" s="64"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="65"/>
     </row>
     <row r="10" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="65"/>
-      <c r="M10" s="65"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="57" t="s">
         <v>139</v>
       </c>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="59"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B12" s="59"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="61"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="62"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B13" s="59"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60"/>
-      <c r="L13" s="60"/>
-      <c r="M13" s="61"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="62"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B14" s="59"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="61"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="62"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B15" s="59"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="60"/>
-      <c r="M15" s="61"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="62"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B16" s="59"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="61"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="62"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B17" s="59"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="60"/>
-      <c r="M17" s="61"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="62"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B18" s="59"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="61"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="62"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B19" s="59"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="61"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="62"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B20" s="59"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="61"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="62"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B21" s="59"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="60"/>
-      <c r="L21" s="60"/>
-      <c r="M21" s="61"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="62"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B22" s="62"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="63"/>
-      <c r="K22" s="63"/>
-      <c r="L22" s="63"/>
-      <c r="M22" s="64"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="64"/>
+      <c r="M22" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/01_doc/proj_plan/餐厅订餐系统_项目计划.xlsx
+++ b/01_doc/proj_plan/餐厅订餐系统_项目计划.xlsx
@@ -572,31 +572,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D7" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Aaron</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E8" authorId="0" shapeId="0">
+    <comment ref="D8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -640,11 +616,35 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
+Aaron</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
 Annie</t>
         </r>
       </text>
     </comment>
-    <comment ref="G10" authorId="0" shapeId="0">
+    <comment ref="G11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -668,7 +668,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H11" authorId="0" shapeId="0">
+    <comment ref="H12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -692,7 +692,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K12" authorId="0" shapeId="0">
+    <comment ref="K13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -716,7 +716,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K13" authorId="0" shapeId="0">
+    <comment ref="K14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -740,7 +740,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N14" authorId="0" shapeId="0">
+    <comment ref="N15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -764,7 +764,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q15" authorId="0" shapeId="0">
+    <comment ref="Q16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -788,7 +788,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J16" authorId="0" shapeId="0">
+    <comment ref="J17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -812,7 +812,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M17" authorId="0" shapeId="0">
+    <comment ref="M18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -836,7 +836,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X18" authorId="0" shapeId="0">
+    <comment ref="AA19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -860,7 +860,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z19" authorId="0" shapeId="0">
+    <comment ref="AC21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -884,7 +884,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z20" authorId="0" shapeId="0">
+    <comment ref="AC22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -908,7 +908,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ21" authorId="0" shapeId="0">
+    <comment ref="AM23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -933,7 +933,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH22" authorId="0" shapeId="0">
+    <comment ref="AK24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -957,7 +957,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH23" authorId="0" shapeId="0">
+    <comment ref="AK25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -986,7 +986,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="191">
   <si>
     <t>姓名</t>
   </si>
@@ -1621,6 +1621,12 @@
   <si>
     <t>5月</t>
   </si>
+  <si>
+    <t>新UI移植+用户管理功能移植</t>
+  </si>
+  <si>
+    <t>移动端+ws交付</t>
+  </si>
 </sst>
 </file>
 
@@ -1629,7 +1635,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1731,8 +1737,22 @@
       <family val="1"/>
       <charset val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="仿宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="仿宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1790,6 +1810,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1975,7 +2001,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2069,6 +2095,8 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2174,9 +2202,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2184,6 +2209,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2225,8 +2253,9 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3776,232 +3805,232 @@
   <sheetData>
     <row r="1" spans="2:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="57"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="59"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="61"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B4" s="60"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="62"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="64"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B5" s="60"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="62"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="64"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B6" s="60"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="62"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="64"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B7" s="60"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="62"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="64"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B8" s="60"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="62"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="64"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B9" s="63"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="64"/>
-      <c r="M9" s="65"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="67"/>
     </row>
     <row r="10" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="66"/>
-      <c r="M10" s="66"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="68"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B11" s="57"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="59"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="61"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B12" s="60"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="61"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="62"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="64"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B13" s="60"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="62"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="64"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B14" s="60"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="62"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="64"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B15" s="60"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="61"/>
-      <c r="L15" s="61"/>
-      <c r="M15" s="62"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="64"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B16" s="60"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="61"/>
-      <c r="L16" s="61"/>
-      <c r="M16" s="62"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="64"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B17" s="63"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="64"/>
-      <c r="M17" s="65"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4259,700 +4288,700 @@
   <sheetData>
     <row r="1" spans="2:13" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="68"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="70"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="69"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="71"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="73"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="69"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="71"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="73"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="69"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="71"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="73"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="66"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="67"/>
-      <c r="M8" s="68"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="70"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="69"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="71"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="73"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="69"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="70"/>
-      <c r="M10" s="71"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="72"/>
+      <c r="L10" s="72"/>
+      <c r="M10" s="73"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="69"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="70"/>
-      <c r="M11" s="71"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="72"/>
+      <c r="M11" s="73"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="72"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="73"/>
-      <c r="L12" s="73"/>
-      <c r="M12" s="74"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="75"/>
+      <c r="L12" s="75"/>
+      <c r="M12" s="76"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="66" t="s">
+      <c r="B13" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="66"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="68"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="75" t="s">
+      <c r="B14" s="77" t="s">
         <v>171</v>
       </c>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="76"/>
-      <c r="K14" s="76"/>
-      <c r="L14" s="76"/>
-      <c r="M14" s="77"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="78"/>
+      <c r="K14" s="78"/>
+      <c r="L14" s="78"/>
+      <c r="M14" s="79"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="78"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="79"/>
-      <c r="I15" s="79"/>
-      <c r="J15" s="79"/>
-      <c r="K15" s="79"/>
-      <c r="L15" s="79"/>
-      <c r="M15" s="80"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="81"/>
+      <c r="K15" s="81"/>
+      <c r="L15" s="81"/>
+      <c r="M15" s="82"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="78"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="79"/>
-      <c r="I16" s="79"/>
-      <c r="J16" s="79"/>
-      <c r="K16" s="79"/>
-      <c r="L16" s="79"/>
-      <c r="M16" s="80"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="81"/>
+      <c r="K16" s="81"/>
+      <c r="L16" s="81"/>
+      <c r="M16" s="82"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="78"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="79"/>
-      <c r="J17" s="79"/>
-      <c r="K17" s="79"/>
-      <c r="L17" s="79"/>
-      <c r="M17" s="80"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="81"/>
+      <c r="K17" s="81"/>
+      <c r="L17" s="81"/>
+      <c r="M17" s="82"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="78"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="79"/>
-      <c r="J18" s="79"/>
-      <c r="K18" s="79"/>
-      <c r="L18" s="79"/>
-      <c r="M18" s="80"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="81"/>
+      <c r="K18" s="81"/>
+      <c r="L18" s="81"/>
+      <c r="M18" s="82"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="78"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="79"/>
-      <c r="I19" s="79"/>
-      <c r="J19" s="79"/>
-      <c r="K19" s="79"/>
-      <c r="L19" s="79"/>
-      <c r="M19" s="80"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="81"/>
+      <c r="K19" s="81"/>
+      <c r="L19" s="81"/>
+      <c r="M19" s="82"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="78"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="79"/>
-      <c r="J20" s="79"/>
-      <c r="K20" s="79"/>
-      <c r="L20" s="79"/>
-      <c r="M20" s="80"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="81"/>
+      <c r="I20" s="81"/>
+      <c r="J20" s="81"/>
+      <c r="K20" s="81"/>
+      <c r="L20" s="81"/>
+      <c r="M20" s="82"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="78"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="79"/>
-      <c r="J21" s="79"/>
-      <c r="K21" s="79"/>
-      <c r="L21" s="79"/>
-      <c r="M21" s="80"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="81"/>
+      <c r="J21" s="81"/>
+      <c r="K21" s="81"/>
+      <c r="L21" s="81"/>
+      <c r="M21" s="82"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="78"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="79"/>
-      <c r="I22" s="79"/>
-      <c r="J22" s="79"/>
-      <c r="K22" s="79"/>
-      <c r="L22" s="79"/>
-      <c r="M22" s="80"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="81"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="81"/>
+      <c r="J22" s="81"/>
+      <c r="K22" s="81"/>
+      <c r="L22" s="81"/>
+      <c r="M22" s="82"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="78"/>
-      <c r="C23" s="79"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="79"/>
-      <c r="I23" s="79"/>
-      <c r="J23" s="79"/>
-      <c r="K23" s="79"/>
-      <c r="L23" s="79"/>
-      <c r="M23" s="80"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="81"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="81"/>
+      <c r="J23" s="81"/>
+      <c r="K23" s="81"/>
+      <c r="L23" s="81"/>
+      <c r="M23" s="82"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B24" s="78"/>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="79"/>
-      <c r="I24" s="79"/>
-      <c r="J24" s="79"/>
-      <c r="K24" s="79"/>
-      <c r="L24" s="79"/>
-      <c r="M24" s="80"/>
+      <c r="B24" s="80"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="81"/>
+      <c r="J24" s="81"/>
+      <c r="K24" s="81"/>
+      <c r="L24" s="81"/>
+      <c r="M24" s="82"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="78"/>
-      <c r="C25" s="79"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="79"/>
-      <c r="I25" s="79"/>
-      <c r="J25" s="79"/>
-      <c r="K25" s="79"/>
-      <c r="L25" s="79"/>
-      <c r="M25" s="80"/>
+      <c r="B25" s="80"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="81"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="81"/>
+      <c r="J25" s="81"/>
+      <c r="K25" s="81"/>
+      <c r="L25" s="81"/>
+      <c r="M25" s="82"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="78"/>
-      <c r="C26" s="79"/>
-      <c r="D26" s="79"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="79"/>
-      <c r="I26" s="79"/>
-      <c r="J26" s="79"/>
-      <c r="K26" s="79"/>
-      <c r="L26" s="79"/>
-      <c r="M26" s="80"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="81"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="81"/>
+      <c r="J26" s="81"/>
+      <c r="K26" s="81"/>
+      <c r="L26" s="81"/>
+      <c r="M26" s="82"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="81"/>
-      <c r="C27" s="82"/>
-      <c r="D27" s="82"/>
-      <c r="E27" s="82"/>
-      <c r="F27" s="82"/>
-      <c r="G27" s="82"/>
-      <c r="H27" s="82"/>
-      <c r="I27" s="82"/>
-      <c r="J27" s="82"/>
-      <c r="K27" s="82"/>
-      <c r="L27" s="82"/>
-      <c r="M27" s="83"/>
+      <c r="B27" s="83"/>
+      <c r="C27" s="84"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="84"/>
+      <c r="F27" s="84"/>
+      <c r="G27" s="84"/>
+      <c r="H27" s="84"/>
+      <c r="I27" s="84"/>
+      <c r="J27" s="84"/>
+      <c r="K27" s="84"/>
+      <c r="L27" s="84"/>
+      <c r="M27" s="85"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="66" t="s">
+      <c r="B28" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="66"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="66"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="66"/>
-      <c r="I28" s="66"/>
-      <c r="J28" s="66"/>
-      <c r="K28" s="66"/>
-      <c r="L28" s="66"/>
-      <c r="M28" s="66"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="68"/>
+      <c r="K28" s="68"/>
+      <c r="L28" s="68"/>
+      <c r="M28" s="68"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="57" t="s">
+      <c r="B29" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="58"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="58"/>
-      <c r="L29" s="58"/>
-      <c r="M29" s="59"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="60"/>
+      <c r="M29" s="61"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="60"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="61"/>
-      <c r="J30" s="61"/>
-      <c r="K30" s="61"/>
-      <c r="L30" s="61"/>
-      <c r="M30" s="62"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="63"/>
+      <c r="L30" s="63"/>
+      <c r="M30" s="64"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="60"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="61"/>
-      <c r="J31" s="61"/>
-      <c r="K31" s="61"/>
-      <c r="L31" s="61"/>
-      <c r="M31" s="62"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="64"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="60"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="61"/>
-      <c r="H32" s="61"/>
-      <c r="I32" s="61"/>
-      <c r="J32" s="61"/>
-      <c r="K32" s="61"/>
-      <c r="L32" s="61"/>
-      <c r="M32" s="62"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="63"/>
+      <c r="L32" s="63"/>
+      <c r="M32" s="64"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" s="60"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="61"/>
-      <c r="J33" s="61"/>
-      <c r="K33" s="61"/>
-      <c r="L33" s="61"/>
-      <c r="M33" s="62"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="63"/>
+      <c r="M33" s="64"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B34" s="60"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="61"/>
-      <c r="I34" s="61"/>
-      <c r="J34" s="61"/>
-      <c r="K34" s="61"/>
-      <c r="L34" s="61"/>
-      <c r="M34" s="62"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="63"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="63"/>
+      <c r="M34" s="64"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="63"/>
-      <c r="C35" s="64"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="64"/>
-      <c r="F35" s="64"/>
-      <c r="G35" s="64"/>
-      <c r="H35" s="64"/>
-      <c r="I35" s="64"/>
-      <c r="J35" s="64"/>
-      <c r="K35" s="64"/>
-      <c r="L35" s="64"/>
-      <c r="M35" s="65"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="66"/>
+      <c r="G35" s="66"/>
+      <c r="H35" s="66"/>
+      <c r="I35" s="66"/>
+      <c r="J35" s="66"/>
+      <c r="K35" s="66"/>
+      <c r="L35" s="66"/>
+      <c r="M35" s="67"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B36" s="66" t="s">
+      <c r="B36" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="66"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="66"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="66"/>
-      <c r="H36" s="66"/>
-      <c r="I36" s="66"/>
-      <c r="J36" s="66"/>
-      <c r="K36" s="66"/>
-      <c r="L36" s="66"/>
-      <c r="M36" s="66"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="68"/>
+      <c r="G36" s="68"/>
+      <c r="H36" s="68"/>
+      <c r="I36" s="68"/>
+      <c r="J36" s="68"/>
+      <c r="K36" s="68"/>
+      <c r="L36" s="68"/>
+      <c r="M36" s="68"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B37" s="75" t="s">
+      <c r="B37" s="77" t="s">
         <v>118</v>
       </c>
-      <c r="C37" s="84"/>
-      <c r="D37" s="84"/>
-      <c r="E37" s="84"/>
-      <c r="F37" s="84"/>
-      <c r="G37" s="84"/>
-      <c r="H37" s="84"/>
-      <c r="I37" s="84"/>
-      <c r="J37" s="84"/>
-      <c r="K37" s="84"/>
-      <c r="L37" s="84"/>
-      <c r="M37" s="85"/>
+      <c r="C37" s="86"/>
+      <c r="D37" s="86"/>
+      <c r="E37" s="86"/>
+      <c r="F37" s="86"/>
+      <c r="G37" s="86"/>
+      <c r="H37" s="86"/>
+      <c r="I37" s="86"/>
+      <c r="J37" s="86"/>
+      <c r="K37" s="86"/>
+      <c r="L37" s="86"/>
+      <c r="M37" s="87"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B38" s="86"/>
-      <c r="C38" s="87"/>
-      <c r="D38" s="87"/>
-      <c r="E38" s="87"/>
-      <c r="F38" s="87"/>
-      <c r="G38" s="87"/>
-      <c r="H38" s="87"/>
-      <c r="I38" s="87"/>
-      <c r="J38" s="87"/>
-      <c r="K38" s="87"/>
-      <c r="L38" s="87"/>
-      <c r="M38" s="88"/>
+      <c r="B38" s="88"/>
+      <c r="C38" s="89"/>
+      <c r="D38" s="89"/>
+      <c r="E38" s="89"/>
+      <c r="F38" s="89"/>
+      <c r="G38" s="89"/>
+      <c r="H38" s="89"/>
+      <c r="I38" s="89"/>
+      <c r="J38" s="89"/>
+      <c r="K38" s="89"/>
+      <c r="L38" s="89"/>
+      <c r="M38" s="90"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B39" s="86"/>
-      <c r="C39" s="87"/>
-      <c r="D39" s="87"/>
-      <c r="E39" s="87"/>
-      <c r="F39" s="87"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="87"/>
-      <c r="J39" s="87"/>
-      <c r="K39" s="87"/>
-      <c r="L39" s="87"/>
-      <c r="M39" s="88"/>
+      <c r="B39" s="88"/>
+      <c r="C39" s="89"/>
+      <c r="D39" s="89"/>
+      <c r="E39" s="89"/>
+      <c r="F39" s="89"/>
+      <c r="G39" s="89"/>
+      <c r="H39" s="89"/>
+      <c r="I39" s="89"/>
+      <c r="J39" s="89"/>
+      <c r="K39" s="89"/>
+      <c r="L39" s="89"/>
+      <c r="M39" s="90"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B40" s="86"/>
-      <c r="C40" s="87"/>
-      <c r="D40" s="87"/>
-      <c r="E40" s="87"/>
-      <c r="F40" s="87"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="87"/>
-      <c r="I40" s="87"/>
-      <c r="J40" s="87"/>
-      <c r="K40" s="87"/>
-      <c r="L40" s="87"/>
-      <c r="M40" s="88"/>
+      <c r="B40" s="88"/>
+      <c r="C40" s="89"/>
+      <c r="D40" s="89"/>
+      <c r="E40" s="89"/>
+      <c r="F40" s="89"/>
+      <c r="G40" s="89"/>
+      <c r="H40" s="89"/>
+      <c r="I40" s="89"/>
+      <c r="J40" s="89"/>
+      <c r="K40" s="89"/>
+      <c r="L40" s="89"/>
+      <c r="M40" s="90"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="89"/>
-      <c r="C41" s="90"/>
-      <c r="D41" s="90"/>
-      <c r="E41" s="90"/>
-      <c r="F41" s="90"/>
-      <c r="G41" s="90"/>
-      <c r="H41" s="90"/>
-      <c r="I41" s="90"/>
-      <c r="J41" s="90"/>
-      <c r="K41" s="90"/>
-      <c r="L41" s="90"/>
-      <c r="M41" s="91"/>
+      <c r="B41" s="91"/>
+      <c r="C41" s="92"/>
+      <c r="D41" s="92"/>
+      <c r="E41" s="92"/>
+      <c r="F41" s="92"/>
+      <c r="G41" s="92"/>
+      <c r="H41" s="92"/>
+      <c r="I41" s="92"/>
+      <c r="J41" s="92"/>
+      <c r="K41" s="92"/>
+      <c r="L41" s="92"/>
+      <c r="M41" s="93"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B42" s="66" t="s">
+      <c r="B42" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="66"/>
-      <c r="D42" s="66"/>
-      <c r="E42" s="66"/>
-      <c r="F42" s="66"/>
-      <c r="G42" s="66"/>
-      <c r="H42" s="66"/>
-      <c r="I42" s="66"/>
-      <c r="J42" s="66"/>
-      <c r="K42" s="66"/>
-      <c r="L42" s="66"/>
-      <c r="M42" s="66"/>
+      <c r="C42" s="68"/>
+      <c r="D42" s="68"/>
+      <c r="E42" s="68"/>
+      <c r="F42" s="68"/>
+      <c r="G42" s="68"/>
+      <c r="H42" s="68"/>
+      <c r="I42" s="68"/>
+      <c r="J42" s="68"/>
+      <c r="K42" s="68"/>
+      <c r="L42" s="68"/>
+      <c r="M42" s="68"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B43" s="57" t="s">
+      <c r="B43" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="C43" s="58"/>
-      <c r="D43" s="58"/>
-      <c r="E43" s="58"/>
-      <c r="F43" s="58"/>
-      <c r="G43" s="58"/>
-      <c r="H43" s="58"/>
-      <c r="I43" s="58"/>
-      <c r="J43" s="58"/>
-      <c r="K43" s="58"/>
-      <c r="L43" s="58"/>
-      <c r="M43" s="59"/>
+      <c r="C43" s="60"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="60"/>
+      <c r="F43" s="60"/>
+      <c r="G43" s="60"/>
+      <c r="H43" s="60"/>
+      <c r="I43" s="60"/>
+      <c r="J43" s="60"/>
+      <c r="K43" s="60"/>
+      <c r="L43" s="60"/>
+      <c r="M43" s="61"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B44" s="60"/>
-      <c r="C44" s="61"/>
-      <c r="D44" s="61"/>
-      <c r="E44" s="61"/>
-      <c r="F44" s="61"/>
-      <c r="G44" s="61"/>
-      <c r="H44" s="61"/>
-      <c r="I44" s="61"/>
-      <c r="J44" s="61"/>
-      <c r="K44" s="61"/>
-      <c r="L44" s="61"/>
-      <c r="M44" s="62"/>
+      <c r="B44" s="62"/>
+      <c r="C44" s="63"/>
+      <c r="D44" s="63"/>
+      <c r="E44" s="63"/>
+      <c r="F44" s="63"/>
+      <c r="G44" s="63"/>
+      <c r="H44" s="63"/>
+      <c r="I44" s="63"/>
+      <c r="J44" s="63"/>
+      <c r="K44" s="63"/>
+      <c r="L44" s="63"/>
+      <c r="M44" s="64"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B45" s="60"/>
-      <c r="C45" s="61"/>
-      <c r="D45" s="61"/>
-      <c r="E45" s="61"/>
-      <c r="F45" s="61"/>
-      <c r="G45" s="61"/>
-      <c r="H45" s="61"/>
-      <c r="I45" s="61"/>
-      <c r="J45" s="61"/>
-      <c r="K45" s="61"/>
-      <c r="L45" s="61"/>
-      <c r="M45" s="62"/>
+      <c r="B45" s="62"/>
+      <c r="C45" s="63"/>
+      <c r="D45" s="63"/>
+      <c r="E45" s="63"/>
+      <c r="F45" s="63"/>
+      <c r="G45" s="63"/>
+      <c r="H45" s="63"/>
+      <c r="I45" s="63"/>
+      <c r="J45" s="63"/>
+      <c r="K45" s="63"/>
+      <c r="L45" s="63"/>
+      <c r="M45" s="64"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="60"/>
-      <c r="C46" s="61"/>
-      <c r="D46" s="61"/>
-      <c r="E46" s="61"/>
-      <c r="F46" s="61"/>
-      <c r="G46" s="61"/>
-      <c r="H46" s="61"/>
-      <c r="I46" s="61"/>
-      <c r="J46" s="61"/>
-      <c r="K46" s="61"/>
-      <c r="L46" s="61"/>
-      <c r="M46" s="62"/>
+      <c r="B46" s="62"/>
+      <c r="C46" s="63"/>
+      <c r="D46" s="63"/>
+      <c r="E46" s="63"/>
+      <c r="F46" s="63"/>
+      <c r="G46" s="63"/>
+      <c r="H46" s="63"/>
+      <c r="I46" s="63"/>
+      <c r="J46" s="63"/>
+      <c r="K46" s="63"/>
+      <c r="L46" s="63"/>
+      <c r="M46" s="64"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B47" s="60"/>
-      <c r="C47" s="61"/>
-      <c r="D47" s="61"/>
-      <c r="E47" s="61"/>
-      <c r="F47" s="61"/>
-      <c r="G47" s="61"/>
-      <c r="H47" s="61"/>
-      <c r="I47" s="61"/>
-      <c r="J47" s="61"/>
-      <c r="K47" s="61"/>
-      <c r="L47" s="61"/>
-      <c r="M47" s="62"/>
+      <c r="B47" s="62"/>
+      <c r="C47" s="63"/>
+      <c r="D47" s="63"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="63"/>
+      <c r="G47" s="63"/>
+      <c r="H47" s="63"/>
+      <c r="I47" s="63"/>
+      <c r="J47" s="63"/>
+      <c r="K47" s="63"/>
+      <c r="L47" s="63"/>
+      <c r="M47" s="64"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B48" s="60"/>
-      <c r="C48" s="61"/>
-      <c r="D48" s="61"/>
-      <c r="E48" s="61"/>
-      <c r="F48" s="61"/>
-      <c r="G48" s="61"/>
-      <c r="H48" s="61"/>
-      <c r="I48" s="61"/>
-      <c r="J48" s="61"/>
-      <c r="K48" s="61"/>
-      <c r="L48" s="61"/>
-      <c r="M48" s="62"/>
+      <c r="B48" s="62"/>
+      <c r="C48" s="63"/>
+      <c r="D48" s="63"/>
+      <c r="E48" s="63"/>
+      <c r="F48" s="63"/>
+      <c r="G48" s="63"/>
+      <c r="H48" s="63"/>
+      <c r="I48" s="63"/>
+      <c r="J48" s="63"/>
+      <c r="K48" s="63"/>
+      <c r="L48" s="63"/>
+      <c r="M48" s="64"/>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B49" s="63"/>
-      <c r="C49" s="64"/>
-      <c r="D49" s="64"/>
-      <c r="E49" s="64"/>
-      <c r="F49" s="64"/>
-      <c r="G49" s="64"/>
-      <c r="H49" s="64"/>
-      <c r="I49" s="64"/>
-      <c r="J49" s="64"/>
-      <c r="K49" s="64"/>
-      <c r="L49" s="64"/>
-      <c r="M49" s="65"/>
+      <c r="B49" s="65"/>
+      <c r="C49" s="66"/>
+      <c r="D49" s="66"/>
+      <c r="E49" s="66"/>
+      <c r="F49" s="66"/>
+      <c r="G49" s="66"/>
+      <c r="H49" s="66"/>
+      <c r="I49" s="66"/>
+      <c r="J49" s="66"/>
+      <c r="K49" s="66"/>
+      <c r="L49" s="66"/>
+      <c r="M49" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -5001,10 +5030,10 @@
   <sheetData>
     <row r="1" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="93"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
+      <c r="A2" s="94"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
       <c r="E2" s="12" t="s">
         <v>3</v>
       </c>
@@ -5019,10 +5048,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="92">
+      <c r="A3" s="97">
         <v>1</v>
       </c>
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="97" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="7">
@@ -5045,8 +5074,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="92"/>
-      <c r="B4" s="92"/>
+      <c r="A4" s="97"/>
+      <c r="B4" s="97"/>
       <c r="C4" s="7">
         <v>1.2</v>
       </c>
@@ -5067,8 +5096,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="92"/>
-      <c r="B5" s="92"/>
+      <c r="A5" s="97"/>
+      <c r="B5" s="97"/>
       <c r="C5" s="7">
         <v>1.3</v>
       </c>
@@ -5089,8 +5118,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="92"/>
-      <c r="B6" s="92"/>
+      <c r="A6" s="97"/>
+      <c r="B6" s="97"/>
       <c r="C6" s="7">
         <v>1.4</v>
       </c>
@@ -5111,10 +5140,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="94">
+      <c r="A7" s="95">
         <v>2</v>
       </c>
-      <c r="B7" s="92" t="s">
+      <c r="B7" s="97" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="7">
@@ -5137,8 +5166,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="95"/>
-      <c r="B8" s="92"/>
+      <c r="A8" s="96"/>
+      <c r="B8" s="97"/>
       <c r="C8" s="7">
         <v>2.2000000000000002</v>
       </c>
@@ -5159,8 +5188,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="96"/>
-      <c r="B9" s="92"/>
+      <c r="A9" s="98"/>
+      <c r="B9" s="97"/>
       <c r="C9" s="7">
         <v>2.2999999999999998</v>
       </c>
@@ -5181,10 +5210,10 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="92">
+      <c r="A10" s="97">
         <v>3</v>
       </c>
-      <c r="B10" s="92" t="s">
+      <c r="B10" s="97" t="s">
         <v>38</v>
       </c>
       <c r="C10" s="9">
@@ -5207,8 +5236,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="92"/>
-      <c r="B11" s="92"/>
+      <c r="A11" s="97"/>
+      <c r="B11" s="97"/>
       <c r="C11" s="9">
         <v>3.2</v>
       </c>
@@ -5229,8 +5258,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="92"/>
-      <c r="B12" s="92"/>
+      <c r="A12" s="97"/>
+      <c r="B12" s="97"/>
       <c r="C12" s="9">
         <v>3.3</v>
       </c>
@@ -5251,8 +5280,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="92"/>
-      <c r="B13" s="92"/>
+      <c r="A13" s="97"/>
+      <c r="B13" s="97"/>
       <c r="C13" s="9">
         <v>3.4</v>
       </c>
@@ -5273,8 +5302,8 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="92"/>
-      <c r="B14" s="92"/>
+      <c r="A14" s="97"/>
+      <c r="B14" s="97"/>
       <c r="C14" s="9">
         <v>3.5</v>
       </c>
@@ -5295,8 +5324,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="92"/>
-      <c r="B15" s="92"/>
+      <c r="A15" s="97"/>
+      <c r="B15" s="97"/>
       <c r="C15" s="9">
         <v>3.6</v>
       </c>
@@ -5317,8 +5346,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="92"/>
-      <c r="B16" s="92"/>
+      <c r="A16" s="97"/>
+      <c r="B16" s="97"/>
       <c r="C16" s="9">
         <v>3.7</v>
       </c>
@@ -5339,8 +5368,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="92"/>
-      <c r="B17" s="92"/>
+      <c r="A17" s="97"/>
+      <c r="B17" s="97"/>
       <c r="C17" s="9">
         <v>3.8</v>
       </c>
@@ -5361,8 +5390,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="92"/>
-      <c r="B18" s="92"/>
+      <c r="A18" s="97"/>
+      <c r="B18" s="97"/>
       <c r="C18" s="9">
         <v>3.9</v>
       </c>
@@ -5383,8 +5412,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="92"/>
-      <c r="B19" s="92"/>
+      <c r="A19" s="97"/>
+      <c r="B19" s="97"/>
       <c r="C19" s="9" t="s">
         <v>48</v>
       </c>
@@ -5405,10 +5434,10 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="92">
+      <c r="A20" s="97">
         <v>4</v>
       </c>
-      <c r="B20" s="94" t="s">
+      <c r="B20" s="95" t="s">
         <v>50</v>
       </c>
       <c r="C20" s="7">
@@ -5431,8 +5460,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="92"/>
-      <c r="B21" s="95"/>
+      <c r="A21" s="97"/>
+      <c r="B21" s="96"/>
       <c r="C21" s="7">
         <v>4.2</v>
       </c>
@@ -5453,8 +5482,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="92"/>
-      <c r="B22" s="95"/>
+      <c r="A22" s="97"/>
+      <c r="B22" s="96"/>
       <c r="C22" s="7">
         <v>4.3</v>
       </c>
@@ -5475,8 +5504,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="92"/>
-      <c r="B23" s="95"/>
+      <c r="A23" s="97"/>
+      <c r="B23" s="96"/>
       <c r="C23" s="7">
         <v>4.4000000000000004</v>
       </c>
@@ -5497,8 +5526,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="92"/>
-      <c r="B24" s="95"/>
+      <c r="A24" s="97"/>
+      <c r="B24" s="96"/>
       <c r="C24" s="7">
         <v>4.5</v>
       </c>
@@ -5519,8 +5548,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="92"/>
-      <c r="B25" s="95"/>
+      <c r="A25" s="97"/>
+      <c r="B25" s="96"/>
       <c r="C25" s="7">
         <v>4.5999999999999996</v>
       </c>
@@ -5541,10 +5570,10 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="92">
+      <c r="A26" s="97">
         <v>5</v>
       </c>
-      <c r="B26" s="92" t="s">
+      <c r="B26" s="97" t="s">
         <v>57</v>
       </c>
       <c r="C26" s="7">
@@ -5567,8 +5596,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="92"/>
-      <c r="B27" s="92"/>
+      <c r="A27" s="97"/>
+      <c r="B27" s="97"/>
       <c r="C27" s="7">
         <v>5.2</v>
       </c>
@@ -5589,8 +5618,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="92"/>
-      <c r="B28" s="92"/>
+      <c r="A28" s="97"/>
+      <c r="B28" s="97"/>
       <c r="C28" s="7">
         <v>5.3</v>
       </c>
@@ -5611,8 +5640,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="92"/>
-      <c r="B29" s="92"/>
+      <c r="A29" s="97"/>
+      <c r="B29" s="97"/>
       <c r="C29" s="7">
         <v>5.4</v>
       </c>
@@ -5633,8 +5662,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="92"/>
-      <c r="B30" s="92"/>
+      <c r="A30" s="97"/>
+      <c r="B30" s="97"/>
       <c r="C30" s="7">
         <v>5.5</v>
       </c>
@@ -5655,10 +5684,10 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="92">
+      <c r="A31" s="97">
         <v>6</v>
       </c>
-      <c r="B31" s="92" t="s">
+      <c r="B31" s="97" t="s">
         <v>63</v>
       </c>
       <c r="C31" s="7">
@@ -5681,8 +5710,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="92"/>
-      <c r="B32" s="92"/>
+      <c r="A32" s="97"/>
+      <c r="B32" s="97"/>
       <c r="C32" s="7">
         <v>6.2</v>
       </c>
@@ -5703,8 +5732,8 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="92"/>
-      <c r="B33" s="92"/>
+      <c r="A33" s="97"/>
+      <c r="B33" s="97"/>
       <c r="C33" s="7">
         <v>6.3</v>
       </c>
@@ -5725,8 +5754,8 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="92"/>
-      <c r="B34" s="92"/>
+      <c r="A34" s="97"/>
+      <c r="B34" s="97"/>
       <c r="C34" s="7">
         <v>6.4</v>
       </c>
@@ -5747,8 +5776,8 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" s="92"/>
-      <c r="B35" s="92"/>
+      <c r="A35" s="97"/>
+      <c r="B35" s="97"/>
       <c r="C35" s="7">
         <v>6.5</v>
       </c>
@@ -5769,8 +5798,8 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A36" s="92"/>
-      <c r="B36" s="92"/>
+      <c r="A36" s="97"/>
+      <c r="B36" s="97"/>
       <c r="C36" s="7">
         <v>6.6</v>
       </c>
@@ -5791,10 +5820,10 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" s="92">
+      <c r="A37" s="97">
         <v>7</v>
       </c>
-      <c r="B37" s="92" t="s">
+      <c r="B37" s="97" t="s">
         <v>154</v>
       </c>
       <c r="C37" s="7">
@@ -5817,8 +5846,8 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A38" s="92"/>
-      <c r="B38" s="92"/>
+      <c r="A38" s="97"/>
+      <c r="B38" s="97"/>
       <c r="C38" s="7">
         <v>7.2</v>
       </c>
@@ -5839,8 +5868,8 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A39" s="92"/>
-      <c r="B39" s="92"/>
+      <c r="A39" s="97"/>
+      <c r="B39" s="97"/>
       <c r="C39" s="7">
         <v>7.3</v>
       </c>
@@ -5861,8 +5890,8 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A40" s="92"/>
-      <c r="B40" s="92"/>
+      <c r="A40" s="97"/>
+      <c r="B40" s="97"/>
       <c r="C40" s="7">
         <v>7.4</v>
       </c>
@@ -5883,8 +5912,8 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A41" s="92"/>
-      <c r="B41" s="92"/>
+      <c r="A41" s="97"/>
+      <c r="B41" s="97"/>
       <c r="C41" s="7">
         <v>7.5</v>
       </c>
@@ -5906,6 +5935,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="A31:A36"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="A20:A25"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="B20:B25"/>
     <mergeCell ref="B26:B30"/>
@@ -5916,11 +5950,6 @@
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="B10:B19"/>
     <mergeCell ref="A10:A19"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="A31:A36"/>
-    <mergeCell ref="B31:B36"/>
-    <mergeCell ref="A20:A25"/>
   </mergeCells>
   <conditionalFormatting sqref="E3 E4:H30">
     <cfRule type="cellIs" dxfId="159" priority="217" operator="equal">
@@ -6504,10 +6533,10 @@
   <dimension ref="A1:BF50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="W30" sqref="W30"/>
+      <selection pane="bottomRight" activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6522,60 +6551,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="102"/>
-      <c r="B1" s="102"/>
-      <c r="C1" s="104" t="s">
+      <c r="A1" s="104"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="106" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="97" t="s">
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="99" t="s">
         <v>67</v>
       </c>
-      <c r="Q1" s="98"/>
-      <c r="R1" s="98"/>
-      <c r="S1" s="98"/>
-      <c r="T1" s="98"/>
-      <c r="U1" s="98"/>
-      <c r="V1" s="98"/>
-      <c r="W1" s="98"/>
-      <c r="X1" s="98"/>
-      <c r="Y1" s="98"/>
-      <c r="Z1" s="98"/>
-      <c r="AA1" s="98"/>
-      <c r="AB1" s="98"/>
-      <c r="AC1" s="98"/>
-      <c r="AD1" s="98"/>
-      <c r="AE1" s="98"/>
-      <c r="AF1" s="98"/>
-      <c r="AG1" s="98"/>
-      <c r="AH1" s="98"/>
-      <c r="AI1" s="98"/>
-      <c r="AJ1" s="98"/>
-      <c r="AK1" s="98"/>
-      <c r="AL1" s="98"/>
-      <c r="AM1" s="98"/>
-      <c r="AN1" s="98"/>
-      <c r="AO1" s="98"/>
-      <c r="AP1" s="98"/>
-      <c r="AQ1" s="98"/>
-      <c r="AR1" s="98"/>
-      <c r="AS1" s="98"/>
-      <c r="AT1" s="99"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
+      <c r="U1" s="100"/>
+      <c r="V1" s="100"/>
+      <c r="W1" s="100"/>
+      <c r="X1" s="100"/>
+      <c r="Y1" s="100"/>
+      <c r="Z1" s="100"/>
+      <c r="AA1" s="100"/>
+      <c r="AB1" s="100"/>
+      <c r="AC1" s="100"/>
+      <c r="AD1" s="100"/>
+      <c r="AE1" s="100"/>
+      <c r="AF1" s="100"/>
+      <c r="AG1" s="100"/>
+      <c r="AH1" s="100"/>
+      <c r="AI1" s="100"/>
+      <c r="AJ1" s="100"/>
+      <c r="AK1" s="100"/>
+      <c r="AL1" s="100"/>
+      <c r="AM1" s="100"/>
+      <c r="AN1" s="100"/>
+      <c r="AO1" s="100"/>
+      <c r="AP1" s="100"/>
+      <c r="AQ1" s="100"/>
+      <c r="AR1" s="100"/>
+      <c r="AS1" s="100"/>
+      <c r="AT1" s="101"/>
     </row>
     <row r="2" spans="1:58" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="103"/>
-      <c r="B2" s="103"/>
+      <c r="A2" s="105"/>
+      <c r="B2" s="105"/>
       <c r="C2" s="16">
         <v>18</v>
       </c>
@@ -6728,9 +6757,9 @@
       <c r="B3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="100"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
@@ -9240,13 +9269,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CD26"/>
+  <dimension ref="A1:CD28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="U29" sqref="U29"/>
+      <selection pane="bottomRight" activeCell="Y20" sqref="Y20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9262,91 +9291,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:82" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="109" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="108" t="s">
+      <c r="B1" s="109"/>
+      <c r="C1" s="110" t="s">
         <v>187</v>
       </c>
-      <c r="D1" s="105" t="s">
+      <c r="D1" s="107" t="s">
         <v>172</v>
       </c>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="105"/>
-      <c r="N1" s="105"/>
-      <c r="O1" s="105"/>
-      <c r="P1" s="105"/>
-      <c r="Q1" s="105"/>
-      <c r="R1" s="105"/>
-      <c r="S1" s="105"/>
-      <c r="T1" s="105"/>
-      <c r="U1" s="105"/>
-      <c r="V1" s="105"/>
-      <c r="W1" s="105"/>
-      <c r="X1" s="105"/>
-      <c r="Y1" s="105"/>
-      <c r="Z1" s="105"/>
-      <c r="AA1" s="106" t="s">
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" s="107"/>
+      <c r="S1" s="107"/>
+      <c r="T1" s="107"/>
+      <c r="U1" s="107"/>
+      <c r="V1" s="107"/>
+      <c r="W1" s="107"/>
+      <c r="X1" s="107"/>
+      <c r="Y1" s="107"/>
+      <c r="Z1" s="107"/>
+      <c r="AA1" s="108" t="s">
         <v>173</v>
       </c>
-      <c r="AB1" s="106"/>
-      <c r="AC1" s="106"/>
-      <c r="AD1" s="106"/>
-      <c r="AE1" s="106"/>
-      <c r="AF1" s="106"/>
-      <c r="AG1" s="106"/>
-      <c r="AH1" s="106"/>
-      <c r="AI1" s="106"/>
-      <c r="AJ1" s="106"/>
-      <c r="AK1" s="106"/>
-      <c r="AL1" s="106"/>
-      <c r="AM1" s="106"/>
-      <c r="AN1" s="106"/>
-      <c r="AO1" s="106"/>
-      <c r="AP1" s="106"/>
-      <c r="AQ1" s="106"/>
-      <c r="AR1" s="106"/>
-      <c r="AS1" s="106"/>
-      <c r="AT1" s="106"/>
-      <c r="AU1" s="106"/>
-      <c r="AV1" s="106"/>
-      <c r="AW1" s="106"/>
-      <c r="AX1" s="106"/>
-      <c r="AY1" s="106"/>
-      <c r="AZ1" s="106"/>
-      <c r="BA1" s="106"/>
-      <c r="BB1" s="106"/>
-      <c r="BC1" s="106"/>
-      <c r="BD1" s="106"/>
-      <c r="BE1" s="106" t="s">
+      <c r="AB1" s="108"/>
+      <c r="AC1" s="108"/>
+      <c r="AD1" s="108"/>
+      <c r="AE1" s="108"/>
+      <c r="AF1" s="108"/>
+      <c r="AG1" s="108"/>
+      <c r="AH1" s="108"/>
+      <c r="AI1" s="108"/>
+      <c r="AJ1" s="108"/>
+      <c r="AK1" s="108"/>
+      <c r="AL1" s="108"/>
+      <c r="AM1" s="108"/>
+      <c r="AN1" s="108"/>
+      <c r="AO1" s="108"/>
+      <c r="AP1" s="108"/>
+      <c r="AQ1" s="108"/>
+      <c r="AR1" s="108"/>
+      <c r="AS1" s="108"/>
+      <c r="AT1" s="108"/>
+      <c r="AU1" s="108"/>
+      <c r="AV1" s="108"/>
+      <c r="AW1" s="108"/>
+      <c r="AX1" s="108"/>
+      <c r="AY1" s="108"/>
+      <c r="AZ1" s="108"/>
+      <c r="BA1" s="108"/>
+      <c r="BB1" s="108"/>
+      <c r="BC1" s="108"/>
+      <c r="BD1" s="108"/>
+      <c r="BE1" s="108" t="s">
         <v>188</v>
       </c>
-      <c r="BF1" s="106"/>
-      <c r="BG1" s="106"/>
-      <c r="BH1" s="106"/>
-      <c r="BI1" s="106"/>
-      <c r="BJ1" s="106"/>
-      <c r="BK1" s="106"/>
-      <c r="BL1" s="106"/>
-      <c r="BM1" s="106"/>
-      <c r="BN1" s="106"/>
-      <c r="BO1" s="106"/>
-      <c r="BP1" s="106"/>
-      <c r="BQ1" s="106"/>
-      <c r="BR1" s="106"/>
+      <c r="BF1" s="108"/>
+      <c r="BG1" s="108"/>
+      <c r="BH1" s="108"/>
+      <c r="BI1" s="108"/>
+      <c r="BJ1" s="108"/>
+      <c r="BK1" s="108"/>
+      <c r="BL1" s="108"/>
+      <c r="BM1" s="108"/>
+      <c r="BN1" s="108"/>
+      <c r="BO1" s="108"/>
+      <c r="BP1" s="108"/>
+      <c r="BQ1" s="108"/>
+      <c r="BR1" s="108"/>
     </row>
     <row r="2" spans="1:82" s="55" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="107"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="108"/>
+      <c r="A2" s="109"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="110"/>
       <c r="D2" s="51">
         <v>41707</v>
       </c>
@@ -9858,16 +9887,16 @@
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
       <c r="J6" s="19"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="48"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
+      <c r="K6" s="111"/>
+      <c r="L6" s="111"/>
+      <c r="M6" s="111"/>
+      <c r="N6" s="111"/>
+      <c r="O6" s="111"/>
+      <c r="P6" s="111"/>
+      <c r="Q6" s="111"/>
+      <c r="R6" s="112"/>
+      <c r="S6" s="112"/>
+      <c r="T6" s="112"/>
       <c r="U6" s="19"/>
       <c r="V6" s="19"/>
       <c r="W6" s="19"/>
@@ -9893,6 +9922,9 @@
       <c r="AQ6" s="19"/>
       <c r="AR6" s="19"/>
       <c r="AS6" s="19"/>
+      <c r="AT6" s="19"/>
+      <c r="AU6" s="19"/>
+      <c r="AV6" s="19"/>
       <c r="BN6" s="19"/>
       <c r="BO6" s="19"/>
       <c r="BP6" s="19"/>
@@ -9904,32 +9936,30 @@
       </c>
     </row>
     <row r="7" spans="1:82" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A7" s="7">
-        <v>7.5</v>
+      <c r="A7" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C7" s="45">
-        <v>4</v>
-      </c>
-      <c r="D7" s="56"/>
+        <v>189</v>
+      </c>
+      <c r="C7" s="45"/>
+      <c r="D7" s="21"/>
       <c r="E7" s="21"/>
-      <c r="F7" s="109"/>
+      <c r="F7" s="21"/>
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
       <c r="J7" s="19"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="27"/>
       <c r="U7" s="19"/>
       <c r="V7" s="19"/>
       <c r="W7" s="19"/>
@@ -9955,36 +9985,41 @@
       <c r="AQ7" s="19"/>
       <c r="AR7" s="19"/>
       <c r="AS7" s="19"/>
+      <c r="AT7" s="19"/>
+      <c r="AU7" s="19"/>
+      <c r="AV7" s="19"/>
       <c r="BN7" s="19"/>
       <c r="BO7" s="19"/>
       <c r="BP7" s="19"/>
       <c r="BQ7" s="19"/>
       <c r="BR7" s="19"/>
+      <c r="BS7" s="113"/>
+      <c r="BT7" s="57"/>
     </row>
     <row r="8" spans="1:82" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A8" s="9">
-        <v>3.7</v>
+      <c r="A8" s="7">
+        <v>7.5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C8" s="45">
         <v>4</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="109"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="19"/>
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
       <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
       <c r="R8" s="19"/>
       <c r="S8" s="19"/>
       <c r="T8" s="19"/>
@@ -10013,6 +10048,9 @@
       <c r="AQ8" s="19"/>
       <c r="AR8" s="19"/>
       <c r="AS8" s="19"/>
+      <c r="AT8" s="19"/>
+      <c r="AU8" s="19"/>
+      <c r="AV8" s="19"/>
       <c r="BN8" s="19"/>
       <c r="BO8" s="19"/>
       <c r="BP8" s="19"/>
@@ -10020,11 +10058,11 @@
       <c r="BR8" s="19"/>
     </row>
     <row r="9" spans="1:82" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A9" s="7">
-        <v>4.3</v>
+      <c r="A9" s="9">
+        <v>3.7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C9" s="45">
         <v>4</v>
@@ -10032,11 +10070,11 @@
       <c r="D9" s="20"/>
       <c r="E9" s="56"/>
       <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="18"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="19"/>
       <c r="I9" s="19"/>
       <c r="J9" s="19"/>
-      <c r="K9" s="18"/>
+      <c r="K9" s="19"/>
       <c r="L9" s="19"/>
       <c r="M9" s="19"/>
       <c r="N9" s="19"/>
@@ -10071,6 +10109,9 @@
       <c r="AQ9" s="19"/>
       <c r="AR9" s="19"/>
       <c r="AS9" s="19"/>
+      <c r="AT9" s="19"/>
+      <c r="AU9" s="19"/>
+      <c r="AV9" s="19"/>
       <c r="BN9" s="19"/>
       <c r="BO9" s="19"/>
       <c r="BP9" s="19"/>
@@ -10079,28 +10120,28 @@
     </row>
     <row r="10" spans="1:82" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
-        <v>5.2</v>
+        <v>4.3</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C10" s="45">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D10" s="20"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="109"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="18"/>
       <c r="I10" s="19"/>
       <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
+      <c r="K10" s="18"/>
       <c r="L10" s="19"/>
       <c r="M10" s="19"/>
       <c r="N10" s="19"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
       <c r="R10" s="19"/>
       <c r="S10" s="19"/>
       <c r="T10" s="19"/>
@@ -10129,6 +10170,9 @@
       <c r="AQ10" s="19"/>
       <c r="AR10" s="19"/>
       <c r="AS10" s="19"/>
+      <c r="AT10" s="19"/>
+      <c r="AU10" s="19"/>
+      <c r="AV10" s="19"/>
       <c r="BN10" s="19"/>
       <c r="BO10" s="19"/>
       <c r="BP10" s="19"/>
@@ -10140,25 +10184,25 @@
         <v>5.2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C11" s="45">
         <v>12</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="21"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="110"/>
-      <c r="K11" s="109"/>
-      <c r="L11" s="109"/>
-      <c r="M11" s="109"/>
-      <c r="N11" s="109"/>
-      <c r="O11" s="109"/>
-      <c r="P11" s="109"/>
-      <c r="Q11" s="19"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
       <c r="R11" s="19"/>
       <c r="S11" s="19"/>
       <c r="T11" s="19"/>
@@ -10187,6 +10231,9 @@
       <c r="AQ11" s="19"/>
       <c r="AR11" s="19"/>
       <c r="AS11" s="19"/>
+      <c r="AT11" s="19"/>
+      <c r="AU11" s="19"/>
+      <c r="AV11" s="19"/>
       <c r="BN11" s="19"/>
       <c r="BO11" s="19"/>
       <c r="BP11" s="19"/>
@@ -10194,28 +10241,28 @@
       <c r="BR11" s="19"/>
     </row>
     <row r="12" spans="1:82" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A12" s="9">
-        <v>3.7</v>
+      <c r="A12" s="7">
+        <v>5.2</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C12" s="45">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="21"/>
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="57"/>
       <c r="Q12" s="19"/>
       <c r="R12" s="19"/>
       <c r="S12" s="19"/>
@@ -10245,6 +10292,9 @@
       <c r="AQ12" s="19"/>
       <c r="AR12" s="19"/>
       <c r="AS12" s="19"/>
+      <c r="AT12" s="19"/>
+      <c r="AU12" s="19"/>
+      <c r="AV12" s="19"/>
       <c r="BN12" s="19"/>
       <c r="BO12" s="19"/>
       <c r="BP12" s="19"/>
@@ -10252,11 +10302,11 @@
       <c r="BR12" s="19"/>
     </row>
     <row r="13" spans="1:82" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A13" s="7">
-        <v>4.3</v>
+      <c r="A13" s="9">
+        <v>3.7</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C13" s="45">
         <v>4</v>
@@ -10268,14 +10318,14 @@
       <c r="H13" s="19"/>
       <c r="I13" s="19"/>
       <c r="J13" s="19"/>
-      <c r="K13" s="48"/>
+      <c r="K13" s="58"/>
       <c r="L13" s="19"/>
       <c r="M13" s="19"/>
       <c r="N13" s="19"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="109"/>
-      <c r="R13" s="18"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
       <c r="S13" s="19"/>
       <c r="T13" s="19"/>
       <c r="U13" s="19"/>
@@ -10303,6 +10353,9 @@
       <c r="AQ13" s="19"/>
       <c r="AR13" s="19"/>
       <c r="AS13" s="19"/>
+      <c r="AT13" s="19"/>
+      <c r="AU13" s="19"/>
+      <c r="AV13" s="19"/>
       <c r="BN13" s="19"/>
       <c r="BO13" s="19"/>
       <c r="BP13" s="19"/>
@@ -10311,13 +10364,13 @@
     </row>
     <row r="14" spans="1:82" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
-        <v>5.2</v>
+        <v>4.3</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C14" s="45">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="21"/>
@@ -10326,17 +10379,17 @@
       <c r="H14" s="19"/>
       <c r="I14" s="19"/>
       <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="57"/>
       <c r="R14" s="19"/>
       <c r="S14" s="19"/>
       <c r="T14" s="19"/>
-      <c r="U14" s="19"/>
+      <c r="U14" s="18"/>
       <c r="V14" s="19"/>
       <c r="W14" s="19"/>
       <c r="X14" s="19"/>
@@ -10361,6 +10414,9 @@
       <c r="AQ14" s="19"/>
       <c r="AR14" s="19"/>
       <c r="AS14" s="19"/>
+      <c r="AT14" s="19"/>
+      <c r="AU14" s="19"/>
+      <c r="AV14" s="19"/>
       <c r="BN14" s="19"/>
       <c r="BO14" s="19"/>
       <c r="BP14" s="19"/>
@@ -10372,7 +10428,7 @@
         <v>5.2</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C15" s="45">
         <v>12</v>
@@ -10385,12 +10441,12 @@
       <c r="I15" s="19"/>
       <c r="J15" s="19"/>
       <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="48"/>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="48"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
       <c r="R15" s="19"/>
       <c r="S15" s="19"/>
       <c r="T15" s="19"/>
@@ -10419,6 +10475,9 @@
       <c r="AQ15" s="19"/>
       <c r="AR15" s="19"/>
       <c r="AS15" s="19"/>
+      <c r="AT15" s="19"/>
+      <c r="AU15" s="19"/>
+      <c r="AV15" s="19"/>
       <c r="BN15" s="19"/>
       <c r="BO15" s="19"/>
       <c r="BP15" s="19"/>
@@ -10426,11 +10485,11 @@
       <c r="BR15" s="19"/>
     </row>
     <row r="16" spans="1:82" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A16" s="9">
-        <v>3.8</v>
+      <c r="A16" s="7">
+        <v>5.2</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="C16" s="45">
         <v>12</v>
@@ -10439,16 +10498,16 @@
       <c r="E16" s="21"/>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
       <c r="K16" s="19"/>
       <c r="L16" s="19"/>
       <c r="M16" s="19"/>
       <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
+      <c r="O16" s="58"/>
+      <c r="P16" s="58"/>
+      <c r="Q16" s="58"/>
       <c r="R16" s="19"/>
       <c r="S16" s="19"/>
       <c r="T16" s="19"/>
@@ -10477,6 +10536,9 @@
       <c r="AQ16" s="19"/>
       <c r="AR16" s="19"/>
       <c r="AS16" s="19"/>
+      <c r="AT16" s="19"/>
+      <c r="AU16" s="19"/>
+      <c r="AV16" s="19"/>
       <c r="BN16" s="19"/>
       <c r="BO16" s="19"/>
       <c r="BP16" s="19"/>
@@ -10484,11 +10546,11 @@
       <c r="BR16" s="19"/>
     </row>
     <row r="17" spans="1:70" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A17" s="7">
-        <v>4.4000000000000004</v>
+      <c r="A17" s="9">
+        <v>3.8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C17" s="45">
         <v>12</v>
@@ -10497,20 +10559,20 @@
       <c r="E17" s="21"/>
       <c r="F17" s="19"/>
       <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="48"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
       <c r="N17" s="19"/>
       <c r="O17" s="19"/>
       <c r="P17" s="19"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="109"/>
-      <c r="S17" s="109"/>
-      <c r="T17" s="109"/>
-      <c r="U17" s="18"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
       <c r="V17" s="19"/>
       <c r="W17" s="19"/>
       <c r="X17" s="19"/>
@@ -10535,6 +10597,9 @@
       <c r="AQ17" s="19"/>
       <c r="AR17" s="19"/>
       <c r="AS17" s="19"/>
+      <c r="AT17" s="19"/>
+      <c r="AU17" s="19"/>
+      <c r="AV17" s="19"/>
       <c r="BN17" s="19"/>
       <c r="BO17" s="19"/>
       <c r="BP17" s="19"/>
@@ -10543,13 +10608,13 @@
     </row>
     <row r="18" spans="1:70" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A18" s="7">
-        <v>5.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C18" s="45">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="D18" s="20"/>
       <c r="E18" s="21"/>
@@ -10561,18 +10626,18 @@
       <c r="K18" s="48"/>
       <c r="L18" s="48"/>
       <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="48"/>
-      <c r="R18" s="48"/>
-      <c r="S18" s="48"/>
-      <c r="T18" s="48"/>
-      <c r="U18" s="48"/>
-      <c r="V18" s="48"/>
-      <c r="W18" s="48"/>
-      <c r="X18" s="48"/>
-      <c r="Y18" s="47"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="57"/>
+      <c r="V18" s="57"/>
+      <c r="W18" s="57"/>
+      <c r="X18" s="18"/>
+      <c r="Y18" s="19"/>
       <c r="Z18" s="19"/>
       <c r="AA18" s="19"/>
       <c r="AB18" s="19"/>
@@ -10593,6 +10658,9 @@
       <c r="AQ18" s="19"/>
       <c r="AR18" s="19"/>
       <c r="AS18" s="19"/>
+      <c r="AT18" s="19"/>
+      <c r="AU18" s="19"/>
+      <c r="AV18" s="19"/>
       <c r="BN18" s="19"/>
       <c r="BO18" s="19"/>
       <c r="BP18" s="19"/>
@@ -10600,14 +10668,14 @@
       <c r="BR18" s="19"/>
     </row>
     <row r="19" spans="1:70" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A19" s="9">
-        <v>3.9</v>
+      <c r="A19" s="7">
+        <v>5.3</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="C19" s="45">
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="D19" s="20"/>
       <c r="E19" s="21"/>
@@ -10616,24 +10684,24 @@
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="58"/>
+      <c r="O19" s="58"/>
+      <c r="P19" s="58"/>
+      <c r="Q19" s="58"/>
       <c r="R19" s="19"/>
       <c r="S19" s="19"/>
       <c r="T19" s="19"/>
-      <c r="U19" s="19"/>
-      <c r="V19" s="19"/>
-      <c r="W19" s="19"/>
-      <c r="X19" s="19"/>
+      <c r="U19" s="48"/>
+      <c r="V19" s="48"/>
+      <c r="W19" s="48"/>
+      <c r="X19" s="48"/>
       <c r="Y19" s="48"/>
       <c r="Z19" s="48"/>
-      <c r="AA19" s="19"/>
-      <c r="AB19" s="19"/>
+      <c r="AA19" s="48"/>
+      <c r="AB19" s="47"/>
       <c r="AC19" s="19"/>
       <c r="AD19" s="19"/>
       <c r="AE19" s="19"/>
@@ -10651,6 +10719,9 @@
       <c r="AQ19" s="19"/>
       <c r="AR19" s="19"/>
       <c r="AS19" s="19"/>
+      <c r="AT19" s="19"/>
+      <c r="AU19" s="19"/>
+      <c r="AV19" s="19"/>
       <c r="BN19" s="19"/>
       <c r="BO19" s="19"/>
       <c r="BP19" s="19"/>
@@ -10658,15 +10729,13 @@
       <c r="BR19" s="19"/>
     </row>
     <row r="20" spans="1:70" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A20" s="7">
-        <v>4.5</v>
+      <c r="A20" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C20" s="45">
-        <v>8</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="C20" s="45"/>
       <c r="D20" s="20"/>
       <c r="E20" s="21"/>
       <c r="F20" s="19"/>
@@ -10688,10 +10757,10 @@
       <c r="V20" s="19"/>
       <c r="W20" s="19"/>
       <c r="X20" s="19"/>
-      <c r="Y20" s="48"/>
-      <c r="Z20" s="48"/>
+      <c r="Y20" s="27"/>
+      <c r="Z20" s="19"/>
       <c r="AA20" s="19"/>
-      <c r="AB20" s="19"/>
+      <c r="AB20" s="47"/>
       <c r="AC20" s="19"/>
       <c r="AD20" s="19"/>
       <c r="AE20" s="19"/>
@@ -10709,6 +10778,9 @@
       <c r="AQ20" s="19"/>
       <c r="AR20" s="19"/>
       <c r="AS20" s="19"/>
+      <c r="AT20" s="19"/>
+      <c r="AU20" s="19"/>
+      <c r="AV20" s="19"/>
       <c r="BN20" s="19"/>
       <c r="BO20" s="19"/>
       <c r="BP20" s="19"/>
@@ -10716,14 +10788,14 @@
       <c r="BR20" s="19"/>
     </row>
     <row r="21" spans="1:70" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A21" s="7">
-        <v>5.4</v>
+      <c r="A21" s="9">
+        <v>3.9</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C21" s="45">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="D21" s="20"/>
       <c r="E21" s="21"/>
@@ -10735,7 +10807,7 @@
       <c r="K21" s="19"/>
       <c r="L21" s="19"/>
       <c r="M21" s="19"/>
-      <c r="N21" s="109"/>
+      <c r="N21" s="19"/>
       <c r="O21" s="19"/>
       <c r="P21" s="19"/>
       <c r="Q21" s="19"/>
@@ -10748,16 +10820,16 @@
       <c r="X21" s="19"/>
       <c r="Y21" s="19"/>
       <c r="Z21" s="19"/>
-      <c r="AA21" s="48"/>
+      <c r="AA21" s="19"/>
       <c r="AB21" s="48"/>
       <c r="AC21" s="48"/>
-      <c r="AD21" s="48"/>
-      <c r="AE21" s="48"/>
-      <c r="AF21" s="48"/>
-      <c r="AG21" s="48"/>
-      <c r="AH21" s="48"/>
-      <c r="AI21" s="48"/>
-      <c r="AJ21" s="48"/>
+      <c r="AD21" s="19"/>
+      <c r="AE21" s="19"/>
+      <c r="AF21" s="19"/>
+      <c r="AG21" s="19"/>
+      <c r="AH21" s="19"/>
+      <c r="AI21" s="19"/>
+      <c r="AJ21" s="19"/>
       <c r="AK21" s="19"/>
       <c r="AL21" s="19"/>
       <c r="AM21" s="19"/>
@@ -10767,6 +10839,9 @@
       <c r="AQ21" s="19"/>
       <c r="AR21" s="19"/>
       <c r="AS21" s="19"/>
+      <c r="AT21" s="19"/>
+      <c r="AU21" s="19"/>
+      <c r="AV21" s="19"/>
       <c r="BN21" s="19"/>
       <c r="BO21" s="19"/>
       <c r="BP21" s="19"/>
@@ -10774,11 +10849,11 @@
       <c r="BR21" s="19"/>
     </row>
     <row r="22" spans="1:70" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A22" s="9" t="s">
-        <v>48</v>
+      <c r="A22" s="7">
+        <v>4.5</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="C22" s="45">
         <v>8</v>
@@ -10807,13 +10882,13 @@
       <c r="Y22" s="19"/>
       <c r="Z22" s="19"/>
       <c r="AA22" s="19"/>
-      <c r="AB22" s="19"/>
-      <c r="AC22" s="19"/>
+      <c r="AB22" s="48"/>
+      <c r="AC22" s="48"/>
       <c r="AD22" s="19"/>
       <c r="AE22" s="19"/>
       <c r="AF22" s="19"/>
-      <c r="AG22" s="48"/>
-      <c r="AH22" s="48"/>
+      <c r="AG22" s="19"/>
+      <c r="AH22" s="19"/>
       <c r="AI22" s="19"/>
       <c r="AJ22" s="19"/>
       <c r="AK22" s="19"/>
@@ -10825,6 +10900,9 @@
       <c r="AQ22" s="19"/>
       <c r="AR22" s="19"/>
       <c r="AS22" s="19"/>
+      <c r="AT22" s="19"/>
+      <c r="AU22" s="19"/>
+      <c r="AV22" s="19"/>
       <c r="BN22" s="19"/>
       <c r="BO22" s="19"/>
       <c r="BP22" s="19"/>
@@ -10833,71 +10911,74 @@
     </row>
     <row r="23" spans="1:70" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A23" s="7">
-        <v>4.5999999999999996</v>
+        <v>5.4</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C23" s="46">
-        <v>8</v>
-      </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="18"/>
-      <c r="S23" s="18"/>
-      <c r="T23" s="18"/>
-      <c r="U23" s="18"/>
-      <c r="V23" s="18"/>
-      <c r="W23" s="18"/>
-      <c r="X23" s="18"/>
-      <c r="Y23" s="18"/>
-      <c r="Z23" s="18"/>
-      <c r="AA23" s="18"/>
-      <c r="AB23" s="18"/>
-      <c r="AC23" s="18"/>
-      <c r="AD23" s="18"/>
-      <c r="AE23" s="18"/>
-      <c r="AF23" s="18"/>
+        <v>185</v>
+      </c>
+      <c r="C23" s="45">
+        <v>64</v>
+      </c>
+      <c r="D23" s="20"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="57"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="19"/>
+      <c r="V23" s="19"/>
+      <c r="W23" s="19"/>
+      <c r="X23" s="19"/>
+      <c r="Y23" s="19"/>
+      <c r="Z23" s="19"/>
+      <c r="AA23" s="19"/>
+      <c r="AB23" s="19"/>
+      <c r="AC23" s="19"/>
+      <c r="AD23" s="48"/>
+      <c r="AE23" s="48"/>
+      <c r="AF23" s="48"/>
       <c r="AG23" s="48"/>
       <c r="AH23" s="48"/>
-      <c r="AI23" s="18"/>
-      <c r="AJ23" s="18"/>
-      <c r="AK23" s="18"/>
-      <c r="AL23" s="18"/>
-      <c r="AM23" s="18"/>
-      <c r="AN23" s="18"/>
-      <c r="AO23" s="18"/>
-      <c r="AP23" s="18"/>
-      <c r="AQ23" s="18"/>
-      <c r="AR23" s="18"/>
-      <c r="AS23" s="18"/>
-      <c r="BN23" s="18"/>
-      <c r="BO23" s="18"/>
-      <c r="BP23" s="18"/>
-      <c r="BQ23" s="18"/>
+      <c r="AI23" s="48"/>
+      <c r="AJ23" s="48"/>
+      <c r="AK23" s="48"/>
+      <c r="AL23" s="48"/>
+      <c r="AM23" s="48"/>
+      <c r="AN23" s="19"/>
+      <c r="AO23" s="19"/>
+      <c r="AP23" s="19"/>
+      <c r="AQ23" s="19"/>
+      <c r="AR23" s="19"/>
+      <c r="AS23" s="19"/>
+      <c r="AT23" s="19"/>
+      <c r="AU23" s="19"/>
+      <c r="AV23" s="19"/>
+      <c r="BN23" s="19"/>
+      <c r="BO23" s="19"/>
+      <c r="BP23" s="19"/>
+      <c r="BQ23" s="19"/>
       <c r="BR23" s="19"/>
     </row>
     <row r="24" spans="1:70" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A24" s="7">
-        <v>5.5</v>
+      <c r="A24" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C24" s="45">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="D24" s="20"/>
       <c r="E24" s="21"/>
@@ -10930,17 +11011,20 @@
       <c r="AF24" s="19"/>
       <c r="AG24" s="19"/>
       <c r="AH24" s="19"/>
-      <c r="AI24" s="48"/>
+      <c r="AI24" s="19"/>
       <c r="AJ24" s="48"/>
       <c r="AK24" s="48"/>
-      <c r="AL24" s="48"/>
-      <c r="AM24" s="48"/>
-      <c r="AN24" s="109"/>
-      <c r="AO24" s="109"/>
+      <c r="AL24" s="19"/>
+      <c r="AM24" s="19"/>
+      <c r="AN24" s="19"/>
+      <c r="AO24" s="19"/>
       <c r="AP24" s="19"/>
       <c r="AQ24" s="19"/>
       <c r="AR24" s="19"/>
       <c r="AS24" s="19"/>
+      <c r="AT24" s="19"/>
+      <c r="AU24" s="19"/>
+      <c r="AV24" s="19"/>
       <c r="BN24" s="19"/>
       <c r="BO24" s="19"/>
       <c r="BP24" s="19"/>
@@ -10949,71 +11033,74 @@
     </row>
     <row r="25" spans="1:70" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A25" s="7">
-        <v>6.3</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" s="45">
-        <v>16</v>
-      </c>
-      <c r="D25" s="20"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="19"/>
+        <v>168</v>
+      </c>
+      <c r="C25" s="46">
+        <v>8</v>
+      </c>
+      <c r="D25" s="17"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
       <c r="R25" s="19"/>
       <c r="S25" s="19"/>
       <c r="T25" s="19"/>
-      <c r="U25" s="19"/>
-      <c r="V25" s="19"/>
-      <c r="W25" s="19"/>
-      <c r="X25" s="19"/>
-      <c r="Y25" s="19"/>
-      <c r="Z25" s="19"/>
-      <c r="AA25" s="19"/>
-      <c r="AB25" s="19"/>
-      <c r="AC25" s="19"/>
-      <c r="AD25" s="19"/>
-      <c r="AE25" s="19"/>
-      <c r="AF25" s="19"/>
-      <c r="AG25" s="19"/>
-      <c r="AH25" s="19"/>
-      <c r="AI25" s="19"/>
-      <c r="AJ25" s="19"/>
-      <c r="AK25" s="19"/>
-      <c r="AL25" s="19"/>
-      <c r="AM25" s="19"/>
-      <c r="AN25" s="48"/>
-      <c r="AO25" s="48"/>
-      <c r="AP25" s="48"/>
-      <c r="AQ25" s="48"/>
-      <c r="AR25" s="109"/>
-      <c r="AS25" s="109"/>
-      <c r="BN25" s="50"/>
-      <c r="BO25" s="50"/>
-      <c r="BP25" s="50"/>
-      <c r="BQ25" s="50"/>
+      <c r="U25" s="18"/>
+      <c r="V25" s="18"/>
+      <c r="W25" s="18"/>
+      <c r="X25" s="18"/>
+      <c r="Y25" s="18"/>
+      <c r="Z25" s="18"/>
+      <c r="AA25" s="18"/>
+      <c r="AB25" s="18"/>
+      <c r="AC25" s="18"/>
+      <c r="AD25" s="18"/>
+      <c r="AE25" s="18"/>
+      <c r="AF25" s="18"/>
+      <c r="AG25" s="18"/>
+      <c r="AH25" s="18"/>
+      <c r="AI25" s="18"/>
+      <c r="AJ25" s="48"/>
+      <c r="AK25" s="48"/>
+      <c r="AL25" s="18"/>
+      <c r="AM25" s="18"/>
+      <c r="AN25" s="18"/>
+      <c r="AO25" s="18"/>
+      <c r="AP25" s="18"/>
+      <c r="AQ25" s="18"/>
+      <c r="AR25" s="18"/>
+      <c r="AS25" s="18"/>
+      <c r="AT25" s="18"/>
+      <c r="AU25" s="18"/>
+      <c r="AV25" s="18"/>
+      <c r="BN25" s="18"/>
+      <c r="BO25" s="18"/>
+      <c r="BP25" s="18"/>
+      <c r="BQ25" s="18"/>
       <c r="BR25" s="19"/>
     </row>
     <row r="26" spans="1:70" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A26" s="7">
-        <v>6.6</v>
+        <v>5.5</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>85</v>
+        <v>169</v>
       </c>
       <c r="C26" s="45">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="D26" s="20"/>
       <c r="E26" s="21"/>
@@ -11049,19 +11136,144 @@
       <c r="AI26" s="19"/>
       <c r="AJ26" s="19"/>
       <c r="AK26" s="19"/>
-      <c r="AL26" s="19"/>
-      <c r="AM26" s="19"/>
-      <c r="AN26" s="19"/>
-      <c r="AO26" s="19"/>
-      <c r="AP26" s="19"/>
-      <c r="AQ26" s="19"/>
-      <c r="AR26" s="48"/>
-      <c r="AS26" s="48"/>
+      <c r="AL26" s="48"/>
+      <c r="AM26" s="48"/>
+      <c r="AN26" s="48"/>
+      <c r="AO26" s="48"/>
+      <c r="AP26" s="48"/>
+      <c r="AQ26" s="57"/>
+      <c r="AR26" s="57"/>
+      <c r="AS26" s="19"/>
+      <c r="AT26" s="19"/>
+      <c r="AU26" s="19"/>
+      <c r="AV26" s="19"/>
       <c r="BN26" s="19"/>
       <c r="BO26" s="19"/>
       <c r="BP26" s="19"/>
       <c r="BQ26" s="19"/>
       <c r="BR26" s="19"/>
+    </row>
+    <row r="27" spans="1:70" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A27" s="7">
+        <v>6.3</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="45">
+        <v>16</v>
+      </c>
+      <c r="D27" s="20"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
+      <c r="V27" s="19"/>
+      <c r="W27" s="19"/>
+      <c r="X27" s="19"/>
+      <c r="Y27" s="19"/>
+      <c r="Z27" s="19"/>
+      <c r="AA27" s="19"/>
+      <c r="AB27" s="19"/>
+      <c r="AC27" s="19"/>
+      <c r="AD27" s="19"/>
+      <c r="AE27" s="19"/>
+      <c r="AF27" s="19"/>
+      <c r="AG27" s="19"/>
+      <c r="AH27" s="19"/>
+      <c r="AI27" s="19"/>
+      <c r="AJ27" s="19"/>
+      <c r="AK27" s="19"/>
+      <c r="AL27" s="19"/>
+      <c r="AM27" s="19"/>
+      <c r="AN27" s="19"/>
+      <c r="AO27" s="19"/>
+      <c r="AP27" s="19"/>
+      <c r="AQ27" s="48"/>
+      <c r="AR27" s="48"/>
+      <c r="AS27" s="48"/>
+      <c r="AT27" s="48"/>
+      <c r="AU27" s="57"/>
+      <c r="AV27" s="57"/>
+      <c r="BN27" s="50"/>
+      <c r="BO27" s="50"/>
+      <c r="BP27" s="50"/>
+      <c r="BQ27" s="50"/>
+      <c r="BR27" s="19"/>
+    </row>
+    <row r="28" spans="1:70" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A28" s="7">
+        <v>6.6</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="45">
+        <v>8</v>
+      </c>
+      <c r="D28" s="20"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="19"/>
+      <c r="V28" s="19"/>
+      <c r="W28" s="19"/>
+      <c r="X28" s="19"/>
+      <c r="Y28" s="19"/>
+      <c r="Z28" s="19"/>
+      <c r="AA28" s="19"/>
+      <c r="AB28" s="19"/>
+      <c r="AC28" s="19"/>
+      <c r="AD28" s="19"/>
+      <c r="AE28" s="19"/>
+      <c r="AF28" s="19"/>
+      <c r="AG28" s="19"/>
+      <c r="AH28" s="19"/>
+      <c r="AI28" s="19"/>
+      <c r="AJ28" s="19"/>
+      <c r="AK28" s="19"/>
+      <c r="AL28" s="19"/>
+      <c r="AM28" s="19"/>
+      <c r="AN28" s="19"/>
+      <c r="AO28" s="19"/>
+      <c r="AP28" s="19"/>
+      <c r="AQ28" s="19"/>
+      <c r="AR28" s="19"/>
+      <c r="AS28" s="19"/>
+      <c r="AT28" s="19"/>
+      <c r="AU28" s="48"/>
+      <c r="AV28" s="48"/>
+      <c r="BN28" s="19"/>
+      <c r="BO28" s="19"/>
+      <c r="BP28" s="19"/>
+      <c r="BQ28" s="19"/>
+      <c r="BR28" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -11752,306 +11964,306 @@
   <sheetData>
     <row r="1" spans="2:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="59"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="61"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B4" s="60"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="62"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="64"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B5" s="60"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="62"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="64"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B6" s="60"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="62"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="64"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B7" s="60"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="62"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="64"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B8" s="60"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="62"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="64"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B9" s="63"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="64"/>
-      <c r="M9" s="65"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="67"/>
     </row>
     <row r="10" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="66"/>
-      <c r="M10" s="66"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="68"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B11" s="57" t="s">
+      <c r="B11" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="59"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="61"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B12" s="60"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="61"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="62"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="64"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B13" s="60"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="62"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="64"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B14" s="60"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="62"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="64"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B15" s="60"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="61"/>
-      <c r="L15" s="61"/>
-      <c r="M15" s="62"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="64"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B16" s="60"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="61"/>
-      <c r="L16" s="61"/>
-      <c r="M16" s="62"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="64"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B17" s="60"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="61"/>
-      <c r="L17" s="61"/>
-      <c r="M17" s="62"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="64"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B18" s="60"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="61"/>
-      <c r="L18" s="61"/>
-      <c r="M18" s="62"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="64"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B19" s="60"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="61"/>
-      <c r="L19" s="61"/>
-      <c r="M19" s="62"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="64"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B20" s="60"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="61"/>
-      <c r="L20" s="61"/>
-      <c r="M20" s="62"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="63"/>
+      <c r="M20" s="64"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B21" s="60"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="61"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="61"/>
-      <c r="L21" s="61"/>
-      <c r="M21" s="62"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="63"/>
+      <c r="L21" s="63"/>
+      <c r="M21" s="64"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B22" s="63"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="64"/>
-      <c r="L22" s="64"/>
-      <c r="M22" s="65"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="66"/>
+      <c r="M22" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/01_doc/proj_plan/餐厅订餐系统_项目计划.xlsx
+++ b/01_doc/proj_plan/餐厅订餐系统_项目计划.xlsx
@@ -860,7 +860,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC21" authorId="0" shapeId="0">
+    <comment ref="AE21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -884,7 +884,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC22" authorId="0" shapeId="0">
+    <comment ref="AE22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -908,7 +908,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM23" authorId="0" shapeId="0">
+    <comment ref="AO23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -933,7 +933,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK24" authorId="0" shapeId="0">
+    <comment ref="AM24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -957,7 +957,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK25" authorId="0" shapeId="0">
+    <comment ref="AM25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2097,6 +2097,9 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2202,6 +2205,9 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2209,9 +2215,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2253,9 +2256,6 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3805,232 +3805,232 @@
   <sheetData>
     <row r="1" spans="2:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="59"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="64"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B4" s="62"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="64"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="67"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B5" s="62"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="64"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="67"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B6" s="62"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="64"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="67"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B7" s="62"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
-      <c r="L7" s="63"/>
-      <c r="M7" s="64"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="67"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B8" s="62"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
-      <c r="L8" s="63"/>
-      <c r="M8" s="64"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="67"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B9" s="65"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="67"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="70"/>
     </row>
     <row r="10" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="68"/>
-      <c r="M10" s="68"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="71"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B11" s="59"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="61"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="64"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B12" s="62"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="63"/>
-      <c r="M12" s="64"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="67"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B13" s="62"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="64"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="67"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B14" s="62"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="63"/>
-      <c r="M14" s="64"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="67"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B15" s="62"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="64"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="66"/>
+      <c r="M15" s="67"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B16" s="62"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="63"/>
-      <c r="M16" s="64"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="66"/>
+      <c r="M16" s="67"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B17" s="65"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="66"/>
-      <c r="M17" s="67"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="69"/>
+      <c r="M17" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4288,700 +4288,700 @@
   <sheetData>
     <row r="1" spans="2:13" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="70"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="73"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="71"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="73"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="76"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="71"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="73"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="76"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="71"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="73"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="76"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="68"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="70"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="73"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="71"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="72"/>
-      <c r="K9" s="72"/>
-      <c r="L9" s="72"/>
-      <c r="M9" s="73"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="75"/>
+      <c r="L9" s="75"/>
+      <c r="M9" s="76"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="71"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="72"/>
-      <c r="J10" s="72"/>
-      <c r="K10" s="72"/>
-      <c r="L10" s="72"/>
-      <c r="M10" s="73"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="75"/>
+      <c r="L10" s="75"/>
+      <c r="M10" s="76"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="71"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="72"/>
-      <c r="J11" s="72"/>
-      <c r="K11" s="72"/>
-      <c r="L11" s="72"/>
-      <c r="M11" s="73"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="75"/>
+      <c r="K11" s="75"/>
+      <c r="L11" s="75"/>
+      <c r="M11" s="76"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="74"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="75"/>
-      <c r="K12" s="75"/>
-      <c r="L12" s="75"/>
-      <c r="M12" s="76"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="78"/>
+      <c r="M12" s="79"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="68" t="s">
+      <c r="B13" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="68"/>
-      <c r="M13" s="68"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="71"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="77" t="s">
+      <c r="B14" s="80" t="s">
         <v>171</v>
       </c>
-      <c r="C14" s="78"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="78"/>
-      <c r="K14" s="78"/>
-      <c r="L14" s="78"/>
-      <c r="M14" s="79"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="81"/>
+      <c r="K14" s="81"/>
+      <c r="L14" s="81"/>
+      <c r="M14" s="82"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="80"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="81"/>
-      <c r="K15" s="81"/>
-      <c r="L15" s="81"/>
-      <c r="M15" s="82"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="84"/>
+      <c r="L15" s="84"/>
+      <c r="M15" s="85"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="80"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="81"/>
-      <c r="L16" s="81"/>
-      <c r="M16" s="82"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="84"/>
+      <c r="L16" s="84"/>
+      <c r="M16" s="85"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="80"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="81"/>
-      <c r="L17" s="81"/>
-      <c r="M17" s="82"/>
+      <c r="B17" s="83"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="84"/>
+      <c r="L17" s="84"/>
+      <c r="M17" s="85"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="80"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="81"/>
-      <c r="K18" s="81"/>
-      <c r="L18" s="81"/>
-      <c r="M18" s="82"/>
+      <c r="B18" s="83"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="84"/>
+      <c r="H18" s="84"/>
+      <c r="I18" s="84"/>
+      <c r="J18" s="84"/>
+      <c r="K18" s="84"/>
+      <c r="L18" s="84"/>
+      <c r="M18" s="85"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="80"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="81"/>
-      <c r="K19" s="81"/>
-      <c r="L19" s="81"/>
-      <c r="M19" s="82"/>
+      <c r="B19" s="83"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="84"/>
+      <c r="H19" s="84"/>
+      <c r="I19" s="84"/>
+      <c r="J19" s="84"/>
+      <c r="K19" s="84"/>
+      <c r="L19" s="84"/>
+      <c r="M19" s="85"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="80"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="81"/>
-      <c r="K20" s="81"/>
-      <c r="L20" s="81"/>
-      <c r="M20" s="82"/>
+      <c r="B20" s="83"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="84"/>
+      <c r="K20" s="84"/>
+      <c r="L20" s="84"/>
+      <c r="M20" s="85"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="80"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="81"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="81"/>
-      <c r="H21" s="81"/>
-      <c r="I21" s="81"/>
-      <c r="J21" s="81"/>
-      <c r="K21" s="81"/>
-      <c r="L21" s="81"/>
-      <c r="M21" s="82"/>
+      <c r="B21" s="83"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="84"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="84"/>
+      <c r="K21" s="84"/>
+      <c r="L21" s="84"/>
+      <c r="M21" s="85"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="80"/>
-      <c r="C22" s="81"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="81"/>
-      <c r="H22" s="81"/>
-      <c r="I22" s="81"/>
-      <c r="J22" s="81"/>
-      <c r="K22" s="81"/>
-      <c r="L22" s="81"/>
-      <c r="M22" s="82"/>
+      <c r="B22" s="83"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="84"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="84"/>
+      <c r="H22" s="84"/>
+      <c r="I22" s="84"/>
+      <c r="J22" s="84"/>
+      <c r="K22" s="84"/>
+      <c r="L22" s="84"/>
+      <c r="M22" s="85"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="80"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="81"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="81"/>
-      <c r="J23" s="81"/>
-      <c r="K23" s="81"/>
-      <c r="L23" s="81"/>
-      <c r="M23" s="82"/>
+      <c r="B23" s="83"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="84"/>
+      <c r="H23" s="84"/>
+      <c r="I23" s="84"/>
+      <c r="J23" s="84"/>
+      <c r="K23" s="84"/>
+      <c r="L23" s="84"/>
+      <c r="M23" s="85"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B24" s="80"/>
-      <c r="C24" s="81"/>
-      <c r="D24" s="81"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="81"/>
-      <c r="I24" s="81"/>
-      <c r="J24" s="81"/>
-      <c r="K24" s="81"/>
-      <c r="L24" s="81"/>
-      <c r="M24" s="82"/>
+      <c r="B24" s="83"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="84"/>
+      <c r="H24" s="84"/>
+      <c r="I24" s="84"/>
+      <c r="J24" s="84"/>
+      <c r="K24" s="84"/>
+      <c r="L24" s="84"/>
+      <c r="M24" s="85"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="80"/>
-      <c r="C25" s="81"/>
-      <c r="D25" s="81"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="81"/>
-      <c r="G25" s="81"/>
-      <c r="H25" s="81"/>
-      <c r="I25" s="81"/>
-      <c r="J25" s="81"/>
-      <c r="K25" s="81"/>
-      <c r="L25" s="81"/>
-      <c r="M25" s="82"/>
+      <c r="B25" s="83"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="84"/>
+      <c r="F25" s="84"/>
+      <c r="G25" s="84"/>
+      <c r="H25" s="84"/>
+      <c r="I25" s="84"/>
+      <c r="J25" s="84"/>
+      <c r="K25" s="84"/>
+      <c r="L25" s="84"/>
+      <c r="M25" s="85"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="80"/>
-      <c r="C26" s="81"/>
-      <c r="D26" s="81"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="81"/>
-      <c r="G26" s="81"/>
-      <c r="H26" s="81"/>
-      <c r="I26" s="81"/>
-      <c r="J26" s="81"/>
-      <c r="K26" s="81"/>
-      <c r="L26" s="81"/>
-      <c r="M26" s="82"/>
+      <c r="B26" s="83"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="84"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="84"/>
+      <c r="H26" s="84"/>
+      <c r="I26" s="84"/>
+      <c r="J26" s="84"/>
+      <c r="K26" s="84"/>
+      <c r="L26" s="84"/>
+      <c r="M26" s="85"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="83"/>
-      <c r="C27" s="84"/>
-      <c r="D27" s="84"/>
-      <c r="E27" s="84"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="84"/>
-      <c r="H27" s="84"/>
-      <c r="I27" s="84"/>
-      <c r="J27" s="84"/>
-      <c r="K27" s="84"/>
-      <c r="L27" s="84"/>
-      <c r="M27" s="85"/>
+      <c r="B27" s="86"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="87"/>
+      <c r="F27" s="87"/>
+      <c r="G27" s="87"/>
+      <c r="H27" s="87"/>
+      <c r="I27" s="87"/>
+      <c r="J27" s="87"/>
+      <c r="K27" s="87"/>
+      <c r="L27" s="87"/>
+      <c r="M27" s="88"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="68" t="s">
+      <c r="B28" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="68"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="68"/>
-      <c r="I28" s="68"/>
-      <c r="J28" s="68"/>
-      <c r="K28" s="68"/>
-      <c r="L28" s="68"/>
-      <c r="M28" s="68"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="71"/>
+      <c r="I28" s="71"/>
+      <c r="J28" s="71"/>
+      <c r="K28" s="71"/>
+      <c r="L28" s="71"/>
+      <c r="M28" s="71"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="59" t="s">
+      <c r="B29" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="60"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="60"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="60"/>
-      <c r="M29" s="61"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="64"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="62"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="63"/>
-      <c r="H30" s="63"/>
-      <c r="I30" s="63"/>
-      <c r="J30" s="63"/>
-      <c r="K30" s="63"/>
-      <c r="L30" s="63"/>
-      <c r="M30" s="64"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="66"/>
+      <c r="L30" s="66"/>
+      <c r="M30" s="67"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="62"/>
-      <c r="C31" s="63"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="63"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="63"/>
-      <c r="J31" s="63"/>
-      <c r="K31" s="63"/>
-      <c r="L31" s="63"/>
-      <c r="M31" s="64"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="66"/>
+      <c r="J31" s="66"/>
+      <c r="K31" s="66"/>
+      <c r="L31" s="66"/>
+      <c r="M31" s="67"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="62"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="63"/>
-      <c r="J32" s="63"/>
-      <c r="K32" s="63"/>
-      <c r="L32" s="63"/>
-      <c r="M32" s="64"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="66"/>
+      <c r="H32" s="66"/>
+      <c r="I32" s="66"/>
+      <c r="J32" s="66"/>
+      <c r="K32" s="66"/>
+      <c r="L32" s="66"/>
+      <c r="M32" s="67"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" s="62"/>
-      <c r="C33" s="63"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="63"/>
-      <c r="F33" s="63"/>
-      <c r="G33" s="63"/>
-      <c r="H33" s="63"/>
-      <c r="I33" s="63"/>
-      <c r="J33" s="63"/>
-      <c r="K33" s="63"/>
-      <c r="L33" s="63"/>
-      <c r="M33" s="64"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="66"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="66"/>
+      <c r="J33" s="66"/>
+      <c r="K33" s="66"/>
+      <c r="L33" s="66"/>
+      <c r="M33" s="67"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B34" s="62"/>
-      <c r="C34" s="63"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="63"/>
-      <c r="F34" s="63"/>
-      <c r="G34" s="63"/>
-      <c r="H34" s="63"/>
-      <c r="I34" s="63"/>
-      <c r="J34" s="63"/>
-      <c r="K34" s="63"/>
-      <c r="L34" s="63"/>
-      <c r="M34" s="64"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="66"/>
+      <c r="G34" s="66"/>
+      <c r="H34" s="66"/>
+      <c r="I34" s="66"/>
+      <c r="J34" s="66"/>
+      <c r="K34" s="66"/>
+      <c r="L34" s="66"/>
+      <c r="M34" s="67"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="65"/>
-      <c r="C35" s="66"/>
-      <c r="D35" s="66"/>
-      <c r="E35" s="66"/>
-      <c r="F35" s="66"/>
-      <c r="G35" s="66"/>
-      <c r="H35" s="66"/>
-      <c r="I35" s="66"/>
-      <c r="J35" s="66"/>
-      <c r="K35" s="66"/>
-      <c r="L35" s="66"/>
-      <c r="M35" s="67"/>
+      <c r="B35" s="68"/>
+      <c r="C35" s="69"/>
+      <c r="D35" s="69"/>
+      <c r="E35" s="69"/>
+      <c r="F35" s="69"/>
+      <c r="G35" s="69"/>
+      <c r="H35" s="69"/>
+      <c r="I35" s="69"/>
+      <c r="J35" s="69"/>
+      <c r="K35" s="69"/>
+      <c r="L35" s="69"/>
+      <c r="M35" s="70"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B36" s="68" t="s">
+      <c r="B36" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="68"/>
-      <c r="D36" s="68"/>
-      <c r="E36" s="68"/>
-      <c r="F36" s="68"/>
-      <c r="G36" s="68"/>
-      <c r="H36" s="68"/>
-      <c r="I36" s="68"/>
-      <c r="J36" s="68"/>
-      <c r="K36" s="68"/>
-      <c r="L36" s="68"/>
-      <c r="M36" s="68"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="71"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="71"/>
+      <c r="G36" s="71"/>
+      <c r="H36" s="71"/>
+      <c r="I36" s="71"/>
+      <c r="J36" s="71"/>
+      <c r="K36" s="71"/>
+      <c r="L36" s="71"/>
+      <c r="M36" s="71"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B37" s="77" t="s">
+      <c r="B37" s="80" t="s">
         <v>118</v>
       </c>
-      <c r="C37" s="86"/>
-      <c r="D37" s="86"/>
-      <c r="E37" s="86"/>
-      <c r="F37" s="86"/>
-      <c r="G37" s="86"/>
-      <c r="H37" s="86"/>
-      <c r="I37" s="86"/>
-      <c r="J37" s="86"/>
-      <c r="K37" s="86"/>
-      <c r="L37" s="86"/>
-      <c r="M37" s="87"/>
+      <c r="C37" s="89"/>
+      <c r="D37" s="89"/>
+      <c r="E37" s="89"/>
+      <c r="F37" s="89"/>
+      <c r="G37" s="89"/>
+      <c r="H37" s="89"/>
+      <c r="I37" s="89"/>
+      <c r="J37" s="89"/>
+      <c r="K37" s="89"/>
+      <c r="L37" s="89"/>
+      <c r="M37" s="90"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B38" s="88"/>
-      <c r="C38" s="89"/>
-      <c r="D38" s="89"/>
-      <c r="E38" s="89"/>
-      <c r="F38" s="89"/>
-      <c r="G38" s="89"/>
-      <c r="H38" s="89"/>
-      <c r="I38" s="89"/>
-      <c r="J38" s="89"/>
-      <c r="K38" s="89"/>
-      <c r="L38" s="89"/>
-      <c r="M38" s="90"/>
+      <c r="B38" s="91"/>
+      <c r="C38" s="92"/>
+      <c r="D38" s="92"/>
+      <c r="E38" s="92"/>
+      <c r="F38" s="92"/>
+      <c r="G38" s="92"/>
+      <c r="H38" s="92"/>
+      <c r="I38" s="92"/>
+      <c r="J38" s="92"/>
+      <c r="K38" s="92"/>
+      <c r="L38" s="92"/>
+      <c r="M38" s="93"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B39" s="88"/>
-      <c r="C39" s="89"/>
-      <c r="D39" s="89"/>
-      <c r="E39" s="89"/>
-      <c r="F39" s="89"/>
-      <c r="G39" s="89"/>
-      <c r="H39" s="89"/>
-      <c r="I39" s="89"/>
-      <c r="J39" s="89"/>
-      <c r="K39" s="89"/>
-      <c r="L39" s="89"/>
-      <c r="M39" s="90"/>
+      <c r="B39" s="91"/>
+      <c r="C39" s="92"/>
+      <c r="D39" s="92"/>
+      <c r="E39" s="92"/>
+      <c r="F39" s="92"/>
+      <c r="G39" s="92"/>
+      <c r="H39" s="92"/>
+      <c r="I39" s="92"/>
+      <c r="J39" s="92"/>
+      <c r="K39" s="92"/>
+      <c r="L39" s="92"/>
+      <c r="M39" s="93"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B40" s="88"/>
-      <c r="C40" s="89"/>
-      <c r="D40" s="89"/>
-      <c r="E40" s="89"/>
-      <c r="F40" s="89"/>
-      <c r="G40" s="89"/>
-      <c r="H40" s="89"/>
-      <c r="I40" s="89"/>
-      <c r="J40" s="89"/>
-      <c r="K40" s="89"/>
-      <c r="L40" s="89"/>
-      <c r="M40" s="90"/>
+      <c r="B40" s="91"/>
+      <c r="C40" s="92"/>
+      <c r="D40" s="92"/>
+      <c r="E40" s="92"/>
+      <c r="F40" s="92"/>
+      <c r="G40" s="92"/>
+      <c r="H40" s="92"/>
+      <c r="I40" s="92"/>
+      <c r="J40" s="92"/>
+      <c r="K40" s="92"/>
+      <c r="L40" s="92"/>
+      <c r="M40" s="93"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="91"/>
-      <c r="C41" s="92"/>
-      <c r="D41" s="92"/>
-      <c r="E41" s="92"/>
-      <c r="F41" s="92"/>
-      <c r="G41" s="92"/>
-      <c r="H41" s="92"/>
-      <c r="I41" s="92"/>
-      <c r="J41" s="92"/>
-      <c r="K41" s="92"/>
-      <c r="L41" s="92"/>
-      <c r="M41" s="93"/>
+      <c r="B41" s="94"/>
+      <c r="C41" s="95"/>
+      <c r="D41" s="95"/>
+      <c r="E41" s="95"/>
+      <c r="F41" s="95"/>
+      <c r="G41" s="95"/>
+      <c r="H41" s="95"/>
+      <c r="I41" s="95"/>
+      <c r="J41" s="95"/>
+      <c r="K41" s="95"/>
+      <c r="L41" s="95"/>
+      <c r="M41" s="96"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B42" s="68" t="s">
+      <c r="B42" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="68"/>
-      <c r="D42" s="68"/>
-      <c r="E42" s="68"/>
-      <c r="F42" s="68"/>
-      <c r="G42" s="68"/>
-      <c r="H42" s="68"/>
-      <c r="I42" s="68"/>
-      <c r="J42" s="68"/>
-      <c r="K42" s="68"/>
-      <c r="L42" s="68"/>
-      <c r="M42" s="68"/>
+      <c r="C42" s="71"/>
+      <c r="D42" s="71"/>
+      <c r="E42" s="71"/>
+      <c r="F42" s="71"/>
+      <c r="G42" s="71"/>
+      <c r="H42" s="71"/>
+      <c r="I42" s="71"/>
+      <c r="J42" s="71"/>
+      <c r="K42" s="71"/>
+      <c r="L42" s="71"/>
+      <c r="M42" s="71"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B43" s="59" t="s">
+      <c r="B43" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="C43" s="60"/>
-      <c r="D43" s="60"/>
-      <c r="E43" s="60"/>
-      <c r="F43" s="60"/>
-      <c r="G43" s="60"/>
-      <c r="H43" s="60"/>
-      <c r="I43" s="60"/>
-      <c r="J43" s="60"/>
-      <c r="K43" s="60"/>
-      <c r="L43" s="60"/>
-      <c r="M43" s="61"/>
+      <c r="C43" s="63"/>
+      <c r="D43" s="63"/>
+      <c r="E43" s="63"/>
+      <c r="F43" s="63"/>
+      <c r="G43" s="63"/>
+      <c r="H43" s="63"/>
+      <c r="I43" s="63"/>
+      <c r="J43" s="63"/>
+      <c r="K43" s="63"/>
+      <c r="L43" s="63"/>
+      <c r="M43" s="64"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B44" s="62"/>
-      <c r="C44" s="63"/>
-      <c r="D44" s="63"/>
-      <c r="E44" s="63"/>
-      <c r="F44" s="63"/>
-      <c r="G44" s="63"/>
-      <c r="H44" s="63"/>
-      <c r="I44" s="63"/>
-      <c r="J44" s="63"/>
-      <c r="K44" s="63"/>
-      <c r="L44" s="63"/>
-      <c r="M44" s="64"/>
+      <c r="B44" s="65"/>
+      <c r="C44" s="66"/>
+      <c r="D44" s="66"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="66"/>
+      <c r="H44" s="66"/>
+      <c r="I44" s="66"/>
+      <c r="J44" s="66"/>
+      <c r="K44" s="66"/>
+      <c r="L44" s="66"/>
+      <c r="M44" s="67"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B45" s="62"/>
-      <c r="C45" s="63"/>
-      <c r="D45" s="63"/>
-      <c r="E45" s="63"/>
-      <c r="F45" s="63"/>
-      <c r="G45" s="63"/>
-      <c r="H45" s="63"/>
-      <c r="I45" s="63"/>
-      <c r="J45" s="63"/>
-      <c r="K45" s="63"/>
-      <c r="L45" s="63"/>
-      <c r="M45" s="64"/>
+      <c r="B45" s="65"/>
+      <c r="C45" s="66"/>
+      <c r="D45" s="66"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="66"/>
+      <c r="G45" s="66"/>
+      <c r="H45" s="66"/>
+      <c r="I45" s="66"/>
+      <c r="J45" s="66"/>
+      <c r="K45" s="66"/>
+      <c r="L45" s="66"/>
+      <c r="M45" s="67"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="62"/>
-      <c r="C46" s="63"/>
-      <c r="D46" s="63"/>
-      <c r="E46" s="63"/>
-      <c r="F46" s="63"/>
-      <c r="G46" s="63"/>
-      <c r="H46" s="63"/>
-      <c r="I46" s="63"/>
-      <c r="J46" s="63"/>
-      <c r="K46" s="63"/>
-      <c r="L46" s="63"/>
-      <c r="M46" s="64"/>
+      <c r="B46" s="65"/>
+      <c r="C46" s="66"/>
+      <c r="D46" s="66"/>
+      <c r="E46" s="66"/>
+      <c r="F46" s="66"/>
+      <c r="G46" s="66"/>
+      <c r="H46" s="66"/>
+      <c r="I46" s="66"/>
+      <c r="J46" s="66"/>
+      <c r="K46" s="66"/>
+      <c r="L46" s="66"/>
+      <c r="M46" s="67"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B47" s="62"/>
-      <c r="C47" s="63"/>
-      <c r="D47" s="63"/>
-      <c r="E47" s="63"/>
-      <c r="F47" s="63"/>
-      <c r="G47" s="63"/>
-      <c r="H47" s="63"/>
-      <c r="I47" s="63"/>
-      <c r="J47" s="63"/>
-      <c r="K47" s="63"/>
-      <c r="L47" s="63"/>
-      <c r="M47" s="64"/>
+      <c r="B47" s="65"/>
+      <c r="C47" s="66"/>
+      <c r="D47" s="66"/>
+      <c r="E47" s="66"/>
+      <c r="F47" s="66"/>
+      <c r="G47" s="66"/>
+      <c r="H47" s="66"/>
+      <c r="I47" s="66"/>
+      <c r="J47" s="66"/>
+      <c r="K47" s="66"/>
+      <c r="L47" s="66"/>
+      <c r="M47" s="67"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B48" s="62"/>
-      <c r="C48" s="63"/>
-      <c r="D48" s="63"/>
-      <c r="E48" s="63"/>
-      <c r="F48" s="63"/>
-      <c r="G48" s="63"/>
-      <c r="H48" s="63"/>
-      <c r="I48" s="63"/>
-      <c r="J48" s="63"/>
-      <c r="K48" s="63"/>
-      <c r="L48" s="63"/>
-      <c r="M48" s="64"/>
+      <c r="B48" s="65"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="66"/>
+      <c r="E48" s="66"/>
+      <c r="F48" s="66"/>
+      <c r="G48" s="66"/>
+      <c r="H48" s="66"/>
+      <c r="I48" s="66"/>
+      <c r="J48" s="66"/>
+      <c r="K48" s="66"/>
+      <c r="L48" s="66"/>
+      <c r="M48" s="67"/>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B49" s="65"/>
-      <c r="C49" s="66"/>
-      <c r="D49" s="66"/>
-      <c r="E49" s="66"/>
-      <c r="F49" s="66"/>
-      <c r="G49" s="66"/>
-      <c r="H49" s="66"/>
-      <c r="I49" s="66"/>
-      <c r="J49" s="66"/>
-      <c r="K49" s="66"/>
-      <c r="L49" s="66"/>
-      <c r="M49" s="67"/>
+      <c r="B49" s="68"/>
+      <c r="C49" s="69"/>
+      <c r="D49" s="69"/>
+      <c r="E49" s="69"/>
+      <c r="F49" s="69"/>
+      <c r="G49" s="69"/>
+      <c r="H49" s="69"/>
+      <c r="I49" s="69"/>
+      <c r="J49" s="69"/>
+      <c r="K49" s="69"/>
+      <c r="L49" s="69"/>
+      <c r="M49" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -5030,10 +5030,10 @@
   <sheetData>
     <row r="1" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="94"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
+      <c r="A2" s="98"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
       <c r="E2" s="12" t="s">
         <v>3</v>
       </c>
@@ -5140,7 +5140,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="95">
+      <c r="A7" s="99">
         <v>2</v>
       </c>
       <c r="B7" s="97" t="s">
@@ -5166,7 +5166,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="96"/>
+      <c r="A8" s="100"/>
       <c r="B8" s="97"/>
       <c r="C8" s="7">
         <v>2.2000000000000002</v>
@@ -5188,7 +5188,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="98"/>
+      <c r="A9" s="101"/>
       <c r="B9" s="97"/>
       <c r="C9" s="7">
         <v>2.2999999999999998</v>
@@ -5437,7 +5437,7 @@
       <c r="A20" s="97">
         <v>4</v>
       </c>
-      <c r="B20" s="95" t="s">
+      <c r="B20" s="99" t="s">
         <v>50</v>
       </c>
       <c r="C20" s="7">
@@ -5461,7 +5461,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="97"/>
-      <c r="B21" s="96"/>
+      <c r="B21" s="100"/>
       <c r="C21" s="7">
         <v>4.2</v>
       </c>
@@ -5483,7 +5483,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="97"/>
-      <c r="B22" s="96"/>
+      <c r="B22" s="100"/>
       <c r="C22" s="7">
         <v>4.3</v>
       </c>
@@ -5505,7 +5505,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="97"/>
-      <c r="B23" s="96"/>
+      <c r="B23" s="100"/>
       <c r="C23" s="7">
         <v>4.4000000000000004</v>
       </c>
@@ -5527,7 +5527,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="97"/>
-      <c r="B24" s="96"/>
+      <c r="B24" s="100"/>
       <c r="C24" s="7">
         <v>4.5</v>
       </c>
@@ -5549,7 +5549,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="97"/>
-      <c r="B25" s="96"/>
+      <c r="B25" s="100"/>
       <c r="C25" s="7">
         <v>4.5999999999999996</v>
       </c>
@@ -5935,11 +5935,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="A31:A36"/>
-    <mergeCell ref="B31:B36"/>
-    <mergeCell ref="A20:A25"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="B20:B25"/>
     <mergeCell ref="B26:B30"/>
@@ -5950,6 +5945,11 @@
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="B10:B19"/>
     <mergeCell ref="A10:A19"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="A31:A36"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="A20:A25"/>
   </mergeCells>
   <conditionalFormatting sqref="E3 E4:H30">
     <cfRule type="cellIs" dxfId="159" priority="217" operator="equal">
@@ -6551,60 +6551,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="104"/>
-      <c r="B1" s="104"/>
-      <c r="C1" s="106" t="s">
+      <c r="A1" s="107"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="109" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="99" t="s">
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="102" t="s">
         <v>67</v>
       </c>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="100"/>
-      <c r="S1" s="100"/>
-      <c r="T1" s="100"/>
-      <c r="U1" s="100"/>
-      <c r="V1" s="100"/>
-      <c r="W1" s="100"/>
-      <c r="X1" s="100"/>
-      <c r="Y1" s="100"/>
-      <c r="Z1" s="100"/>
-      <c r="AA1" s="100"/>
-      <c r="AB1" s="100"/>
-      <c r="AC1" s="100"/>
-      <c r="AD1" s="100"/>
-      <c r="AE1" s="100"/>
-      <c r="AF1" s="100"/>
-      <c r="AG1" s="100"/>
-      <c r="AH1" s="100"/>
-      <c r="AI1" s="100"/>
-      <c r="AJ1" s="100"/>
-      <c r="AK1" s="100"/>
-      <c r="AL1" s="100"/>
-      <c r="AM1" s="100"/>
-      <c r="AN1" s="100"/>
-      <c r="AO1" s="100"/>
-      <c r="AP1" s="100"/>
-      <c r="AQ1" s="100"/>
-      <c r="AR1" s="100"/>
-      <c r="AS1" s="100"/>
-      <c r="AT1" s="101"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
+      <c r="U1" s="103"/>
+      <c r="V1" s="103"/>
+      <c r="W1" s="103"/>
+      <c r="X1" s="103"/>
+      <c r="Y1" s="103"/>
+      <c r="Z1" s="103"/>
+      <c r="AA1" s="103"/>
+      <c r="AB1" s="103"/>
+      <c r="AC1" s="103"/>
+      <c r="AD1" s="103"/>
+      <c r="AE1" s="103"/>
+      <c r="AF1" s="103"/>
+      <c r="AG1" s="103"/>
+      <c r="AH1" s="103"/>
+      <c r="AI1" s="103"/>
+      <c r="AJ1" s="103"/>
+      <c r="AK1" s="103"/>
+      <c r="AL1" s="103"/>
+      <c r="AM1" s="103"/>
+      <c r="AN1" s="103"/>
+      <c r="AO1" s="103"/>
+      <c r="AP1" s="103"/>
+      <c r="AQ1" s="103"/>
+      <c r="AR1" s="103"/>
+      <c r="AS1" s="103"/>
+      <c r="AT1" s="104"/>
     </row>
     <row r="2" spans="1:58" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="105"/>
-      <c r="B2" s="105"/>
+      <c r="A2" s="108"/>
+      <c r="B2" s="108"/>
       <c r="C2" s="16">
         <v>18</v>
       </c>
@@ -6757,9 +6757,9 @@
       <c r="B3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="102"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
@@ -9275,7 +9275,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Y20" sqref="Y20"/>
+      <selection pane="bottomRight" activeCell="AX27" sqref="AX27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9291,91 +9291,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:82" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="112" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="110" t="s">
+      <c r="B1" s="112"/>
+      <c r="C1" s="113" t="s">
         <v>187</v>
       </c>
-      <c r="D1" s="107" t="s">
+      <c r="D1" s="110" t="s">
         <v>172</v>
       </c>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="107"/>
-      <c r="O1" s="107"/>
-      <c r="P1" s="107"/>
-      <c r="Q1" s="107"/>
-      <c r="R1" s="107"/>
-      <c r="S1" s="107"/>
-      <c r="T1" s="107"/>
-      <c r="U1" s="107"/>
-      <c r="V1" s="107"/>
-      <c r="W1" s="107"/>
-      <c r="X1" s="107"/>
-      <c r="Y1" s="107"/>
-      <c r="Z1" s="107"/>
-      <c r="AA1" s="108" t="s">
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="110"/>
+      <c r="U1" s="110"/>
+      <c r="V1" s="110"/>
+      <c r="W1" s="110"/>
+      <c r="X1" s="110"/>
+      <c r="Y1" s="110"/>
+      <c r="Z1" s="110"/>
+      <c r="AA1" s="111" t="s">
         <v>173</v>
       </c>
-      <c r="AB1" s="108"/>
-      <c r="AC1" s="108"/>
-      <c r="AD1" s="108"/>
-      <c r="AE1" s="108"/>
-      <c r="AF1" s="108"/>
-      <c r="AG1" s="108"/>
-      <c r="AH1" s="108"/>
-      <c r="AI1" s="108"/>
-      <c r="AJ1" s="108"/>
-      <c r="AK1" s="108"/>
-      <c r="AL1" s="108"/>
-      <c r="AM1" s="108"/>
-      <c r="AN1" s="108"/>
-      <c r="AO1" s="108"/>
-      <c r="AP1" s="108"/>
-      <c r="AQ1" s="108"/>
-      <c r="AR1" s="108"/>
-      <c r="AS1" s="108"/>
-      <c r="AT1" s="108"/>
-      <c r="AU1" s="108"/>
-      <c r="AV1" s="108"/>
-      <c r="AW1" s="108"/>
-      <c r="AX1" s="108"/>
-      <c r="AY1" s="108"/>
-      <c r="AZ1" s="108"/>
-      <c r="BA1" s="108"/>
-      <c r="BB1" s="108"/>
-      <c r="BC1" s="108"/>
-      <c r="BD1" s="108"/>
-      <c r="BE1" s="108" t="s">
+      <c r="AB1" s="111"/>
+      <c r="AC1" s="111"/>
+      <c r="AD1" s="111"/>
+      <c r="AE1" s="111"/>
+      <c r="AF1" s="111"/>
+      <c r="AG1" s="111"/>
+      <c r="AH1" s="111"/>
+      <c r="AI1" s="111"/>
+      <c r="AJ1" s="111"/>
+      <c r="AK1" s="111"/>
+      <c r="AL1" s="111"/>
+      <c r="AM1" s="111"/>
+      <c r="AN1" s="111"/>
+      <c r="AO1" s="111"/>
+      <c r="AP1" s="111"/>
+      <c r="AQ1" s="111"/>
+      <c r="AR1" s="111"/>
+      <c r="AS1" s="111"/>
+      <c r="AT1" s="111"/>
+      <c r="AU1" s="111"/>
+      <c r="AV1" s="111"/>
+      <c r="AW1" s="111"/>
+      <c r="AX1" s="111"/>
+      <c r="AY1" s="111"/>
+      <c r="AZ1" s="111"/>
+      <c r="BA1" s="111"/>
+      <c r="BB1" s="111"/>
+      <c r="BC1" s="111"/>
+      <c r="BD1" s="111"/>
+      <c r="BE1" s="111" t="s">
         <v>188</v>
       </c>
-      <c r="BF1" s="108"/>
-      <c r="BG1" s="108"/>
-      <c r="BH1" s="108"/>
-      <c r="BI1" s="108"/>
-      <c r="BJ1" s="108"/>
-      <c r="BK1" s="108"/>
-      <c r="BL1" s="108"/>
-      <c r="BM1" s="108"/>
-      <c r="BN1" s="108"/>
-      <c r="BO1" s="108"/>
-      <c r="BP1" s="108"/>
-      <c r="BQ1" s="108"/>
-      <c r="BR1" s="108"/>
+      <c r="BF1" s="111"/>
+      <c r="BG1" s="111"/>
+      <c r="BH1" s="111"/>
+      <c r="BI1" s="111"/>
+      <c r="BJ1" s="111"/>
+      <c r="BK1" s="111"/>
+      <c r="BL1" s="111"/>
+      <c r="BM1" s="111"/>
+      <c r="BN1" s="111"/>
+      <c r="BO1" s="111"/>
+      <c r="BP1" s="111"/>
+      <c r="BQ1" s="111"/>
+      <c r="BR1" s="111"/>
     </row>
     <row r="2" spans="1:82" s="55" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="110"/>
+      <c r="A2" s="112"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="113"/>
       <c r="D2" s="51">
         <v>41707</v>
       </c>
@@ -9887,16 +9887,16 @@
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
       <c r="J6" s="19"/>
-      <c r="K6" s="111"/>
-      <c r="L6" s="111"/>
-      <c r="M6" s="111"/>
-      <c r="N6" s="111"/>
-      <c r="O6" s="111"/>
-      <c r="P6" s="111"/>
-      <c r="Q6" s="111"/>
-      <c r="R6" s="112"/>
-      <c r="S6" s="112"/>
-      <c r="T6" s="112"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="59"/>
+      <c r="R6" s="60"/>
+      <c r="S6" s="60"/>
+      <c r="T6" s="60"/>
       <c r="U6" s="19"/>
       <c r="V6" s="19"/>
       <c r="W6" s="19"/>
@@ -9993,7 +9993,7 @@
       <c r="BP7" s="19"/>
       <c r="BQ7" s="19"/>
       <c r="BR7" s="19"/>
-      <c r="BS7" s="113"/>
+      <c r="BS7" s="61"/>
       <c r="BT7" s="57"/>
     </row>
     <row r="8" spans="1:82" ht="15.75" x14ac:dyDescent="0.15">
@@ -10623,9 +10623,9 @@
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
       <c r="J18" s="19"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
       <c r="N18" s="19"/>
       <c r="O18" s="19"/>
       <c r="P18" s="19"/>
@@ -10701,9 +10701,9 @@
       <c r="Y19" s="48"/>
       <c r="Z19" s="48"/>
       <c r="AA19" s="48"/>
-      <c r="AB19" s="47"/>
-      <c r="AC19" s="19"/>
-      <c r="AD19" s="19"/>
+      <c r="AB19" s="59"/>
+      <c r="AC19" s="59"/>
+      <c r="AD19" s="47"/>
       <c r="AE19" s="19"/>
       <c r="AF19" s="19"/>
       <c r="AG19" s="19"/>
@@ -10722,6 +10722,8 @@
       <c r="AT19" s="19"/>
       <c r="AU19" s="19"/>
       <c r="AV19" s="19"/>
+      <c r="AW19" s="19"/>
+      <c r="AX19" s="19"/>
       <c r="BN19" s="19"/>
       <c r="BO19" s="19"/>
       <c r="BP19" s="19"/>
@@ -10760,9 +10762,9 @@
       <c r="Y20" s="27"/>
       <c r="Z20" s="19"/>
       <c r="AA20" s="19"/>
-      <c r="AB20" s="47"/>
+      <c r="AB20" s="19"/>
       <c r="AC20" s="19"/>
-      <c r="AD20" s="19"/>
+      <c r="AD20" s="47"/>
       <c r="AE20" s="19"/>
       <c r="AF20" s="19"/>
       <c r="AG20" s="19"/>
@@ -10781,6 +10783,8 @@
       <c r="AT20" s="19"/>
       <c r="AU20" s="19"/>
       <c r="AV20" s="19"/>
+      <c r="AW20" s="19"/>
+      <c r="AX20" s="19"/>
       <c r="BN20" s="19"/>
       <c r="BO20" s="19"/>
       <c r="BP20" s="19"/>
@@ -10821,10 +10825,10 @@
       <c r="Y21" s="19"/>
       <c r="Z21" s="19"/>
       <c r="AA21" s="19"/>
-      <c r="AB21" s="48"/>
-      <c r="AC21" s="48"/>
-      <c r="AD21" s="19"/>
-      <c r="AE21" s="19"/>
+      <c r="AB21" s="19"/>
+      <c r="AC21" s="19"/>
+      <c r="AD21" s="48"/>
+      <c r="AE21" s="48"/>
       <c r="AF21" s="19"/>
       <c r="AG21" s="19"/>
       <c r="AH21" s="19"/>
@@ -10842,6 +10846,8 @@
       <c r="AT21" s="19"/>
       <c r="AU21" s="19"/>
       <c r="AV21" s="19"/>
+      <c r="AW21" s="19"/>
+      <c r="AX21" s="19"/>
       <c r="BN21" s="19"/>
       <c r="BO21" s="19"/>
       <c r="BP21" s="19"/>
@@ -10882,10 +10888,10 @@
       <c r="Y22" s="19"/>
       <c r="Z22" s="19"/>
       <c r="AA22" s="19"/>
-      <c r="AB22" s="48"/>
-      <c r="AC22" s="48"/>
-      <c r="AD22" s="19"/>
-      <c r="AE22" s="19"/>
+      <c r="AB22" s="19"/>
+      <c r="AC22" s="19"/>
+      <c r="AD22" s="48"/>
+      <c r="AE22" s="48"/>
       <c r="AF22" s="19"/>
       <c r="AG22" s="19"/>
       <c r="AH22" s="19"/>
@@ -10903,6 +10909,8 @@
       <c r="AT22" s="19"/>
       <c r="AU22" s="19"/>
       <c r="AV22" s="19"/>
+      <c r="AW22" s="19"/>
+      <c r="AX22" s="19"/>
       <c r="BN22" s="19"/>
       <c r="BO22" s="19"/>
       <c r="BP22" s="19"/>
@@ -10945,8 +10953,8 @@
       <c r="AA23" s="19"/>
       <c r="AB23" s="19"/>
       <c r="AC23" s="19"/>
-      <c r="AD23" s="48"/>
-      <c r="AE23" s="48"/>
+      <c r="AD23" s="19"/>
+      <c r="AE23" s="19"/>
       <c r="AF23" s="48"/>
       <c r="AG23" s="48"/>
       <c r="AH23" s="48"/>
@@ -10955,8 +10963,8 @@
       <c r="AK23" s="48"/>
       <c r="AL23" s="48"/>
       <c r="AM23" s="48"/>
-      <c r="AN23" s="19"/>
-      <c r="AO23" s="19"/>
+      <c r="AN23" s="48"/>
+      <c r="AO23" s="48"/>
       <c r="AP23" s="19"/>
       <c r="AQ23" s="19"/>
       <c r="AR23" s="19"/>
@@ -10964,6 +10972,8 @@
       <c r="AT23" s="19"/>
       <c r="AU23" s="19"/>
       <c r="AV23" s="19"/>
+      <c r="AW23" s="19"/>
+      <c r="AX23" s="19"/>
       <c r="BN23" s="19"/>
       <c r="BO23" s="19"/>
       <c r="BP23" s="19"/>
@@ -11012,10 +11022,10 @@
       <c r="AG24" s="19"/>
       <c r="AH24" s="19"/>
       <c r="AI24" s="19"/>
-      <c r="AJ24" s="48"/>
-      <c r="AK24" s="48"/>
-      <c r="AL24" s="19"/>
-      <c r="AM24" s="19"/>
+      <c r="AJ24" s="19"/>
+      <c r="AK24" s="19"/>
+      <c r="AL24" s="48"/>
+      <c r="AM24" s="48"/>
       <c r="AN24" s="19"/>
       <c r="AO24" s="19"/>
       <c r="AP24" s="19"/>
@@ -11025,6 +11035,8 @@
       <c r="AT24" s="19"/>
       <c r="AU24" s="19"/>
       <c r="AV24" s="19"/>
+      <c r="AW24" s="19"/>
+      <c r="AX24" s="19"/>
       <c r="BN24" s="19"/>
       <c r="BO24" s="19"/>
       <c r="BP24" s="19"/>
@@ -11065,18 +11077,18 @@
       <c r="Y25" s="18"/>
       <c r="Z25" s="18"/>
       <c r="AA25" s="18"/>
-      <c r="AB25" s="18"/>
-      <c r="AC25" s="18"/>
+      <c r="AB25" s="19"/>
+      <c r="AC25" s="19"/>
       <c r="AD25" s="18"/>
       <c r="AE25" s="18"/>
       <c r="AF25" s="18"/>
       <c r="AG25" s="18"/>
       <c r="AH25" s="18"/>
       <c r="AI25" s="18"/>
-      <c r="AJ25" s="48"/>
-      <c r="AK25" s="48"/>
-      <c r="AL25" s="18"/>
-      <c r="AM25" s="18"/>
+      <c r="AJ25" s="18"/>
+      <c r="AK25" s="18"/>
+      <c r="AL25" s="48"/>
+      <c r="AM25" s="48"/>
       <c r="AN25" s="18"/>
       <c r="AO25" s="18"/>
       <c r="AP25" s="18"/>
@@ -11086,6 +11098,8 @@
       <c r="AT25" s="18"/>
       <c r="AU25" s="18"/>
       <c r="AV25" s="18"/>
+      <c r="AW25" s="18"/>
+      <c r="AX25" s="18"/>
       <c r="BN25" s="18"/>
       <c r="BO25" s="18"/>
       <c r="BP25" s="18"/>
@@ -11136,17 +11150,19 @@
       <c r="AI26" s="19"/>
       <c r="AJ26" s="19"/>
       <c r="AK26" s="19"/>
-      <c r="AL26" s="48"/>
-      <c r="AM26" s="48"/>
+      <c r="AL26" s="19"/>
+      <c r="AM26" s="19"/>
       <c r="AN26" s="48"/>
       <c r="AO26" s="48"/>
       <c r="AP26" s="48"/>
-      <c r="AQ26" s="57"/>
-      <c r="AR26" s="57"/>
-      <c r="AS26" s="19"/>
-      <c r="AT26" s="19"/>
+      <c r="AQ26" s="48"/>
+      <c r="AR26" s="48"/>
+      <c r="AS26" s="57"/>
+      <c r="AT26" s="57"/>
       <c r="AU26" s="19"/>
       <c r="AV26" s="19"/>
+      <c r="AW26" s="19"/>
+      <c r="AX26" s="19"/>
       <c r="BN26" s="19"/>
       <c r="BO26" s="19"/>
       <c r="BP26" s="19"/>
@@ -11202,12 +11218,14 @@
       <c r="AN27" s="19"/>
       <c r="AO27" s="19"/>
       <c r="AP27" s="19"/>
-      <c r="AQ27" s="48"/>
-      <c r="AR27" s="48"/>
+      <c r="AQ27" s="19"/>
+      <c r="AR27" s="19"/>
       <c r="AS27" s="48"/>
       <c r="AT27" s="48"/>
-      <c r="AU27" s="57"/>
-      <c r="AV27" s="57"/>
+      <c r="AU27" s="48"/>
+      <c r="AV27" s="48"/>
+      <c r="AW27" s="57"/>
+      <c r="AX27" s="57"/>
       <c r="BN27" s="50"/>
       <c r="BO27" s="50"/>
       <c r="BP27" s="50"/>
@@ -11267,8 +11285,10 @@
       <c r="AR28" s="19"/>
       <c r="AS28" s="19"/>
       <c r="AT28" s="19"/>
-      <c r="AU28" s="48"/>
-      <c r="AV28" s="48"/>
+      <c r="AU28" s="19"/>
+      <c r="AV28" s="19"/>
+      <c r="AW28" s="48"/>
+      <c r="AX28" s="48"/>
       <c r="BN28" s="19"/>
       <c r="BO28" s="19"/>
       <c r="BP28" s="19"/>
@@ -11964,306 +11984,306 @@
   <sheetData>
     <row r="1" spans="2:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="61"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="64"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B4" s="62"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="64"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="67"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B5" s="62"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="64"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="67"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B6" s="62"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="64"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="67"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B7" s="62"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
-      <c r="L7" s="63"/>
-      <c r="M7" s="64"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="67"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B8" s="62"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
-      <c r="L8" s="63"/>
-      <c r="M8" s="64"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="67"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B9" s="65"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="67"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="70"/>
     </row>
     <row r="10" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="71" t="s">
         <v>94</v>
       </c>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="68"/>
-      <c r="M10" s="68"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="71"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="62" t="s">
         <v>139</v>
       </c>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="61"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="64"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B12" s="62"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="63"/>
-      <c r="M12" s="64"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="67"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B13" s="62"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="64"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="67"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B14" s="62"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="63"/>
-      <c r="M14" s="64"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="67"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B15" s="62"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="64"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="66"/>
+      <c r="M15" s="67"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B16" s="62"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="63"/>
-      <c r="M16" s="64"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="66"/>
+      <c r="M16" s="67"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B17" s="62"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="64"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="67"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B18" s="62"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="63"/>
-      <c r="M18" s="64"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="67"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B19" s="62"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="64"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="66"/>
+      <c r="M19" s="67"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B20" s="62"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="63"/>
-      <c r="L20" s="63"/>
-      <c r="M20" s="64"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="66"/>
+      <c r="M20" s="67"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B21" s="62"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="63"/>
-      <c r="K21" s="63"/>
-      <c r="L21" s="63"/>
-      <c r="M21" s="64"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="66"/>
+      <c r="M21" s="67"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B22" s="65"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="66"/>
-      <c r="L22" s="66"/>
-      <c r="M22" s="67"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="69"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="69"/>
+      <c r="M22" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="4">
